--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,9 @@
     <t>['30', '51']</t>
   </si>
   <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
   </si>
   <si>
     <t>['64', '90+4']</t>
+  </si>
+  <si>
+    <t>['16']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1251,7 +1257,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1663,7 +1669,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1741,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2075,7 +2081,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2487,7 +2493,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2899,7 +2905,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3311,7 +3317,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4135,7 +4141,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4753,7 +4759,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5037,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>0.33</v>
@@ -5165,7 +5171,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5371,7 +5377,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5577,7 +5583,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6607,7 +6613,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6813,7 +6819,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7019,7 +7025,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7225,7 +7231,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7431,7 +7437,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7843,7 +7849,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8255,7 +8261,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8560,13 +8566,13 @@
         <v>4</v>
       </c>
       <c r="AW38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX38">
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
         <v>8</v>
@@ -8766,13 +8772,13 @@
         <v>9</v>
       </c>
       <c r="AW39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX39">
         <v>5</v>
       </c>
       <c r="AY39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ39">
         <v>14</v>
@@ -8824,6 +8830,212 @@
       </c>
       <c r="BP39">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7296565</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45411.58333333334</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q40">
+        <v>3.75</v>
+      </c>
+      <c r="R40">
+        <v>2.2</v>
+      </c>
+      <c r="S40">
+        <v>2.88</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40">
+        <v>2.75</v>
+      </c>
+      <c r="V40">
+        <v>2.75</v>
+      </c>
+      <c r="W40">
+        <v>1.4</v>
+      </c>
+      <c r="X40">
+        <v>8</v>
+      </c>
+      <c r="Y40">
+        <v>1.08</v>
+      </c>
+      <c r="Z40">
+        <v>3.78</v>
+      </c>
+      <c r="AA40">
+        <v>3.73</v>
+      </c>
+      <c r="AB40">
+        <v>1.74</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE40">
+        <v>1.26</v>
+      </c>
+      <c r="AF40">
+        <v>3.34</v>
+      </c>
+      <c r="AG40">
+        <v>1.85</v>
+      </c>
+      <c r="AH40">
+        <v>1.88</v>
+      </c>
+      <c r="AI40">
+        <v>1.75</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>1.62</v>
+      </c>
+      <c r="AL40">
+        <v>1.29</v>
+      </c>
+      <c r="AM40">
+        <v>1.35</v>
+      </c>
+      <c r="AN40">
+        <v>1.5</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <v>1.7</v>
+      </c>
+      <c r="AS40">
+        <v>1.53</v>
+      </c>
+      <c r="AT40">
+        <v>3.23</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>2</v>
+      </c>
+      <c r="AX40">
+        <v>3</v>
+      </c>
+      <c r="AY40">
+        <v>6</v>
+      </c>
+      <c r="AZ40">
+        <v>3</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>2.39</v>
+      </c>
+      <c r="BE40">
+        <v>8.5</v>
+      </c>
+      <c r="BF40">
+        <v>1.82</v>
+      </c>
+      <c r="BG40">
+        <v>1.17</v>
+      </c>
+      <c r="BH40">
+        <v>4.4</v>
+      </c>
+      <c r="BI40">
+        <v>1.34</v>
+      </c>
+      <c r="BJ40">
+        <v>2.9</v>
+      </c>
+      <c r="BK40">
+        <v>1.57</v>
+      </c>
+      <c r="BL40">
+        <v>2.23</v>
+      </c>
+      <c r="BM40">
+        <v>1.92</v>
+      </c>
+      <c r="BN40">
+        <v>1.77</v>
+      </c>
+      <c r="BO40">
+        <v>2.4</v>
+      </c>
+      <c r="BP40">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -792,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1750,7 +1750,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.38</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -9036,6 +9036,212 @@
       </c>
       <c r="BP40">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7296564</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45412.58333333334</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q41">
+        <v>3.1</v>
+      </c>
+      <c r="R41">
+        <v>2.2</v>
+      </c>
+      <c r="S41">
+        <v>3.4</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>2.63</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
+        <v>2.7</v>
+      </c>
+      <c r="AA41">
+        <v>3.1</v>
+      </c>
+      <c r="AB41">
+        <v>2.3</v>
+      </c>
+      <c r="AC41">
+        <v>1.04</v>
+      </c>
+      <c r="AD41">
+        <v>12</v>
+      </c>
+      <c r="AE41">
+        <v>1.28</v>
+      </c>
+      <c r="AF41">
+        <v>3.6</v>
+      </c>
+      <c r="AG41">
+        <v>1.95</v>
+      </c>
+      <c r="AH41">
+        <v>1.7</v>
+      </c>
+      <c r="AI41">
+        <v>1.67</v>
+      </c>
+      <c r="AJ41">
+        <v>2.1</v>
+      </c>
+      <c r="AK41">
+        <v>1.47</v>
+      </c>
+      <c r="AL41">
+        <v>1.25</v>
+      </c>
+      <c r="AM41">
+        <v>1.53</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>1.5</v>
+      </c>
+      <c r="AP41">
+        <v>1.67</v>
+      </c>
+      <c r="AQ41">
+        <v>1.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.02</v>
+      </c>
+      <c r="AS41">
+        <v>1.25</v>
+      </c>
+      <c r="AT41">
+        <v>2.27</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>8</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>11</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>7</v>
+      </c>
+      <c r="BC41">
+        <v>7</v>
+      </c>
+      <c r="BD41">
+        <v>1.91</v>
+      </c>
+      <c r="BE41">
+        <v>8.5</v>
+      </c>
+      <c r="BF41">
+        <v>2.2</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>1.27</v>
+      </c>
+      <c r="BJ41">
+        <v>3.55</v>
+      </c>
+      <c r="BK41">
+        <v>1.48</v>
+      </c>
+      <c r="BL41">
+        <v>2.55</v>
+      </c>
+      <c r="BM41">
+        <v>1.82</v>
+      </c>
+      <c r="BN41">
+        <v>1.92</v>
+      </c>
+      <c r="BO41">
+        <v>2.35</v>
+      </c>
+      <c r="BP41">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -8972,22 +8972,22 @@
         <v>3.23</v>
       </c>
       <c r="AU40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX40">
         <v>3</v>
       </c>
       <c r="AY40">
+        <v>13</v>
+      </c>
+      <c r="AZ40">
         <v>6</v>
-      </c>
-      <c r="AZ40">
-        <v>3</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -9181,28 +9181,28 @@
         <v>0</v>
       </c>
       <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>11</v>
+      </c>
+      <c r="AY41">
+        <v>5</v>
+      </c>
+      <c r="AZ41">
+        <v>16</v>
+      </c>
+      <c r="BA41">
         <v>3</v>
       </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>8</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41">
-        <v>11</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
       <c r="BB41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC41">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD41">
         <v>1.91</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,15 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['18', '54', '56', '82']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -431,6 +440,9 @@
   </si>
   <si>
     <t>['16']</t>
+  </si>
+  <si>
+    <t>['4', '49', '78']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1257,7 +1269,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1669,7 +1681,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1956,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2081,7 +2093,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2493,7 +2505,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2571,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2905,7 +2917,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3189,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3317,7 +3329,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3395,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3601,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3810,7 +3822,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4013,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4141,7 +4153,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4222,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4428,7 +4440,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -4759,7 +4771,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5171,7 +5183,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5377,7 +5389,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5458,7 +5470,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -5583,7 +5595,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5867,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6279,7 +6291,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6485,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6613,7 +6625,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6819,7 +6831,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -6897,10 +6909,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7025,7 +7037,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7106,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7231,7 +7243,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7437,7 +7449,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7515,7 +7527,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7849,7 +7861,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8261,7 +8273,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8754,7 +8766,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -8879,7 +8891,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9242,6 +9254,1036 @@
       </c>
       <c r="BP41">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7296571</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45416.33333333334</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q42">
+        <v>3.6</v>
+      </c>
+      <c r="R42">
+        <v>2.1</v>
+      </c>
+      <c r="S42">
+        <v>3.1</v>
+      </c>
+      <c r="T42">
+        <v>1.44</v>
+      </c>
+      <c r="U42">
+        <v>2.63</v>
+      </c>
+      <c r="V42">
+        <v>3.25</v>
+      </c>
+      <c r="W42">
+        <v>1.33</v>
+      </c>
+      <c r="X42">
+        <v>9</v>
+      </c>
+      <c r="Y42">
+        <v>1.07</v>
+      </c>
+      <c r="Z42">
+        <v>2.8</v>
+      </c>
+      <c r="AA42">
+        <v>3.2</v>
+      </c>
+      <c r="AB42">
+        <v>2.25</v>
+      </c>
+      <c r="AC42">
+        <v>1.06</v>
+      </c>
+      <c r="AD42">
+        <v>10</v>
+      </c>
+      <c r="AE42">
+        <v>1.35</v>
+      </c>
+      <c r="AF42">
+        <v>3.2</v>
+      </c>
+      <c r="AG42">
+        <v>2</v>
+      </c>
+      <c r="AH42">
+        <v>1.73</v>
+      </c>
+      <c r="AI42">
+        <v>1.8</v>
+      </c>
+      <c r="AJ42">
+        <v>1.95</v>
+      </c>
+      <c r="AK42">
+        <v>1.6</v>
+      </c>
+      <c r="AL42">
+        <v>1.25</v>
+      </c>
+      <c r="AM42">
+        <v>1.4</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>1.33</v>
+      </c>
+      <c r="AP42">
+        <v>2</v>
+      </c>
+      <c r="AQ42">
+        <v>1.75</v>
+      </c>
+      <c r="AR42">
+        <v>1.56</v>
+      </c>
+      <c r="AS42">
+        <v>1.63</v>
+      </c>
+      <c r="AT42">
+        <v>3.19</v>
+      </c>
+      <c r="AU42">
+        <v>4</v>
+      </c>
+      <c r="AV42">
+        <v>4</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>4</v>
+      </c>
+      <c r="AY42">
+        <v>9</v>
+      </c>
+      <c r="AZ42">
+        <v>8</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>6</v>
+      </c>
+      <c r="BC42">
+        <v>11</v>
+      </c>
+      <c r="BD42">
+        <v>2</v>
+      </c>
+      <c r="BE42">
+        <v>8</v>
+      </c>
+      <c r="BF42">
+        <v>2</v>
+      </c>
+      <c r="BG42">
+        <v>1.21</v>
+      </c>
+      <c r="BH42">
+        <v>3.9</v>
+      </c>
+      <c r="BI42">
+        <v>1.33</v>
+      </c>
+      <c r="BJ42">
+        <v>2.93</v>
+      </c>
+      <c r="BK42">
+        <v>1.58</v>
+      </c>
+      <c r="BL42">
+        <v>2.17</v>
+      </c>
+      <c r="BM42">
+        <v>1.99</v>
+      </c>
+      <c r="BN42">
+        <v>1.73</v>
+      </c>
+      <c r="BO42">
+        <v>2.57</v>
+      </c>
+      <c r="BP42">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7296572</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45416.33333333334</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>120</v>
+      </c>
+      <c r="P43" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q43">
+        <v>3.1</v>
+      </c>
+      <c r="R43">
+        <v>2.1</v>
+      </c>
+      <c r="S43">
+        <v>3.5</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
+        <v>3</v>
+      </c>
+      <c r="W43">
+        <v>1.36</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
+        <v>2.3</v>
+      </c>
+      <c r="AA43">
+        <v>3.2</v>
+      </c>
+      <c r="AB43">
+        <v>2.62</v>
+      </c>
+      <c r="AC43">
+        <v>1.02</v>
+      </c>
+      <c r="AD43">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE43">
+        <v>1.28</v>
+      </c>
+      <c r="AF43">
+        <v>3.3</v>
+      </c>
+      <c r="AG43">
+        <v>1.95</v>
+      </c>
+      <c r="AH43">
+        <v>1.75</v>
+      </c>
+      <c r="AI43">
+        <v>1.8</v>
+      </c>
+      <c r="AJ43">
+        <v>1.95</v>
+      </c>
+      <c r="AK43">
+        <v>1.42</v>
+      </c>
+      <c r="AL43">
+        <v>1.3</v>
+      </c>
+      <c r="AM43">
+        <v>1.52</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>2.33</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>1.84</v>
+      </c>
+      <c r="AS43">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT43">
+        <v>2.78</v>
+      </c>
+      <c r="AU43">
+        <v>6</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>10</v>
+      </c>
+      <c r="AX43">
+        <v>2</v>
+      </c>
+      <c r="AY43">
+        <v>16</v>
+      </c>
+      <c r="AZ43">
+        <v>4</v>
+      </c>
+      <c r="BA43">
+        <v>8</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>8</v>
+      </c>
+      <c r="BD43">
+        <v>1.69</v>
+      </c>
+      <c r="BE43">
+        <v>8.5</v>
+      </c>
+      <c r="BF43">
+        <v>2.53</v>
+      </c>
+      <c r="BG43">
+        <v>1.17</v>
+      </c>
+      <c r="BH43">
+        <v>4.35</v>
+      </c>
+      <c r="BI43">
+        <v>1.28</v>
+      </c>
+      <c r="BJ43">
+        <v>3.2</v>
+      </c>
+      <c r="BK43">
+        <v>1.51</v>
+      </c>
+      <c r="BL43">
+        <v>2.32</v>
+      </c>
+      <c r="BM43">
+        <v>1.92</v>
+      </c>
+      <c r="BN43">
+        <v>1.88</v>
+      </c>
+      <c r="BO43">
+        <v>2.38</v>
+      </c>
+      <c r="BP43">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7296573</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q44">
+        <v>2.75</v>
+      </c>
+      <c r="R44">
+        <v>2.1</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44">
+        <v>2.75</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>1.36</v>
+      </c>
+      <c r="X44">
+        <v>8</v>
+      </c>
+      <c r="Y44">
+        <v>1.08</v>
+      </c>
+      <c r="Z44">
+        <v>1.98</v>
+      </c>
+      <c r="AA44">
+        <v>3.3</v>
+      </c>
+      <c r="AB44">
+        <v>3.4</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>8.6</v>
+      </c>
+      <c r="AE44">
+        <v>1.29</v>
+      </c>
+      <c r="AF44">
+        <v>3.14</v>
+      </c>
+      <c r="AG44">
+        <v>2.03</v>
+      </c>
+      <c r="AH44">
+        <v>1.83</v>
+      </c>
+      <c r="AI44">
+        <v>1.8</v>
+      </c>
+      <c r="AJ44">
+        <v>1.95</v>
+      </c>
+      <c r="AK44">
+        <v>1.3</v>
+      </c>
+      <c r="AL44">
+        <v>1.25</v>
+      </c>
+      <c r="AM44">
+        <v>1.78</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>1.67</v>
+      </c>
+      <c r="AR44">
+        <v>1.82</v>
+      </c>
+      <c r="AS44">
+        <v>1.58</v>
+      </c>
+      <c r="AT44">
+        <v>3.4</v>
+      </c>
+      <c r="AU44">
+        <v>8</v>
+      </c>
+      <c r="AV44">
+        <v>10</v>
+      </c>
+      <c r="AW44">
+        <v>7</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>15</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>11</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+      <c r="BC44">
+        <v>12</v>
+      </c>
+      <c r="BD44">
+        <v>1.75</v>
+      </c>
+      <c r="BE44">
+        <v>8.5</v>
+      </c>
+      <c r="BF44">
+        <v>2.43</v>
+      </c>
+      <c r="BG44">
+        <v>1.19</v>
+      </c>
+      <c r="BH44">
+        <v>4.1</v>
+      </c>
+      <c r="BI44">
+        <v>1.31</v>
+      </c>
+      <c r="BJ44">
+        <v>3.04</v>
+      </c>
+      <c r="BK44">
+        <v>1.56</v>
+      </c>
+      <c r="BL44">
+        <v>2.21</v>
+      </c>
+      <c r="BM44">
+        <v>2</v>
+      </c>
+      <c r="BN44">
+        <v>1.8</v>
+      </c>
+      <c r="BO44">
+        <v>2.51</v>
+      </c>
+      <c r="BP44">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7296569</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q45">
+        <v>1.79</v>
+      </c>
+      <c r="R45">
+        <v>2.5</v>
+      </c>
+      <c r="S45">
+        <v>6.8</v>
+      </c>
+      <c r="T45">
+        <v>1.3</v>
+      </c>
+      <c r="U45">
+        <v>3.34</v>
+      </c>
+      <c r="V45">
+        <v>2.41</v>
+      </c>
+      <c r="W45">
+        <v>1.53</v>
+      </c>
+      <c r="X45">
+        <v>5.55</v>
+      </c>
+      <c r="Y45">
+        <v>1.12</v>
+      </c>
+      <c r="Z45">
+        <v>1.33</v>
+      </c>
+      <c r="AA45">
+        <v>4.6</v>
+      </c>
+      <c r="AB45">
+        <v>7.5</v>
+      </c>
+      <c r="AC45">
+        <v>1.04</v>
+      </c>
+      <c r="AD45">
+        <v>15.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.17</v>
+      </c>
+      <c r="AF45">
+        <v>4.2</v>
+      </c>
+      <c r="AG45">
+        <v>1.64</v>
+      </c>
+      <c r="AH45">
+        <v>2.1</v>
+      </c>
+      <c r="AI45">
+        <v>1.89</v>
+      </c>
+      <c r="AJ45">
+        <v>1.81</v>
+      </c>
+      <c r="AK45">
+        <v>1.06</v>
+      </c>
+      <c r="AL45">
+        <v>1.15</v>
+      </c>
+      <c r="AM45">
+        <v>3.05</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>0.5</v>
+      </c>
+      <c r="AP45">
+        <v>1.67</v>
+      </c>
+      <c r="AQ45">
+        <v>0.67</v>
+      </c>
+      <c r="AR45">
+        <v>1.91</v>
+      </c>
+      <c r="AS45">
+        <v>1.19</v>
+      </c>
+      <c r="AT45">
+        <v>3.1</v>
+      </c>
+      <c r="AU45">
+        <v>14</v>
+      </c>
+      <c r="AV45">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>7</v>
+      </c>
+      <c r="AX45">
+        <v>4</v>
+      </c>
+      <c r="AY45">
+        <v>21</v>
+      </c>
+      <c r="AZ45">
+        <v>7</v>
+      </c>
+      <c r="BA45">
+        <v>9</v>
+      </c>
+      <c r="BB45">
+        <v>1</v>
+      </c>
+      <c r="BC45">
+        <v>10</v>
+      </c>
+      <c r="BD45">
+        <v>1.26</v>
+      </c>
+      <c r="BE45">
+        <v>10</v>
+      </c>
+      <c r="BF45">
+        <v>4.64</v>
+      </c>
+      <c r="BG45">
+        <v>1.21</v>
+      </c>
+      <c r="BH45">
+        <v>3.9</v>
+      </c>
+      <c r="BI45">
+        <v>1.35</v>
+      </c>
+      <c r="BJ45">
+        <v>2.84</v>
+      </c>
+      <c r="BK45">
+        <v>1.61</v>
+      </c>
+      <c r="BL45">
+        <v>2.12</v>
+      </c>
+      <c r="BM45">
+        <v>2.03</v>
+      </c>
+      <c r="BN45">
+        <v>1.7</v>
+      </c>
+      <c r="BO45">
+        <v>2.64</v>
+      </c>
+      <c r="BP45">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7296568</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>122</v>
+      </c>
+      <c r="P46" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q46">
+        <v>1.95</v>
+      </c>
+      <c r="R46">
+        <v>2.38</v>
+      </c>
+      <c r="S46">
+        <v>7</v>
+      </c>
+      <c r="T46">
+        <v>1.36</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>2.75</v>
+      </c>
+      <c r="W46">
+        <v>1.4</v>
+      </c>
+      <c r="X46">
+        <v>7</v>
+      </c>
+      <c r="Y46">
+        <v>1.1</v>
+      </c>
+      <c r="Z46">
+        <v>1.4</v>
+      </c>
+      <c r="AA46">
+        <v>4.25</v>
+      </c>
+      <c r="AB46">
+        <v>6.5</v>
+      </c>
+      <c r="AC46">
+        <v>1.03</v>
+      </c>
+      <c r="AD46">
+        <v>12</v>
+      </c>
+      <c r="AE46">
+        <v>1.25</v>
+      </c>
+      <c r="AF46">
+        <v>3.75</v>
+      </c>
+      <c r="AG46">
+        <v>1.98</v>
+      </c>
+      <c r="AH46">
+        <v>1.88</v>
+      </c>
+      <c r="AI46">
+        <v>2.05</v>
+      </c>
+      <c r="AJ46">
+        <v>1.7</v>
+      </c>
+      <c r="AK46">
+        <v>1.08</v>
+      </c>
+      <c r="AL46">
+        <v>1.14</v>
+      </c>
+      <c r="AM46">
+        <v>2.85</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
+        <v>2.33</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.15</v>
+      </c>
+      <c r="AS46">
+        <v>0.89</v>
+      </c>
+      <c r="AT46">
+        <v>2.04</v>
+      </c>
+      <c r="AU46">
+        <v>8</v>
+      </c>
+      <c r="AV46">
+        <v>5</v>
+      </c>
+      <c r="AW46">
+        <v>5</v>
+      </c>
+      <c r="AX46">
+        <v>9</v>
+      </c>
+      <c r="AY46">
+        <v>13</v>
+      </c>
+      <c r="AZ46">
+        <v>14</v>
+      </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
+        <v>10</v>
+      </c>
+      <c r="BD46">
+        <v>1.3</v>
+      </c>
+      <c r="BE46">
+        <v>10</v>
+      </c>
+      <c r="BF46">
+        <v>4.42</v>
+      </c>
+      <c r="BG46">
+        <v>1.23</v>
+      </c>
+      <c r="BH46">
+        <v>3.65</v>
+      </c>
+      <c r="BI46">
+        <v>1.36</v>
+      </c>
+      <c r="BJ46">
+        <v>2.78</v>
+      </c>
+      <c r="BK46">
+        <v>1.64</v>
+      </c>
+      <c r="BL46">
+        <v>2.07</v>
+      </c>
+      <c r="BM46">
+        <v>2.09</v>
+      </c>
+      <c r="BN46">
+        <v>1.66</v>
+      </c>
+      <c r="BO46">
+        <v>2.71</v>
+      </c>
+      <c r="BP46">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>['18', '54', '56', '82']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
   <si>
     <t>['23', '51']</t>
@@ -804,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1272,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1681,7 +1684,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2093,7 +2096,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2505,7 +2508,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2789,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2917,7 +2920,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3329,7 +3332,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3410,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4153,7 +4156,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4771,7 +4774,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5183,7 +5186,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5389,7 +5392,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5595,7 +5598,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5882,7 +5885,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6625,7 +6628,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6703,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6831,7 +6834,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7037,7 +7040,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7243,7 +7246,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7449,7 +7452,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7861,7 +7864,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8273,7 +8276,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8891,7 +8894,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9715,7 +9718,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10284,6 +10287,212 @@
       </c>
       <c r="BP46">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7296570</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q47">
+        <v>2.75</v>
+      </c>
+      <c r="R47">
+        <v>2.05</v>
+      </c>
+      <c r="S47">
+        <v>3.9</v>
+      </c>
+      <c r="T47">
+        <v>1.42</v>
+      </c>
+      <c r="U47">
+        <v>2.65</v>
+      </c>
+      <c r="V47">
+        <v>2.95</v>
+      </c>
+      <c r="W47">
+        <v>1.35</v>
+      </c>
+      <c r="X47">
+        <v>6.75</v>
+      </c>
+      <c r="Y47">
+        <v>1.07</v>
+      </c>
+      <c r="Z47">
+        <v>2.05</v>
+      </c>
+      <c r="AA47">
+        <v>3.25</v>
+      </c>
+      <c r="AB47">
+        <v>3.23</v>
+      </c>
+      <c r="AC47">
+        <v>1.07</v>
+      </c>
+      <c r="AD47">
+        <v>10.25</v>
+      </c>
+      <c r="AE47">
+        <v>1.34</v>
+      </c>
+      <c r="AF47">
+        <v>3.27</v>
+      </c>
+      <c r="AG47">
+        <v>1.98</v>
+      </c>
+      <c r="AH47">
+        <v>1.74</v>
+      </c>
+      <c r="AI47">
+        <v>1.85</v>
+      </c>
+      <c r="AJ47">
+        <v>1.95</v>
+      </c>
+      <c r="AK47">
+        <v>1.33</v>
+      </c>
+      <c r="AL47">
+        <v>1.3</v>
+      </c>
+      <c r="AM47">
+        <v>1.73</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>1.67</v>
+      </c>
+      <c r="AQ47">
+        <v>0.33</v>
+      </c>
+      <c r="AR47">
+        <v>2.28</v>
+      </c>
+      <c r="AS47">
+        <v>0.95</v>
+      </c>
+      <c r="AT47">
+        <v>3.23</v>
+      </c>
+      <c r="AU47">
+        <v>3</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>3</v>
+      </c>
+      <c r="AY47">
+        <v>10</v>
+      </c>
+      <c r="AZ47">
+        <v>3</v>
+      </c>
+      <c r="BA47">
+        <v>3</v>
+      </c>
+      <c r="BB47">
+        <v>5</v>
+      </c>
+      <c r="BC47">
+        <v>8</v>
+      </c>
+      <c r="BD47">
+        <v>1.82</v>
+      </c>
+      <c r="BE47">
+        <v>8.5</v>
+      </c>
+      <c r="BF47">
+        <v>2.28</v>
+      </c>
+      <c r="BG47">
+        <v>1.17</v>
+      </c>
+      <c r="BH47">
+        <v>4.35</v>
+      </c>
+      <c r="BI47">
+        <v>1.3</v>
+      </c>
+      <c r="BJ47">
+        <v>3.15</v>
+      </c>
+      <c r="BK47">
+        <v>1.5</v>
+      </c>
+      <c r="BL47">
+        <v>2.4</v>
+      </c>
+      <c r="BM47">
+        <v>1.88</v>
+      </c>
+      <c r="BN47">
+        <v>1.92</v>
+      </c>
+      <c r="BO47">
+        <v>2.53</v>
+      </c>
+      <c r="BP47">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -807,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2795,7 +2795,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0.33</v>
@@ -6091,7 +6091,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>0.63</v>
@@ -10493,6 +10493,212 @@
       </c>
       <c r="BP47">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7296574</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45418.58333333334</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q48">
+        <v>2.6</v>
+      </c>
+      <c r="R48">
+        <v>2.2</v>
+      </c>
+      <c r="S48">
+        <v>4.33</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48">
+        <v>2.75</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>1.36</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48">
+        <v>1.08</v>
+      </c>
+      <c r="Z48">
+        <v>1.79</v>
+      </c>
+      <c r="AA48">
+        <v>3.5</v>
+      </c>
+      <c r="AB48">
+        <v>3.6</v>
+      </c>
+      <c r="AC48">
+        <v>1.04</v>
+      </c>
+      <c r="AD48">
+        <v>12</v>
+      </c>
+      <c r="AE48">
+        <v>1.29</v>
+      </c>
+      <c r="AF48">
+        <v>3.15</v>
+      </c>
+      <c r="AG48">
+        <v>1.76</v>
+      </c>
+      <c r="AH48">
+        <v>1.96</v>
+      </c>
+      <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
+        <v>1.95</v>
+      </c>
+      <c r="AK48">
+        <v>1.28</v>
+      </c>
+      <c r="AL48">
+        <v>1.22</v>
+      </c>
+      <c r="AM48">
+        <v>1.87</v>
+      </c>
+      <c r="AN48">
+        <v>1.5</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1.57</v>
+      </c>
+      <c r="AS48">
+        <v>1.97</v>
+      </c>
+      <c r="AT48">
+        <v>3.54</v>
+      </c>
+      <c r="AU48">
+        <v>3</v>
+      </c>
+      <c r="AV48">
+        <v>3</v>
+      </c>
+      <c r="AW48">
+        <v>4</v>
+      </c>
+      <c r="AX48">
+        <v>2</v>
+      </c>
+      <c r="AY48">
+        <v>7</v>
+      </c>
+      <c r="AZ48">
+        <v>5</v>
+      </c>
+      <c r="BA48">
+        <v>6</v>
+      </c>
+      <c r="BB48">
+        <v>8</v>
+      </c>
+      <c r="BC48">
+        <v>14</v>
+      </c>
+      <c r="BD48">
+        <v>1.7</v>
+      </c>
+      <c r="BE48">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF48">
+        <v>2.5</v>
+      </c>
+      <c r="BG48">
+        <v>1.18</v>
+      </c>
+      <c r="BH48">
+        <v>4.1</v>
+      </c>
+      <c r="BI48">
+        <v>1.29</v>
+      </c>
+      <c r="BJ48">
+        <v>3.14</v>
+      </c>
+      <c r="BK48">
+        <v>1.52</v>
+      </c>
+      <c r="BL48">
+        <v>2.3</v>
+      </c>
+      <c r="BM48">
+        <v>1.89</v>
+      </c>
+      <c r="BN48">
+        <v>1.81</v>
+      </c>
+      <c r="BO48">
+        <v>2.42</v>
+      </c>
+      <c r="BP48">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>['4', '49', '78']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -2177,7 +2180,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -5470,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
         <v>1.75</v>
@@ -7533,7 +7536,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -8354,7 +8357,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -10638,7 +10641,7 @@
         <v>3</v>
       </c>
       <c r="AV48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW48">
         <v>4</v>
@@ -10650,7 +10653,7 @@
         <v>7</v>
       </c>
       <c r="AZ48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA48">
         <v>6</v>
@@ -10699,6 +10702,212 @@
       </c>
       <c r="BP48">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7296567</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45419.58333333334</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P49" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q49">
+        <v>3.25</v>
+      </c>
+      <c r="R49">
+        <v>2.1</v>
+      </c>
+      <c r="S49">
+        <v>3.25</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>1.36</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>2.5</v>
+      </c>
+      <c r="AA49">
+        <v>3.2</v>
+      </c>
+      <c r="AB49">
+        <v>2.45</v>
+      </c>
+      <c r="AC49">
+        <v>1.06</v>
+      </c>
+      <c r="AD49">
+        <v>10.75</v>
+      </c>
+      <c r="AE49">
+        <v>1.33</v>
+      </c>
+      <c r="AF49">
+        <v>3.35</v>
+      </c>
+      <c r="AG49">
+        <v>1.9</v>
+      </c>
+      <c r="AH49">
+        <v>1.8</v>
+      </c>
+      <c r="AI49">
+        <v>1.8</v>
+      </c>
+      <c r="AJ49">
+        <v>1.95</v>
+      </c>
+      <c r="AK49">
+        <v>1.47</v>
+      </c>
+      <c r="AL49">
+        <v>1.3</v>
+      </c>
+      <c r="AM49">
+        <v>1.46</v>
+      </c>
+      <c r="AN49">
+        <v>0.33</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>0.25</v>
+      </c>
+      <c r="AQ49">
+        <v>2</v>
+      </c>
+      <c r="AR49">
+        <v>1.79</v>
+      </c>
+      <c r="AS49">
+        <v>1.21</v>
+      </c>
+      <c r="AT49">
+        <v>3</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>10</v>
+      </c>
+      <c r="AX49">
+        <v>9</v>
+      </c>
+      <c r="AY49">
+        <v>10</v>
+      </c>
+      <c r="AZ49">
+        <v>14</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>5</v>
+      </c>
+      <c r="BC49">
+        <v>9</v>
+      </c>
+      <c r="BD49">
+        <v>2.2</v>
+      </c>
+      <c r="BE49">
+        <v>8.5</v>
+      </c>
+      <c r="BF49">
+        <v>1.91</v>
+      </c>
+      <c r="BG49">
+        <v>1.17</v>
+      </c>
+      <c r="BH49">
+        <v>4.35</v>
+      </c>
+      <c r="BI49">
+        <v>1.3</v>
+      </c>
+      <c r="BJ49">
+        <v>3.05</v>
+      </c>
+      <c r="BK49">
+        <v>1.52</v>
+      </c>
+      <c r="BL49">
+        <v>2.32</v>
+      </c>
+      <c r="BM49">
+        <v>1.84</v>
+      </c>
+      <c r="BN49">
+        <v>1.84</v>
+      </c>
+      <c r="BO49">
+        <v>2.43</v>
+      </c>
+      <c r="BP49">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['5', '11', '40']</t>
   </si>
   <si>
     <t>['23', '51']</t>
@@ -810,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1275,7 +1278,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1687,7 +1690,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1768,7 +1771,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2099,7 +2102,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2511,7 +2514,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2589,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2923,7 +2926,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3335,7 +3338,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4159,7 +4162,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4777,7 +4780,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -4858,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.38</v>
@@ -5189,7 +5192,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5395,7 +5398,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5601,7 +5604,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5885,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -6631,7 +6634,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6837,7 +6840,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7043,7 +7046,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7249,7 +7252,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7455,7 +7458,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7867,7 +7870,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8279,7 +8282,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8897,7 +8900,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9184,7 +9187,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -9721,7 +9724,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10005,7 +10008,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.67</v>
@@ -10751,7 +10754,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10908,6 +10911,212 @@
       </c>
       <c r="BP49">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7296580</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45422.58333333334</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q50">
+        <v>2.25</v>
+      </c>
+      <c r="R50">
+        <v>2.15</v>
+      </c>
+      <c r="S50">
+        <v>4.75</v>
+      </c>
+      <c r="T50">
+        <v>1.38</v>
+      </c>
+      <c r="U50">
+        <v>2.8</v>
+      </c>
+      <c r="V50">
+        <v>2.75</v>
+      </c>
+      <c r="W50">
+        <v>1.4</v>
+      </c>
+      <c r="X50">
+        <v>6.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.08</v>
+      </c>
+      <c r="Z50">
+        <v>1.67</v>
+      </c>
+      <c r="AA50">
+        <v>3.8</v>
+      </c>
+      <c r="AB50">
+        <v>4.75</v>
+      </c>
+      <c r="AC50">
+        <v>1.04</v>
+      </c>
+      <c r="AD50">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>1.28</v>
+      </c>
+      <c r="AF50">
+        <v>3.5</v>
+      </c>
+      <c r="AG50">
+        <v>1.93</v>
+      </c>
+      <c r="AH50">
+        <v>1.93</v>
+      </c>
+      <c r="AI50">
+        <v>1.8</v>
+      </c>
+      <c r="AJ50">
+        <v>1.83</v>
+      </c>
+      <c r="AK50">
+        <v>1.14</v>
+      </c>
+      <c r="AL50">
+        <v>1.2</v>
+      </c>
+      <c r="AM50">
+        <v>2.15</v>
+      </c>
+      <c r="AN50">
+        <v>1.67</v>
+      </c>
+      <c r="AO50">
+        <v>1.33</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>2.24</v>
+      </c>
+      <c r="AS50">
+        <v>1.51</v>
+      </c>
+      <c r="AT50">
+        <v>3.75</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>2</v>
+      </c>
+      <c r="AW50">
+        <v>8</v>
+      </c>
+      <c r="AX50">
+        <v>8</v>
+      </c>
+      <c r="AY50">
+        <v>14</v>
+      </c>
+      <c r="AZ50">
+        <v>10</v>
+      </c>
+      <c r="BA50">
+        <v>4</v>
+      </c>
+      <c r="BB50">
+        <v>5</v>
+      </c>
+      <c r="BC50">
+        <v>9</v>
+      </c>
+      <c r="BD50">
+        <v>1.51</v>
+      </c>
+      <c r="BE50">
+        <v>9</v>
+      </c>
+      <c r="BF50">
+        <v>3.14</v>
+      </c>
+      <c r="BG50">
+        <v>1.14</v>
+      </c>
+      <c r="BH50">
+        <v>4.8</v>
+      </c>
+      <c r="BI50">
+        <v>1.25</v>
+      </c>
+      <c r="BJ50">
+        <v>3.4</v>
+      </c>
+      <c r="BK50">
+        <v>1.44</v>
+      </c>
+      <c r="BL50">
+        <v>2.55</v>
+      </c>
+      <c r="BM50">
+        <v>1.7</v>
+      </c>
+      <c r="BN50">
+        <v>2.02</v>
+      </c>
+      <c r="BO50">
+        <v>2.05</v>
+      </c>
+      <c r="BP50">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,15 @@
     <t>['5', '11', '40']</t>
   </si>
   <si>
+    <t>['21', '86']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -452,6 +461,15 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['31', '45']</t>
+  </si>
+  <si>
+    <t>['3', '12', '62']</t>
+  </si>
+  <si>
+    <t>['20', '34', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>0.33</v>
@@ -1278,7 +1296,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1359,7 +1377,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1690,7 +1708,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1768,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2102,7 +2120,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2514,7 +2532,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2926,7 +2944,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3004,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3338,7 +3356,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3831,7 +3849,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4037,7 +4055,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4162,7 +4180,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4446,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4652,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19">
         <v>0.33</v>
@@ -4780,7 +4798,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5064,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>0.33</v>
@@ -5192,7 +5210,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5273,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5398,7 +5416,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5604,7 +5622,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6634,7 +6652,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6715,7 +6733,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -6840,7 +6858,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7046,7 +7064,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7127,7 +7145,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7252,7 +7270,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7458,7 +7476,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7745,7 +7763,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.26</v>
@@ -7870,7 +7888,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8154,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -8282,7 +8300,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8900,7 +8918,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -8978,7 +8996,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9724,7 +9742,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9805,7 +9823,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10626,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10754,7 +10772,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11117,6 +11135,624 @@
       </c>
       <c r="BP50">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7296579</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45423.33333333334</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q51">
+        <v>3.3</v>
+      </c>
+      <c r="R51">
+        <v>2.15</v>
+      </c>
+      <c r="S51">
+        <v>3.25</v>
+      </c>
+      <c r="T51">
+        <v>1.37</v>
+      </c>
+      <c r="U51">
+        <v>2.85</v>
+      </c>
+      <c r="V51">
+        <v>2.8</v>
+      </c>
+      <c r="W51">
+        <v>1.39</v>
+      </c>
+      <c r="X51">
+        <v>6.95</v>
+      </c>
+      <c r="Y51">
+        <v>1.07</v>
+      </c>
+      <c r="Z51">
+        <v>2.5</v>
+      </c>
+      <c r="AA51">
+        <v>3.13</v>
+      </c>
+      <c r="AB51">
+        <v>2.5</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>11</v>
+      </c>
+      <c r="AE51">
+        <v>1.3</v>
+      </c>
+      <c r="AF51">
+        <v>3.5</v>
+      </c>
+      <c r="AG51">
+        <v>1.91</v>
+      </c>
+      <c r="AH51">
+        <v>1.8</v>
+      </c>
+      <c r="AI51">
+        <v>1.7</v>
+      </c>
+      <c r="AJ51">
+        <v>2.1</v>
+      </c>
+      <c r="AK51">
+        <v>1.5</v>
+      </c>
+      <c r="AL51">
+        <v>1.28</v>
+      </c>
+      <c r="AM51">
+        <v>1.47</v>
+      </c>
+      <c r="AN51">
+        <v>1.33</v>
+      </c>
+      <c r="AO51">
+        <v>1.33</v>
+      </c>
+      <c r="AP51">
+        <v>1.25</v>
+      </c>
+      <c r="AQ51">
+        <v>1.25</v>
+      </c>
+      <c r="AR51">
+        <v>1.71</v>
+      </c>
+      <c r="AS51">
+        <v>1.51</v>
+      </c>
+      <c r="AT51">
+        <v>3.22</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>13</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>20</v>
+      </c>
+      <c r="AZ51">
+        <v>7</v>
+      </c>
+      <c r="BA51">
+        <v>3</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>3</v>
+      </c>
+      <c r="BD51">
+        <v>2.05</v>
+      </c>
+      <c r="BE51">
+        <v>8</v>
+      </c>
+      <c r="BF51">
+        <v>1.95</v>
+      </c>
+      <c r="BG51">
+        <v>1.14</v>
+      </c>
+      <c r="BH51">
+        <v>4.8</v>
+      </c>
+      <c r="BI51">
+        <v>1.25</v>
+      </c>
+      <c r="BJ51">
+        <v>3.45</v>
+      </c>
+      <c r="BK51">
+        <v>1.42</v>
+      </c>
+      <c r="BL51">
+        <v>2.65</v>
+      </c>
+      <c r="BM51">
+        <v>1.67</v>
+      </c>
+      <c r="BN51">
+        <v>2.07</v>
+      </c>
+      <c r="BO51">
+        <v>2</v>
+      </c>
+      <c r="BP51">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7296581</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P52" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q52">
+        <v>3.61</v>
+      </c>
+      <c r="R52">
+        <v>2.27</v>
+      </c>
+      <c r="S52">
+        <v>2.87</v>
+      </c>
+      <c r="T52">
+        <v>1.33</v>
+      </c>
+      <c r="U52">
+        <v>3</v>
+      </c>
+      <c r="V52">
+        <v>2.6</v>
+      </c>
+      <c r="W52">
+        <v>1.44</v>
+      </c>
+      <c r="X52">
+        <v>6</v>
+      </c>
+      <c r="Y52">
+        <v>1.09</v>
+      </c>
+      <c r="Z52">
+        <v>2.75</v>
+      </c>
+      <c r="AA52">
+        <v>3.25</v>
+      </c>
+      <c r="AB52">
+        <v>2.25</v>
+      </c>
+      <c r="AC52">
+        <v>1.02</v>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52">
+        <v>1.25</v>
+      </c>
+      <c r="AF52">
+        <v>3.6</v>
+      </c>
+      <c r="AG52">
+        <v>1.78</v>
+      </c>
+      <c r="AH52">
+        <v>1.93</v>
+      </c>
+      <c r="AI52">
+        <v>1.65</v>
+      </c>
+      <c r="AJ52">
+        <v>2.1</v>
+      </c>
+      <c r="AK52">
+        <v>1.62</v>
+      </c>
+      <c r="AL52">
+        <v>1.35</v>
+      </c>
+      <c r="AM52">
+        <v>1.38</v>
+      </c>
+      <c r="AN52">
+        <v>2.33</v>
+      </c>
+      <c r="AO52">
+        <v>1.67</v>
+      </c>
+      <c r="AP52">
+        <v>1.75</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AR52">
+        <v>1.67</v>
+      </c>
+      <c r="AS52">
+        <v>1.57</v>
+      </c>
+      <c r="AT52">
+        <v>3.24</v>
+      </c>
+      <c r="AU52">
+        <v>6</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>3</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>9</v>
+      </c>
+      <c r="AZ52">
+        <v>10</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>4</v>
+      </c>
+      <c r="BD52">
+        <v>2.41</v>
+      </c>
+      <c r="BE52">
+        <v>8.5</v>
+      </c>
+      <c r="BF52">
+        <v>1.75</v>
+      </c>
+      <c r="BG52">
+        <v>1.16</v>
+      </c>
+      <c r="BH52">
+        <v>4.4</v>
+      </c>
+      <c r="BI52">
+        <v>1.28</v>
+      </c>
+      <c r="BJ52">
+        <v>3.2</v>
+      </c>
+      <c r="BK52">
+        <v>1.48</v>
+      </c>
+      <c r="BL52">
+        <v>2.43</v>
+      </c>
+      <c r="BM52">
+        <v>1.75</v>
+      </c>
+      <c r="BN52">
+        <v>1.95</v>
+      </c>
+      <c r="BO52">
+        <v>2.15</v>
+      </c>
+      <c r="BP52">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7296582</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q53">
+        <v>2.45</v>
+      </c>
+      <c r="R53">
+        <v>2.15</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>1.36</v>
+      </c>
+      <c r="U53">
+        <v>2.88</v>
+      </c>
+      <c r="V53">
+        <v>2.65</v>
+      </c>
+      <c r="W53">
+        <v>1.42</v>
+      </c>
+      <c r="X53">
+        <v>6</v>
+      </c>
+      <c r="Y53">
+        <v>1.09</v>
+      </c>
+      <c r="Z53">
+        <v>1.95</v>
+      </c>
+      <c r="AA53">
+        <v>3.3</v>
+      </c>
+      <c r="AB53">
+        <v>3.3</v>
+      </c>
+      <c r="AC53">
+        <v>1.05</v>
+      </c>
+      <c r="AD53">
+        <v>8.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.28</v>
+      </c>
+      <c r="AF53">
+        <v>3.55</v>
+      </c>
+      <c r="AG53">
+        <v>1.78</v>
+      </c>
+      <c r="AH53">
+        <v>1.93</v>
+      </c>
+      <c r="AI53">
+        <v>1.67</v>
+      </c>
+      <c r="AJ53">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>1.2</v>
+      </c>
+      <c r="AL53">
+        <v>1.25</v>
+      </c>
+      <c r="AM53">
+        <v>1.83</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>0.75</v>
+      </c>
+      <c r="AQ53">
+        <v>1.67</v>
+      </c>
+      <c r="AR53">
+        <v>1.43</v>
+      </c>
+      <c r="AS53">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT53">
+        <v>2.37</v>
+      </c>
+      <c r="AU53">
+        <v>3</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>5</v>
+      </c>
+      <c r="AZ53">
+        <v>9</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>7</v>
+      </c>
+      <c r="BC53">
+        <v>10</v>
+      </c>
+      <c r="BD53">
+        <v>1.82</v>
+      </c>
+      <c r="BE53">
+        <v>8.5</v>
+      </c>
+      <c r="BF53">
+        <v>2.32</v>
+      </c>
+      <c r="BG53">
+        <v>1.12</v>
+      </c>
+      <c r="BH53">
+        <v>5.1</v>
+      </c>
+      <c r="BI53">
+        <v>1.23</v>
+      </c>
+      <c r="BJ53">
+        <v>3.7</v>
+      </c>
+      <c r="BK53">
+        <v>1.38</v>
+      </c>
+      <c r="BL53">
+        <v>2.75</v>
+      </c>
+      <c r="BM53">
+        <v>1.6</v>
+      </c>
+      <c r="BN53">
+        <v>2.17</v>
+      </c>
+      <c r="BO53">
+        <v>1.91</v>
+      </c>
+      <c r="BP53">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,15 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['58', '62']</t>
+  </si>
+  <si>
+    <t>['43', '55']</t>
+  </si>
+  <si>
+    <t>['17', '37']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -470,6 +479,12 @@
   </si>
   <si>
     <t>['20', '34', '90+5']</t>
+  </si>
+  <si>
+    <t>['46', '74']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1171,7 +1186,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1296,7 +1311,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1583,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1708,7 +1723,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1995,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2120,7 +2135,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2198,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2404,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8">
         <v>0.33</v>
@@ -2532,7 +2547,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2944,7 +2959,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3356,7 +3371,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4180,7 +4195,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4467,7 +4482,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -4673,7 +4688,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -4798,7 +4813,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5085,7 +5100,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5210,7 +5225,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5416,7 +5431,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5622,7 +5637,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5700,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6652,7 +6667,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6858,7 +6873,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7064,7 +7079,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7142,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7270,7 +7285,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7476,7 +7491,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7888,7 +7903,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7966,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8300,7 +8315,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8587,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -8918,7 +8933,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9742,7 +9757,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10235,7 +10250,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10772,7 +10787,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11184,7 +11199,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11390,7 +11405,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11596,7 +11611,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11753,6 +11768,624 @@
       </c>
       <c r="BP53">
         <v>1.78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7296577</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45424.33333333334</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>128</v>
+      </c>
+      <c r="P54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q54">
+        <v>2.55</v>
+      </c>
+      <c r="R54">
+        <v>2.1</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>1.4</v>
+      </c>
+      <c r="U54">
+        <v>2.7</v>
+      </c>
+      <c r="V54">
+        <v>2.9</v>
+      </c>
+      <c r="W54">
+        <v>1.36</v>
+      </c>
+      <c r="X54">
+        <v>7</v>
+      </c>
+      <c r="Y54">
+        <v>1.07</v>
+      </c>
+      <c r="Z54">
+        <v>2</v>
+      </c>
+      <c r="AA54">
+        <v>3.4</v>
+      </c>
+      <c r="AB54">
+        <v>3.5</v>
+      </c>
+      <c r="AC54">
+        <v>1.05</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.3</v>
+      </c>
+      <c r="AF54">
+        <v>3.25</v>
+      </c>
+      <c r="AG54">
+        <v>1.95</v>
+      </c>
+      <c r="AH54">
+        <v>1.73</v>
+      </c>
+      <c r="AI54">
+        <v>1.77</v>
+      </c>
+      <c r="AJ54">
+        <v>1.85</v>
+      </c>
+      <c r="AK54">
+        <v>1.25</v>
+      </c>
+      <c r="AL54">
+        <v>1.25</v>
+      </c>
+      <c r="AM54">
+        <v>1.8</v>
+      </c>
+      <c r="AN54">
+        <v>0.67</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>1.25</v>
+      </c>
+      <c r="AQ54">
+        <v>0.75</v>
+      </c>
+      <c r="AR54">
+        <v>1.37</v>
+      </c>
+      <c r="AS54">
+        <v>1.11</v>
+      </c>
+      <c r="AT54">
+        <v>2.48</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54">
+        <v>13</v>
+      </c>
+      <c r="AX54">
+        <v>8</v>
+      </c>
+      <c r="AY54">
+        <v>17</v>
+      </c>
+      <c r="AZ54">
+        <v>10</v>
+      </c>
+      <c r="BA54">
+        <v>10</v>
+      </c>
+      <c r="BB54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
+        <v>12</v>
+      </c>
+      <c r="BD54">
+        <v>1.55</v>
+      </c>
+      <c r="BE54">
+        <v>8.5</v>
+      </c>
+      <c r="BF54">
+        <v>2.91</v>
+      </c>
+      <c r="BG54">
+        <v>1.3</v>
+      </c>
+      <c r="BH54">
+        <v>3.1</v>
+      </c>
+      <c r="BI54">
+        <v>1.52</v>
+      </c>
+      <c r="BJ54">
+        <v>2.32</v>
+      </c>
+      <c r="BK54">
+        <v>1.84</v>
+      </c>
+      <c r="BL54">
+        <v>1.84</v>
+      </c>
+      <c r="BM54">
+        <v>2.32</v>
+      </c>
+      <c r="BN54">
+        <v>1.53</v>
+      </c>
+      <c r="BO54">
+        <v>2.95</v>
+      </c>
+      <c r="BP54">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7296576</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>129</v>
+      </c>
+      <c r="P55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q55">
+        <v>2.66</v>
+      </c>
+      <c r="R55">
+        <v>2.26</v>
+      </c>
+      <c r="S55">
+        <v>4.01</v>
+      </c>
+      <c r="T55">
+        <v>1.36</v>
+      </c>
+      <c r="U55">
+        <v>3.09</v>
+      </c>
+      <c r="V55">
+        <v>2.8</v>
+      </c>
+      <c r="W55">
+        <v>1.42</v>
+      </c>
+      <c r="X55">
+        <v>6</v>
+      </c>
+      <c r="Y55">
+        <v>1.09</v>
+      </c>
+      <c r="Z55">
+        <v>2.05</v>
+      </c>
+      <c r="AA55">
+        <v>3.3</v>
+      </c>
+      <c r="AB55">
+        <v>3.3</v>
+      </c>
+      <c r="AC55">
+        <v>1.05</v>
+      </c>
+      <c r="AD55">
+        <v>8.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.28</v>
+      </c>
+      <c r="AF55">
+        <v>3.5</v>
+      </c>
+      <c r="AG55">
+        <v>1.8</v>
+      </c>
+      <c r="AH55">
+        <v>1.83</v>
+      </c>
+      <c r="AI55">
+        <v>1.65</v>
+      </c>
+      <c r="AJ55">
+        <v>2.05</v>
+      </c>
+      <c r="AK55">
+        <v>1.3</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.73</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>0.33</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>0.5</v>
+      </c>
+      <c r="AR55">
+        <v>1.58</v>
+      </c>
+      <c r="AS55">
+        <v>1.06</v>
+      </c>
+      <c r="AT55">
+        <v>2.64</v>
+      </c>
+      <c r="AU55">
+        <v>3</v>
+      </c>
+      <c r="AV55">
+        <v>4</v>
+      </c>
+      <c r="AW55">
+        <v>12</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>15</v>
+      </c>
+      <c r="AZ55">
+        <v>7</v>
+      </c>
+      <c r="BA55">
+        <v>7</v>
+      </c>
+      <c r="BB55">
+        <v>4</v>
+      </c>
+      <c r="BC55">
+        <v>11</v>
+      </c>
+      <c r="BD55">
+        <v>1.45</v>
+      </c>
+      <c r="BE55">
+        <v>7</v>
+      </c>
+      <c r="BF55">
+        <v>2.8</v>
+      </c>
+      <c r="BG55">
+        <v>1.15</v>
+      </c>
+      <c r="BH55">
+        <v>4.6</v>
+      </c>
+      <c r="BI55">
+        <v>1.27</v>
+      </c>
+      <c r="BJ55">
+        <v>3.3</v>
+      </c>
+      <c r="BK55">
+        <v>1.47</v>
+      </c>
+      <c r="BL55">
+        <v>2.48</v>
+      </c>
+      <c r="BM55">
+        <v>1.73</v>
+      </c>
+      <c r="BN55">
+        <v>1.98</v>
+      </c>
+      <c r="BO55">
+        <v>2.1</v>
+      </c>
+      <c r="BP55">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7296578</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>130</v>
+      </c>
+      <c r="P56" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q56">
+        <v>2.5</v>
+      </c>
+      <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
+        <v>4.33</v>
+      </c>
+      <c r="T56">
+        <v>1.42</v>
+      </c>
+      <c r="U56">
+        <v>2.62</v>
+      </c>
+      <c r="V56">
+        <v>2.9</v>
+      </c>
+      <c r="W56">
+        <v>1.36</v>
+      </c>
+      <c r="X56">
+        <v>7</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>1.91</v>
+      </c>
+      <c r="AA56">
+        <v>3.3</v>
+      </c>
+      <c r="AB56">
+        <v>3.8</v>
+      </c>
+      <c r="AC56">
+        <v>1.06</v>
+      </c>
+      <c r="AD56">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>1.35</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>1.95</v>
+      </c>
+      <c r="AH56">
+        <v>1.7</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.85</v>
+      </c>
+      <c r="AK56">
+        <v>1.22</v>
+      </c>
+      <c r="AL56">
+        <v>1.25</v>
+      </c>
+      <c r="AM56">
+        <v>1.83</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>0.33</v>
+      </c>
+      <c r="AP56">
+        <v>2.33</v>
+      </c>
+      <c r="AQ56">
+        <v>0.25</v>
+      </c>
+      <c r="AR56">
+        <v>1.67</v>
+      </c>
+      <c r="AS56">
+        <v>1.36</v>
+      </c>
+      <c r="AT56">
+        <v>3.03</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>7</v>
+      </c>
+      <c r="AW56">
+        <v>6</v>
+      </c>
+      <c r="AX56">
+        <v>3</v>
+      </c>
+      <c r="AY56">
+        <v>13</v>
+      </c>
+      <c r="AZ56">
+        <v>10</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>8</v>
+      </c>
+      <c r="BC56">
+        <v>10</v>
+      </c>
+      <c r="BD56">
+        <v>1.64</v>
+      </c>
+      <c r="BE56">
+        <v>8.5</v>
+      </c>
+      <c r="BF56">
+        <v>2.66</v>
+      </c>
+      <c r="BG56">
+        <v>1.13</v>
+      </c>
+      <c r="BH56">
+        <v>4.9</v>
+      </c>
+      <c r="BI56">
+        <v>1.25</v>
+      </c>
+      <c r="BJ56">
+        <v>3.45</v>
+      </c>
+      <c r="BK56">
+        <v>1.42</v>
+      </c>
+      <c r="BL56">
+        <v>2.65</v>
+      </c>
+      <c r="BM56">
+        <v>1.67</v>
+      </c>
+      <c r="BN56">
+        <v>2.07</v>
+      </c>
+      <c r="BO56">
+        <v>2.02</v>
+      </c>
+      <c r="BP56">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,9 @@
     <t>['17', '37']</t>
   </si>
   <si>
+    <t>['52', '56']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -485,6 +488,9 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1311,7 +1317,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1723,7 +1729,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2007,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2135,7 +2141,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2547,7 +2553,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2628,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2959,7 +2965,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3371,7 +3377,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4195,7 +4201,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4813,7 +4819,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5225,7 +5231,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5431,7 +5437,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5637,7 +5643,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5718,7 +5724,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6667,7 +6673,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6873,7 +6879,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7079,7 +7085,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7285,7 +7291,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7363,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ32">
         <v>0.33</v>
@@ -7491,7 +7497,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7903,7 +7909,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8315,7 +8321,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8805,7 +8811,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -8933,7 +8939,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9014,7 +9020,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9757,7 +9763,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10787,7 +10793,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11199,7 +11205,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11405,7 +11411,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11611,7 +11617,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12023,7 +12029,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12229,7 +12235,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12386,6 +12392,212 @@
       </c>
       <c r="BP56">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7296575</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45426.58333333334</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>131</v>
+      </c>
+      <c r="P57" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q57">
+        <v>3.5</v>
+      </c>
+      <c r="R57">
+        <v>2.25</v>
+      </c>
+      <c r="S57">
+        <v>2.9</v>
+      </c>
+      <c r="T57">
+        <v>1.32</v>
+      </c>
+      <c r="U57">
+        <v>3.05</v>
+      </c>
+      <c r="V57">
+        <v>2.6</v>
+      </c>
+      <c r="W57">
+        <v>1.44</v>
+      </c>
+      <c r="X57">
+        <v>6.4</v>
+      </c>
+      <c r="Y57">
+        <v>1.09</v>
+      </c>
+      <c r="Z57">
+        <v>2.74</v>
+      </c>
+      <c r="AA57">
+        <v>3.3</v>
+      </c>
+      <c r="AB57">
+        <v>2.4</v>
+      </c>
+      <c r="AC57">
+        <v>1.03</v>
+      </c>
+      <c r="AD57">
+        <v>13</v>
+      </c>
+      <c r="AE57">
+        <v>1.25</v>
+      </c>
+      <c r="AF57">
+        <v>3.75</v>
+      </c>
+      <c r="AG57">
+        <v>1.75</v>
+      </c>
+      <c r="AH57">
+        <v>1.96</v>
+      </c>
+      <c r="AI57">
+        <v>1.66</v>
+      </c>
+      <c r="AJ57">
+        <v>2.15</v>
+      </c>
+      <c r="AK57">
+        <v>1.63</v>
+      </c>
+      <c r="AL57">
+        <v>1.25</v>
+      </c>
+      <c r="AM57">
+        <v>1.4</v>
+      </c>
+      <c r="AN57">
+        <v>2</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>2.25</v>
+      </c>
+      <c r="AQ57">
+        <v>0.75</v>
+      </c>
+      <c r="AR57">
+        <v>1.67</v>
+      </c>
+      <c r="AS57">
+        <v>1.38</v>
+      </c>
+      <c r="AT57">
+        <v>3.05</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>5</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>6</v>
+      </c>
+      <c r="AZ57">
+        <v>10</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>8</v>
+      </c>
+      <c r="BC57">
+        <v>11</v>
+      </c>
+      <c r="BD57">
+        <v>2.04</v>
+      </c>
+      <c r="BE57">
+        <v>8.9</v>
+      </c>
+      <c r="BF57">
+        <v>1.99</v>
+      </c>
+      <c r="BG57">
+        <v>1.2</v>
+      </c>
+      <c r="BH57">
+        <v>3.95</v>
+      </c>
+      <c r="BI57">
+        <v>1.35</v>
+      </c>
+      <c r="BJ57">
+        <v>2.9</v>
+      </c>
+      <c r="BK57">
+        <v>1.57</v>
+      </c>
+      <c r="BL57">
+        <v>2.2</v>
+      </c>
+      <c r="BM57">
+        <v>1.91</v>
+      </c>
+      <c r="BN57">
+        <v>1.78</v>
+      </c>
+      <c r="BO57">
+        <v>2.38</v>
+      </c>
+      <c r="BP57">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,12 @@
     <t>['52', '56']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -491,6 +497,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1317,7 +1326,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1729,7 +1738,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1807,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2141,7 +2150,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2219,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2553,7 +2562,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2965,7 +2974,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3046,7 +3055,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3377,7 +3386,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3661,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.67</v>
@@ -4201,7 +4210,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4819,7 +4828,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5103,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5231,7 +5240,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5437,7 +5446,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5643,7 +5652,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5721,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>0.75</v>
@@ -6342,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -6545,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6673,7 +6682,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6879,7 +6888,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7085,7 +7094,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7291,7 +7300,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7497,7 +7506,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7578,7 +7587,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -7909,7 +7918,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7987,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
         <v>0.5</v>
@@ -8321,7 +8330,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8402,7 +8411,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -8939,7 +8948,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9017,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>0.75</v>
@@ -9763,7 +9772,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10253,7 +10262,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.75</v>
@@ -10793,7 +10802,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10874,7 +10883,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11205,7 +11214,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11283,7 +11292,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51">
         <v>1.25</v>
@@ -11411,7 +11420,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11617,7 +11626,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11901,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>0.75</v>
@@ -12029,7 +12038,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12235,7 +12244,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12441,7 +12450,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12598,6 +12607,624 @@
       </c>
       <c r="BP57">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7296584</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45429.58333333334</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>132</v>
+      </c>
+      <c r="P58" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q58">
+        <v>2.93</v>
+      </c>
+      <c r="R58">
+        <v>2.22</v>
+      </c>
+      <c r="S58">
+        <v>3.63</v>
+      </c>
+      <c r="T58">
+        <v>1.37</v>
+      </c>
+      <c r="U58">
+        <v>3.02</v>
+      </c>
+      <c r="V58">
+        <v>2.86</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>7.1</v>
+      </c>
+      <c r="Y58">
+        <v>1.08</v>
+      </c>
+      <c r="Z58">
+        <v>2.3</v>
+      </c>
+      <c r="AA58">
+        <v>3.1</v>
+      </c>
+      <c r="AB58">
+        <v>2.7</v>
+      </c>
+      <c r="AC58">
+        <v>1.02</v>
+      </c>
+      <c r="AD58">
+        <v>9</v>
+      </c>
+      <c r="AE58">
+        <v>1.27</v>
+      </c>
+      <c r="AF58">
+        <v>3.28</v>
+      </c>
+      <c r="AG58">
+        <v>1.91</v>
+      </c>
+      <c r="AH58">
+        <v>1.8</v>
+      </c>
+      <c r="AI58">
+        <v>1.72</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>1.39</v>
+      </c>
+      <c r="AL58">
+        <v>1.3</v>
+      </c>
+      <c r="AM58">
+        <v>1.56</v>
+      </c>
+      <c r="AN58">
+        <v>1.25</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>1.6</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>1.54</v>
+      </c>
+      <c r="AS58">
+        <v>0.8</v>
+      </c>
+      <c r="AT58">
+        <v>2.34</v>
+      </c>
+      <c r="AU58">
+        <v>7</v>
+      </c>
+      <c r="AV58">
+        <v>9</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>9</v>
+      </c>
+      <c r="AY58">
+        <v>10</v>
+      </c>
+      <c r="AZ58">
+        <v>18</v>
+      </c>
+      <c r="BA58">
+        <v>4</v>
+      </c>
+      <c r="BB58">
+        <v>2</v>
+      </c>
+      <c r="BC58">
+        <v>6</v>
+      </c>
+      <c r="BD58">
+        <v>1.55</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.91</v>
+      </c>
+      <c r="BG58">
+        <v>1.2</v>
+      </c>
+      <c r="BH58">
+        <v>3.9</v>
+      </c>
+      <c r="BI58">
+        <v>1.36</v>
+      </c>
+      <c r="BJ58">
+        <v>2.85</v>
+      </c>
+      <c r="BK58">
+        <v>1.58</v>
+      </c>
+      <c r="BL58">
+        <v>2.18</v>
+      </c>
+      <c r="BM58">
+        <v>1.92</v>
+      </c>
+      <c r="BN58">
+        <v>1.77</v>
+      </c>
+      <c r="BO58">
+        <v>2.4</v>
+      </c>
+      <c r="BP58">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7296587</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45429.58333333334</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>133</v>
+      </c>
+      <c r="P59" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q59">
+        <v>3.4</v>
+      </c>
+      <c r="R59">
+        <v>2.15</v>
+      </c>
+      <c r="S59">
+        <v>2.9</v>
+      </c>
+      <c r="T59">
+        <v>1.38</v>
+      </c>
+      <c r="U59">
+        <v>2.9</v>
+      </c>
+      <c r="V59">
+        <v>2.65</v>
+      </c>
+      <c r="W59">
+        <v>1.42</v>
+      </c>
+      <c r="X59">
+        <v>6</v>
+      </c>
+      <c r="Y59">
+        <v>1.09</v>
+      </c>
+      <c r="Z59">
+        <v>2.7</v>
+      </c>
+      <c r="AA59">
+        <v>3.2</v>
+      </c>
+      <c r="AB59">
+        <v>2.3</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>12</v>
+      </c>
+      <c r="AE59">
+        <v>1.27</v>
+      </c>
+      <c r="AF59">
+        <v>3.77</v>
+      </c>
+      <c r="AG59">
+        <v>1.83</v>
+      </c>
+      <c r="AH59">
+        <v>1.85</v>
+      </c>
+      <c r="AI59">
+        <v>1.68</v>
+      </c>
+      <c r="AJ59">
+        <v>2.15</v>
+      </c>
+      <c r="AK59">
+        <v>1.58</v>
+      </c>
+      <c r="AL59">
+        <v>1.32</v>
+      </c>
+      <c r="AM59">
+        <v>1.4</v>
+      </c>
+      <c r="AN59">
+        <v>2.33</v>
+      </c>
+      <c r="AO59">
+        <v>1.33</v>
+      </c>
+      <c r="AP59">
+        <v>2</v>
+      </c>
+      <c r="AQ59">
+        <v>1.25</v>
+      </c>
+      <c r="AR59">
+        <v>1.44</v>
+      </c>
+      <c r="AS59">
+        <v>1.69</v>
+      </c>
+      <c r="AT59">
+        <v>3.13</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>10</v>
+      </c>
+      <c r="AY59">
+        <v>11</v>
+      </c>
+      <c r="AZ59">
+        <v>15</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>7</v>
+      </c>
+      <c r="BC59">
+        <v>11</v>
+      </c>
+      <c r="BD59">
+        <v>2.05</v>
+      </c>
+      <c r="BE59">
+        <v>6.75</v>
+      </c>
+      <c r="BF59">
+        <v>1.8</v>
+      </c>
+      <c r="BG59">
+        <v>1.12</v>
+      </c>
+      <c r="BH59">
+        <v>5.1</v>
+      </c>
+      <c r="BI59">
+        <v>1.23</v>
+      </c>
+      <c r="BJ59">
+        <v>3.65</v>
+      </c>
+      <c r="BK59">
+        <v>1.38</v>
+      </c>
+      <c r="BL59">
+        <v>2.7</v>
+      </c>
+      <c r="BM59">
+        <v>1.6</v>
+      </c>
+      <c r="BN59">
+        <v>2.17</v>
+      </c>
+      <c r="BO59">
+        <v>1.94</v>
+      </c>
+      <c r="BP59">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7296586</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45429.58333333334</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q60">
+        <v>3.32</v>
+      </c>
+      <c r="R60">
+        <v>2.27</v>
+      </c>
+      <c r="S60">
+        <v>3.09</v>
+      </c>
+      <c r="T60">
+        <v>1.34</v>
+      </c>
+      <c r="U60">
+        <v>3.15</v>
+      </c>
+      <c r="V60">
+        <v>2.73</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>6.7</v>
+      </c>
+      <c r="Y60">
+        <v>1.09</v>
+      </c>
+      <c r="Z60">
+        <v>2.6</v>
+      </c>
+      <c r="AA60">
+        <v>3.2</v>
+      </c>
+      <c r="AB60">
+        <v>2.37</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>9.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.25</v>
+      </c>
+      <c r="AF60">
+        <v>3.42</v>
+      </c>
+      <c r="AG60">
+        <v>1.83</v>
+      </c>
+      <c r="AH60">
+        <v>1.91</v>
+      </c>
+      <c r="AI60">
+        <v>1.67</v>
+      </c>
+      <c r="AJ60">
+        <v>2.08</v>
+      </c>
+      <c r="AK60">
+        <v>1.51</v>
+      </c>
+      <c r="AL60">
+        <v>1.29</v>
+      </c>
+      <c r="AM60">
+        <v>1.44</v>
+      </c>
+      <c r="AN60">
+        <v>1.25</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>1.2</v>
+      </c>
+      <c r="AQ60">
+        <v>1.75</v>
+      </c>
+      <c r="AR60">
+        <v>1.8</v>
+      </c>
+      <c r="AS60">
+        <v>1.4</v>
+      </c>
+      <c r="AT60">
+        <v>3.2</v>
+      </c>
+      <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>13</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>16</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>10</v>
+      </c>
+      <c r="BB60">
+        <v>5</v>
+      </c>
+      <c r="BC60">
+        <v>15</v>
+      </c>
+      <c r="BD60">
+        <v>2.07</v>
+      </c>
+      <c r="BE60">
+        <v>6.75</v>
+      </c>
+      <c r="BF60">
+        <v>1.79</v>
+      </c>
+      <c r="BG60">
+        <v>1.15</v>
+      </c>
+      <c r="BH60">
+        <v>4.7</v>
+      </c>
+      <c r="BI60">
+        <v>1.23</v>
+      </c>
+      <c r="BJ60">
+        <v>3.65</v>
+      </c>
+      <c r="BK60">
+        <v>1.4</v>
+      </c>
+      <c r="BL60">
+        <v>2.7</v>
+      </c>
+      <c r="BM60">
+        <v>1.63</v>
+      </c>
+      <c r="BN60">
+        <v>2.12</v>
+      </c>
+      <c r="BO60">
+        <v>1.95</v>
+      </c>
+      <c r="BP60">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,15 @@
     <t>['57']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['22', '52', '80', '90+4']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -500,6 +509,12 @@
   </si>
   <si>
     <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1216,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1326,7 +1341,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1738,7 +1753,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2150,7 +2165,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2562,7 +2577,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2974,7 +2989,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3258,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3386,7 +3401,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3876,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4082,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4210,7 +4225,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4291,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4703,7 +4718,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -4828,7 +4843,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5240,7 +5255,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5446,7 +5461,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5527,7 +5542,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -5652,7 +5667,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6142,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6682,7 +6697,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6763,7 +6778,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -6888,7 +6903,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -6966,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7094,7 +7109,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7300,7 +7315,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7506,7 +7521,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7584,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7918,7 +7933,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8330,7 +8345,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8617,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -8823,7 +8838,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -8948,7 +8963,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9232,7 +9247,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9441,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR42">
         <v>1.56</v>
@@ -9644,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -9772,7 +9787,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9850,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10802,7 +10817,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11214,7 +11229,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11420,7 +11435,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11626,7 +11641,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11707,7 +11722,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12038,7 +12053,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12244,7 +12259,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12325,7 +12340,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ56">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12450,7 +12465,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12749,22 +12764,22 @@
         <v>2.34</v>
       </c>
       <c r="AU58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV58">
         <v>9</v>
       </c>
       <c r="AW58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY58">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ58">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA58">
         <v>4</v>
@@ -12862,7 +12877,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -12955,31 +12970,31 @@
         <v>3.13</v>
       </c>
       <c r="AU59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV59">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW59">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX59">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AY59">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ59">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA59">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB59">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BC59">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD59">
         <v>2.05</v>
@@ -13167,13 +13182,13 @@
         <v>5</v>
       </c>
       <c r="AW60">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AX60">
         <v>4</v>
       </c>
       <c r="AY60">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ60">
         <v>9</v>
@@ -13225,6 +13240,624 @@
       </c>
       <c r="BP60">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7296585</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45430.33333333334</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>134</v>
+      </c>
+      <c r="P61" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q61">
+        <v>3.71</v>
+      </c>
+      <c r="R61">
+        <v>2.15</v>
+      </c>
+      <c r="S61">
+        <v>3.01</v>
+      </c>
+      <c r="T61">
+        <v>1.41</v>
+      </c>
+      <c r="U61">
+        <v>2.83</v>
+      </c>
+      <c r="V61">
+        <v>3.09</v>
+      </c>
+      <c r="W61">
+        <v>1.36</v>
+      </c>
+      <c r="X61">
+        <v>7.9</v>
+      </c>
+      <c r="Y61">
+        <v>1.06</v>
+      </c>
+      <c r="Z61">
+        <v>2.87</v>
+      </c>
+      <c r="AA61">
+        <v>3.1</v>
+      </c>
+      <c r="AB61">
+        <v>2.25</v>
+      </c>
+      <c r="AC61">
+        <v>1.03</v>
+      </c>
+      <c r="AD61">
+        <v>8.1</v>
+      </c>
+      <c r="AE61">
+        <v>1.33</v>
+      </c>
+      <c r="AF61">
+        <v>2.93</v>
+      </c>
+      <c r="AG61">
+        <v>2.05</v>
+      </c>
+      <c r="AH61">
+        <v>1.7</v>
+      </c>
+      <c r="AI61">
+        <v>1.83</v>
+      </c>
+      <c r="AJ61">
+        <v>1.87</v>
+      </c>
+      <c r="AK61">
+        <v>1.6</v>
+      </c>
+      <c r="AL61">
+        <v>1.31</v>
+      </c>
+      <c r="AM61">
+        <v>1.35</v>
+      </c>
+      <c r="AN61">
+        <v>1.67</v>
+      </c>
+      <c r="AO61">
+        <v>0.25</v>
+      </c>
+      <c r="AP61">
+        <v>2</v>
+      </c>
+      <c r="AQ61">
+        <v>0.2</v>
+      </c>
+      <c r="AR61">
+        <v>0.92</v>
+      </c>
+      <c r="AS61">
+        <v>1.44</v>
+      </c>
+      <c r="AT61">
+        <v>2.36</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>7</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>9</v>
+      </c>
+      <c r="AY61">
+        <v>8</v>
+      </c>
+      <c r="AZ61">
+        <v>16</v>
+      </c>
+      <c r="BA61">
+        <v>2</v>
+      </c>
+      <c r="BB61">
+        <v>9</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>2.18</v>
+      </c>
+      <c r="BE61">
+        <v>6.5</v>
+      </c>
+      <c r="BF61">
+        <v>1.73</v>
+      </c>
+      <c r="BG61">
+        <v>1.18</v>
+      </c>
+      <c r="BH61">
+        <v>4.3</v>
+      </c>
+      <c r="BI61">
+        <v>1.3</v>
+      </c>
+      <c r="BJ61">
+        <v>3.05</v>
+      </c>
+      <c r="BK61">
+        <v>1.52</v>
+      </c>
+      <c r="BL61">
+        <v>2.33</v>
+      </c>
+      <c r="BM61">
+        <v>1.81</v>
+      </c>
+      <c r="BN61">
+        <v>1.88</v>
+      </c>
+      <c r="BO61">
+        <v>2.23</v>
+      </c>
+      <c r="BP61">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7296589</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>135</v>
+      </c>
+      <c r="P62" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>2.23</v>
+      </c>
+      <c r="S62">
+        <v>3.05</v>
+      </c>
+      <c r="T62">
+        <v>1.34</v>
+      </c>
+      <c r="U62">
+        <v>2.9</v>
+      </c>
+      <c r="V62">
+        <v>2.67</v>
+      </c>
+      <c r="W62">
+        <v>1.44</v>
+      </c>
+      <c r="X62">
+        <v>6.6</v>
+      </c>
+      <c r="Y62">
+        <v>1.09</v>
+      </c>
+      <c r="Z62">
+        <v>2.4</v>
+      </c>
+      <c r="AA62">
+        <v>3.25</v>
+      </c>
+      <c r="AB62">
+        <v>2.5</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE62">
+        <v>1.24</v>
+      </c>
+      <c r="AF62">
+        <v>3.48</v>
+      </c>
+      <c r="AG62">
+        <v>1.8</v>
+      </c>
+      <c r="AH62">
+        <v>1.91</v>
+      </c>
+      <c r="AI62">
+        <v>1.66</v>
+      </c>
+      <c r="AJ62">
+        <v>2.08</v>
+      </c>
+      <c r="AK62">
+        <v>1.48</v>
+      </c>
+      <c r="AL62">
+        <v>1.29</v>
+      </c>
+      <c r="AM62">
+        <v>1.5</v>
+      </c>
+      <c r="AN62">
+        <v>2.33</v>
+      </c>
+      <c r="AO62">
+        <v>1.75</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+      <c r="AQ62">
+        <v>1.6</v>
+      </c>
+      <c r="AR62">
+        <v>1.81</v>
+      </c>
+      <c r="AS62">
+        <v>1.5</v>
+      </c>
+      <c r="AT62">
+        <v>3.31</v>
+      </c>
+      <c r="AU62">
+        <v>6</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>3</v>
+      </c>
+      <c r="AX62">
+        <v>6</v>
+      </c>
+      <c r="AY62">
+        <v>9</v>
+      </c>
+      <c r="AZ62">
+        <v>10</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>7</v>
+      </c>
+      <c r="BC62">
+        <v>10</v>
+      </c>
+      <c r="BD62">
+        <v>1.91</v>
+      </c>
+      <c r="BE62">
+        <v>8</v>
+      </c>
+      <c r="BF62">
+        <v>2.2</v>
+      </c>
+      <c r="BG62">
+        <v>1.15</v>
+      </c>
+      <c r="BH62">
+        <v>4.6</v>
+      </c>
+      <c r="BI62">
+        <v>1.28</v>
+      </c>
+      <c r="BJ62">
+        <v>3.3</v>
+      </c>
+      <c r="BK62">
+        <v>1.47</v>
+      </c>
+      <c r="BL62">
+        <v>2.48</v>
+      </c>
+      <c r="BM62">
+        <v>1.75</v>
+      </c>
+      <c r="BN62">
+        <v>1.95</v>
+      </c>
+      <c r="BO62">
+        <v>2.15</v>
+      </c>
+      <c r="BP62">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7296590</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>80</v>
+      </c>
+      <c r="H63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>136</v>
+      </c>
+      <c r="P63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q63">
+        <v>2.08</v>
+      </c>
+      <c r="R63">
+        <v>2.4</v>
+      </c>
+      <c r="S63">
+        <v>4.8</v>
+      </c>
+      <c r="T63">
+        <v>1.29</v>
+      </c>
+      <c r="U63">
+        <v>3.15</v>
+      </c>
+      <c r="V63">
+        <v>2.51</v>
+      </c>
+      <c r="W63">
+        <v>1.49</v>
+      </c>
+      <c r="X63">
+        <v>6</v>
+      </c>
+      <c r="Y63">
+        <v>1.11</v>
+      </c>
+      <c r="Z63">
+        <v>1.55</v>
+      </c>
+      <c r="AA63">
+        <v>3.75</v>
+      </c>
+      <c r="AB63">
+        <v>5</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.2</v>
+      </c>
+      <c r="AF63">
+        <v>3.88</v>
+      </c>
+      <c r="AG63">
+        <v>1.7</v>
+      </c>
+      <c r="AH63">
+        <v>2</v>
+      </c>
+      <c r="AI63">
+        <v>1.73</v>
+      </c>
+      <c r="AJ63">
+        <v>1.98</v>
+      </c>
+      <c r="AK63">
+        <v>1.16</v>
+      </c>
+      <c r="AL63">
+        <v>1.23</v>
+      </c>
+      <c r="AM63">
+        <v>2.3</v>
+      </c>
+      <c r="AN63">
+        <v>2</v>
+      </c>
+      <c r="AO63">
+        <v>1.67</v>
+      </c>
+      <c r="AP63">
+        <v>2.25</v>
+      </c>
+      <c r="AQ63">
+        <v>1.25</v>
+      </c>
+      <c r="AR63">
+        <v>1.89</v>
+      </c>
+      <c r="AS63">
+        <v>1.03</v>
+      </c>
+      <c r="AT63">
+        <v>2.92</v>
+      </c>
+      <c r="AU63">
+        <v>9</v>
+      </c>
+      <c r="AV63">
+        <v>8</v>
+      </c>
+      <c r="AW63">
+        <v>6</v>
+      </c>
+      <c r="AX63">
+        <v>1</v>
+      </c>
+      <c r="AY63">
+        <v>15</v>
+      </c>
+      <c r="AZ63">
+        <v>9</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
+      <c r="BC63">
+        <v>6</v>
+      </c>
+      <c r="BD63">
+        <v>1.41</v>
+      </c>
+      <c r="BE63">
+        <v>10</v>
+      </c>
+      <c r="BF63">
+        <v>3.46</v>
+      </c>
+      <c r="BG63">
+        <v>1.19</v>
+      </c>
+      <c r="BH63">
+        <v>4.1</v>
+      </c>
+      <c r="BI63">
+        <v>1.33</v>
+      </c>
+      <c r="BJ63">
+        <v>2.95</v>
+      </c>
+      <c r="BK63">
+        <v>1.54</v>
+      </c>
+      <c r="BL63">
+        <v>2.3</v>
+      </c>
+      <c r="BM63">
+        <v>1.84</v>
+      </c>
+      <c r="BN63">
+        <v>1.84</v>
+      </c>
+      <c r="BO63">
+        <v>2.3</v>
+      </c>
+      <c r="BP63">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -12764,22 +12764,22 @@
         <v>2.34</v>
       </c>
       <c r="AU58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV58">
         <v>9</v>
       </c>
       <c r="AW58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX58">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY58">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ58">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA58">
         <v>4</v>
@@ -12970,31 +12970,31 @@
         <v>3.13</v>
       </c>
       <c r="AU59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV59">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW59">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX59">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY59">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ59">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA59">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB59">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC59">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD59">
         <v>2.05</v>
@@ -13182,13 +13182,13 @@
         <v>5</v>
       </c>
       <c r="AW60">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AX60">
         <v>4</v>
       </c>
       <c r="AY60">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ60">
         <v>9</v>
@@ -13382,31 +13382,31 @@
         <v>2.36</v>
       </c>
       <c r="AU61">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV61">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW61">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX61">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AY61">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ61">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="BA61">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB61">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BC61">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD61">
         <v>2.18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['22', '52', '80', '90+4']</t>
   </si>
   <si>
+    <t>['22', '30', '68']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -515,6 +518,9 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1341,7 +1347,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1625,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1753,7 +1759,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2165,7 +2171,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2452,7 +2458,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2577,7 +2583,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2989,7 +2995,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3401,7 +3407,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3479,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4225,7 +4231,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4843,7 +4849,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -4921,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5255,7 +5261,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5461,7 +5467,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5667,7 +5673,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5954,7 +5960,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6363,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -6697,7 +6703,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6903,7 +6909,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7109,7 +7115,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7315,7 +7321,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7396,7 +7402,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -7521,7 +7527,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7805,7 +7811,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -7933,7 +7939,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8220,7 +8226,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8345,7 +8351,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8963,7 +8969,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9453,7 +9459,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
         <v>1.6</v>
@@ -9787,7 +9793,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10486,7 +10492,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -10817,7 +10823,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11229,7 +11235,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11435,7 +11441,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11641,7 +11647,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12053,7 +12059,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12259,7 +12265,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12465,7 +12471,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12877,7 +12883,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13495,7 +13501,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13588,22 +13594,22 @@
         <v>3.31</v>
       </c>
       <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>1</v>
+      </c>
+      <c r="AX62">
+        <v>4</v>
+      </c>
+      <c r="AY62">
         <v>6</v>
       </c>
-      <c r="AV62">
-        <v>4</v>
-      </c>
-      <c r="AW62">
-        <v>3</v>
-      </c>
-      <c r="AX62">
-        <v>6</v>
-      </c>
-      <c r="AY62">
-        <v>9</v>
-      </c>
       <c r="AZ62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -13701,7 +13707,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -13794,31 +13800,31 @@
         <v>2.92</v>
       </c>
       <c r="AU63">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV63">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW63">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY63">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ63">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA63">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB63">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC63">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BD63">
         <v>1.41</v>
@@ -13858,6 +13864,418 @@
       </c>
       <c r="BP63">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7296583</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45431.33333333334</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q64">
+        <v>2.48</v>
+      </c>
+      <c r="R64">
+        <v>2.2</v>
+      </c>
+      <c r="S64">
+        <v>4.2</v>
+      </c>
+      <c r="T64">
+        <v>1.32</v>
+      </c>
+      <c r="U64">
+        <v>3.1</v>
+      </c>
+      <c r="V64">
+        <v>2.75</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64">
+        <v>6.7</v>
+      </c>
+      <c r="Y64">
+        <v>1.09</v>
+      </c>
+      <c r="Z64">
+        <v>1.81</v>
+      </c>
+      <c r="AA64">
+        <v>3.65</v>
+      </c>
+      <c r="AB64">
+        <v>3.8</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>9.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.25</v>
+      </c>
+      <c r="AF64">
+        <v>3.42</v>
+      </c>
+      <c r="AG64">
+        <v>1.81</v>
+      </c>
+      <c r="AH64">
+        <v>1.89</v>
+      </c>
+      <c r="AI64">
+        <v>1.68</v>
+      </c>
+      <c r="AJ64">
+        <v>2.08</v>
+      </c>
+      <c r="AK64">
+        <v>1.22</v>
+      </c>
+      <c r="AL64">
+        <v>1.27</v>
+      </c>
+      <c r="AM64">
+        <v>1.84</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>0.33</v>
+      </c>
+      <c r="AP64">
+        <v>2.5</v>
+      </c>
+      <c r="AQ64">
+        <v>0.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.4</v>
+      </c>
+      <c r="AS64">
+        <v>0.9</v>
+      </c>
+      <c r="AT64">
+        <v>2.3</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>2</v>
+      </c>
+      <c r="AW64">
+        <v>5</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>9</v>
+      </c>
+      <c r="AZ64">
+        <v>2</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>1</v>
+      </c>
+      <c r="BC64">
+        <v>4</v>
+      </c>
+      <c r="BD64">
+        <v>1.69</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.53</v>
+      </c>
+      <c r="BG64">
+        <v>1.2</v>
+      </c>
+      <c r="BH64">
+        <v>4.25</v>
+      </c>
+      <c r="BI64">
+        <v>1.38</v>
+      </c>
+      <c r="BJ64">
+        <v>2.9</v>
+      </c>
+      <c r="BK64">
+        <v>1.67</v>
+      </c>
+      <c r="BL64">
+        <v>2.12</v>
+      </c>
+      <c r="BM64">
+        <v>2.12</v>
+      </c>
+      <c r="BN64">
+        <v>1.67</v>
+      </c>
+      <c r="BO64">
+        <v>2.85</v>
+      </c>
+      <c r="BP64">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7296588</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45431.41666666666</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>137</v>
+      </c>
+      <c r="P65" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q65">
+        <v>2.7</v>
+      </c>
+      <c r="R65">
+        <v>2.23</v>
+      </c>
+      <c r="S65">
+        <v>3.5</v>
+      </c>
+      <c r="T65">
+        <v>1.29</v>
+      </c>
+      <c r="U65">
+        <v>3.2</v>
+      </c>
+      <c r="V65">
+        <v>2.48</v>
+      </c>
+      <c r="W65">
+        <v>1.5</v>
+      </c>
+      <c r="X65">
+        <v>5.95</v>
+      </c>
+      <c r="Y65">
+        <v>1.11</v>
+      </c>
+      <c r="Z65">
+        <v>2.16</v>
+      </c>
+      <c r="AA65">
+        <v>3.55</v>
+      </c>
+      <c r="AB65">
+        <v>2.9</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>11</v>
+      </c>
+      <c r="AE65">
+        <v>1.19</v>
+      </c>
+      <c r="AF65">
+        <v>3.94</v>
+      </c>
+      <c r="AG65">
+        <v>1.67</v>
+      </c>
+      <c r="AH65">
+        <v>2.07</v>
+      </c>
+      <c r="AI65">
+        <v>1.58</v>
+      </c>
+      <c r="AJ65">
+        <v>2.23</v>
+      </c>
+      <c r="AK65">
+        <v>1.37</v>
+      </c>
+      <c r="AL65">
+        <v>1.27</v>
+      </c>
+      <c r="AM65">
+        <v>1.63</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>0.33</v>
+      </c>
+      <c r="AP65">
+        <v>2.25</v>
+      </c>
+      <c r="AQ65">
+        <v>0.25</v>
+      </c>
+      <c r="AR65">
+        <v>1.45</v>
+      </c>
+      <c r="AS65">
+        <v>1.68</v>
+      </c>
+      <c r="AT65">
+        <v>3.13</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>5</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
+        <v>3</v>
+      </c>
+      <c r="AY65">
+        <v>4</v>
+      </c>
+      <c r="AZ65">
+        <v>8</v>
+      </c>
+      <c r="BA65">
+        <v>1</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>1</v>
+      </c>
+      <c r="BD65">
+        <v>1.68</v>
+      </c>
+      <c r="BE65">
+        <v>6.75</v>
+      </c>
+      <c r="BF65">
+        <v>2.25</v>
+      </c>
+      <c r="BG65">
+        <v>1.19</v>
+      </c>
+      <c r="BH65">
+        <v>4.1</v>
+      </c>
+      <c r="BI65">
+        <v>1.33</v>
+      </c>
+      <c r="BJ65">
+        <v>2.95</v>
+      </c>
+      <c r="BK65">
+        <v>1.54</v>
+      </c>
+      <c r="BL65">
+        <v>2.28</v>
+      </c>
+      <c r="BM65">
+        <v>1.85</v>
+      </c>
+      <c r="BN65">
+        <v>1.83</v>
+      </c>
+      <c r="BO65">
+        <v>2.3</v>
+      </c>
+      <c r="BP65">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -13388,31 +13388,31 @@
         <v>2.36</v>
       </c>
       <c r="AU61">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV61">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW61">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX61">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY61">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ61">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA61">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB61">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC61">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD61">
         <v>2.18</v>
@@ -13594,22 +13594,22 @@
         <v>3.31</v>
       </c>
       <c r="AU62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
         <v>3</v>
       </c>
-      <c r="AW62">
-        <v>1</v>
-      </c>
       <c r="AX62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY62">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -13800,31 +13800,31 @@
         <v>2.92</v>
       </c>
       <c r="AU63">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV63">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW63">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY63">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ63">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA63">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB63">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC63">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD63">
         <v>1.41</v>
@@ -14009,28 +14009,28 @@
         <v>4</v>
       </c>
       <c r="AV64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>1</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
         <v>5</v>
       </c>
-      <c r="AX64">
-        <v>0</v>
-      </c>
-      <c r="AY64">
-        <v>9</v>
-      </c>
-      <c r="AZ64">
-        <v>2</v>
-      </c>
       <c r="BA64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB64">
         <v>1</v>
       </c>
       <c r="BC64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD64">
         <v>1.69</v>
@@ -14212,31 +14212,31 @@
         <v>3.13</v>
       </c>
       <c r="AU65">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV65">
+        <v>9</v>
+      </c>
+      <c r="AW65">
+        <v>6</v>
+      </c>
+      <c r="AX65">
+        <v>7</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>16</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>1</v>
+      </c>
+      <c r="BC65">
         <v>5</v>
-      </c>
-      <c r="AW65">
-        <v>4</v>
-      </c>
-      <c r="AX65">
-        <v>3</v>
-      </c>
-      <c r="AY65">
-        <v>4</v>
-      </c>
-      <c r="AZ65">
-        <v>8</v>
-      </c>
-      <c r="BA65">
-        <v>1</v>
-      </c>
-      <c r="BB65">
-        <v>0</v>
-      </c>
-      <c r="BC65">
-        <v>1</v>
       </c>
       <c r="BD65">
         <v>1.68</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14012,16 +14012,16 @@
         <v>4</v>
       </c>
       <c r="AW64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AX64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY64">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA64">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['22', '30', '68']</t>
   </si>
   <si>
+    <t>['26', '87']</t>
+  </si>
+  <si>
+    <t>['1', '38', '51', '85']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -521,6 +527,15 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['65', '79']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['32', '74', '79']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2">
         <v>0.2</v>
@@ -1347,7 +1362,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1425,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ3">
         <v>1.25</v>
@@ -1634,7 +1649,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1759,7 +1774,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2046,7 +2061,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2171,7 +2186,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2583,7 +2598,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2661,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ9">
         <v>0.75</v>
@@ -2867,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2995,7 +3010,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3407,7 +3422,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3694,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3900,7 +3915,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4231,7 +4246,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4309,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ17">
         <v>1.6</v>
@@ -4515,10 +4530,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -4849,7 +4864,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5136,7 +5151,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5261,7 +5276,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5339,7 +5354,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5467,7 +5482,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5545,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ23">
         <v>1.6</v>
@@ -5673,7 +5688,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5957,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6166,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>0.63</v>
@@ -6703,7 +6718,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6781,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.25</v>
@@ -6909,7 +6924,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -6990,7 +7005,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7115,7 +7130,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7196,7 +7211,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7321,7 +7336,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7527,7 +7542,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7939,7 +7954,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8020,7 +8035,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8223,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36">
         <v>0.25</v>
@@ -8351,7 +8366,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8429,7 +8444,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -8635,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38">
         <v>0.2</v>
@@ -8969,7 +8984,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9793,7 +9808,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9874,7 +9889,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10077,10 +10092,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -10286,7 +10301,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10489,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -10698,7 +10713,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10823,7 +10838,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10901,7 +10916,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ49">
         <v>1.75</v>
@@ -11107,7 +11122,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11235,7 +11250,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11441,7 +11456,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11519,10 +11534,10 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -11647,7 +11662,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11934,7 +11949,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12059,7 +12074,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12137,10 +12152,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -12265,7 +12280,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12471,7 +12486,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12883,7 +12898,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13501,7 +13516,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13707,7 +13722,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14119,7 +14134,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14276,6 +14291,1036 @@
       </c>
       <c r="BP65">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7296591</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>127</v>
+      </c>
+      <c r="P66" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q66">
+        <v>3</v>
+      </c>
+      <c r="R66">
+        <v>2.25</v>
+      </c>
+      <c r="S66">
+        <v>3.3</v>
+      </c>
+      <c r="T66">
+        <v>1.31</v>
+      </c>
+      <c r="U66">
+        <v>3.2</v>
+      </c>
+      <c r="V66">
+        <v>2.55</v>
+      </c>
+      <c r="W66">
+        <v>1.46</v>
+      </c>
+      <c r="X66">
+        <v>5.95</v>
+      </c>
+      <c r="Y66">
+        <v>1.1</v>
+      </c>
+      <c r="Z66">
+        <v>2.34</v>
+      </c>
+      <c r="AA66">
+        <v>3.5</v>
+      </c>
+      <c r="AB66">
+        <v>2.75</v>
+      </c>
+      <c r="AC66">
+        <v>1.03</v>
+      </c>
+      <c r="AD66">
+        <v>13</v>
+      </c>
+      <c r="AE66">
+        <v>1.22</v>
+      </c>
+      <c r="AF66">
+        <v>4</v>
+      </c>
+      <c r="AG66">
+        <v>1.81</v>
+      </c>
+      <c r="AH66">
+        <v>1.97</v>
+      </c>
+      <c r="AI66">
+        <v>1.6</v>
+      </c>
+      <c r="AJ66">
+        <v>2.25</v>
+      </c>
+      <c r="AK66">
+        <v>1.45</v>
+      </c>
+      <c r="AL66">
+        <v>1.25</v>
+      </c>
+      <c r="AM66">
+        <v>1.6</v>
+      </c>
+      <c r="AN66">
+        <v>0.25</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>0.2</v>
+      </c>
+      <c r="AQ66">
+        <v>1.5</v>
+      </c>
+      <c r="AR66">
+        <v>1.65</v>
+      </c>
+      <c r="AS66">
+        <v>1.75</v>
+      </c>
+      <c r="AT66">
+        <v>3.4</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>8</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>14</v>
+      </c>
+      <c r="AZ66">
+        <v>8</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>5</v>
+      </c>
+      <c r="BC66">
+        <v>9</v>
+      </c>
+      <c r="BD66">
+        <v>1.72</v>
+      </c>
+      <c r="BE66">
+        <v>6.75</v>
+      </c>
+      <c r="BF66">
+        <v>2.18</v>
+      </c>
+      <c r="BG66">
+        <v>1.18</v>
+      </c>
+      <c r="BH66">
+        <v>4.3</v>
+      </c>
+      <c r="BI66">
+        <v>1.3</v>
+      </c>
+      <c r="BJ66">
+        <v>3.05</v>
+      </c>
+      <c r="BK66">
+        <v>1.5</v>
+      </c>
+      <c r="BL66">
+        <v>2.38</v>
+      </c>
+      <c r="BM66">
+        <v>1.8</v>
+      </c>
+      <c r="BN66">
+        <v>1.89</v>
+      </c>
+      <c r="BO66">
+        <v>2.2</v>
+      </c>
+      <c r="BP66">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7296593</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>90</v>
+      </c>
+      <c r="P67" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q67">
+        <v>2.15</v>
+      </c>
+      <c r="R67">
+        <v>2.3</v>
+      </c>
+      <c r="S67">
+        <v>5.5</v>
+      </c>
+      <c r="T67">
+        <v>1.34</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>2.6</v>
+      </c>
+      <c r="W67">
+        <v>1.44</v>
+      </c>
+      <c r="X67">
+        <v>6.4</v>
+      </c>
+      <c r="Y67">
+        <v>1.09</v>
+      </c>
+      <c r="Z67">
+        <v>1.59</v>
+      </c>
+      <c r="AA67">
+        <v>4.1</v>
+      </c>
+      <c r="AB67">
+        <v>4.9</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>13</v>
+      </c>
+      <c r="AE67">
+        <v>1.25</v>
+      </c>
+      <c r="AF67">
+        <v>3.75</v>
+      </c>
+      <c r="AG67">
+        <v>1.75</v>
+      </c>
+      <c r="AH67">
+        <v>1.95</v>
+      </c>
+      <c r="AI67">
+        <v>1.83</v>
+      </c>
+      <c r="AJ67">
+        <v>1.95</v>
+      </c>
+      <c r="AK67">
+        <v>1.15</v>
+      </c>
+      <c r="AL67">
+        <v>1.2</v>
+      </c>
+      <c r="AM67">
+        <v>2.35</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>0.75</v>
+      </c>
+      <c r="AP67">
+        <v>0.8</v>
+      </c>
+      <c r="AQ67">
+        <v>1.2</v>
+      </c>
+      <c r="AR67">
+        <v>1.61</v>
+      </c>
+      <c r="AS67">
+        <v>1.14</v>
+      </c>
+      <c r="AT67">
+        <v>2.75</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>5</v>
+      </c>
+      <c r="AW67">
+        <v>12</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>16</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>8</v>
+      </c>
+      <c r="BB67">
+        <v>3</v>
+      </c>
+      <c r="BC67">
+        <v>11</v>
+      </c>
+      <c r="BD67">
+        <v>1.27</v>
+      </c>
+      <c r="BE67">
+        <v>8</v>
+      </c>
+      <c r="BF67">
+        <v>3.65</v>
+      </c>
+      <c r="BG67">
+        <v>1.15</v>
+      </c>
+      <c r="BH67">
+        <v>4.6</v>
+      </c>
+      <c r="BI67">
+        <v>1.26</v>
+      </c>
+      <c r="BJ67">
+        <v>3.4</v>
+      </c>
+      <c r="BK67">
+        <v>1.45</v>
+      </c>
+      <c r="BL67">
+        <v>2.55</v>
+      </c>
+      <c r="BM67">
+        <v>1.72</v>
+      </c>
+      <c r="BN67">
+        <v>1.98</v>
+      </c>
+      <c r="BO67">
+        <v>2.07</v>
+      </c>
+      <c r="BP67">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7296595</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q68">
+        <v>2.32</v>
+      </c>
+      <c r="R68">
+        <v>2.3</v>
+      </c>
+      <c r="S68">
+        <v>4.3</v>
+      </c>
+      <c r="T68">
+        <v>1.3</v>
+      </c>
+      <c r="U68">
+        <v>3.05</v>
+      </c>
+      <c r="V68">
+        <v>2.48</v>
+      </c>
+      <c r="W68">
+        <v>1.47</v>
+      </c>
+      <c r="X68">
+        <v>5.8</v>
+      </c>
+      <c r="Y68">
+        <v>1.09</v>
+      </c>
+      <c r="Z68">
+        <v>1.79</v>
+      </c>
+      <c r="AA68">
+        <v>3.7</v>
+      </c>
+      <c r="AB68">
+        <v>4</v>
+      </c>
+      <c r="AC68">
+        <v>1.03</v>
+      </c>
+      <c r="AD68">
+        <v>11</v>
+      </c>
+      <c r="AE68">
+        <v>1.22</v>
+      </c>
+      <c r="AF68">
+        <v>3.7</v>
+      </c>
+      <c r="AG68">
+        <v>1.82</v>
+      </c>
+      <c r="AH68">
+        <v>1.96</v>
+      </c>
+      <c r="AI68">
+        <v>1.71</v>
+      </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>1.24</v>
+      </c>
+      <c r="AL68">
+        <v>1.23</v>
+      </c>
+      <c r="AM68">
+        <v>2.05</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>2</v>
+      </c>
+      <c r="AP68">
+        <v>2.2</v>
+      </c>
+      <c r="AQ68">
+        <v>1.6</v>
+      </c>
+      <c r="AR68">
+        <v>2.08</v>
+      </c>
+      <c r="AS68">
+        <v>1.48</v>
+      </c>
+      <c r="AT68">
+        <v>3.56</v>
+      </c>
+      <c r="AU68">
+        <v>9</v>
+      </c>
+      <c r="AV68">
+        <v>7</v>
+      </c>
+      <c r="AW68">
+        <v>10</v>
+      </c>
+      <c r="AX68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
+        <v>19</v>
+      </c>
+      <c r="AZ68">
+        <v>8</v>
+      </c>
+      <c r="BA68">
+        <v>10</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>13</v>
+      </c>
+      <c r="BD68">
+        <v>1.63</v>
+      </c>
+      <c r="BE68">
+        <v>6.75</v>
+      </c>
+      <c r="BF68">
+        <v>2.33</v>
+      </c>
+      <c r="BG68">
+        <v>1.21</v>
+      </c>
+      <c r="BH68">
+        <v>3.9</v>
+      </c>
+      <c r="BI68">
+        <v>1.37</v>
+      </c>
+      <c r="BJ68">
+        <v>2.8</v>
+      </c>
+      <c r="BK68">
+        <v>1.61</v>
+      </c>
+      <c r="BL68">
+        <v>2.15</v>
+      </c>
+      <c r="BM68">
+        <v>1.96</v>
+      </c>
+      <c r="BN68">
+        <v>1.74</v>
+      </c>
+      <c r="BO68">
+        <v>2.43</v>
+      </c>
+      <c r="BP68">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7296596</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>7</v>
+      </c>
+      <c r="O69" t="s">
+        <v>139</v>
+      </c>
+      <c r="P69" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q69">
+        <v>2.32</v>
+      </c>
+      <c r="R69">
+        <v>2.3</v>
+      </c>
+      <c r="S69">
+        <v>4.3</v>
+      </c>
+      <c r="T69">
+        <v>1.33</v>
+      </c>
+      <c r="U69">
+        <v>2.95</v>
+      </c>
+      <c r="V69">
+        <v>2.65</v>
+      </c>
+      <c r="W69">
+        <v>1.45</v>
+      </c>
+      <c r="X69">
+        <v>6.1</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>1.77</v>
+      </c>
+      <c r="AA69">
+        <v>3.65</v>
+      </c>
+      <c r="AB69">
+        <v>4.2</v>
+      </c>
+      <c r="AC69">
+        <v>1.03</v>
+      </c>
+      <c r="AD69">
+        <v>9</v>
+      </c>
+      <c r="AE69">
+        <v>1.24</v>
+      </c>
+      <c r="AF69">
+        <v>3.55</v>
+      </c>
+      <c r="AG69">
+        <v>1.83</v>
+      </c>
+      <c r="AH69">
+        <v>1.94</v>
+      </c>
+      <c r="AI69">
+        <v>1.74</v>
+      </c>
+      <c r="AJ69">
+        <v>1.97</v>
+      </c>
+      <c r="AK69">
+        <v>1.22</v>
+      </c>
+      <c r="AL69">
+        <v>1.26</v>
+      </c>
+      <c r="AM69">
+        <v>1.98</v>
+      </c>
+      <c r="AN69">
+        <v>1.67</v>
+      </c>
+      <c r="AO69">
+        <v>0.67</v>
+      </c>
+      <c r="AP69">
+        <v>2</v>
+      </c>
+      <c r="AQ69">
+        <v>0.5</v>
+      </c>
+      <c r="AR69">
+        <v>1.81</v>
+      </c>
+      <c r="AS69">
+        <v>1.13</v>
+      </c>
+      <c r="AT69">
+        <v>2.94</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>6</v>
+      </c>
+      <c r="AX69">
+        <v>1</v>
+      </c>
+      <c r="AY69">
+        <v>13</v>
+      </c>
+      <c r="AZ69">
+        <v>7</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>1.34</v>
+      </c>
+      <c r="BE69">
+        <v>7</v>
+      </c>
+      <c r="BF69">
+        <v>3.3</v>
+      </c>
+      <c r="BG69">
+        <v>1.23</v>
+      </c>
+      <c r="BH69">
+        <v>3.7</v>
+      </c>
+      <c r="BI69">
+        <v>1.38</v>
+      </c>
+      <c r="BJ69">
+        <v>2.7</v>
+      </c>
+      <c r="BK69">
+        <v>1.64</v>
+      </c>
+      <c r="BL69">
+        <v>2.1</v>
+      </c>
+      <c r="BM69">
+        <v>1.98</v>
+      </c>
+      <c r="BN69">
+        <v>1.72</v>
+      </c>
+      <c r="BO69">
+        <v>2.48</v>
+      </c>
+      <c r="BP69">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7296597</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" t="s">
+        <v>81</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>90</v>
+      </c>
+      <c r="P70" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q70">
+        <v>3.1</v>
+      </c>
+      <c r="R70">
+        <v>2.25</v>
+      </c>
+      <c r="S70">
+        <v>3.25</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.63</v>
+      </c>
+      <c r="W70">
+        <v>1.44</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>2.43</v>
+      </c>
+      <c r="AA70">
+        <v>3.45</v>
+      </c>
+      <c r="AB70">
+        <v>2.65</v>
+      </c>
+      <c r="AC70">
+        <v>1.03</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>1.22</v>
+      </c>
+      <c r="AF70">
+        <v>3.8</v>
+      </c>
+      <c r="AG70">
+        <v>1.75</v>
+      </c>
+      <c r="AH70">
+        <v>1.95</v>
+      </c>
+      <c r="AI70">
+        <v>1.62</v>
+      </c>
+      <c r="AJ70">
+        <v>2.2</v>
+      </c>
+      <c r="AK70">
+        <v>1.49</v>
+      </c>
+      <c r="AL70">
+        <v>1.28</v>
+      </c>
+      <c r="AM70">
+        <v>1.5</v>
+      </c>
+      <c r="AN70">
+        <v>1.75</v>
+      </c>
+      <c r="AO70">
+        <v>0.5</v>
+      </c>
+      <c r="AP70">
+        <v>1.6</v>
+      </c>
+      <c r="AQ70">
+        <v>0.6</v>
+      </c>
+      <c r="AR70">
+        <v>1.56</v>
+      </c>
+      <c r="AS70">
+        <v>1.08</v>
+      </c>
+      <c r="AT70">
+        <v>2.64</v>
+      </c>
+      <c r="AU70">
+        <v>2</v>
+      </c>
+      <c r="AV70">
+        <v>6</v>
+      </c>
+      <c r="AW70">
+        <v>8</v>
+      </c>
+      <c r="AX70">
+        <v>16</v>
+      </c>
+      <c r="AY70">
+        <v>10</v>
+      </c>
+      <c r="AZ70">
+        <v>22</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>10</v>
+      </c>
+      <c r="BC70">
+        <v>12</v>
+      </c>
+      <c r="BD70">
+        <v>1.77</v>
+      </c>
+      <c r="BE70">
+        <v>6.75</v>
+      </c>
+      <c r="BF70">
+        <v>2.08</v>
+      </c>
+      <c r="BG70">
+        <v>1.15</v>
+      </c>
+      <c r="BH70">
+        <v>4.6</v>
+      </c>
+      <c r="BI70">
+        <v>1.27</v>
+      </c>
+      <c r="BJ70">
+        <v>3.3</v>
+      </c>
+      <c r="BK70">
+        <v>1.46</v>
+      </c>
+      <c r="BL70">
+        <v>2.5</v>
+      </c>
+      <c r="BM70">
+        <v>1.73</v>
+      </c>
+      <c r="BN70">
+        <v>1.98</v>
+      </c>
+      <c r="BO70">
+        <v>2.1</v>
+      </c>
+      <c r="BP70">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,9 @@
     <t>['1', '38', '51', '85']</t>
   </si>
   <si>
+    <t>['31', '55']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -536,6 +539,12 @@
   </si>
   <si>
     <t>['32', '74', '79']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1362,7 +1371,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1443,7 +1452,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ3">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1774,7 +1783,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1855,7 +1864,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2058,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>1.2</v>
@@ -2186,7 +2195,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2470,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>0.25</v>
@@ -2598,7 +2607,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2679,7 +2688,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3010,7 +3019,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3088,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>1.25</v>
@@ -3422,7 +3431,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4246,7 +4255,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4736,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
         <v>0.2</v>
@@ -4864,7 +4873,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -4945,7 +4954,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>1.38</v>
@@ -5276,7 +5285,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5357,7 +5366,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5482,7 +5491,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5688,7 +5697,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5769,7 +5778,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6718,7 +6727,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6924,7 +6933,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7130,7 +7139,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7208,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>1.6</v>
@@ -7336,7 +7345,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7414,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32">
         <v>0.25</v>
@@ -7542,7 +7551,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7829,7 +7838,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR34">
         <v>1.26</v>
@@ -7954,7 +7963,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8366,7 +8375,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8856,7 +8865,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1.6</v>
@@ -8984,7 +8993,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9065,7 +9074,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9271,7 +9280,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -9808,7 +9817,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10710,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -10838,7 +10847,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11125,7 +11134,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11250,7 +11259,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11331,7 +11340,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11456,7 +11465,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11662,7 +11671,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11740,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -12074,7 +12083,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12280,7 +12289,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12358,7 +12367,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>0.2</v>
@@ -12486,7 +12495,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12564,10 +12573,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -12898,7 +12907,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13516,7 +13525,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13722,7 +13731,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14134,7 +14143,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14340,7 +14349,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14546,7 +14555,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14752,7 +14761,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -14958,7 +14967,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15321,6 +15330,624 @@
       </c>
       <c r="BP70">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7296592</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45435.58333333334</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>90</v>
+      </c>
+      <c r="P71" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q71">
+        <v>2.88</v>
+      </c>
+      <c r="R71">
+        <v>2.18</v>
+      </c>
+      <c r="S71">
+        <v>3.3</v>
+      </c>
+      <c r="T71">
+        <v>1.36</v>
+      </c>
+      <c r="U71">
+        <v>2.8</v>
+      </c>
+      <c r="V71">
+        <v>2.8</v>
+      </c>
+      <c r="W71">
+        <v>1.42</v>
+      </c>
+      <c r="X71">
+        <v>6.4</v>
+      </c>
+      <c r="Y71">
+        <v>1.07</v>
+      </c>
+      <c r="Z71">
+        <v>2.7</v>
+      </c>
+      <c r="AA71">
+        <v>2.56</v>
+      </c>
+      <c r="AB71">
+        <v>2.88</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>8.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.27</v>
+      </c>
+      <c r="AF71">
+        <v>3.3</v>
+      </c>
+      <c r="AG71">
+        <v>1.91</v>
+      </c>
+      <c r="AH71">
+        <v>1.75</v>
+      </c>
+      <c r="AI71">
+        <v>1.68</v>
+      </c>
+      <c r="AJ71">
+        <v>2.02</v>
+      </c>
+      <c r="AK71">
+        <v>1.4</v>
+      </c>
+      <c r="AL71">
+        <v>1.32</v>
+      </c>
+      <c r="AM71">
+        <v>1.56</v>
+      </c>
+      <c r="AN71">
+        <v>2.25</v>
+      </c>
+      <c r="AO71">
+        <v>1.25</v>
+      </c>
+      <c r="AP71">
+        <v>1.8</v>
+      </c>
+      <c r="AQ71">
+        <v>1.6</v>
+      </c>
+      <c r="AR71">
+        <v>1.55</v>
+      </c>
+      <c r="AS71">
+        <v>1.37</v>
+      </c>
+      <c r="AT71">
+        <v>2.92</v>
+      </c>
+      <c r="AU71">
+        <v>3</v>
+      </c>
+      <c r="AV71">
+        <v>8</v>
+      </c>
+      <c r="AW71">
+        <v>4</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>7</v>
+      </c>
+      <c r="AZ71">
+        <v>13</v>
+      </c>
+      <c r="BA71">
+        <v>4</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>8</v>
+      </c>
+      <c r="BD71">
+        <v>1.66</v>
+      </c>
+      <c r="BE71">
+        <v>6.75</v>
+      </c>
+      <c r="BF71">
+        <v>2.3</v>
+      </c>
+      <c r="BG71">
+        <v>1.18</v>
+      </c>
+      <c r="BH71">
+        <v>4.3</v>
+      </c>
+      <c r="BI71">
+        <v>1.3</v>
+      </c>
+      <c r="BJ71">
+        <v>3.05</v>
+      </c>
+      <c r="BK71">
+        <v>1.52</v>
+      </c>
+      <c r="BL71">
+        <v>2.33</v>
+      </c>
+      <c r="BM71">
+        <v>1.82</v>
+      </c>
+      <c r="BN71">
+        <v>1.88</v>
+      </c>
+      <c r="BO71">
+        <v>2.23</v>
+      </c>
+      <c r="BP71">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7296594</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45435.58333333334</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>90</v>
+      </c>
+      <c r="P72" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q72">
+        <v>2.9</v>
+      </c>
+      <c r="R72">
+        <v>2.15</v>
+      </c>
+      <c r="S72">
+        <v>3.4</v>
+      </c>
+      <c r="T72">
+        <v>1.36</v>
+      </c>
+      <c r="U72">
+        <v>2.9</v>
+      </c>
+      <c r="V72">
+        <v>2.67</v>
+      </c>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>6.6</v>
+      </c>
+      <c r="Y72">
+        <v>1.09</v>
+      </c>
+      <c r="Z72">
+        <v>1.46</v>
+      </c>
+      <c r="AA72">
+        <v>4.13</v>
+      </c>
+      <c r="AB72">
+        <v>5.54</v>
+      </c>
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE72">
+        <v>1.24</v>
+      </c>
+      <c r="AF72">
+        <v>3.48</v>
+      </c>
+      <c r="AG72">
+        <v>1.8</v>
+      </c>
+      <c r="AH72">
+        <v>1.83</v>
+      </c>
+      <c r="AI72">
+        <v>1.65</v>
+      </c>
+      <c r="AJ72">
+        <v>2.1</v>
+      </c>
+      <c r="AK72">
+        <v>1.4</v>
+      </c>
+      <c r="AL72">
+        <v>1.33</v>
+      </c>
+      <c r="AM72">
+        <v>1.57</v>
+      </c>
+      <c r="AN72">
+        <v>2.33</v>
+      </c>
+      <c r="AO72">
+        <v>0.75</v>
+      </c>
+      <c r="AP72">
+        <v>1.75</v>
+      </c>
+      <c r="AQ72">
+        <v>1.2</v>
+      </c>
+      <c r="AR72">
+        <v>1.66</v>
+      </c>
+      <c r="AS72">
+        <v>1.42</v>
+      </c>
+      <c r="AT72">
+        <v>3.08</v>
+      </c>
+      <c r="AU72">
+        <v>2</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>3</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>5</v>
+      </c>
+      <c r="AZ72">
+        <v>8</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <v>2</v>
+      </c>
+      <c r="BC72">
+        <v>9</v>
+      </c>
+      <c r="BD72">
+        <v>1.91</v>
+      </c>
+      <c r="BE72">
+        <v>8.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.2</v>
+      </c>
+      <c r="BG72">
+        <v>1.17</v>
+      </c>
+      <c r="BH72">
+        <v>4.3</v>
+      </c>
+      <c r="BI72">
+        <v>1.3</v>
+      </c>
+      <c r="BJ72">
+        <v>3.05</v>
+      </c>
+      <c r="BK72">
+        <v>1.5</v>
+      </c>
+      <c r="BL72">
+        <v>2.35</v>
+      </c>
+      <c r="BM72">
+        <v>1.95</v>
+      </c>
+      <c r="BN72">
+        <v>1.85</v>
+      </c>
+      <c r="BO72">
+        <v>2.23</v>
+      </c>
+      <c r="BP72">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7296598</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45435.58333333334</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q73">
+        <v>3.2</v>
+      </c>
+      <c r="R73">
+        <v>2.2</v>
+      </c>
+      <c r="S73">
+        <v>3.25</v>
+      </c>
+      <c r="T73">
+        <v>1.36</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73">
+        <v>2.63</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>7</v>
+      </c>
+      <c r="Y73">
+        <v>1.1</v>
+      </c>
+      <c r="Z73">
+        <v>3.47</v>
+      </c>
+      <c r="AA73">
+        <v>2.42</v>
+      </c>
+      <c r="AB73">
+        <v>2.45</v>
+      </c>
+      <c r="AC73">
+        <v>1.03</v>
+      </c>
+      <c r="AD73">
+        <v>9</v>
+      </c>
+      <c r="AE73">
+        <v>1.25</v>
+      </c>
+      <c r="AF73">
+        <v>3.45</v>
+      </c>
+      <c r="AG73">
+        <v>2</v>
+      </c>
+      <c r="AH73">
+        <v>1.67</v>
+      </c>
+      <c r="AI73">
+        <v>1.67</v>
+      </c>
+      <c r="AJ73">
+        <v>2.1</v>
+      </c>
+      <c r="AK73">
+        <v>1.48</v>
+      </c>
+      <c r="AL73">
+        <v>1.28</v>
+      </c>
+      <c r="AM73">
+        <v>1.5</v>
+      </c>
+      <c r="AN73">
+        <v>0.75</v>
+      </c>
+      <c r="AO73">
+        <v>1</v>
+      </c>
+      <c r="AP73">
+        <v>1.2</v>
+      </c>
+      <c r="AQ73">
+        <v>0.8</v>
+      </c>
+      <c r="AR73">
+        <v>1.24</v>
+      </c>
+      <c r="AS73">
+        <v>1.39</v>
+      </c>
+      <c r="AT73">
+        <v>2.63</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
+        <v>2</v>
+      </c>
+      <c r="AX73">
+        <v>1</v>
+      </c>
+      <c r="AY73">
+        <v>2</v>
+      </c>
+      <c r="AZ73">
+        <v>3</v>
+      </c>
+      <c r="BA73">
+        <v>8</v>
+      </c>
+      <c r="BB73">
+        <v>18</v>
+      </c>
+      <c r="BC73">
+        <v>26</v>
+      </c>
+      <c r="BD73">
+        <v>1.84</v>
+      </c>
+      <c r="BE73">
+        <v>6.75</v>
+      </c>
+      <c r="BF73">
+        <v>2</v>
+      </c>
+      <c r="BG73">
+        <v>1.16</v>
+      </c>
+      <c r="BH73">
+        <v>4.6</v>
+      </c>
+      <c r="BI73">
+        <v>1.28</v>
+      </c>
+      <c r="BJ73">
+        <v>3.2</v>
+      </c>
+      <c r="BK73">
+        <v>1.48</v>
+      </c>
+      <c r="BL73">
+        <v>2.43</v>
+      </c>
+      <c r="BM73">
+        <v>1.75</v>
+      </c>
+      <c r="BN73">
+        <v>1.95</v>
+      </c>
+      <c r="BO73">
+        <v>2.15</v>
+      </c>
+      <c r="BP73">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,18 @@
     <t>['31', '55']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['29', '80', '90+3']</t>
+  </si>
+  <si>
+    <t>['34', '52', '86']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -545,6 +557,15 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['62', '90+2']</t>
+  </si>
+  <si>
+    <t>['25', '31']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1267,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ2">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1371,7 +1392,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1783,7 +1804,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2195,7 +2216,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2273,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -2607,7 +2628,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3019,7 +3040,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3100,7 +3121,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3431,7 +3452,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3509,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3921,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4127,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4255,7 +4276,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4333,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ17">
         <v>1.6</v>
@@ -4748,7 +4769,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ19">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -4873,7 +4894,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5285,7 +5306,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5363,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ22">
         <v>1.6</v>
@@ -5491,7 +5512,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5697,7 +5718,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5775,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24">
         <v>1.2</v>
@@ -5984,7 +6005,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6187,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6393,10 +6414,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -6727,7 +6748,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6808,7 +6829,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -6933,7 +6954,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7011,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7139,7 +7160,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7220,7 +7241,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7345,7 +7366,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7551,7 +7572,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7963,7 +7984,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8041,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
         <v>0.6</v>
@@ -8375,7 +8396,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8456,7 +8477,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -8659,10 +8680,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ38">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -8993,7 +9014,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9277,7 +9298,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ41">
         <v>0.8</v>
@@ -9483,7 +9504,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ42">
         <v>1.6</v>
@@ -9689,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43">
         <v>0</v>
@@ -9817,7 +9838,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9898,7 +9919,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10516,7 +10537,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -10847,7 +10868,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11259,7 +11280,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11465,7 +11486,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11546,7 +11567,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -11671,7 +11692,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11752,7 +11773,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -11955,7 +11976,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
         <v>1.2</v>
@@ -12083,7 +12104,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12161,7 +12182,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ55">
         <v>0.6</v>
@@ -12289,7 +12310,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12370,7 +12391,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12495,7 +12516,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12779,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ58">
         <v>0</v>
@@ -12907,7 +12928,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -12988,7 +13009,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13397,10 +13418,10 @@
         <v>0.25</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>0.92</v>
@@ -13525,7 +13546,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13603,7 +13624,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>1.6</v>
@@ -13731,7 +13752,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -13812,7 +13833,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.89</v>
@@ -14018,7 +14039,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14143,7 +14164,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14221,7 +14242,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ65">
         <v>0.25</v>
@@ -14349,7 +14370,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14555,7 +14576,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14633,7 +14654,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ67">
         <v>1.2</v>
@@ -14761,7 +14782,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -14842,7 +14863,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR68">
         <v>2.08</v>
@@ -14967,7 +14988,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15379,7 +15400,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15585,7 +15606,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15948,6 +15969,1036 @@
       </c>
       <c r="BP73">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7296601</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45438.33333333334</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>141</v>
+      </c>
+      <c r="P74" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q74">
+        <v>4.7</v>
+      </c>
+      <c r="R74">
+        <v>2.45</v>
+      </c>
+      <c r="S74">
+        <v>2.08</v>
+      </c>
+      <c r="T74">
+        <v>1.28</v>
+      </c>
+      <c r="U74">
+        <v>3.3</v>
+      </c>
+      <c r="V74">
+        <v>2.4</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>5.3</v>
+      </c>
+      <c r="Y74">
+        <v>1.11</v>
+      </c>
+      <c r="Z74">
+        <v>5.75</v>
+      </c>
+      <c r="AA74">
+        <v>4</v>
+      </c>
+      <c r="AB74">
+        <v>1.5</v>
+      </c>
+      <c r="AC74">
+        <v>1.02</v>
+      </c>
+      <c r="AD74">
+        <v>15</v>
+      </c>
+      <c r="AE74">
+        <v>1.22</v>
+      </c>
+      <c r="AF74">
+        <v>4.2</v>
+      </c>
+      <c r="AG74">
+        <v>1.8</v>
+      </c>
+      <c r="AH74">
+        <v>1.91</v>
+      </c>
+      <c r="AI74">
+        <v>1.72</v>
+      </c>
+      <c r="AJ74">
+        <v>1.98</v>
+      </c>
+      <c r="AK74">
+        <v>2.28</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>1.17</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>1.25</v>
+      </c>
+      <c r="AP74">
+        <v>1.6</v>
+      </c>
+      <c r="AQ74">
+        <v>1.6</v>
+      </c>
+      <c r="AR74">
+        <v>0.98</v>
+      </c>
+      <c r="AS74">
+        <v>1.77</v>
+      </c>
+      <c r="AT74">
+        <v>2.75</v>
+      </c>
+      <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>2</v>
+      </c>
+      <c r="AW74">
+        <v>4</v>
+      </c>
+      <c r="AX74">
+        <v>10</v>
+      </c>
+      <c r="AY74">
+        <v>6</v>
+      </c>
+      <c r="AZ74">
+        <v>12</v>
+      </c>
+      <c r="BA74">
+        <v>7</v>
+      </c>
+      <c r="BB74">
+        <v>6</v>
+      </c>
+      <c r="BC74">
+        <v>13</v>
+      </c>
+      <c r="BD74">
+        <v>2.95</v>
+      </c>
+      <c r="BE74">
+        <v>7</v>
+      </c>
+      <c r="BF74">
+        <v>1.4</v>
+      </c>
+      <c r="BG74">
+        <v>1.16</v>
+      </c>
+      <c r="BH74">
+        <v>4.4</v>
+      </c>
+      <c r="BI74">
+        <v>1.29</v>
+      </c>
+      <c r="BJ74">
+        <v>3.2</v>
+      </c>
+      <c r="BK74">
+        <v>1.49</v>
+      </c>
+      <c r="BL74">
+        <v>2.43</v>
+      </c>
+      <c r="BM74">
+        <v>1.76</v>
+      </c>
+      <c r="BN74">
+        <v>1.94</v>
+      </c>
+      <c r="BO74">
+        <v>2.15</v>
+      </c>
+      <c r="BP74">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7296605</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45438.41666666666</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>142</v>
+      </c>
+      <c r="P75" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q75">
+        <v>2.65</v>
+      </c>
+      <c r="R75">
+        <v>2.18</v>
+      </c>
+      <c r="S75">
+        <v>3.7</v>
+      </c>
+      <c r="T75">
+        <v>1.35</v>
+      </c>
+      <c r="U75">
+        <v>2.85</v>
+      </c>
+      <c r="V75">
+        <v>2.7</v>
+      </c>
+      <c r="W75">
+        <v>1.4</v>
+      </c>
+      <c r="X75">
+        <v>6.4</v>
+      </c>
+      <c r="Y75">
+        <v>1.07</v>
+      </c>
+      <c r="Z75">
+        <v>2.1</v>
+      </c>
+      <c r="AA75">
+        <v>3.2</v>
+      </c>
+      <c r="AB75">
+        <v>3.3</v>
+      </c>
+      <c r="AC75">
+        <v>1.04</v>
+      </c>
+      <c r="AD75">
+        <v>12</v>
+      </c>
+      <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.4</v>
+      </c>
+      <c r="AG75">
+        <v>2</v>
+      </c>
+      <c r="AH75">
+        <v>1.73</v>
+      </c>
+      <c r="AI75">
+        <v>1.73</v>
+      </c>
+      <c r="AJ75">
+        <v>1.98</v>
+      </c>
+      <c r="AK75">
+        <v>1.3</v>
+      </c>
+      <c r="AL75">
+        <v>1.28</v>
+      </c>
+      <c r="AM75">
+        <v>1.74</v>
+      </c>
+      <c r="AN75">
+        <v>2</v>
+      </c>
+      <c r="AO75">
+        <v>0.2</v>
+      </c>
+      <c r="AP75">
+        <v>1.6</v>
+      </c>
+      <c r="AQ75">
+        <v>0.67</v>
+      </c>
+      <c r="AR75">
+        <v>1.67</v>
+      </c>
+      <c r="AS75">
+        <v>1.52</v>
+      </c>
+      <c r="AT75">
+        <v>3.19</v>
+      </c>
+      <c r="AU75">
+        <v>2</v>
+      </c>
+      <c r="AV75">
+        <v>10</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
+        <v>7</v>
+      </c>
+      <c r="AY75">
+        <v>4</v>
+      </c>
+      <c r="AZ75">
+        <v>17</v>
+      </c>
+      <c r="BA75">
+        <v>2</v>
+      </c>
+      <c r="BB75">
+        <v>4</v>
+      </c>
+      <c r="BC75">
+        <v>6</v>
+      </c>
+      <c r="BD75">
+        <v>1.67</v>
+      </c>
+      <c r="BE75">
+        <v>6.75</v>
+      </c>
+      <c r="BF75">
+        <v>2.28</v>
+      </c>
+      <c r="BG75">
+        <v>1.17</v>
+      </c>
+      <c r="BH75">
+        <v>4.35</v>
+      </c>
+      <c r="BI75">
+        <v>1.3</v>
+      </c>
+      <c r="BJ75">
+        <v>3.15</v>
+      </c>
+      <c r="BK75">
+        <v>1.49</v>
+      </c>
+      <c r="BL75">
+        <v>2.4</v>
+      </c>
+      <c r="BM75">
+        <v>1.78</v>
+      </c>
+      <c r="BN75">
+        <v>1.92</v>
+      </c>
+      <c r="BO75">
+        <v>2.18</v>
+      </c>
+      <c r="BP75">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7296604</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45438.41666666666</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>143</v>
+      </c>
+      <c r="P76" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q76">
+        <v>2.5</v>
+      </c>
+      <c r="R76">
+        <v>2.28</v>
+      </c>
+      <c r="S76">
+        <v>3.8</v>
+      </c>
+      <c r="T76">
+        <v>1.32</v>
+      </c>
+      <c r="U76">
+        <v>3.05</v>
+      </c>
+      <c r="V76">
+        <v>2.5</v>
+      </c>
+      <c r="W76">
+        <v>1.46</v>
+      </c>
+      <c r="X76">
+        <v>5.8</v>
+      </c>
+      <c r="Y76">
+        <v>1.09</v>
+      </c>
+      <c r="Z76">
+        <v>1.97</v>
+      </c>
+      <c r="AA76">
+        <v>3.35</v>
+      </c>
+      <c r="AB76">
+        <v>3.55</v>
+      </c>
+      <c r="AC76">
+        <v>1.03</v>
+      </c>
+      <c r="AD76">
+        <v>13</v>
+      </c>
+      <c r="AE76">
+        <v>1.25</v>
+      </c>
+      <c r="AF76">
+        <v>3.75</v>
+      </c>
+      <c r="AG76">
+        <v>1.73</v>
+      </c>
+      <c r="AH76">
+        <v>2</v>
+      </c>
+      <c r="AI76">
+        <v>1.66</v>
+      </c>
+      <c r="AJ76">
+        <v>2.07</v>
+      </c>
+      <c r="AK76">
+        <v>1.29</v>
+      </c>
+      <c r="AL76">
+        <v>1.28</v>
+      </c>
+      <c r="AM76">
+        <v>1.79</v>
+      </c>
+      <c r="AN76">
+        <v>2.25</v>
+      </c>
+      <c r="AO76">
+        <v>1.25</v>
+      </c>
+      <c r="AP76">
+        <v>2.4</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>1.51</v>
+      </c>
+      <c r="AS76">
+        <v>1.19</v>
+      </c>
+      <c r="AT76">
+        <v>2.7</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
+        <v>6</v>
+      </c>
+      <c r="AW76">
+        <v>4</v>
+      </c>
+      <c r="AX76">
+        <v>3</v>
+      </c>
+      <c r="AY76">
+        <v>8</v>
+      </c>
+      <c r="AZ76">
+        <v>9</v>
+      </c>
+      <c r="BA76">
+        <v>7</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
+        <v>12</v>
+      </c>
+      <c r="BD76">
+        <v>1.65</v>
+      </c>
+      <c r="BE76">
+        <v>6.75</v>
+      </c>
+      <c r="BF76">
+        <v>2.3</v>
+      </c>
+      <c r="BG76">
+        <v>1.15</v>
+      </c>
+      <c r="BH76">
+        <v>4.6</v>
+      </c>
+      <c r="BI76">
+        <v>1.27</v>
+      </c>
+      <c r="BJ76">
+        <v>3.3</v>
+      </c>
+      <c r="BK76">
+        <v>1.45</v>
+      </c>
+      <c r="BL76">
+        <v>2.55</v>
+      </c>
+      <c r="BM76">
+        <v>1.71</v>
+      </c>
+      <c r="BN76">
+        <v>2</v>
+      </c>
+      <c r="BO76">
+        <v>2.07</v>
+      </c>
+      <c r="BP76">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7296600</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45438.41666666666</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>144</v>
+      </c>
+      <c r="P77" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q77">
+        <v>3.4</v>
+      </c>
+      <c r="R77">
+        <v>2.18</v>
+      </c>
+      <c r="S77">
+        <v>2.88</v>
+      </c>
+      <c r="T77">
+        <v>1.38</v>
+      </c>
+      <c r="U77">
+        <v>2.9</v>
+      </c>
+      <c r="V77">
+        <v>2.65</v>
+      </c>
+      <c r="W77">
+        <v>1.41</v>
+      </c>
+      <c r="X77">
+        <v>6.25</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>2.5</v>
+      </c>
+      <c r="AA77">
+        <v>3.25</v>
+      </c>
+      <c r="AB77">
+        <v>2.6</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>12</v>
+      </c>
+      <c r="AE77">
+        <v>1.3</v>
+      </c>
+      <c r="AF77">
+        <v>3.5</v>
+      </c>
+      <c r="AG77">
+        <v>1.91</v>
+      </c>
+      <c r="AH77">
+        <v>1.8</v>
+      </c>
+      <c r="AI77">
+        <v>1.71</v>
+      </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
+      <c r="AK77">
+        <v>1.58</v>
+      </c>
+      <c r="AL77">
+        <v>1.3</v>
+      </c>
+      <c r="AM77">
+        <v>1.4</v>
+      </c>
+      <c r="AN77">
+        <v>1.6</v>
+      </c>
+      <c r="AO77">
+        <v>0.5</v>
+      </c>
+      <c r="AP77">
+        <v>1.83</v>
+      </c>
+      <c r="AQ77">
+        <v>0.4</v>
+      </c>
+      <c r="AR77">
+        <v>1.5</v>
+      </c>
+      <c r="AS77">
+        <v>0.9</v>
+      </c>
+      <c r="AT77">
+        <v>2.4</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>3</v>
+      </c>
+      <c r="AX77">
+        <v>12</v>
+      </c>
+      <c r="AY77">
+        <v>9</v>
+      </c>
+      <c r="AZ77">
+        <v>19</v>
+      </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
+      <c r="BB77">
+        <v>10</v>
+      </c>
+      <c r="BC77">
+        <v>12</v>
+      </c>
+      <c r="BD77">
+        <v>2.43</v>
+      </c>
+      <c r="BE77">
+        <v>6.75</v>
+      </c>
+      <c r="BF77">
+        <v>1.57</v>
+      </c>
+      <c r="BG77">
+        <v>1.19</v>
+      </c>
+      <c r="BH77">
+        <v>4.1</v>
+      </c>
+      <c r="BI77">
+        <v>1.33</v>
+      </c>
+      <c r="BJ77">
+        <v>2.95</v>
+      </c>
+      <c r="BK77">
+        <v>1.55</v>
+      </c>
+      <c r="BL77">
+        <v>2.25</v>
+      </c>
+      <c r="BM77">
+        <v>1.86</v>
+      </c>
+      <c r="BN77">
+        <v>1.82</v>
+      </c>
+      <c r="BO77">
+        <v>2.3</v>
+      </c>
+      <c r="BP77">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7296599</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45438.45833333334</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>90</v>
+      </c>
+      <c r="P78" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q78">
+        <v>3.2</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>3.25</v>
+      </c>
+      <c r="T78">
+        <v>1.36</v>
+      </c>
+      <c r="U78">
+        <v>2.95</v>
+      </c>
+      <c r="V78">
+        <v>2.8</v>
+      </c>
+      <c r="W78">
+        <v>1.39</v>
+      </c>
+      <c r="X78">
+        <v>6.95</v>
+      </c>
+      <c r="Y78">
+        <v>1.07</v>
+      </c>
+      <c r="Z78">
+        <v>2.3</v>
+      </c>
+      <c r="AA78">
+        <v>3.35</v>
+      </c>
+      <c r="AB78">
+        <v>2.76</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>12</v>
+      </c>
+      <c r="AE78">
+        <v>1.3</v>
+      </c>
+      <c r="AF78">
+        <v>3.5</v>
+      </c>
+      <c r="AG78">
+        <v>1.8</v>
+      </c>
+      <c r="AH78">
+        <v>1.9</v>
+      </c>
+      <c r="AI78">
+        <v>1.72</v>
+      </c>
+      <c r="AJ78">
+        <v>2.05</v>
+      </c>
+      <c r="AK78">
+        <v>1.5</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.53</v>
+      </c>
+      <c r="AN78">
+        <v>0.8</v>
+      </c>
+      <c r="AO78">
+        <v>1.6</v>
+      </c>
+      <c r="AP78">
+        <v>0.67</v>
+      </c>
+      <c r="AQ78">
+        <v>1.83</v>
+      </c>
+      <c r="AR78">
+        <v>1.64</v>
+      </c>
+      <c r="AS78">
+        <v>1.43</v>
+      </c>
+      <c r="AT78">
+        <v>3.07</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>8</v>
+      </c>
+      <c r="AW78">
+        <v>5</v>
+      </c>
+      <c r="AX78">
+        <v>10</v>
+      </c>
+      <c r="AY78">
+        <v>9</v>
+      </c>
+      <c r="AZ78">
+        <v>18</v>
+      </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
+      <c r="BB78">
+        <v>7</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.95</v>
+      </c>
+      <c r="BE78">
+        <v>6.75</v>
+      </c>
+      <c r="BF78">
+        <v>1.92</v>
+      </c>
+      <c r="BG78">
+        <v>1.15</v>
+      </c>
+      <c r="BH78">
+        <v>4.6</v>
+      </c>
+      <c r="BI78">
+        <v>1.27</v>
+      </c>
+      <c r="BJ78">
+        <v>3.3</v>
+      </c>
+      <c r="BK78">
+        <v>1.46</v>
+      </c>
+      <c r="BL78">
+        <v>2.48</v>
+      </c>
+      <c r="BM78">
+        <v>1.73</v>
+      </c>
+      <c r="BN78">
+        <v>1.98</v>
+      </c>
+      <c r="BO78">
+        <v>2.1</v>
+      </c>
+      <c r="BP78">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -16938,19 +16938,19 @@
         <v>4</v>
       </c>
       <c r="AV78">
+        <v>7</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
         <v>8</v>
       </c>
-      <c r="AW78">
-        <v>5</v>
-      </c>
-      <c r="AX78">
-        <v>10</v>
-      </c>
-      <c r="AY78">
-        <v>9</v>
-      </c>
       <c r="AZ78">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA78">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,12 @@
     <t>['34', '52', '86']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['30', '82', '90+4']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -566,6 +572,9 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['88', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1392,7 +1401,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1804,7 +1813,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1882,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -2216,7 +2225,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2628,7 +2637,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3040,7 +3049,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3452,7 +3461,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3736,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -4276,7 +4285,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4357,7 +4366,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ17">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4894,7 +4903,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5178,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>0.6</v>
@@ -5306,7 +5315,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5512,7 +5521,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5593,7 +5602,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -5718,7 +5727,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6620,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6748,7 +6757,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6954,7 +6963,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7160,7 +7169,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7366,7 +7375,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7572,7 +7581,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7984,7 +7993,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8396,7 +8405,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8889,7 +8898,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -9014,7 +9023,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9092,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.2</v>
@@ -9507,7 +9516,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ42">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.56</v>
@@ -9838,7 +9847,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10328,7 +10337,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ46">
         <v>1.2</v>
@@ -10868,7 +10877,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11280,7 +11289,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11358,7 +11367,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -11486,7 +11495,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11692,7 +11701,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12104,7 +12113,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12310,7 +12319,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12516,7 +12525,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12928,7 +12937,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13006,7 +13015,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ59">
         <v>1.6</v>
@@ -13212,7 +13221,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.75</v>
@@ -13546,7 +13555,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13627,7 +13636,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -13752,7 +13761,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14164,7 +14173,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14370,7 +14379,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14576,7 +14585,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14782,7 +14791,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -14988,7 +14997,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15400,7 +15409,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15606,7 +15615,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -16018,7 +16027,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16129,13 +16138,13 @@
         <v>12</v>
       </c>
       <c r="BA74">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BB74">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BC74">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="BD74">
         <v>2.95</v>
@@ -16224,7 +16233,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16335,13 +16344,13 @@
         <v>17</v>
       </c>
       <c r="BA75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC75">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD75">
         <v>1.67</v>
@@ -16430,7 +16439,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16636,7 +16645,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16842,7 +16851,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16938,19 +16947,19 @@
         <v>4</v>
       </c>
       <c r="AV78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ78">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA78">
         <v>4</v>
@@ -16999,6 +17008,418 @@
       </c>
       <c r="BP78">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7296603</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>145</v>
+      </c>
+      <c r="P79" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q79">
+        <v>3.2</v>
+      </c>
+      <c r="R79">
+        <v>2.15</v>
+      </c>
+      <c r="S79">
+        <v>3.25</v>
+      </c>
+      <c r="T79">
+        <v>1.4</v>
+      </c>
+      <c r="U79">
+        <v>2.82</v>
+      </c>
+      <c r="V79">
+        <v>2.86</v>
+      </c>
+      <c r="W79">
+        <v>1.39</v>
+      </c>
+      <c r="X79">
+        <v>7.2</v>
+      </c>
+      <c r="Y79">
+        <v>1.07</v>
+      </c>
+      <c r="Z79">
+        <v>2.56</v>
+      </c>
+      <c r="AA79">
+        <v>3.7</v>
+      </c>
+      <c r="AB79">
+        <v>2.56</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>11</v>
+      </c>
+      <c r="AE79">
+        <v>1.3</v>
+      </c>
+      <c r="AF79">
+        <v>3.4</v>
+      </c>
+      <c r="AG79">
+        <v>1.7</v>
+      </c>
+      <c r="AH79">
+        <v>2.03</v>
+      </c>
+      <c r="AI79">
+        <v>1.75</v>
+      </c>
+      <c r="AJ79">
+        <v>2</v>
+      </c>
+      <c r="AK79">
+        <v>1.52</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.5</v>
+      </c>
+      <c r="AN79">
+        <v>2</v>
+      </c>
+      <c r="AO79">
+        <v>1.6</v>
+      </c>
+      <c r="AP79">
+        <v>2.2</v>
+      </c>
+      <c r="AQ79">
+        <v>1.33</v>
+      </c>
+      <c r="AR79">
+        <v>1.45</v>
+      </c>
+      <c r="AS79">
+        <v>1.45</v>
+      </c>
+      <c r="AT79">
+        <v>2.9</v>
+      </c>
+      <c r="AU79">
+        <v>-1</v>
+      </c>
+      <c r="AV79">
+        <v>-1</v>
+      </c>
+      <c r="AW79">
+        <v>-1</v>
+      </c>
+      <c r="AX79">
+        <v>-1</v>
+      </c>
+      <c r="AY79">
+        <v>-1</v>
+      </c>
+      <c r="AZ79">
+        <v>-1</v>
+      </c>
+      <c r="BA79">
+        <v>-1</v>
+      </c>
+      <c r="BB79">
+        <v>-1</v>
+      </c>
+      <c r="BC79">
+        <v>-1</v>
+      </c>
+      <c r="BD79">
+        <v>1.98</v>
+      </c>
+      <c r="BE79">
+        <v>6.75</v>
+      </c>
+      <c r="BF79">
+        <v>1.85</v>
+      </c>
+      <c r="BG79">
+        <v>1.19</v>
+      </c>
+      <c r="BH79">
+        <v>4.1</v>
+      </c>
+      <c r="BI79">
+        <v>1.33</v>
+      </c>
+      <c r="BJ79">
+        <v>2.95</v>
+      </c>
+      <c r="BK79">
+        <v>1.53</v>
+      </c>
+      <c r="BL79">
+        <v>2.32</v>
+      </c>
+      <c r="BM79">
+        <v>1.84</v>
+      </c>
+      <c r="BN79">
+        <v>1.84</v>
+      </c>
+      <c r="BO79">
+        <v>2.3</v>
+      </c>
+      <c r="BP79">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7296602</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45439.58333333334</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s">
+        <v>70</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80" t="s">
+        <v>146</v>
+      </c>
+      <c r="P80" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q80">
+        <v>2.55</v>
+      </c>
+      <c r="R80">
+        <v>2.25</v>
+      </c>
+      <c r="S80">
+        <v>4.2</v>
+      </c>
+      <c r="T80">
+        <v>1.33</v>
+      </c>
+      <c r="U80">
+        <v>3.1</v>
+      </c>
+      <c r="V80">
+        <v>2.6</v>
+      </c>
+      <c r="W80">
+        <v>1.44</v>
+      </c>
+      <c r="X80">
+        <v>6.4</v>
+      </c>
+      <c r="Y80">
+        <v>1.09</v>
+      </c>
+      <c r="Z80">
+        <v>1.95</v>
+      </c>
+      <c r="AA80">
+        <v>3.65</v>
+      </c>
+      <c r="AB80">
+        <v>3.8</v>
+      </c>
+      <c r="AC80">
+        <v>1.03</v>
+      </c>
+      <c r="AD80">
+        <v>13</v>
+      </c>
+      <c r="AE80">
+        <v>1.25</v>
+      </c>
+      <c r="AF80">
+        <v>3.75</v>
+      </c>
+      <c r="AG80">
+        <v>1.83</v>
+      </c>
+      <c r="AH80">
+        <v>1.87</v>
+      </c>
+      <c r="AI80">
+        <v>1.7</v>
+      </c>
+      <c r="AJ80">
+        <v>2.15</v>
+      </c>
+      <c r="AK80">
+        <v>1.28</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.87</v>
+      </c>
+      <c r="AN80">
+        <v>1.2</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>1.5</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>1.74</v>
+      </c>
+      <c r="AS80">
+        <v>1.23</v>
+      </c>
+      <c r="AT80">
+        <v>2.97</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>3</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
+        <v>7</v>
+      </c>
+      <c r="BA80">
+        <v>3</v>
+      </c>
+      <c r="BB80">
+        <v>8</v>
+      </c>
+      <c r="BC80">
+        <v>11</v>
+      </c>
+      <c r="BD80">
+        <v>1.53</v>
+      </c>
+      <c r="BE80">
+        <v>7</v>
+      </c>
+      <c r="BF80">
+        <v>2.55</v>
+      </c>
+      <c r="BG80">
+        <v>1.19</v>
+      </c>
+      <c r="BH80">
+        <v>4.1</v>
+      </c>
+      <c r="BI80">
+        <v>1.34</v>
+      </c>
+      <c r="BJ80">
+        <v>2.9</v>
+      </c>
+      <c r="BK80">
+        <v>1.56</v>
+      </c>
+      <c r="BL80">
+        <v>2.23</v>
+      </c>
+      <c r="BM80">
+        <v>1.89</v>
+      </c>
+      <c r="BN80">
+        <v>1.8</v>
+      </c>
+      <c r="BO80">
+        <v>2.32</v>
+      </c>
+      <c r="BP80">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>['30', '82', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
   <si>
     <t>['23', '51']</t>
@@ -936,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1401,7 +1404,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1813,7 +1816,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2225,7 +2228,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2512,7 +2515,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2637,7 +2640,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3049,7 +3052,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3333,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3461,7 +3464,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4285,7 +4288,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4903,7 +4906,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5315,7 +5318,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5521,7 +5524,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5727,7 +5730,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6757,7 +6760,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6963,7 +6966,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7169,7 +7172,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7375,7 +7378,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7456,7 +7459,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -7581,7 +7584,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7659,7 +7662,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7993,7 +7996,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8280,7 +8283,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8405,7 +8408,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9023,7 +9026,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9847,7 +9850,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9925,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.83</v>
@@ -10877,7 +10880,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11289,7 +11292,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11495,7 +11498,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11701,7 +11704,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12113,7 +12116,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12319,7 +12322,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12525,7 +12528,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12937,7 +12940,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13555,7 +13558,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13761,7 +13764,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -13839,7 +13842,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14173,7 +14176,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14254,7 +14257,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ65">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -14379,7 +14382,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14585,7 +14588,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14791,7 +14794,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -14997,7 +15000,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15409,7 +15412,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15615,7 +15618,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -16027,7 +16030,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16233,7 +16236,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16439,7 +16442,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16645,7 +16648,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16851,7 +16854,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17150,31 +17153,31 @@
         <v>2.9</v>
       </c>
       <c r="AU79">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV79">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AW79">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX79">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY79">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ79">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA79">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB79">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BC79">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="BD79">
         <v>1.98</v>
@@ -17263,7 +17266,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17356,22 +17359,22 @@
         <v>2.97</v>
       </c>
       <c r="AU80">
+        <v>8</v>
+      </c>
+      <c r="AV80">
         <v>5</v>
       </c>
-      <c r="AV80">
-        <v>3</v>
-      </c>
       <c r="AW80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX80">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY80">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ80">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA80">
         <v>3</v>
@@ -17420,6 +17423,212 @@
       </c>
       <c r="BP80">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7296606</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45440.58333333334</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>147</v>
+      </c>
+      <c r="P81" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q81">
+        <v>2.15</v>
+      </c>
+      <c r="R81">
+        <v>2.35</v>
+      </c>
+      <c r="S81">
+        <v>4.75</v>
+      </c>
+      <c r="T81">
+        <v>1.3</v>
+      </c>
+      <c r="U81">
+        <v>3.34</v>
+      </c>
+      <c r="V81">
+        <v>2.41</v>
+      </c>
+      <c r="W81">
+        <v>1.53</v>
+      </c>
+      <c r="X81">
+        <v>5.6</v>
+      </c>
+      <c r="Y81">
+        <v>1.12</v>
+      </c>
+      <c r="Z81">
+        <v>1.65</v>
+      </c>
+      <c r="AA81">
+        <v>4</v>
+      </c>
+      <c r="AB81">
+        <v>5</v>
+      </c>
+      <c r="AC81">
+        <v>1.02</v>
+      </c>
+      <c r="AD81">
+        <v>17</v>
+      </c>
+      <c r="AE81">
+        <v>1.17</v>
+      </c>
+      <c r="AF81">
+        <v>4.2</v>
+      </c>
+      <c r="AG81">
+        <v>1.68</v>
+      </c>
+      <c r="AH81">
+        <v>2.15</v>
+      </c>
+      <c r="AI81">
+        <v>1.68</v>
+      </c>
+      <c r="AJ81">
+        <v>2.15</v>
+      </c>
+      <c r="AK81">
+        <v>1.18</v>
+      </c>
+      <c r="AL81">
+        <v>1.18</v>
+      </c>
+      <c r="AM81">
+        <v>2.3</v>
+      </c>
+      <c r="AN81">
+        <v>2.25</v>
+      </c>
+      <c r="AO81">
+        <v>0.25</v>
+      </c>
+      <c r="AP81">
+        <v>2</v>
+      </c>
+      <c r="AQ81">
+        <v>0.4</v>
+      </c>
+      <c r="AR81">
+        <v>1.9</v>
+      </c>
+      <c r="AS81">
+        <v>1.74</v>
+      </c>
+      <c r="AT81">
+        <v>3.64</v>
+      </c>
+      <c r="AU81">
+        <v>-1</v>
+      </c>
+      <c r="AV81">
+        <v>-1</v>
+      </c>
+      <c r="AW81">
+        <v>-1</v>
+      </c>
+      <c r="AX81">
+        <v>-1</v>
+      </c>
+      <c r="AY81">
+        <v>-1</v>
+      </c>
+      <c r="AZ81">
+        <v>-1</v>
+      </c>
+      <c r="BA81">
+        <v>9</v>
+      </c>
+      <c r="BB81">
+        <v>4</v>
+      </c>
+      <c r="BC81">
+        <v>13</v>
+      </c>
+      <c r="BD81">
+        <v>1.38</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>3.05</v>
+      </c>
+      <c r="BG81">
+        <v>1.19</v>
+      </c>
+      <c r="BH81">
+        <v>4.1</v>
+      </c>
+      <c r="BI81">
+        <v>1.33</v>
+      </c>
+      <c r="BJ81">
+        <v>2.95</v>
+      </c>
+      <c r="BK81">
+        <v>1.56</v>
+      </c>
+      <c r="BL81">
+        <v>2.23</v>
+      </c>
+      <c r="BM81">
+        <v>1.88</v>
+      </c>
+      <c r="BN81">
+        <v>1.81</v>
+      </c>
+      <c r="BO81">
+        <v>2.32</v>
+      </c>
+      <c r="BP81">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,15 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['19', '38', '76']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['35', '49']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -578,6 +587,9 @@
   </si>
   <si>
     <t>['88', '90+3']</t>
+  </si>
+  <si>
+    <t>['72', '77']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1404,7 +1416,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1485,7 +1497,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1688,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1816,7 +1828,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2228,7 +2240,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2512,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.4</v>
@@ -2640,7 +2652,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2924,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3052,7 +3064,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3133,7 +3145,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3336,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3464,7 +3476,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4288,7 +4300,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4906,7 +4918,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -4984,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5193,7 +5205,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5318,7 +5330,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5399,7 +5411,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ22">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5524,7 +5536,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5730,7 +5742,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6223,7 +6235,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
         <v>0.63</v>
@@ -6429,7 +6441,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ27">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -6760,7 +6772,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6838,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6966,7 +6978,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7172,7 +7184,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7250,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.83</v>
@@ -7378,7 +7390,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7584,7 +7596,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7662,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7868,10 +7880,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.26</v>
@@ -7996,7 +8008,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8077,7 +8089,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8408,7 +8420,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8489,7 +8501,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ37">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -9026,7 +9038,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9850,7 +9862,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9928,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44">
         <v>1.83</v>
@@ -10546,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47">
         <v>0.4</v>
@@ -10755,7 +10767,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10880,7 +10892,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11292,7 +11304,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11373,7 +11385,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11498,7 +11510,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11704,7 +11716,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12116,7 +12128,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12197,7 +12209,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ55">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -12322,7 +12334,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12400,7 +12412,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>0.67</v>
@@ -12528,7 +12540,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12940,7 +12952,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13021,7 +13033,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ59">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13558,7 +13570,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13764,7 +13776,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -13842,7 +13854,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14048,7 +14060,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ64">
         <v>0.4</v>
@@ -14176,7 +14188,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14382,7 +14394,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14463,7 +14475,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>1.65</v>
@@ -14588,7 +14600,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14794,7 +14806,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15000,7 +15012,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15078,7 +15090,7 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15287,7 +15299,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.56</v>
@@ -15412,7 +15424,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15493,7 +15505,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ71">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -15618,7 +15630,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15696,7 +15708,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.2</v>
@@ -16030,7 +16042,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16111,7 +16123,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>0.98</v>
@@ -16236,7 +16248,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16442,7 +16454,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16648,7 +16660,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16854,7 +16866,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17266,7 +17278,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17550,7 +17562,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81">
         <v>0.4</v>
@@ -17629,6 +17641,830 @@
       </c>
       <c r="BP81">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7296613</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45444.33333333334</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>148</v>
+      </c>
+      <c r="P82" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q82">
+        <v>2.56</v>
+      </c>
+      <c r="R82">
+        <v>2.28</v>
+      </c>
+      <c r="S82">
+        <v>4.21</v>
+      </c>
+      <c r="T82">
+        <v>1.35</v>
+      </c>
+      <c r="U82">
+        <v>3.11</v>
+      </c>
+      <c r="V82">
+        <v>2.77</v>
+      </c>
+      <c r="W82">
+        <v>1.43</v>
+      </c>
+      <c r="X82">
+        <v>6.9</v>
+      </c>
+      <c r="Y82">
+        <v>1.07</v>
+      </c>
+      <c r="Z82">
+        <v>1.94</v>
+      </c>
+      <c r="AA82">
+        <v>3.45</v>
+      </c>
+      <c r="AB82">
+        <v>3.65</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>12</v>
+      </c>
+      <c r="AE82">
+        <v>1.28</v>
+      </c>
+      <c r="AF82">
+        <v>3.6</v>
+      </c>
+      <c r="AG82">
+        <v>1.85</v>
+      </c>
+      <c r="AH82">
+        <v>1.92</v>
+      </c>
+      <c r="AI82">
+        <v>1.75</v>
+      </c>
+      <c r="AJ82">
+        <v>2.05</v>
+      </c>
+      <c r="AK82">
+        <v>1.3</v>
+      </c>
+      <c r="AL82">
+        <v>1.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.83</v>
+      </c>
+      <c r="AN82">
+        <v>2</v>
+      </c>
+      <c r="AO82">
+        <v>1.6</v>
+      </c>
+      <c r="AP82">
+        <v>2.17</v>
+      </c>
+      <c r="AQ82">
+        <v>1.33</v>
+      </c>
+      <c r="AR82">
+        <v>1.9</v>
+      </c>
+      <c r="AS82">
+        <v>1.4</v>
+      </c>
+      <c r="AT82">
+        <v>3.3</v>
+      </c>
+      <c r="AU82">
+        <v>12</v>
+      </c>
+      <c r="AV82">
+        <v>10</v>
+      </c>
+      <c r="AW82">
+        <v>2</v>
+      </c>
+      <c r="AX82">
+        <v>1</v>
+      </c>
+      <c r="AY82">
+        <v>14</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>7</v>
+      </c>
+      <c r="BB82">
+        <v>7</v>
+      </c>
+      <c r="BC82">
+        <v>14</v>
+      </c>
+      <c r="BD82">
+        <v>1.49</v>
+      </c>
+      <c r="BE82">
+        <v>6.75</v>
+      </c>
+      <c r="BF82">
+        <v>2.65</v>
+      </c>
+      <c r="BG82">
+        <v>1.16</v>
+      </c>
+      <c r="BH82">
+        <v>4.4</v>
+      </c>
+      <c r="BI82">
+        <v>1.29</v>
+      </c>
+      <c r="BJ82">
+        <v>3.15</v>
+      </c>
+      <c r="BK82">
+        <v>1.49</v>
+      </c>
+      <c r="BL82">
+        <v>2.4</v>
+      </c>
+      <c r="BM82">
+        <v>1.76</v>
+      </c>
+      <c r="BN82">
+        <v>1.93</v>
+      </c>
+      <c r="BO82">
+        <v>2.17</v>
+      </c>
+      <c r="BP82">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7296610</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45444.41666666666</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>149</v>
+      </c>
+      <c r="P83" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q83">
+        <v>3.6</v>
+      </c>
+      <c r="R83">
+        <v>2.15</v>
+      </c>
+      <c r="S83">
+        <v>3</v>
+      </c>
+      <c r="T83">
+        <v>1.36</v>
+      </c>
+      <c r="U83">
+        <v>2.95</v>
+      </c>
+      <c r="V83">
+        <v>2.75</v>
+      </c>
+      <c r="W83">
+        <v>1.4</v>
+      </c>
+      <c r="X83">
+        <v>6.9</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>3.2</v>
+      </c>
+      <c r="AA83">
+        <v>3.4</v>
+      </c>
+      <c r="AB83">
+        <v>2.11</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>12</v>
+      </c>
+      <c r="AE83">
+        <v>1.28</v>
+      </c>
+      <c r="AF83">
+        <v>3.6</v>
+      </c>
+      <c r="AG83">
+        <v>1.83</v>
+      </c>
+      <c r="AH83">
+        <v>1.94</v>
+      </c>
+      <c r="AI83">
+        <v>1.68</v>
+      </c>
+      <c r="AJ83">
+        <v>2.1</v>
+      </c>
+      <c r="AK83">
+        <v>1.62</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.4</v>
+      </c>
+      <c r="AN83">
+        <v>1.75</v>
+      </c>
+      <c r="AO83">
+        <v>1.6</v>
+      </c>
+      <c r="AP83">
+        <v>2</v>
+      </c>
+      <c r="AQ83">
+        <v>1.33</v>
+      </c>
+      <c r="AR83">
+        <v>1.38</v>
+      </c>
+      <c r="AS83">
+        <v>1.74</v>
+      </c>
+      <c r="AT83">
+        <v>3.12</v>
+      </c>
+      <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>5</v>
+      </c>
+      <c r="AW83">
+        <v>3</v>
+      </c>
+      <c r="AX83">
+        <v>10</v>
+      </c>
+      <c r="AY83">
+        <v>6</v>
+      </c>
+      <c r="AZ83">
+        <v>15</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>14</v>
+      </c>
+      <c r="BC83">
+        <v>18</v>
+      </c>
+      <c r="BD83">
+        <v>2.02</v>
+      </c>
+      <c r="BE83">
+        <v>6.75</v>
+      </c>
+      <c r="BF83">
+        <v>1.83</v>
+      </c>
+      <c r="BG83">
+        <v>1.13</v>
+      </c>
+      <c r="BH83">
+        <v>5.1</v>
+      </c>
+      <c r="BI83">
+        <v>1.24</v>
+      </c>
+      <c r="BJ83">
+        <v>3.55</v>
+      </c>
+      <c r="BK83">
+        <v>1.41</v>
+      </c>
+      <c r="BL83">
+        <v>2.65</v>
+      </c>
+      <c r="BM83">
+        <v>1.65</v>
+      </c>
+      <c r="BN83">
+        <v>2.08</v>
+      </c>
+      <c r="BO83">
+        <v>1.98</v>
+      </c>
+      <c r="BP83">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7296611</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45444.41666666666</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s">
+        <v>81</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>90</v>
+      </c>
+      <c r="P84" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q84">
+        <v>2.5</v>
+      </c>
+      <c r="R84">
+        <v>2.15</v>
+      </c>
+      <c r="S84">
+        <v>3.95</v>
+      </c>
+      <c r="T84">
+        <v>1.36</v>
+      </c>
+      <c r="U84">
+        <v>2.88</v>
+      </c>
+      <c r="V84">
+        <v>2.62</v>
+      </c>
+      <c r="W84">
+        <v>1.42</v>
+      </c>
+      <c r="X84">
+        <v>6</v>
+      </c>
+      <c r="Y84">
+        <v>1.1</v>
+      </c>
+      <c r="Z84">
+        <v>1.93</v>
+      </c>
+      <c r="AA84">
+        <v>3.5</v>
+      </c>
+      <c r="AB84">
+        <v>3.6</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>8.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.25</v>
+      </c>
+      <c r="AF84">
+        <v>3.6</v>
+      </c>
+      <c r="AG84">
+        <v>1.82</v>
+      </c>
+      <c r="AH84">
+        <v>1.96</v>
+      </c>
+      <c r="AI84">
+        <v>1.65</v>
+      </c>
+      <c r="AJ84">
+        <v>2.05</v>
+      </c>
+      <c r="AK84">
+        <v>1.28</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.8</v>
+      </c>
+      <c r="AN84">
+        <v>2</v>
+      </c>
+      <c r="AO84">
+        <v>0.6</v>
+      </c>
+      <c r="AP84">
+        <v>1.6</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AR84">
+        <v>1.75</v>
+      </c>
+      <c r="AS84">
+        <v>1.29</v>
+      </c>
+      <c r="AT84">
+        <v>3.04</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>2</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>6</v>
+      </c>
+      <c r="AY84">
+        <v>8</v>
+      </c>
+      <c r="AZ84">
+        <v>8</v>
+      </c>
+      <c r="BA84">
+        <v>4</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>9</v>
+      </c>
+      <c r="BD84">
+        <v>1.61</v>
+      </c>
+      <c r="BE84">
+        <v>6.75</v>
+      </c>
+      <c r="BF84">
+        <v>2.35</v>
+      </c>
+      <c r="BG84">
+        <v>1.17</v>
+      </c>
+      <c r="BH84">
+        <v>4.4</v>
+      </c>
+      <c r="BI84">
+        <v>1.3</v>
+      </c>
+      <c r="BJ84">
+        <v>3.15</v>
+      </c>
+      <c r="BK84">
+        <v>1.49</v>
+      </c>
+      <c r="BL84">
+        <v>2.4</v>
+      </c>
+      <c r="BM84">
+        <v>1.78</v>
+      </c>
+      <c r="BN84">
+        <v>1.91</v>
+      </c>
+      <c r="BO84">
+        <v>2.18</v>
+      </c>
+      <c r="BP84">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7296608</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45444.58333333334</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>150</v>
+      </c>
+      <c r="P85" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q85">
+        <v>2.45</v>
+      </c>
+      <c r="R85">
+        <v>2.25</v>
+      </c>
+      <c r="S85">
+        <v>4.5</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>2.99</v>
+      </c>
+      <c r="V85">
+        <v>2.67</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>6.55</v>
+      </c>
+      <c r="Y85">
+        <v>1.09</v>
+      </c>
+      <c r="Z85">
+        <v>1.85</v>
+      </c>
+      <c r="AA85">
+        <v>3.6</v>
+      </c>
+      <c r="AB85">
+        <v>3.61</v>
+      </c>
+      <c r="AC85">
+        <v>1.03</v>
+      </c>
+      <c r="AD85">
+        <v>13</v>
+      </c>
+      <c r="AE85">
+        <v>1.25</v>
+      </c>
+      <c r="AF85">
+        <v>3.75</v>
+      </c>
+      <c r="AG85">
+        <v>1.8</v>
+      </c>
+      <c r="AH85">
+        <v>1.9</v>
+      </c>
+      <c r="AI85">
+        <v>1.72</v>
+      </c>
+      <c r="AJ85">
+        <v>2.05</v>
+      </c>
+      <c r="AK85">
+        <v>1.22</v>
+      </c>
+      <c r="AL85">
+        <v>1.22</v>
+      </c>
+      <c r="AM85">
+        <v>2</v>
+      </c>
+      <c r="AN85">
+        <v>2.5</v>
+      </c>
+      <c r="AO85">
+        <v>1.5</v>
+      </c>
+      <c r="AP85">
+        <v>2.6</v>
+      </c>
+      <c r="AQ85">
+        <v>1.2</v>
+      </c>
+      <c r="AR85">
+        <v>1.47</v>
+      </c>
+      <c r="AS85">
+        <v>1.6</v>
+      </c>
+      <c r="AT85">
+        <v>3.07</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>7</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>11</v>
+      </c>
+      <c r="AZ85">
+        <v>3</v>
+      </c>
+      <c r="BA85">
+        <v>8</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>12</v>
+      </c>
+      <c r="BD85">
+        <v>1.54</v>
+      </c>
+      <c r="BE85">
+        <v>6.5</v>
+      </c>
+      <c r="BF85">
+        <v>2.55</v>
+      </c>
+      <c r="BG85">
+        <v>1.23</v>
+      </c>
+      <c r="BH85">
+        <v>3.65</v>
+      </c>
+      <c r="BI85">
+        <v>1.4</v>
+      </c>
+      <c r="BJ85">
+        <v>2.7</v>
+      </c>
+      <c r="BK85">
+        <v>1.64</v>
+      </c>
+      <c r="BL85">
+        <v>2.08</v>
+      </c>
+      <c r="BM85">
+        <v>1.98</v>
+      </c>
+      <c r="BN85">
+        <v>1.72</v>
+      </c>
+      <c r="BO85">
+        <v>2.48</v>
+      </c>
+      <c r="BP85">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,9 @@
     <t>['35', '49']</t>
   </si>
   <si>
+    <t>['57', '90']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -590,6 +593,9 @@
   </si>
   <si>
     <t>['72', '77']</t>
+  </si>
+  <si>
+    <t>['39', '80']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,7 +1422,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1828,7 +1834,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1909,7 +1915,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2112,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>1.2</v>
@@ -2240,7 +2246,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2652,7 +2658,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3064,7 +3070,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3476,7 +3482,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4300,7 +4306,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4918,7 +4924,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -4999,7 +5005,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
         <v>1.38</v>
@@ -5330,7 +5336,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5536,7 +5542,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5742,7 +5748,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6772,7 +6778,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6978,7 +6984,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7184,7 +7190,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7390,7 +7396,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7468,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>0.4</v>
@@ -7596,7 +7602,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8008,7 +8014,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8420,7 +8426,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8910,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9038,7 +9044,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9325,7 +9331,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -9862,7 +9868,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10892,7 +10898,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11179,7 +11185,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11304,7 +11310,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11510,7 +11516,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11716,7 +11722,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12128,7 +12134,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12334,7 +12340,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12540,7 +12546,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12618,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
         <v>1.2</v>
@@ -12952,7 +12958,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13570,7 +13576,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13776,7 +13782,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14188,7 +14194,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14394,7 +14400,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14600,7 +14606,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14806,7 +14812,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15012,7 +15018,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15424,7 +15430,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15502,7 +15508,7 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15630,7 +15636,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15917,7 +15923,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR73">
         <v>1.24</v>
@@ -16042,7 +16048,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16248,7 +16254,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16454,7 +16460,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16660,7 +16666,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16866,7 +16872,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17278,7 +17284,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17690,7 +17696,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17989,31 +17995,31 @@
         <v>3.12</v>
       </c>
       <c r="AU83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV83">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX83">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AY83">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AZ83">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB83">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BC83">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BD83">
         <v>2.02</v>
@@ -18102,7 +18108,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18195,31 +18201,31 @@
         <v>3.04</v>
       </c>
       <c r="AU84">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV84">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW84">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX84">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY84">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ84">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA84">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB84">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC84">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD84">
         <v>1.61</v>
@@ -18465,6 +18471,212 @@
       </c>
       <c r="BP85">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7296609</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45445.33333333334</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s">
+        <v>84</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>151</v>
+      </c>
+      <c r="P86" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q86">
+        <v>2.85</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>3.75</v>
+      </c>
+      <c r="T86">
+        <v>1.45</v>
+      </c>
+      <c r="U86">
+        <v>2.55</v>
+      </c>
+      <c r="V86">
+        <v>3.05</v>
+      </c>
+      <c r="W86">
+        <v>1.32</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.07</v>
+      </c>
+      <c r="Z86">
+        <v>2.15</v>
+      </c>
+      <c r="AA86">
+        <v>3.04</v>
+      </c>
+      <c r="AB86">
+        <v>2.97</v>
+      </c>
+      <c r="AC86">
+        <v>1.07</v>
+      </c>
+      <c r="AD86">
+        <v>9.65</v>
+      </c>
+      <c r="AE86">
+        <v>1.37</v>
+      </c>
+      <c r="AF86">
+        <v>3.13</v>
+      </c>
+      <c r="AG86">
+        <v>2.11</v>
+      </c>
+      <c r="AH86">
+        <v>1.71</v>
+      </c>
+      <c r="AI86">
+        <v>1.88</v>
+      </c>
+      <c r="AJ86">
+        <v>1.9</v>
+      </c>
+      <c r="AK86">
+        <v>1.35</v>
+      </c>
+      <c r="AL86">
+        <v>1.35</v>
+      </c>
+      <c r="AM86">
+        <v>1.62</v>
+      </c>
+      <c r="AN86">
+        <v>1.8</v>
+      </c>
+      <c r="AO86">
+        <v>0.8</v>
+      </c>
+      <c r="AP86">
+        <v>1.67</v>
+      </c>
+      <c r="AQ86">
+        <v>0.83</v>
+      </c>
+      <c r="AR86">
+        <v>1.43</v>
+      </c>
+      <c r="AS86">
+        <v>1.2</v>
+      </c>
+      <c r="AT86">
+        <v>2.63</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>6</v>
+      </c>
+      <c r="AW86">
+        <v>3</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>8</v>
+      </c>
+      <c r="AZ86">
+        <v>11</v>
+      </c>
+      <c r="BA86">
+        <v>4</v>
+      </c>
+      <c r="BB86">
+        <v>5</v>
+      </c>
+      <c r="BC86">
+        <v>9</v>
+      </c>
+      <c r="BD86">
+        <v>1.73</v>
+      </c>
+      <c r="BE86">
+        <v>6.4</v>
+      </c>
+      <c r="BF86">
+        <v>2.2</v>
+      </c>
+      <c r="BG86">
+        <v>1.27</v>
+      </c>
+      <c r="BH86">
+        <v>3.3</v>
+      </c>
+      <c r="BI86">
+        <v>1.48</v>
+      </c>
+      <c r="BJ86">
+        <v>2.48</v>
+      </c>
+      <c r="BK86">
+        <v>1.76</v>
+      </c>
+      <c r="BL86">
+        <v>1.94</v>
+      </c>
+      <c r="BM86">
+        <v>2.18</v>
+      </c>
+      <c r="BN86">
+        <v>1.58</v>
+      </c>
+      <c r="BO86">
+        <v>2.8</v>
+      </c>
+      <c r="BP86">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,15 @@
     <t>['57', '90']</t>
   </si>
   <si>
+    <t>['21', '23', '71']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['49', '55']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -596,6 +605,12 @@
   </si>
   <si>
     <t>['39', '80']</t>
+  </si>
+  <si>
+    <t>['53', '86', '90+7']</t>
+  </si>
+  <si>
+    <t>['4', '43']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP86"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1422,7 +1437,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1500,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1834,7 +1849,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2121,7 +2136,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2246,7 +2261,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2327,7 +2342,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2658,7 +2673,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3070,7 +3085,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3148,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3482,7 +3497,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3769,7 +3784,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4306,7 +4321,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4590,10 +4605,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -4796,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -4924,7 +4939,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5336,7 +5351,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5542,7 +5557,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5620,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -5748,7 +5763,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6778,7 +6793,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6984,7 +6999,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7065,7 +7080,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7190,7 +7205,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7396,7 +7411,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7602,7 +7617,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7683,7 +7698,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -8014,7 +8029,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8298,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0.4</v>
@@ -8426,7 +8441,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8504,7 +8519,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -9044,7 +9059,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9868,7 +9883,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10155,7 +10170,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ45">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -10361,7 +10376,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ46">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10770,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -10898,7 +10913,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10976,10 +10991,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11310,7 +11325,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11516,7 +11531,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11594,7 +11609,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>1.83</v>
@@ -11722,7 +11737,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11800,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12009,7 +12024,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12134,7 +12149,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12340,7 +12355,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12546,7 +12561,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12958,7 +12973,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13245,7 +13260,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.8</v>
@@ -13576,7 +13591,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13782,7 +13797,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14194,7 +14209,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14400,7 +14415,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14478,7 +14493,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ66">
         <v>1.2</v>
@@ -14606,7 +14621,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14687,7 +14702,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ67">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR67">
         <v>1.61</v>
@@ -14812,7 +14827,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15018,7 +15033,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15099,7 +15114,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR69">
         <v>1.81</v>
@@ -15302,7 +15317,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15430,7 +15445,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15636,7 +15651,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15920,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ73">
         <v>0.83</v>
@@ -16048,7 +16063,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16254,7 +16269,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16460,7 +16475,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16666,7 +16681,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16872,7 +16887,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17284,7 +17299,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17696,7 +17711,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17995,31 +18010,31 @@
         <v>3.12</v>
       </c>
       <c r="AU83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV83">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX83">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY83">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ83">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA83">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB83">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BC83">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BD83">
         <v>2.02</v>
@@ -18108,7 +18123,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18201,31 +18216,31 @@
         <v>3.04</v>
       </c>
       <c r="AU84">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV84">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX84">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY84">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ84">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA84">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB84">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC84">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD84">
         <v>1.61</v>
@@ -18520,7 +18535,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18677,6 +18692,624 @@
       </c>
       <c r="BP86">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7296607</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45445.41666666666</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>152</v>
+      </c>
+      <c r="P87" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q87">
+        <v>2.5</v>
+      </c>
+      <c r="R87">
+        <v>2.1</v>
+      </c>
+      <c r="S87">
+        <v>3.8</v>
+      </c>
+      <c r="T87">
+        <v>1.35</v>
+      </c>
+      <c r="U87">
+        <v>3.04</v>
+      </c>
+      <c r="V87">
+        <v>2.6</v>
+      </c>
+      <c r="W87">
+        <v>1.46</v>
+      </c>
+      <c r="X87">
+        <v>6.3</v>
+      </c>
+      <c r="Y87">
+        <v>1.1</v>
+      </c>
+      <c r="Z87">
+        <v>1.97</v>
+      </c>
+      <c r="AA87">
+        <v>3.55</v>
+      </c>
+      <c r="AB87">
+        <v>3.45</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>10.25</v>
+      </c>
+      <c r="AE87">
+        <v>1.22</v>
+      </c>
+      <c r="AF87">
+        <v>3.65</v>
+      </c>
+      <c r="AG87">
+        <v>1.74</v>
+      </c>
+      <c r="AH87">
+        <v>2.06</v>
+      </c>
+      <c r="AI87">
+        <v>1.64</v>
+      </c>
+      <c r="AJ87">
+        <v>2.12</v>
+      </c>
+      <c r="AK87">
+        <v>1.28</v>
+      </c>
+      <c r="AL87">
+        <v>1.27</v>
+      </c>
+      <c r="AM87">
+        <v>1.57</v>
+      </c>
+      <c r="AN87">
+        <v>0.2</v>
+      </c>
+      <c r="AO87">
+        <v>0.5</v>
+      </c>
+      <c r="AP87">
+        <v>0.67</v>
+      </c>
+      <c r="AQ87">
+        <v>0.4</v>
+      </c>
+      <c r="AR87">
+        <v>1.65</v>
+      </c>
+      <c r="AS87">
+        <v>1.14</v>
+      </c>
+      <c r="AT87">
+        <v>2.79</v>
+      </c>
+      <c r="AU87">
+        <v>8</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>14</v>
+      </c>
+      <c r="AZ87">
+        <v>9</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>1.58</v>
+      </c>
+      <c r="BE87">
+        <v>6.75</v>
+      </c>
+      <c r="BF87">
+        <v>2.4</v>
+      </c>
+      <c r="BG87">
+        <v>1.16</v>
+      </c>
+      <c r="BH87">
+        <v>4.4</v>
+      </c>
+      <c r="BI87">
+        <v>1.28</v>
+      </c>
+      <c r="BJ87">
+        <v>3.25</v>
+      </c>
+      <c r="BK87">
+        <v>1.48</v>
+      </c>
+      <c r="BL87">
+        <v>2.43</v>
+      </c>
+      <c r="BM87">
+        <v>1.75</v>
+      </c>
+      <c r="BN87">
+        <v>1.95</v>
+      </c>
+      <c r="BO87">
+        <v>2.15</v>
+      </c>
+      <c r="BP87">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7296612</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45445.41666666666</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>153</v>
+      </c>
+      <c r="P88" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q88">
+        <v>3.4</v>
+      </c>
+      <c r="R88">
+        <v>2.15</v>
+      </c>
+      <c r="S88">
+        <v>3.1</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>2.95</v>
+      </c>
+      <c r="V88">
+        <v>2.7</v>
+      </c>
+      <c r="W88">
+        <v>1.41</v>
+      </c>
+      <c r="X88">
+        <v>6.45</v>
+      </c>
+      <c r="Y88">
+        <v>1.09</v>
+      </c>
+      <c r="Z88">
+        <v>2.82</v>
+      </c>
+      <c r="AA88">
+        <v>3.3</v>
+      </c>
+      <c r="AB88">
+        <v>2.37</v>
+      </c>
+      <c r="AC88">
+        <v>1.04</v>
+      </c>
+      <c r="AD88">
+        <v>12</v>
+      </c>
+      <c r="AE88">
+        <v>1.28</v>
+      </c>
+      <c r="AF88">
+        <v>3.6</v>
+      </c>
+      <c r="AG88">
+        <v>1.96</v>
+      </c>
+      <c r="AH88">
+        <v>1.88</v>
+      </c>
+      <c r="AI88">
+        <v>1.68</v>
+      </c>
+      <c r="AJ88">
+        <v>2.15</v>
+      </c>
+      <c r="AK88">
+        <v>1.55</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.45</v>
+      </c>
+      <c r="AN88">
+        <v>1.6</v>
+      </c>
+      <c r="AO88">
+        <v>1.75</v>
+      </c>
+      <c r="AP88">
+        <v>1.33</v>
+      </c>
+      <c r="AQ88">
+        <v>2</v>
+      </c>
+      <c r="AR88">
+        <v>1.45</v>
+      </c>
+      <c r="AS88">
+        <v>1.33</v>
+      </c>
+      <c r="AT88">
+        <v>2.78</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>10</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
+        <v>10</v>
+      </c>
+      <c r="AY88">
+        <v>12</v>
+      </c>
+      <c r="AZ88">
+        <v>20</v>
+      </c>
+      <c r="BA88">
+        <v>1</v>
+      </c>
+      <c r="BB88">
+        <v>9</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>2.41</v>
+      </c>
+      <c r="BE88">
+        <v>8.5</v>
+      </c>
+      <c r="BF88">
+        <v>1.75</v>
+      </c>
+      <c r="BG88">
+        <v>1.14</v>
+      </c>
+      <c r="BH88">
+        <v>5</v>
+      </c>
+      <c r="BI88">
+        <v>1.22</v>
+      </c>
+      <c r="BJ88">
+        <v>4</v>
+      </c>
+      <c r="BK88">
+        <v>1.4</v>
+      </c>
+      <c r="BL88">
+        <v>2.8</v>
+      </c>
+      <c r="BM88">
+        <v>1.68</v>
+      </c>
+      <c r="BN88">
+        <v>2.1</v>
+      </c>
+      <c r="BO88">
+        <v>2.12</v>
+      </c>
+      <c r="BP88">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7296614</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45445.5</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s">
+        <v>83</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>154</v>
+      </c>
+      <c r="P89" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q89">
+        <v>2.26</v>
+      </c>
+      <c r="R89">
+        <v>2.25</v>
+      </c>
+      <c r="S89">
+        <v>4.83</v>
+      </c>
+      <c r="T89">
+        <v>1.32</v>
+      </c>
+      <c r="U89">
+        <v>3.28</v>
+      </c>
+      <c r="V89">
+        <v>2.63</v>
+      </c>
+      <c r="W89">
+        <v>1.47</v>
+      </c>
+      <c r="X89">
+        <v>6.25</v>
+      </c>
+      <c r="Y89">
+        <v>1.1</v>
+      </c>
+      <c r="Z89">
+        <v>1.8</v>
+      </c>
+      <c r="AA89">
+        <v>3.74</v>
+      </c>
+      <c r="AB89">
+        <v>4.05</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>10.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.21</v>
+      </c>
+      <c r="AF89">
+        <v>3.74</v>
+      </c>
+      <c r="AG89">
+        <v>1.8</v>
+      </c>
+      <c r="AH89">
+        <v>1.99</v>
+      </c>
+      <c r="AI89">
+        <v>1.7</v>
+      </c>
+      <c r="AJ89">
+        <v>2.03</v>
+      </c>
+      <c r="AK89">
+        <v>1.19</v>
+      </c>
+      <c r="AL89">
+        <v>1.24</v>
+      </c>
+      <c r="AM89">
+        <v>2.04</v>
+      </c>
+      <c r="AN89">
+        <v>1.2</v>
+      </c>
+      <c r="AO89">
+        <v>1.2</v>
+      </c>
+      <c r="AP89">
+        <v>1.17</v>
+      </c>
+      <c r="AQ89">
+        <v>1.17</v>
+      </c>
+      <c r="AR89">
+        <v>1.03</v>
+      </c>
+      <c r="AS89">
+        <v>1.16</v>
+      </c>
+      <c r="AT89">
+        <v>2.19</v>
+      </c>
+      <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>9</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>13</v>
+      </c>
+      <c r="AZ89">
+        <v>7</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>8</v>
+      </c>
+      <c r="BD89">
+        <v>1.46</v>
+      </c>
+      <c r="BE89">
+        <v>6.75</v>
+      </c>
+      <c r="BF89">
+        <v>2.8</v>
+      </c>
+      <c r="BG89">
+        <v>1.24</v>
+      </c>
+      <c r="BH89">
+        <v>3.55</v>
+      </c>
+      <c r="BI89">
+        <v>1.44</v>
+      </c>
+      <c r="BJ89">
+        <v>2.55</v>
+      </c>
+      <c r="BK89">
+        <v>1.72</v>
+      </c>
+      <c r="BL89">
+        <v>2</v>
+      </c>
+      <c r="BM89">
+        <v>2.08</v>
+      </c>
+      <c r="BN89">
+        <v>1.65</v>
+      </c>
+      <c r="BO89">
+        <v>2.65</v>
+      </c>
+      <c r="BP89">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -972,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -3372,7 +3372,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -6668,7 +6668,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -8519,7 +8519,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -9758,7 +9758,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR43">
         <v>1.84</v>
@@ -10991,7 +10991,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -12848,7 +12848,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -14493,7 +14493,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ66">
         <v>1.2</v>
@@ -17380,7 +17380,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR80">
         <v>1.74</v>
@@ -18819,7 +18819,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ87">
         <v>0.4</v>
@@ -19310,6 +19310,212 @@
       </c>
       <c r="BP89">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7296615</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45457.58333333334</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>70</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>115</v>
+      </c>
+      <c r="P90" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q90">
+        <v>2.33</v>
+      </c>
+      <c r="R90">
+        <v>2.27</v>
+      </c>
+      <c r="S90">
+        <v>4.25</v>
+      </c>
+      <c r="T90">
+        <v>1.3</v>
+      </c>
+      <c r="U90">
+        <v>3.2</v>
+      </c>
+      <c r="V90">
+        <v>2.45</v>
+      </c>
+      <c r="W90">
+        <v>1.49</v>
+      </c>
+      <c r="X90">
+        <v>5.9</v>
+      </c>
+      <c r="Y90">
+        <v>1.1</v>
+      </c>
+      <c r="Z90">
+        <v>1.85</v>
+      </c>
+      <c r="AA90">
+        <v>3.7</v>
+      </c>
+      <c r="AB90">
+        <v>4.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.02</v>
+      </c>
+      <c r="AD90">
+        <v>15</v>
+      </c>
+      <c r="AE90">
+        <v>1.22</v>
+      </c>
+      <c r="AF90">
+        <v>4.2</v>
+      </c>
+      <c r="AG90">
+        <v>1.61</v>
+      </c>
+      <c r="AH90">
+        <v>2.09</v>
+      </c>
+      <c r="AI90">
+        <v>1.62</v>
+      </c>
+      <c r="AJ90">
+        <v>2.16</v>
+      </c>
+      <c r="AK90">
+        <v>1.25</v>
+      </c>
+      <c r="AL90">
+        <v>1.22</v>
+      </c>
+      <c r="AM90">
+        <v>1.95</v>
+      </c>
+      <c r="AN90">
+        <v>0.67</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0.71</v>
+      </c>
+      <c r="AQ90">
+        <v>0.17</v>
+      </c>
+      <c r="AR90">
+        <v>1.68</v>
+      </c>
+      <c r="AS90">
+        <v>1.26</v>
+      </c>
+      <c r="AT90">
+        <v>2.94</v>
+      </c>
+      <c r="AU90">
+        <v>7</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>11</v>
+      </c>
+      <c r="AX90">
+        <v>11</v>
+      </c>
+      <c r="AY90">
+        <v>18</v>
+      </c>
+      <c r="AZ90">
+        <v>16</v>
+      </c>
+      <c r="BA90">
+        <v>11</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>15</v>
+      </c>
+      <c r="BD90">
+        <v>1.31</v>
+      </c>
+      <c r="BE90">
+        <v>10</v>
+      </c>
+      <c r="BF90">
+        <v>4.11</v>
+      </c>
+      <c r="BG90">
+        <v>1.15</v>
+      </c>
+      <c r="BH90">
+        <v>4.6</v>
+      </c>
+      <c r="BI90">
+        <v>1.27</v>
+      </c>
+      <c r="BJ90">
+        <v>3.3</v>
+      </c>
+      <c r="BK90">
+        <v>1.46</v>
+      </c>
+      <c r="BL90">
+        <v>2.5</v>
+      </c>
+      <c r="BM90">
+        <v>1.73</v>
+      </c>
+      <c r="BN90">
+        <v>2</v>
+      </c>
+      <c r="BO90">
+        <v>2.08</v>
+      </c>
+      <c r="BP90">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,9 @@
     <t>['49', '55']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -611,6 +614,15 @@
   </si>
   <si>
     <t>['4', '43']</t>
+  </si>
+  <si>
+    <t>['32', '78']</t>
+  </si>
+  <si>
+    <t>['64', '66']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,7 +1449,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1849,7 +1861,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2261,7 +2273,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2339,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2548,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2673,7 +2685,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2754,7 +2766,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3085,7 +3097,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3497,7 +3509,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3781,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
         <v>0.4</v>
@@ -3987,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4321,7 +4333,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4939,7 +4951,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5351,7 +5363,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5557,7 +5569,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5763,7 +5775,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5841,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6253,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.2</v>
@@ -6665,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
         <v>0.17</v>
@@ -6793,7 +6805,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6999,7 +7011,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7205,7 +7217,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7286,7 +7298,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7411,7 +7423,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7492,7 +7504,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -7617,7 +7629,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8029,7 +8041,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8107,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8316,7 +8328,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8441,7 +8453,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9059,7 +9071,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9140,7 +9152,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9343,7 +9355,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -9883,7 +9895,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9964,7 +9976,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10373,7 +10385,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10913,7 +10925,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11325,7 +11337,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11531,7 +11543,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11612,7 +11624,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -11737,7 +11749,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12021,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
         <v>1.17</v>
@@ -12149,7 +12161,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12355,7 +12367,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12561,7 +12573,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12642,7 +12654,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -12845,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ58">
         <v>0.17</v>
@@ -12973,7 +12985,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13051,7 +13063,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13463,7 +13475,7 @@
         <v>0.25</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>0.67</v>
@@ -13591,7 +13603,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13797,7 +13809,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14209,7 +14221,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14290,7 +14302,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ65">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -14415,7 +14427,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14621,7 +14633,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14827,7 +14839,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -14908,7 +14920,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ68">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>2.08</v>
@@ -15033,7 +15045,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15445,7 +15457,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15651,7 +15663,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15732,7 +15744,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16063,7 +16075,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16141,7 +16153,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16269,7 +16281,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16475,7 +16487,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16681,7 +16693,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16759,7 +16771,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ77">
         <v>0.4</v>
@@ -16887,7 +16899,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16968,7 +16980,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ78">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.64</v>
@@ -17171,7 +17183,7 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
         <v>1.33</v>
@@ -17299,7 +17311,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17586,7 +17598,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.9</v>
@@ -17711,7 +17723,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18123,7 +18135,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18535,7 +18547,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18947,7 +18959,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19153,7 +19165,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19516,6 +19528,624 @@
       </c>
       <c r="BP90">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7296617</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45458.41666666666</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>155</v>
+      </c>
+      <c r="P91" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q91">
+        <v>3.75</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>2.8</v>
+      </c>
+      <c r="T91">
+        <v>1.34</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <v>2.7</v>
+      </c>
+      <c r="W91">
+        <v>1.41</v>
+      </c>
+      <c r="X91">
+        <v>6.45</v>
+      </c>
+      <c r="Y91">
+        <v>1.09</v>
+      </c>
+      <c r="Z91">
+        <v>3.07</v>
+      </c>
+      <c r="AA91">
+        <v>3.5</v>
+      </c>
+      <c r="AB91">
+        <v>2.07</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>9.9</v>
+      </c>
+      <c r="AE91">
+        <v>1.23</v>
+      </c>
+      <c r="AF91">
+        <v>3.56</v>
+      </c>
+      <c r="AG91">
+        <v>1.8</v>
+      </c>
+      <c r="AH91">
+        <v>1.9</v>
+      </c>
+      <c r="AI91">
+        <v>1.7</v>
+      </c>
+      <c r="AJ91">
+        <v>2.1</v>
+      </c>
+      <c r="AK91">
+        <v>1.72</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.36</v>
+      </c>
+      <c r="AN91">
+        <v>1.83</v>
+      </c>
+      <c r="AO91">
+        <v>1.83</v>
+      </c>
+      <c r="AP91">
+        <v>1.57</v>
+      </c>
+      <c r="AQ91">
+        <v>2</v>
+      </c>
+      <c r="AR91">
+        <v>1.45</v>
+      </c>
+      <c r="AS91">
+        <v>1.53</v>
+      </c>
+      <c r="AT91">
+        <v>2.98</v>
+      </c>
+      <c r="AU91">
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <v>6</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>5</v>
+      </c>
+      <c r="AY91">
+        <v>7</v>
+      </c>
+      <c r="AZ91">
+        <v>11</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>8</v>
+      </c>
+      <c r="BC91">
+        <v>11</v>
+      </c>
+      <c r="BD91">
+        <v>2.1</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>1.91</v>
+      </c>
+      <c r="BG91">
+        <v>1.23</v>
+      </c>
+      <c r="BH91">
+        <v>3.65</v>
+      </c>
+      <c r="BI91">
+        <v>1.4</v>
+      </c>
+      <c r="BJ91">
+        <v>2.7</v>
+      </c>
+      <c r="BK91">
+        <v>1.66</v>
+      </c>
+      <c r="BL91">
+        <v>2.08</v>
+      </c>
+      <c r="BM91">
+        <v>2</v>
+      </c>
+      <c r="BN91">
+        <v>1.73</v>
+      </c>
+      <c r="BO91">
+        <v>2.55</v>
+      </c>
+      <c r="BP91">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7296618</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45458.41666666666</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>83</v>
+      </c>
+      <c r="H92" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>90</v>
+      </c>
+      <c r="P92" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q92">
+        <v>4.75</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>2.28</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>2.99</v>
+      </c>
+      <c r="V92">
+        <v>2.7</v>
+      </c>
+      <c r="W92">
+        <v>1.43</v>
+      </c>
+      <c r="X92">
+        <v>6.6</v>
+      </c>
+      <c r="Y92">
+        <v>1.09</v>
+      </c>
+      <c r="Z92">
+        <v>4.24</v>
+      </c>
+      <c r="AA92">
+        <v>3.6</v>
+      </c>
+      <c r="AB92">
+        <v>1.72</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE92">
+        <v>1.24</v>
+      </c>
+      <c r="AF92">
+        <v>3.48</v>
+      </c>
+      <c r="AG92">
+        <v>1.8</v>
+      </c>
+      <c r="AH92">
+        <v>1.9</v>
+      </c>
+      <c r="AI92">
+        <v>1.76</v>
+      </c>
+      <c r="AJ92">
+        <v>1.95</v>
+      </c>
+      <c r="AK92">
+        <v>2.02</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.19</v>
+      </c>
+      <c r="AN92">
+        <v>1.6</v>
+      </c>
+      <c r="AO92">
+        <v>1.2</v>
+      </c>
+      <c r="AP92">
+        <v>1.33</v>
+      </c>
+      <c r="AQ92">
+        <v>1.5</v>
+      </c>
+      <c r="AR92">
+        <v>0.98</v>
+      </c>
+      <c r="AS92">
+        <v>1.31</v>
+      </c>
+      <c r="AT92">
+        <v>2.29</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>6</v>
+      </c>
+      <c r="AW92">
+        <v>2</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>2</v>
+      </c>
+      <c r="AZ92">
+        <v>10</v>
+      </c>
+      <c r="BA92">
+        <v>2</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>3.06</v>
+      </c>
+      <c r="BE92">
+        <v>9</v>
+      </c>
+      <c r="BF92">
+        <v>1.51</v>
+      </c>
+      <c r="BG92">
+        <v>1.17</v>
+      </c>
+      <c r="BH92">
+        <v>4.35</v>
+      </c>
+      <c r="BI92">
+        <v>1.29</v>
+      </c>
+      <c r="BJ92">
+        <v>3.15</v>
+      </c>
+      <c r="BK92">
+        <v>1.49</v>
+      </c>
+      <c r="BL92">
+        <v>2.43</v>
+      </c>
+      <c r="BM92">
+        <v>1.8</v>
+      </c>
+      <c r="BN92">
+        <v>2</v>
+      </c>
+      <c r="BO92">
+        <v>2.17</v>
+      </c>
+      <c r="BP92">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7296620</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45458.41666666666</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s">
+        <v>79</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>90</v>
+      </c>
+      <c r="P93" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q93">
+        <v>2.5</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>4.33</v>
+      </c>
+      <c r="T93">
+        <v>1.34</v>
+      </c>
+      <c r="U93">
+        <v>3</v>
+      </c>
+      <c r="V93">
+        <v>2.7</v>
+      </c>
+      <c r="W93">
+        <v>1.41</v>
+      </c>
+      <c r="X93">
+        <v>6.45</v>
+      </c>
+      <c r="Y93">
+        <v>1.09</v>
+      </c>
+      <c r="Z93">
+        <v>1.85</v>
+      </c>
+      <c r="AA93">
+        <v>3.65</v>
+      </c>
+      <c r="AB93">
+        <v>3.57</v>
+      </c>
+      <c r="AC93">
+        <v>1.04</v>
+      </c>
+      <c r="AD93">
+        <v>12</v>
+      </c>
+      <c r="AE93">
+        <v>1.28</v>
+      </c>
+      <c r="AF93">
+        <v>3.6</v>
+      </c>
+      <c r="AG93">
+        <v>1.8</v>
+      </c>
+      <c r="AH93">
+        <v>1.9</v>
+      </c>
+      <c r="AI93">
+        <v>1.75</v>
+      </c>
+      <c r="AJ93">
+        <v>2.05</v>
+      </c>
+      <c r="AK93">
+        <v>1.25</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>1.95</v>
+      </c>
+      <c r="AN93">
+        <v>2.2</v>
+      </c>
+      <c r="AO93">
+        <v>0.4</v>
+      </c>
+      <c r="AP93">
+        <v>1.83</v>
+      </c>
+      <c r="AQ93">
+        <v>0.83</v>
+      </c>
+      <c r="AR93">
+        <v>1.46</v>
+      </c>
+      <c r="AS93">
+        <v>1.74</v>
+      </c>
+      <c r="AT93">
+        <v>3.2</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>17</v>
+      </c>
+      <c r="AX93">
+        <v>7</v>
+      </c>
+      <c r="AY93">
+        <v>22</v>
+      </c>
+      <c r="AZ93">
+        <v>10</v>
+      </c>
+      <c r="BA93">
+        <v>11</v>
+      </c>
+      <c r="BB93">
+        <v>6</v>
+      </c>
+      <c r="BC93">
+        <v>17</v>
+      </c>
+      <c r="BD93">
+        <v>1.59</v>
+      </c>
+      <c r="BE93">
+        <v>8.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.78</v>
+      </c>
+      <c r="BG93">
+        <v>1.23</v>
+      </c>
+      <c r="BH93">
+        <v>3.65</v>
+      </c>
+      <c r="BI93">
+        <v>1.41</v>
+      </c>
+      <c r="BJ93">
+        <v>2.65</v>
+      </c>
+      <c r="BK93">
+        <v>1.67</v>
+      </c>
+      <c r="BL93">
+        <v>2.07</v>
+      </c>
+      <c r="BM93">
+        <v>2</v>
+      </c>
+      <c r="BN93">
+        <v>1.73</v>
+      </c>
+      <c r="BO93">
+        <v>2.55</v>
+      </c>
+      <c r="BP93">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,12 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['12', '90']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -560,9 +566,6 @@
   </si>
   <si>
     <t>['34']</t>
-  </si>
-  <si>
-    <t>['90']</t>
   </si>
   <si>
     <t>['90+8']</t>
@@ -984,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1327,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1449,7 +1452,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1861,7 +1864,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1942,7 +1945,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2273,7 +2276,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2685,7 +2688,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2763,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3097,7 +3100,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3509,7 +3512,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3587,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4333,7 +4336,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4411,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4826,7 +4829,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -4951,7 +4954,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5032,7 +5035,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>1.38</v>
@@ -5363,7 +5366,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5441,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5569,7 +5572,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5775,7 +5778,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6059,10 +6062,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6471,7 +6474,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6805,7 +6808,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7011,7 +7014,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7217,7 +7220,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7423,7 +7426,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7629,7 +7632,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8041,7 +8044,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8453,7 +8456,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8737,10 +8740,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -9071,7 +9074,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9358,7 +9361,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -9561,7 +9564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9895,7 +9898,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10179,7 +10182,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.4</v>
@@ -10594,7 +10597,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -10925,7 +10928,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11209,10 +11212,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11337,7 +11340,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11543,7 +11546,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11749,7 +11752,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12161,7 +12164,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12239,7 +12242,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12367,7 +12370,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12448,7 +12451,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12573,7 +12576,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12985,7 +12988,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13478,7 +13481,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR61">
         <v>0.92</v>
@@ -13603,7 +13606,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13809,7 +13812,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14096,7 +14099,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ64">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14221,7 +14224,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14299,7 +14302,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -14427,7 +14430,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14633,7 +14636,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14711,7 +14714,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.17</v>
@@ -14839,7 +14842,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -14917,7 +14920,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15045,7 +15048,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15457,7 +15460,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15663,7 +15666,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15950,7 +15953,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR73">
         <v>1.24</v>
@@ -16075,7 +16078,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16281,7 +16284,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16362,7 +16365,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.67</v>
@@ -16487,7 +16490,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16565,7 +16568,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16693,7 +16696,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16774,7 +16777,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ77">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR77">
         <v>1.5</v>
@@ -16899,7 +16902,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16977,7 +16980,7 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17311,7 +17314,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17723,7 +17726,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18135,7 +18138,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18547,7 +18550,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18628,7 +18631,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -18959,7 +18962,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19165,7 +19168,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19577,7 +19580,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19783,7 +19786,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -19989,7 +19992,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20146,6 +20149,624 @@
       </c>
       <c r="BP93">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7296616</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>85</v>
+      </c>
+      <c r="H94" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>141</v>
+      </c>
+      <c r="P94" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q94">
+        <v>2.5</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>4.5</v>
+      </c>
+      <c r="T94">
+        <v>1.4</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94">
+        <v>1.36</v>
+      </c>
+      <c r="X94">
+        <v>8</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>1.85</v>
+      </c>
+      <c r="AA94">
+        <v>3.4</v>
+      </c>
+      <c r="AB94">
+        <v>3.84</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE94">
+        <v>1.28</v>
+      </c>
+      <c r="AF94">
+        <v>3.2</v>
+      </c>
+      <c r="AG94">
+        <v>1.96</v>
+      </c>
+      <c r="AH94">
+        <v>1.75</v>
+      </c>
+      <c r="AI94">
+        <v>1.8</v>
+      </c>
+      <c r="AJ94">
+        <v>1.95</v>
+      </c>
+      <c r="AK94">
+        <v>1.22</v>
+      </c>
+      <c r="AL94">
+        <v>1.28</v>
+      </c>
+      <c r="AM94">
+        <v>1.89</v>
+      </c>
+      <c r="AN94">
+        <v>0.67</v>
+      </c>
+      <c r="AO94">
+        <v>0.4</v>
+      </c>
+      <c r="AP94">
+        <v>1</v>
+      </c>
+      <c r="AQ94">
+        <v>0.33</v>
+      </c>
+      <c r="AR94">
+        <v>1.56</v>
+      </c>
+      <c r="AS94">
+        <v>1.12</v>
+      </c>
+      <c r="AT94">
+        <v>2.68</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>9</v>
+      </c>
+      <c r="AY94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>12</v>
+      </c>
+      <c r="BA94">
+        <v>3</v>
+      </c>
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
+        <v>8</v>
+      </c>
+      <c r="BD94">
+        <v>1.64</v>
+      </c>
+      <c r="BE94">
+        <v>8.5</v>
+      </c>
+      <c r="BF94">
+        <v>2.66</v>
+      </c>
+      <c r="BG94">
+        <v>1.19</v>
+      </c>
+      <c r="BH94">
+        <v>4.1</v>
+      </c>
+      <c r="BI94">
+        <v>1.32</v>
+      </c>
+      <c r="BJ94">
+        <v>3.05</v>
+      </c>
+      <c r="BK94">
+        <v>1.53</v>
+      </c>
+      <c r="BL94">
+        <v>2.3</v>
+      </c>
+      <c r="BM94">
+        <v>1.85</v>
+      </c>
+      <c r="BN94">
+        <v>1.95</v>
+      </c>
+      <c r="BO94">
+        <v>2.28</v>
+      </c>
+      <c r="BP94">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7296621</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s">
+        <v>78</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>156</v>
+      </c>
+      <c r="P95" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q95">
+        <v>2.05</v>
+      </c>
+      <c r="R95">
+        <v>2.5</v>
+      </c>
+      <c r="S95">
+        <v>5.5</v>
+      </c>
+      <c r="T95">
+        <v>1.29</v>
+      </c>
+      <c r="U95">
+        <v>3.5</v>
+      </c>
+      <c r="V95">
+        <v>2.25</v>
+      </c>
+      <c r="W95">
+        <v>1.57</v>
+      </c>
+      <c r="X95">
+        <v>5.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.14</v>
+      </c>
+      <c r="Z95">
+        <v>1.52</v>
+      </c>
+      <c r="AA95">
+        <v>4.15</v>
+      </c>
+      <c r="AB95">
+        <v>5.1</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>19</v>
+      </c>
+      <c r="AE95">
+        <v>1.17</v>
+      </c>
+      <c r="AF95">
+        <v>5</v>
+      </c>
+      <c r="AG95">
+        <v>1.53</v>
+      </c>
+      <c r="AH95">
+        <v>2.34</v>
+      </c>
+      <c r="AI95">
+        <v>1.7</v>
+      </c>
+      <c r="AJ95">
+        <v>2.05</v>
+      </c>
+      <c r="AK95">
+        <v>1.15</v>
+      </c>
+      <c r="AL95">
+        <v>1.16</v>
+      </c>
+      <c r="AM95">
+        <v>2.55</v>
+      </c>
+      <c r="AN95">
+        <v>2.2</v>
+      </c>
+      <c r="AO95">
+        <v>0.67</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
+        <v>0.71</v>
+      </c>
+      <c r="AR95">
+        <v>2.11</v>
+      </c>
+      <c r="AS95">
+        <v>1.62</v>
+      </c>
+      <c r="AT95">
+        <v>3.73</v>
+      </c>
+      <c r="AU95">
+        <v>12</v>
+      </c>
+      <c r="AV95">
+        <v>9</v>
+      </c>
+      <c r="AW95">
+        <v>6</v>
+      </c>
+      <c r="AX95">
+        <v>2</v>
+      </c>
+      <c r="AY95">
+        <v>18</v>
+      </c>
+      <c r="AZ95">
+        <v>11</v>
+      </c>
+      <c r="BA95">
+        <v>7</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>10</v>
+      </c>
+      <c r="BD95">
+        <v>1.34</v>
+      </c>
+      <c r="BE95">
+        <v>10</v>
+      </c>
+      <c r="BF95">
+        <v>4.06</v>
+      </c>
+      <c r="BG95">
+        <v>1.2</v>
+      </c>
+      <c r="BH95">
+        <v>4</v>
+      </c>
+      <c r="BI95">
+        <v>1.34</v>
+      </c>
+      <c r="BJ95">
+        <v>2.9</v>
+      </c>
+      <c r="BK95">
+        <v>1.56</v>
+      </c>
+      <c r="BL95">
+        <v>2.23</v>
+      </c>
+      <c r="BM95">
+        <v>2</v>
+      </c>
+      <c r="BN95">
+        <v>1.8</v>
+      </c>
+      <c r="BO95">
+        <v>2.33</v>
+      </c>
+      <c r="BP95">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7296622</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45459.5</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>81</v>
+      </c>
+      <c r="H96" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>157</v>
+      </c>
+      <c r="P96" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q96">
+        <v>2.75</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>4</v>
+      </c>
+      <c r="T96">
+        <v>1.4</v>
+      </c>
+      <c r="U96">
+        <v>2.75</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>8</v>
+      </c>
+      <c r="Y96">
+        <v>1.08</v>
+      </c>
+      <c r="Z96">
+        <v>2</v>
+      </c>
+      <c r="AA96">
+        <v>3.4</v>
+      </c>
+      <c r="AB96">
+        <v>3.32</v>
+      </c>
+      <c r="AC96">
+        <v>1.05</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>1.33</v>
+      </c>
+      <c r="AF96">
+        <v>3.25</v>
+      </c>
+      <c r="AG96">
+        <v>1.93</v>
+      </c>
+      <c r="AH96">
+        <v>1.78</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.95</v>
+      </c>
+      <c r="AK96">
+        <v>1.3</v>
+      </c>
+      <c r="AL96">
+        <v>1.25</v>
+      </c>
+      <c r="AM96">
+        <v>1.78</v>
+      </c>
+      <c r="AN96">
+        <v>2.4</v>
+      </c>
+      <c r="AO96">
+        <v>0.83</v>
+      </c>
+      <c r="AP96">
+        <v>2.5</v>
+      </c>
+      <c r="AQ96">
+        <v>0.71</v>
+      </c>
+      <c r="AR96">
+        <v>1.45</v>
+      </c>
+      <c r="AS96">
+        <v>1.26</v>
+      </c>
+      <c r="AT96">
+        <v>2.71</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>7</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>11</v>
+      </c>
+      <c r="AZ96">
+        <v>10</v>
+      </c>
+      <c r="BA96">
+        <v>6</v>
+      </c>
+      <c r="BB96">
+        <v>1</v>
+      </c>
+      <c r="BC96">
+        <v>7</v>
+      </c>
+      <c r="BD96">
+        <v>1.64</v>
+      </c>
+      <c r="BE96">
+        <v>8.5</v>
+      </c>
+      <c r="BF96">
+        <v>2.66</v>
+      </c>
+      <c r="BG96">
+        <v>1.18</v>
+      </c>
+      <c r="BH96">
+        <v>4.1</v>
+      </c>
+      <c r="BI96">
+        <v>1.33</v>
+      </c>
+      <c r="BJ96">
+        <v>2.95</v>
+      </c>
+      <c r="BK96">
+        <v>1.55</v>
+      </c>
+      <c r="BL96">
+        <v>2.28</v>
+      </c>
+      <c r="BM96">
+        <v>1.98</v>
+      </c>
+      <c r="BN96">
+        <v>1.82</v>
+      </c>
+      <c r="BO96">
+        <v>2.3</v>
+      </c>
+      <c r="BP96">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,18 @@
     <t>['49', '55']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['12', '90']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -559,9 +571,6 @@
     <t>['34']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['90+8']</t>
   </si>
   <si>
@@ -611,6 +620,15 @@
   </si>
   <si>
     <t>['4', '43']</t>
+  </si>
+  <si>
+    <t>['32', '78']</t>
+  </si>
+  <si>
+    <t>['64', '66']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1330,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1437,7 +1455,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1515,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1849,7 +1867,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1927,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2261,7 +2279,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2339,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2548,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2673,7 +2691,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2751,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3085,7 +3103,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3372,7 +3390,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3497,7 +3515,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3575,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3781,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
         <v>0.4</v>
@@ -3987,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4321,7 +4339,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4399,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4814,7 +4832,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -4939,7 +4957,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5020,7 +5038,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>1.38</v>
@@ -5223,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5351,7 +5369,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5429,7 +5447,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5557,7 +5575,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5635,10 +5653,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -5763,7 +5781,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5841,10 +5859,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ24">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6047,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6253,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.2</v>
@@ -6459,7 +6477,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -6665,10 +6683,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6793,7 +6811,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6999,7 +7017,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7205,7 +7223,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7286,7 +7304,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7411,7 +7429,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7492,7 +7510,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -7617,7 +7635,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8029,7 +8047,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8107,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8316,7 +8334,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8441,7 +8459,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8519,7 +8537,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -8725,10 +8743,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -8934,7 +8952,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -9059,7 +9077,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9137,10 +9155,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
+        <v>1.71</v>
+      </c>
+      <c r="AQ40">
         <v>1.5</v>
-      </c>
-      <c r="AQ40">
-        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9343,10 +9361,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -9549,10 +9567,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR42">
         <v>1.56</v>
@@ -9758,7 +9776,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR43">
         <v>1.84</v>
@@ -9883,7 +9901,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -9964,7 +9982,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10167,7 +10185,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.4</v>
@@ -10373,7 +10391,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10582,7 +10600,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ47">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -10913,7 +10931,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -10991,7 +11009,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11197,10 +11215,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11325,7 +11343,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11403,7 +11421,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11531,7 +11549,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11612,7 +11630,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -11737,7 +11755,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12021,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
         <v>1.17</v>
@@ -12149,7 +12167,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12227,7 +12245,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12355,7 +12373,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12436,7 +12454,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12561,7 +12579,7 @@
         <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12642,7 +12660,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -12845,10 +12863,10 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12973,7 +12991,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13051,7 +13069,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13257,7 +13275,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13463,10 +13481,10 @@
         <v>0.25</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR61">
         <v>0.92</v>
@@ -13591,7 +13609,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13672,7 +13690,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -13797,7 +13815,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14084,7 +14102,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ64">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14209,7 +14227,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14287,10 +14305,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ65">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -14415,7 +14433,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14493,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ66">
         <v>1.2</v>
@@ -14621,7 +14639,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14699,7 +14717,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.17</v>
@@ -14827,7 +14845,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -14905,10 +14923,10 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>2.08</v>
@@ -15033,7 +15051,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15445,7 +15463,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15651,7 +15669,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15732,7 +15750,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -15938,7 +15956,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR73">
         <v>1.24</v>
@@ -16063,7 +16081,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16141,7 +16159,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16269,7 +16287,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16350,7 +16368,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.67</v>
@@ -16475,7 +16493,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16553,7 +16571,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16681,7 +16699,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16759,10 +16777,10 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ77">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR77">
         <v>1.5</v>
@@ -16887,7 +16905,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -16965,10 +16983,10 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.64</v>
@@ -17171,10 +17189,10 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR79">
         <v>1.45</v>
@@ -17299,7 +17317,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17377,10 +17395,10 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ80">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR80">
         <v>1.74</v>
@@ -17586,7 +17604,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.9</v>
@@ -17711,7 +17729,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18123,7 +18141,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18535,7 +18553,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18616,7 +18634,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -18819,7 +18837,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ87">
         <v>0.4</v>
@@ -18947,7 +18965,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19153,7 +19171,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19310,6 +19328,1654 @@
       </c>
       <c r="BP89">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7296615</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45457.58333333334</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" t="s">
+        <v>70</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>115</v>
+      </c>
+      <c r="P90" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q90">
+        <v>2.33</v>
+      </c>
+      <c r="R90">
+        <v>2.27</v>
+      </c>
+      <c r="S90">
+        <v>4.25</v>
+      </c>
+      <c r="T90">
+        <v>1.3</v>
+      </c>
+      <c r="U90">
+        <v>3.2</v>
+      </c>
+      <c r="V90">
+        <v>2.45</v>
+      </c>
+      <c r="W90">
+        <v>1.49</v>
+      </c>
+      <c r="X90">
+        <v>5.9</v>
+      </c>
+      <c r="Y90">
+        <v>1.1</v>
+      </c>
+      <c r="Z90">
+        <v>1.85</v>
+      </c>
+      <c r="AA90">
+        <v>3.7</v>
+      </c>
+      <c r="AB90">
+        <v>4.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.02</v>
+      </c>
+      <c r="AD90">
+        <v>15</v>
+      </c>
+      <c r="AE90">
+        <v>1.22</v>
+      </c>
+      <c r="AF90">
+        <v>4.2</v>
+      </c>
+      <c r="AG90">
+        <v>1.61</v>
+      </c>
+      <c r="AH90">
+        <v>2.09</v>
+      </c>
+      <c r="AI90">
+        <v>1.62</v>
+      </c>
+      <c r="AJ90">
+        <v>2.16</v>
+      </c>
+      <c r="AK90">
+        <v>1.25</v>
+      </c>
+      <c r="AL90">
+        <v>1.22</v>
+      </c>
+      <c r="AM90">
+        <v>1.95</v>
+      </c>
+      <c r="AN90">
+        <v>0.67</v>
+      </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0.71</v>
+      </c>
+      <c r="AQ90">
+        <v>0.17</v>
+      </c>
+      <c r="AR90">
+        <v>1.68</v>
+      </c>
+      <c r="AS90">
+        <v>1.26</v>
+      </c>
+      <c r="AT90">
+        <v>2.94</v>
+      </c>
+      <c r="AU90">
+        <v>7</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>11</v>
+      </c>
+      <c r="AX90">
+        <v>11</v>
+      </c>
+      <c r="AY90">
+        <v>18</v>
+      </c>
+      <c r="AZ90">
+        <v>16</v>
+      </c>
+      <c r="BA90">
+        <v>11</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>15</v>
+      </c>
+      <c r="BD90">
+        <v>1.31</v>
+      </c>
+      <c r="BE90">
+        <v>10</v>
+      </c>
+      <c r="BF90">
+        <v>4.11</v>
+      </c>
+      <c r="BG90">
+        <v>1.15</v>
+      </c>
+      <c r="BH90">
+        <v>4.6</v>
+      </c>
+      <c r="BI90">
+        <v>1.27</v>
+      </c>
+      <c r="BJ90">
+        <v>3.3</v>
+      </c>
+      <c r="BK90">
+        <v>1.46</v>
+      </c>
+      <c r="BL90">
+        <v>2.5</v>
+      </c>
+      <c r="BM90">
+        <v>1.73</v>
+      </c>
+      <c r="BN90">
+        <v>2</v>
+      </c>
+      <c r="BO90">
+        <v>2.08</v>
+      </c>
+      <c r="BP90">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7296617</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45458.41666666666</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>155</v>
+      </c>
+      <c r="P91" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q91">
+        <v>3.75</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>2.8</v>
+      </c>
+      <c r="T91">
+        <v>1.34</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <v>2.7</v>
+      </c>
+      <c r="W91">
+        <v>1.41</v>
+      </c>
+      <c r="X91">
+        <v>6.45</v>
+      </c>
+      <c r="Y91">
+        <v>1.09</v>
+      </c>
+      <c r="Z91">
+        <v>3.07</v>
+      </c>
+      <c r="AA91">
+        <v>3.5</v>
+      </c>
+      <c r="AB91">
+        <v>2.07</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>9.9</v>
+      </c>
+      <c r="AE91">
+        <v>1.23</v>
+      </c>
+      <c r="AF91">
+        <v>3.56</v>
+      </c>
+      <c r="AG91">
+        <v>1.8</v>
+      </c>
+      <c r="AH91">
+        <v>1.9</v>
+      </c>
+      <c r="AI91">
+        <v>1.7</v>
+      </c>
+      <c r="AJ91">
+        <v>2.1</v>
+      </c>
+      <c r="AK91">
+        <v>1.72</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.36</v>
+      </c>
+      <c r="AN91">
+        <v>1.83</v>
+      </c>
+      <c r="AO91">
+        <v>1.83</v>
+      </c>
+      <c r="AP91">
+        <v>1.57</v>
+      </c>
+      <c r="AQ91">
+        <v>2</v>
+      </c>
+      <c r="AR91">
+        <v>1.45</v>
+      </c>
+      <c r="AS91">
+        <v>1.53</v>
+      </c>
+      <c r="AT91">
+        <v>2.98</v>
+      </c>
+      <c r="AU91">
+        <v>2</v>
+      </c>
+      <c r="AV91">
+        <v>6</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>5</v>
+      </c>
+      <c r="AY91">
+        <v>7</v>
+      </c>
+      <c r="AZ91">
+        <v>11</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>8</v>
+      </c>
+      <c r="BC91">
+        <v>11</v>
+      </c>
+      <c r="BD91">
+        <v>2.1</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>1.91</v>
+      </c>
+      <c r="BG91">
+        <v>1.23</v>
+      </c>
+      <c r="BH91">
+        <v>3.65</v>
+      </c>
+      <c r="BI91">
+        <v>1.4</v>
+      </c>
+      <c r="BJ91">
+        <v>2.7</v>
+      </c>
+      <c r="BK91">
+        <v>1.66</v>
+      </c>
+      <c r="BL91">
+        <v>2.08</v>
+      </c>
+      <c r="BM91">
+        <v>2</v>
+      </c>
+      <c r="BN91">
+        <v>1.73</v>
+      </c>
+      <c r="BO91">
+        <v>2.55</v>
+      </c>
+      <c r="BP91">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7296618</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45458.41666666666</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>83</v>
+      </c>
+      <c r="H92" t="s">
+        <v>80</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>90</v>
+      </c>
+      <c r="P92" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q92">
+        <v>4.75</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>2.28</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>2.99</v>
+      </c>
+      <c r="V92">
+        <v>2.7</v>
+      </c>
+      <c r="W92">
+        <v>1.43</v>
+      </c>
+      <c r="X92">
+        <v>6.6</v>
+      </c>
+      <c r="Y92">
+        <v>1.09</v>
+      </c>
+      <c r="Z92">
+        <v>4.24</v>
+      </c>
+      <c r="AA92">
+        <v>3.6</v>
+      </c>
+      <c r="AB92">
+        <v>1.72</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE92">
+        <v>1.24</v>
+      </c>
+      <c r="AF92">
+        <v>3.48</v>
+      </c>
+      <c r="AG92">
+        <v>1.8</v>
+      </c>
+      <c r="AH92">
+        <v>1.9</v>
+      </c>
+      <c r="AI92">
+        <v>1.76</v>
+      </c>
+      <c r="AJ92">
+        <v>1.95</v>
+      </c>
+      <c r="AK92">
+        <v>2.02</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.19</v>
+      </c>
+      <c r="AN92">
+        <v>1.6</v>
+      </c>
+      <c r="AO92">
+        <v>1.2</v>
+      </c>
+      <c r="AP92">
+        <v>1.33</v>
+      </c>
+      <c r="AQ92">
+        <v>1.5</v>
+      </c>
+      <c r="AR92">
+        <v>0.98</v>
+      </c>
+      <c r="AS92">
+        <v>1.31</v>
+      </c>
+      <c r="AT92">
+        <v>2.29</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
+        <v>6</v>
+      </c>
+      <c r="AW92">
+        <v>2</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>2</v>
+      </c>
+      <c r="AZ92">
+        <v>10</v>
+      </c>
+      <c r="BA92">
+        <v>2</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>3.06</v>
+      </c>
+      <c r="BE92">
+        <v>9</v>
+      </c>
+      <c r="BF92">
+        <v>1.51</v>
+      </c>
+      <c r="BG92">
+        <v>1.17</v>
+      </c>
+      <c r="BH92">
+        <v>4.35</v>
+      </c>
+      <c r="BI92">
+        <v>1.29</v>
+      </c>
+      <c r="BJ92">
+        <v>3.15</v>
+      </c>
+      <c r="BK92">
+        <v>1.49</v>
+      </c>
+      <c r="BL92">
+        <v>2.43</v>
+      </c>
+      <c r="BM92">
+        <v>1.8</v>
+      </c>
+      <c r="BN92">
+        <v>2</v>
+      </c>
+      <c r="BO92">
+        <v>2.17</v>
+      </c>
+      <c r="BP92">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7296620</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45458.41666666666</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" t="s">
+        <v>79</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>90</v>
+      </c>
+      <c r="P93" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q93">
+        <v>2.5</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>4.33</v>
+      </c>
+      <c r="T93">
+        <v>1.34</v>
+      </c>
+      <c r="U93">
+        <v>3</v>
+      </c>
+      <c r="V93">
+        <v>2.7</v>
+      </c>
+      <c r="W93">
+        <v>1.41</v>
+      </c>
+      <c r="X93">
+        <v>6.45</v>
+      </c>
+      <c r="Y93">
+        <v>1.09</v>
+      </c>
+      <c r="Z93">
+        <v>1.85</v>
+      </c>
+      <c r="AA93">
+        <v>3.65</v>
+      </c>
+      <c r="AB93">
+        <v>3.57</v>
+      </c>
+      <c r="AC93">
+        <v>1.04</v>
+      </c>
+      <c r="AD93">
+        <v>12</v>
+      </c>
+      <c r="AE93">
+        <v>1.28</v>
+      </c>
+      <c r="AF93">
+        <v>3.6</v>
+      </c>
+      <c r="AG93">
+        <v>1.8</v>
+      </c>
+      <c r="AH93">
+        <v>1.9</v>
+      </c>
+      <c r="AI93">
+        <v>1.75</v>
+      </c>
+      <c r="AJ93">
+        <v>2.05</v>
+      </c>
+      <c r="AK93">
+        <v>1.25</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>1.95</v>
+      </c>
+      <c r="AN93">
+        <v>2.2</v>
+      </c>
+      <c r="AO93">
+        <v>0.4</v>
+      </c>
+      <c r="AP93">
+        <v>1.83</v>
+      </c>
+      <c r="AQ93">
+        <v>0.83</v>
+      </c>
+      <c r="AR93">
+        <v>1.46</v>
+      </c>
+      <c r="AS93">
+        <v>1.74</v>
+      </c>
+      <c r="AT93">
+        <v>3.2</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>17</v>
+      </c>
+      <c r="AX93">
+        <v>7</v>
+      </c>
+      <c r="AY93">
+        <v>22</v>
+      </c>
+      <c r="AZ93">
+        <v>10</v>
+      </c>
+      <c r="BA93">
+        <v>11</v>
+      </c>
+      <c r="BB93">
+        <v>6</v>
+      </c>
+      <c r="BC93">
+        <v>17</v>
+      </c>
+      <c r="BD93">
+        <v>1.59</v>
+      </c>
+      <c r="BE93">
+        <v>8.5</v>
+      </c>
+      <c r="BF93">
+        <v>2.78</v>
+      </c>
+      <c r="BG93">
+        <v>1.23</v>
+      </c>
+      <c r="BH93">
+        <v>3.65</v>
+      </c>
+      <c r="BI93">
+        <v>1.41</v>
+      </c>
+      <c r="BJ93">
+        <v>2.65</v>
+      </c>
+      <c r="BK93">
+        <v>1.67</v>
+      </c>
+      <c r="BL93">
+        <v>2.07</v>
+      </c>
+      <c r="BM93">
+        <v>2</v>
+      </c>
+      <c r="BN93">
+        <v>1.73</v>
+      </c>
+      <c r="BO93">
+        <v>2.55</v>
+      </c>
+      <c r="BP93">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7296616</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>85</v>
+      </c>
+      <c r="H94" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>141</v>
+      </c>
+      <c r="P94" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q94">
+        <v>2.5</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>4.5</v>
+      </c>
+      <c r="T94">
+        <v>1.4</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94">
+        <v>1.36</v>
+      </c>
+      <c r="X94">
+        <v>8</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>1.85</v>
+      </c>
+      <c r="AA94">
+        <v>3.4</v>
+      </c>
+      <c r="AB94">
+        <v>3.84</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE94">
+        <v>1.28</v>
+      </c>
+      <c r="AF94">
+        <v>3.2</v>
+      </c>
+      <c r="AG94">
+        <v>1.96</v>
+      </c>
+      <c r="AH94">
+        <v>1.75</v>
+      </c>
+      <c r="AI94">
+        <v>1.8</v>
+      </c>
+      <c r="AJ94">
+        <v>1.95</v>
+      </c>
+      <c r="AK94">
+        <v>1.22</v>
+      </c>
+      <c r="AL94">
+        <v>1.28</v>
+      </c>
+      <c r="AM94">
+        <v>1.89</v>
+      </c>
+      <c r="AN94">
+        <v>0.67</v>
+      </c>
+      <c r="AO94">
+        <v>0.4</v>
+      </c>
+      <c r="AP94">
+        <v>1</v>
+      </c>
+      <c r="AQ94">
+        <v>0.33</v>
+      </c>
+      <c r="AR94">
+        <v>1.56</v>
+      </c>
+      <c r="AS94">
+        <v>1.12</v>
+      </c>
+      <c r="AT94">
+        <v>2.68</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>9</v>
+      </c>
+      <c r="AY94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>12</v>
+      </c>
+      <c r="BA94">
+        <v>3</v>
+      </c>
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
+        <v>8</v>
+      </c>
+      <c r="BD94">
+        <v>1.64</v>
+      </c>
+      <c r="BE94">
+        <v>8.5</v>
+      </c>
+      <c r="BF94">
+        <v>2.66</v>
+      </c>
+      <c r="BG94">
+        <v>1.19</v>
+      </c>
+      <c r="BH94">
+        <v>4.1</v>
+      </c>
+      <c r="BI94">
+        <v>1.32</v>
+      </c>
+      <c r="BJ94">
+        <v>3.05</v>
+      </c>
+      <c r="BK94">
+        <v>1.53</v>
+      </c>
+      <c r="BL94">
+        <v>2.3</v>
+      </c>
+      <c r="BM94">
+        <v>1.85</v>
+      </c>
+      <c r="BN94">
+        <v>1.95</v>
+      </c>
+      <c r="BO94">
+        <v>2.28</v>
+      </c>
+      <c r="BP94">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7296621</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45459.41666666666</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s">
+        <v>78</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95" t="s">
+        <v>156</v>
+      </c>
+      <c r="P95" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q95">
+        <v>2.05</v>
+      </c>
+      <c r="R95">
+        <v>2.5</v>
+      </c>
+      <c r="S95">
+        <v>5.5</v>
+      </c>
+      <c r="T95">
+        <v>1.29</v>
+      </c>
+      <c r="U95">
+        <v>3.5</v>
+      </c>
+      <c r="V95">
+        <v>2.25</v>
+      </c>
+      <c r="W95">
+        <v>1.57</v>
+      </c>
+      <c r="X95">
+        <v>5.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.14</v>
+      </c>
+      <c r="Z95">
+        <v>1.52</v>
+      </c>
+      <c r="AA95">
+        <v>4.15</v>
+      </c>
+      <c r="AB95">
+        <v>5.1</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>19</v>
+      </c>
+      <c r="AE95">
+        <v>1.17</v>
+      </c>
+      <c r="AF95">
+        <v>5</v>
+      </c>
+      <c r="AG95">
+        <v>1.53</v>
+      </c>
+      <c r="AH95">
+        <v>2.34</v>
+      </c>
+      <c r="AI95">
+        <v>1.7</v>
+      </c>
+      <c r="AJ95">
+        <v>2.05</v>
+      </c>
+      <c r="AK95">
+        <v>1.15</v>
+      </c>
+      <c r="AL95">
+        <v>1.16</v>
+      </c>
+      <c r="AM95">
+        <v>2.55</v>
+      </c>
+      <c r="AN95">
+        <v>2.2</v>
+      </c>
+      <c r="AO95">
+        <v>0.67</v>
+      </c>
+      <c r="AP95">
+        <v>2</v>
+      </c>
+      <c r="AQ95">
+        <v>0.71</v>
+      </c>
+      <c r="AR95">
+        <v>2.11</v>
+      </c>
+      <c r="AS95">
+        <v>1.62</v>
+      </c>
+      <c r="AT95">
+        <v>3.73</v>
+      </c>
+      <c r="AU95">
+        <v>12</v>
+      </c>
+      <c r="AV95">
+        <v>9</v>
+      </c>
+      <c r="AW95">
+        <v>6</v>
+      </c>
+      <c r="AX95">
+        <v>2</v>
+      </c>
+      <c r="AY95">
+        <v>18</v>
+      </c>
+      <c r="AZ95">
+        <v>11</v>
+      </c>
+      <c r="BA95">
+        <v>7</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>10</v>
+      </c>
+      <c r="BD95">
+        <v>1.34</v>
+      </c>
+      <c r="BE95">
+        <v>10</v>
+      </c>
+      <c r="BF95">
+        <v>4.06</v>
+      </c>
+      <c r="BG95">
+        <v>1.2</v>
+      </c>
+      <c r="BH95">
+        <v>4</v>
+      </c>
+      <c r="BI95">
+        <v>1.34</v>
+      </c>
+      <c r="BJ95">
+        <v>2.9</v>
+      </c>
+      <c r="BK95">
+        <v>1.56</v>
+      </c>
+      <c r="BL95">
+        <v>2.23</v>
+      </c>
+      <c r="BM95">
+        <v>2</v>
+      </c>
+      <c r="BN95">
+        <v>1.8</v>
+      </c>
+      <c r="BO95">
+        <v>2.33</v>
+      </c>
+      <c r="BP95">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7296622</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45459.5</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>81</v>
+      </c>
+      <c r="H96" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>157</v>
+      </c>
+      <c r="P96" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q96">
+        <v>2.75</v>
+      </c>
+      <c r="R96">
+        <v>2.1</v>
+      </c>
+      <c r="S96">
+        <v>4</v>
+      </c>
+      <c r="T96">
+        <v>1.4</v>
+      </c>
+      <c r="U96">
+        <v>2.75</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>1.36</v>
+      </c>
+      <c r="X96">
+        <v>8</v>
+      </c>
+      <c r="Y96">
+        <v>1.08</v>
+      </c>
+      <c r="Z96">
+        <v>2</v>
+      </c>
+      <c r="AA96">
+        <v>3.4</v>
+      </c>
+      <c r="AB96">
+        <v>3.32</v>
+      </c>
+      <c r="AC96">
+        <v>1.05</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>1.33</v>
+      </c>
+      <c r="AF96">
+        <v>3.25</v>
+      </c>
+      <c r="AG96">
+        <v>1.93</v>
+      </c>
+      <c r="AH96">
+        <v>1.78</v>
+      </c>
+      <c r="AI96">
+        <v>1.8</v>
+      </c>
+      <c r="AJ96">
+        <v>1.95</v>
+      </c>
+      <c r="AK96">
+        <v>1.3</v>
+      </c>
+      <c r="AL96">
+        <v>1.25</v>
+      </c>
+      <c r="AM96">
+        <v>1.78</v>
+      </c>
+      <c r="AN96">
+        <v>2.4</v>
+      </c>
+      <c r="AO96">
+        <v>0.83</v>
+      </c>
+      <c r="AP96">
+        <v>2.5</v>
+      </c>
+      <c r="AQ96">
+        <v>0.71</v>
+      </c>
+      <c r="AR96">
+        <v>1.45</v>
+      </c>
+      <c r="AS96">
+        <v>1.26</v>
+      </c>
+      <c r="AT96">
+        <v>2.71</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>7</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>11</v>
+      </c>
+      <c r="AZ96">
+        <v>10</v>
+      </c>
+      <c r="BA96">
+        <v>6</v>
+      </c>
+      <c r="BB96">
+        <v>1</v>
+      </c>
+      <c r="BC96">
+        <v>7</v>
+      </c>
+      <c r="BD96">
+        <v>1.64</v>
+      </c>
+      <c r="BE96">
+        <v>8.5</v>
+      </c>
+      <c r="BF96">
+        <v>2.66</v>
+      </c>
+      <c r="BG96">
+        <v>1.18</v>
+      </c>
+      <c r="BH96">
+        <v>4.1</v>
+      </c>
+      <c r="BI96">
+        <v>1.33</v>
+      </c>
+      <c r="BJ96">
+        <v>2.95</v>
+      </c>
+      <c r="BK96">
+        <v>1.55</v>
+      </c>
+      <c r="BL96">
+        <v>2.28</v>
+      </c>
+      <c r="BM96">
+        <v>1.98</v>
+      </c>
+      <c r="BN96">
+        <v>1.82</v>
+      </c>
+      <c r="BO96">
+        <v>2.3</v>
+      </c>
+      <c r="BP96">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7296619</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45460.58333333334</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>158</v>
+      </c>
+      <c r="P97" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q97">
+        <v>3.2</v>
+      </c>
+      <c r="R97">
+        <v>2.3</v>
+      </c>
+      <c r="S97">
+        <v>3</v>
+      </c>
+      <c r="T97">
+        <v>1.3</v>
+      </c>
+      <c r="U97">
+        <v>3.4</v>
+      </c>
+      <c r="V97">
+        <v>2.5</v>
+      </c>
+      <c r="W97">
+        <v>1.5</v>
+      </c>
+      <c r="X97">
+        <v>6</v>
+      </c>
+      <c r="Y97">
+        <v>1.13</v>
+      </c>
+      <c r="Z97">
+        <v>3.02</v>
+      </c>
+      <c r="AA97">
+        <v>3.43</v>
+      </c>
+      <c r="AB97">
+        <v>2.34</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>10.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.17</v>
+      </c>
+      <c r="AF97">
+        <v>4.2</v>
+      </c>
+      <c r="AG97">
+        <v>1.85</v>
+      </c>
+      <c r="AH97">
+        <v>1.85</v>
+      </c>
+      <c r="AI97">
+        <v>1.53</v>
+      </c>
+      <c r="AJ97">
+        <v>2.38</v>
+      </c>
+      <c r="AK97">
+        <v>1.54</v>
+      </c>
+      <c r="AL97">
+        <v>1.27</v>
+      </c>
+      <c r="AM97">
+        <v>1.44</v>
+      </c>
+      <c r="AN97">
+        <v>1.5</v>
+      </c>
+      <c r="AO97">
+        <v>1.33</v>
+      </c>
+      <c r="AP97">
+        <v>1.71</v>
+      </c>
+      <c r="AQ97">
+        <v>1.14</v>
+      </c>
+      <c r="AR97">
+        <v>1.72</v>
+      </c>
+      <c r="AS97">
+        <v>1.59</v>
+      </c>
+      <c r="AT97">
+        <v>3.31</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>0</v>
+      </c>
+      <c r="AW97">
+        <v>12</v>
+      </c>
+      <c r="AX97">
+        <v>10</v>
+      </c>
+      <c r="AY97">
+        <v>18</v>
+      </c>
+      <c r="AZ97">
+        <v>10</v>
+      </c>
+      <c r="BA97">
+        <v>9</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>12</v>
+      </c>
+      <c r="BD97">
+        <v>2.09</v>
+      </c>
+      <c r="BE97">
+        <v>6.6</v>
+      </c>
+      <c r="BF97">
+        <v>2.1</v>
+      </c>
+      <c r="BG97">
+        <v>1.16</v>
+      </c>
+      <c r="BH97">
+        <v>4.6</v>
+      </c>
+      <c r="BI97">
+        <v>1.26</v>
+      </c>
+      <c r="BJ97">
+        <v>3.34</v>
+      </c>
+      <c r="BK97">
+        <v>1.47</v>
+      </c>
+      <c r="BL97">
+        <v>2.42</v>
+      </c>
+      <c r="BM97">
+        <v>1.82</v>
+      </c>
+      <c r="BN97">
+        <v>1.88</v>
+      </c>
+      <c r="BO97">
+        <v>2.28</v>
+      </c>
+      <c r="BP97">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,15 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['20', '26', '30', '76', '88']</t>
+  </si>
+  <si>
+    <t>['23', '64', '77', '85']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -629,6 +638,15 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['11', '67', '75']</t>
+  </si>
+  <si>
+    <t>['53', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1455,7 +1473,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1536,7 +1554,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1742,7 +1760,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1867,7 +1885,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2279,7 +2297,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2563,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8">
         <v>0.83</v>
@@ -2691,7 +2709,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2772,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2975,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10">
         <v>1.2</v>
@@ -3103,7 +3121,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3181,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3390,7 +3408,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ12">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3515,7 +3533,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3802,7 +3820,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4005,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4211,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4339,7 +4357,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4829,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
         <v>0.71</v>
@@ -4957,7 +4975,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5244,7 +5262,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5369,7 +5387,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5450,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5575,7 +5593,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5781,7 +5799,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5862,7 +5880,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6271,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ26">
         <v>1.2</v>
@@ -6686,7 +6704,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ28">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6811,7 +6829,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6889,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7017,7 +7035,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7095,10 +7113,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7223,7 +7241,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7301,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7429,7 +7447,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7635,7 +7653,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7922,7 +7940,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>1.26</v>
@@ -8047,7 +8065,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8128,7 +8146,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8459,7 +8477,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9077,7 +9095,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9158,7 +9176,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9361,7 +9379,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
         <v>0.71</v>
@@ -9773,10 +9791,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR43">
         <v>1.84</v>
@@ -9901,7 +9919,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10188,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -10597,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47">
         <v>0.33</v>
@@ -10803,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -10931,7 +10949,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11343,7 +11361,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11424,7 +11442,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11549,7 +11567,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11755,7 +11773,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11833,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12167,7 +12185,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12248,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -12373,7 +12391,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12451,7 +12469,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56">
         <v>0.71</v>
@@ -12660,7 +12678,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -12866,7 +12884,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ58">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -12991,7 +13009,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13481,7 +13499,7 @@
         <v>0.25</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
         <v>0.71</v>
@@ -13609,7 +13627,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13687,7 +13705,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>1.14</v>
@@ -13815,7 +13833,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14227,7 +14245,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14433,7 +14451,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14639,7 +14657,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14845,7 +14863,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15051,7 +15069,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15129,10 +15147,10 @@
         <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR69">
         <v>1.81</v>
@@ -15338,7 +15356,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
         <v>1.56</v>
@@ -15463,7 +15481,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15544,7 +15562,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -15669,7 +15687,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15747,10 +15765,10 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -15953,7 +15971,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
         <v>0.71</v>
@@ -16081,7 +16099,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16159,7 +16177,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16287,7 +16305,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16365,7 +16383,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>0.71</v>
@@ -16493,7 +16511,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16699,7 +16717,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16905,7 +16923,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17317,7 +17335,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17398,7 +17416,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ80">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR80">
         <v>1.74</v>
@@ -17729,7 +17747,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17810,7 +17828,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18013,7 +18031,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ83">
         <v>1.33</v>
@@ -18141,7 +18159,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18219,10 +18237,10 @@
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18553,7 +18571,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18840,7 +18858,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ87">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -18965,7 +18983,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19171,7 +19189,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19249,7 +19267,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19458,7 +19476,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ90">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR90">
         <v>1.68</v>
@@ -19583,7 +19601,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19789,7 +19807,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -19867,10 +19885,10 @@
         <v>1.2</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR92">
         <v>0.98</v>
@@ -19995,7 +20013,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20976,6 +20994,1036 @@
       </c>
       <c r="BP97">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7296629</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45466.41666666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>145</v>
+      </c>
+      <c r="P98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q98">
+        <v>3.76</v>
+      </c>
+      <c r="R98">
+        <v>2.06</v>
+      </c>
+      <c r="S98">
+        <v>2.83</v>
+      </c>
+      <c r="T98">
+        <v>1.43</v>
+      </c>
+      <c r="U98">
+        <v>2.7</v>
+      </c>
+      <c r="V98">
+        <v>2.99</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>7.7</v>
+      </c>
+      <c r="Y98">
+        <v>1.06</v>
+      </c>
+      <c r="Z98">
+        <v>3</v>
+      </c>
+      <c r="AA98">
+        <v>3.2</v>
+      </c>
+      <c r="AB98">
+        <v>2.25</v>
+      </c>
+      <c r="AC98">
+        <v>1.03</v>
+      </c>
+      <c r="AD98">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE98">
+        <v>1.31</v>
+      </c>
+      <c r="AF98">
+        <v>3.04</v>
+      </c>
+      <c r="AG98">
+        <v>1.95</v>
+      </c>
+      <c r="AH98">
+        <v>1.75</v>
+      </c>
+      <c r="AI98">
+        <v>1.8</v>
+      </c>
+      <c r="AJ98">
+        <v>1.9</v>
+      </c>
+      <c r="AK98">
+        <v>1.61</v>
+      </c>
+      <c r="AL98">
+        <v>1.3</v>
+      </c>
+      <c r="AM98">
+        <v>1.35</v>
+      </c>
+      <c r="AN98">
+        <v>1.6</v>
+      </c>
+      <c r="AO98">
+        <v>1.5</v>
+      </c>
+      <c r="AP98">
+        <v>1.5</v>
+      </c>
+      <c r="AQ98">
+        <v>1.43</v>
+      </c>
+      <c r="AR98">
+        <v>1.48</v>
+      </c>
+      <c r="AS98">
+        <v>1.32</v>
+      </c>
+      <c r="AT98">
+        <v>2.8</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>4</v>
+      </c>
+      <c r="AW98">
+        <v>7</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
+        <v>15</v>
+      </c>
+      <c r="AZ98">
+        <v>5</v>
+      </c>
+      <c r="BA98">
+        <v>2</v>
+      </c>
+      <c r="BB98">
+        <v>1</v>
+      </c>
+      <c r="BC98">
+        <v>3</v>
+      </c>
+      <c r="BD98">
+        <v>2.1</v>
+      </c>
+      <c r="BE98">
+        <v>6.5</v>
+      </c>
+      <c r="BF98">
+        <v>1.77</v>
+      </c>
+      <c r="BG98">
+        <v>1.22</v>
+      </c>
+      <c r="BH98">
+        <v>3.8</v>
+      </c>
+      <c r="BI98">
+        <v>1.38</v>
+      </c>
+      <c r="BJ98">
+        <v>2.7</v>
+      </c>
+      <c r="BK98">
+        <v>1.65</v>
+      </c>
+      <c r="BL98">
+        <v>2.08</v>
+      </c>
+      <c r="BM98">
+        <v>2</v>
+      </c>
+      <c r="BN98">
+        <v>1.71</v>
+      </c>
+      <c r="BO98">
+        <v>2.48</v>
+      </c>
+      <c r="BP98">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7296628</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45466.41666666666</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s">
+        <v>82</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>159</v>
+      </c>
+      <c r="P99" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q99">
+        <v>2.92</v>
+      </c>
+      <c r="R99">
+        <v>2.22</v>
+      </c>
+      <c r="S99">
+        <v>3.67</v>
+      </c>
+      <c r="T99">
+        <v>1.37</v>
+      </c>
+      <c r="U99">
+        <v>3</v>
+      </c>
+      <c r="V99">
+        <v>2.88</v>
+      </c>
+      <c r="W99">
+        <v>1.4</v>
+      </c>
+      <c r="X99">
+        <v>7.2</v>
+      </c>
+      <c r="Y99">
+        <v>1.08</v>
+      </c>
+      <c r="Z99">
+        <v>2.3</v>
+      </c>
+      <c r="AA99">
+        <v>3.25</v>
+      </c>
+      <c r="AB99">
+        <v>2.88</v>
+      </c>
+      <c r="AC99">
+        <v>1.02</v>
+      </c>
+      <c r="AD99">
+        <v>9</v>
+      </c>
+      <c r="AE99">
+        <v>1.27</v>
+      </c>
+      <c r="AF99">
+        <v>3.28</v>
+      </c>
+      <c r="AG99">
+        <v>1.91</v>
+      </c>
+      <c r="AH99">
+        <v>1.8</v>
+      </c>
+      <c r="AI99">
+        <v>1.72</v>
+      </c>
+      <c r="AJ99">
+        <v>2</v>
+      </c>
+      <c r="AK99">
+        <v>1.38</v>
+      </c>
+      <c r="AL99">
+        <v>1.3</v>
+      </c>
+      <c r="AM99">
+        <v>1.58</v>
+      </c>
+      <c r="AN99">
+        <v>1.6</v>
+      </c>
+      <c r="AO99">
+        <v>1.33</v>
+      </c>
+      <c r="AP99">
+        <v>1.83</v>
+      </c>
+      <c r="AQ99">
+        <v>1.14</v>
+      </c>
+      <c r="AR99">
+        <v>1.63</v>
+      </c>
+      <c r="AS99">
+        <v>1.46</v>
+      </c>
+      <c r="AT99">
+        <v>3.09</v>
+      </c>
+      <c r="AU99">
+        <v>9</v>
+      </c>
+      <c r="AV99">
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <v>4</v>
+      </c>
+      <c r="AX99">
+        <v>3</v>
+      </c>
+      <c r="AY99">
+        <v>13</v>
+      </c>
+      <c r="AZ99">
+        <v>6</v>
+      </c>
+      <c r="BA99">
+        <v>8</v>
+      </c>
+      <c r="BB99">
+        <v>3</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>1.74</v>
+      </c>
+      <c r="BE99">
+        <v>6.75</v>
+      </c>
+      <c r="BF99">
+        <v>2.15</v>
+      </c>
+      <c r="BG99">
+        <v>1.15</v>
+      </c>
+      <c r="BH99">
+        <v>4.8</v>
+      </c>
+      <c r="BI99">
+        <v>1.27</v>
+      </c>
+      <c r="BJ99">
+        <v>3.3</v>
+      </c>
+      <c r="BK99">
+        <v>1.46</v>
+      </c>
+      <c r="BL99">
+        <v>2.5</v>
+      </c>
+      <c r="BM99">
+        <v>1.72</v>
+      </c>
+      <c r="BN99">
+        <v>1.98</v>
+      </c>
+      <c r="BO99">
+        <v>2.08</v>
+      </c>
+      <c r="BP99">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7296625</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45466.41666666666</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>160</v>
+      </c>
+      <c r="P100" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q100">
+        <v>2.2</v>
+      </c>
+      <c r="R100">
+        <v>2.38</v>
+      </c>
+      <c r="S100">
+        <v>5</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3.25</v>
+      </c>
+      <c r="V100">
+        <v>2.5</v>
+      </c>
+      <c r="W100">
+        <v>1.5</v>
+      </c>
+      <c r="X100">
+        <v>6.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>1.65</v>
+      </c>
+      <c r="AA100">
+        <v>3.8</v>
+      </c>
+      <c r="AB100">
+        <v>4.5</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>12</v>
+      </c>
+      <c r="AE100">
+        <v>1.18</v>
+      </c>
+      <c r="AF100">
+        <v>4.2</v>
+      </c>
+      <c r="AG100">
+        <v>1.73</v>
+      </c>
+      <c r="AH100">
+        <v>2</v>
+      </c>
+      <c r="AI100">
+        <v>1.75</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>1.06</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>2.25</v>
+      </c>
+      <c r="AN100">
+        <v>2</v>
+      </c>
+      <c r="AO100">
+        <v>0.17</v>
+      </c>
+      <c r="AP100">
+        <v>2.17</v>
+      </c>
+      <c r="AQ100">
+        <v>0.14</v>
+      </c>
+      <c r="AR100">
+        <v>1.3</v>
+      </c>
+      <c r="AS100">
+        <v>1.34</v>
+      </c>
+      <c r="AT100">
+        <v>2.64</v>
+      </c>
+      <c r="AU100">
+        <v>9</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>8</v>
+      </c>
+      <c r="AX100">
+        <v>5</v>
+      </c>
+      <c r="AY100">
+        <v>17</v>
+      </c>
+      <c r="AZ100">
+        <v>8</v>
+      </c>
+      <c r="BA100">
+        <v>5</v>
+      </c>
+      <c r="BB100">
+        <v>4</v>
+      </c>
+      <c r="BC100">
+        <v>9</v>
+      </c>
+      <c r="BD100">
+        <v>1.38</v>
+      </c>
+      <c r="BE100">
+        <v>7</v>
+      </c>
+      <c r="BF100">
+        <v>3.15</v>
+      </c>
+      <c r="BG100">
+        <v>1.14</v>
+      </c>
+      <c r="BH100">
+        <v>4.8</v>
+      </c>
+      <c r="BI100">
+        <v>1.25</v>
+      </c>
+      <c r="BJ100">
+        <v>3.45</v>
+      </c>
+      <c r="BK100">
+        <v>1.43</v>
+      </c>
+      <c r="BL100">
+        <v>2.55</v>
+      </c>
+      <c r="BM100">
+        <v>1.68</v>
+      </c>
+      <c r="BN100">
+        <v>2.05</v>
+      </c>
+      <c r="BO100">
+        <v>2.05</v>
+      </c>
+      <c r="BP100">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7296630</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45466.5</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s">
+        <v>75</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>7</v>
+      </c>
+      <c r="O101" t="s">
+        <v>161</v>
+      </c>
+      <c r="P101" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q101">
+        <v>2.32</v>
+      </c>
+      <c r="R101">
+        <v>2.22</v>
+      </c>
+      <c r="S101">
+        <v>4.5</v>
+      </c>
+      <c r="T101">
+        <v>1.35</v>
+      </c>
+      <c r="U101">
+        <v>3.04</v>
+      </c>
+      <c r="V101">
+        <v>2.63</v>
+      </c>
+      <c r="W101">
+        <v>1.45</v>
+      </c>
+      <c r="X101">
+        <v>6.4</v>
+      </c>
+      <c r="Y101">
+        <v>1.1</v>
+      </c>
+      <c r="Z101">
+        <v>1.75</v>
+      </c>
+      <c r="AA101">
+        <v>3.5</v>
+      </c>
+      <c r="AB101">
+        <v>3.75</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>10</v>
+      </c>
+      <c r="AE101">
+        <v>1.23</v>
+      </c>
+      <c r="AF101">
+        <v>3.56</v>
+      </c>
+      <c r="AG101">
+        <v>1.73</v>
+      </c>
+      <c r="AH101">
+        <v>1.91</v>
+      </c>
+      <c r="AI101">
+        <v>1.71</v>
+      </c>
+      <c r="AJ101">
+        <v>2.02</v>
+      </c>
+      <c r="AK101">
+        <v>1.22</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.95</v>
+      </c>
+      <c r="AN101">
+        <v>1.17</v>
+      </c>
+      <c r="AO101">
+        <v>0.4</v>
+      </c>
+      <c r="AP101">
+        <v>1.43</v>
+      </c>
+      <c r="AQ101">
+        <v>0.33</v>
+      </c>
+      <c r="AR101">
+        <v>1.1</v>
+      </c>
+      <c r="AS101">
+        <v>1.19</v>
+      </c>
+      <c r="AT101">
+        <v>2.29</v>
+      </c>
+      <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AV101">
+        <v>12</v>
+      </c>
+      <c r="AW101">
+        <v>4</v>
+      </c>
+      <c r="AX101">
+        <v>4</v>
+      </c>
+      <c r="AY101">
+        <v>11</v>
+      </c>
+      <c r="AZ101">
+        <v>16</v>
+      </c>
+      <c r="BA101">
+        <v>5</v>
+      </c>
+      <c r="BB101">
+        <v>8</v>
+      </c>
+      <c r="BC101">
+        <v>13</v>
+      </c>
+      <c r="BD101">
+        <v>1.49</v>
+      </c>
+      <c r="BE101">
+        <v>6.75</v>
+      </c>
+      <c r="BF101">
+        <v>2.7</v>
+      </c>
+      <c r="BG101">
+        <v>1.22</v>
+      </c>
+      <c r="BH101">
+        <v>3.8</v>
+      </c>
+      <c r="BI101">
+        <v>1.38</v>
+      </c>
+      <c r="BJ101">
+        <v>2.75</v>
+      </c>
+      <c r="BK101">
+        <v>1.63</v>
+      </c>
+      <c r="BL101">
+        <v>2.12</v>
+      </c>
+      <c r="BM101">
+        <v>1.98</v>
+      </c>
+      <c r="BN101">
+        <v>1.73</v>
+      </c>
+      <c r="BO101">
+        <v>2.48</v>
+      </c>
+      <c r="BP101">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7296626</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45466.5</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>83</v>
+      </c>
+      <c r="H102" t="s">
+        <v>81</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>90</v>
+      </c>
+      <c r="P102" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q102">
+        <v>4.06</v>
+      </c>
+      <c r="R102">
+        <v>2.29</v>
+      </c>
+      <c r="S102">
+        <v>2.6</v>
+      </c>
+      <c r="T102">
+        <v>1.34</v>
+      </c>
+      <c r="U102">
+        <v>3.16</v>
+      </c>
+      <c r="V102">
+        <v>2.72</v>
+      </c>
+      <c r="W102">
+        <v>1.44</v>
+      </c>
+      <c r="X102">
+        <v>6.6</v>
+      </c>
+      <c r="Y102">
+        <v>1.09</v>
+      </c>
+      <c r="Z102">
+        <v>3.1</v>
+      </c>
+      <c r="AA102">
+        <v>3.4</v>
+      </c>
+      <c r="AB102">
+        <v>2</v>
+      </c>
+      <c r="AC102">
+        <v>1.02</v>
+      </c>
+      <c r="AD102">
+        <v>10</v>
+      </c>
+      <c r="AE102">
+        <v>1.25</v>
+      </c>
+      <c r="AF102">
+        <v>3.6</v>
+      </c>
+      <c r="AG102">
+        <v>1.8</v>
+      </c>
+      <c r="AH102">
+        <v>1.85</v>
+      </c>
+      <c r="AI102">
+        <v>1.68</v>
+      </c>
+      <c r="AJ102">
+        <v>2.13</v>
+      </c>
+      <c r="AK102">
+        <v>1.76</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.29</v>
+      </c>
+      <c r="AN102">
+        <v>1.33</v>
+      </c>
+      <c r="AO102">
+        <v>1</v>
+      </c>
+      <c r="AP102">
+        <v>1.14</v>
+      </c>
+      <c r="AQ102">
+        <v>1.29</v>
+      </c>
+      <c r="AR102">
+        <v>0.86</v>
+      </c>
+      <c r="AS102">
+        <v>1.27</v>
+      </c>
+      <c r="AT102">
+        <v>2.13</v>
+      </c>
+      <c r="AU102">
+        <v>4</v>
+      </c>
+      <c r="AV102">
+        <v>7</v>
+      </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
+      <c r="AX102">
+        <v>3</v>
+      </c>
+      <c r="AY102">
+        <v>7</v>
+      </c>
+      <c r="AZ102">
+        <v>10</v>
+      </c>
+      <c r="BA102">
+        <v>5</v>
+      </c>
+      <c r="BB102">
+        <v>4</v>
+      </c>
+      <c r="BC102">
+        <v>9</v>
+      </c>
+      <c r="BD102">
+        <v>2.23</v>
+      </c>
+      <c r="BE102">
+        <v>6.5</v>
+      </c>
+      <c r="BF102">
+        <v>1.7</v>
+      </c>
+      <c r="BG102">
+        <v>1.24</v>
+      </c>
+      <c r="BH102">
+        <v>3.55</v>
+      </c>
+      <c r="BI102">
+        <v>1.42</v>
+      </c>
+      <c r="BJ102">
+        <v>2.65</v>
+      </c>
+      <c r="BK102">
+        <v>1.68</v>
+      </c>
+      <c r="BL102">
+        <v>2.05</v>
+      </c>
+      <c r="BM102">
+        <v>2.05</v>
+      </c>
+      <c r="BN102">
+        <v>1.68</v>
+      </c>
+      <c r="BO102">
+        <v>2.55</v>
+      </c>
+      <c r="BP102">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,15 @@
     <t>['23', '64', '77', '85']</t>
   </si>
   <si>
+    <t>['20', '47', '65', '78']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['6', '45+4', '51', '83']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -542,9 +551,6 @@
   </si>
   <si>
     <t>['7']</t>
-  </si>
-  <si>
-    <t>['56']</t>
   </si>
   <si>
     <t>['41']</t>
@@ -647,6 +653,9 @@
   </si>
   <si>
     <t>['53', '90+4']</t>
+  </si>
+  <si>
+    <t>['23', '34', '81']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1473,7 +1482,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1757,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ4">
         <v>1.29</v>
@@ -1885,7 +1894,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2169,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ6">
         <v>1.17</v>
@@ -2297,7 +2306,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2378,7 +2387,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2709,7 +2718,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2787,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ9">
         <v>1.43</v>
@@ -2996,7 +3005,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3121,7 +3130,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3533,7 +3542,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4232,7 +4241,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4357,7 +4366,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4975,7 +4984,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5053,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5387,7 +5396,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5593,7 +5602,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5799,7 +5808,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6083,7 +6092,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -6292,7 +6301,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>0.63</v>
@@ -6829,7 +6838,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6910,7 +6919,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7035,7 +7044,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7241,7 +7250,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7447,7 +7456,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7525,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ32">
         <v>0.83</v>
@@ -7653,7 +7662,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7734,7 +7743,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -7937,7 +7946,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ34">
         <v>1.14</v>
@@ -8065,7 +8074,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8477,7 +8486,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8967,7 +8976,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ39">
         <v>1.14</v>
@@ -9095,7 +9104,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9919,7 +9928,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10203,7 +10212,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ45">
         <v>0.33</v>
@@ -10824,7 +10833,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10949,7 +10958,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11030,7 +11039,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11233,7 +11242,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
         <v>0.71</v>
@@ -11361,7 +11370,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11567,7 +11576,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11773,7 +11782,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11854,7 +11863,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12185,7 +12194,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12391,7 +12400,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12675,7 +12684,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
         <v>1.43</v>
@@ -13009,7 +13018,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13296,7 +13305,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.8</v>
@@ -13627,7 +13636,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13833,7 +13842,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -13914,7 +13923,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.89</v>
@@ -14117,7 +14126,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ64">
         <v>0.33</v>
@@ -14245,7 +14254,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14451,7 +14460,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14532,7 +14541,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ66">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.65</v>
@@ -14657,7 +14666,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14863,7 +14872,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -14941,7 +14950,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15069,7 +15078,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15481,7 +15490,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15559,7 +15568,7 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ71">
         <v>1.14</v>
@@ -15687,7 +15696,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -16099,7 +16108,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16305,7 +16314,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16511,7 +16520,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16592,7 +16601,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -16717,7 +16726,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16923,7 +16932,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17335,7 +17344,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17747,7 +17756,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18159,7 +18168,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18443,10 +18452,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18571,7 +18580,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18649,7 +18658,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ86">
         <v>0.71</v>
@@ -18983,7 +18992,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19064,7 +19073,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR88">
         <v>1.45</v>
@@ -19189,7 +19198,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19601,7 +19610,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19807,7 +19816,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20013,7 +20022,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20503,7 +20512,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ95">
         <v>0.71</v>
@@ -21043,7 +21052,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21661,7 +21670,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21867,7 +21876,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22024,6 +22033,624 @@
       </c>
       <c r="BP102">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7296627</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45467.58333333334</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>162</v>
+      </c>
+      <c r="P103" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q103">
+        <v>2.25</v>
+      </c>
+      <c r="R103">
+        <v>2.38</v>
+      </c>
+      <c r="S103">
+        <v>4.75</v>
+      </c>
+      <c r="T103">
+        <v>1.3</v>
+      </c>
+      <c r="U103">
+        <v>3.4</v>
+      </c>
+      <c r="V103">
+        <v>2.5</v>
+      </c>
+      <c r="W103">
+        <v>1.5</v>
+      </c>
+      <c r="X103">
+        <v>6</v>
+      </c>
+      <c r="Y103">
+        <v>1.13</v>
+      </c>
+      <c r="Z103">
+        <v>1.98</v>
+      </c>
+      <c r="AA103">
+        <v>3.42</v>
+      </c>
+      <c r="AB103">
+        <v>3.97</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>10.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.18</v>
+      </c>
+      <c r="AF103">
+        <v>4</v>
+      </c>
+      <c r="AG103">
+        <v>1.85</v>
+      </c>
+      <c r="AH103">
+        <v>1.85</v>
+      </c>
+      <c r="AI103">
+        <v>1.67</v>
+      </c>
+      <c r="AJ103">
+        <v>2.1</v>
+      </c>
+      <c r="AK103">
+        <v>1.18</v>
+      </c>
+      <c r="AL103">
+        <v>1.23</v>
+      </c>
+      <c r="AM103">
+        <v>2.13</v>
+      </c>
+      <c r="AN103">
+        <v>2</v>
+      </c>
+      <c r="AO103">
+        <v>2</v>
+      </c>
+      <c r="AP103">
+        <v>2.14</v>
+      </c>
+      <c r="AQ103">
+        <v>1.67</v>
+      </c>
+      <c r="AR103">
+        <v>2.16</v>
+      </c>
+      <c r="AS103">
+        <v>1.52</v>
+      </c>
+      <c r="AT103">
+        <v>3.68</v>
+      </c>
+      <c r="AU103">
+        <v>10</v>
+      </c>
+      <c r="AV103">
+        <v>2</v>
+      </c>
+      <c r="AW103">
+        <v>12</v>
+      </c>
+      <c r="AX103">
+        <v>6</v>
+      </c>
+      <c r="AY103">
+        <v>22</v>
+      </c>
+      <c r="AZ103">
+        <v>8</v>
+      </c>
+      <c r="BA103">
+        <v>3</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
+        <v>6</v>
+      </c>
+      <c r="BD103">
+        <v>1.38</v>
+      </c>
+      <c r="BE103">
+        <v>7</v>
+      </c>
+      <c r="BF103">
+        <v>3.05</v>
+      </c>
+      <c r="BG103">
+        <v>1.15</v>
+      </c>
+      <c r="BH103">
+        <v>4.8</v>
+      </c>
+      <c r="BI103">
+        <v>1.26</v>
+      </c>
+      <c r="BJ103">
+        <v>3.4</v>
+      </c>
+      <c r="BK103">
+        <v>1.45</v>
+      </c>
+      <c r="BL103">
+        <v>2.55</v>
+      </c>
+      <c r="BM103">
+        <v>1.71</v>
+      </c>
+      <c r="BN103">
+        <v>2</v>
+      </c>
+      <c r="BO103">
+        <v>2.07</v>
+      </c>
+      <c r="BP103">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7296624</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45467.58333333334</v>
+      </c>
+      <c r="F104">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>163</v>
+      </c>
+      <c r="P104" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q104">
+        <v>2.75</v>
+      </c>
+      <c r="R104">
+        <v>2.25</v>
+      </c>
+      <c r="S104">
+        <v>3.75</v>
+      </c>
+      <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+      <c r="Y104">
+        <v>1.1</v>
+      </c>
+      <c r="Z104">
+        <v>2.5</v>
+      </c>
+      <c r="AA104">
+        <v>3.25</v>
+      </c>
+      <c r="AB104">
+        <v>2.93</v>
+      </c>
+      <c r="AC104">
+        <v>1.01</v>
+      </c>
+      <c r="AD104">
+        <v>10.25</v>
+      </c>
+      <c r="AE104">
+        <v>1.22</v>
+      </c>
+      <c r="AF104">
+        <v>3.65</v>
+      </c>
+      <c r="AG104">
+        <v>2.25</v>
+      </c>
+      <c r="AH104">
+        <v>1.57</v>
+      </c>
+      <c r="AI104">
+        <v>1.67</v>
+      </c>
+      <c r="AJ104">
+        <v>2.1</v>
+      </c>
+      <c r="AK104">
+        <v>1.33</v>
+      </c>
+      <c r="AL104">
+        <v>1.27</v>
+      </c>
+      <c r="AM104">
+        <v>1.68</v>
+      </c>
+      <c r="AN104">
+        <v>1.67</v>
+      </c>
+      <c r="AO104">
+        <v>1.2</v>
+      </c>
+      <c r="AP104">
+        <v>1.57</v>
+      </c>
+      <c r="AQ104">
+        <v>1.17</v>
+      </c>
+      <c r="AR104">
+        <v>1.44</v>
+      </c>
+      <c r="AS104">
+        <v>1.34</v>
+      </c>
+      <c r="AT104">
+        <v>2.78</v>
+      </c>
+      <c r="AU104">
+        <v>7</v>
+      </c>
+      <c r="AV104">
+        <v>6</v>
+      </c>
+      <c r="AW104">
+        <v>8</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>15</v>
+      </c>
+      <c r="AZ104">
+        <v>10</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>4</v>
+      </c>
+      <c r="BC104">
+        <v>9</v>
+      </c>
+      <c r="BD104">
+        <v>1.72</v>
+      </c>
+      <c r="BE104">
+        <v>6.75</v>
+      </c>
+      <c r="BF104">
+        <v>2.18</v>
+      </c>
+      <c r="BG104">
+        <v>1.19</v>
+      </c>
+      <c r="BH104">
+        <v>4.1</v>
+      </c>
+      <c r="BI104">
+        <v>1.33</v>
+      </c>
+      <c r="BJ104">
+        <v>2.95</v>
+      </c>
+      <c r="BK104">
+        <v>1.54</v>
+      </c>
+      <c r="BL104">
+        <v>2.3</v>
+      </c>
+      <c r="BM104">
+        <v>1.84</v>
+      </c>
+      <c r="BN104">
+        <v>1.84</v>
+      </c>
+      <c r="BO104">
+        <v>2.3</v>
+      </c>
+      <c r="BP104">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7296623</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45467.58333333334</v>
+      </c>
+      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>71</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>4</v>
+      </c>
+      <c r="M105">
+        <v>3</v>
+      </c>
+      <c r="N105">
+        <v>7</v>
+      </c>
+      <c r="O105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P105" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q105">
+        <v>2.4</v>
+      </c>
+      <c r="R105">
+        <v>2.3</v>
+      </c>
+      <c r="S105">
+        <v>4.33</v>
+      </c>
+      <c r="T105">
+        <v>1.33</v>
+      </c>
+      <c r="U105">
+        <v>3.25</v>
+      </c>
+      <c r="V105">
+        <v>2.63</v>
+      </c>
+      <c r="W105">
+        <v>1.44</v>
+      </c>
+      <c r="X105">
+        <v>6.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.11</v>
+      </c>
+      <c r="Z105">
+        <v>1.77</v>
+      </c>
+      <c r="AA105">
+        <v>3.38</v>
+      </c>
+      <c r="AB105">
+        <v>5.25</v>
+      </c>
+      <c r="AC105">
+        <v>1.01</v>
+      </c>
+      <c r="AD105">
+        <v>10.25</v>
+      </c>
+      <c r="AE105">
+        <v>1.22</v>
+      </c>
+      <c r="AF105">
+        <v>3.65</v>
+      </c>
+      <c r="AG105">
+        <v>1.81</v>
+      </c>
+      <c r="AH105">
+        <v>1.9</v>
+      </c>
+      <c r="AI105">
+        <v>1.67</v>
+      </c>
+      <c r="AJ105">
+        <v>2.1</v>
+      </c>
+      <c r="AK105">
+        <v>1.22</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.97</v>
+      </c>
+      <c r="AN105">
+        <v>2.6</v>
+      </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>2.67</v>
+      </c>
+      <c r="AQ105">
+        <v>0.83</v>
+      </c>
+      <c r="AR105">
+        <v>1.43</v>
+      </c>
+      <c r="AS105">
+        <v>1.24</v>
+      </c>
+      <c r="AT105">
+        <v>2.67</v>
+      </c>
+      <c r="AU105">
+        <v>8</v>
+      </c>
+      <c r="AV105">
+        <v>7</v>
+      </c>
+      <c r="AW105">
+        <v>6</v>
+      </c>
+      <c r="AX105">
+        <v>4</v>
+      </c>
+      <c r="AY105">
+        <v>14</v>
+      </c>
+      <c r="AZ105">
+        <v>11</v>
+      </c>
+      <c r="BA105">
+        <v>4</v>
+      </c>
+      <c r="BB105">
+        <v>5</v>
+      </c>
+      <c r="BC105">
+        <v>9</v>
+      </c>
+      <c r="BD105">
+        <v>1.52</v>
+      </c>
+      <c r="BE105">
+        <v>6.75</v>
+      </c>
+      <c r="BF105">
+        <v>2.55</v>
+      </c>
+      <c r="BG105">
+        <v>1.16</v>
+      </c>
+      <c r="BH105">
+        <v>4.4</v>
+      </c>
+      <c r="BI105">
+        <v>1.29</v>
+      </c>
+      <c r="BJ105">
+        <v>3.15</v>
+      </c>
+      <c r="BK105">
+        <v>1.49</v>
+      </c>
+      <c r="BL105">
+        <v>2.4</v>
+      </c>
+      <c r="BM105">
+        <v>1.78</v>
+      </c>
+      <c r="BN105">
+        <v>1.91</v>
+      </c>
+      <c r="BO105">
+        <v>2.18</v>
+      </c>
+      <c r="BP105">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['6', '45+4', '51', '83']</t>
   </si>
   <si>
+    <t>['39', '89']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -656,6 +659,9 @@
   </si>
   <si>
     <t>['23', '34', '81']</t>
+  </si>
+  <si>
+    <t>['6', '62']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1482,7 +1488,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1894,7 +1900,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2306,7 +2312,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2590,10 +2596,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2718,7 +2724,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3130,7 +3136,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3542,7 +3548,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3829,7 +3835,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4366,7 +4372,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4444,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>1.14</v>
@@ -4984,7 +4990,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5396,7 +5402,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5474,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.14</v>
@@ -5602,7 +5608,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5808,7 +5814,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6838,7 +6844,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7044,7 +7050,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7125,7 +7131,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7250,7 +7256,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7328,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7537,7 +7543,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -7662,7 +7668,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8074,7 +8080,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8361,7 +8367,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR36">
         <v>1.44</v>
@@ -8486,7 +8492,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8770,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>0.71</v>
@@ -9104,7 +9110,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9928,7 +9934,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10215,7 +10221,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ45">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -10958,7 +10964,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11370,7 +11376,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11576,7 +11582,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11782,7 +11788,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12194,7 +12200,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12272,7 +12278,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1.29</v>
@@ -12400,7 +12406,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12478,7 +12484,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>0.71</v>
@@ -13018,7 +13024,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13636,7 +13642,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13842,7 +13848,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14254,7 +14260,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14335,7 +14341,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -14460,7 +14466,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14666,7 +14672,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14744,7 +14750,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
         <v>1.17</v>
@@ -14872,7 +14878,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15078,7 +15084,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15159,7 +15165,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ69">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR69">
         <v>1.81</v>
@@ -15490,7 +15496,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15696,7 +15702,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15774,7 +15780,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.43</v>
@@ -16108,7 +16114,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16314,7 +16320,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16520,7 +16526,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16726,7 +16732,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16932,7 +16938,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17010,7 +17016,7 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17344,7 +17350,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17631,7 +17637,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR81">
         <v>1.9</v>
@@ -17756,7 +17762,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18040,7 +18046,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>1.33</v>
@@ -18168,7 +18174,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18580,7 +18586,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18867,7 +18873,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ87">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -18992,7 +18998,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19198,7 +19204,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19610,7 +19616,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19816,7 +19822,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20022,7 +20028,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20103,7 +20109,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ93">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
         <v>1.46</v>
@@ -20306,7 +20312,7 @@
         <v>0.4</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
         <v>0.33</v>
@@ -21052,7 +21058,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21542,7 +21548,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.14</v>
@@ -21670,7 +21676,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21751,7 +21757,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ101">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR101">
         <v>1.1</v>
@@ -21876,7 +21882,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22494,7 +22500,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22651,6 +22657,418 @@
       </c>
       <c r="BP105">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7296633</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45471.58333333334</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>85</v>
+      </c>
+      <c r="H106" t="s">
+        <v>79</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>145</v>
+      </c>
+      <c r="P106" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q106">
+        <v>2.4</v>
+      </c>
+      <c r="R106">
+        <v>2.17</v>
+      </c>
+      <c r="S106">
+        <v>4.63</v>
+      </c>
+      <c r="T106">
+        <v>1.38</v>
+      </c>
+      <c r="U106">
+        <v>2.9</v>
+      </c>
+      <c r="V106">
+        <v>2.74</v>
+      </c>
+      <c r="W106">
+        <v>1.42</v>
+      </c>
+      <c r="X106">
+        <v>6.85</v>
+      </c>
+      <c r="Y106">
+        <v>1.08</v>
+      </c>
+      <c r="Z106">
+        <v>1.87</v>
+      </c>
+      <c r="AA106">
+        <v>3.64</v>
+      </c>
+      <c r="AB106">
+        <v>3.84</v>
+      </c>
+      <c r="AC106">
+        <v>1.05</v>
+      </c>
+      <c r="AD106">
+        <v>11.75</v>
+      </c>
+      <c r="AE106">
+        <v>1.28</v>
+      </c>
+      <c r="AF106">
+        <v>3.7</v>
+      </c>
+      <c r="AG106">
+        <v>2.18</v>
+      </c>
+      <c r="AH106">
+        <v>1.58</v>
+      </c>
+      <c r="AI106">
+        <v>1.95</v>
+      </c>
+      <c r="AJ106">
+        <v>1.8</v>
+      </c>
+      <c r="AK106">
+        <v>1.22</v>
+      </c>
+      <c r="AL106">
+        <v>1.26</v>
+      </c>
+      <c r="AM106">
+        <v>1.92</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
+        <v>0.83</v>
+      </c>
+      <c r="AP106">
+        <v>1.25</v>
+      </c>
+      <c r="AQ106">
+        <v>0.71</v>
+      </c>
+      <c r="AR106">
+        <v>1.49</v>
+      </c>
+      <c r="AS106">
+        <v>1.62</v>
+      </c>
+      <c r="AT106">
+        <v>3.11</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>13</v>
+      </c>
+      <c r="AX106">
+        <v>4</v>
+      </c>
+      <c r="AY106">
+        <v>17</v>
+      </c>
+      <c r="AZ106">
+        <v>7</v>
+      </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
+        <v>3</v>
+      </c>
+      <c r="BC106">
+        <v>9</v>
+      </c>
+      <c r="BD106">
+        <v>1.55</v>
+      </c>
+      <c r="BE106">
+        <v>6.75</v>
+      </c>
+      <c r="BF106">
+        <v>2.48</v>
+      </c>
+      <c r="BG106">
+        <v>1.15</v>
+      </c>
+      <c r="BH106">
+        <v>4.6</v>
+      </c>
+      <c r="BI106">
+        <v>1.28</v>
+      </c>
+      <c r="BJ106">
+        <v>3.2</v>
+      </c>
+      <c r="BK106">
+        <v>1.49</v>
+      </c>
+      <c r="BL106">
+        <v>2.43</v>
+      </c>
+      <c r="BM106">
+        <v>1.8</v>
+      </c>
+      <c r="BN106">
+        <v>2</v>
+      </c>
+      <c r="BO106">
+        <v>2.15</v>
+      </c>
+      <c r="BP106">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7296634</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45471.58333333334</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>4</v>
+      </c>
+      <c r="O107" t="s">
+        <v>165</v>
+      </c>
+      <c r="P107" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q107">
+        <v>2.1</v>
+      </c>
+      <c r="R107">
+        <v>2.32</v>
+      </c>
+      <c r="S107">
+        <v>5.3</v>
+      </c>
+      <c r="T107">
+        <v>1.33</v>
+      </c>
+      <c r="U107">
+        <v>3.15</v>
+      </c>
+      <c r="V107">
+        <v>2.51</v>
+      </c>
+      <c r="W107">
+        <v>1.49</v>
+      </c>
+      <c r="X107">
+        <v>6</v>
+      </c>
+      <c r="Y107">
+        <v>1.11</v>
+      </c>
+      <c r="Z107">
+        <v>1.52</v>
+      </c>
+      <c r="AA107">
+        <v>4.35</v>
+      </c>
+      <c r="AB107">
+        <v>5.5</v>
+      </c>
+      <c r="AC107">
+        <v>1.04</v>
+      </c>
+      <c r="AD107">
+        <v>13.5</v>
+      </c>
+      <c r="AE107">
+        <v>1.25</v>
+      </c>
+      <c r="AF107">
+        <v>4.03</v>
+      </c>
+      <c r="AG107">
+        <v>1.74</v>
+      </c>
+      <c r="AH107">
+        <v>1.96</v>
+      </c>
+      <c r="AI107">
+        <v>2</v>
+      </c>
+      <c r="AJ107">
+        <v>1.75</v>
+      </c>
+      <c r="AK107">
+        <v>1.14</v>
+      </c>
+      <c r="AL107">
+        <v>1.21</v>
+      </c>
+      <c r="AM107">
+        <v>2.32</v>
+      </c>
+      <c r="AN107">
+        <v>2.17</v>
+      </c>
+      <c r="AO107">
+        <v>0.33</v>
+      </c>
+      <c r="AP107">
+        <v>2</v>
+      </c>
+      <c r="AQ107">
+        <v>0.43</v>
+      </c>
+      <c r="AR107">
+        <v>1.45</v>
+      </c>
+      <c r="AS107">
+        <v>1.39</v>
+      </c>
+      <c r="AT107">
+        <v>2.84</v>
+      </c>
+      <c r="AU107">
+        <v>4</v>
+      </c>
+      <c r="AV107">
+        <v>2</v>
+      </c>
+      <c r="AW107">
+        <v>17</v>
+      </c>
+      <c r="AX107">
+        <v>1</v>
+      </c>
+      <c r="AY107">
+        <v>21</v>
+      </c>
+      <c r="AZ107">
+        <v>3</v>
+      </c>
+      <c r="BA107">
+        <v>7</v>
+      </c>
+      <c r="BB107">
+        <v>5</v>
+      </c>
+      <c r="BC107">
+        <v>12</v>
+      </c>
+      <c r="BD107">
+        <v>1.34</v>
+      </c>
+      <c r="BE107">
+        <v>7.5</v>
+      </c>
+      <c r="BF107">
+        <v>3.2</v>
+      </c>
+      <c r="BG107">
+        <v>1.23</v>
+      </c>
+      <c r="BH107">
+        <v>3.65</v>
+      </c>
+      <c r="BI107">
+        <v>1.4</v>
+      </c>
+      <c r="BJ107">
+        <v>2.7</v>
+      </c>
+      <c r="BK107">
+        <v>1.65</v>
+      </c>
+      <c r="BL107">
+        <v>2.08</v>
+      </c>
+      <c r="BM107">
+        <v>2</v>
+      </c>
+      <c r="BN107">
+        <v>1.71</v>
+      </c>
+      <c r="BO107">
+        <v>2.5</v>
+      </c>
+      <c r="BP107">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,12 @@
     <t>['39', '89']</t>
   </si>
   <si>
+    <t>['16', '27', '45+2', '52']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -662,6 +668,12 @@
   </si>
   <si>
     <t>['6', '62']</t>
+  </si>
+  <si>
+    <t>['37', '81', '90+4']</t>
+  </si>
+  <si>
+    <t>['3', '76', '86']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2">
         <v>0.71</v>
@@ -1488,7 +1500,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1775,7 +1787,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1900,7 +1912,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1981,7 +1993,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2312,7 +2324,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2724,7 +2736,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3136,7 +3148,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3420,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ12">
         <v>0.14</v>
@@ -3548,7 +3560,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -3629,7 +3641,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3832,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ14">
         <v>0.43</v>
@@ -4372,7 +4384,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4656,7 +4668,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ18">
         <v>1.17</v>
@@ -4990,7 +5002,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5071,7 +5083,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.38</v>
@@ -5277,7 +5289,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5402,7 +5414,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5608,7 +5620,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5814,7 +5826,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6101,7 +6113,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6716,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28">
         <v>0.14</v>
@@ -6844,7 +6856,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7050,7 +7062,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7256,7 +7268,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7668,7 +7680,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7746,7 +7758,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ33">
         <v>1.67</v>
@@ -8080,7 +8092,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8161,7 +8173,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8364,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
         <v>0.71</v>
@@ -8492,7 +8504,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9110,7 +9122,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9397,7 +9409,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ41">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -9934,7 +9946,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10012,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ44">
         <v>2</v>
@@ -10424,7 +10436,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10633,7 +10645,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -10964,7 +10976,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11251,7 +11263,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11376,7 +11388,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11582,7 +11594,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11660,7 +11672,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -11788,7 +11800,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12200,7 +12212,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12281,7 +12293,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -12406,7 +12418,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13024,7 +13036,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13102,7 +13114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13642,7 +13654,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13848,7 +13860,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -13926,7 +13938,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63">
         <v>0.83</v>
@@ -14135,7 +14147,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ64">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14260,7 +14272,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14466,7 +14478,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14672,7 +14684,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14878,7 +14890,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15084,7 +15096,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15368,10 +15380,10 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>1.56</v>
@@ -15496,7 +15508,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15702,7 +15714,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -15989,7 +16001,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.24</v>
@@ -16114,7 +16126,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16320,7 +16332,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16526,7 +16538,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16732,7 +16744,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16813,7 +16825,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ77">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR77">
         <v>1.5</v>
@@ -16938,7 +16950,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17222,7 +17234,7 @@
         <v>1.6</v>
       </c>
       <c r="AP79">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79">
         <v>1.14</v>
@@ -17350,7 +17362,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17634,7 +17646,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81">
         <v>0.71</v>
@@ -17762,7 +17774,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17840,7 +17852,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ82">
         <v>1.14</v>
@@ -18174,7 +18186,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18255,7 +18267,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18586,7 +18598,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18667,7 +18679,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ86">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -18998,7 +19010,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19076,7 +19088,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ88">
         <v>1.67</v>
@@ -19204,7 +19216,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19616,7 +19628,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19822,7 +19834,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20028,7 +20040,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20106,7 +20118,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
         <v>0.71</v>
@@ -20315,7 +20327,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -20727,7 +20739,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ96">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21058,7 +21070,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21676,7 +21688,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21882,7 +21894,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -21963,7 +21975,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR102">
         <v>0.86</v>
@@ -22500,7 +22512,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22912,7 +22924,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23069,6 +23081,624 @@
       </c>
       <c r="BP107">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7296638</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45472.41666666666</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>80</v>
+      </c>
+      <c r="H108" t="s">
+        <v>81</v>
+      </c>
+      <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>5</v>
+      </c>
+      <c r="O108" t="s">
+        <v>166</v>
+      </c>
+      <c r="P108" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q108">
+        <v>2.5</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>4.75</v>
+      </c>
+      <c r="T108">
+        <v>1.4</v>
+      </c>
+      <c r="U108">
+        <v>2.75</v>
+      </c>
+      <c r="V108">
+        <v>3</v>
+      </c>
+      <c r="W108">
+        <v>1.36</v>
+      </c>
+      <c r="X108">
+        <v>8</v>
+      </c>
+      <c r="Y108">
+        <v>1.08</v>
+      </c>
+      <c r="Z108">
+        <v>1.8</v>
+      </c>
+      <c r="AA108">
+        <v>3.3</v>
+      </c>
+      <c r="AB108">
+        <v>4.1</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>14</v>
+      </c>
+      <c r="AE108">
+        <v>1.23</v>
+      </c>
+      <c r="AF108">
+        <v>4.18</v>
+      </c>
+      <c r="AG108">
+        <v>1.76</v>
+      </c>
+      <c r="AH108">
+        <v>2.04</v>
+      </c>
+      <c r="AI108">
+        <v>1.91</v>
+      </c>
+      <c r="AJ108">
+        <v>1.91</v>
+      </c>
+      <c r="AK108">
+        <v>1.26</v>
+      </c>
+      <c r="AL108">
+        <v>1.26</v>
+      </c>
+      <c r="AM108">
+        <v>1.83</v>
+      </c>
+      <c r="AN108">
+        <v>2.17</v>
+      </c>
+      <c r="AO108">
+        <v>1.29</v>
+      </c>
+      <c r="AP108">
+        <v>2.29</v>
+      </c>
+      <c r="AQ108">
+        <v>1.13</v>
+      </c>
+      <c r="AR108">
+        <v>1.94</v>
+      </c>
+      <c r="AS108">
+        <v>1.3</v>
+      </c>
+      <c r="AT108">
+        <v>3.24</v>
+      </c>
+      <c r="AU108">
+        <v>7</v>
+      </c>
+      <c r="AV108">
+        <v>6</v>
+      </c>
+      <c r="AW108">
+        <v>4</v>
+      </c>
+      <c r="AX108">
+        <v>12</v>
+      </c>
+      <c r="AY108">
+        <v>11</v>
+      </c>
+      <c r="AZ108">
+        <v>18</v>
+      </c>
+      <c r="BA108">
+        <v>4</v>
+      </c>
+      <c r="BB108">
+        <v>5</v>
+      </c>
+      <c r="BC108">
+        <v>9</v>
+      </c>
+      <c r="BD108">
+        <v>1.54</v>
+      </c>
+      <c r="BE108">
+        <v>6.5</v>
+      </c>
+      <c r="BF108">
+        <v>2.55</v>
+      </c>
+      <c r="BG108">
+        <v>1.21</v>
+      </c>
+      <c r="BH108">
+        <v>3.9</v>
+      </c>
+      <c r="BI108">
+        <v>1.36</v>
+      </c>
+      <c r="BJ108">
+        <v>2.8</v>
+      </c>
+      <c r="BK108">
+        <v>1.58</v>
+      </c>
+      <c r="BL108">
+        <v>2.18</v>
+      </c>
+      <c r="BM108">
+        <v>1.98</v>
+      </c>
+      <c r="BN108">
+        <v>1.82</v>
+      </c>
+      <c r="BO108">
+        <v>2.4</v>
+      </c>
+      <c r="BP108">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7296637</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45472.41666666666</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" t="s">
+        <v>74</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>167</v>
+      </c>
+      <c r="P109" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q109">
+        <v>3.25</v>
+      </c>
+      <c r="R109">
+        <v>2.15</v>
+      </c>
+      <c r="S109">
+        <v>3.02</v>
+      </c>
+      <c r="T109">
+        <v>1.37</v>
+      </c>
+      <c r="U109">
+        <v>2.95</v>
+      </c>
+      <c r="V109">
+        <v>2.7</v>
+      </c>
+      <c r="W109">
+        <v>1.43</v>
+      </c>
+      <c r="X109">
+        <v>6.7</v>
+      </c>
+      <c r="Y109">
+        <v>1.09</v>
+      </c>
+      <c r="Z109">
+        <v>2.63</v>
+      </c>
+      <c r="AA109">
+        <v>3.1</v>
+      </c>
+      <c r="AB109">
+        <v>2.5</v>
+      </c>
+      <c r="AC109">
+        <v>1.05</v>
+      </c>
+      <c r="AD109">
+        <v>11.75</v>
+      </c>
+      <c r="AE109">
+        <v>1.27</v>
+      </c>
+      <c r="AF109">
+        <v>3.78</v>
+      </c>
+      <c r="AG109">
+        <v>1.98</v>
+      </c>
+      <c r="AH109">
+        <v>1.88</v>
+      </c>
+      <c r="AI109">
+        <v>1.95</v>
+      </c>
+      <c r="AJ109">
+        <v>1.8</v>
+      </c>
+      <c r="AK109">
+        <v>1.5</v>
+      </c>
+      <c r="AL109">
+        <v>1.29</v>
+      </c>
+      <c r="AM109">
+        <v>1.45</v>
+      </c>
+      <c r="AN109">
+        <v>1.33</v>
+      </c>
+      <c r="AO109">
+        <v>0.33</v>
+      </c>
+      <c r="AP109">
+        <v>1.14</v>
+      </c>
+      <c r="AQ109">
+        <v>0.71</v>
+      </c>
+      <c r="AR109">
+        <v>1.45</v>
+      </c>
+      <c r="AS109">
+        <v>1.17</v>
+      </c>
+      <c r="AT109">
+        <v>2.62</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>7</v>
+      </c>
+      <c r="AW109">
+        <v>7</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>11</v>
+      </c>
+      <c r="AZ109">
+        <v>10</v>
+      </c>
+      <c r="BA109">
+        <v>3</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>6</v>
+      </c>
+      <c r="BD109">
+        <v>1.9</v>
+      </c>
+      <c r="BE109">
+        <v>6.4</v>
+      </c>
+      <c r="BF109">
+        <v>1.97</v>
+      </c>
+      <c r="BG109">
+        <v>1.22</v>
+      </c>
+      <c r="BH109">
+        <v>3.8</v>
+      </c>
+      <c r="BI109">
+        <v>1.38</v>
+      </c>
+      <c r="BJ109">
+        <v>2.7</v>
+      </c>
+      <c r="BK109">
+        <v>1.63</v>
+      </c>
+      <c r="BL109">
+        <v>2.12</v>
+      </c>
+      <c r="BM109">
+        <v>2</v>
+      </c>
+      <c r="BN109">
+        <v>1.73</v>
+      </c>
+      <c r="BO109">
+        <v>2.43</v>
+      </c>
+      <c r="BP109">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7296636</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45472.41666666666</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>82</v>
+      </c>
+      <c r="H110" t="s">
+        <v>84</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110" t="s">
+        <v>118</v>
+      </c>
+      <c r="P110" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q110">
+        <v>2.38</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>5</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.75</v>
+      </c>
+      <c r="V110">
+        <v>2.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>8</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>1.7</v>
+      </c>
+      <c r="AA110">
+        <v>3.5</v>
+      </c>
+      <c r="AB110">
+        <v>4.5</v>
+      </c>
+      <c r="AC110">
+        <v>1.06</v>
+      </c>
+      <c r="AD110">
+        <v>10.75</v>
+      </c>
+      <c r="AE110">
+        <v>1.33</v>
+      </c>
+      <c r="AF110">
+        <v>3.35</v>
+      </c>
+      <c r="AG110">
+        <v>2</v>
+      </c>
+      <c r="AH110">
+        <v>1.85</v>
+      </c>
+      <c r="AI110">
+        <v>1.8</v>
+      </c>
+      <c r="AJ110">
+        <v>1.95</v>
+      </c>
+      <c r="AK110">
+        <v>1.33</v>
+      </c>
+      <c r="AL110">
+        <v>1.3</v>
+      </c>
+      <c r="AM110">
+        <v>1.64</v>
+      </c>
+      <c r="AN110">
+        <v>1.83</v>
+      </c>
+      <c r="AO110">
+        <v>0.71</v>
+      </c>
+      <c r="AP110">
+        <v>1.57</v>
+      </c>
+      <c r="AQ110">
+        <v>1</v>
+      </c>
+      <c r="AR110">
+        <v>1.59</v>
+      </c>
+      <c r="AS110">
+        <v>1.27</v>
+      </c>
+      <c r="AT110">
+        <v>2.86</v>
+      </c>
+      <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
+        <v>2</v>
+      </c>
+      <c r="AW110">
+        <v>3</v>
+      </c>
+      <c r="AX110">
+        <v>7</v>
+      </c>
+      <c r="AY110">
+        <v>8</v>
+      </c>
+      <c r="AZ110">
+        <v>9</v>
+      </c>
+      <c r="BA110">
+        <v>5</v>
+      </c>
+      <c r="BB110">
+        <v>9</v>
+      </c>
+      <c r="BC110">
+        <v>14</v>
+      </c>
+      <c r="BD110">
+        <v>1.65</v>
+      </c>
+      <c r="BE110">
+        <v>6.5</v>
+      </c>
+      <c r="BF110">
+        <v>2.32</v>
+      </c>
+      <c r="BG110">
+        <v>1.23</v>
+      </c>
+      <c r="BH110">
+        <v>3.65</v>
+      </c>
+      <c r="BI110">
+        <v>1.41</v>
+      </c>
+      <c r="BJ110">
+        <v>2.65</v>
+      </c>
+      <c r="BK110">
+        <v>1.67</v>
+      </c>
+      <c r="BL110">
+        <v>2.07</v>
+      </c>
+      <c r="BM110">
+        <v>2.02</v>
+      </c>
+      <c r="BN110">
+        <v>1.7</v>
+      </c>
+      <c r="BO110">
+        <v>2.55</v>
+      </c>
+      <c r="BP110">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,15 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['17', '35', '71', '81']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['34', '47']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -674,6 +683,12 @@
   </si>
   <si>
     <t>['3', '76', '86']</t>
+  </si>
+  <si>
+    <t>['59', '75', '78']</t>
+  </si>
+  <si>
+    <t>['33', '42', '68', '80']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1390,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ2">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1500,7 +1515,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1578,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1.14</v>
@@ -1784,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -1912,7 +1927,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -1990,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2199,7 +2214,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2324,7 +2339,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2736,7 +2751,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3148,7 +3163,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3229,7 +3244,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3560,7 +3575,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>3.25</v>
@@ -4384,7 +4399,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4671,7 +4686,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -4877,7 +4892,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ19">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -5002,7 +5017,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>2.41</v>
@@ -5080,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5286,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>1.13</v>
@@ -5414,7 +5429,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5620,7 +5635,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5698,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.14</v>
@@ -5826,7 +5841,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6525,7 +6540,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR27">
         <v>1.73</v>
@@ -6856,7 +6871,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7062,7 +7077,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7268,7 +7283,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7680,7 +7695,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7964,7 +7979,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ34">
         <v>1.14</v>
@@ -8092,7 +8107,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8504,7 +8519,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8582,10 +8597,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -8791,7 +8806,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -9122,7 +9137,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9200,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.43</v>
@@ -9946,7 +9961,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10439,7 +10454,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10976,7 +10991,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11054,7 +11069,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1.67</v>
@@ -11388,7 +11403,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11466,7 +11481,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.14</v>
@@ -11594,7 +11609,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11800,7 +11815,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12087,7 +12102,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12212,7 +12227,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12418,7 +12433,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12499,7 +12514,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13036,7 +13051,7 @@
         <v>133</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>3.4</v>
@@ -13117,7 +13132,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13320,7 +13335,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13529,7 +13544,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR61">
         <v>0.92</v>
@@ -13654,7 +13669,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13860,7 +13875,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14144,7 +14159,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ64">
         <v>0.71</v>
@@ -14272,7 +14287,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14478,7 +14493,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14556,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.17</v>
@@ -14684,7 +14699,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>2.15</v>
@@ -14765,7 +14780,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.61</v>
@@ -14890,7 +14905,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15096,7 +15111,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>2.32</v>
@@ -15508,7 +15523,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15714,7 +15729,7 @@
         <v>90</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>2.9</v>
@@ -16126,7 +16141,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16207,7 +16222,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR74">
         <v>0.98</v>
@@ -16332,7 +16347,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16413,7 +16428,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR75">
         <v>1.67</v>
@@ -16538,7 +16553,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>2.5</v>
@@ -16744,7 +16759,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -16950,7 +16965,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17362,7 +17377,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2.55</v>
@@ -17440,7 +17455,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>0.14</v>
@@ -17774,7 +17789,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18061,7 +18076,7 @@
         <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR83">
         <v>1.38</v>
@@ -18186,7 +18201,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18470,7 +18485,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ85">
         <v>1.17</v>
@@ -18598,7 +18613,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18882,7 +18897,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>0.43</v>
@@ -19010,7 +19025,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19216,7 +19231,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19297,7 +19312,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.03</v>
@@ -19500,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>0.14</v>
@@ -19628,7 +19643,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19834,7 +19849,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20040,7 +20055,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20533,7 +20548,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR95">
         <v>2.11</v>
@@ -20942,7 +20957,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>1.14</v>
@@ -21070,7 +21085,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21688,7 +21703,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21894,7 +21909,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22512,7 +22527,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22590,7 +22605,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ105">
         <v>0.83</v>
@@ -22924,7 +22939,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23336,7 +23351,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23542,7 +23557,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23699,6 +23714,624 @@
       </c>
       <c r="BP110">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7296632</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45473.33333333334</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" t="s">
+        <v>78</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>7</v>
+      </c>
+      <c r="O111" t="s">
+        <v>168</v>
+      </c>
+      <c r="P111" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q111">
+        <v>2.4</v>
+      </c>
+      <c r="R111">
+        <v>2.38</v>
+      </c>
+      <c r="S111">
+        <v>4</v>
+      </c>
+      <c r="T111">
+        <v>1.3</v>
+      </c>
+      <c r="U111">
+        <v>3.4</v>
+      </c>
+      <c r="V111">
+        <v>2.5</v>
+      </c>
+      <c r="W111">
+        <v>1.5</v>
+      </c>
+      <c r="X111">
+        <v>6</v>
+      </c>
+      <c r="Y111">
+        <v>1.13</v>
+      </c>
+      <c r="Z111">
+        <v>1.73</v>
+      </c>
+      <c r="AA111">
+        <v>3.75</v>
+      </c>
+      <c r="AB111">
+        <v>4.1</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>10.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.17</v>
+      </c>
+      <c r="AF111">
+        <v>4.2</v>
+      </c>
+      <c r="AG111">
+        <v>1.65</v>
+      </c>
+      <c r="AH111">
+        <v>2.08</v>
+      </c>
+      <c r="AI111">
+        <v>1.57</v>
+      </c>
+      <c r="AJ111">
+        <v>2.25</v>
+      </c>
+      <c r="AK111">
+        <v>1.25</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>1.91</v>
+      </c>
+      <c r="AN111">
+        <v>2.67</v>
+      </c>
+      <c r="AO111">
+        <v>0.71</v>
+      </c>
+      <c r="AP111">
+        <v>2.71</v>
+      </c>
+      <c r="AQ111">
+        <v>0.63</v>
+      </c>
+      <c r="AR111">
+        <v>1.53</v>
+      </c>
+      <c r="AS111">
+        <v>1.61</v>
+      </c>
+      <c r="AT111">
+        <v>3.14</v>
+      </c>
+      <c r="AU111">
+        <v>7</v>
+      </c>
+      <c r="AV111">
+        <v>6</v>
+      </c>
+      <c r="AW111">
+        <v>7</v>
+      </c>
+      <c r="AX111">
+        <v>6</v>
+      </c>
+      <c r="AY111">
+        <v>14</v>
+      </c>
+      <c r="AZ111">
+        <v>12</v>
+      </c>
+      <c r="BA111">
+        <v>3</v>
+      </c>
+      <c r="BB111">
+        <v>4</v>
+      </c>
+      <c r="BC111">
+        <v>7</v>
+      </c>
+      <c r="BD111">
+        <v>1.5</v>
+      </c>
+      <c r="BE111">
+        <v>6.75</v>
+      </c>
+      <c r="BF111">
+        <v>2.65</v>
+      </c>
+      <c r="BG111">
+        <v>1.2</v>
+      </c>
+      <c r="BH111">
+        <v>3.95</v>
+      </c>
+      <c r="BI111">
+        <v>1.35</v>
+      </c>
+      <c r="BJ111">
+        <v>2.9</v>
+      </c>
+      <c r="BK111">
+        <v>1.57</v>
+      </c>
+      <c r="BL111">
+        <v>2.23</v>
+      </c>
+      <c r="BM111">
+        <v>1.78</v>
+      </c>
+      <c r="BN111">
+        <v>1.66</v>
+      </c>
+      <c r="BO111">
+        <v>2.35</v>
+      </c>
+      <c r="BP111">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7296635</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45473.41666666666</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H112" t="s">
+        <v>77</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>169</v>
+      </c>
+      <c r="P112" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q112">
+        <v>4.4</v>
+      </c>
+      <c r="R112">
+        <v>2.17</v>
+      </c>
+      <c r="S112">
+        <v>2.4</v>
+      </c>
+      <c r="T112">
+        <v>1.37</v>
+      </c>
+      <c r="U112">
+        <v>2.95</v>
+      </c>
+      <c r="V112">
+        <v>2.74</v>
+      </c>
+      <c r="W112">
+        <v>1.42</v>
+      </c>
+      <c r="X112">
+        <v>6.75</v>
+      </c>
+      <c r="Y112">
+        <v>1.08</v>
+      </c>
+      <c r="Z112">
+        <v>3.65</v>
+      </c>
+      <c r="AA112">
+        <v>3.55</v>
+      </c>
+      <c r="AB112">
+        <v>1.89</v>
+      </c>
+      <c r="AC112">
+        <v>1.01</v>
+      </c>
+      <c r="AD112">
+        <v>9.5</v>
+      </c>
+      <c r="AE112">
+        <v>1.25</v>
+      </c>
+      <c r="AF112">
+        <v>3.42</v>
+      </c>
+      <c r="AG112">
+        <v>1.86</v>
+      </c>
+      <c r="AH112">
+        <v>1.82</v>
+      </c>
+      <c r="AI112">
+        <v>1.74</v>
+      </c>
+      <c r="AJ112">
+        <v>1.98</v>
+      </c>
+      <c r="AK112">
+        <v>1.87</v>
+      </c>
+      <c r="AL112">
+        <v>1.27</v>
+      </c>
+      <c r="AM112">
+        <v>1.24</v>
+      </c>
+      <c r="AN112">
+        <v>1.71</v>
+      </c>
+      <c r="AO112">
+        <v>1.33</v>
+      </c>
+      <c r="AP112">
+        <v>1.5</v>
+      </c>
+      <c r="AQ112">
+        <v>1.57</v>
+      </c>
+      <c r="AR112">
+        <v>1.78</v>
+      </c>
+      <c r="AS112">
+        <v>1.79</v>
+      </c>
+      <c r="AT112">
+        <v>3.57</v>
+      </c>
+      <c r="AU112">
+        <v>-1</v>
+      </c>
+      <c r="AV112">
+        <v>-1</v>
+      </c>
+      <c r="AW112">
+        <v>-1</v>
+      </c>
+      <c r="AX112">
+        <v>-1</v>
+      </c>
+      <c r="AY112">
+        <v>-1</v>
+      </c>
+      <c r="AZ112">
+        <v>-1</v>
+      </c>
+      <c r="BA112">
+        <v>-1</v>
+      </c>
+      <c r="BB112">
+        <v>-1</v>
+      </c>
+      <c r="BC112">
+        <v>-1</v>
+      </c>
+      <c r="BD112">
+        <v>2.4</v>
+      </c>
+      <c r="BE112">
+        <v>6.75</v>
+      </c>
+      <c r="BF112">
+        <v>1.63</v>
+      </c>
+      <c r="BG112">
+        <v>1.17</v>
+      </c>
+      <c r="BH112">
+        <v>4.35</v>
+      </c>
+      <c r="BI112">
+        <v>1.3</v>
+      </c>
+      <c r="BJ112">
+        <v>3.15</v>
+      </c>
+      <c r="BK112">
+        <v>1.5</v>
+      </c>
+      <c r="BL112">
+        <v>2.4</v>
+      </c>
+      <c r="BM112">
+        <v>1.88</v>
+      </c>
+      <c r="BN112">
+        <v>1.92</v>
+      </c>
+      <c r="BO112">
+        <v>2.2</v>
+      </c>
+      <c r="BP112">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7296631</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45473.41666666666</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113" t="s">
+        <v>83</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>170</v>
+      </c>
+      <c r="P113" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q113">
+        <v>2.21</v>
+      </c>
+      <c r="R113">
+        <v>2.26</v>
+      </c>
+      <c r="S113">
+        <v>4.75</v>
+      </c>
+      <c r="T113">
+        <v>1.34</v>
+      </c>
+      <c r="U113">
+        <v>3.1</v>
+      </c>
+      <c r="V113">
+        <v>2.6</v>
+      </c>
+      <c r="W113">
+        <v>1.46</v>
+      </c>
+      <c r="X113">
+        <v>6.25</v>
+      </c>
+      <c r="Y113">
+        <v>1.1</v>
+      </c>
+      <c r="Z113">
+        <v>1.6</v>
+      </c>
+      <c r="AA113">
+        <v>3.9</v>
+      </c>
+      <c r="AB113">
+        <v>4.8</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>10.25</v>
+      </c>
+      <c r="AE113">
+        <v>1.22</v>
+      </c>
+      <c r="AF113">
+        <v>3.65</v>
+      </c>
+      <c r="AG113">
+        <v>1.73</v>
+      </c>
+      <c r="AH113">
+        <v>1.98</v>
+      </c>
+      <c r="AI113">
+        <v>1.74</v>
+      </c>
+      <c r="AJ113">
+        <v>1.98</v>
+      </c>
+      <c r="AK113">
+        <v>1.17</v>
+      </c>
+      <c r="AL113">
+        <v>1.24</v>
+      </c>
+      <c r="AM113">
+        <v>2.13</v>
+      </c>
+      <c r="AN113">
+        <v>0.71</v>
+      </c>
+      <c r="AO113">
+        <v>1.17</v>
+      </c>
+      <c r="AP113">
+        <v>1</v>
+      </c>
+      <c r="AQ113">
+        <v>1</v>
+      </c>
+      <c r="AR113">
+        <v>1.74</v>
+      </c>
+      <c r="AS113">
+        <v>1.13</v>
+      </c>
+      <c r="AT113">
+        <v>2.87</v>
+      </c>
+      <c r="AU113">
+        <v>8</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>5</v>
+      </c>
+      <c r="AX113">
+        <v>5</v>
+      </c>
+      <c r="AY113">
+        <v>13</v>
+      </c>
+      <c r="AZ113">
+        <v>10</v>
+      </c>
+      <c r="BA113">
+        <v>4</v>
+      </c>
+      <c r="BB113">
+        <v>3</v>
+      </c>
+      <c r="BC113">
+        <v>7</v>
+      </c>
+      <c r="BD113">
+        <v>1.43</v>
+      </c>
+      <c r="BE113">
+        <v>7</v>
+      </c>
+      <c r="BF113">
+        <v>2.9</v>
+      </c>
+      <c r="BG113">
+        <v>1.18</v>
+      </c>
+      <c r="BH113">
+        <v>4.1</v>
+      </c>
+      <c r="BI113">
+        <v>1.33</v>
+      </c>
+      <c r="BJ113">
+        <v>2.95</v>
+      </c>
+      <c r="BK113">
+        <v>1.53</v>
+      </c>
+      <c r="BL113">
+        <v>2.32</v>
+      </c>
+      <c r="BM113">
+        <v>1.82</v>
+      </c>
+      <c r="BN113">
+        <v>1.98</v>
+      </c>
+      <c r="BO113">
+        <v>2.25</v>
+      </c>
+      <c r="BP113">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -24062,31 +24062,31 @@
         <v>3.57</v>
       </c>
       <c r="AU112">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV112">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AW112">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX112">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY112">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ112">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="BA112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB112">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC112">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD112">
         <v>2.4</v>
@@ -24268,22 +24268,22 @@
         <v>2.87</v>
       </c>
       <c r="AU113">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV113">
         <v>5</v>
       </c>
       <c r="AW113">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY113">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA113">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -256,10 +256,10 @@
     <t>Varberg</t>
   </si>
   <si>
-    <t>Degerfors</t>
+    <t>Sandviken</t>
   </si>
   <si>
-    <t>Sandviken</t>
+    <t>Degerfors</t>
   </si>
   <si>
     <t>Utsikten</t>
@@ -304,10 +304,10 @@
     <t>['21']</t>
   </si>
   <si>
-    <t>['19', '53']</t>
+    <t>['44', '76']</t>
   </si>
   <si>
-    <t>['44', '76']</t>
+    <t>['19', '53']</t>
   </si>
   <si>
     <t>['73']</t>
@@ -316,10 +316,10 @@
     <t>['17', '57', '89']</t>
   </si>
   <si>
-    <t>['20', '90+4']</t>
+    <t>['27', '64']</t>
   </si>
   <si>
-    <t>['27', '64']</t>
+    <t>['20', '90+4']</t>
   </si>
   <si>
     <t>['59']</t>
@@ -337,10 +337,10 @@
     <t>['48', '88']</t>
   </si>
   <si>
-    <t>['39']</t>
+    <t>['78']</t>
   </si>
   <si>
-    <t>['78']</t>
+    <t>['39']</t>
   </si>
   <si>
     <t>['10']</t>
@@ -412,10 +412,10 @@
     <t>['52', '56']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['57']</t>
   </si>
   <si>
-    <t>['57']</t>
+    <t>['14']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -430,10 +430,10 @@
     <t>['22', '30', '68']</t>
   </si>
   <si>
-    <t>['26', '87']</t>
+    <t>['1', '38', '51', '85']</t>
   </si>
   <si>
-    <t>['1', '38', '51', '85']</t>
+    <t>['26', '87']</t>
   </si>
   <si>
     <t>['31', '55']</t>
@@ -445,16 +445,16 @@
     <t>['45+3']</t>
   </si>
   <si>
+    <t>['34', '52', '86']</t>
+  </si>
+  <si>
     <t>['29', '80', '90+3']</t>
   </si>
   <si>
-    <t>['34', '52', '86']</t>
+    <t>['30', '82', '90+4']</t>
   </si>
   <si>
     <t>['85']</t>
-  </si>
-  <si>
-    <t>['30', '82', '90+4']</t>
   </si>
   <si>
     <t>['90+6']</t>
@@ -523,10 +523,10 @@
     <t>['17', '35', '71', '81']</t>
   </si>
   <si>
-    <t>['72']</t>
+    <t>['34', '47']</t>
   </si>
   <si>
-    <t>['34', '47']</t>
+    <t>['72']</t>
   </si>
   <si>
     <t>['23', '51']</t>
@@ -616,13 +616,13 @@
     <t>['46']</t>
   </si>
   <si>
-    <t>['65', '79']</t>
+    <t>['32', '74', '79']</t>
   </si>
   <si>
     <t>['15']</t>
   </si>
   <si>
-    <t>['32', '74', '79']</t>
+    <t>['65', '79']</t>
   </si>
   <si>
     <t>['71']</t>
@@ -1697,7 +1697,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2727,7 +2727,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7296541</v>
+        <v>7296539</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3345,7 +3345,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3360,97 +3360,97 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="Q12">
+        <v>3.25</v>
+      </c>
+      <c r="R12">
+        <v>2.25</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>1.33</v>
+      </c>
+      <c r="U12">
+        <v>3.25</v>
+      </c>
+      <c r="V12">
+        <v>2.63</v>
+      </c>
+      <c r="W12">
+        <v>1.44</v>
+      </c>
+      <c r="X12">
+        <v>6.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.11</v>
+      </c>
+      <c r="Z12">
+        <v>2.7</v>
+      </c>
+      <c r="AA12">
+        <v>3.3</v>
+      </c>
+      <c r="AB12">
+        <v>2.25</v>
+      </c>
+      <c r="AC12">
+        <v>1.04</v>
+      </c>
+      <c r="AD12">
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>1.21</v>
+      </c>
+      <c r="AF12">
+        <v>4.3</v>
+      </c>
+      <c r="AG12">
+        <v>1.73</v>
+      </c>
+      <c r="AH12">
+        <v>1.91</v>
+      </c>
+      <c r="AI12">
+        <v>1.62</v>
+      </c>
+      <c r="AJ12">
         <v>2.2</v>
       </c>
-      <c r="R12">
-        <v>2.3</v>
-      </c>
-      <c r="S12">
-        <v>4.8</v>
-      </c>
-      <c r="T12">
-        <v>1.28</v>
-      </c>
-      <c r="U12">
-        <v>3.3</v>
-      </c>
-      <c r="V12">
+      <c r="AK12">
+        <v>1.53</v>
+      </c>
+      <c r="AL12">
+        <v>1.29</v>
+      </c>
+      <c r="AM12">
+        <v>1.48</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
         <v>2.5</v>
       </c>
-      <c r="W12">
-        <v>1.46</v>
-      </c>
-      <c r="X12">
-        <v>5.95</v>
-      </c>
-      <c r="Y12">
-        <v>1.1</v>
-      </c>
-      <c r="Z12">
-        <v>1.66</v>
-      </c>
-      <c r="AA12">
-        <v>3.6</v>
-      </c>
-      <c r="AB12">
-        <v>4.6</v>
-      </c>
-      <c r="AC12">
-        <v>1.03</v>
-      </c>
-      <c r="AD12">
-        <v>13</v>
-      </c>
-      <c r="AE12">
-        <v>1.2</v>
-      </c>
-      <c r="AF12">
-        <v>4.4</v>
-      </c>
-      <c r="AG12">
-        <v>1.65</v>
-      </c>
-      <c r="AH12">
-        <v>2.1</v>
-      </c>
-      <c r="AI12">
-        <v>1.65</v>
-      </c>
-      <c r="AJ12">
-        <v>2.15</v>
-      </c>
-      <c r="AK12">
-        <v>1.13</v>
-      </c>
-      <c r="AL12">
-        <v>1.22</v>
-      </c>
-      <c r="AM12">
-        <v>2</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>2.29</v>
-      </c>
       <c r="AQ12">
-        <v>0.14</v>
+        <v>0.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3462,70 +3462,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW12">
         <v>6</v>
       </c>
       <c r="AX12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BB12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD12">
-        <v>1.33</v>
+        <v>2.24</v>
       </c>
       <c r="BE12">
-        <v>9.9</v>
+        <v>7.5</v>
       </c>
       <c r="BF12">
-        <v>5.1</v>
+        <v>2.11</v>
       </c>
       <c r="BG12">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH12">
-        <v>4.88</v>
+        <v>4.29</v>
       </c>
       <c r="BI12">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="BJ12">
-        <v>3.2</v>
+        <v>2.89</v>
       </c>
       <c r="BK12">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="BL12">
-        <v>2.34</v>
+        <v>2.15</v>
       </c>
       <c r="BM12">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BN12">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BO12">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="BP12">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3533,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7296539</v>
+        <v>7296541</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3551,7 +3551,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3566,85 +3566,85 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="R13">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="T13">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U13">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="V13">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W13">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X13">
-        <v>6.5</v>
+        <v>5.95</v>
       </c>
       <c r="Y13">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z13">
-        <v>2.7</v>
+        <v>1.66</v>
       </c>
       <c r="AA13">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB13">
-        <v>2.25</v>
+        <v>4.6</v>
       </c>
       <c r="AC13">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE13">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AF13">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AG13">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AH13">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AI13">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AJ13">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AK13">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="AL13">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AM13">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3653,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3668,70 +3668,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW13">
         <v>6</v>
       </c>
       <c r="AX13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY13">
+        <v>16</v>
+      </c>
+      <c r="AZ13">
+        <v>7</v>
+      </c>
+      <c r="BA13">
+        <v>11</v>
+      </c>
+      <c r="BB13">
+        <v>3</v>
+      </c>
+      <c r="BC13">
         <v>14</v>
       </c>
-      <c r="AZ13">
-        <v>10</v>
-      </c>
-      <c r="BA13">
-        <v>4</v>
-      </c>
-      <c r="BB13">
-        <v>2</v>
-      </c>
-      <c r="BC13">
-        <v>6</v>
-      </c>
       <c r="BD13">
-        <v>2.24</v>
+        <v>1.33</v>
       </c>
       <c r="BE13">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="BF13">
-        <v>2.11</v>
+        <v>5.1</v>
       </c>
       <c r="BG13">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH13">
-        <v>4.29</v>
+        <v>4.88</v>
       </c>
       <c r="BI13">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="BJ13">
-        <v>2.89</v>
+        <v>3.2</v>
       </c>
       <c r="BK13">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="BL13">
-        <v>2.15</v>
+        <v>2.34</v>
       </c>
       <c r="BM13">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BN13">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BO13">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="BP13">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -4769,7 +4769,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7296550</v>
+        <v>7296544</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4784,10 +4784,10 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4802,172 +4802,172 @@
         <v>2</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="Q19">
+        <v>2.41</v>
+      </c>
+      <c r="R19">
+        <v>2.16</v>
+      </c>
+      <c r="S19">
+        <v>4.4</v>
+      </c>
+      <c r="T19">
+        <v>1.38</v>
+      </c>
+      <c r="U19">
         <v>2.9</v>
       </c>
-      <c r="R19">
-        <v>2.08</v>
-      </c>
-      <c r="S19">
-        <v>3.58</v>
-      </c>
-      <c r="T19">
-        <v>1.41</v>
-      </c>
-      <c r="U19">
-        <v>2.78</v>
-      </c>
       <c r="V19">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="W19">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="X19">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="Y19">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z19">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="AA19">
         <v>3.4</v>
       </c>
       <c r="AB19">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="AC19">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD19">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE19">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AF19">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="AG19">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AH19">
+        <v>1.88</v>
+      </c>
+      <c r="AI19">
+        <v>1.75</v>
+      </c>
+      <c r="AJ19">
+        <v>1.96</v>
+      </c>
+      <c r="AK19">
+        <v>1.2</v>
+      </c>
+      <c r="AL19">
+        <v>1.22</v>
+      </c>
+      <c r="AM19">
+        <v>1.8</v>
+      </c>
+      <c r="AN19">
+        <v>3</v>
+      </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>2.71</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>1.38</v>
+      </c>
+      <c r="AS19">
+        <v>1.59</v>
+      </c>
+      <c r="AT19">
+        <v>2.97</v>
+      </c>
+      <c r="AU19">
+        <v>5</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>4</v>
+      </c>
+      <c r="AX19">
+        <v>3</v>
+      </c>
+      <c r="AY19">
+        <v>9</v>
+      </c>
+      <c r="AZ19">
+        <v>7</v>
+      </c>
+      <c r="BA19">
+        <v>8</v>
+      </c>
+      <c r="BB19">
+        <v>4</v>
+      </c>
+      <c r="BC19">
+        <v>12</v>
+      </c>
+      <c r="BD19">
+        <v>1.67</v>
+      </c>
+      <c r="BE19">
+        <v>9.5</v>
+      </c>
+      <c r="BF19">
+        <v>2.49</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>1.23</v>
+      </c>
+      <c r="BJ19">
+        <v>3.56</v>
+      </c>
+      <c r="BK19">
+        <v>1.42</v>
+      </c>
+      <c r="BL19">
+        <v>2.57</v>
+      </c>
+      <c r="BM19">
         <v>1.78</v>
       </c>
-      <c r="AI19">
-        <v>1.76</v>
-      </c>
-      <c r="AJ19">
-        <v>1.95</v>
-      </c>
-      <c r="AK19">
-        <v>1.33</v>
-      </c>
-      <c r="AL19">
-        <v>1.25</v>
-      </c>
-      <c r="AM19">
-        <v>1.53</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>1.43</v>
-      </c>
-      <c r="AQ19">
-        <v>0.63</v>
-      </c>
-      <c r="AR19">
-        <v>1.27</v>
-      </c>
-      <c r="AS19">
-        <v>1.21</v>
-      </c>
-      <c r="AT19">
-        <v>2.48</v>
-      </c>
-      <c r="AU19">
-        <v>9</v>
-      </c>
-      <c r="AV19">
-        <v>6</v>
-      </c>
-      <c r="AW19">
-        <v>6</v>
-      </c>
-      <c r="AX19">
-        <v>11</v>
-      </c>
-      <c r="AY19">
-        <v>15</v>
-      </c>
-      <c r="AZ19">
-        <v>17</v>
-      </c>
-      <c r="BA19">
-        <v>4</v>
-      </c>
-      <c r="BB19">
-        <v>5</v>
-      </c>
-      <c r="BC19">
-        <v>9</v>
-      </c>
-      <c r="BD19">
-        <v>1.91</v>
-      </c>
-      <c r="BE19">
-        <v>8</v>
-      </c>
-      <c r="BF19">
-        <v>2.2</v>
-      </c>
-      <c r="BG19">
-        <v>1.19</v>
-      </c>
-      <c r="BH19">
-        <v>4.2</v>
-      </c>
-      <c r="BI19">
-        <v>1.33</v>
-      </c>
-      <c r="BJ19">
-        <v>2.93</v>
-      </c>
-      <c r="BK19">
-        <v>1.58</v>
-      </c>
-      <c r="BL19">
-        <v>2.17</v>
-      </c>
-      <c r="BM19">
-        <v>1.99</v>
-      </c>
       <c r="BN19">
-        <v>1.73</v>
+        <v>2.01</v>
       </c>
       <c r="BO19">
-        <v>2.57</v>
+        <v>2.22</v>
       </c>
       <c r="BP19">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4975,7 +4975,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7296544</v>
+        <v>7296550</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -4990,10 +4990,10 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -5008,172 +5008,172 @@
         <v>2</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" t="s">
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="Q20">
-        <v>2.41</v>
+        <v>2.9</v>
       </c>
       <c r="R20">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="S20">
-        <v>4.4</v>
+        <v>3.58</v>
       </c>
       <c r="T20">
+        <v>1.41</v>
+      </c>
+      <c r="U20">
+        <v>2.78</v>
+      </c>
+      <c r="V20">
+        <v>2.9</v>
+      </c>
+      <c r="W20">
         <v>1.38</v>
       </c>
-      <c r="U20">
-        <v>2.9</v>
-      </c>
-      <c r="V20">
-        <v>2.74</v>
-      </c>
-      <c r="W20">
-        <v>1.42</v>
-      </c>
       <c r="X20">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="Y20">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z20">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AA20">
         <v>3.4</v>
       </c>
       <c r="AB20">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="AC20">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD20">
-        <v>9.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AE20">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AF20">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="AG20">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AH20">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AI20">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AJ20">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AK20">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AL20">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM20">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.71</v>
+        <v>1.43</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AR20">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AS20">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="AT20">
-        <v>2.97</v>
+        <v>2.48</v>
       </c>
       <c r="AU20">
+        <v>9</v>
+      </c>
+      <c r="AV20">
+        <v>6</v>
+      </c>
+      <c r="AW20">
+        <v>6</v>
+      </c>
+      <c r="AX20">
+        <v>11</v>
+      </c>
+      <c r="AY20">
+        <v>15</v>
+      </c>
+      <c r="AZ20">
+        <v>17</v>
+      </c>
+      <c r="BA20">
+        <v>4</v>
+      </c>
+      <c r="BB20">
         <v>5</v>
       </c>
-      <c r="AV20">
-        <v>4</v>
-      </c>
-      <c r="AW20">
-        <v>4</v>
-      </c>
-      <c r="AX20">
-        <v>3</v>
-      </c>
-      <c r="AY20">
+      <c r="BC20">
         <v>9</v>
       </c>
-      <c r="AZ20">
-        <v>7</v>
-      </c>
-      <c r="BA20">
+      <c r="BD20">
+        <v>1.91</v>
+      </c>
+      <c r="BE20">
         <v>8</v>
       </c>
-      <c r="BB20">
-        <v>4</v>
-      </c>
-      <c r="BC20">
-        <v>12</v>
-      </c>
-      <c r="BD20">
-        <v>1.67</v>
-      </c>
-      <c r="BE20">
-        <v>9.5</v>
-      </c>
       <c r="BF20">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="BG20">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BH20">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BI20">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="BJ20">
-        <v>3.56</v>
+        <v>2.93</v>
       </c>
       <c r="BK20">
+        <v>1.58</v>
+      </c>
+      <c r="BL20">
+        <v>2.17</v>
+      </c>
+      <c r="BM20">
+        <v>1.99</v>
+      </c>
+      <c r="BN20">
+        <v>1.73</v>
+      </c>
+      <c r="BO20">
+        <v>2.57</v>
+      </c>
+      <c r="BP20">
         <v>1.42</v>
-      </c>
-      <c r="BL20">
-        <v>2.57</v>
-      </c>
-      <c r="BM20">
-        <v>1.78</v>
-      </c>
-      <c r="BN20">
-        <v>2.01</v>
-      </c>
-      <c r="BO20">
-        <v>2.22</v>
-      </c>
-      <c r="BP20">
-        <v>1.64</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -5199,7 +5199,7 @@
         <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5817,7 +5817,7 @@
         <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -6211,7 +6211,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7296553</v>
+        <v>7296556</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -6226,19 +6226,19 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -6256,160 +6256,160 @@
         <v>90</v>
       </c>
       <c r="Q26">
-        <v>3.64</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="S26">
-        <v>3.03</v>
+        <v>2.45</v>
       </c>
       <c r="T26">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="U26">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>3.03</v>
+        <v>2.55</v>
       </c>
       <c r="W26">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="X26">
-        <v>7.7</v>
+        <v>5.75</v>
       </c>
       <c r="Y26">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z26">
-        <v>2.65</v>
+        <v>3.8</v>
       </c>
       <c r="AA26">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="AB26">
-        <v>2.6</v>
+        <v>1.87</v>
       </c>
       <c r="AC26">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE26">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AF26">
-        <v>3.04</v>
+        <v>3.4</v>
       </c>
       <c r="AG26">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="AH26">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AI26">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AJ26">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="AK26">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="AL26">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AM26">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AR26">
-        <v>0.63</v>
+        <v>1.73</v>
       </c>
       <c r="AS26">
-        <v>1.81</v>
+        <v>1.19</v>
       </c>
       <c r="AT26">
-        <v>2.44</v>
+        <v>2.92</v>
       </c>
       <c r="AU26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV26">
         <v>8</v>
       </c>
       <c r="AW26">
+        <v>5</v>
+      </c>
+      <c r="AX26">
         <v>7</v>
       </c>
-      <c r="AX26">
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>15</v>
+      </c>
+      <c r="BA26">
+        <v>4</v>
+      </c>
+      <c r="BB26">
+        <v>6</v>
+      </c>
+      <c r="BC26">
         <v>10</v>
       </c>
-      <c r="AY26">
-        <v>12</v>
-      </c>
-      <c r="AZ26">
-        <v>18</v>
-      </c>
-      <c r="BA26">
-        <v>2</v>
-      </c>
-      <c r="BB26">
-        <v>5</v>
-      </c>
-      <c r="BC26">
-        <v>7</v>
-      </c>
       <c r="BD26">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="BE26">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF26">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="BG26">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BH26">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="BI26">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="BJ26">
-        <v>3.56</v>
+        <v>2.6</v>
       </c>
       <c r="BK26">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="BL26">
-        <v>2.57</v>
+        <v>1.99</v>
       </c>
       <c r="BM26">
-        <v>1.74</v>
+        <v>2.17</v>
       </c>
       <c r="BN26">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="BO26">
-        <v>2.15</v>
+        <v>2.91</v>
       </c>
       <c r="BP26">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6417,7 +6417,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7296556</v>
+        <v>7296553</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6432,19 +6432,19 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -6462,160 +6462,160 @@
         <v>90</v>
       </c>
       <c r="Q27">
-        <v>4</v>
+        <v>3.64</v>
       </c>
       <c r="R27">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="S27">
-        <v>2.45</v>
+        <v>3.03</v>
       </c>
       <c r="T27">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="V27">
-        <v>2.55</v>
+        <v>3.03</v>
       </c>
       <c r="W27">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="X27">
-        <v>5.75</v>
+        <v>7.7</v>
       </c>
       <c r="Y27">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z27">
-        <v>3.8</v>
+        <v>2.65</v>
       </c>
       <c r="AA27">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="AB27">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="AC27">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD27">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE27">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AF27">
-        <v>3.4</v>
+        <v>3.04</v>
       </c>
       <c r="AG27">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="AH27">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AI27">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="AJ27">
-        <v>2.15</v>
+        <v>1.99</v>
       </c>
       <c r="AK27">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="AL27">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AM27">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
-        <v>1.73</v>
+        <v>0.63</v>
       </c>
       <c r="AS27">
-        <v>1.19</v>
+        <v>1.81</v>
       </c>
       <c r="AT27">
-        <v>2.92</v>
+        <v>2.44</v>
       </c>
       <c r="AU27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV27">
         <v>8</v>
       </c>
       <c r="AW27">
+        <v>7</v>
+      </c>
+      <c r="AX27">
+        <v>10</v>
+      </c>
+      <c r="AY27">
+        <v>12</v>
+      </c>
+      <c r="AZ27">
+        <v>18</v>
+      </c>
+      <c r="BA27">
+        <v>2</v>
+      </c>
+      <c r="BB27">
         <v>5</v>
       </c>
-      <c r="AX27">
+      <c r="BC27">
         <v>7</v>
       </c>
-      <c r="AY27">
-        <v>11</v>
-      </c>
-      <c r="AZ27">
-        <v>15</v>
-      </c>
-      <c r="BA27">
-        <v>4</v>
-      </c>
-      <c r="BB27">
-        <v>6</v>
-      </c>
-      <c r="BC27">
-        <v>10</v>
-      </c>
       <c r="BD27">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="BE27">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF27">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="BG27">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="BH27">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="BI27">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="BJ27">
-        <v>2.6</v>
+        <v>3.56</v>
       </c>
       <c r="BK27">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="BL27">
-        <v>1.99</v>
+        <v>2.57</v>
       </c>
       <c r="BM27">
-        <v>2.17</v>
+        <v>1.74</v>
       </c>
       <c r="BN27">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="BO27">
-        <v>2.91</v>
+        <v>2.15</v>
       </c>
       <c r="BP27">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -7668,7 +7668,7 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
         <v>85</v>
@@ -7859,7 +7859,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7296560</v>
+        <v>7296566</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7874,190 +7874,190 @@
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="Q34">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R34">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="S34">
-        <v>3.74</v>
+        <v>3.25</v>
       </c>
       <c r="T34">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U34">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="V34">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="W34">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X34">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y34">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z34">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="AA34">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="AB34">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="AC34">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD34">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AE34">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AF34">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="AG34">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="AH34">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AI34">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AJ34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK34">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AL34">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM34">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AN34">
         <v>3</v>
       </c>
       <c r="AO34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.71</v>
+        <v>1.14</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AR34">
+        <v>1.44</v>
+      </c>
+      <c r="AS34">
         <v>1.26</v>
       </c>
-      <c r="AS34">
-        <v>1.61</v>
-      </c>
       <c r="AT34">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="AU34">
+        <v>9</v>
+      </c>
+      <c r="AV34">
+        <v>14</v>
+      </c>
+      <c r="AW34">
         <v>10</v>
       </c>
-      <c r="AV34">
+      <c r="AX34">
+        <v>6</v>
+      </c>
+      <c r="AY34">
+        <v>19</v>
+      </c>
+      <c r="AZ34">
+        <v>20</v>
+      </c>
+      <c r="BA34">
         <v>4</v>
       </c>
-      <c r="AW34">
-        <v>1</v>
-      </c>
-      <c r="AX34">
-        <v>7</v>
-      </c>
-      <c r="AY34">
-        <v>11</v>
-      </c>
-      <c r="AZ34">
-        <v>11</v>
-      </c>
-      <c r="BA34">
-        <v>3</v>
-      </c>
       <c r="BB34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC34">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD34">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BE34">
         <v>8.5</v>
       </c>
       <c r="BF34">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="BG34">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BH34">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="BI34">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="BJ34">
-        <v>3.42</v>
+        <v>2.63</v>
       </c>
       <c r="BK34">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="BL34">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="BM34">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="BN34">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="BO34">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="BP34">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -8065,7 +8065,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7296563</v>
+        <v>7296560</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -8080,190 +8080,190 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R35">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="S35">
-        <v>3.5</v>
+        <v>3.74</v>
       </c>
       <c r="T35">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="U35">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="V35">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="W35">
         <v>1.4</v>
       </c>
       <c r="X35">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y35">
         <v>1.08</v>
       </c>
       <c r="Z35">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AA35">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AB35">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="AC35">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD35">
+        <v>11</v>
+      </c>
+      <c r="AE35">
+        <v>1.31</v>
+      </c>
+      <c r="AF35">
+        <v>3.47</v>
+      </c>
+      <c r="AG35">
+        <v>1.98</v>
+      </c>
+      <c r="AH35">
+        <v>1.88</v>
+      </c>
+      <c r="AI35">
+        <v>1.78</v>
+      </c>
+      <c r="AJ35">
+        <v>2</v>
+      </c>
+      <c r="AK35">
+        <v>1.35</v>
+      </c>
+      <c r="AL35">
+        <v>1.3</v>
+      </c>
+      <c r="AM35">
+        <v>1.62</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <v>2.71</v>
+      </c>
+      <c r="AQ35">
+        <v>1.14</v>
+      </c>
+      <c r="AR35">
+        <v>1.26</v>
+      </c>
+      <c r="AS35">
+        <v>1.61</v>
+      </c>
+      <c r="AT35">
+        <v>2.87</v>
+      </c>
+      <c r="AU35">
+        <v>10</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>11</v>
+      </c>
+      <c r="AZ35">
+        <v>11</v>
+      </c>
+      <c r="BA35">
+        <v>3</v>
+      </c>
+      <c r="BB35">
+        <v>5</v>
+      </c>
+      <c r="BC35">
+        <v>8</v>
+      </c>
+      <c r="BD35">
+        <v>1.82</v>
+      </c>
+      <c r="BE35">
         <v>8.5</v>
       </c>
-      <c r="AE35">
-        <v>1.28</v>
-      </c>
-      <c r="AF35">
-        <v>3.4</v>
-      </c>
-      <c r="AG35">
-        <v>1.8</v>
-      </c>
-      <c r="AH35">
-        <v>1.8</v>
-      </c>
-      <c r="AI35">
-        <v>1.7</v>
-      </c>
-      <c r="AJ35">
-        <v>2.05</v>
-      </c>
-      <c r="AK35">
-        <v>1.38</v>
-      </c>
-      <c r="AL35">
+      <c r="BF35">
+        <v>2.32</v>
+      </c>
+      <c r="BG35">
+        <v>1.14</v>
+      </c>
+      <c r="BH35">
+        <v>4.8</v>
+      </c>
+      <c r="BI35">
         <v>1.25</v>
       </c>
-      <c r="AM35">
-        <v>1.57</v>
-      </c>
-      <c r="AN35">
-        <v>0.5</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1.57</v>
-      </c>
-      <c r="AQ35">
-        <v>1.13</v>
-      </c>
-      <c r="AR35">
-        <v>1.08</v>
-      </c>
-      <c r="AS35">
-        <v>0.99</v>
-      </c>
-      <c r="AT35">
-        <v>2.07</v>
-      </c>
-      <c r="AU35">
-        <v>7</v>
-      </c>
-      <c r="AV35">
-        <v>6</v>
-      </c>
-      <c r="AW35">
-        <v>12</v>
-      </c>
-      <c r="AX35">
-        <v>4</v>
-      </c>
-      <c r="AY35">
-        <v>19</v>
-      </c>
-      <c r="AZ35">
-        <v>10</v>
-      </c>
-      <c r="BA35">
-        <v>10</v>
-      </c>
-      <c r="BB35">
-        <v>1</v>
-      </c>
-      <c r="BC35">
-        <v>11</v>
-      </c>
-      <c r="BD35">
-        <v>1.91</v>
-      </c>
-      <c r="BE35">
-        <v>8</v>
-      </c>
-      <c r="BF35">
-        <v>2.2</v>
-      </c>
-      <c r="BG35">
-        <v>1.25</v>
-      </c>
-      <c r="BH35">
-        <v>3.45</v>
-      </c>
-      <c r="BI35">
-        <v>1.45</v>
-      </c>
       <c r="BJ35">
-        <v>2.55</v>
+        <v>3.42</v>
       </c>
       <c r="BK35">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="BL35">
-        <v>1.98</v>
+        <v>2.43</v>
       </c>
       <c r="BM35">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="BN35">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="BO35">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
       <c r="BP35">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8271,7 +8271,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7296566</v>
+        <v>7296563</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8286,70 +8286,70 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="Q36">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R36">
         <v>2.2</v>
       </c>
       <c r="S36">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T36">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V36">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W36">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y36">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z36">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="AA36">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="AB36">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="AC36">
         <v>1.05</v>
@@ -8358,112 +8358,112 @@
         <v>8.5</v>
       </c>
       <c r="AE36">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF36">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AG36">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AH36">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AI36">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ36">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK36">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AL36">
         <v>1.25</v>
       </c>
       <c r="AM36">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO36">
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36">
-        <v>0.71</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AS36">
-        <v>1.26</v>
+        <v>0.99</v>
       </c>
       <c r="AT36">
-        <v>2.7</v>
+        <v>2.07</v>
       </c>
       <c r="AU36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV36">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AW36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY36">
         <v>19</v>
       </c>
       <c r="AZ36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BA36">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BC36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD36">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BE36">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF36">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BG36">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="BH36">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="BI36">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="BJ36">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BK36">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="BL36">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BM36">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="BN36">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="BO36">
         <v>2.7</v>
@@ -9113,7 +9113,7 @@
         <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -9507,7 +9507,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7296571</v>
+        <v>7296572</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9522,88 +9522,88 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
       <c r="O42" t="s">
+        <v>120</v>
+      </c>
+      <c r="P42" t="s">
         <v>90</v>
       </c>
-      <c r="P42" t="s">
-        <v>86</v>
-      </c>
       <c r="Q42">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R42">
         <v>2.1</v>
       </c>
       <c r="S42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T42">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U42">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W42">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y42">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z42">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AA42">
         <v>3.2</v>
       </c>
       <c r="AB42">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="AC42">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AD42">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE42">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AF42">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH42">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AI42">
         <v>1.8</v>
@@ -9612,100 +9612,100 @@
         <v>1.95</v>
       </c>
       <c r="AK42">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AL42">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM42">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AN42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.14</v>
+        <v>0.14</v>
       </c>
       <c r="AR42">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="AS42">
-        <v>1.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT42">
-        <v>3.19</v>
+        <v>2.78</v>
       </c>
       <c r="AU42">
+        <v>6</v>
+      </c>
+      <c r="AV42">
+        <v>2</v>
+      </c>
+      <c r="AW42">
+        <v>10</v>
+      </c>
+      <c r="AX42">
+        <v>2</v>
+      </c>
+      <c r="AY42">
+        <v>16</v>
+      </c>
+      <c r="AZ42">
         <v>4</v>
       </c>
-      <c r="AV42">
-        <v>4</v>
-      </c>
-      <c r="AW42">
-        <v>5</v>
-      </c>
-      <c r="AX42">
-        <v>4</v>
-      </c>
-      <c r="AY42">
-        <v>9</v>
-      </c>
-      <c r="AZ42">
+      <c r="BA42">
         <v>8</v>
       </c>
-      <c r="BA42">
-        <v>5</v>
-      </c>
       <c r="BB42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD42">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="BE42">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF42">
-        <v>2</v>
+        <v>2.53</v>
       </c>
       <c r="BG42">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="BH42">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="BI42">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BJ42">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BK42">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="BL42">
-        <v>2.17</v>
+        <v>2.32</v>
       </c>
       <c r="BM42">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="BN42">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BO42">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="BP42">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9713,7 +9713,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7296572</v>
+        <v>7296571</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9728,88 +9728,88 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q43">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R43">
         <v>2.1</v>
       </c>
       <c r="S43">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T43">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U43">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W43">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y43">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z43">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AA43">
         <v>3.2</v>
       </c>
       <c r="AB43">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="AC43">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD43">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE43">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AF43">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH43">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AI43">
         <v>1.8</v>
@@ -9818,100 +9818,100 @@
         <v>1.95</v>
       </c>
       <c r="AK43">
+        <v>1.6</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>1.4</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>1.33</v>
+      </c>
+      <c r="AP43">
+        <v>2.5</v>
+      </c>
+      <c r="AQ43">
+        <v>1.14</v>
+      </c>
+      <c r="AR43">
+        <v>1.56</v>
+      </c>
+      <c r="AS43">
+        <v>1.63</v>
+      </c>
+      <c r="AT43">
+        <v>3.19</v>
+      </c>
+      <c r="AU43">
+        <v>4</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>4</v>
+      </c>
+      <c r="AY43">
+        <v>9</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>5</v>
+      </c>
+      <c r="BB43">
+        <v>6</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>2</v>
+      </c>
+      <c r="BE43">
+        <v>8</v>
+      </c>
+      <c r="BF43">
+        <v>2</v>
+      </c>
+      <c r="BG43">
+        <v>1.21</v>
+      </c>
+      <c r="BH43">
+        <v>3.9</v>
+      </c>
+      <c r="BI43">
+        <v>1.33</v>
+      </c>
+      <c r="BJ43">
+        <v>2.93</v>
+      </c>
+      <c r="BK43">
+        <v>1.58</v>
+      </c>
+      <c r="BL43">
+        <v>2.17</v>
+      </c>
+      <c r="BM43">
+        <v>1.99</v>
+      </c>
+      <c r="BN43">
+        <v>1.73</v>
+      </c>
+      <c r="BO43">
+        <v>2.57</v>
+      </c>
+      <c r="BP43">
         <v>1.42</v>
-      </c>
-      <c r="AL43">
-        <v>1.3</v>
-      </c>
-      <c r="AM43">
-        <v>1.52</v>
-      </c>
-      <c r="AN43">
-        <v>2</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1.5</v>
-      </c>
-      <c r="AQ43">
-        <v>0.14</v>
-      </c>
-      <c r="AR43">
-        <v>1.84</v>
-      </c>
-      <c r="AS43">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT43">
-        <v>2.78</v>
-      </c>
-      <c r="AU43">
-        <v>6</v>
-      </c>
-      <c r="AV43">
-        <v>2</v>
-      </c>
-      <c r="AW43">
-        <v>10</v>
-      </c>
-      <c r="AX43">
-        <v>2</v>
-      </c>
-      <c r="AY43">
-        <v>16</v>
-      </c>
-      <c r="AZ43">
-        <v>4</v>
-      </c>
-      <c r="BA43">
-        <v>8</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
-      </c>
-      <c r="BC43">
-        <v>8</v>
-      </c>
-      <c r="BD43">
-        <v>1.69</v>
-      </c>
-      <c r="BE43">
-        <v>8.5</v>
-      </c>
-      <c r="BF43">
-        <v>2.53</v>
-      </c>
-      <c r="BG43">
-        <v>1.17</v>
-      </c>
-      <c r="BH43">
-        <v>4.35</v>
-      </c>
-      <c r="BI43">
-        <v>1.28</v>
-      </c>
-      <c r="BJ43">
-        <v>3.2</v>
-      </c>
-      <c r="BK43">
-        <v>1.51</v>
-      </c>
-      <c r="BL43">
-        <v>2.32</v>
-      </c>
-      <c r="BM43">
-        <v>1.92</v>
-      </c>
-      <c r="BN43">
-        <v>1.88</v>
-      </c>
-      <c r="BO43">
-        <v>2.38</v>
-      </c>
-      <c r="BP43">
-        <v>1.49</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9934,7 +9934,7 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
         <v>72</v>
@@ -12203,7 +12203,7 @@
         <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -12615,7 +12615,7 @@
         <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -12803,7 +12803,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7296584</v>
+        <v>7296587</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12818,190 +12818,190 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58" t="s">
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="Q58">
-        <v>2.93</v>
+        <v>3.4</v>
       </c>
       <c r="R58">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S58">
-        <v>3.63</v>
+        <v>2.9</v>
       </c>
       <c r="T58">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U58">
-        <v>3.02</v>
+        <v>2.9</v>
       </c>
       <c r="V58">
-        <v>2.86</v>
+        <v>2.65</v>
       </c>
       <c r="W58">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X58">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="Y58">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z58">
+        <v>2.7</v>
+      </c>
+      <c r="AA58">
+        <v>3.2</v>
+      </c>
+      <c r="AB58">
         <v>2.3</v>
       </c>
-      <c r="AA58">
-        <v>3.1</v>
-      </c>
-      <c r="AB58">
-        <v>2.7</v>
-      </c>
       <c r="AC58">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD58">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE58">
         <v>1.27</v>
       </c>
       <c r="AF58">
-        <v>3.28</v>
+        <v>3.77</v>
       </c>
       <c r="AG58">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AH58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AI58">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AJ58">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AK58">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AL58">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AM58">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AN58">
-        <v>1.25</v>
+        <v>2.33</v>
       </c>
       <c r="AO58">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP58">
         <v>1.57</v>
       </c>
       <c r="AQ58">
-        <v>0.14</v>
+        <v>1.57</v>
       </c>
       <c r="AR58">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AS58">
-        <v>0.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT58">
-        <v>2.34</v>
+        <v>3.13</v>
       </c>
       <c r="AU58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ58">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA58">
         <v>4</v>
       </c>
       <c r="BB58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC58">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD58">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="BE58">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF58">
-        <v>2.91</v>
+        <v>1.8</v>
       </c>
       <c r="BG58">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="BH58">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="BI58">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="BJ58">
-        <v>2.85</v>
+        <v>3.65</v>
       </c>
       <c r="BK58">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="BL58">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="BM58">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="BN58">
-        <v>1.77</v>
+        <v>2.17</v>
       </c>
       <c r="BO58">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="BP58">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -13009,7 +13009,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7296587</v>
+        <v>7296586</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13024,10 +13024,10 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -13039,151 +13039,151 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="Q59">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="R59">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="S59">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="T59">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="U59">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="V59">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="W59">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X59">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="Y59">
         <v>1.09</v>
       </c>
       <c r="Z59">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AA59">
         <v>3.2</v>
       </c>
       <c r="AB59">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="AC59">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD59">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AE59">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AF59">
-        <v>3.77</v>
+        <v>3.42</v>
       </c>
       <c r="AG59">
         <v>1.83</v>
       </c>
       <c r="AH59">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AI59">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AJ59">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="AK59">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="AL59">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AM59">
+        <v>1.44</v>
+      </c>
+      <c r="AN59">
+        <v>1.25</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>1.5</v>
+      </c>
+      <c r="AQ59">
+        <v>1.67</v>
+      </c>
+      <c r="AR59">
+        <v>1.8</v>
+      </c>
+      <c r="AS59">
         <v>1.4</v>
       </c>
-      <c r="AN59">
-        <v>2.33</v>
-      </c>
-      <c r="AO59">
-        <v>1.33</v>
-      </c>
-      <c r="AP59">
-        <v>1.57</v>
-      </c>
-      <c r="AQ59">
-        <v>1.57</v>
-      </c>
-      <c r="AR59">
-        <v>1.44</v>
-      </c>
-      <c r="AS59">
-        <v>1.69</v>
-      </c>
       <c r="AT59">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="AU59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV59">
         <v>5</v>
       </c>
       <c r="AW59">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>16</v>
+      </c>
+      <c r="AZ59">
+        <v>9</v>
+      </c>
+      <c r="BA59">
         <v>10</v>
       </c>
-      <c r="AY59">
-        <v>11</v>
-      </c>
-      <c r="AZ59">
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
         <v>15</v>
       </c>
-      <c r="BA59">
-        <v>4</v>
-      </c>
-      <c r="BB59">
-        <v>7</v>
-      </c>
-      <c r="BC59">
-        <v>11</v>
-      </c>
       <c r="BD59">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="BE59">
         <v>6.75</v>
       </c>
       <c r="BF59">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="BG59">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="BH59">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="BI59">
         <v>1.23</v>
@@ -13192,22 +13192,22 @@
         <v>3.65</v>
       </c>
       <c r="BK59">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BL59">
         <v>2.7</v>
       </c>
       <c r="BM59">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="BN59">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="BO59">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="BP59">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13215,7 +13215,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7296586</v>
+        <v>7296584</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13230,190 +13230,190 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="P60" t="s">
         <v>90</v>
       </c>
       <c r="Q60">
-        <v>3.32</v>
+        <v>2.93</v>
       </c>
       <c r="R60">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="S60">
-        <v>3.09</v>
+        <v>3.63</v>
       </c>
       <c r="T60">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="U60">
-        <v>3.15</v>
+        <v>3.02</v>
       </c>
       <c r="V60">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="W60">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X60">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="Y60">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z60">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AA60">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB60">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="AC60">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD60">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE60">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AF60">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="AG60">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AH60">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AI60">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AJ60">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AK60">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="AL60">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AM60">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AN60">
         <v>1.25</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>0.14</v>
       </c>
       <c r="AR60">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="AS60">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AT60">
-        <v>3.2</v>
+        <v>2.34</v>
       </c>
       <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>9</v>
+      </c>
+      <c r="AW60">
         <v>3</v>
       </c>
-      <c r="AV60">
-        <v>5</v>
-      </c>
-      <c r="AW60">
-        <v>13</v>
-      </c>
       <c r="AX60">
+        <v>9</v>
+      </c>
+      <c r="AY60">
+        <v>10</v>
+      </c>
+      <c r="AZ60">
+        <v>18</v>
+      </c>
+      <c r="BA60">
         <v>4</v>
       </c>
-      <c r="AY60">
-        <v>16</v>
-      </c>
-      <c r="AZ60">
-        <v>9</v>
-      </c>
-      <c r="BA60">
-        <v>10</v>
-      </c>
       <c r="BB60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC60">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BD60">
-        <v>2.07</v>
+        <v>1.55</v>
       </c>
       <c r="BE60">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="BF60">
-        <v>1.79</v>
+        <v>2.91</v>
       </c>
       <c r="BG60">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="BH60">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="BI60">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="BJ60">
-        <v>3.65</v>
+        <v>2.85</v>
       </c>
       <c r="BK60">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="BL60">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="BM60">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="BN60">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="BO60">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="BP60">
-        <v>1.74</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13848,7 +13848,7 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s">
         <v>71</v>
@@ -14260,7 +14260,7 @@
         <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s">
         <v>79</v>
@@ -14451,7 +14451,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7296591</v>
+        <v>7296597</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14466,190 +14466,190 @@
         <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H66" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R66">
         <v>2.25</v>
       </c>
       <c r="S66">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T66">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="U66">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V66">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="W66">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X66">
-        <v>5.95</v>
+        <v>7</v>
       </c>
       <c r="Y66">
         <v>1.1</v>
       </c>
       <c r="Z66">
-        <v>2.34</v>
+        <v>2.43</v>
       </c>
       <c r="AA66">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AB66">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AC66">
         <v>1.03</v>
       </c>
       <c r="AD66">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE66">
         <v>1.22</v>
       </c>
       <c r="AF66">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AG66">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AH66">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="AI66">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AJ66">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK66">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AL66">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM66">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AN66">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AS66">
-        <v>1.75</v>
+        <v>1.08</v>
       </c>
       <c r="AT66">
-        <v>3.4</v>
+        <v>2.64</v>
       </c>
       <c r="AU66">
+        <v>2</v>
+      </c>
+      <c r="AV66">
         <v>6</v>
-      </c>
-      <c r="AV66">
-        <v>5</v>
       </c>
       <c r="AW66">
         <v>8</v>
       </c>
       <c r="AX66">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AY66">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ66">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="BA66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB66">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC66">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD66">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="BE66">
         <v>6.75</v>
       </c>
       <c r="BF66">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="BG66">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="BH66">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BI66">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BJ66">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BK66">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="BL66">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="BM66">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="BN66">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="BO66">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="BP66">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14657,7 +14657,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7296593</v>
+        <v>7296596</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14672,190 +14672,190 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O67" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Q67">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="R67">
         <v>2.3</v>
       </c>
       <c r="S67">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="T67">
+        <v>1.33</v>
+      </c>
+      <c r="U67">
+        <v>2.95</v>
+      </c>
+      <c r="V67">
+        <v>2.65</v>
+      </c>
+      <c r="W67">
+        <v>1.45</v>
+      </c>
+      <c r="X67">
+        <v>6.1</v>
+      </c>
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>1.77</v>
+      </c>
+      <c r="AA67">
+        <v>3.65</v>
+      </c>
+      <c r="AB67">
+        <v>4.2</v>
+      </c>
+      <c r="AC67">
+        <v>1.03</v>
+      </c>
+      <c r="AD67">
+        <v>9</v>
+      </c>
+      <c r="AE67">
+        <v>1.24</v>
+      </c>
+      <c r="AF67">
+        <v>3.55</v>
+      </c>
+      <c r="AG67">
+        <v>1.83</v>
+      </c>
+      <c r="AH67">
+        <v>1.94</v>
+      </c>
+      <c r="AI67">
+        <v>1.74</v>
+      </c>
+      <c r="AJ67">
+        <v>1.97</v>
+      </c>
+      <c r="AK67">
+        <v>1.22</v>
+      </c>
+      <c r="AL67">
+        <v>1.26</v>
+      </c>
+      <c r="AM67">
+        <v>1.98</v>
+      </c>
+      <c r="AN67">
+        <v>1.67</v>
+      </c>
+      <c r="AO67">
+        <v>0.67</v>
+      </c>
+      <c r="AP67">
+        <v>1.83</v>
+      </c>
+      <c r="AQ67">
+        <v>0.43</v>
+      </c>
+      <c r="AR67">
+        <v>1.81</v>
+      </c>
+      <c r="AS67">
+        <v>1.13</v>
+      </c>
+      <c r="AT67">
+        <v>2.94</v>
+      </c>
+      <c r="AU67">
+        <v>7</v>
+      </c>
+      <c r="AV67">
+        <v>6</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>1</v>
+      </c>
+      <c r="AY67">
+        <v>13</v>
+      </c>
+      <c r="AZ67">
+        <v>7</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
         <v>1.34</v>
       </c>
-      <c r="U67">
-        <v>3</v>
-      </c>
-      <c r="V67">
-        <v>2.6</v>
-      </c>
-      <c r="W67">
-        <v>1.44</v>
-      </c>
-      <c r="X67">
-        <v>6.4</v>
-      </c>
-      <c r="Y67">
-        <v>1.09</v>
-      </c>
-      <c r="Z67">
-        <v>1.59</v>
-      </c>
-      <c r="AA67">
-        <v>4.1</v>
-      </c>
-      <c r="AB67">
-        <v>4.9</v>
-      </c>
-      <c r="AC67">
-        <v>1.04</v>
-      </c>
-      <c r="AD67">
-        <v>13</v>
-      </c>
-      <c r="AE67">
-        <v>1.25</v>
-      </c>
-      <c r="AF67">
-        <v>3.75</v>
-      </c>
-      <c r="AG67">
-        <v>1.75</v>
-      </c>
-      <c r="AH67">
-        <v>1.95</v>
-      </c>
-      <c r="AI67">
-        <v>1.83</v>
-      </c>
-      <c r="AJ67">
-        <v>1.95</v>
-      </c>
-      <c r="AK67">
-        <v>1.15</v>
-      </c>
-      <c r="AL67">
-        <v>1.2</v>
-      </c>
-      <c r="AM67">
-        <v>2.35</v>
-      </c>
-      <c r="AN67">
-        <v>1</v>
-      </c>
-      <c r="AO67">
-        <v>0.75</v>
-      </c>
-      <c r="AP67">
-        <v>1.25</v>
-      </c>
-      <c r="AQ67">
-        <v>1</v>
-      </c>
-      <c r="AR67">
-        <v>1.61</v>
-      </c>
-      <c r="AS67">
-        <v>1.14</v>
-      </c>
-      <c r="AT67">
-        <v>2.75</v>
-      </c>
-      <c r="AU67">
-        <v>4</v>
-      </c>
-      <c r="AV67">
-        <v>5</v>
-      </c>
-      <c r="AW67">
-        <v>12</v>
-      </c>
-      <c r="AX67">
-        <v>5</v>
-      </c>
-      <c r="AY67">
-        <v>16</v>
-      </c>
-      <c r="AZ67">
-        <v>10</v>
-      </c>
-      <c r="BA67">
-        <v>8</v>
-      </c>
-      <c r="BB67">
-        <v>3</v>
-      </c>
-      <c r="BC67">
-        <v>11</v>
-      </c>
-      <c r="BD67">
-        <v>1.27</v>
-      </c>
       <c r="BE67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF67">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="BG67">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="BH67">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="BI67">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="BJ67">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BK67">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="BL67">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="BM67">
+        <v>1.98</v>
+      </c>
+      <c r="BN67">
         <v>1.72</v>
       </c>
-      <c r="BN67">
-        <v>1.98</v>
-      </c>
       <c r="BO67">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="BP67">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14902,7 +14902,7 @@
         <v>3</v>
       </c>
       <c r="O68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P68" t="s">
         <v>201</v>
@@ -15069,7 +15069,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7296596</v>
+        <v>7296593</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15084,190 +15084,190 @@
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="Q69">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="R69">
         <v>2.3</v>
       </c>
       <c r="S69">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="T69">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="U69">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="V69">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>6.4</v>
+      </c>
+      <c r="Y69">
+        <v>1.09</v>
+      </c>
+      <c r="Z69">
+        <v>1.59</v>
+      </c>
+      <c r="AA69">
+        <v>4.1</v>
+      </c>
+      <c r="AB69">
+        <v>4.9</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>13</v>
+      </c>
+      <c r="AE69">
+        <v>1.25</v>
+      </c>
+      <c r="AF69">
+        <v>3.75</v>
+      </c>
+      <c r="AG69">
+        <v>1.75</v>
+      </c>
+      <c r="AH69">
+        <v>1.95</v>
+      </c>
+      <c r="AI69">
+        <v>1.83</v>
+      </c>
+      <c r="AJ69">
+        <v>1.95</v>
+      </c>
+      <c r="AK69">
+        <v>1.15</v>
+      </c>
+      <c r="AL69">
+        <v>1.2</v>
+      </c>
+      <c r="AM69">
+        <v>2.35</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>0.75</v>
+      </c>
+      <c r="AP69">
+        <v>1.25</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1.61</v>
+      </c>
+      <c r="AS69">
+        <v>1.14</v>
+      </c>
+      <c r="AT69">
+        <v>2.75</v>
+      </c>
+      <c r="AU69">
+        <v>4</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>12</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>10</v>
+      </c>
+      <c r="BA69">
+        <v>8</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>11</v>
+      </c>
+      <c r="BD69">
+        <v>1.27</v>
+      </c>
+      <c r="BE69">
+        <v>8</v>
+      </c>
+      <c r="BF69">
+        <v>3.65</v>
+      </c>
+      <c r="BG69">
+        <v>1.15</v>
+      </c>
+      <c r="BH69">
+        <v>4.6</v>
+      </c>
+      <c r="BI69">
+        <v>1.26</v>
+      </c>
+      <c r="BJ69">
+        <v>3.4</v>
+      </c>
+      <c r="BK69">
         <v>1.45</v>
       </c>
-      <c r="X69">
-        <v>6.1</v>
-      </c>
-      <c r="Y69">
-        <v>1.08</v>
-      </c>
-      <c r="Z69">
-        <v>1.77</v>
-      </c>
-      <c r="AA69">
-        <v>3.65</v>
-      </c>
-      <c r="AB69">
-        <v>4.2</v>
-      </c>
-      <c r="AC69">
-        <v>1.03</v>
-      </c>
-      <c r="AD69">
-        <v>9</v>
-      </c>
-      <c r="AE69">
-        <v>1.24</v>
-      </c>
-      <c r="AF69">
-        <v>3.55</v>
-      </c>
-      <c r="AG69">
-        <v>1.83</v>
-      </c>
-      <c r="AH69">
-        <v>1.94</v>
-      </c>
-      <c r="AI69">
-        <v>1.74</v>
-      </c>
-      <c r="AJ69">
-        <v>1.97</v>
-      </c>
-      <c r="AK69">
-        <v>1.22</v>
-      </c>
-      <c r="AL69">
-        <v>1.26</v>
-      </c>
-      <c r="AM69">
+      <c r="BL69">
+        <v>2.55</v>
+      </c>
+      <c r="BM69">
+        <v>1.72</v>
+      </c>
+      <c r="BN69">
         <v>1.98</v>
       </c>
-      <c r="AN69">
-        <v>1.67</v>
-      </c>
-      <c r="AO69">
-        <v>0.67</v>
-      </c>
-      <c r="AP69">
-        <v>1.83</v>
-      </c>
-      <c r="AQ69">
-        <v>0.43</v>
-      </c>
-      <c r="AR69">
-        <v>1.81</v>
-      </c>
-      <c r="AS69">
-        <v>1.13</v>
-      </c>
-      <c r="AT69">
-        <v>2.94</v>
-      </c>
-      <c r="AU69">
-        <v>7</v>
-      </c>
-      <c r="AV69">
-        <v>6</v>
-      </c>
-      <c r="AW69">
-        <v>6</v>
-      </c>
-      <c r="AX69">
-        <v>1</v>
-      </c>
-      <c r="AY69">
-        <v>13</v>
-      </c>
-      <c r="AZ69">
-        <v>7</v>
-      </c>
-      <c r="BA69">
-        <v>5</v>
-      </c>
-      <c r="BB69">
-        <v>5</v>
-      </c>
-      <c r="BC69">
-        <v>10</v>
-      </c>
-      <c r="BD69">
-        <v>1.34</v>
-      </c>
-      <c r="BE69">
-        <v>7</v>
-      </c>
-      <c r="BF69">
-        <v>3.3</v>
-      </c>
-      <c r="BG69">
-        <v>1.23</v>
-      </c>
-      <c r="BH69">
-        <v>3.7</v>
-      </c>
-      <c r="BI69">
-        <v>1.38</v>
-      </c>
-      <c r="BJ69">
-        <v>2.7</v>
-      </c>
-      <c r="BK69">
-        <v>1.64</v>
-      </c>
-      <c r="BL69">
-        <v>2.1</v>
-      </c>
-      <c r="BM69">
-        <v>1.98</v>
-      </c>
-      <c r="BN69">
-        <v>1.72</v>
-      </c>
       <c r="BO69">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="BP69">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15275,7 +15275,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7296597</v>
+        <v>7296591</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15290,190 +15290,190 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H70" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="Q70">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R70">
         <v>2.25</v>
       </c>
       <c r="S70">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T70">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="U70">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V70">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="W70">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X70">
-        <v>7</v>
+        <v>5.95</v>
       </c>
       <c r="Y70">
         <v>1.1</v>
       </c>
       <c r="Z70">
-        <v>2.43</v>
+        <v>2.34</v>
       </c>
       <c r="AA70">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AB70">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AC70">
         <v>1.03</v>
       </c>
       <c r="AD70">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE70">
         <v>1.22</v>
       </c>
       <c r="AF70">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AG70">
+        <v>1.81</v>
+      </c>
+      <c r="AH70">
+        <v>1.97</v>
+      </c>
+      <c r="AI70">
+        <v>1.6</v>
+      </c>
+      <c r="AJ70">
+        <v>2.25</v>
+      </c>
+      <c r="AK70">
+        <v>1.45</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.6</v>
+      </c>
+      <c r="AN70">
+        <v>0.25</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>1.17</v>
+      </c>
+      <c r="AR70">
+        <v>1.65</v>
+      </c>
+      <c r="AS70">
         <v>1.75</v>
       </c>
-      <c r="AH70">
-        <v>1.95</v>
-      </c>
-      <c r="AI70">
-        <v>1.62</v>
-      </c>
-      <c r="AJ70">
-        <v>2.2</v>
-      </c>
-      <c r="AK70">
-        <v>1.49</v>
-      </c>
-      <c r="AL70">
-        <v>1.28</v>
-      </c>
-      <c r="AM70">
-        <v>1.5</v>
-      </c>
-      <c r="AN70">
-        <v>1.75</v>
-      </c>
-      <c r="AO70">
-        <v>0.5</v>
-      </c>
-      <c r="AP70">
-        <v>1.14</v>
-      </c>
-      <c r="AQ70">
-        <v>1.13</v>
-      </c>
-      <c r="AR70">
-        <v>1.56</v>
-      </c>
-      <c r="AS70">
-        <v>1.08</v>
-      </c>
       <c r="AT70">
-        <v>2.64</v>
+        <v>3.4</v>
       </c>
       <c r="AU70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW70">
         <v>8</v>
       </c>
       <c r="AX70">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AY70">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ70">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="BA70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB70">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BC70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD70">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="BE70">
         <v>6.75</v>
       </c>
       <c r="BF70">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="BG70">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BH70">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="BI70">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BJ70">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BK70">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BL70">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="BM70">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BN70">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="BO70">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BP70">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15687,7 +15687,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7296594</v>
+        <v>7296598</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15702,190 +15702,190 @@
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M72">
         <v>1</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="Q72">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="R72">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S72">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T72">
         <v>1.36</v>
       </c>
       <c r="U72">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="V72">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="W72">
         <v>1.44</v>
       </c>
       <c r="X72">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y72">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z72">
-        <v>1.46</v>
+        <v>3.47</v>
       </c>
       <c r="AA72">
-        <v>4.13</v>
+        <v>2.42</v>
       </c>
       <c r="AB72">
-        <v>5.54</v>
+        <v>2.45</v>
       </c>
       <c r="AC72">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD72">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AE72">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF72">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
       <c r="AG72">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AH72">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AI72">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AJ72">
         <v>2.1</v>
       </c>
       <c r="AK72">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AL72">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM72">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AN72">
-        <v>2.33</v>
+        <v>0.75</v>
       </c>
       <c r="AO72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AQ72">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AR72">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="AS72">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AT72">
-        <v>3.08</v>
+        <v>2.63</v>
       </c>
       <c r="AU72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW72">
+        <v>2</v>
+      </c>
+      <c r="AX72">
+        <v>1</v>
+      </c>
+      <c r="AY72">
+        <v>2</v>
+      </c>
+      <c r="AZ72">
         <v>3</v>
       </c>
-      <c r="AX72">
-        <v>3</v>
-      </c>
-      <c r="AY72">
-        <v>5</v>
-      </c>
-      <c r="AZ72">
+      <c r="BA72">
         <v>8</v>
       </c>
-      <c r="BA72">
-        <v>7</v>
-      </c>
       <c r="BB72">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="BC72">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="BD72">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="BE72">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF72">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BG72">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="BH72">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BI72">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BJ72">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BK72">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BL72">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BM72">
+        <v>1.75</v>
+      </c>
+      <c r="BN72">
         <v>1.95</v>
       </c>
-      <c r="BN72">
-        <v>1.85</v>
-      </c>
       <c r="BO72">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="BP72">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15893,7 +15893,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7296598</v>
+        <v>7296594</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15908,190 +15908,190 @@
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O73" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="Q73">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="R73">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S73">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T73">
         <v>1.36</v>
       </c>
       <c r="U73">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="V73">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="W73">
         <v>1.44</v>
       </c>
       <c r="X73">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Y73">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z73">
-        <v>3.47</v>
+        <v>1.46</v>
       </c>
       <c r="AA73">
-        <v>2.42</v>
+        <v>4.13</v>
       </c>
       <c r="AB73">
-        <v>2.45</v>
+        <v>5.54</v>
       </c>
       <c r="AC73">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD73">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE73">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AF73">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="AG73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH73">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AI73">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AJ73">
         <v>2.1</v>
       </c>
       <c r="AK73">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AL73">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM73">
+        <v>1.57</v>
+      </c>
+      <c r="AN73">
+        <v>2.33</v>
+      </c>
+      <c r="AO73">
+        <v>0.75</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>1.43</v>
+      </c>
+      <c r="AR73">
+        <v>1.66</v>
+      </c>
+      <c r="AS73">
+        <v>1.42</v>
+      </c>
+      <c r="AT73">
+        <v>3.08</v>
+      </c>
+      <c r="AU73">
+        <v>2</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
+        <v>3</v>
+      </c>
+      <c r="AY73">
+        <v>5</v>
+      </c>
+      <c r="AZ73">
+        <v>8</v>
+      </c>
+      <c r="BA73">
+        <v>7</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>1.91</v>
+      </c>
+      <c r="BE73">
+        <v>8.5</v>
+      </c>
+      <c r="BF73">
+        <v>2.2</v>
+      </c>
+      <c r="BG73">
+        <v>1.17</v>
+      </c>
+      <c r="BH73">
+        <v>4.3</v>
+      </c>
+      <c r="BI73">
+        <v>1.3</v>
+      </c>
+      <c r="BJ73">
+        <v>3.05</v>
+      </c>
+      <c r="BK73">
         <v>1.5</v>
       </c>
-      <c r="AN73">
-        <v>0.75</v>
-      </c>
-      <c r="AO73">
-        <v>1</v>
-      </c>
-      <c r="AP73">
-        <v>1.43</v>
-      </c>
-      <c r="AQ73">
-        <v>1</v>
-      </c>
-      <c r="AR73">
-        <v>1.24</v>
-      </c>
-      <c r="AS73">
-        <v>1.39</v>
-      </c>
-      <c r="AT73">
-        <v>2.63</v>
-      </c>
-      <c r="AU73">
-        <v>0</v>
-      </c>
-      <c r="AV73">
-        <v>2</v>
-      </c>
-      <c r="AW73">
-        <v>2</v>
-      </c>
-      <c r="AX73">
-        <v>1</v>
-      </c>
-      <c r="AY73">
-        <v>2</v>
-      </c>
-      <c r="AZ73">
-        <v>3</v>
-      </c>
-      <c r="BA73">
-        <v>8</v>
-      </c>
-      <c r="BB73">
-        <v>18</v>
-      </c>
-      <c r="BC73">
-        <v>26</v>
-      </c>
-      <c r="BD73">
-        <v>1.84</v>
-      </c>
-      <c r="BE73">
-        <v>6.75</v>
-      </c>
-      <c r="BF73">
-        <v>2</v>
-      </c>
-      <c r="BG73">
-        <v>1.16</v>
-      </c>
-      <c r="BH73">
-        <v>4.6</v>
-      </c>
-      <c r="BI73">
-        <v>1.28</v>
-      </c>
-      <c r="BJ73">
-        <v>3.2</v>
-      </c>
-      <c r="BK73">
-        <v>1.48</v>
-      </c>
       <c r="BL73">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BM73">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="BN73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BO73">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="BP73">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16511,7 +16511,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7296604</v>
+        <v>7296600</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16526,19 +16526,19 @@
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>3</v>
@@ -16553,163 +16553,163 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="Q76">
+        <v>3.4</v>
+      </c>
+      <c r="R76">
+        <v>2.18</v>
+      </c>
+      <c r="S76">
+        <v>2.88</v>
+      </c>
+      <c r="T76">
+        <v>1.38</v>
+      </c>
+      <c r="U76">
+        <v>2.9</v>
+      </c>
+      <c r="V76">
+        <v>2.65</v>
+      </c>
+      <c r="W76">
+        <v>1.41</v>
+      </c>
+      <c r="X76">
+        <v>6.25</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
         <v>2.5</v>
       </c>
-      <c r="R76">
-        <v>2.28</v>
-      </c>
-      <c r="S76">
-        <v>3.8</v>
-      </c>
-      <c r="T76">
-        <v>1.32</v>
-      </c>
-      <c r="U76">
-        <v>3.05</v>
-      </c>
-      <c r="V76">
-        <v>2.5</v>
-      </c>
-      <c r="W76">
-        <v>1.46</v>
-      </c>
-      <c r="X76">
-        <v>5.8</v>
-      </c>
-      <c r="Y76">
-        <v>1.09</v>
-      </c>
-      <c r="Z76">
-        <v>1.97</v>
-      </c>
       <c r="AA76">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AB76">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="AC76">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD76">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE76">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF76">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AG76">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AH76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AI76">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AJ76">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AK76">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="AL76">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM76">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="AN76">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="AO76">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR76">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>1.19</v>
+        <v>0.9</v>
       </c>
       <c r="AT76">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AU76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX76">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AY76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ76">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BA76">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC76">
         <v>12</v>
       </c>
       <c r="BD76">
-        <v>1.65</v>
+        <v>2.43</v>
       </c>
       <c r="BE76">
         <v>6.75</v>
       </c>
       <c r="BF76">
+        <v>1.57</v>
+      </c>
+      <c r="BG76">
+        <v>1.19</v>
+      </c>
+      <c r="BH76">
+        <v>4.1</v>
+      </c>
+      <c r="BI76">
+        <v>1.33</v>
+      </c>
+      <c r="BJ76">
+        <v>2.95</v>
+      </c>
+      <c r="BK76">
+        <v>1.55</v>
+      </c>
+      <c r="BL76">
+        <v>2.25</v>
+      </c>
+      <c r="BM76">
+        <v>1.86</v>
+      </c>
+      <c r="BN76">
+        <v>1.82</v>
+      </c>
+      <c r="BO76">
         <v>2.3</v>
       </c>
-      <c r="BG76">
-        <v>1.15</v>
-      </c>
-      <c r="BH76">
-        <v>4.6</v>
-      </c>
-      <c r="BI76">
-        <v>1.27</v>
-      </c>
-      <c r="BJ76">
-        <v>3.3</v>
-      </c>
-      <c r="BK76">
-        <v>1.45</v>
-      </c>
-      <c r="BL76">
-        <v>2.55</v>
-      </c>
-      <c r="BM76">
-        <v>1.71</v>
-      </c>
-      <c r="BN76">
-        <v>2</v>
-      </c>
-      <c r="BO76">
-        <v>2.07</v>
-      </c>
       <c r="BP76">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16717,7 +16717,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7296600</v>
+        <v>7296604</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16732,19 +16732,19 @@
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H77" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -16759,163 +16759,163 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Q77">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="R77">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="S77">
-        <v>2.88</v>
+        <v>3.8</v>
       </c>
       <c r="T77">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="U77">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="V77">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="W77">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="X77">
-        <v>6.25</v>
+        <v>5.8</v>
       </c>
       <c r="Y77">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z77">
+        <v>1.97</v>
+      </c>
+      <c r="AA77">
+        <v>3.35</v>
+      </c>
+      <c r="AB77">
+        <v>3.55</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>13</v>
+      </c>
+      <c r="AE77">
+        <v>1.25</v>
+      </c>
+      <c r="AF77">
+        <v>3.75</v>
+      </c>
+      <c r="AG77">
+        <v>1.73</v>
+      </c>
+      <c r="AH77">
+        <v>2</v>
+      </c>
+      <c r="AI77">
+        <v>1.66</v>
+      </c>
+      <c r="AJ77">
+        <v>2.07</v>
+      </c>
+      <c r="AK77">
+        <v>1.29</v>
+      </c>
+      <c r="AL77">
+        <v>1.28</v>
+      </c>
+      <c r="AM77">
+        <v>1.79</v>
+      </c>
+      <c r="AN77">
+        <v>2.25</v>
+      </c>
+      <c r="AO77">
+        <v>1.25</v>
+      </c>
+      <c r="AP77">
         <v>2.5</v>
       </c>
-      <c r="AA77">
-        <v>3.25</v>
-      </c>
-      <c r="AB77">
-        <v>2.6</v>
-      </c>
-      <c r="AC77">
-        <v>1.04</v>
-      </c>
-      <c r="AD77">
-        <v>12</v>
-      </c>
-      <c r="AE77">
-        <v>1.3</v>
-      </c>
-      <c r="AF77">
-        <v>3.5</v>
-      </c>
-      <c r="AG77">
-        <v>1.91</v>
-      </c>
-      <c r="AH77">
-        <v>1.8</v>
-      </c>
-      <c r="AI77">
-        <v>1.71</v>
-      </c>
-      <c r="AJ77">
-        <v>2</v>
-      </c>
-      <c r="AK77">
-        <v>1.58</v>
-      </c>
-      <c r="AL77">
-        <v>1.3</v>
-      </c>
-      <c r="AM77">
-        <v>1.4</v>
-      </c>
-      <c r="AN77">
-        <v>1.6</v>
-      </c>
-      <c r="AO77">
-        <v>0.5</v>
-      </c>
-      <c r="AP77">
-        <v>1.57</v>
-      </c>
       <c r="AQ77">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AS77">
-        <v>0.9</v>
+        <v>1.19</v>
       </c>
       <c r="AT77">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AU77">
+        <v>4</v>
+      </c>
+      <c r="AV77">
         <v>6</v>
       </c>
-      <c r="AV77">
+      <c r="AW77">
+        <v>4</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>8</v>
+      </c>
+      <c r="AZ77">
+        <v>9</v>
+      </c>
+      <c r="BA77">
         <v>7</v>
       </c>
-      <c r="AW77">
-        <v>3</v>
-      </c>
-      <c r="AX77">
-        <v>12</v>
-      </c>
-      <c r="AY77">
-        <v>9</v>
-      </c>
-      <c r="AZ77">
-        <v>19</v>
-      </c>
-      <c r="BA77">
-        <v>2</v>
-      </c>
       <c r="BB77">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BC77">
         <v>12</v>
       </c>
       <c r="BD77">
-        <v>2.43</v>
+        <v>1.65</v>
       </c>
       <c r="BE77">
         <v>6.75</v>
       </c>
       <c r="BF77">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="BG77">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="BH77">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="BI77">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="BJ77">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BK77">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="BL77">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="BM77">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="BN77">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="BO77">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="BP77">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -17129,7 +17129,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7296603</v>
+        <v>7296602</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17144,160 +17144,160 @@
         <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H79" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O79" t="s">
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="Q79">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>4.2</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.1</v>
+      </c>
+      <c r="V79">
+        <v>2.6</v>
+      </c>
+      <c r="W79">
+        <v>1.44</v>
+      </c>
+      <c r="X79">
+        <v>6.4</v>
+      </c>
+      <c r="Y79">
+        <v>1.09</v>
+      </c>
+      <c r="Z79">
+        <v>1.95</v>
+      </c>
+      <c r="AA79">
+        <v>3.65</v>
+      </c>
+      <c r="AB79">
+        <v>3.8</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>13</v>
+      </c>
+      <c r="AE79">
+        <v>1.25</v>
+      </c>
+      <c r="AF79">
+        <v>3.75</v>
+      </c>
+      <c r="AG79">
+        <v>1.83</v>
+      </c>
+      <c r="AH79">
+        <v>1.87</v>
+      </c>
+      <c r="AI79">
+        <v>1.7</v>
+      </c>
+      <c r="AJ79">
         <v>2.15</v>
       </c>
-      <c r="S79">
-        <v>3.25</v>
-      </c>
-      <c r="T79">
-        <v>1.4</v>
-      </c>
-      <c r="U79">
-        <v>2.82</v>
-      </c>
-      <c r="V79">
-        <v>2.86</v>
-      </c>
-      <c r="W79">
-        <v>1.39</v>
-      </c>
-      <c r="X79">
-        <v>7.2</v>
-      </c>
-      <c r="Y79">
-        <v>1.07</v>
-      </c>
-      <c r="Z79">
-        <v>2.56</v>
-      </c>
-      <c r="AA79">
-        <v>3.7</v>
-      </c>
-      <c r="AB79">
-        <v>2.56</v>
-      </c>
-      <c r="AC79">
-        <v>1.05</v>
-      </c>
-      <c r="AD79">
+      <c r="AK79">
+        <v>1.28</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
+        <v>1.87</v>
+      </c>
+      <c r="AN79">
+        <v>1.2</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>1.5</v>
+      </c>
+      <c r="AQ79">
+        <v>0.14</v>
+      </c>
+      <c r="AR79">
+        <v>1.74</v>
+      </c>
+      <c r="AS79">
+        <v>1.23</v>
+      </c>
+      <c r="AT79">
+        <v>2.97</v>
+      </c>
+      <c r="AU79">
+        <v>8</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>7</v>
+      </c>
+      <c r="AY79">
+        <v>13</v>
+      </c>
+      <c r="AZ79">
+        <v>12</v>
+      </c>
+      <c r="BA79">
+        <v>3</v>
+      </c>
+      <c r="BB79">
+        <v>8</v>
+      </c>
+      <c r="BC79">
         <v>11</v>
       </c>
-      <c r="AE79">
-        <v>1.3</v>
-      </c>
-      <c r="AF79">
-        <v>3.4</v>
-      </c>
-      <c r="AG79">
-        <v>1.7</v>
-      </c>
-      <c r="AH79">
-        <v>2.03</v>
-      </c>
-      <c r="AI79">
-        <v>1.75</v>
-      </c>
-      <c r="AJ79">
-        <v>2</v>
-      </c>
-      <c r="AK79">
-        <v>1.52</v>
-      </c>
-      <c r="AL79">
-        <v>1.25</v>
-      </c>
-      <c r="AM79">
-        <v>1.5</v>
-      </c>
-      <c r="AN79">
-        <v>2</v>
-      </c>
-      <c r="AO79">
-        <v>1.6</v>
-      </c>
-      <c r="AP79">
-        <v>1.57</v>
-      </c>
-      <c r="AQ79">
-        <v>1.14</v>
-      </c>
-      <c r="AR79">
-        <v>1.45</v>
-      </c>
-      <c r="AS79">
-        <v>1.45</v>
-      </c>
-      <c r="AT79">
-        <v>2.9</v>
-      </c>
-      <c r="AU79">
+      <c r="BD79">
+        <v>1.53</v>
+      </c>
+      <c r="BE79">
         <v>7</v>
       </c>
-      <c r="AV79">
-        <v>13</v>
-      </c>
-      <c r="AW79">
-        <v>4</v>
-      </c>
-      <c r="AX79">
-        <v>2</v>
-      </c>
-      <c r="AY79">
-        <v>11</v>
-      </c>
-      <c r="AZ79">
-        <v>15</v>
-      </c>
-      <c r="BA79">
-        <v>10</v>
-      </c>
-      <c r="BB79">
-        <v>14</v>
-      </c>
-      <c r="BC79">
-        <v>24</v>
-      </c>
-      <c r="BD79">
-        <v>1.98</v>
-      </c>
-      <c r="BE79">
-        <v>6.75</v>
-      </c>
       <c r="BF79">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="BG79">
         <v>1.19</v>
@@ -17306,28 +17306,28 @@
         <v>4.1</v>
       </c>
       <c r="BI79">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BJ79">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BK79">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="BL79">
+        <v>2.23</v>
+      </c>
+      <c r="BM79">
+        <v>1.89</v>
+      </c>
+      <c r="BN79">
+        <v>1.8</v>
+      </c>
+      <c r="BO79">
         <v>2.32</v>
       </c>
-      <c r="BM79">
-        <v>1.84</v>
-      </c>
-      <c r="BN79">
-        <v>1.84</v>
-      </c>
-      <c r="BO79">
-        <v>2.3</v>
-      </c>
       <c r="BP79">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17335,7 +17335,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7296602</v>
+        <v>7296603</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17350,160 +17350,160 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O80" t="s">
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="Q80">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="R80">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S80">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="T80">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U80">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="V80">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="W80">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="X80">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y80">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="Z80">
-        <v>1.95</v>
+        <v>2.56</v>
       </c>
       <c r="AA80">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AB80">
-        <v>3.8</v>
+        <v>2.56</v>
       </c>
       <c r="AC80">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD80">
+        <v>11</v>
+      </c>
+      <c r="AE80">
+        <v>1.3</v>
+      </c>
+      <c r="AF80">
+        <v>3.4</v>
+      </c>
+      <c r="AG80">
+        <v>1.7</v>
+      </c>
+      <c r="AH80">
+        <v>2.03</v>
+      </c>
+      <c r="AI80">
+        <v>1.75</v>
+      </c>
+      <c r="AJ80">
+        <v>2</v>
+      </c>
+      <c r="AK80">
+        <v>1.52</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.5</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>1.6</v>
+      </c>
+      <c r="AP80">
+        <v>1.57</v>
+      </c>
+      <c r="AQ80">
+        <v>1.14</v>
+      </c>
+      <c r="AR80">
+        <v>1.45</v>
+      </c>
+      <c r="AS80">
+        <v>1.45</v>
+      </c>
+      <c r="AT80">
+        <v>2.9</v>
+      </c>
+      <c r="AU80">
+        <v>7</v>
+      </c>
+      <c r="AV80">
         <v>13</v>
       </c>
-      <c r="AE80">
-        <v>1.25</v>
-      </c>
-      <c r="AF80">
-        <v>3.75</v>
-      </c>
-      <c r="AG80">
-        <v>1.83</v>
-      </c>
-      <c r="AH80">
-        <v>1.87</v>
-      </c>
-      <c r="AI80">
-        <v>1.7</v>
-      </c>
-      <c r="AJ80">
-        <v>2.15</v>
-      </c>
-      <c r="AK80">
-        <v>1.28</v>
-      </c>
-      <c r="AL80">
-        <v>1.22</v>
-      </c>
-      <c r="AM80">
-        <v>1.87</v>
-      </c>
-      <c r="AN80">
-        <v>1.2</v>
-      </c>
-      <c r="AO80">
-        <v>0</v>
-      </c>
-      <c r="AP80">
-        <v>1.5</v>
-      </c>
-      <c r="AQ80">
-        <v>0.14</v>
-      </c>
-      <c r="AR80">
-        <v>1.74</v>
-      </c>
-      <c r="AS80">
-        <v>1.23</v>
-      </c>
-      <c r="AT80">
-        <v>2.97</v>
-      </c>
-      <c r="AU80">
-        <v>8</v>
-      </c>
-      <c r="AV80">
-        <v>5</v>
-      </c>
       <c r="AW80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX80">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY80">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ80">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA80">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB80">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BC80">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="BD80">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="BE80">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF80">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="BG80">
         <v>1.19</v>
@@ -17512,28 +17512,28 @@
         <v>4.1</v>
       </c>
       <c r="BI80">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BJ80">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BK80">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="BL80">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="BM80">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="BN80">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="BO80">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="BP80">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17556,7 +17556,7 @@
         <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s">
         <v>79</v>
@@ -17762,7 +17762,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s">
         <v>82</v>
@@ -18177,7 +18177,7 @@
         <v>78</v>
       </c>
       <c r="H84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -19825,7 +19825,7 @@
         <v>83</v>
       </c>
       <c r="H92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -20646,7 +20646,7 @@
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s">
         <v>84</v>
@@ -21061,7 +21061,7 @@
         <v>84</v>
       </c>
       <c r="H98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -21082,7 +21082,7 @@
         <v>2</v>
       </c>
       <c r="O98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P98" t="s">
         <v>216</v>
@@ -21885,7 +21885,7 @@
         <v>83</v>
       </c>
       <c r="H102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -22730,7 +22730,7 @@
         <v>1</v>
       </c>
       <c r="O106" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P106" t="s">
         <v>90</v>
@@ -23118,10 +23118,10 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s">
         <v>80</v>
-      </c>
-      <c r="H108" t="s">
-        <v>81</v>
       </c>
       <c r="I108">
         <v>3</v>
@@ -23145,7 +23145,7 @@
         <v>166</v>
       </c>
       <c r="P108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23927,7 +23927,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7296635</v>
+        <v>7296631</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23942,88 +23942,88 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H112" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O112" t="s">
         <v>169</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="Q112">
-        <v>4.4</v>
+        <v>2.21</v>
       </c>
       <c r="R112">
-        <v>2.17</v>
+        <v>2.26</v>
       </c>
       <c r="S112">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="T112">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="U112">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="V112">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="W112">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X112">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="Y112">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z112">
-        <v>3.65</v>
+        <v>1.6</v>
       </c>
       <c r="AA112">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="AB112">
-        <v>1.89</v>
+        <v>4.8</v>
       </c>
       <c r="AC112">
         <v>1.01</v>
       </c>
       <c r="AD112">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE112">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF112">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="AG112">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AH112">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="AI112">
         <v>1.74</v>
@@ -24032,100 +24032,100 @@
         <v>1.98</v>
       </c>
       <c r="AK112">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="AL112">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AM112">
-        <v>1.24</v>
+        <v>2.13</v>
       </c>
       <c r="AN112">
-        <v>1.71</v>
+        <v>0.71</v>
       </c>
       <c r="AO112">
+        <v>1.17</v>
+      </c>
+      <c r="AP112">
+        <v>1</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.74</v>
+      </c>
+      <c r="AS112">
+        <v>1.13</v>
+      </c>
+      <c r="AT112">
+        <v>2.87</v>
+      </c>
+      <c r="AU112">
+        <v>11</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>8</v>
+      </c>
+      <c r="AX112">
+        <v>6</v>
+      </c>
+      <c r="AY112">
+        <v>19</v>
+      </c>
+      <c r="AZ112">
+        <v>11</v>
+      </c>
+      <c r="BA112">
+        <v>4</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>7</v>
+      </c>
+      <c r="BD112">
+        <v>1.43</v>
+      </c>
+      <c r="BE112">
+        <v>7</v>
+      </c>
+      <c r="BF112">
+        <v>2.9</v>
+      </c>
+      <c r="BG112">
+        <v>1.18</v>
+      </c>
+      <c r="BH112">
+        <v>4.1</v>
+      </c>
+      <c r="BI112">
         <v>1.33</v>
       </c>
-      <c r="AP112">
-        <v>1.5</v>
-      </c>
-      <c r="AQ112">
-        <v>1.57</v>
-      </c>
-      <c r="AR112">
-        <v>1.78</v>
-      </c>
-      <c r="AS112">
-        <v>1.79</v>
-      </c>
-      <c r="AT112">
-        <v>3.57</v>
-      </c>
-      <c r="AU112">
-        <v>5</v>
-      </c>
-      <c r="AV112">
-        <v>16</v>
-      </c>
-      <c r="AW112">
-        <v>7</v>
-      </c>
-      <c r="AX112">
-        <v>5</v>
-      </c>
-      <c r="AY112">
-        <v>12</v>
-      </c>
-      <c r="AZ112">
-        <v>21</v>
-      </c>
-      <c r="BA112">
-        <v>2</v>
-      </c>
-      <c r="BB112">
-        <v>7</v>
-      </c>
-      <c r="BC112">
-        <v>9</v>
-      </c>
-      <c r="BD112">
-        <v>2.4</v>
-      </c>
-      <c r="BE112">
-        <v>6.75</v>
-      </c>
-      <c r="BF112">
-        <v>1.63</v>
-      </c>
-      <c r="BG112">
-        <v>1.17</v>
-      </c>
-      <c r="BH112">
-        <v>4.35</v>
-      </c>
-      <c r="BI112">
-        <v>1.3</v>
-      </c>
       <c r="BJ112">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="BK112">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="BL112">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BM112">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="BN112">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="BO112">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BP112">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24133,7 +24133,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7296631</v>
+        <v>7296635</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24148,88 +24148,88 @@
         <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H113" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O113" t="s">
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="Q113">
-        <v>2.21</v>
+        <v>4.4</v>
       </c>
       <c r="R113">
-        <v>2.26</v>
+        <v>2.17</v>
       </c>
       <c r="S113">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="T113">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="U113">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="V113">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="W113">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="X113">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="Y113">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z113">
-        <v>1.6</v>
+        <v>3.65</v>
       </c>
       <c r="AA113">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="AB113">
-        <v>4.8</v>
+        <v>1.89</v>
       </c>
       <c r="AC113">
         <v>1.01</v>
       </c>
       <c r="AD113">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE113">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF113">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="AG113">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AH113">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="AI113">
         <v>1.74</v>
@@ -24238,100 +24238,100 @@
         <v>1.98</v>
       </c>
       <c r="AK113">
+        <v>1.87</v>
+      </c>
+      <c r="AL113">
+        <v>1.27</v>
+      </c>
+      <c r="AM113">
+        <v>1.24</v>
+      </c>
+      <c r="AN113">
+        <v>1.71</v>
+      </c>
+      <c r="AO113">
+        <v>1.33</v>
+      </c>
+      <c r="AP113">
+        <v>1.5</v>
+      </c>
+      <c r="AQ113">
+        <v>1.57</v>
+      </c>
+      <c r="AR113">
+        <v>1.78</v>
+      </c>
+      <c r="AS113">
+        <v>1.79</v>
+      </c>
+      <c r="AT113">
+        <v>3.57</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>16</v>
+      </c>
+      <c r="AW113">
+        <v>7</v>
+      </c>
+      <c r="AX113">
+        <v>5</v>
+      </c>
+      <c r="AY113">
+        <v>12</v>
+      </c>
+      <c r="AZ113">
+        <v>21</v>
+      </c>
+      <c r="BA113">
+        <v>2</v>
+      </c>
+      <c r="BB113">
+        <v>7</v>
+      </c>
+      <c r="BC113">
+        <v>9</v>
+      </c>
+      <c r="BD113">
+        <v>2.4</v>
+      </c>
+      <c r="BE113">
+        <v>6.75</v>
+      </c>
+      <c r="BF113">
+        <v>1.63</v>
+      </c>
+      <c r="BG113">
         <v>1.17</v>
       </c>
-      <c r="AL113">
-        <v>1.24</v>
-      </c>
-      <c r="AM113">
-        <v>2.13</v>
-      </c>
-      <c r="AN113">
-        <v>0.71</v>
-      </c>
-      <c r="AO113">
-        <v>1.17</v>
-      </c>
-      <c r="AP113">
-        <v>1</v>
-      </c>
-      <c r="AQ113">
-        <v>1</v>
-      </c>
-      <c r="AR113">
-        <v>1.74</v>
-      </c>
-      <c r="AS113">
-        <v>1.13</v>
-      </c>
-      <c r="AT113">
-        <v>2.87</v>
-      </c>
-      <c r="AU113">
-        <v>11</v>
-      </c>
-      <c r="AV113">
-        <v>5</v>
-      </c>
-      <c r="AW113">
-        <v>8</v>
-      </c>
-      <c r="AX113">
-        <v>6</v>
-      </c>
-      <c r="AY113">
-        <v>19</v>
-      </c>
-      <c r="AZ113">
-        <v>11</v>
-      </c>
-      <c r="BA113">
-        <v>4</v>
-      </c>
-      <c r="BB113">
-        <v>3</v>
-      </c>
-      <c r="BC113">
-        <v>7</v>
-      </c>
-      <c r="BD113">
-        <v>1.43</v>
-      </c>
-      <c r="BE113">
-        <v>7</v>
-      </c>
-      <c r="BF113">
-        <v>2.9</v>
-      </c>
-      <c r="BG113">
-        <v>1.18</v>
-      </c>
       <c r="BH113">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="BI113">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BJ113">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="BK113">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="BL113">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BM113">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="BN113">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BO113">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="BP113">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,21 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['16', '35']</t>
+  </si>
+  <si>
+    <t>['33', '84']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['7', '11']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -566,9 +581,6 @@
   </si>
   <si>
     <t>['60']</t>
-  </si>
-  <si>
-    <t>['7']</t>
   </si>
   <si>
     <t>['41']</t>
@@ -689,6 +701,18 @@
   </si>
   <si>
     <t>['33', '42', '68', '80']</t>
+  </si>
+  <si>
+    <t>['23', '39']</t>
+  </si>
+  <si>
+    <t>['51', '81', '84']</t>
+  </si>
+  <si>
+    <t>['25', '54']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1539,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1596,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1927,7 +1951,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2211,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2339,7 +2363,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2417,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2751,7 +2775,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2829,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ9">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3035,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3163,7 +3187,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3369,7 +3393,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3447,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ12">
         <v>0.71</v>
@@ -3656,7 +3680,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ13">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4065,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4271,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4399,7 +4423,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4480,7 +4504,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4811,7 +4835,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5429,7 +5453,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5510,7 +5534,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5635,7 +5659,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5716,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -5841,7 +5865,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -5919,10 +5943,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6125,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
         <v>0.71</v>
@@ -6331,7 +6355,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ26">
         <v>1.57</v>
@@ -6537,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
+        <v>1.38</v>
+      </c>
+      <c r="AQ27">
         <v>1.14</v>
-      </c>
-      <c r="AQ27">
-        <v>1.17</v>
       </c>
       <c r="AR27">
         <v>0.63</v>
@@ -6746,7 +6770,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6871,7 +6895,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6949,10 +6973,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7077,7 +7101,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7155,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ30">
         <v>0.43</v>
@@ -7283,7 +7307,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>2.7</v>
@@ -7567,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.71</v>
@@ -7695,7 +7719,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7776,7 +7800,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -8188,7 +8212,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8313,7 +8337,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8391,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1.13</v>
@@ -8519,7 +8543,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9009,10 +9033,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -9137,7 +9161,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9218,7 +9242,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9421,7 +9445,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9627,10 +9651,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -9833,10 +9857,10 @@
         <v>1.33</v>
       </c>
       <c r="AP43">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -9961,7 +9985,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10245,7 +10269,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
         <v>0.43</v>
@@ -10657,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.71</v>
@@ -10866,7 +10890,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10991,7 +11015,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11072,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11275,7 +11299,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11403,7 +11427,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11484,7 +11508,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11609,7 +11633,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11815,7 +11839,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11896,7 +11920,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ53">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12099,7 +12123,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12227,7 +12251,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12433,7 +12457,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12717,10 +12741,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -12845,7 +12869,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13132,7 +13156,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13335,10 +13359,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR60">
         <v>1.54</v>
@@ -13541,7 +13565,7 @@
         <v>0.25</v>
       </c>
       <c r="AP61">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ61">
         <v>0.63</v>
@@ -13669,7 +13693,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13747,10 +13771,10 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -13875,7 +13899,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -13956,7 +13980,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ63">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR63">
         <v>1.89</v>
@@ -14287,7 +14311,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14365,7 +14389,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -14699,7 +14723,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14777,7 +14801,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.43</v>
@@ -14905,7 +14929,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -14983,7 +15007,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15111,7 +15135,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15317,7 +15341,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15398,7 +15422,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR70">
         <v>1.65</v>
@@ -15523,7 +15547,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15601,10 +15625,10 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -15935,7 +15959,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16016,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -16141,7 +16165,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16219,7 +16243,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>1.57</v>
@@ -16347,7 +16371,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16425,7 +16449,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
         <v>0.63</v>
@@ -16553,7 +16577,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16631,7 +16655,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>0.71</v>
@@ -16759,7 +16783,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16837,10 +16861,10 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -16965,7 +16989,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17171,7 +17195,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17252,7 +17276,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17458,7 +17482,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17789,7 +17813,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17870,7 +17894,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ82">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18201,7 +18225,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18279,7 +18303,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>1.13</v>
@@ -18488,7 +18512,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18613,7 +18637,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18691,7 +18715,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19025,7 +19049,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19106,7 +19130,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ88">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR88">
         <v>1.45</v>
@@ -19231,7 +19255,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19518,7 +19542,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR90">
         <v>1.68</v>
@@ -19643,7 +19667,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19721,7 +19745,7 @@
         <v>1.83</v>
       </c>
       <c r="AP91">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>2</v>
@@ -19849,7 +19873,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -19927,10 +19951,10 @@
         <v>1.2</v>
       </c>
       <c r="AP92">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ92">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
         <v>0.98</v>
@@ -20055,7 +20079,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20545,7 +20569,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ95">
         <v>0.63</v>
@@ -20751,7 +20775,7 @@
         <v>0.83</v>
       </c>
       <c r="AP96">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -20960,7 +20984,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21085,7 +21109,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21163,10 +21187,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR98">
         <v>1.48</v>
@@ -21369,10 +21393,10 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21578,7 +21602,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21703,7 +21727,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21909,7 +21933,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -21987,7 +22011,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
         <v>1.13</v>
@@ -22193,10 +22217,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ103">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR103">
         <v>2.16</v>
@@ -22399,10 +22423,10 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22527,7 +22551,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22608,7 +22632,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR105">
         <v>1.43</v>
@@ -22939,7 +22963,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23351,7 +23375,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23557,7 +23581,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23763,7 +23787,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24175,7 +24199,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24332,6 +24356,1448 @@
       </c>
       <c r="BP113">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7296640</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45493.41666666666</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>75</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>171</v>
+      </c>
+      <c r="P114" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>2.3</v>
+      </c>
+      <c r="S114">
+        <v>3.25</v>
+      </c>
+      <c r="T114">
+        <v>1.29</v>
+      </c>
+      <c r="U114">
+        <v>3.3</v>
+      </c>
+      <c r="V114">
+        <v>2.4</v>
+      </c>
+      <c r="W114">
+        <v>1.51</v>
+      </c>
+      <c r="X114">
+        <v>5.45</v>
+      </c>
+      <c r="Y114">
+        <v>1.12</v>
+      </c>
+      <c r="Z114">
+        <v>2.25</v>
+      </c>
+      <c r="AA114">
+        <v>3.5</v>
+      </c>
+      <c r="AB114">
+        <v>2.6</v>
+      </c>
+      <c r="AC114">
+        <v>1.02</v>
+      </c>
+      <c r="AD114">
+        <v>15</v>
+      </c>
+      <c r="AE114">
+        <v>1.2</v>
+      </c>
+      <c r="AF114">
+        <v>4.33</v>
+      </c>
+      <c r="AG114">
+        <v>1.6</v>
+      </c>
+      <c r="AH114">
+        <v>2.17</v>
+      </c>
+      <c r="AI114">
+        <v>1.55</v>
+      </c>
+      <c r="AJ114">
+        <v>2.4</v>
+      </c>
+      <c r="AK114">
+        <v>1.47</v>
+      </c>
+      <c r="AL114">
+        <v>1.25</v>
+      </c>
+      <c r="AM114">
+        <v>1.57</v>
+      </c>
+      <c r="AN114">
+        <v>1.57</v>
+      </c>
+      <c r="AO114">
+        <v>1.17</v>
+      </c>
+      <c r="AP114">
+        <v>1.5</v>
+      </c>
+      <c r="AQ114">
+        <v>1.14</v>
+      </c>
+      <c r="AR114">
+        <v>1.35</v>
+      </c>
+      <c r="AS114">
+        <v>1.34</v>
+      </c>
+      <c r="AT114">
+        <v>2.69</v>
+      </c>
+      <c r="AU114">
+        <v>4</v>
+      </c>
+      <c r="AV114">
+        <v>4</v>
+      </c>
+      <c r="AW114">
+        <v>2</v>
+      </c>
+      <c r="AX114">
+        <v>9</v>
+      </c>
+      <c r="AY114">
+        <v>6</v>
+      </c>
+      <c r="AZ114">
+        <v>13</v>
+      </c>
+      <c r="BA114">
+        <v>2</v>
+      </c>
+      <c r="BB114">
+        <v>12</v>
+      </c>
+      <c r="BC114">
+        <v>14</v>
+      </c>
+      <c r="BD114">
+        <v>1.88</v>
+      </c>
+      <c r="BE114">
+        <v>6.4</v>
+      </c>
+      <c r="BF114">
+        <v>1.98</v>
+      </c>
+      <c r="BG114">
+        <v>1.21</v>
+      </c>
+      <c r="BH114">
+        <v>3.9</v>
+      </c>
+      <c r="BI114">
+        <v>1.38</v>
+      </c>
+      <c r="BJ114">
+        <v>2.8</v>
+      </c>
+      <c r="BK114">
+        <v>1.61</v>
+      </c>
+      <c r="BL114">
+        <v>2.15</v>
+      </c>
+      <c r="BM114">
+        <v>1.96</v>
+      </c>
+      <c r="BN114">
+        <v>1.74</v>
+      </c>
+      <c r="BO114">
+        <v>2.43</v>
+      </c>
+      <c r="BP114">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7296642</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45493.41666666666</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>77</v>
+      </c>
+      <c r="H115" t="s">
+        <v>70</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>172</v>
+      </c>
+      <c r="P115" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q115">
+        <v>1.66</v>
+      </c>
+      <c r="R115">
+        <v>2.9</v>
+      </c>
+      <c r="S115">
+        <v>7.5</v>
+      </c>
+      <c r="T115">
+        <v>1.19</v>
+      </c>
+      <c r="U115">
+        <v>4.25</v>
+      </c>
+      <c r="V115">
+        <v>1.99</v>
+      </c>
+      <c r="W115">
+        <v>1.74</v>
+      </c>
+      <c r="X115">
+        <v>4.15</v>
+      </c>
+      <c r="Y115">
+        <v>1.2</v>
+      </c>
+      <c r="Z115">
+        <v>1.2</v>
+      </c>
+      <c r="AA115">
+        <v>5.8</v>
+      </c>
+      <c r="AB115">
+        <v>9.5</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>29</v>
+      </c>
+      <c r="AE115">
+        <v>1.11</v>
+      </c>
+      <c r="AF115">
+        <v>6.5</v>
+      </c>
+      <c r="AG115">
+        <v>1.36</v>
+      </c>
+      <c r="AH115">
+        <v>2.89</v>
+      </c>
+      <c r="AI115">
+        <v>1.72</v>
+      </c>
+      <c r="AJ115">
+        <v>2.05</v>
+      </c>
+      <c r="AK115">
+        <v>1.02</v>
+      </c>
+      <c r="AL115">
+        <v>1.09</v>
+      </c>
+      <c r="AM115">
+        <v>3.75</v>
+      </c>
+      <c r="AN115">
+        <v>2.14</v>
+      </c>
+      <c r="AO115">
+        <v>0.14</v>
+      </c>
+      <c r="AP115">
+        <v>2.25</v>
+      </c>
+      <c r="AQ115">
+        <v>0.13</v>
+      </c>
+      <c r="AR115">
+        <v>2.2</v>
+      </c>
+      <c r="AS115">
+        <v>1.31</v>
+      </c>
+      <c r="AT115">
+        <v>3.51</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>0</v>
+      </c>
+      <c r="AW115">
+        <v>0</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>4</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>9</v>
+      </c>
+      <c r="BB115">
+        <v>3</v>
+      </c>
+      <c r="BC115">
+        <v>12</v>
+      </c>
+      <c r="BD115">
+        <v>1.19</v>
+      </c>
+      <c r="BE115">
+        <v>8.5</v>
+      </c>
+      <c r="BF115">
+        <v>4.4</v>
+      </c>
+      <c r="BG115">
+        <v>1.14</v>
+      </c>
+      <c r="BH115">
+        <v>4.8</v>
+      </c>
+      <c r="BI115">
+        <v>1.26</v>
+      </c>
+      <c r="BJ115">
+        <v>3.4</v>
+      </c>
+      <c r="BK115">
+        <v>1.43</v>
+      </c>
+      <c r="BL115">
+        <v>2.55</v>
+      </c>
+      <c r="BM115">
+        <v>1.68</v>
+      </c>
+      <c r="BN115">
+        <v>2.05</v>
+      </c>
+      <c r="BO115">
+        <v>2.02</v>
+      </c>
+      <c r="BP115">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7296645</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45493.41666666666</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" t="s">
+        <v>85</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>90</v>
+      </c>
+      <c r="P116" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q116">
+        <v>3.1</v>
+      </c>
+      <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
+        <v>3.75</v>
+      </c>
+      <c r="T116">
+        <v>1.42</v>
+      </c>
+      <c r="U116">
+        <v>2.65</v>
+      </c>
+      <c r="V116">
+        <v>2.95</v>
+      </c>
+      <c r="W116">
+        <v>1.35</v>
+      </c>
+      <c r="X116">
+        <v>7.85</v>
+      </c>
+      <c r="Y116">
+        <v>1.05</v>
+      </c>
+      <c r="Z116">
+        <v>2.2</v>
+      </c>
+      <c r="AA116">
+        <v>3.2</v>
+      </c>
+      <c r="AB116">
+        <v>2.9</v>
+      </c>
+      <c r="AC116">
+        <v>1.06</v>
+      </c>
+      <c r="AD116">
+        <v>9.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.35</v>
+      </c>
+      <c r="AF116">
+        <v>3.2</v>
+      </c>
+      <c r="AG116">
+        <v>1.98</v>
+      </c>
+      <c r="AH116">
+        <v>1.73</v>
+      </c>
+      <c r="AI116">
+        <v>1.83</v>
+      </c>
+      <c r="AJ116">
+        <v>1.95</v>
+      </c>
+      <c r="AK116">
+        <v>1.38</v>
+      </c>
+      <c r="AL116">
+        <v>1.28</v>
+      </c>
+      <c r="AM116">
+        <v>1.6</v>
+      </c>
+      <c r="AN116">
+        <v>1.5</v>
+      </c>
+      <c r="AO116">
+        <v>1.67</v>
+      </c>
+      <c r="AP116">
+        <v>1.29</v>
+      </c>
+      <c r="AQ116">
+        <v>1.86</v>
+      </c>
+      <c r="AR116">
+        <v>1.55</v>
+      </c>
+      <c r="AS116">
+        <v>1.42</v>
+      </c>
+      <c r="AT116">
+        <v>2.97</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
+        <v>11</v>
+      </c>
+      <c r="AX116">
+        <v>4</v>
+      </c>
+      <c r="AY116">
+        <v>14</v>
+      </c>
+      <c r="AZ116">
+        <v>9</v>
+      </c>
+      <c r="BA116">
+        <v>8</v>
+      </c>
+      <c r="BB116">
+        <v>3</v>
+      </c>
+      <c r="BC116">
+        <v>11</v>
+      </c>
+      <c r="BD116">
+        <v>1.74</v>
+      </c>
+      <c r="BE116">
+        <v>6.75</v>
+      </c>
+      <c r="BF116">
+        <v>2.15</v>
+      </c>
+      <c r="BG116">
+        <v>1.22</v>
+      </c>
+      <c r="BH116">
+        <v>3.8</v>
+      </c>
+      <c r="BI116">
+        <v>1.4</v>
+      </c>
+      <c r="BJ116">
+        <v>2.7</v>
+      </c>
+      <c r="BK116">
+        <v>1.65</v>
+      </c>
+      <c r="BL116">
+        <v>2.1</v>
+      </c>
+      <c r="BM116">
+        <v>1.98</v>
+      </c>
+      <c r="BN116">
+        <v>1.72</v>
+      </c>
+      <c r="BO116">
+        <v>2.48</v>
+      </c>
+      <c r="BP116">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7296639</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45493.5</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>71</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>90</v>
+      </c>
+      <c r="P117" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q117">
+        <v>2.65</v>
+      </c>
+      <c r="R117">
+        <v>2.3</v>
+      </c>
+      <c r="S117">
+        <v>3.75</v>
+      </c>
+      <c r="T117">
+        <v>1.29</v>
+      </c>
+      <c r="U117">
+        <v>3.3</v>
+      </c>
+      <c r="V117">
+        <v>2.4</v>
+      </c>
+      <c r="W117">
+        <v>1.51</v>
+      </c>
+      <c r="X117">
+        <v>5.45</v>
+      </c>
+      <c r="Y117">
+        <v>1.12</v>
+      </c>
+      <c r="Z117">
+        <v>1.84</v>
+      </c>
+      <c r="AA117">
+        <v>3.75</v>
+      </c>
+      <c r="AB117">
+        <v>3.6</v>
+      </c>
+      <c r="AC117">
+        <v>1.02</v>
+      </c>
+      <c r="AD117">
+        <v>15</v>
+      </c>
+      <c r="AE117">
+        <v>1.2</v>
+      </c>
+      <c r="AF117">
+        <v>4.33</v>
+      </c>
+      <c r="AG117">
+        <v>1.66</v>
+      </c>
+      <c r="AH117">
+        <v>2.08</v>
+      </c>
+      <c r="AI117">
+        <v>1.6</v>
+      </c>
+      <c r="AJ117">
+        <v>2.3</v>
+      </c>
+      <c r="AK117">
+        <v>1.33</v>
+      </c>
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>1.8</v>
+      </c>
+      <c r="AN117">
+        <v>1.57</v>
+      </c>
+      <c r="AO117">
+        <v>0.83</v>
+      </c>
+      <c r="AP117">
+        <v>1.5</v>
+      </c>
+      <c r="AQ117">
+        <v>0.86</v>
+      </c>
+      <c r="AR117">
+        <v>1.51</v>
+      </c>
+      <c r="AS117">
+        <v>1.3</v>
+      </c>
+      <c r="AT117">
+        <v>2.81</v>
+      </c>
+      <c r="AU117">
+        <v>7</v>
+      </c>
+      <c r="AV117">
+        <v>3</v>
+      </c>
+      <c r="AW117">
+        <v>12</v>
+      </c>
+      <c r="AX117">
+        <v>2</v>
+      </c>
+      <c r="AY117">
+        <v>19</v>
+      </c>
+      <c r="AZ117">
+        <v>5</v>
+      </c>
+      <c r="BA117">
+        <v>6</v>
+      </c>
+      <c r="BB117">
+        <v>5</v>
+      </c>
+      <c r="BC117">
+        <v>11</v>
+      </c>
+      <c r="BD117">
+        <v>1.69</v>
+      </c>
+      <c r="BE117">
+        <v>8.5</v>
+      </c>
+      <c r="BF117">
+        <v>2.53</v>
+      </c>
+      <c r="BG117">
+        <v>1.19</v>
+      </c>
+      <c r="BH117">
+        <v>4.1</v>
+      </c>
+      <c r="BI117">
+        <v>1.27</v>
+      </c>
+      <c r="BJ117">
+        <v>3.28</v>
+      </c>
+      <c r="BK117">
+        <v>1.49</v>
+      </c>
+      <c r="BL117">
+        <v>2.38</v>
+      </c>
+      <c r="BM117">
+        <v>1.98</v>
+      </c>
+      <c r="BN117">
+        <v>1.82</v>
+      </c>
+      <c r="BO117">
+        <v>2.34</v>
+      </c>
+      <c r="BP117">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7296644</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45494.33333333334</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>80</v>
+      </c>
+      <c r="H118" t="s">
+        <v>82</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>173</v>
+      </c>
+      <c r="P118" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q118">
+        <v>2.5</v>
+      </c>
+      <c r="R118">
+        <v>2.25</v>
+      </c>
+      <c r="S118">
+        <v>4.33</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.1</v>
+      </c>
+      <c r="V118">
+        <v>2.6</v>
+      </c>
+      <c r="W118">
+        <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>6.4</v>
+      </c>
+      <c r="Y118">
+        <v>1.09</v>
+      </c>
+      <c r="Z118">
+        <v>1.86</v>
+      </c>
+      <c r="AA118">
+        <v>3.66</v>
+      </c>
+      <c r="AB118">
+        <v>3.86</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>13</v>
+      </c>
+      <c r="AE118">
+        <v>1.25</v>
+      </c>
+      <c r="AF118">
+        <v>3.75</v>
+      </c>
+      <c r="AG118">
+        <v>1.83</v>
+      </c>
+      <c r="AH118">
+        <v>1.85</v>
+      </c>
+      <c r="AI118">
+        <v>1.7</v>
+      </c>
+      <c r="AJ118">
+        <v>2.1</v>
+      </c>
+      <c r="AK118">
+        <v>1.25</v>
+      </c>
+      <c r="AL118">
+        <v>1.22</v>
+      </c>
+      <c r="AM118">
+        <v>1.9</v>
+      </c>
+      <c r="AN118">
+        <v>2.5</v>
+      </c>
+      <c r="AO118">
+        <v>1.14</v>
+      </c>
+      <c r="AP118">
+        <v>2.14</v>
+      </c>
+      <c r="AQ118">
+        <v>1.38</v>
+      </c>
+      <c r="AR118">
+        <v>1.45</v>
+      </c>
+      <c r="AS118">
+        <v>1.37</v>
+      </c>
+      <c r="AT118">
+        <v>2.82</v>
+      </c>
+      <c r="AU118">
+        <v>5</v>
+      </c>
+      <c r="AV118">
+        <v>5</v>
+      </c>
+      <c r="AW118">
+        <v>4</v>
+      </c>
+      <c r="AX118">
+        <v>2</v>
+      </c>
+      <c r="AY118">
+        <v>9</v>
+      </c>
+      <c r="AZ118">
+        <v>7</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>6</v>
+      </c>
+      <c r="BC118">
+        <v>13</v>
+      </c>
+      <c r="BD118">
+        <v>1.51</v>
+      </c>
+      <c r="BE118">
+        <v>9</v>
+      </c>
+      <c r="BF118">
+        <v>3.06</v>
+      </c>
+      <c r="BG118">
+        <v>1.19</v>
+      </c>
+      <c r="BH118">
+        <v>4.1</v>
+      </c>
+      <c r="BI118">
+        <v>1.3</v>
+      </c>
+      <c r="BJ118">
+        <v>3.08</v>
+      </c>
+      <c r="BK118">
+        <v>1.54</v>
+      </c>
+      <c r="BL118">
+        <v>2.25</v>
+      </c>
+      <c r="BM118">
+        <v>1.88</v>
+      </c>
+      <c r="BN118">
+        <v>1.92</v>
+      </c>
+      <c r="BO118">
+        <v>2.45</v>
+      </c>
+      <c r="BP118">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7296643</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45494.33333333334</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s">
+        <v>81</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>174</v>
+      </c>
+      <c r="P119" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q119">
+        <v>3.3</v>
+      </c>
+      <c r="R119">
+        <v>2.15</v>
+      </c>
+      <c r="S119">
+        <v>3.25</v>
+      </c>
+      <c r="T119">
+        <v>1.32</v>
+      </c>
+      <c r="U119">
+        <v>2.95</v>
+      </c>
+      <c r="V119">
+        <v>2.6</v>
+      </c>
+      <c r="W119">
+        <v>1.4</v>
+      </c>
+      <c r="X119">
+        <v>5.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.1</v>
+      </c>
+      <c r="Z119">
+        <v>2.72</v>
+      </c>
+      <c r="AA119">
+        <v>3.35</v>
+      </c>
+      <c r="AB119">
+        <v>2.48</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>11</v>
+      </c>
+      <c r="AE119">
+        <v>1.28</v>
+      </c>
+      <c r="AF119">
+        <v>3.6</v>
+      </c>
+      <c r="AG119">
+        <v>1.87</v>
+      </c>
+      <c r="AH119">
+        <v>1.9</v>
+      </c>
+      <c r="AI119">
+        <v>1.68</v>
+      </c>
+      <c r="AJ119">
+        <v>2.15</v>
+      </c>
+      <c r="AK119">
+        <v>1.5</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.47</v>
+      </c>
+      <c r="AN119">
+        <v>1.83</v>
+      </c>
+      <c r="AO119">
+        <v>1.43</v>
+      </c>
+      <c r="AP119">
+        <v>2</v>
+      </c>
+      <c r="AQ119">
+        <v>1.25</v>
+      </c>
+      <c r="AR119">
+        <v>1.65</v>
+      </c>
+      <c r="AS119">
+        <v>1.25</v>
+      </c>
+      <c r="AT119">
+        <v>2.9</v>
+      </c>
+      <c r="AU119">
+        <v>3</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>9</v>
+      </c>
+      <c r="AX119">
+        <v>8</v>
+      </c>
+      <c r="AY119">
+        <v>12</v>
+      </c>
+      <c r="AZ119">
+        <v>13</v>
+      </c>
+      <c r="BA119">
+        <v>8</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>13</v>
+      </c>
+      <c r="BD119">
+        <v>1.91</v>
+      </c>
+      <c r="BE119">
+        <v>8.5</v>
+      </c>
+      <c r="BF119">
+        <v>2.1</v>
+      </c>
+      <c r="BG119">
+        <v>1.21</v>
+      </c>
+      <c r="BH119">
+        <v>3.9</v>
+      </c>
+      <c r="BI119">
+        <v>1.3</v>
+      </c>
+      <c r="BJ119">
+        <v>3.08</v>
+      </c>
+      <c r="BK119">
+        <v>1.53</v>
+      </c>
+      <c r="BL119">
+        <v>2.27</v>
+      </c>
+      <c r="BM119">
+        <v>1.98</v>
+      </c>
+      <c r="BN119">
+        <v>1.82</v>
+      </c>
+      <c r="BO119">
+        <v>2.45</v>
+      </c>
+      <c r="BP119">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7296641</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45494.41666666666</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>83</v>
+      </c>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>175</v>
+      </c>
+      <c r="P120" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q120">
+        <v>4.5</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>2.35</v>
+      </c>
+      <c r="T120">
+        <v>1.3</v>
+      </c>
+      <c r="U120">
+        <v>3.2</v>
+      </c>
+      <c r="V120">
+        <v>2.5</v>
+      </c>
+      <c r="W120">
+        <v>1.48</v>
+      </c>
+      <c r="X120">
+        <v>5.95</v>
+      </c>
+      <c r="Y120">
+        <v>1.1</v>
+      </c>
+      <c r="Z120">
+        <v>4.1</v>
+      </c>
+      <c r="AA120">
+        <v>3.9</v>
+      </c>
+      <c r="AB120">
+        <v>1.72</v>
+      </c>
+      <c r="AC120">
+        <v>1.02</v>
+      </c>
+      <c r="AD120">
+        <v>15</v>
+      </c>
+      <c r="AE120">
+        <v>1.22</v>
+      </c>
+      <c r="AF120">
+        <v>4.2</v>
+      </c>
+      <c r="AG120">
+        <v>1.72</v>
+      </c>
+      <c r="AH120">
+        <v>2</v>
+      </c>
+      <c r="AI120">
+        <v>1.68</v>
+      </c>
+      <c r="AJ120">
+        <v>2.1</v>
+      </c>
+      <c r="AK120">
+        <v>2.05</v>
+      </c>
+      <c r="AL120">
+        <v>1.2</v>
+      </c>
+      <c r="AM120">
+        <v>1.22</v>
+      </c>
+      <c r="AN120">
+        <v>1.14</v>
+      </c>
+      <c r="AO120">
+        <v>1.14</v>
+      </c>
+      <c r="AP120">
+        <v>1.38</v>
+      </c>
+      <c r="AQ120">
+        <v>1</v>
+      </c>
+      <c r="AR120">
+        <v>0.88</v>
+      </c>
+      <c r="AS120">
+        <v>1.52</v>
+      </c>
+      <c r="AT120">
+        <v>2.4</v>
+      </c>
+      <c r="AU120">
+        <v>4</v>
+      </c>
+      <c r="AV120">
+        <v>9</v>
+      </c>
+      <c r="AW120">
+        <v>5</v>
+      </c>
+      <c r="AX120">
+        <v>12</v>
+      </c>
+      <c r="AY120">
+        <v>9</v>
+      </c>
+      <c r="AZ120">
+        <v>21</v>
+      </c>
+      <c r="BA120">
+        <v>4</v>
+      </c>
+      <c r="BB120">
+        <v>8</v>
+      </c>
+      <c r="BC120">
+        <v>12</v>
+      </c>
+      <c r="BD120">
+        <v>2.91</v>
+      </c>
+      <c r="BE120">
+        <v>8.5</v>
+      </c>
+      <c r="BF120">
+        <v>1.55</v>
+      </c>
+      <c r="BG120">
+        <v>1.2</v>
+      </c>
+      <c r="BH120">
+        <v>4.1</v>
+      </c>
+      <c r="BI120">
+        <v>1.26</v>
+      </c>
+      <c r="BJ120">
+        <v>3.34</v>
+      </c>
+      <c r="BK120">
+        <v>1.47</v>
+      </c>
+      <c r="BL120">
+        <v>2.42</v>
+      </c>
+      <c r="BM120">
+        <v>1.95</v>
+      </c>
+      <c r="BN120">
+        <v>1.85</v>
+      </c>
+      <c r="BO120">
+        <v>2.28</v>
+      </c>
+      <c r="BP120">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,9 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -713,6 +716,9 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1539,7 +1545,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1951,7 +1957,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2363,7 +2369,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2775,7 +2781,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3187,7 +3193,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3265,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
         <v>1.57</v>
@@ -3393,7 +3399,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4092,7 +4098,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4423,7 +4429,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4835,7 +4841,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5119,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ20">
         <v>0.63</v>
@@ -5453,7 +5459,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5659,7 +5665,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5865,7 +5871,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6895,7 +6901,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7101,7 +7107,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7388,7 +7394,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7719,7 +7725,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8337,7 +8343,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8543,7 +8549,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9161,7 +9167,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9985,7 +9991,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10066,7 +10072,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10887,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48">
         <v>1.14</v>
@@ -11015,7 +11021,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11427,7 +11433,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11633,7 +11639,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11714,7 +11720,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -11839,7 +11845,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11917,7 +11923,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ53">
         <v>0.86</v>
@@ -12251,7 +12257,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12457,7 +12463,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12869,7 +12875,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13693,7 +13699,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13899,7 +13905,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14311,7 +14317,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14723,7 +14729,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14929,7 +14935,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15010,7 +15016,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR68">
         <v>2.08</v>
@@ -15135,7 +15141,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15341,7 +15347,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15547,7 +15553,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15831,7 +15837,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -15959,7 +15965,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16165,7 +16171,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16371,7 +16377,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16577,7 +16583,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16783,7 +16789,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16989,7 +16995,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17070,7 +17076,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR78">
         <v>1.64</v>
@@ -17195,7 +17201,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17813,7 +17819,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18225,7 +18231,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18637,7 +18643,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19049,7 +19055,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19255,7 +19261,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19333,7 +19339,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19667,7 +19673,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19748,7 +19754,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR91">
         <v>1.45</v>
@@ -19873,7 +19879,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20079,7 +20085,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -21109,7 +21115,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21727,7 +21733,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21805,7 +21811,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>0.43</v>
@@ -21933,7 +21939,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22551,7 +22557,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22963,7 +22969,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23375,7 +23381,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23581,7 +23587,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23787,7 +23793,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24199,7 +24205,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24405,7 +24411,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24817,7 +24823,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25229,7 +25235,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25435,7 +25441,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25798,6 +25804,212 @@
       </c>
       <c r="BP120">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7296646</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45495.58333333334</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s">
+        <v>72</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>176</v>
+      </c>
+      <c r="P121" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q121">
+        <v>3.5</v>
+      </c>
+      <c r="R121">
+        <v>2.2</v>
+      </c>
+      <c r="S121">
+        <v>2.95</v>
+      </c>
+      <c r="T121">
+        <v>1.34</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>2.6</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>6.45</v>
+      </c>
+      <c r="Y121">
+        <v>1.09</v>
+      </c>
+      <c r="Z121">
+        <v>2.75</v>
+      </c>
+      <c r="AA121">
+        <v>3.25</v>
+      </c>
+      <c r="AB121">
+        <v>2.25</v>
+      </c>
+      <c r="AC121">
+        <v>1.04</v>
+      </c>
+      <c r="AD121">
+        <v>13</v>
+      </c>
+      <c r="AE121">
+        <v>1.25</v>
+      </c>
+      <c r="AF121">
+        <v>3.75</v>
+      </c>
+      <c r="AG121">
+        <v>1.75</v>
+      </c>
+      <c r="AH121">
+        <v>1.95</v>
+      </c>
+      <c r="AI121">
+        <v>1.66</v>
+      </c>
+      <c r="AJ121">
+        <v>2.2</v>
+      </c>
+      <c r="AK121">
+        <v>1.62</v>
+      </c>
+      <c r="AL121">
+        <v>1.25</v>
+      </c>
+      <c r="AM121">
+        <v>1.4</v>
+      </c>
+      <c r="AN121">
+        <v>1.43</v>
+      </c>
+      <c r="AO121">
+        <v>2</v>
+      </c>
+      <c r="AP121">
+        <v>1.38</v>
+      </c>
+      <c r="AQ121">
+        <v>1.88</v>
+      </c>
+      <c r="AR121">
+        <v>1.16</v>
+      </c>
+      <c r="AS121">
+        <v>1.51</v>
+      </c>
+      <c r="AT121">
+        <v>2.67</v>
+      </c>
+      <c r="AU121">
+        <v>3</v>
+      </c>
+      <c r="AV121">
+        <v>7</v>
+      </c>
+      <c r="AW121">
+        <v>1</v>
+      </c>
+      <c r="AX121">
+        <v>11</v>
+      </c>
+      <c r="AY121">
+        <v>4</v>
+      </c>
+      <c r="AZ121">
+        <v>18</v>
+      </c>
+      <c r="BA121">
+        <v>1</v>
+      </c>
+      <c r="BB121">
+        <v>10</v>
+      </c>
+      <c r="BC121">
+        <v>11</v>
+      </c>
+      <c r="BD121">
+        <v>2.43</v>
+      </c>
+      <c r="BE121">
+        <v>9</v>
+      </c>
+      <c r="BF121">
+        <v>1.75</v>
+      </c>
+      <c r="BG121">
+        <v>1.22</v>
+      </c>
+      <c r="BH121">
+        <v>3.8</v>
+      </c>
+      <c r="BI121">
+        <v>1.25</v>
+      </c>
+      <c r="BJ121">
+        <v>3.42</v>
+      </c>
+      <c r="BK121">
+        <v>1.46</v>
+      </c>
+      <c r="BL121">
+        <v>2.45</v>
+      </c>
+      <c r="BM121">
+        <v>1.79</v>
+      </c>
+      <c r="BN121">
+        <v>1.92</v>
+      </c>
+      <c r="BO121">
+        <v>2.23</v>
+      </c>
+      <c r="BP121">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,9 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['69', '90']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -719,6 +722,9 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1545,7 +1551,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1832,7 +1838,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1957,7 +1963,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2369,7 +2375,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2781,7 +2787,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3193,7 +3199,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3399,7 +3405,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3889,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>0.43</v>
@@ -4429,7 +4435,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4841,7 +4847,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5334,7 +5340,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5459,7 +5465,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5665,7 +5671,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5871,7 +5877,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6773,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>0.13</v>
@@ -6901,7 +6907,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7107,7 +7113,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7725,7 +7731,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8343,7 +8349,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8424,7 +8430,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.08</v>
@@ -8549,7 +8555,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9167,7 +9173,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9991,7 +9997,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10481,7 +10487,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11021,7 +11027,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11433,7 +11439,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11639,7 +11645,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11845,7 +11851,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12257,7 +12263,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12338,7 +12344,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -12463,7 +12469,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12875,7 +12881,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -12953,7 +12959,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>1.57</v>
@@ -13699,7 +13705,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13905,7 +13911,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14317,7 +14323,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14604,7 +14610,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14729,7 +14735,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14935,7 +14941,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15141,7 +15147,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15347,7 +15353,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15553,7 +15559,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15965,7 +15971,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16171,7 +16177,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16377,7 +16383,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16583,7 +16589,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16789,7 +16795,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16995,7 +17001,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17201,7 +17207,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17485,7 +17491,7 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17819,7 +17825,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18231,7 +18237,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18312,7 +18318,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18643,7 +18649,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19055,7 +19061,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19261,7 +19267,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19673,7 +19679,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19879,7 +19885,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20085,7 +20091,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20163,7 +20169,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>0.71</v>
@@ -21115,7 +21121,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21733,7 +21739,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21939,7 +21945,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22020,7 +22026,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>0.86</v>
@@ -22557,7 +22563,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22969,7 +22975,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23256,7 +23262,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.94</v>
@@ -23381,7 +23387,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23587,7 +23593,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23665,7 +23671,7 @@
         <v>0.71</v>
       </c>
       <c r="AP110">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -23793,7 +23799,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24205,7 +24211,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24411,7 +24417,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24823,7 +24829,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25235,7 +25241,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25441,7 +25447,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25853,7 +25859,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26010,6 +26016,212 @@
       </c>
       <c r="BP121">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7296651</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45500.33333333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>82</v>
+      </c>
+      <c r="H122" t="s">
+        <v>80</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>177</v>
+      </c>
+      <c r="P122" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q122">
+        <v>3.1</v>
+      </c>
+      <c r="R122">
+        <v>2.25</v>
+      </c>
+      <c r="S122">
+        <v>3.2</v>
+      </c>
+      <c r="T122">
+        <v>1.31</v>
+      </c>
+      <c r="U122">
+        <v>3.2</v>
+      </c>
+      <c r="V122">
+        <v>2.55</v>
+      </c>
+      <c r="W122">
+        <v>1.46</v>
+      </c>
+      <c r="X122">
+        <v>5.95</v>
+      </c>
+      <c r="Y122">
+        <v>1.1</v>
+      </c>
+      <c r="Z122">
+        <v>2.3</v>
+      </c>
+      <c r="AA122">
+        <v>3.55</v>
+      </c>
+      <c r="AB122">
+        <v>2.77</v>
+      </c>
+      <c r="AC122">
+        <v>1.03</v>
+      </c>
+      <c r="AD122">
+        <v>15</v>
+      </c>
+      <c r="AE122">
+        <v>1.22</v>
+      </c>
+      <c r="AF122">
+        <v>4</v>
+      </c>
+      <c r="AG122">
+        <v>1.72</v>
+      </c>
+      <c r="AH122">
+        <v>1.93</v>
+      </c>
+      <c r="AI122">
+        <v>1.6</v>
+      </c>
+      <c r="AJ122">
+        <v>2.25</v>
+      </c>
+      <c r="AK122">
+        <v>1.5</v>
+      </c>
+      <c r="AL122">
+        <v>1.25</v>
+      </c>
+      <c r="AM122">
+        <v>1.53</v>
+      </c>
+      <c r="AN122">
+        <v>1.57</v>
+      </c>
+      <c r="AO122">
+        <v>1.13</v>
+      </c>
+      <c r="AP122">
+        <v>1.75</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.51</v>
+      </c>
+      <c r="AS122">
+        <v>1.43</v>
+      </c>
+      <c r="AT122">
+        <v>2.94</v>
+      </c>
+      <c r="AU122">
+        <v>5</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>9</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>14</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>9</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>13</v>
+      </c>
+      <c r="BD122">
+        <v>1.79</v>
+      </c>
+      <c r="BE122">
+        <v>6.75</v>
+      </c>
+      <c r="BF122">
+        <v>2.05</v>
+      </c>
+      <c r="BG122">
+        <v>1.16</v>
+      </c>
+      <c r="BH122">
+        <v>4.6</v>
+      </c>
+      <c r="BI122">
+        <v>1.28</v>
+      </c>
+      <c r="BJ122">
+        <v>3.3</v>
+      </c>
+      <c r="BK122">
+        <v>1.48</v>
+      </c>
+      <c r="BL122">
+        <v>2.48</v>
+      </c>
+      <c r="BM122">
+        <v>1.74</v>
+      </c>
+      <c r="BN122">
+        <v>1.97</v>
+      </c>
+      <c r="BO122">
+        <v>2.15</v>
+      </c>
+      <c r="BP122">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,12 @@
     <t>['69', '90']</t>
   </si>
   <si>
+    <t>['56', '87']</t>
+  </si>
+  <si>
+    <t>['79', '85']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -725,6 +731,9 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1551,7 +1560,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1963,7 +1972,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2250,7 +2259,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2375,7 +2384,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2662,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2787,7 +2796,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3071,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
         <v>1.14</v>
@@ -3199,7 +3208,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3405,7 +3414,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3689,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ13">
         <v>0.13</v>
@@ -4435,7 +4444,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4722,7 +4731,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -4847,7 +4856,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5465,7 +5474,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5671,7 +5680,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5877,7 +5886,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6907,7 +6916,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -6985,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
         <v>0.86</v>
@@ -7113,7 +7122,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7606,7 +7615,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -7731,7 +7740,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7809,7 +7818,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -8018,7 +8027,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ34">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -8349,7 +8358,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8555,7 +8564,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9173,7 +9182,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9997,7 +10006,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10075,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ44">
         <v>1.88</v>
@@ -10490,7 +10499,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10693,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ47">
         <v>0.71</v>
@@ -11027,7 +11036,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11439,7 +11448,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11645,7 +11654,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11851,7 +11860,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12138,7 +12147,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12263,7 +12272,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12469,7 +12478,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12881,7 +12890,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13705,7 +13714,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13911,7 +13920,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -13989,7 +13998,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ63">
         <v>0.86</v>
@@ -14323,7 +14332,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14404,7 +14413,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -14735,7 +14744,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14813,7 +14822,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
         <v>0.43</v>
@@ -14941,7 +14950,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15147,7 +15156,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15228,7 +15237,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15353,7 +15362,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15559,7 +15568,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15971,7 +15980,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16177,7 +16186,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16383,7 +16392,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16589,7 +16598,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16795,7 +16804,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17001,7 +17010,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17207,7 +17216,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17697,10 +17706,10 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR81">
         <v>1.9</v>
@@ -17825,7 +17834,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17903,7 +17912,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ82">
         <v>1.38</v>
@@ -18237,7 +18246,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18315,7 +18324,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18649,7 +18658,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19061,7 +19070,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19267,7 +19276,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19348,7 +19357,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>1.03</v>
@@ -19679,7 +19688,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19885,7 +19894,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20091,7 +20100,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20172,7 +20181,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR93">
         <v>1.46</v>
@@ -21121,7 +21130,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21405,7 +21414,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ99">
         <v>1.38</v>
@@ -21739,7 +21748,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21945,7 +21954,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22563,7 +22572,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22850,7 +22859,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ106">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR106">
         <v>1.49</v>
@@ -22975,7 +22984,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23259,7 +23268,7 @@
         <v>1.29</v>
       </c>
       <c r="AP108">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23387,7 +23396,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23593,7 +23602,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23799,7 +23808,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24086,7 +24095,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24211,7 +24220,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24417,7 +24426,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24829,7 +24838,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25241,7 +25250,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25447,7 +25456,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25525,7 +25534,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ119">
         <v>1.25</v>
@@ -25859,7 +25868,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26065,7 +26074,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26222,6 +26231,418 @@
       </c>
       <c r="BP122">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7296652</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45500.41666666666</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" t="s">
+        <v>79</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>178</v>
+      </c>
+      <c r="P123" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q123">
+        <v>2.3</v>
+      </c>
+      <c r="R123">
+        <v>2.25</v>
+      </c>
+      <c r="S123">
+        <v>4.75</v>
+      </c>
+      <c r="T123">
+        <v>1.36</v>
+      </c>
+      <c r="U123">
+        <v>3</v>
+      </c>
+      <c r="V123">
+        <v>2.63</v>
+      </c>
+      <c r="W123">
+        <v>1.44</v>
+      </c>
+      <c r="X123">
+        <v>7</v>
+      </c>
+      <c r="Y123">
+        <v>1.1</v>
+      </c>
+      <c r="Z123">
+        <v>1.93</v>
+      </c>
+      <c r="AA123">
+        <v>3.63</v>
+      </c>
+      <c r="AB123">
+        <v>3.52</v>
+      </c>
+      <c r="AC123">
+        <v>1.04</v>
+      </c>
+      <c r="AD123">
+        <v>8.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.22</v>
+      </c>
+      <c r="AF123">
+        <v>3.7</v>
+      </c>
+      <c r="AG123">
+        <v>1.67</v>
+      </c>
+      <c r="AH123">
+        <v>2</v>
+      </c>
+      <c r="AI123">
+        <v>1.8</v>
+      </c>
+      <c r="AJ123">
+        <v>1.95</v>
+      </c>
+      <c r="AK123">
+        <v>1.24</v>
+      </c>
+      <c r="AL123">
+        <v>1.26</v>
+      </c>
+      <c r="AM123">
+        <v>1.9</v>
+      </c>
+      <c r="AN123">
+        <v>2</v>
+      </c>
+      <c r="AO123">
+        <v>0.71</v>
+      </c>
+      <c r="AP123">
+        <v>2.13</v>
+      </c>
+      <c r="AQ123">
+        <v>0.63</v>
+      </c>
+      <c r="AR123">
+        <v>1.59</v>
+      </c>
+      <c r="AS123">
+        <v>1.53</v>
+      </c>
+      <c r="AT123">
+        <v>3.12</v>
+      </c>
+      <c r="AU123">
+        <v>10</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>16</v>
+      </c>
+      <c r="AZ123">
+        <v>3</v>
+      </c>
+      <c r="BA123">
+        <v>6</v>
+      </c>
+      <c r="BB123">
+        <v>1</v>
+      </c>
+      <c r="BC123">
+        <v>7</v>
+      </c>
+      <c r="BD123">
+        <v>1.52</v>
+      </c>
+      <c r="BE123">
+        <v>6.75</v>
+      </c>
+      <c r="BF123">
+        <v>2.55</v>
+      </c>
+      <c r="BG123">
+        <v>1.17</v>
+      </c>
+      <c r="BH123">
+        <v>4.35</v>
+      </c>
+      <c r="BI123">
+        <v>1.3</v>
+      </c>
+      <c r="BJ123">
+        <v>3.15</v>
+      </c>
+      <c r="BK123">
+        <v>1.5</v>
+      </c>
+      <c r="BL123">
+        <v>2.35</v>
+      </c>
+      <c r="BM123">
+        <v>1.81</v>
+      </c>
+      <c r="BN123">
+        <v>1.88</v>
+      </c>
+      <c r="BO123">
+        <v>2.23</v>
+      </c>
+      <c r="BP123">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7296654</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45500.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H124" t="s">
+        <v>83</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>179</v>
+      </c>
+      <c r="P124" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q124">
+        <v>1.91</v>
+      </c>
+      <c r="R124">
+        <v>2.48</v>
+      </c>
+      <c r="S124">
+        <v>6.67</v>
+      </c>
+      <c r="T124">
+        <v>1.32</v>
+      </c>
+      <c r="U124">
+        <v>3.25</v>
+      </c>
+      <c r="V124">
+        <v>2.63</v>
+      </c>
+      <c r="W124">
+        <v>1.46</v>
+      </c>
+      <c r="X124">
+        <v>5.95</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.49</v>
+      </c>
+      <c r="AA124">
+        <v>4.23</v>
+      </c>
+      <c r="AB124">
+        <v>5.65</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>10.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.21</v>
+      </c>
+      <c r="AF124">
+        <v>3.74</v>
+      </c>
+      <c r="AG124">
+        <v>1.64</v>
+      </c>
+      <c r="AH124">
+        <v>2.04</v>
+      </c>
+      <c r="AI124">
+        <v>1.9</v>
+      </c>
+      <c r="AJ124">
+        <v>1.85</v>
+      </c>
+      <c r="AK124">
+        <v>1.1</v>
+      </c>
+      <c r="AL124">
+        <v>1.16</v>
+      </c>
+      <c r="AM124">
+        <v>2.7</v>
+      </c>
+      <c r="AN124">
+        <v>2.29</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>2.38</v>
+      </c>
+      <c r="AQ124">
+        <v>0.88</v>
+      </c>
+      <c r="AR124">
+        <v>1.88</v>
+      </c>
+      <c r="AS124">
+        <v>1.16</v>
+      </c>
+      <c r="AT124">
+        <v>3.04</v>
+      </c>
+      <c r="AU124">
+        <v>21</v>
+      </c>
+      <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>12</v>
+      </c>
+      <c r="AX124">
+        <v>1</v>
+      </c>
+      <c r="AY124">
+        <v>33</v>
+      </c>
+      <c r="AZ124">
+        <v>5</v>
+      </c>
+      <c r="BA124">
+        <v>10</v>
+      </c>
+      <c r="BB124">
+        <v>4</v>
+      </c>
+      <c r="BC124">
+        <v>14</v>
+      </c>
+      <c r="BD124">
+        <v>1.28</v>
+      </c>
+      <c r="BE124">
+        <v>7</v>
+      </c>
+      <c r="BF124">
+        <v>3.65</v>
+      </c>
+      <c r="BG124">
+        <v>1.25</v>
+      </c>
+      <c r="BH124">
+        <v>3.55</v>
+      </c>
+      <c r="BI124">
+        <v>1.44</v>
+      </c>
+      <c r="BJ124">
+        <v>2.55</v>
+      </c>
+      <c r="BK124">
+        <v>1.72</v>
+      </c>
+      <c r="BL124">
+        <v>1.98</v>
+      </c>
+      <c r="BM124">
+        <v>2.08</v>
+      </c>
+      <c r="BN124">
+        <v>1.65</v>
+      </c>
+      <c r="BO124">
+        <v>2.65</v>
+      </c>
+      <c r="BP124">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['79', '85']</t>
   </si>
   <si>
+    <t>['9', '59']</t>
+  </si>
+  <si>
+    <t>['72', '85']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -734,6 +740,9 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['39', '64']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
         <v>0.63</v>
@@ -1560,7 +1569,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1844,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1972,7 +1981,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2384,7 +2393,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2668,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
         <v>0.63</v>
@@ -2796,7 +2805,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3083,7 +3092,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3208,7 +3217,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3414,7 +3423,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3495,7 +3504,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ12">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3907,7 +3916,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4444,7 +4453,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4728,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18">
         <v>0.88</v>
@@ -4856,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -4934,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5474,7 +5483,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5680,7 +5689,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5886,7 +5895,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6173,7 +6182,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6585,7 +6594,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>0.63</v>
@@ -6916,7 +6925,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7122,7 +7131,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7203,7 +7212,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ30">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7406,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
         <v>1.88</v>
@@ -7740,7 +7749,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8024,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
         <v>0.63</v>
@@ -8230,7 +8239,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8358,7 +8367,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8564,7 +8573,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9182,7 +9191,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -10006,7 +10015,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10293,7 +10302,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -10705,7 +10714,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -10911,7 +10920,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11036,7 +11045,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11448,7 +11457,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11654,7 +11663,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11732,7 +11741,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>1.88</v>
@@ -11860,7 +11869,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12272,7 +12281,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12478,7 +12487,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12556,7 +12565,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56">
         <v>0.63</v>
@@ -12890,7 +12899,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13714,7 +13723,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13920,7 +13929,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14204,10 +14213,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14332,7 +14341,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14616,7 +14625,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14744,7 +14753,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14825,7 +14834,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR67">
         <v>1.81</v>
@@ -14950,7 +14959,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15156,7 +15165,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15362,7 +15371,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15443,7 +15452,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.65</v>
@@ -15568,7 +15577,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15980,7 +15989,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16058,7 +16067,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ73">
         <v>1.25</v>
@@ -16186,7 +16195,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16392,7 +16401,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16598,7 +16607,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16679,7 +16688,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR76">
         <v>1.5</v>
@@ -16804,7 +16813,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17010,7 +17019,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17216,7 +17225,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17834,7 +17843,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18118,7 +18127,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83">
         <v>1.57</v>
@@ -18246,7 +18255,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18530,10 +18539,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18658,7 +18667,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18945,7 +18954,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -19070,7 +19079,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19148,7 +19157,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
         <v>1.86</v>
@@ -19276,7 +19285,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19688,7 +19697,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19894,7 +19903,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20100,7 +20109,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20387,7 +20396,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -21130,7 +21139,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21620,7 +21629,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ100">
         <v>0.13</v>
@@ -21748,7 +21757,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21829,7 +21838,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ101">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR101">
         <v>1.1</v>
@@ -21954,7 +21963,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22447,7 +22456,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ104">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22572,7 +22581,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22650,7 +22659,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ105">
         <v>0.86</v>
@@ -22984,7 +22993,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23062,10 +23071,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ107">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR107">
         <v>1.45</v>
@@ -23396,7 +23405,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23474,10 +23483,10 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR109">
         <v>1.45</v>
@@ -23602,7 +23611,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23808,7 +23817,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23886,7 +23895,7 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AQ111">
         <v>0.63</v>
@@ -24220,7 +24229,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24426,7 +24435,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24507,7 +24516,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.35</v>
@@ -24838,7 +24847,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25250,7 +25259,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25456,7 +25465,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25868,7 +25877,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26074,7 +26083,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26280,7 +26289,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26643,6 +26652,624 @@
       </c>
       <c r="BP124">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7296653</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45501.33333333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>73</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>180</v>
+      </c>
+      <c r="P125" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q125">
+        <v>3.1</v>
+      </c>
+      <c r="R125">
+        <v>2.25</v>
+      </c>
+      <c r="S125">
+        <v>3.2</v>
+      </c>
+      <c r="T125">
+        <v>1.3</v>
+      </c>
+      <c r="U125">
+        <v>3.2</v>
+      </c>
+      <c r="V125">
+        <v>2.5</v>
+      </c>
+      <c r="W125">
+        <v>1.47</v>
+      </c>
+      <c r="X125">
+        <v>5.95</v>
+      </c>
+      <c r="Y125">
+        <v>1.1</v>
+      </c>
+      <c r="Z125">
+        <v>2.45</v>
+      </c>
+      <c r="AA125">
+        <v>3.55</v>
+      </c>
+      <c r="AB125">
+        <v>2.5</v>
+      </c>
+      <c r="AC125">
+        <v>1.03</v>
+      </c>
+      <c r="AD125">
+        <v>13</v>
+      </c>
+      <c r="AE125">
+        <v>1.22</v>
+      </c>
+      <c r="AF125">
+        <v>4.2</v>
+      </c>
+      <c r="AG125">
+        <v>1.67</v>
+      </c>
+      <c r="AH125">
+        <v>2.07</v>
+      </c>
+      <c r="AI125">
+        <v>1.57</v>
+      </c>
+      <c r="AJ125">
+        <v>2.3</v>
+      </c>
+      <c r="AK125">
+        <v>1.5</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.52</v>
+      </c>
+      <c r="AN125">
+        <v>1.14</v>
+      </c>
+      <c r="AO125">
+        <v>1.14</v>
+      </c>
+      <c r="AP125">
+        <v>1.38</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AR125">
+        <v>1.44</v>
+      </c>
+      <c r="AS125">
+        <v>1.32</v>
+      </c>
+      <c r="AT125">
+        <v>2.76</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>8</v>
+      </c>
+      <c r="AX125">
+        <v>7</v>
+      </c>
+      <c r="AY125">
+        <v>13</v>
+      </c>
+      <c r="AZ125">
+        <v>12</v>
+      </c>
+      <c r="BA125">
+        <v>3</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>1.98</v>
+      </c>
+      <c r="BE125">
+        <v>6.75</v>
+      </c>
+      <c r="BF125">
+        <v>1.89</v>
+      </c>
+      <c r="BG125">
+        <v>1.15</v>
+      </c>
+      <c r="BH125">
+        <v>4.8</v>
+      </c>
+      <c r="BI125">
+        <v>1.26</v>
+      </c>
+      <c r="BJ125">
+        <v>3.4</v>
+      </c>
+      <c r="BK125">
+        <v>1.45</v>
+      </c>
+      <c r="BL125">
+        <v>2.55</v>
+      </c>
+      <c r="BM125">
+        <v>1.72</v>
+      </c>
+      <c r="BN125">
+        <v>1.98</v>
+      </c>
+      <c r="BO125">
+        <v>2.08</v>
+      </c>
+      <c r="BP125">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7296648</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45501.41666666666</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>90</v>
+      </c>
+      <c r="P126" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q126">
+        <v>2.1</v>
+      </c>
+      <c r="R126">
+        <v>2.4</v>
+      </c>
+      <c r="S126">
+        <v>5</v>
+      </c>
+      <c r="T126">
+        <v>1.29</v>
+      </c>
+      <c r="U126">
+        <v>3.5</v>
+      </c>
+      <c r="V126">
+        <v>2.38</v>
+      </c>
+      <c r="W126">
+        <v>1.53</v>
+      </c>
+      <c r="X126">
+        <v>5.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.14</v>
+      </c>
+      <c r="Z126">
+        <v>1.5</v>
+      </c>
+      <c r="AA126">
+        <v>4.25</v>
+      </c>
+      <c r="AB126">
+        <v>5.4</v>
+      </c>
+      <c r="AC126">
+        <v>1.01</v>
+      </c>
+      <c r="AD126">
+        <v>12</v>
+      </c>
+      <c r="AE126">
+        <v>1.14</v>
+      </c>
+      <c r="AF126">
+        <v>4.7</v>
+      </c>
+      <c r="AG126">
+        <v>1.66</v>
+      </c>
+      <c r="AH126">
+        <v>2.08</v>
+      </c>
+      <c r="AI126">
+        <v>1.67</v>
+      </c>
+      <c r="AJ126">
+        <v>2.1</v>
+      </c>
+      <c r="AK126">
+        <v>1.14</v>
+      </c>
+      <c r="AL126">
+        <v>1.2</v>
+      </c>
+      <c r="AM126">
+        <v>2.38</v>
+      </c>
+      <c r="AN126">
+        <v>2.71</v>
+      </c>
+      <c r="AO126">
+        <v>0.43</v>
+      </c>
+      <c r="AP126">
+        <v>2.38</v>
+      </c>
+      <c r="AQ126">
+        <v>0.75</v>
+      </c>
+      <c r="AR126">
+        <v>1.56</v>
+      </c>
+      <c r="AS126">
+        <v>1.3</v>
+      </c>
+      <c r="AT126">
+        <v>2.86</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>2</v>
+      </c>
+      <c r="AW126">
+        <v>5</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>8</v>
+      </c>
+      <c r="AZ126">
+        <v>7</v>
+      </c>
+      <c r="BA126">
+        <v>6</v>
+      </c>
+      <c r="BB126">
+        <v>4</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>1.36</v>
+      </c>
+      <c r="BE126">
+        <v>7</v>
+      </c>
+      <c r="BF126">
+        <v>3.15</v>
+      </c>
+      <c r="BG126">
+        <v>1.2</v>
+      </c>
+      <c r="BH126">
+        <v>3.9</v>
+      </c>
+      <c r="BI126">
+        <v>1.36</v>
+      </c>
+      <c r="BJ126">
+        <v>2.8</v>
+      </c>
+      <c r="BK126">
+        <v>1.6</v>
+      </c>
+      <c r="BL126">
+        <v>2.17</v>
+      </c>
+      <c r="BM126">
+        <v>1.95</v>
+      </c>
+      <c r="BN126">
+        <v>1.75</v>
+      </c>
+      <c r="BO126">
+        <v>2.43</v>
+      </c>
+      <c r="BP126">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7296650</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45501.41666666666</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>74</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>181</v>
+      </c>
+      <c r="P127" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q127">
+        <v>2.5</v>
+      </c>
+      <c r="R127">
+        <v>2.25</v>
+      </c>
+      <c r="S127">
+        <v>4.33</v>
+      </c>
+      <c r="T127">
+        <v>1.33</v>
+      </c>
+      <c r="U127">
+        <v>3.1</v>
+      </c>
+      <c r="V127">
+        <v>2.6</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>6.4</v>
+      </c>
+      <c r="Y127">
+        <v>1.09</v>
+      </c>
+      <c r="Z127">
+        <v>1.71</v>
+      </c>
+      <c r="AA127">
+        <v>3.75</v>
+      </c>
+      <c r="AB127">
+        <v>4.2</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>13</v>
+      </c>
+      <c r="AE127">
+        <v>1.25</v>
+      </c>
+      <c r="AF127">
+        <v>3.75</v>
+      </c>
+      <c r="AG127">
+        <v>1.79</v>
+      </c>
+      <c r="AH127">
+        <v>1.91</v>
+      </c>
+      <c r="AI127">
+        <v>1.7</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>1.25</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>1.9</v>
+      </c>
+      <c r="AN127">
+        <v>2</v>
+      </c>
+      <c r="AO127">
+        <v>0.71</v>
+      </c>
+      <c r="AP127">
+        <v>2.13</v>
+      </c>
+      <c r="AQ127">
+        <v>0.63</v>
+      </c>
+      <c r="AR127">
+        <v>1.58</v>
+      </c>
+      <c r="AS127">
+        <v>1.23</v>
+      </c>
+      <c r="AT127">
+        <v>2.81</v>
+      </c>
+      <c r="AU127">
+        <v>-1</v>
+      </c>
+      <c r="AV127">
+        <v>-1</v>
+      </c>
+      <c r="AW127">
+        <v>-1</v>
+      </c>
+      <c r="AX127">
+        <v>-1</v>
+      </c>
+      <c r="AY127">
+        <v>-1</v>
+      </c>
+      <c r="AZ127">
+        <v>-1</v>
+      </c>
+      <c r="BA127">
+        <v>-1</v>
+      </c>
+      <c r="BB127">
+        <v>-1</v>
+      </c>
+      <c r="BC127">
+        <v>-1</v>
+      </c>
+      <c r="BD127">
+        <v>1.53</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>2.55</v>
+      </c>
+      <c r="BG127">
+        <v>1.2</v>
+      </c>
+      <c r="BH127">
+        <v>4</v>
+      </c>
+      <c r="BI127">
+        <v>1.34</v>
+      </c>
+      <c r="BJ127">
+        <v>2.9</v>
+      </c>
+      <c r="BK127">
+        <v>1.58</v>
+      </c>
+      <c r="BL127">
+        <v>2.2</v>
+      </c>
+      <c r="BM127">
+        <v>1.91</v>
+      </c>
+      <c r="BN127">
+        <v>1.78</v>
+      </c>
+      <c r="BO127">
+        <v>2.38</v>
+      </c>
+      <c r="BP127">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,12 @@
     <t>['72', '85']</t>
   </si>
   <si>
+    <t>['16', '61', '62', '86']</t>
+  </si>
+  <si>
+    <t>['4', '7', '18']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -743,6 +749,12 @@
   </si>
   <si>
     <t>['39', '64']</t>
+  </si>
+  <si>
+    <t>['41', '54']</t>
+  </si>
+  <si>
+    <t>['22', '79']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1569,7 +1581,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1647,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3">
         <v>1.38</v>
@@ -1981,7 +1993,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2062,7 +2074,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2393,7 +2405,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2805,7 +2817,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3217,7 +3229,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3298,7 +3310,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3423,7 +3435,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4453,7 +4465,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4531,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4865,7 +4877,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -4946,7 +4958,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5483,7 +5495,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5561,7 +5573,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ22">
         <v>1.38</v>
@@ -5689,7 +5701,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5767,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5895,7 +5907,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6388,7 +6400,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6925,7 +6937,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7131,7 +7143,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7749,7 +7761,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8367,7 +8379,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8573,7 +8585,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8651,10 +8663,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -8857,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ38">
         <v>0.63</v>
@@ -9191,7 +9203,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9478,7 +9490,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -10015,7 +10027,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -11045,7 +11057,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11123,7 +11135,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ49">
         <v>1.86</v>
@@ -11332,7 +11344,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11457,7 +11469,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11663,7 +11675,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11869,7 +11881,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12281,7 +12293,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12359,7 +12371,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12487,7 +12499,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12899,7 +12911,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -12980,7 +12992,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13723,7 +13735,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13929,7 +13941,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14341,7 +14353,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14753,7 +14765,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14959,7 +14971,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15165,7 +15177,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15243,7 +15255,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69">
         <v>0.88</v>
@@ -15371,7 +15383,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15449,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15577,7 +15589,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15864,7 +15876,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR72">
         <v>1.24</v>
@@ -15989,7 +16001,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16195,7 +16207,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16276,7 +16288,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR74">
         <v>0.98</v>
@@ -16401,7 +16413,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16607,7 +16619,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16813,7 +16825,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17019,7 +17031,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17097,7 +17109,7 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ78">
         <v>1.88</v>
@@ -17225,7 +17237,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17843,7 +17855,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18130,7 +18142,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
         <v>1.38</v>
@@ -18255,7 +18267,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18667,7 +18679,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18748,7 +18760,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -18951,7 +18963,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ87">
         <v>0.75</v>
@@ -19079,7 +19091,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19285,7 +19297,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19569,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
         <v>0.13</v>
@@ -19697,7 +19709,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19903,7 +19915,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20109,7 +20121,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20393,7 +20405,7 @@
         <v>0.4</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ94">
         <v>0.63</v>
@@ -20808,7 +20820,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21139,7 +21151,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21757,7 +21769,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21963,7 +21975,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22581,7 +22593,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22865,7 +22877,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ106">
         <v>0.63</v>
@@ -22993,7 +23005,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23405,7 +23417,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23611,7 +23623,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23692,7 +23704,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -23817,7 +23829,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24101,7 +24113,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ112">
         <v>0.88</v>
@@ -24229,7 +24241,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24310,7 +24322,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24435,7 +24447,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24847,7 +24859,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25259,7 +25271,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25465,7 +25477,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25877,7 +25889,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26083,7 +26095,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26289,7 +26301,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26701,7 +26713,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26907,7 +26919,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27003,19 +27015,19 @@
         <v>3</v>
       </c>
       <c r="AV126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW126">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX126">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY126">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ126">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA126">
         <v>6</v>
@@ -27206,31 +27218,31 @@
         <v>2.81</v>
       </c>
       <c r="AU127">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV127">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW127">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX127">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY127">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ127">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA127">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB127">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC127">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD127">
         <v>1.53</v>
@@ -27270,6 +27282,418 @@
       </c>
       <c r="BP127">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7296647</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45502.58333333334</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>84</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>182</v>
+      </c>
+      <c r="P128" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q128">
+        <v>3</v>
+      </c>
+      <c r="R128">
+        <v>2.2</v>
+      </c>
+      <c r="S128">
+        <v>3.6</v>
+      </c>
+      <c r="T128">
+        <v>1.4</v>
+      </c>
+      <c r="U128">
+        <v>2.75</v>
+      </c>
+      <c r="V128">
+        <v>2.75</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>8</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
+        <v>2.3</v>
+      </c>
+      <c r="AA128">
+        <v>3.2</v>
+      </c>
+      <c r="AB128">
+        <v>2.95</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE128">
+        <v>1.26</v>
+      </c>
+      <c r="AF128">
+        <v>3.34</v>
+      </c>
+      <c r="AG128">
+        <v>1.98</v>
+      </c>
+      <c r="AH128">
+        <v>1.9</v>
+      </c>
+      <c r="AI128">
+        <v>1.7</v>
+      </c>
+      <c r="AJ128">
+        <v>2.05</v>
+      </c>
+      <c r="AK128">
+        <v>1.33</v>
+      </c>
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
+        <v>1.72</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>1</v>
+      </c>
+      <c r="AP128">
+        <v>1.22</v>
+      </c>
+      <c r="AQ128">
+        <v>0.89</v>
+      </c>
+      <c r="AR128">
+        <v>1.81</v>
+      </c>
+      <c r="AS128">
+        <v>1.22</v>
+      </c>
+      <c r="AT128">
+        <v>3.03</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>4</v>
+      </c>
+      <c r="AW128">
+        <v>6</v>
+      </c>
+      <c r="AX128">
+        <v>7</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>11</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>6</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>1.74</v>
+      </c>
+      <c r="BE128">
+        <v>6.75</v>
+      </c>
+      <c r="BF128">
+        <v>2.15</v>
+      </c>
+      <c r="BG128">
+        <v>1.17</v>
+      </c>
+      <c r="BH128">
+        <v>4.3</v>
+      </c>
+      <c r="BI128">
+        <v>1.3</v>
+      </c>
+      <c r="BJ128">
+        <v>3.15</v>
+      </c>
+      <c r="BK128">
+        <v>1.5</v>
+      </c>
+      <c r="BL128">
+        <v>2.4</v>
+      </c>
+      <c r="BM128">
+        <v>1.79</v>
+      </c>
+      <c r="BN128">
+        <v>1.9</v>
+      </c>
+      <c r="BO128">
+        <v>2.2</v>
+      </c>
+      <c r="BP128">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7296649</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45502.58333333334</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>85</v>
+      </c>
+      <c r="H129" t="s">
+        <v>77</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="O129" t="s">
+        <v>183</v>
+      </c>
+      <c r="P129" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+      <c r="R129">
+        <v>2.2</v>
+      </c>
+      <c r="S129">
+        <v>2.75</v>
+      </c>
+      <c r="T129">
+        <v>1.36</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>8</v>
+      </c>
+      <c r="Y129">
+        <v>1.08</v>
+      </c>
+      <c r="Z129">
+        <v>3.1</v>
+      </c>
+      <c r="AA129">
+        <v>3.5</v>
+      </c>
+      <c r="AB129">
+        <v>2.05</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE129">
+        <v>1.26</v>
+      </c>
+      <c r="AF129">
+        <v>3.34</v>
+      </c>
+      <c r="AG129">
+        <v>2.03</v>
+      </c>
+      <c r="AH129">
+        <v>1.85</v>
+      </c>
+      <c r="AI129">
+        <v>1.75</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>1.72</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.3</v>
+      </c>
+      <c r="AN129">
+        <v>1.25</v>
+      </c>
+      <c r="AO129">
+        <v>1.57</v>
+      </c>
+      <c r="AP129">
+        <v>1.44</v>
+      </c>
+      <c r="AQ129">
+        <v>1.38</v>
+      </c>
+      <c r="AR129">
+        <v>1.56</v>
+      </c>
+      <c r="AS129">
+        <v>1.95</v>
+      </c>
+      <c r="AT129">
+        <v>3.51</v>
+      </c>
+      <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
+        <v>10</v>
+      </c>
+      <c r="AW129">
+        <v>2</v>
+      </c>
+      <c r="AX129">
+        <v>2</v>
+      </c>
+      <c r="AY129">
+        <v>10</v>
+      </c>
+      <c r="AZ129">
+        <v>12</v>
+      </c>
+      <c r="BA129">
+        <v>5</v>
+      </c>
+      <c r="BB129">
+        <v>8</v>
+      </c>
+      <c r="BC129">
+        <v>13</v>
+      </c>
+      <c r="BD129">
+        <v>2.15</v>
+      </c>
+      <c r="BE129">
+        <v>6.75</v>
+      </c>
+      <c r="BF129">
+        <v>1.74</v>
+      </c>
+      <c r="BG129">
+        <v>1.17</v>
+      </c>
+      <c r="BH129">
+        <v>4.35</v>
+      </c>
+      <c r="BI129">
+        <v>1.3</v>
+      </c>
+      <c r="BJ129">
+        <v>3.1</v>
+      </c>
+      <c r="BK129">
+        <v>1.5</v>
+      </c>
+      <c r="BL129">
+        <v>2.38</v>
+      </c>
+      <c r="BM129">
+        <v>1.79</v>
+      </c>
+      <c r="BN129">
+        <v>1.9</v>
+      </c>
+      <c r="BO129">
+        <v>2.23</v>
+      </c>
+      <c r="BP129">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,9 @@
     <t>['4', '7', '18']</t>
   </si>
   <si>
+    <t>['33', '50', '59', '71']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -755,6 +758,9 @@
   </si>
   <si>
     <t>['22', '79']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1581,7 +1587,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1662,7 +1668,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ3">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1993,7 +1999,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2277,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2405,7 +2411,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2817,7 +2823,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3229,7 +3235,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3435,7 +3441,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4465,7 +4471,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4749,7 +4755,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ18">
         <v>0.88</v>
@@ -4877,7 +4883,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5164,7 +5170,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ20">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5495,7 +5501,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5576,7 +5582,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ22">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5701,7 +5707,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5907,7 +5913,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6937,7 +6943,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7143,7 +7149,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7633,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>0.63</v>
@@ -7761,7 +7767,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8045,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ34">
         <v>0.63</v>
@@ -8254,7 +8260,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8379,7 +8385,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8585,7 +8591,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8872,7 +8878,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ38">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -9075,7 +9081,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9203,7 +9209,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -10027,7 +10033,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -11057,7 +11063,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11469,7 +11475,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11550,7 +11556,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11675,7 +11681,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11753,7 +11759,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>1.88</v>
@@ -11881,7 +11887,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12293,7 +12299,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12499,7 +12505,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12580,7 +12586,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ56">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12783,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
         <v>1.25</v>
@@ -12911,7 +12917,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13610,7 +13616,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ61">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR61">
         <v>0.92</v>
@@ -13735,7 +13741,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13941,7 +13947,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14353,7 +14359,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14637,7 +14643,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14765,7 +14771,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14971,7 +14977,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15177,7 +15183,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15383,7 +15389,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15589,7 +15595,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15667,10 +15673,10 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -16001,7 +16007,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16207,7 +16213,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16413,7 +16419,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16494,7 +16500,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR75">
         <v>1.67</v>
@@ -16619,7 +16625,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16825,7 +16831,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17031,7 +17037,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17237,7 +17243,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17855,7 +17861,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17936,7 +17942,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ82">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18267,7 +18273,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18679,7 +18685,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18757,7 +18763,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86">
         <v>0.89</v>
@@ -19091,7 +19097,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19169,7 +19175,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ88">
         <v>1.86</v>
@@ -19297,7 +19303,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19709,7 +19715,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19915,7 +19921,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20121,7 +20127,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20614,7 +20620,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ95">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR95">
         <v>2.11</v>
@@ -21151,7 +21157,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21438,7 +21444,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ99">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21769,7 +21775,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21975,7 +21981,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22465,7 +22471,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22593,7 +22599,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23005,7 +23011,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23417,7 +23423,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23495,7 +23501,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ109">
         <v>0.63</v>
@@ -23623,7 +23629,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23829,7 +23835,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23910,7 +23916,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ111">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24241,7 +24247,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24447,7 +24453,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24859,7 +24865,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25143,7 +25149,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117">
         <v>0.86</v>
@@ -25271,7 +25277,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25352,7 +25358,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25477,7 +25483,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25889,7 +25895,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26095,7 +26101,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26301,7 +26307,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26713,7 +26719,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26791,7 +26797,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -26919,7 +26925,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27331,7 +27337,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27537,7 +27543,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27694,6 +27700,418 @@
       </c>
       <c r="BP129">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7296655</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45506.58333333334</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>184</v>
+      </c>
+      <c r="P130" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q130">
+        <v>2.69</v>
+      </c>
+      <c r="R130">
+        <v>2.14</v>
+      </c>
+      <c r="S130">
+        <v>3.76</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>2.99</v>
+      </c>
+      <c r="V130">
+        <v>2.6</v>
+      </c>
+      <c r="W130">
+        <v>1.46</v>
+      </c>
+      <c r="X130">
+        <v>6.35</v>
+      </c>
+      <c r="Y130">
+        <v>1.1</v>
+      </c>
+      <c r="Z130">
+        <v>2.1</v>
+      </c>
+      <c r="AA130">
+        <v>3.5</v>
+      </c>
+      <c r="AB130">
+        <v>2.9</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE130">
+        <v>1.22</v>
+      </c>
+      <c r="AF130">
+        <v>3.65</v>
+      </c>
+      <c r="AG130">
+        <v>1.72</v>
+      </c>
+      <c r="AH130">
+        <v>1.98</v>
+      </c>
+      <c r="AI130">
+        <v>1.63</v>
+      </c>
+      <c r="AJ130">
+        <v>2.14</v>
+      </c>
+      <c r="AK130">
+        <v>1.32</v>
+      </c>
+      <c r="AL130">
+        <v>1.29</v>
+      </c>
+      <c r="AM130">
+        <v>1.67</v>
+      </c>
+      <c r="AN130">
+        <v>1.5</v>
+      </c>
+      <c r="AO130">
+        <v>0.63</v>
+      </c>
+      <c r="AP130">
+        <v>1.67</v>
+      </c>
+      <c r="AQ130">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR130">
+        <v>1.57</v>
+      </c>
+      <c r="AS130">
+        <v>1.57</v>
+      </c>
+      <c r="AT130">
+        <v>3.14</v>
+      </c>
+      <c r="AU130">
+        <v>12</v>
+      </c>
+      <c r="AV130">
+        <v>4</v>
+      </c>
+      <c r="AW130">
+        <v>4</v>
+      </c>
+      <c r="AX130">
+        <v>1</v>
+      </c>
+      <c r="AY130">
+        <v>16</v>
+      </c>
+      <c r="AZ130">
+        <v>5</v>
+      </c>
+      <c r="BA130">
+        <v>6</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>1.66</v>
+      </c>
+      <c r="BE130">
+        <v>6.4</v>
+      </c>
+      <c r="BF130">
+        <v>2.32</v>
+      </c>
+      <c r="BG130">
+        <v>1.24</v>
+      </c>
+      <c r="BH130">
+        <v>3.55</v>
+      </c>
+      <c r="BI130">
+        <v>1.42</v>
+      </c>
+      <c r="BJ130">
+        <v>2.65</v>
+      </c>
+      <c r="BK130">
+        <v>1.68</v>
+      </c>
+      <c r="BL130">
+        <v>2.05</v>
+      </c>
+      <c r="BM130">
+        <v>2.07</v>
+      </c>
+      <c r="BN130">
+        <v>1.66</v>
+      </c>
+      <c r="BO130">
+        <v>2.63</v>
+      </c>
+      <c r="BP130">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7296659</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45506.58333333334</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>82</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>158</v>
+      </c>
+      <c r="P131" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q131">
+        <v>3.38</v>
+      </c>
+      <c r="R131">
+        <v>2.21</v>
+      </c>
+      <c r="S131">
+        <v>2.81</v>
+      </c>
+      <c r="T131">
+        <v>1.33</v>
+      </c>
+      <c r="U131">
+        <v>3.15</v>
+      </c>
+      <c r="V131">
+        <v>2.54</v>
+      </c>
+      <c r="W131">
+        <v>1.48</v>
+      </c>
+      <c r="X131">
+        <v>6.1</v>
+      </c>
+      <c r="Y131">
+        <v>1.1</v>
+      </c>
+      <c r="Z131">
+        <v>2.6</v>
+      </c>
+      <c r="AA131">
+        <v>3.4</v>
+      </c>
+      <c r="AB131">
+        <v>2.3</v>
+      </c>
+      <c r="AC131">
+        <v>1.02</v>
+      </c>
+      <c r="AD131">
+        <v>10.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.21</v>
+      </c>
+      <c r="AF131">
+        <v>3.74</v>
+      </c>
+      <c r="AG131">
+        <v>1.68</v>
+      </c>
+      <c r="AH131">
+        <v>2.02</v>
+      </c>
+      <c r="AI131">
+        <v>1.59</v>
+      </c>
+      <c r="AJ131">
+        <v>2.21</v>
+      </c>
+      <c r="AK131">
+        <v>1.58</v>
+      </c>
+      <c r="AL131">
+        <v>1.28</v>
+      </c>
+      <c r="AM131">
+        <v>1.41</v>
+      </c>
+      <c r="AN131">
+        <v>1.38</v>
+      </c>
+      <c r="AO131">
+        <v>1.38</v>
+      </c>
+      <c r="AP131">
+        <v>1.56</v>
+      </c>
+      <c r="AQ131">
+        <v>1.22</v>
+      </c>
+      <c r="AR131">
+        <v>1.44</v>
+      </c>
+      <c r="AS131">
+        <v>1.32</v>
+      </c>
+      <c r="AT131">
+        <v>2.76</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>8</v>
+      </c>
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>13</v>
+      </c>
+      <c r="AZ131">
+        <v>11</v>
+      </c>
+      <c r="BA131">
+        <v>3</v>
+      </c>
+      <c r="BB131">
+        <v>6</v>
+      </c>
+      <c r="BC131">
+        <v>9</v>
+      </c>
+      <c r="BD131">
+        <v>1.98</v>
+      </c>
+      <c r="BE131">
+        <v>6.5</v>
+      </c>
+      <c r="BF131">
+        <v>1.86</v>
+      </c>
+      <c r="BG131">
+        <v>1.19</v>
+      </c>
+      <c r="BH131">
+        <v>4.1</v>
+      </c>
+      <c r="BI131">
+        <v>1.34</v>
+      </c>
+      <c r="BJ131">
+        <v>2.9</v>
+      </c>
+      <c r="BK131">
+        <v>1.56</v>
+      </c>
+      <c r="BL131">
+        <v>2.23</v>
+      </c>
+      <c r="BM131">
+        <v>2</v>
+      </c>
+      <c r="BN131">
+        <v>1.8</v>
+      </c>
+      <c r="BO131">
+        <v>2.38</v>
+      </c>
+      <c r="BP131">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,12 @@
     <t>['33', '50', '59', '71']</t>
   </si>
   <si>
+    <t>['7', '42']</t>
+  </si>
+  <si>
+    <t>['35', '82', '90+3', '90+7']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -761,6 +767,21 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['87', '90+9']</t>
+  </si>
+  <si>
+    <t>['9', '24', '53']</t>
+  </si>
+  <si>
+    <t>['33', '90']</t>
+  </si>
+  <si>
+    <t>['20', '61', '79']</t>
+  </si>
+  <si>
+    <t>['40', '73']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1587,7 +1608,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1999,7 +2020,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2077,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2411,7 +2432,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2492,7 +2513,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2823,7 +2844,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2901,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.25</v>
@@ -3235,7 +3256,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3313,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ11">
         <v>1.38</v>
@@ -3441,7 +3462,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3519,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>0.63</v>
@@ -3725,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ13">
         <v>0.13</v>
@@ -3934,7 +3955,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4137,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ15">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4346,7 +4367,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4471,7 +4492,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4552,7 +4573,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4883,7 +4904,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -4964,7 +4985,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ19">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5167,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
         <v>0.5600000000000001</v>
@@ -5373,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5501,7 +5522,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5707,7 +5728,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5788,7 +5809,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -5913,7 +5934,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6197,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.63</v>
@@ -6403,7 +6424,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ26">
         <v>1.38</v>
@@ -6609,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6943,7 +6964,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7024,7 +7045,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7149,7 +7170,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7230,7 +7251,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7436,7 +7457,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7767,7 +7788,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7845,10 +7866,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ33">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -8385,7 +8406,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8591,7 +8612,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9084,7 +9105,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -9209,7 +9230,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9287,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40">
         <v>1.25</v>
@@ -9493,10 +9514,10 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ41">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -9905,10 +9926,10 @@
         <v>1.33</v>
       </c>
       <c r="AP43">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -10033,7 +10054,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10111,10 +10132,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ44">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10317,10 +10338,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -10935,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11063,7 +11084,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11144,7 +11165,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ49">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11347,10 +11368,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11475,7 +11496,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11553,7 +11574,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>1.22</v>
@@ -11681,7 +11702,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11762,7 +11783,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -11887,7 +11908,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -11965,10 +11986,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ53">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12299,7 +12320,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12505,7 +12526,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12917,7 +12938,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13201,10 +13222,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13613,7 +13634,7 @@
         <v>0.25</v>
       </c>
       <c r="AP61">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ61">
         <v>0.5600000000000001</v>
@@ -13741,7 +13762,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13822,7 +13843,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -13947,7 +13968,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14025,10 +14046,10 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ63">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR63">
         <v>1.89</v>
@@ -14359,7 +14380,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14437,7 +14458,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14771,7 +14792,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14852,7 +14873,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.81</v>
@@ -14977,7 +14998,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15055,10 +15076,10 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>2.08</v>
@@ -15183,7 +15204,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15389,7 +15410,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15595,7 +15616,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15879,10 +15900,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ72">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR72">
         <v>1.24</v>
@@ -16007,7 +16028,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16213,7 +16234,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16291,7 +16312,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ74">
         <v>1.38</v>
@@ -16419,7 +16440,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16625,7 +16646,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16831,7 +16852,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16909,10 +16930,10 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -17037,7 +17058,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17118,7 +17139,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.64</v>
@@ -17243,7 +17264,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17321,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>0.13</v>
@@ -17530,7 +17551,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17733,7 +17754,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ81">
         <v>0.63</v>
@@ -17861,7 +17882,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17939,7 +17960,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ82">
         <v>1.22</v>
@@ -18273,7 +18294,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18685,7 +18706,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18766,7 +18787,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ86">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -18972,7 +18993,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -19097,7 +19118,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19178,7 +19199,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.45</v>
@@ -19303,7 +19324,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19381,7 +19402,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ89">
         <v>0.88</v>
@@ -19715,7 +19736,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19796,7 +19817,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR91">
         <v>1.45</v>
@@ -19921,7 +19942,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -19999,7 +20020,7 @@
         <v>1.2</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ92">
         <v>1.25</v>
@@ -20127,7 +20148,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20617,7 +20638,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>0.5600000000000001</v>
@@ -20823,10 +20844,10 @@
         <v>0.83</v>
       </c>
       <c r="AP96">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ96">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21029,10 +21050,10 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21157,7 +21178,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21775,7 +21796,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21853,10 +21874,10 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR101">
         <v>1.1</v>
@@ -21981,7 +22002,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22059,7 +22080,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22265,10 +22286,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR103">
         <v>2.16</v>
@@ -22599,7 +22620,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22680,7 +22701,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ105">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR105">
         <v>1.43</v>
@@ -23011,7 +23032,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23092,7 +23113,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ107">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR107">
         <v>1.45</v>
@@ -23295,7 +23316,7 @@
         <v>1.29</v>
       </c>
       <c r="AP108">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23423,7 +23444,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23629,7 +23650,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23710,7 +23731,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -23835,7 +23856,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24247,7 +24268,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24325,7 +24346,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
         <v>1.38</v>
@@ -24453,7 +24474,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24737,7 +24758,7 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>0.13</v>
@@ -24865,7 +24886,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -24946,7 +24967,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ116">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25152,7 +25173,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ117">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25277,7 +25298,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25355,7 +25376,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ118">
         <v>1.22</v>
@@ -25483,7 +25504,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25767,10 +25788,10 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR120">
         <v>0.88</v>
@@ -25895,7 +25916,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -25973,10 +25994,10 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ121">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR121">
         <v>1.16</v>
@@ -26101,7 +26122,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26307,7 +26328,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26591,7 +26612,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ124">
         <v>0.88</v>
@@ -26719,7 +26740,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26925,7 +26946,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27006,7 +27027,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ126">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27337,7 +27358,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27418,7 +27439,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR128">
         <v>1.81</v>
@@ -27543,7 +27564,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27749,7 +27770,7 @@
         <v>184</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>2.69</v>
@@ -28112,6 +28133,1242 @@
       </c>
       <c r="BP131">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7296666</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45507.41666666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>81</v>
+      </c>
+      <c r="H132" t="s">
+        <v>84</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132" t="s">
+        <v>185</v>
+      </c>
+      <c r="P132" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q132">
+        <v>2.3</v>
+      </c>
+      <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>5</v>
+      </c>
+      <c r="T132">
+        <v>1.4</v>
+      </c>
+      <c r="U132">
+        <v>2.75</v>
+      </c>
+      <c r="V132">
+        <v>2.75</v>
+      </c>
+      <c r="W132">
+        <v>1.4</v>
+      </c>
+      <c r="X132">
+        <v>8</v>
+      </c>
+      <c r="Y132">
+        <v>1.08</v>
+      </c>
+      <c r="Z132">
+        <v>1.7</v>
+      </c>
+      <c r="AA132">
+        <v>3.9</v>
+      </c>
+      <c r="AB132">
+        <v>4.55</v>
+      </c>
+      <c r="AC132">
+        <v>1.01</v>
+      </c>
+      <c r="AD132">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE132">
+        <v>1.26</v>
+      </c>
+      <c r="AF132">
+        <v>3.34</v>
+      </c>
+      <c r="AG132">
+        <v>1.87</v>
+      </c>
+      <c r="AH132">
+        <v>1.83</v>
+      </c>
+      <c r="AI132">
+        <v>1.91</v>
+      </c>
+      <c r="AJ132">
+        <v>1.91</v>
+      </c>
+      <c r="AK132">
+        <v>1.15</v>
+      </c>
+      <c r="AL132">
+        <v>1.24</v>
+      </c>
+      <c r="AM132">
+        <v>2.17</v>
+      </c>
+      <c r="AN132">
+        <v>2.38</v>
+      </c>
+      <c r="AO132">
+        <v>0.89</v>
+      </c>
+      <c r="AP132">
+        <v>2.22</v>
+      </c>
+      <c r="AQ132">
+        <v>0.9</v>
+      </c>
+      <c r="AR132">
+        <v>2.21</v>
+      </c>
+      <c r="AS132">
+        <v>1.23</v>
+      </c>
+      <c r="AT132">
+        <v>3.44</v>
+      </c>
+      <c r="AU132">
+        <v>10</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>2</v>
+      </c>
+      <c r="AX132">
+        <v>9</v>
+      </c>
+      <c r="AY132">
+        <v>12</v>
+      </c>
+      <c r="AZ132">
+        <v>14</v>
+      </c>
+      <c r="BA132">
+        <v>3</v>
+      </c>
+      <c r="BB132">
+        <v>7</v>
+      </c>
+      <c r="BC132">
+        <v>10</v>
+      </c>
+      <c r="BD132">
+        <v>1.4</v>
+      </c>
+      <c r="BE132">
+        <v>7</v>
+      </c>
+      <c r="BF132">
+        <v>3.05</v>
+      </c>
+      <c r="BG132">
+        <v>1.2</v>
+      </c>
+      <c r="BH132">
+        <v>3.95</v>
+      </c>
+      <c r="BI132">
+        <v>1.35</v>
+      </c>
+      <c r="BJ132">
+        <v>2.9</v>
+      </c>
+      <c r="BK132">
+        <v>1.58</v>
+      </c>
+      <c r="BL132">
+        <v>2.18</v>
+      </c>
+      <c r="BM132">
+        <v>1.98</v>
+      </c>
+      <c r="BN132">
+        <v>1.82</v>
+      </c>
+      <c r="BO132">
+        <v>2.38</v>
+      </c>
+      <c r="BP132">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7296665</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45507.5</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s">
+        <v>75</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>186</v>
+      </c>
+      <c r="P133" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q133">
+        <v>2.05</v>
+      </c>
+      <c r="R133">
+        <v>2.5</v>
+      </c>
+      <c r="S133">
+        <v>5.5</v>
+      </c>
+      <c r="T133">
+        <v>1.26</v>
+      </c>
+      <c r="U133">
+        <v>3.5</v>
+      </c>
+      <c r="V133">
+        <v>2.34</v>
+      </c>
+      <c r="W133">
+        <v>1.54</v>
+      </c>
+      <c r="X133">
+        <v>5.4</v>
+      </c>
+      <c r="Y133">
+        <v>1.12</v>
+      </c>
+      <c r="Z133">
+        <v>1.65</v>
+      </c>
+      <c r="AA133">
+        <v>3.9</v>
+      </c>
+      <c r="AB133">
+        <v>4.4</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>17</v>
+      </c>
+      <c r="AE133">
+        <v>1.18</v>
+      </c>
+      <c r="AF133">
+        <v>4.75</v>
+      </c>
+      <c r="AG133">
+        <v>1.53</v>
+      </c>
+      <c r="AH133">
+        <v>2.25</v>
+      </c>
+      <c r="AI133">
+        <v>1.7</v>
+      </c>
+      <c r="AJ133">
+        <v>2.1</v>
+      </c>
+      <c r="AK133">
+        <v>1.14</v>
+      </c>
+      <c r="AL133">
+        <v>1.16</v>
+      </c>
+      <c r="AM133">
+        <v>2.55</v>
+      </c>
+      <c r="AN133">
+        <v>2.14</v>
+      </c>
+      <c r="AO133">
+        <v>0.75</v>
+      </c>
+      <c r="AP133">
+        <v>2.25</v>
+      </c>
+      <c r="AQ133">
+        <v>0.67</v>
+      </c>
+      <c r="AR133">
+        <v>1.42</v>
+      </c>
+      <c r="AS133">
+        <v>1.29</v>
+      </c>
+      <c r="AT133">
+        <v>2.71</v>
+      </c>
+      <c r="AU133">
+        <v>7</v>
+      </c>
+      <c r="AV133">
+        <v>3</v>
+      </c>
+      <c r="AW133">
+        <v>3</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>10</v>
+      </c>
+      <c r="AZ133">
+        <v>6</v>
+      </c>
+      <c r="BA133">
+        <v>8</v>
+      </c>
+      <c r="BB133">
+        <v>7</v>
+      </c>
+      <c r="BC133">
+        <v>15</v>
+      </c>
+      <c r="BD133">
+        <v>1.42</v>
+      </c>
+      <c r="BE133">
+        <v>7</v>
+      </c>
+      <c r="BF133">
+        <v>2.9</v>
+      </c>
+      <c r="BG133">
+        <v>1.22</v>
+      </c>
+      <c r="BH133">
+        <v>3.8</v>
+      </c>
+      <c r="BI133">
+        <v>1.38</v>
+      </c>
+      <c r="BJ133">
+        <v>2.8</v>
+      </c>
+      <c r="BK133">
+        <v>1.63</v>
+      </c>
+      <c r="BL133">
+        <v>2.15</v>
+      </c>
+      <c r="BM133">
+        <v>1.98</v>
+      </c>
+      <c r="BN133">
+        <v>1.74</v>
+      </c>
+      <c r="BO133">
+        <v>2.48</v>
+      </c>
+      <c r="BP133">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7296667</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45507.5</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" t="s">
+        <v>85</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>90</v>
+      </c>
+      <c r="P134" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q134">
+        <v>3.6</v>
+      </c>
+      <c r="R134">
+        <v>2.25</v>
+      </c>
+      <c r="S134">
+        <v>2.88</v>
+      </c>
+      <c r="T134">
+        <v>1.36</v>
+      </c>
+      <c r="U134">
+        <v>3</v>
+      </c>
+      <c r="V134">
+        <v>2.63</v>
+      </c>
+      <c r="W134">
+        <v>1.44</v>
+      </c>
+      <c r="X134">
+        <v>7</v>
+      </c>
+      <c r="Y134">
+        <v>1.1</v>
+      </c>
+      <c r="Z134">
+        <v>2.9</v>
+      </c>
+      <c r="AA134">
+        <v>3.4</v>
+      </c>
+      <c r="AB134">
+        <v>2.25</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>10.25</v>
+      </c>
+      <c r="AE134">
+        <v>1.22</v>
+      </c>
+      <c r="AF134">
+        <v>3.65</v>
+      </c>
+      <c r="AG134">
+        <v>1.73</v>
+      </c>
+      <c r="AH134">
+        <v>1.95</v>
+      </c>
+      <c r="AI134">
+        <v>1.67</v>
+      </c>
+      <c r="AJ134">
+        <v>2.1</v>
+      </c>
+      <c r="AK134">
+        <v>1.64</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.35</v>
+      </c>
+      <c r="AN134">
+        <v>1.38</v>
+      </c>
+      <c r="AO134">
+        <v>1.86</v>
+      </c>
+      <c r="AP134">
+        <v>1.22</v>
+      </c>
+      <c r="AQ134">
+        <v>2</v>
+      </c>
+      <c r="AR134">
+        <v>1.09</v>
+      </c>
+      <c r="AS134">
+        <v>1.39</v>
+      </c>
+      <c r="AT134">
+        <v>2.48</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>7</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>11</v>
+      </c>
+      <c r="BA134">
+        <v>5</v>
+      </c>
+      <c r="BB134">
+        <v>5</v>
+      </c>
+      <c r="BC134">
+        <v>10</v>
+      </c>
+      <c r="BD134">
+        <v>2.1</v>
+      </c>
+      <c r="BE134">
+        <v>6.4</v>
+      </c>
+      <c r="BF134">
+        <v>1.78</v>
+      </c>
+      <c r="BG134">
+        <v>1.22</v>
+      </c>
+      <c r="BH134">
+        <v>3.8</v>
+      </c>
+      <c r="BI134">
+        <v>1.4</v>
+      </c>
+      <c r="BJ134">
+        <v>2.7</v>
+      </c>
+      <c r="BK134">
+        <v>1.65</v>
+      </c>
+      <c r="BL134">
+        <v>2.1</v>
+      </c>
+      <c r="BM134">
+        <v>1.98</v>
+      </c>
+      <c r="BN134">
+        <v>1.72</v>
+      </c>
+      <c r="BO134">
+        <v>2.5</v>
+      </c>
+      <c r="BP134">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7296656</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45508.33333333334</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" t="s">
+        <v>71</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>90</v>
+      </c>
+      <c r="P135" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q135">
+        <v>3.6</v>
+      </c>
+      <c r="R135">
+        <v>2.25</v>
+      </c>
+      <c r="S135">
+        <v>2.75</v>
+      </c>
+      <c r="T135">
+        <v>1.33</v>
+      </c>
+      <c r="U135">
+        <v>3.25</v>
+      </c>
+      <c r="V135">
+        <v>2.63</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>6.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.11</v>
+      </c>
+      <c r="Z135">
+        <v>2.9</v>
+      </c>
+      <c r="AA135">
+        <v>3.55</v>
+      </c>
+      <c r="AB135">
+        <v>2.18</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>10.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.21</v>
+      </c>
+      <c r="AF135">
+        <v>3.74</v>
+      </c>
+      <c r="AG135">
+        <v>1.7</v>
+      </c>
+      <c r="AH135">
+        <v>2.02</v>
+      </c>
+      <c r="AI135">
+        <v>1.62</v>
+      </c>
+      <c r="AJ135">
+        <v>2.2</v>
+      </c>
+      <c r="AK135">
+        <v>1.71</v>
+      </c>
+      <c r="AL135">
+        <v>1.27</v>
+      </c>
+      <c r="AM135">
+        <v>1.32</v>
+      </c>
+      <c r="AN135">
+        <v>1.38</v>
+      </c>
+      <c r="AO135">
+        <v>0.86</v>
+      </c>
+      <c r="AP135">
+        <v>1.22</v>
+      </c>
+      <c r="AQ135">
+        <v>1.13</v>
+      </c>
+      <c r="AR135">
+        <v>0.9</v>
+      </c>
+      <c r="AS135">
+        <v>1.21</v>
+      </c>
+      <c r="AT135">
+        <v>2.11</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>8</v>
+      </c>
+      <c r="AW135">
+        <v>3</v>
+      </c>
+      <c r="AX135">
+        <v>7</v>
+      </c>
+      <c r="AY135">
+        <v>8</v>
+      </c>
+      <c r="AZ135">
+        <v>15</v>
+      </c>
+      <c r="BA135">
+        <v>4</v>
+      </c>
+      <c r="BB135">
+        <v>3</v>
+      </c>
+      <c r="BC135">
+        <v>7</v>
+      </c>
+      <c r="BD135">
+        <v>2.07</v>
+      </c>
+      <c r="BE135">
+        <v>6.75</v>
+      </c>
+      <c r="BF135">
+        <v>1.79</v>
+      </c>
+      <c r="BG135">
+        <v>1.15</v>
+      </c>
+      <c r="BH135">
+        <v>4.6</v>
+      </c>
+      <c r="BI135">
+        <v>1.27</v>
+      </c>
+      <c r="BJ135">
+        <v>3.3</v>
+      </c>
+      <c r="BK135">
+        <v>1.46</v>
+      </c>
+      <c r="BL135">
+        <v>2.5</v>
+      </c>
+      <c r="BM135">
+        <v>1.74</v>
+      </c>
+      <c r="BN135">
+        <v>1.97</v>
+      </c>
+      <c r="BO135">
+        <v>2.12</v>
+      </c>
+      <c r="BP135">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7296657</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45508.41666666666</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>72</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>86</v>
+      </c>
+      <c r="P136" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q136">
+        <v>3.6</v>
+      </c>
+      <c r="R136">
+        <v>2.3</v>
+      </c>
+      <c r="S136">
+        <v>2.75</v>
+      </c>
+      <c r="T136">
+        <v>1.3</v>
+      </c>
+      <c r="U136">
+        <v>3.4</v>
+      </c>
+      <c r="V136">
+        <v>2.5</v>
+      </c>
+      <c r="W136">
+        <v>1.5</v>
+      </c>
+      <c r="X136">
+        <v>6</v>
+      </c>
+      <c r="Y136">
+        <v>1.13</v>
+      </c>
+      <c r="Z136">
+        <v>3</v>
+      </c>
+      <c r="AA136">
+        <v>3.65</v>
+      </c>
+      <c r="AB136">
+        <v>2.08</v>
+      </c>
+      <c r="AC136">
+        <v>1.02</v>
+      </c>
+      <c r="AD136">
+        <v>15</v>
+      </c>
+      <c r="AE136">
+        <v>1.2</v>
+      </c>
+      <c r="AF136">
+        <v>4.33</v>
+      </c>
+      <c r="AG136">
+        <v>1.65</v>
+      </c>
+      <c r="AH136">
+        <v>2.1</v>
+      </c>
+      <c r="AI136">
+        <v>1.57</v>
+      </c>
+      <c r="AJ136">
+        <v>2.25</v>
+      </c>
+      <c r="AK136">
+        <v>1.72</v>
+      </c>
+      <c r="AL136">
+        <v>1.22</v>
+      </c>
+      <c r="AM136">
+        <v>1.36</v>
+      </c>
+      <c r="AN136">
+        <v>1.5</v>
+      </c>
+      <c r="AO136">
+        <v>1.88</v>
+      </c>
+      <c r="AP136">
+        <v>1.33</v>
+      </c>
+      <c r="AQ136">
+        <v>2</v>
+      </c>
+      <c r="AR136">
+        <v>1.73</v>
+      </c>
+      <c r="AS136">
+        <v>1.58</v>
+      </c>
+      <c r="AT136">
+        <v>3.31</v>
+      </c>
+      <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
+        <v>8</v>
+      </c>
+      <c r="AW136">
+        <v>8</v>
+      </c>
+      <c r="AX136">
+        <v>7</v>
+      </c>
+      <c r="AY136">
+        <v>13</v>
+      </c>
+      <c r="AZ136">
+        <v>15</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>9</v>
+      </c>
+      <c r="BC136">
+        <v>12</v>
+      </c>
+      <c r="BD136">
+        <v>2.07</v>
+      </c>
+      <c r="BE136">
+        <v>6.4</v>
+      </c>
+      <c r="BF136">
+        <v>1.81</v>
+      </c>
+      <c r="BG136">
+        <v>1.23</v>
+      </c>
+      <c r="BH136">
+        <v>3.65</v>
+      </c>
+      <c r="BI136">
+        <v>1.41</v>
+      </c>
+      <c r="BJ136">
+        <v>2.65</v>
+      </c>
+      <c r="BK136">
+        <v>1.67</v>
+      </c>
+      <c r="BL136">
+        <v>2.07</v>
+      </c>
+      <c r="BM136">
+        <v>2.05</v>
+      </c>
+      <c r="BN136">
+        <v>1.68</v>
+      </c>
+      <c r="BO136">
+        <v>2.55</v>
+      </c>
+      <c r="BP136">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7296658</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45508.41666666666</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" t="s">
+        <v>76</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>90</v>
+      </c>
+      <c r="P137" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q137">
+        <v>2.3</v>
+      </c>
+      <c r="R137">
+        <v>2.3</v>
+      </c>
+      <c r="S137">
+        <v>4.75</v>
+      </c>
+      <c r="T137">
+        <v>1.33</v>
+      </c>
+      <c r="U137">
+        <v>3.25</v>
+      </c>
+      <c r="V137">
+        <v>2.5</v>
+      </c>
+      <c r="W137">
+        <v>1.5</v>
+      </c>
+      <c r="X137">
+        <v>6.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.11</v>
+      </c>
+      <c r="Z137">
+        <v>1.57</v>
+      </c>
+      <c r="AA137">
+        <v>4.1</v>
+      </c>
+      <c r="AB137">
+        <v>4.9</v>
+      </c>
+      <c r="AC137">
+        <v>1.01</v>
+      </c>
+      <c r="AD137">
+        <v>10.25</v>
+      </c>
+      <c r="AE137">
+        <v>1.2</v>
+      </c>
+      <c r="AF137">
+        <v>3.88</v>
+      </c>
+      <c r="AG137">
+        <v>1.64</v>
+      </c>
+      <c r="AH137">
+        <v>2.1</v>
+      </c>
+      <c r="AI137">
+        <v>1.7</v>
+      </c>
+      <c r="AJ137">
+        <v>2.05</v>
+      </c>
+      <c r="AK137">
+        <v>1.18</v>
+      </c>
+      <c r="AL137">
+        <v>1.24</v>
+      </c>
+      <c r="AM137">
+        <v>2.09</v>
+      </c>
+      <c r="AN137">
+        <v>2.25</v>
+      </c>
+      <c r="AO137">
+        <v>1</v>
+      </c>
+      <c r="AP137">
+        <v>2</v>
+      </c>
+      <c r="AQ137">
+        <v>1.22</v>
+      </c>
+      <c r="AR137">
+        <v>2.2</v>
+      </c>
+      <c r="AS137">
+        <v>1.63</v>
+      </c>
+      <c r="AT137">
+        <v>3.83</v>
+      </c>
+      <c r="AU137">
+        <v>11</v>
+      </c>
+      <c r="AV137">
+        <v>5</v>
+      </c>
+      <c r="AW137">
+        <v>5</v>
+      </c>
+      <c r="AX137">
+        <v>5</v>
+      </c>
+      <c r="AY137">
+        <v>16</v>
+      </c>
+      <c r="AZ137">
+        <v>10</v>
+      </c>
+      <c r="BA137">
+        <v>12</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
+        <v>13</v>
+      </c>
+      <c r="BD137">
+        <v>1.42</v>
+      </c>
+      <c r="BE137">
+        <v>7</v>
+      </c>
+      <c r="BF137">
+        <v>2.9</v>
+      </c>
+      <c r="BG137">
+        <v>1.19</v>
+      </c>
+      <c r="BH137">
+        <v>4.1</v>
+      </c>
+      <c r="BI137">
+        <v>1.34</v>
+      </c>
+      <c r="BJ137">
+        <v>2.9</v>
+      </c>
+      <c r="BK137">
+        <v>1.56</v>
+      </c>
+      <c r="BL137">
+        <v>2.23</v>
+      </c>
+      <c r="BM137">
+        <v>1.8</v>
+      </c>
+      <c r="BN137">
+        <v>2</v>
+      </c>
+      <c r="BO137">
+        <v>2.33</v>
+      </c>
+      <c r="BP137">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -27728,7 +27728,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7296655</v>
+        <v>7296659</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27743,190 +27743,190 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H130" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="Q130">
-        <v>2.69</v>
+        <v>3.38</v>
       </c>
       <c r="R130">
-        <v>2.14</v>
+        <v>2.21</v>
       </c>
       <c r="S130">
-        <v>3.76</v>
+        <v>2.81</v>
       </c>
       <c r="T130">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U130">
-        <v>2.99</v>
+        <v>3.15</v>
       </c>
       <c r="V130">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="W130">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X130">
-        <v>6.35</v>
+        <v>6.1</v>
       </c>
       <c r="Y130">
         <v>1.1</v>
       </c>
       <c r="Z130">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AA130">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB130">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="AC130">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD130">
-        <v>9.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AE130">
+        <v>1.21</v>
+      </c>
+      <c r="AF130">
+        <v>3.74</v>
+      </c>
+      <c r="AG130">
+        <v>1.68</v>
+      </c>
+      <c r="AH130">
+        <v>2.02</v>
+      </c>
+      <c r="AI130">
+        <v>1.59</v>
+      </c>
+      <c r="AJ130">
+        <v>2.21</v>
+      </c>
+      <c r="AK130">
+        <v>1.58</v>
+      </c>
+      <c r="AL130">
+        <v>1.28</v>
+      </c>
+      <c r="AM130">
+        <v>1.41</v>
+      </c>
+      <c r="AN130">
+        <v>1.38</v>
+      </c>
+      <c r="AO130">
+        <v>1.38</v>
+      </c>
+      <c r="AP130">
+        <v>1.56</v>
+      </c>
+      <c r="AQ130">
         <v>1.22</v>
       </c>
-      <c r="AF130">
-        <v>3.65</v>
-      </c>
-      <c r="AG130">
-        <v>1.72</v>
-      </c>
-      <c r="AH130">
-        <v>1.98</v>
-      </c>
-      <c r="AI130">
-        <v>1.63</v>
-      </c>
-      <c r="AJ130">
-        <v>2.14</v>
-      </c>
-      <c r="AK130">
+      <c r="AR130">
+        <v>1.44</v>
+      </c>
+      <c r="AS130">
         <v>1.32</v>
       </c>
-      <c r="AL130">
-        <v>1.29</v>
-      </c>
-      <c r="AM130">
-        <v>1.67</v>
-      </c>
-      <c r="AN130">
-        <v>1.5</v>
-      </c>
-      <c r="AO130">
-        <v>0.63</v>
-      </c>
-      <c r="AP130">
-        <v>1.67</v>
-      </c>
-      <c r="AQ130">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR130">
-        <v>1.57</v>
-      </c>
-      <c r="AS130">
-        <v>1.57</v>
-      </c>
       <c r="AT130">
-        <v>3.14</v>
+        <v>2.76</v>
       </c>
       <c r="AU130">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW130">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY130">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ130">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
         <v>6</v>
-      </c>
-      <c r="BB130">
-        <v>3</v>
       </c>
       <c r="BC130">
         <v>9</v>
       </c>
       <c r="BD130">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="BE130">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF130">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="BG130">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="BH130">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="BI130">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BJ130">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BK130">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="BL130">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="BM130">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BN130">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="BO130">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="BP130">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27934,7 +27934,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7296659</v>
+        <v>7296655</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27949,190 +27949,190 @@
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H131" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O131" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="Q131">
-        <v>3.38</v>
+        <v>2.69</v>
       </c>
       <c r="R131">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="S131">
-        <v>2.81</v>
+        <v>3.76</v>
       </c>
       <c r="T131">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U131">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="V131">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="W131">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X131">
-        <v>6.1</v>
+        <v>6.35</v>
       </c>
       <c r="Y131">
         <v>1.1</v>
       </c>
       <c r="Z131">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AA131">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB131">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="AC131">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD131">
-        <v>10.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AE131">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AF131">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="AG131">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AH131">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AI131">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AJ131">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="AK131">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="AL131">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AM131">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="AN131">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AO131">
-        <v>1.38</v>
+        <v>0.63</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR131">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AS131">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="AT131">
-        <v>2.76</v>
+        <v>3.14</v>
       </c>
       <c r="AU131">
+        <v>12</v>
+      </c>
+      <c r="AV131">
+        <v>4</v>
+      </c>
+      <c r="AW131">
+        <v>4</v>
+      </c>
+      <c r="AX131">
+        <v>1</v>
+      </c>
+      <c r="AY131">
+        <v>16</v>
+      </c>
+      <c r="AZ131">
         <v>5</v>
       </c>
-      <c r="AV131">
-        <v>5</v>
-      </c>
-      <c r="AW131">
-        <v>8</v>
-      </c>
-      <c r="AX131">
+      <c r="BA131">
         <v>6</v>
       </c>
-      <c r="AY131">
-        <v>13</v>
-      </c>
-      <c r="AZ131">
-        <v>11</v>
-      </c>
-      <c r="BA131">
+      <c r="BB131">
         <v>3</v>
-      </c>
-      <c r="BB131">
-        <v>6</v>
       </c>
       <c r="BC131">
         <v>9</v>
       </c>
       <c r="BD131">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="BE131">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF131">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="BG131">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="BH131">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="BI131">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BJ131">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BK131">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="BL131">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="BM131">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BN131">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="BO131">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="BP131">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="132" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>['35', '82', '90+3', '90+7']</t>
+  </si>
+  <si>
+    <t>['24', '74']</t>
   </si>
   <si>
     <t>['23', '51']</t>
@@ -1143,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1608,7 +1611,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2020,7 +2023,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2307,7 +2310,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2432,7 +2435,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2716,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ8">
         <v>0.63</v>
@@ -2844,7 +2847,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3256,7 +3259,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3462,7 +3465,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4492,7 +4495,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4779,7 +4782,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ18">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -4904,7 +4907,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5522,7 +5525,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5728,7 +5731,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5934,7 +5937,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6964,7 +6967,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7170,7 +7173,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7454,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7788,7 +7791,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8406,7 +8409,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8612,7 +8615,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9230,7 +9233,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -10054,7 +10057,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10547,7 +10550,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -11084,7 +11087,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11496,7 +11499,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11702,7 +11705,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11908,7 +11911,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12195,7 +12198,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12320,7 +12323,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12526,7 +12529,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12604,7 +12607,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ56">
         <v>0.5600000000000001</v>
@@ -12938,7 +12941,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13762,7 +13765,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13968,7 +13971,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14380,7 +14383,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14792,7 +14795,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14998,7 +15001,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15204,7 +15207,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15285,7 +15288,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ69">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15410,7 +15413,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15616,7 +15619,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16028,7 +16031,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16106,7 +16109,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ73">
         <v>1.25</v>
@@ -16234,7 +16237,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16440,7 +16443,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16646,7 +16649,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16852,7 +16855,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17058,7 +17061,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17264,7 +17267,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17882,7 +17885,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18166,7 +18169,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ83">
         <v>1.38</v>
@@ -18294,7 +18297,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18706,7 +18709,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19118,7 +19121,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19324,7 +19327,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19405,7 +19408,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR89">
         <v>1.03</v>
@@ -19736,7 +19739,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19942,7 +19945,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20148,7 +20151,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -21178,7 +21181,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21668,7 +21671,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ100">
         <v>0.13</v>
@@ -21796,7 +21799,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22002,7 +22005,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22620,7 +22623,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23032,7 +23035,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23110,7 +23113,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ107">
         <v>0.67</v>
@@ -23444,7 +23447,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23650,7 +23653,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23856,7 +23859,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24143,7 +24146,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ112">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24268,7 +24271,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24474,7 +24477,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24886,7 +24889,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25298,7 +25301,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25504,7 +25507,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25916,7 +25919,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26122,7 +26125,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26328,7 +26331,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26615,7 +26618,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ124">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR124">
         <v>1.88</v>
@@ -26740,7 +26743,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26946,7 +26949,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27230,7 +27233,7 @@
         <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ127">
         <v>0.63</v>
@@ -27358,7 +27361,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27564,7 +27567,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27976,7 +27979,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28182,7 +28185,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28594,7 +28597,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28800,7 +28803,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29006,7 +29009,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29212,7 +29215,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29369,6 +29372,212 @@
       </c>
       <c r="BP137">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7296672</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45513.58333333334</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>83</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>187</v>
+      </c>
+      <c r="P138" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q138">
+        <v>1.79</v>
+      </c>
+      <c r="R138">
+        <v>2.59</v>
+      </c>
+      <c r="S138">
+        <v>7.56</v>
+      </c>
+      <c r="T138">
+        <v>1.33</v>
+      </c>
+      <c r="U138">
+        <v>3.18</v>
+      </c>
+      <c r="V138">
+        <v>2.52</v>
+      </c>
+      <c r="W138">
+        <v>1.5</v>
+      </c>
+      <c r="X138">
+        <v>5.5</v>
+      </c>
+      <c r="Y138">
+        <v>1.12</v>
+      </c>
+      <c r="Z138">
+        <v>1.46</v>
+      </c>
+      <c r="AA138">
+        <v>4.23</v>
+      </c>
+      <c r="AB138">
+        <v>6.1</v>
+      </c>
+      <c r="AC138">
+        <v>1.04</v>
+      </c>
+      <c r="AD138">
+        <v>15.75</v>
+      </c>
+      <c r="AE138">
+        <v>1.23</v>
+      </c>
+      <c r="AF138">
+        <v>4.27</v>
+      </c>
+      <c r="AG138">
+        <v>1.65</v>
+      </c>
+      <c r="AH138">
+        <v>2.05</v>
+      </c>
+      <c r="AI138">
+        <v>2</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.1</v>
+      </c>
+      <c r="AL138">
+        <v>1.19</v>
+      </c>
+      <c r="AM138">
+        <v>2.95</v>
+      </c>
+      <c r="AN138">
+        <v>2.13</v>
+      </c>
+      <c r="AO138">
+        <v>0.88</v>
+      </c>
+      <c r="AP138">
+        <v>2.22</v>
+      </c>
+      <c r="AQ138">
+        <v>0.78</v>
+      </c>
+      <c r="AR138">
+        <v>1.56</v>
+      </c>
+      <c r="AS138">
+        <v>1.11</v>
+      </c>
+      <c r="AT138">
+        <v>2.67</v>
+      </c>
+      <c r="AU138">
+        <v>5</v>
+      </c>
+      <c r="AV138">
+        <v>0</v>
+      </c>
+      <c r="AW138">
+        <v>9</v>
+      </c>
+      <c r="AX138">
+        <v>2</v>
+      </c>
+      <c r="AY138">
+        <v>14</v>
+      </c>
+      <c r="AZ138">
+        <v>2</v>
+      </c>
+      <c r="BA138">
+        <v>7</v>
+      </c>
+      <c r="BB138">
+        <v>3</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>1.25</v>
+      </c>
+      <c r="BE138">
+        <v>7.5</v>
+      </c>
+      <c r="BF138">
+        <v>3.8</v>
+      </c>
+      <c r="BG138">
+        <v>1.19</v>
+      </c>
+      <c r="BH138">
+        <v>4.1</v>
+      </c>
+      <c r="BI138">
+        <v>1.33</v>
+      </c>
+      <c r="BJ138">
+        <v>2.95</v>
+      </c>
+      <c r="BK138">
+        <v>1.54</v>
+      </c>
+      <c r="BL138">
+        <v>2.3</v>
+      </c>
+      <c r="BM138">
+        <v>1.84</v>
+      </c>
+      <c r="BN138">
+        <v>1.84</v>
+      </c>
+      <c r="BO138">
+        <v>2.3</v>
+      </c>
+      <c r="BP138">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,9 @@
     <t>['24', '74']</t>
   </si>
   <si>
+    <t>['44', '61']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -785,6 +788,15 @@
   </si>
   <si>
     <t>['40', '73']</t>
+  </si>
+  <si>
+    <t>['14', '54', '58', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+2', '66']</t>
+  </si>
+  <si>
+    <t>['51', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1611,7 +1623,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2023,7 +2035,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2435,7 +2447,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2513,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2722,7 +2734,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ8">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2847,7 +2859,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3131,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3259,7 +3271,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3340,7 +3352,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ11">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3465,7 +3477,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3955,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14">
         <v>0.67</v>
@@ -4367,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4495,7 +4507,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4907,7 +4919,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5525,7 +5537,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5731,7 +5743,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5937,7 +5949,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6015,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.25</v>
@@ -6430,7 +6442,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6636,7 +6648,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR27">
         <v>0.63</v>
@@ -6839,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>0.13</v>
@@ -6967,7 +6979,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7045,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.13</v>
@@ -7173,7 +7185,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7251,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7666,7 +7678,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -7791,7 +7803,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8078,7 +8090,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ34">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -8409,7 +8421,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8487,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8615,7 +8627,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8696,7 +8708,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -9233,7 +9245,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9723,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>0.13</v>
@@ -10057,7 +10069,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10547,7 +10559,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ46">
         <v>0.78</v>
@@ -10753,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.63</v>
@@ -10962,7 +10974,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11087,7 +11099,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11499,7 +11511,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11705,7 +11717,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11911,7 +11923,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12195,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>0.78</v>
@@ -12323,7 +12335,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12529,7 +12541,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12941,7 +12953,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13019,10 +13031,10 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ58">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13431,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>0.13</v>
@@ -13765,7 +13777,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13843,7 +13855,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
         <v>1.22</v>
@@ -13971,7 +13983,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14383,7 +14395,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14464,7 +14476,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -14795,7 +14807,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14873,7 +14885,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.67</v>
@@ -15001,7 +15013,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15207,7 +15219,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15413,7 +15425,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15494,7 +15506,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR70">
         <v>1.65</v>
@@ -15619,7 +15631,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16031,7 +16043,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16237,7 +16249,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16318,7 +16330,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ74">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>0.98</v>
@@ -16443,7 +16455,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16521,7 +16533,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
         <v>0.5600000000000001</v>
@@ -16649,7 +16661,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16727,7 +16739,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
         <v>0.63</v>
@@ -16855,7 +16867,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17061,7 +17073,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17267,7 +17279,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17551,7 +17563,7 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>1.22</v>
@@ -17760,7 +17772,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ81">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR81">
         <v>1.9</v>
@@ -17885,7 +17897,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18172,7 +18184,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ83">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR83">
         <v>1.38</v>
@@ -18297,7 +18309,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18375,7 +18387,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18584,7 +18596,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18709,7 +18721,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19121,7 +19133,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19327,7 +19339,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19739,7 +19751,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19817,7 +19829,7 @@
         <v>1.83</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
         <v>2</v>
@@ -19945,7 +19957,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20151,7 +20163,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20229,10 +20241,10 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR93">
         <v>1.46</v>
@@ -21181,7 +21193,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21259,7 +21271,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
         <v>1.25</v>
@@ -21465,7 +21477,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1.22</v>
@@ -21799,7 +21811,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22005,7 +22017,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22498,7 +22510,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22623,7 +22635,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22910,7 +22922,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ106">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR106">
         <v>1.49</v>
@@ -23035,7 +23047,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23447,7 +23459,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23653,7 +23665,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23731,7 +23743,7 @@
         <v>0.71</v>
       </c>
       <c r="AP110">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ110">
         <v>0.9</v>
@@ -23859,7 +23871,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24271,7 +24283,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24352,7 +24364,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24477,7 +24489,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24555,10 +24567,10 @@
         <v>1.17</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR114">
         <v>1.35</v>
@@ -24889,7 +24901,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -24967,7 +24979,7 @@
         <v>1.67</v>
       </c>
       <c r="AP116">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
         <v>2</v>
@@ -25301,7 +25313,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25507,7 +25519,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25585,7 +25597,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>1.25</v>
@@ -25919,7 +25931,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26125,7 +26137,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26203,7 +26215,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26331,7 +26343,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26409,10 +26421,10 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>1.59</v>
@@ -26743,7 +26755,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26824,7 +26836,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -26949,7 +26961,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27361,7 +27373,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27567,7 +27579,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27648,7 +27660,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ129">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.56</v>
@@ -27979,7 +27991,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28185,7 +28197,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28597,7 +28609,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28803,7 +28815,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29009,7 +29021,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29215,7 +29227,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29578,6 +29590,830 @@
       </c>
       <c r="BP138">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7296671</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45514.33333333334</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s">
+        <v>79</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>90</v>
+      </c>
+      <c r="P139" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q139">
+        <v>2.6</v>
+      </c>
+      <c r="R139">
+        <v>2.2</v>
+      </c>
+      <c r="S139">
+        <v>3.6</v>
+      </c>
+      <c r="T139">
+        <v>1.32</v>
+      </c>
+      <c r="U139">
+        <v>3.1</v>
+      </c>
+      <c r="V139">
+        <v>2.5</v>
+      </c>
+      <c r="W139">
+        <v>1.48</v>
+      </c>
+      <c r="X139">
+        <v>5.5</v>
+      </c>
+      <c r="Y139">
+        <v>1.11</v>
+      </c>
+      <c r="Z139">
+        <v>2.15</v>
+      </c>
+      <c r="AA139">
+        <v>3.3</v>
+      </c>
+      <c r="AB139">
+        <v>3.1</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>14.75</v>
+      </c>
+      <c r="AE139">
+        <v>1.23</v>
+      </c>
+      <c r="AF139">
+        <v>4.23</v>
+      </c>
+      <c r="AG139">
+        <v>1.65</v>
+      </c>
+      <c r="AH139">
+        <v>2.1</v>
+      </c>
+      <c r="AI139">
+        <v>1.62</v>
+      </c>
+      <c r="AJ139">
+        <v>2.25</v>
+      </c>
+      <c r="AK139">
+        <v>1.33</v>
+      </c>
+      <c r="AL139">
+        <v>1.27</v>
+      </c>
+      <c r="AM139">
+        <v>1.69</v>
+      </c>
+      <c r="AN139">
+        <v>1.5</v>
+      </c>
+      <c r="AO139">
+        <v>0.63</v>
+      </c>
+      <c r="AP139">
+        <v>1.33</v>
+      </c>
+      <c r="AQ139">
+        <v>0.89</v>
+      </c>
+      <c r="AR139">
+        <v>1.27</v>
+      </c>
+      <c r="AS139">
+        <v>1.4</v>
+      </c>
+      <c r="AT139">
+        <v>2.67</v>
+      </c>
+      <c r="AU139">
+        <v>4</v>
+      </c>
+      <c r="AV139">
+        <v>8</v>
+      </c>
+      <c r="AW139">
+        <v>4</v>
+      </c>
+      <c r="AX139">
+        <v>6</v>
+      </c>
+      <c r="AY139">
+        <v>8</v>
+      </c>
+      <c r="AZ139">
+        <v>14</v>
+      </c>
+      <c r="BA139">
+        <v>3</v>
+      </c>
+      <c r="BB139">
+        <v>1</v>
+      </c>
+      <c r="BC139">
+        <v>4</v>
+      </c>
+      <c r="BD139">
+        <v>1.7</v>
+      </c>
+      <c r="BE139">
+        <v>6.75</v>
+      </c>
+      <c r="BF139">
+        <v>2.23</v>
+      </c>
+      <c r="BG139">
+        <v>1.19</v>
+      </c>
+      <c r="BH139">
+        <v>4.1</v>
+      </c>
+      <c r="BI139">
+        <v>1.34</v>
+      </c>
+      <c r="BJ139">
+        <v>2.9</v>
+      </c>
+      <c r="BK139">
+        <v>1.56</v>
+      </c>
+      <c r="BL139">
+        <v>2.23</v>
+      </c>
+      <c r="BM139">
+        <v>1.89</v>
+      </c>
+      <c r="BN139">
+        <v>1.8</v>
+      </c>
+      <c r="BO139">
+        <v>2.33</v>
+      </c>
+      <c r="BP139">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7296673</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45514.41666666666</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>82</v>
+      </c>
+      <c r="H140" t="s">
+        <v>73</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>90</v>
+      </c>
+      <c r="P140" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q140">
+        <v>2.48</v>
+      </c>
+      <c r="R140">
+        <v>2.37</v>
+      </c>
+      <c r="S140">
+        <v>4.05</v>
+      </c>
+      <c r="T140">
+        <v>1.32</v>
+      </c>
+      <c r="U140">
+        <v>3.22</v>
+      </c>
+      <c r="V140">
+        <v>2.5</v>
+      </c>
+      <c r="W140">
+        <v>1.48</v>
+      </c>
+      <c r="X140">
+        <v>5.9</v>
+      </c>
+      <c r="Y140">
+        <v>1.11</v>
+      </c>
+      <c r="Z140">
+        <v>1.95</v>
+      </c>
+      <c r="AA140">
+        <v>3.5</v>
+      </c>
+      <c r="AB140">
+        <v>3.4</v>
+      </c>
+      <c r="AC140">
+        <v>1.01</v>
+      </c>
+      <c r="AD140">
+        <v>11</v>
+      </c>
+      <c r="AE140">
+        <v>1.2</v>
+      </c>
+      <c r="AF140">
+        <v>4</v>
+      </c>
+      <c r="AG140">
+        <v>1.67</v>
+      </c>
+      <c r="AH140">
+        <v>2.1</v>
+      </c>
+      <c r="AI140">
+        <v>1.6</v>
+      </c>
+      <c r="AJ140">
+        <v>2.27</v>
+      </c>
+      <c r="AK140">
+        <v>1.27</v>
+      </c>
+      <c r="AL140">
+        <v>1.26</v>
+      </c>
+      <c r="AM140">
+        <v>1.82</v>
+      </c>
+      <c r="AN140">
+        <v>1.75</v>
+      </c>
+      <c r="AO140">
+        <v>1</v>
+      </c>
+      <c r="AP140">
+        <v>1.56</v>
+      </c>
+      <c r="AQ140">
+        <v>1.22</v>
+      </c>
+      <c r="AR140">
+        <v>1.51</v>
+      </c>
+      <c r="AS140">
+        <v>1.33</v>
+      </c>
+      <c r="AT140">
+        <v>2.84</v>
+      </c>
+      <c r="AU140">
+        <v>-1</v>
+      </c>
+      <c r="AV140">
+        <v>-1</v>
+      </c>
+      <c r="AW140">
+        <v>-1</v>
+      </c>
+      <c r="AX140">
+        <v>-1</v>
+      </c>
+      <c r="AY140">
+        <v>-1</v>
+      </c>
+      <c r="AZ140">
+        <v>-1</v>
+      </c>
+      <c r="BA140">
+        <v>-1</v>
+      </c>
+      <c r="BB140">
+        <v>-1</v>
+      </c>
+      <c r="BC140">
+        <v>-1</v>
+      </c>
+      <c r="BD140">
+        <v>1.58</v>
+      </c>
+      <c r="BE140">
+        <v>6.75</v>
+      </c>
+      <c r="BF140">
+        <v>2.4</v>
+      </c>
+      <c r="BG140">
+        <v>1.15</v>
+      </c>
+      <c r="BH140">
+        <v>4.6</v>
+      </c>
+      <c r="BI140">
+        <v>1.27</v>
+      </c>
+      <c r="BJ140">
+        <v>3.3</v>
+      </c>
+      <c r="BK140">
+        <v>1.46</v>
+      </c>
+      <c r="BL140">
+        <v>2.5</v>
+      </c>
+      <c r="BM140">
+        <v>1.73</v>
+      </c>
+      <c r="BN140">
+        <v>1.98</v>
+      </c>
+      <c r="BO140">
+        <v>2.08</v>
+      </c>
+      <c r="BP140">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7296674</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45514.41666666666</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s">
+        <v>77</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" t="s">
+        <v>90</v>
+      </c>
+      <c r="P141" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q141">
+        <v>4.08</v>
+      </c>
+      <c r="R141">
+        <v>2.48</v>
+      </c>
+      <c r="S141">
+        <v>2.36</v>
+      </c>
+      <c r="T141">
+        <v>1.27</v>
+      </c>
+      <c r="U141">
+        <v>3.54</v>
+      </c>
+      <c r="V141">
+        <v>2.31</v>
+      </c>
+      <c r="W141">
+        <v>1.58</v>
+      </c>
+      <c r="X141">
+        <v>5.1</v>
+      </c>
+      <c r="Y141">
+        <v>1.14</v>
+      </c>
+      <c r="Z141">
+        <v>3.6</v>
+      </c>
+      <c r="AA141">
+        <v>3.75</v>
+      </c>
+      <c r="AB141">
+        <v>1.83</v>
+      </c>
+      <c r="AC141">
+        <v>1.03</v>
+      </c>
+      <c r="AD141">
+        <v>18.75</v>
+      </c>
+      <c r="AE141">
+        <v>1.15</v>
+      </c>
+      <c r="AF141">
+        <v>4.75</v>
+      </c>
+      <c r="AG141">
+        <v>1.57</v>
+      </c>
+      <c r="AH141">
+        <v>2.25</v>
+      </c>
+      <c r="AI141">
+        <v>1.52</v>
+      </c>
+      <c r="AJ141">
+        <v>2.46</v>
+      </c>
+      <c r="AK141">
+        <v>1.94</v>
+      </c>
+      <c r="AL141">
+        <v>1.23</v>
+      </c>
+      <c r="AM141">
+        <v>1.24</v>
+      </c>
+      <c r="AN141">
+        <v>2.13</v>
+      </c>
+      <c r="AO141">
+        <v>1.38</v>
+      </c>
+      <c r="AP141">
+        <v>2</v>
+      </c>
+      <c r="AQ141">
+        <v>1.33</v>
+      </c>
+      <c r="AR141">
+        <v>1.67</v>
+      </c>
+      <c r="AS141">
+        <v>1.92</v>
+      </c>
+      <c r="AT141">
+        <v>3.59</v>
+      </c>
+      <c r="AU141">
+        <v>-1</v>
+      </c>
+      <c r="AV141">
+        <v>-1</v>
+      </c>
+      <c r="AW141">
+        <v>-1</v>
+      </c>
+      <c r="AX141">
+        <v>-1</v>
+      </c>
+      <c r="AY141">
+        <v>-1</v>
+      </c>
+      <c r="AZ141">
+        <v>-1</v>
+      </c>
+      <c r="BA141">
+        <v>-1</v>
+      </c>
+      <c r="BB141">
+        <v>-1</v>
+      </c>
+      <c r="BC141">
+        <v>-1</v>
+      </c>
+      <c r="BD141">
+        <v>2.48</v>
+      </c>
+      <c r="BE141">
+        <v>6.75</v>
+      </c>
+      <c r="BF141">
+        <v>1.54</v>
+      </c>
+      <c r="BG141">
+        <v>1.15</v>
+      </c>
+      <c r="BH141">
+        <v>4.6</v>
+      </c>
+      <c r="BI141">
+        <v>1.26</v>
+      </c>
+      <c r="BJ141">
+        <v>3.4</v>
+      </c>
+      <c r="BK141">
+        <v>1.46</v>
+      </c>
+      <c r="BL141">
+        <v>2.5</v>
+      </c>
+      <c r="BM141">
+        <v>1.72</v>
+      </c>
+      <c r="BN141">
+        <v>1.98</v>
+      </c>
+      <c r="BO141">
+        <v>2.08</v>
+      </c>
+      <c r="BP141">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7296675</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45515.33333333334</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>84</v>
+      </c>
+      <c r="H142" t="s">
+        <v>80</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>188</v>
+      </c>
+      <c r="P142" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q142">
+        <v>3</v>
+      </c>
+      <c r="R142">
+        <v>2.25</v>
+      </c>
+      <c r="S142">
+        <v>3.4</v>
+      </c>
+      <c r="T142">
+        <v>1.33</v>
+      </c>
+      <c r="U142">
+        <v>3.25</v>
+      </c>
+      <c r="V142">
+        <v>2.63</v>
+      </c>
+      <c r="W142">
+        <v>1.44</v>
+      </c>
+      <c r="X142">
+        <v>6.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.11</v>
+      </c>
+      <c r="Z142">
+        <v>2.35</v>
+      </c>
+      <c r="AA142">
+        <v>3.45</v>
+      </c>
+      <c r="AB142">
+        <v>2.75</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>10</v>
+      </c>
+      <c r="AE142">
+        <v>1.2</v>
+      </c>
+      <c r="AF142">
+        <v>3.88</v>
+      </c>
+      <c r="AG142">
+        <v>1.67</v>
+      </c>
+      <c r="AH142">
+        <v>2</v>
+      </c>
+      <c r="AI142">
+        <v>1.62</v>
+      </c>
+      <c r="AJ142">
+        <v>2.2</v>
+      </c>
+      <c r="AK142">
+        <v>1.44</v>
+      </c>
+      <c r="AL142">
+        <v>1.25</v>
+      </c>
+      <c r="AM142">
+        <v>1.55</v>
+      </c>
+      <c r="AN142">
+        <v>1.29</v>
+      </c>
+      <c r="AO142">
+        <v>1</v>
+      </c>
+      <c r="AP142">
+        <v>1.25</v>
+      </c>
+      <c r="AQ142">
+        <v>1</v>
+      </c>
+      <c r="AR142">
+        <v>1.53</v>
+      </c>
+      <c r="AS142">
+        <v>1.42</v>
+      </c>
+      <c r="AT142">
+        <v>2.95</v>
+      </c>
+      <c r="AU142">
+        <v>-1</v>
+      </c>
+      <c r="AV142">
+        <v>-1</v>
+      </c>
+      <c r="AW142">
+        <v>-1</v>
+      </c>
+      <c r="AX142">
+        <v>-1</v>
+      </c>
+      <c r="AY142">
+        <v>-1</v>
+      </c>
+      <c r="AZ142">
+        <v>-1</v>
+      </c>
+      <c r="BA142">
+        <v>-1</v>
+      </c>
+      <c r="BB142">
+        <v>-1</v>
+      </c>
+      <c r="BC142">
+        <v>-1</v>
+      </c>
+      <c r="BD142">
+        <v>1.71</v>
+      </c>
+      <c r="BE142">
+        <v>6.5</v>
+      </c>
+      <c r="BF142">
+        <v>2.2</v>
+      </c>
+      <c r="BG142">
+        <v>1.21</v>
+      </c>
+      <c r="BH142">
+        <v>3.9</v>
+      </c>
+      <c r="BI142">
+        <v>1.36</v>
+      </c>
+      <c r="BJ142">
+        <v>2.8</v>
+      </c>
+      <c r="BK142">
+        <v>1.6</v>
+      </c>
+      <c r="BL142">
+        <v>2.17</v>
+      </c>
+      <c r="BM142">
+        <v>1.96</v>
+      </c>
+      <c r="BN142">
+        <v>1.74</v>
+      </c>
+      <c r="BO142">
+        <v>2.43</v>
+      </c>
+      <c r="BP142">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -29938,31 +29938,31 @@
         <v>2.84</v>
       </c>
       <c r="AU140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV140">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AW140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX140">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY140">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ140">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA140">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB140">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC140">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD140">
         <v>1.58</v>
@@ -30144,31 +30144,31 @@
         <v>3.59</v>
       </c>
       <c r="AU141">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW141">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX141">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY141">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ141">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA141">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB141">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC141">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD141">
         <v>2.48</v>
@@ -30350,31 +30350,31 @@
         <v>2.95</v>
       </c>
       <c r="AU142">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV142">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW142">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX142">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY142">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ142">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB142">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC142">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD142">
         <v>1.71</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,9 @@
     <t>['44', '61']</t>
   </si>
   <si>
+    <t>['9', '19', '85']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -797,6 +800,9 @@
   </si>
   <si>
     <t>['51', '90+2']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1623,7 +1629,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1701,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>1.22</v>
@@ -1907,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2035,7 +2041,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2447,7 +2453,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2859,7 +2865,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3271,7 +3277,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3477,7 +3483,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3558,7 +3564,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3764,7 +3770,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ13">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4507,7 +4513,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4919,7 +4925,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -4997,7 +5003,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ19">
         <v>0.9</v>
@@ -5537,7 +5543,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5743,7 +5749,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5821,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
         <v>1.22</v>
@@ -5949,7 +5955,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6236,7 +6242,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6854,7 +6860,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6979,7 +6985,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7185,7 +7191,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7803,7 +7809,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8293,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ35">
         <v>1.22</v>
@@ -8421,7 +8427,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8627,7 +8633,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8705,7 +8711,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -9245,7 +9251,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9738,7 +9744,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -10069,7 +10075,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10768,7 +10774,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -11099,7 +11105,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11177,7 +11183,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11511,7 +11517,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11717,7 +11723,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11923,7 +11929,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12335,7 +12341,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12541,7 +12547,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12953,7 +12959,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13446,7 +13452,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR60">
         <v>1.54</v>
@@ -13777,7 +13783,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13983,7 +13989,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14267,10 +14273,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ64">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14395,7 +14401,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14807,7 +14813,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15013,7 +15019,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15219,7 +15225,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15425,7 +15431,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15503,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
         <v>1.22</v>
@@ -15631,7 +15637,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16043,7 +16049,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16249,7 +16255,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16455,7 +16461,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16661,7 +16667,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16742,7 +16748,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR76">
         <v>1.5</v>
@@ -16867,7 +16873,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17073,7 +17079,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17279,7 +17285,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17360,7 +17366,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17897,7 +17903,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18309,7 +18315,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18593,7 +18599,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ85">
         <v>1.22</v>
@@ -18721,7 +18727,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19005,7 +19011,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
         <v>0.67</v>
@@ -19133,7 +19139,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19339,7 +19345,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19623,10 +19629,10 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ90">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR90">
         <v>1.68</v>
@@ -19751,7 +19757,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19957,7 +19963,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20163,7 +20169,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20450,7 +20456,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ94">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -21193,7 +21199,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21686,7 +21692,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ100">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21811,7 +21817,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22017,7 +22023,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22635,7 +22641,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22713,7 +22719,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ105">
         <v>1.13</v>
@@ -23047,7 +23053,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23459,7 +23465,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23540,7 +23546,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ109">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR109">
         <v>1.45</v>
@@ -23665,7 +23671,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23871,7 +23877,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23949,7 +23955,7 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ111">
         <v>0.5600000000000001</v>
@@ -24155,7 +24161,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ112">
         <v>0.78</v>
@@ -24283,7 +24289,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24489,7 +24495,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24776,7 +24782,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AR115">
         <v>2.2</v>
@@ -24901,7 +24907,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25313,7 +25319,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25519,7 +25525,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25931,7 +25937,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26137,7 +26143,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26343,7 +26349,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26755,7 +26761,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26961,7 +26967,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27039,7 +27045,7 @@
         <v>0.43</v>
       </c>
       <c r="AP126">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ126">
         <v>0.67</v>
@@ -27248,7 +27254,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ127">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR127">
         <v>1.58</v>
@@ -27373,7 +27379,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27451,7 +27457,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ128">
         <v>0.9</v>
@@ -27579,7 +27585,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27991,7 +27997,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28197,7 +28203,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28609,7 +28615,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28815,7 +28821,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29021,7 +29027,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29227,7 +29233,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29639,7 +29645,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29845,7 +29851,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30257,7 +30263,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30414,6 +30420,418 @@
       </c>
       <c r="BP142">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7296668</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45516.58333333334</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>71</v>
+      </c>
+      <c r="H143" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>189</v>
+      </c>
+      <c r="P143" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q143">
+        <v>2.8</v>
+      </c>
+      <c r="R143">
+        <v>2.35</v>
+      </c>
+      <c r="S143">
+        <v>3.05</v>
+      </c>
+      <c r="T143">
+        <v>1.27</v>
+      </c>
+      <c r="U143">
+        <v>3.3</v>
+      </c>
+      <c r="V143">
+        <v>2.38</v>
+      </c>
+      <c r="W143">
+        <v>1.54</v>
+      </c>
+      <c r="X143">
+        <v>5.1</v>
+      </c>
+      <c r="Y143">
+        <v>1.12</v>
+      </c>
+      <c r="Z143">
+        <v>2.3</v>
+      </c>
+      <c r="AA143">
+        <v>3.55</v>
+      </c>
+      <c r="AB143">
+        <v>2.65</v>
+      </c>
+      <c r="AC143">
+        <v>1.02</v>
+      </c>
+      <c r="AD143">
+        <v>11.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.19</v>
+      </c>
+      <c r="AF143">
+        <v>4.1</v>
+      </c>
+      <c r="AG143">
+        <v>1.58</v>
+      </c>
+      <c r="AH143">
+        <v>2.14</v>
+      </c>
+      <c r="AI143">
+        <v>1.52</v>
+      </c>
+      <c r="AJ143">
+        <v>2.33</v>
+      </c>
+      <c r="AK143">
+        <v>1.45</v>
+      </c>
+      <c r="AL143">
+        <v>1.27</v>
+      </c>
+      <c r="AM143">
+        <v>1.56</v>
+      </c>
+      <c r="AN143">
+        <v>1.22</v>
+      </c>
+      <c r="AO143">
+        <v>0.63</v>
+      </c>
+      <c r="AP143">
+        <v>1.4</v>
+      </c>
+      <c r="AQ143">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR143">
+        <v>1.78</v>
+      </c>
+      <c r="AS143">
+        <v>1.22</v>
+      </c>
+      <c r="AT143">
+        <v>3</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>9</v>
+      </c>
+      <c r="AW143">
+        <v>6</v>
+      </c>
+      <c r="AX143">
+        <v>11</v>
+      </c>
+      <c r="AY143">
+        <v>10</v>
+      </c>
+      <c r="AZ143">
+        <v>20</v>
+      </c>
+      <c r="BA143">
+        <v>5</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>1.84</v>
+      </c>
+      <c r="BE143">
+        <v>6.25</v>
+      </c>
+      <c r="BF143">
+        <v>2.05</v>
+      </c>
+      <c r="BG143">
+        <v>1.3</v>
+      </c>
+      <c r="BH143">
+        <v>3.05</v>
+      </c>
+      <c r="BI143">
+        <v>1.55</v>
+      </c>
+      <c r="BJ143">
+        <v>2.28</v>
+      </c>
+      <c r="BK143">
+        <v>1.9</v>
+      </c>
+      <c r="BL143">
+        <v>1.79</v>
+      </c>
+      <c r="BM143">
+        <v>2.4</v>
+      </c>
+      <c r="BN143">
+        <v>1.49</v>
+      </c>
+      <c r="BO143">
+        <v>3.15</v>
+      </c>
+      <c r="BP143">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7296669</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45516.58333333334</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144" t="s">
+        <v>70</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>90</v>
+      </c>
+      <c r="P144" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q144">
+        <v>1.74</v>
+      </c>
+      <c r="R144">
+        <v>2.7</v>
+      </c>
+      <c r="S144">
+        <v>6.1</v>
+      </c>
+      <c r="T144">
+        <v>1.22</v>
+      </c>
+      <c r="U144">
+        <v>3.8</v>
+      </c>
+      <c r="V144">
+        <v>2.12</v>
+      </c>
+      <c r="W144">
+        <v>1.68</v>
+      </c>
+      <c r="X144">
+        <v>4.4</v>
+      </c>
+      <c r="Y144">
+        <v>1.16</v>
+      </c>
+      <c r="Z144">
+        <v>1.3</v>
+      </c>
+      <c r="AA144">
+        <v>5.25</v>
+      </c>
+      <c r="AB144">
+        <v>7.4</v>
+      </c>
+      <c r="AC144">
+        <v>1.02</v>
+      </c>
+      <c r="AD144">
+        <v>22.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.11</v>
+      </c>
+      <c r="AF144">
+        <v>5.2</v>
+      </c>
+      <c r="AG144">
+        <v>1.44</v>
+      </c>
+      <c r="AH144">
+        <v>2.48</v>
+      </c>
+      <c r="AI144">
+        <v>1.73</v>
+      </c>
+      <c r="AJ144">
+        <v>1.98</v>
+      </c>
+      <c r="AK144">
+        <v>1.07</v>
+      </c>
+      <c r="AL144">
+        <v>1.14</v>
+      </c>
+      <c r="AM144">
+        <v>3.2</v>
+      </c>
+      <c r="AN144">
+        <v>2.38</v>
+      </c>
+      <c r="AO144">
+        <v>0.13</v>
+      </c>
+      <c r="AP144">
+        <v>2.22</v>
+      </c>
+      <c r="AQ144">
+        <v>0.22</v>
+      </c>
+      <c r="AR144">
+        <v>1.52</v>
+      </c>
+      <c r="AS144">
+        <v>1.31</v>
+      </c>
+      <c r="AT144">
+        <v>2.83</v>
+      </c>
+      <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
+        <v>3</v>
+      </c>
+      <c r="AW144">
+        <v>10</v>
+      </c>
+      <c r="AX144">
+        <v>1</v>
+      </c>
+      <c r="AY144">
+        <v>16</v>
+      </c>
+      <c r="AZ144">
+        <v>4</v>
+      </c>
+      <c r="BA144">
+        <v>11</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>12</v>
+      </c>
+      <c r="BD144">
+        <v>1.2</v>
+      </c>
+      <c r="BE144">
+        <v>8</v>
+      </c>
+      <c r="BF144">
+        <v>4.35</v>
+      </c>
+      <c r="BG144">
+        <v>1.32</v>
+      </c>
+      <c r="BH144">
+        <v>3.05</v>
+      </c>
+      <c r="BI144">
+        <v>1.54</v>
+      </c>
+      <c r="BJ144">
+        <v>2.3</v>
+      </c>
+      <c r="BK144">
+        <v>1.85</v>
+      </c>
+      <c r="BL144">
+        <v>1.83</v>
+      </c>
+      <c r="BM144">
+        <v>2.33</v>
+      </c>
+      <c r="BN144">
+        <v>1.52</v>
+      </c>
+      <c r="BO144">
+        <v>3.05</v>
+      </c>
+      <c r="BP144">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -804,6 +804,9 @@
   <si>
     <t>['53']</t>
   </si>
+  <si>
+    <t>['51']</t>
+  </si>
 </sst>
 </file>
 
@@ -1164,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2946,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4591,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>1.22</v>
@@ -5621,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
         <v>1.22</v>
@@ -6036,7 +6039,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -8917,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
         <v>0.5600000000000001</v>
@@ -9332,7 +9335,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -12419,7 +12422,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12834,7 +12837,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -15303,7 +15306,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ69">
         <v>0.78</v>
@@ -16130,7 +16133,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -17157,7 +17160,7 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -20044,7 +20047,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR92">
         <v>0.98</v>
@@ -20453,7 +20456,7 @@
         <v>0.4</v>
       </c>
       <c r="AP94">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ94">
         <v>0.5600000000000001</v>
@@ -21280,7 +21283,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR98">
         <v>1.48</v>
@@ -22925,7 +22928,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ106">
         <v>0.89</v>
@@ -25606,7 +25609,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -27663,7 +27666,7 @@
         <v>1.57</v>
       </c>
       <c r="AP129">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -30832,6 +30835,212 @@
       </c>
       <c r="BP144">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7296670</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45517.58333333334</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>85</v>
+      </c>
+      <c r="H145" t="s">
+        <v>81</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>126</v>
+      </c>
+      <c r="P145" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q145">
+        <v>3.1</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>3.4</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>2.44</v>
+      </c>
+      <c r="AA145">
+        <v>3.35</v>
+      </c>
+      <c r="AB145">
+        <v>2.59</v>
+      </c>
+      <c r="AC145">
+        <v>1.02</v>
+      </c>
+      <c r="AD145">
+        <v>9.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.25</v>
+      </c>
+      <c r="AF145">
+        <v>3.5</v>
+      </c>
+      <c r="AG145">
+        <v>1.82</v>
+      </c>
+      <c r="AH145">
+        <v>1.88</v>
+      </c>
+      <c r="AI145">
+        <v>1.7</v>
+      </c>
+      <c r="AJ145">
+        <v>2.05</v>
+      </c>
+      <c r="AK145">
+        <v>1.35</v>
+      </c>
+      <c r="AL145">
+        <v>1.25</v>
+      </c>
+      <c r="AM145">
+        <v>1.5</v>
+      </c>
+      <c r="AN145">
+        <v>1.44</v>
+      </c>
+      <c r="AO145">
+        <v>1.25</v>
+      </c>
+      <c r="AP145">
+        <v>1.4</v>
+      </c>
+      <c r="AQ145">
+        <v>1.22</v>
+      </c>
+      <c r="AR145">
+        <v>1.55</v>
+      </c>
+      <c r="AS145">
+        <v>1.29</v>
+      </c>
+      <c r="AT145">
+        <v>2.84</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>10</v>
+      </c>
+      <c r="AX145">
+        <v>7</v>
+      </c>
+      <c r="AY145">
+        <v>14</v>
+      </c>
+      <c r="AZ145">
+        <v>11</v>
+      </c>
+      <c r="BA145">
+        <v>5</v>
+      </c>
+      <c r="BB145">
+        <v>7</v>
+      </c>
+      <c r="BC145">
+        <v>12</v>
+      </c>
+      <c r="BD145">
+        <v>1.79</v>
+      </c>
+      <c r="BE145">
+        <v>6.25</v>
+      </c>
+      <c r="BF145">
+        <v>2.08</v>
+      </c>
+      <c r="BG145">
+        <v>1.3</v>
+      </c>
+      <c r="BH145">
+        <v>3.1</v>
+      </c>
+      <c r="BI145">
+        <v>1.54</v>
+      </c>
+      <c r="BJ145">
+        <v>2.3</v>
+      </c>
+      <c r="BK145">
+        <v>1.88</v>
+      </c>
+      <c r="BL145">
+        <v>1.81</v>
+      </c>
+      <c r="BM145">
+        <v>2.33</v>
+      </c>
+      <c r="BN145">
+        <v>1.52</v>
+      </c>
+      <c r="BO145">
+        <v>2.95</v>
+      </c>
+      <c r="BP145">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -584,6 +584,12 @@
   </si>
   <si>
     <t>['9', '19', '85']</t>
+  </si>
+  <si>
+    <t>['31', '65', '76']</t>
+  </si>
+  <si>
+    <t>['15', '37']</t>
   </si>
   <si>
     <t>['23', '51']</t>
@@ -1167,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1632,7 +1638,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1713,7 +1719,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2044,7 +2050,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2456,7 +2462,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2868,7 +2874,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3280,7 +3286,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3358,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3486,7 +3492,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3773,7 +3779,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ13">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4388,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4516,7 +4522,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4928,7 +4934,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5212,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.5600000000000001</v>
@@ -5546,7 +5552,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5627,7 +5633,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5752,7 +5758,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5958,7 +5964,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6863,7 +6869,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6988,7 +6994,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7194,7 +7200,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7272,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7812,7 +7818,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8305,7 +8311,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ35">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8430,7 +8436,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8636,7 +8642,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9254,7 +9260,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9744,10 +9750,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -10078,7 +10084,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10980,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>1.22</v>
@@ -11108,7 +11114,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11520,7 +11526,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11601,7 +11607,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11726,7 +11732,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11932,7 +11938,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12010,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>1.13</v>
@@ -12344,7 +12350,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12550,7 +12556,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12962,7 +12968,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13455,7 +13461,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR60">
         <v>1.54</v>
@@ -13786,7 +13792,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13864,7 +13870,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
         <v>1.22</v>
@@ -13992,7 +13998,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14404,7 +14410,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14816,7 +14822,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15022,7 +15028,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15228,7 +15234,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15434,7 +15440,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15640,7 +15646,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15721,7 +15727,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -15924,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>0.9</v>
@@ -16052,7 +16058,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16258,7 +16264,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16464,7 +16470,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16542,7 +16548,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
         <v>0.5600000000000001</v>
@@ -16670,7 +16676,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16876,7 +16882,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17082,7 +17088,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17288,7 +17294,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17369,7 +17375,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17906,7 +17912,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17987,7 +17993,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ82">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18318,7 +18324,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18730,7 +18736,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19142,7 +19148,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19348,7 +19354,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19426,7 +19432,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
         <v>0.78</v>
@@ -19635,7 +19641,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ90">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR90">
         <v>1.68</v>
@@ -19760,7 +19766,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19966,7 +19972,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20172,7 +20178,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -21202,7 +21208,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21280,7 +21286,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98">
         <v>1.22</v>
@@ -21489,7 +21495,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21695,7 +21701,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ100">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21820,7 +21826,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21898,7 +21904,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ101">
         <v>0.67</v>
@@ -22026,7 +22032,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22644,7 +22650,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23056,7 +23062,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23468,7 +23474,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23674,7 +23680,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23880,7 +23886,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24292,7 +24298,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24498,7 +24504,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24785,7 +24791,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR115">
         <v>2.2</v>
@@ -24910,7 +24916,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -24988,7 +24994,7 @@
         <v>1.67</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116">
         <v>2</v>
@@ -25322,7 +25328,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25403,7 +25409,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ118">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25528,7 +25534,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25940,7 +25946,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26018,7 +26024,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ121">
         <v>2</v>
@@ -26146,7 +26152,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26352,7 +26358,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26764,7 +26770,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26970,7 +26976,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27382,7 +27388,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27588,7 +27594,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27875,7 +27881,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ130">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28000,7 +28006,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28206,7 +28212,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28618,7 +28624,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28696,7 +28702,7 @@
         <v>1.86</v>
       </c>
       <c r="AP134">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ134">
         <v>2</v>
@@ -28824,7 +28830,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29030,7 +29036,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29236,7 +29242,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29648,7 +29654,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29854,7 +29860,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30266,7 +30272,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30344,7 +30350,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30472,7 +30478,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30759,7 +30765,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ144">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -30884,7 +30890,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31041,6 +31047,418 @@
       </c>
       <c r="BP145">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7296683</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45520.58333333334</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>79</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>190</v>
+      </c>
+      <c r="P146" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q146">
+        <v>2.31</v>
+      </c>
+      <c r="R146">
+        <v>2.29</v>
+      </c>
+      <c r="S146">
+        <v>4.45</v>
+      </c>
+      <c r="T146">
+        <v>1.31</v>
+      </c>
+      <c r="U146">
+        <v>3.28</v>
+      </c>
+      <c r="V146">
+        <v>2.46</v>
+      </c>
+      <c r="W146">
+        <v>1.51</v>
+      </c>
+      <c r="X146">
+        <v>5.8</v>
+      </c>
+      <c r="Y146">
+        <v>1.12</v>
+      </c>
+      <c r="Z146">
+        <v>1.73</v>
+      </c>
+      <c r="AA146">
+        <v>3.8</v>
+      </c>
+      <c r="AB146">
+        <v>4</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>11</v>
+      </c>
+      <c r="AE146">
+        <v>1.18</v>
+      </c>
+      <c r="AF146">
+        <v>4.05</v>
+      </c>
+      <c r="AG146">
+        <v>1.64</v>
+      </c>
+      <c r="AH146">
+        <v>2.1</v>
+      </c>
+      <c r="AI146">
+        <v>1.62</v>
+      </c>
+      <c r="AJ146">
+        <v>2.24</v>
+      </c>
+      <c r="AK146">
+        <v>1.23</v>
+      </c>
+      <c r="AL146">
+        <v>1.24</v>
+      </c>
+      <c r="AM146">
+        <v>1.95</v>
+      </c>
+      <c r="AN146">
+        <v>1.22</v>
+      </c>
+      <c r="AO146">
+        <v>0.22</v>
+      </c>
+      <c r="AP146">
+        <v>1.4</v>
+      </c>
+      <c r="AQ146">
+        <v>0.2</v>
+      </c>
+      <c r="AR146">
+        <v>1.12</v>
+      </c>
+      <c r="AS146">
+        <v>1.21</v>
+      </c>
+      <c r="AT146">
+        <v>2.33</v>
+      </c>
+      <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>7</v>
+      </c>
+      <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>7</v>
+      </c>
+      <c r="AZ146">
+        <v>11</v>
+      </c>
+      <c r="BA146">
+        <v>8</v>
+      </c>
+      <c r="BB146">
+        <v>9</v>
+      </c>
+      <c r="BC146">
+        <v>17</v>
+      </c>
+      <c r="BD146">
+        <v>1.49</v>
+      </c>
+      <c r="BE146">
+        <v>6.75</v>
+      </c>
+      <c r="BF146">
+        <v>2.65</v>
+      </c>
+      <c r="BG146">
+        <v>1.21</v>
+      </c>
+      <c r="BH146">
+        <v>3.8</v>
+      </c>
+      <c r="BI146">
+        <v>1.38</v>
+      </c>
+      <c r="BJ146">
+        <v>2.8</v>
+      </c>
+      <c r="BK146">
+        <v>1.61</v>
+      </c>
+      <c r="BL146">
+        <v>2.15</v>
+      </c>
+      <c r="BM146">
+        <v>1.96</v>
+      </c>
+      <c r="BN146">
+        <v>1.74</v>
+      </c>
+      <c r="BO146">
+        <v>2.45</v>
+      </c>
+      <c r="BP146">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7296681</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45520.58333333334</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>84</v>
+      </c>
+      <c r="H147" t="s">
+        <v>82</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>191</v>
+      </c>
+      <c r="P147" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q147">
+        <v>2.77</v>
+      </c>
+      <c r="R147">
+        <v>2.21</v>
+      </c>
+      <c r="S147">
+        <v>3.88</v>
+      </c>
+      <c r="T147">
+        <v>1.37</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>2.89</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>7.2</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>2.12</v>
+      </c>
+      <c r="AA147">
+        <v>3.38</v>
+      </c>
+      <c r="AB147">
+        <v>3.38</v>
+      </c>
+      <c r="AC147">
+        <v>1.02</v>
+      </c>
+      <c r="AD147">
+        <v>8.6</v>
+      </c>
+      <c r="AE147">
+        <v>1.27</v>
+      </c>
+      <c r="AF147">
+        <v>3.28</v>
+      </c>
+      <c r="AG147">
+        <v>1.9</v>
+      </c>
+      <c r="AH147">
+        <v>1.88</v>
+      </c>
+      <c r="AI147">
+        <v>1.73</v>
+      </c>
+      <c r="AJ147">
+        <v>1.99</v>
+      </c>
+      <c r="AK147">
+        <v>1.3</v>
+      </c>
+      <c r="AL147">
+        <v>1.35</v>
+      </c>
+      <c r="AM147">
+        <v>1.7</v>
+      </c>
+      <c r="AN147">
+        <v>1.25</v>
+      </c>
+      <c r="AO147">
+        <v>1.22</v>
+      </c>
+      <c r="AP147">
+        <v>1.44</v>
+      </c>
+      <c r="AQ147">
+        <v>1.1</v>
+      </c>
+      <c r="AR147">
+        <v>1.56</v>
+      </c>
+      <c r="AS147">
+        <v>1.33</v>
+      </c>
+      <c r="AT147">
+        <v>2.89</v>
+      </c>
+      <c r="AU147">
+        <v>5</v>
+      </c>
+      <c r="AV147">
+        <v>8</v>
+      </c>
+      <c r="AW147">
+        <v>6</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>11</v>
+      </c>
+      <c r="AZ147">
+        <v>14</v>
+      </c>
+      <c r="BA147">
+        <v>1</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>5</v>
+      </c>
+      <c r="BD147">
+        <v>1.71</v>
+      </c>
+      <c r="BE147">
+        <v>6.4</v>
+      </c>
+      <c r="BF147">
+        <v>2.23</v>
+      </c>
+      <c r="BG147">
+        <v>1.24</v>
+      </c>
+      <c r="BH147">
+        <v>3.55</v>
+      </c>
+      <c r="BI147">
+        <v>1.43</v>
+      </c>
+      <c r="BJ147">
+        <v>2.63</v>
+      </c>
+      <c r="BK147">
+        <v>1.7</v>
+      </c>
+      <c r="BL147">
+        <v>2.02</v>
+      </c>
+      <c r="BM147">
+        <v>2.08</v>
+      </c>
+      <c r="BN147">
+        <v>1.65</v>
+      </c>
+      <c r="BO147">
+        <v>2.65</v>
+      </c>
+      <c r="BP147">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,10 +586,13 @@
     <t>['9', '19', '85']</t>
   </si>
   <si>
-    <t>['31', '65', '76']</t>
+    <t>['45']</t>
   </si>
   <si>
-    <t>['15', '37']</t>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['1', '27', '58', '90+5']</t>
   </si>
   <si>
     <t>['23', '51']</t>
@@ -614,9 +617,6 @@
   </si>
   <si>
     <t>['90+2']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
   <si>
     <t>['61', '73']</t>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['37', '41', '43']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1516,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1638,7 +1641,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1719,7 +1722,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2050,7 +2053,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2128,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0.9</v>
@@ -2334,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>0.78</v>
@@ -2462,7 +2465,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2543,7 +2546,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2874,7 +2877,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2952,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ9">
         <v>1.22</v>
@@ -3286,7 +3289,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3364,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3492,7 +3495,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3779,7 +3782,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ13">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3985,7 +3988,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4188,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -4394,10 +4397,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4522,7 +4525,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4934,7 +4937,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5218,10 +5221,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5424,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5552,7 +5555,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5633,7 +5636,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -6248,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ25">
         <v>0.5600000000000001</v>
@@ -6660,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ27">
         <v>1.22</v>
@@ -6869,7 +6872,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7075,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7278,10 +7281,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7690,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32">
         <v>0.89</v>
@@ -7899,7 +7902,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -8311,7 +8314,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8929,7 +8932,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ38">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -9132,7 +9135,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1.22</v>
@@ -9338,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.22</v>
@@ -9544,7 +9547,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ41">
         <v>0.9</v>
@@ -9750,10 +9753,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -10368,10 +10371,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -10986,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48">
         <v>1.22</v>
@@ -11195,7 +11198,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11398,7 +11401,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ50">
         <v>0.9</v>
@@ -11604,10 +11607,10 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -12016,10 +12019,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ53">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12637,7 +12640,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ56">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12840,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -13252,10 +13255,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13461,7 +13464,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR60">
         <v>1.54</v>
@@ -13664,10 +13667,10 @@
         <v>0.25</v>
       </c>
       <c r="AP61">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ61">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>0.92</v>
@@ -13870,7 +13873,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
         <v>1.22</v>
@@ -14079,7 +14082,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ63">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.89</v>
@@ -14903,7 +14906,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR67">
         <v>1.81</v>
@@ -15106,7 +15109,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15724,10 +15727,10 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -15930,7 +15933,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ72">
         <v>0.9</v>
@@ -16342,7 +16345,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16548,10 +16551,10 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.67</v>
@@ -16963,7 +16966,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -17372,10 +17375,10 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17993,7 +17996,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ82">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18814,7 +18817,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ86">
         <v>0.9</v>
@@ -19023,7 +19026,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -19229,7 +19232,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR88">
         <v>1.45</v>
@@ -19432,7 +19435,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ89">
         <v>0.78</v>
@@ -19641,7 +19644,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ90">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR90">
         <v>1.68</v>
@@ -20050,7 +20053,7 @@
         <v>1.2</v>
       </c>
       <c r="AP92">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ92">
         <v>1.22</v>
@@ -20668,10 +20671,10 @@
         <v>0.67</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ95">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR95">
         <v>2.11</v>
@@ -21080,7 +21083,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>1.22</v>
@@ -21286,7 +21289,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
         <v>1.22</v>
@@ -21495,7 +21498,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21701,7 +21704,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ100">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21904,10 +21907,10 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ101">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR101">
         <v>1.1</v>
@@ -22110,7 +22113,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22316,10 +22319,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR103">
         <v>2.16</v>
@@ -22522,7 +22525,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104">
         <v>1.22</v>
@@ -22731,7 +22734,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ105">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.43</v>
@@ -23143,7 +23146,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ107">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR107">
         <v>1.45</v>
@@ -23967,7 +23970,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ111">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24376,7 +24379,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24788,10 +24791,10 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ115">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR115">
         <v>2.2</v>
@@ -24994,10 +24997,10 @@
         <v>1.67</v>
       </c>
       <c r="AP116">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25200,10 +25203,10 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ117">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25409,7 +25412,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ118">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25818,7 +25821,7 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ120">
         <v>1.22</v>
@@ -26024,7 +26027,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ121">
         <v>2</v>
@@ -27057,7 +27060,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27881,7 +27884,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ130">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28084,10 +28087,10 @@
         <v>0.63</v>
       </c>
       <c r="AP131">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ131">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR131">
         <v>1.57</v>
@@ -28499,7 +28502,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28702,10 +28705,10 @@
         <v>1.86</v>
       </c>
       <c r="AP134">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AQ134">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR134">
         <v>1.09</v>
@@ -28908,10 +28911,10 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ135">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>0.9</v>
@@ -29114,7 +29117,7 @@
         <v>1.88</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136">
         <v>2</v>
@@ -29320,7 +29323,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ137">
         <v>1.22</v>
@@ -30350,7 +30353,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30765,7 +30768,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ144">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -31054,7 +31057,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7296683</v>
+        <v>7296678</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31063,196 +31066,196 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45520.58333333334</v>
+        <v>45521.33333333334</v>
       </c>
       <c r="F146">
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H146" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M146">
         <v>0</v>
       </c>
       <c r="N146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O146" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="P146" t="s">
         <v>90</v>
       </c>
       <c r="Q146">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="R146">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="S146">
-        <v>4.45</v>
+        <v>3.3</v>
       </c>
       <c r="T146">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U146">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="V146">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="W146">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X146">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y146">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z146">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="AA146">
-        <v>3.8</v>
+        <v>3.23</v>
       </c>
       <c r="AB146">
-        <v>4</v>
+        <v>2.57</v>
       </c>
       <c r="AC146">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD146">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE146">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF146">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="AG146">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AH146">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AI146">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ146">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="AK146">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AL146">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AM146">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AN146">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AO146">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP146">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AR146">
-        <v>1.12</v>
+        <v>1.69</v>
       </c>
       <c r="AS146">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
-        <v>2.33</v>
+        <v>3.19</v>
       </c>
       <c r="AU146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV146">
+        <v>12</v>
+      </c>
+      <c r="AW146">
+        <v>3</v>
+      </c>
+      <c r="AX146">
         <v>7</v>
       </c>
-      <c r="AW146">
-        <v>2</v>
-      </c>
-      <c r="AX146">
-        <v>4</v>
-      </c>
       <c r="AY146">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ146">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA146">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BB146">
         <v>9</v>
       </c>
       <c r="BC146">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BD146">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="BE146">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF146">
-        <v>2.65</v>
+        <v>2.08</v>
       </c>
       <c r="BG146">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="BH146">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="BI146">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="BJ146">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="BK146">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="BL146">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="BM146">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="BN146">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="BO146">
-        <v>2.45</v>
+        <v>2.07</v>
       </c>
       <c r="BP146">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31260,7 +31263,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7296681</v>
+        <v>7296679</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31269,196 +31272,608 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45520.58333333334</v>
+        <v>45521.33333333334</v>
       </c>
       <c r="F147">
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H147" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>190</v>
+      </c>
+      <c r="P147" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q147">
+        <v>1.9</v>
+      </c>
+      <c r="R147">
+        <v>2.6</v>
+      </c>
+      <c r="S147">
+        <v>5.15</v>
+      </c>
+      <c r="T147">
+        <v>1.22</v>
+      </c>
+      <c r="U147">
+        <v>4</v>
+      </c>
+      <c r="V147">
+        <v>2.07</v>
+      </c>
+      <c r="W147">
+        <v>1.71</v>
+      </c>
+      <c r="X147">
+        <v>4.4</v>
+      </c>
+      <c r="Y147">
+        <v>1.19</v>
+      </c>
+      <c r="Z147">
+        <v>1.43</v>
+      </c>
+      <c r="AA147">
+        <v>4.26</v>
+      </c>
+      <c r="AB147">
+        <v>5.13</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>24.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.13</v>
+      </c>
+      <c r="AF147">
+        <v>5.25</v>
+      </c>
+      <c r="AG147">
+        <v>1.48</v>
+      </c>
+      <c r="AH147">
+        <v>2.47</v>
+      </c>
+      <c r="AI147">
+        <v>1.53</v>
+      </c>
+      <c r="AJ147">
+        <v>2.34</v>
+      </c>
+      <c r="AK147">
+        <v>1.08</v>
+      </c>
+      <c r="AL147">
+        <v>1.15</v>
+      </c>
+      <c r="AM147">
+        <v>2.55</v>
+      </c>
+      <c r="AN147">
+        <v>2</v>
+      </c>
+      <c r="AO147">
+        <v>1.13</v>
+      </c>
+      <c r="AP147">
+        <v>2.1</v>
+      </c>
+      <c r="AQ147">
+        <v>1</v>
+      </c>
+      <c r="AR147">
+        <v>2.21</v>
+      </c>
+      <c r="AS147">
+        <v>1.31</v>
+      </c>
+      <c r="AT147">
+        <v>3.52</v>
+      </c>
+      <c r="AU147">
+        <v>8</v>
+      </c>
+      <c r="AV147">
         <v>3</v>
-      </c>
-      <c r="L147">
-        <v>2</v>
-      </c>
-      <c r="M147">
-        <v>1</v>
-      </c>
-      <c r="N147">
-        <v>3</v>
-      </c>
-      <c r="O147" t="s">
-        <v>191</v>
-      </c>
-      <c r="P147" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q147">
-        <v>2.77</v>
-      </c>
-      <c r="R147">
-        <v>2.21</v>
-      </c>
-      <c r="S147">
-        <v>3.88</v>
-      </c>
-      <c r="T147">
-        <v>1.37</v>
-      </c>
-      <c r="U147">
-        <v>3</v>
-      </c>
-      <c r="V147">
-        <v>2.89</v>
-      </c>
-      <c r="W147">
-        <v>1.4</v>
-      </c>
-      <c r="X147">
-        <v>7.2</v>
-      </c>
-      <c r="Y147">
-        <v>1.08</v>
-      </c>
-      <c r="Z147">
-        <v>2.12</v>
-      </c>
-      <c r="AA147">
-        <v>3.38</v>
-      </c>
-      <c r="AB147">
-        <v>3.38</v>
-      </c>
-      <c r="AC147">
-        <v>1.02</v>
-      </c>
-      <c r="AD147">
-        <v>8.6</v>
-      </c>
-      <c r="AE147">
-        <v>1.27</v>
-      </c>
-      <c r="AF147">
-        <v>3.28</v>
-      </c>
-      <c r="AG147">
-        <v>1.9</v>
-      </c>
-      <c r="AH147">
-        <v>1.88</v>
-      </c>
-      <c r="AI147">
-        <v>1.73</v>
-      </c>
-      <c r="AJ147">
-        <v>1.99</v>
-      </c>
-      <c r="AK147">
-        <v>1.3</v>
-      </c>
-      <c r="AL147">
-        <v>1.35</v>
-      </c>
-      <c r="AM147">
-        <v>1.7</v>
-      </c>
-      <c r="AN147">
-        <v>1.25</v>
-      </c>
-      <c r="AO147">
-        <v>1.22</v>
-      </c>
-      <c r="AP147">
-        <v>1.44</v>
-      </c>
-      <c r="AQ147">
-        <v>1.1</v>
-      </c>
-      <c r="AR147">
-        <v>1.56</v>
-      </c>
-      <c r="AS147">
-        <v>1.33</v>
-      </c>
-      <c r="AT147">
-        <v>2.89</v>
-      </c>
-      <c r="AU147">
-        <v>5</v>
-      </c>
-      <c r="AV147">
-        <v>8</v>
       </c>
       <c r="AW147">
         <v>6</v>
       </c>
       <c r="AX147">
+        <v>10</v>
+      </c>
+      <c r="AY147">
+        <v>14</v>
+      </c>
+      <c r="AZ147">
+        <v>13</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
+        <v>10</v>
+      </c>
+      <c r="BD147">
+        <v>1.35</v>
+      </c>
+      <c r="BE147">
+        <v>7.5</v>
+      </c>
+      <c r="BF147">
+        <v>3.15</v>
+      </c>
+      <c r="BG147">
+        <v>1.16</v>
+      </c>
+      <c r="BH147">
+        <v>4.6</v>
+      </c>
+      <c r="BI147">
+        <v>1.28</v>
+      </c>
+      <c r="BJ147">
+        <v>3.3</v>
+      </c>
+      <c r="BK147">
+        <v>1.47</v>
+      </c>
+      <c r="BL147">
+        <v>2.48</v>
+      </c>
+      <c r="BM147">
+        <v>1.74</v>
+      </c>
+      <c r="BN147">
+        <v>1.97</v>
+      </c>
+      <c r="BO147">
+        <v>2.1</v>
+      </c>
+      <c r="BP147">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7296677</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45521.41666666666</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>83</v>
+      </c>
+      <c r="H148" t="s">
+        <v>85</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
+      <c r="O148" t="s">
+        <v>191</v>
+      </c>
+      <c r="P148" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q148">
+        <v>4.75</v>
+      </c>
+      <c r="R148">
+        <v>2.1</v>
+      </c>
+      <c r="S148">
+        <v>2.5</v>
+      </c>
+      <c r="T148">
+        <v>1.4</v>
+      </c>
+      <c r="U148">
+        <v>2.75</v>
+      </c>
+      <c r="V148">
+        <v>3</v>
+      </c>
+      <c r="W148">
+        <v>1.36</v>
+      </c>
+      <c r="X148">
+        <v>8</v>
+      </c>
+      <c r="Y148">
+        <v>1.08</v>
+      </c>
+      <c r="Z148">
+        <v>4.2</v>
+      </c>
+      <c r="AA148">
+        <v>3.6</v>
+      </c>
+      <c r="AB148">
+        <v>1.83</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>8.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.27</v>
+      </c>
+      <c r="AF148">
+        <v>3.3</v>
+      </c>
+      <c r="AG148">
+        <v>1.95</v>
+      </c>
+      <c r="AH148">
+        <v>1.9</v>
+      </c>
+      <c r="AI148">
+        <v>1.91</v>
+      </c>
+      <c r="AJ148">
+        <v>1.91</v>
+      </c>
+      <c r="AK148">
+        <v>1.93</v>
+      </c>
+      <c r="AL148">
+        <v>1.27</v>
+      </c>
+      <c r="AM148">
+        <v>1.21</v>
+      </c>
+      <c r="AN148">
+        <v>1.22</v>
+      </c>
+      <c r="AO148">
+        <v>2</v>
+      </c>
+      <c r="AP148">
+        <v>1.1</v>
+      </c>
+      <c r="AQ148">
+        <v>2.11</v>
+      </c>
+      <c r="AR148">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS148">
+        <v>1.44</v>
+      </c>
+      <c r="AT148">
+        <v>2.38</v>
+      </c>
+      <c r="AU148">
+        <v>10</v>
+      </c>
+      <c r="AV148">
+        <v>12</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>12</v>
+      </c>
+      <c r="AZ148">
+        <v>17</v>
+      </c>
+      <c r="BA148">
         <v>6</v>
       </c>
-      <c r="AY147">
+      <c r="BB148">
+        <v>7</v>
+      </c>
+      <c r="BC148">
+        <v>13</v>
+      </c>
+      <c r="BD148">
+        <v>2.8</v>
+      </c>
+      <c r="BE148">
+        <v>7</v>
+      </c>
+      <c r="BF148">
+        <v>1.44</v>
+      </c>
+      <c r="BG148">
+        <v>1.2</v>
+      </c>
+      <c r="BH148">
+        <v>3.95</v>
+      </c>
+      <c r="BI148">
+        <v>1.35</v>
+      </c>
+      <c r="BJ148">
+        <v>2.9</v>
+      </c>
+      <c r="BK148">
+        <v>1.58</v>
+      </c>
+      <c r="BL148">
+        <v>2.18</v>
+      </c>
+      <c r="BM148">
+        <v>1.92</v>
+      </c>
+      <c r="BN148">
+        <v>1.78</v>
+      </c>
+      <c r="BO148">
+        <v>2.4</v>
+      </c>
+      <c r="BP148">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7296676</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45521.41666666666</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>74</v>
+      </c>
+      <c r="H149" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>5</v>
+      </c>
+      <c r="O149" t="s">
+        <v>192</v>
+      </c>
+      <c r="P149" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q149">
+        <v>2.05</v>
+      </c>
+      <c r="R149">
+        <v>2.4</v>
+      </c>
+      <c r="S149">
+        <v>5</v>
+      </c>
+      <c r="T149">
+        <v>1.28</v>
+      </c>
+      <c r="U149">
+        <v>3.44</v>
+      </c>
+      <c r="V149">
+        <v>2.36</v>
+      </c>
+      <c r="W149">
+        <v>1.55</v>
+      </c>
+      <c r="X149">
+        <v>5.4</v>
+      </c>
+      <c r="Y149">
+        <v>1.13</v>
+      </c>
+      <c r="Z149">
+        <v>1.73</v>
+      </c>
+      <c r="AA149">
+        <v>4</v>
+      </c>
+      <c r="AB149">
+        <v>4.2</v>
+      </c>
+      <c r="AC149">
+        <v>1.01</v>
+      </c>
+      <c r="AD149">
         <v>11</v>
       </c>
-      <c r="AZ147">
-        <v>14</v>
-      </c>
-      <c r="BA147">
-        <v>1</v>
-      </c>
-      <c r="BB147">
+      <c r="AE149">
+        <v>1.2</v>
+      </c>
+      <c r="AF149">
+        <v>4.33</v>
+      </c>
+      <c r="AG149">
+        <v>1.6</v>
+      </c>
+      <c r="AH149">
+        <v>2.17</v>
+      </c>
+      <c r="AI149">
+        <v>1.6</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.17</v>
+      </c>
+      <c r="AL149">
+        <v>1.2</v>
+      </c>
+      <c r="AM149">
+        <v>2.1</v>
+      </c>
+      <c r="AN149">
+        <v>1.67</v>
+      </c>
+      <c r="AO149">
+        <v>0.67</v>
+      </c>
+      <c r="AP149">
+        <v>1.8</v>
+      </c>
+      <c r="AQ149">
+        <v>0.6</v>
+      </c>
+      <c r="AR149">
+        <v>1.65</v>
+      </c>
+      <c r="AS149">
+        <v>1.24</v>
+      </c>
+      <c r="AT149">
+        <v>2.89</v>
+      </c>
+      <c r="AU149">
+        <v>11</v>
+      </c>
+      <c r="AV149">
+        <v>7</v>
+      </c>
+      <c r="AW149">
         <v>4</v>
       </c>
-      <c r="BC147">
+      <c r="AX149">
+        <v>2</v>
+      </c>
+      <c r="AY149">
+        <v>15</v>
+      </c>
+      <c r="AZ149">
+        <v>9</v>
+      </c>
+      <c r="BA149">
+        <v>7</v>
+      </c>
+      <c r="BB149">
         <v>5</v>
       </c>
-      <c r="BD147">
-        <v>1.71</v>
-      </c>
-      <c r="BE147">
-        <v>6.4</v>
-      </c>
-      <c r="BF147">
-        <v>2.23</v>
-      </c>
-      <c r="BG147">
-        <v>1.24</v>
-      </c>
-      <c r="BH147">
-        <v>3.55</v>
-      </c>
-      <c r="BI147">
-        <v>1.43</v>
-      </c>
-      <c r="BJ147">
-        <v>2.63</v>
-      </c>
-      <c r="BK147">
-        <v>1.7</v>
-      </c>
-      <c r="BL147">
-        <v>2.02</v>
-      </c>
-      <c r="BM147">
-        <v>2.08</v>
-      </c>
-      <c r="BN147">
+      <c r="BC149">
+        <v>12</v>
+      </c>
+      <c r="BD149">
+        <v>1.42</v>
+      </c>
+      <c r="BE149">
+        <v>6.75</v>
+      </c>
+      <c r="BF149">
+        <v>2.95</v>
+      </c>
+      <c r="BG149">
+        <v>1.25</v>
+      </c>
+      <c r="BH149">
+        <v>3.45</v>
+      </c>
+      <c r="BI149">
+        <v>1.44</v>
+      </c>
+      <c r="BJ149">
+        <v>2.55</v>
+      </c>
+      <c r="BK149">
+        <v>1.72</v>
+      </c>
+      <c r="BL149">
+        <v>1.98</v>
+      </c>
+      <c r="BM149">
+        <v>2.1</v>
+      </c>
+      <c r="BN149">
         <v>1.65</v>
       </c>
-      <c r="BO147">
+      <c r="BO149">
         <v>2.65</v>
       </c>
-      <c r="BP147">
-        <v>1.42</v>
+      <c r="BP149">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,12 @@
     <t>['9', '19', '85']</t>
   </si>
   <si>
+    <t>['31', '65', '76']</t>
+  </si>
+  <si>
+    <t>['15', '37']</t>
+  </si>
+  <si>
     <t>['45']</t>
   </si>
   <si>
@@ -593,6 +599,12 @@
   </si>
   <si>
     <t>['1', '27', '58', '90+5']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['6', '90+3']</t>
   </si>
   <si>
     <t>['23', '51']</t>
@@ -1176,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1641,7 +1653,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1722,7 +1734,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2053,7 +2065,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2465,7 +2477,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2877,7 +2889,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3289,7 +3301,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3367,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3495,7 +3507,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3573,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>0.5600000000000001</v>
@@ -3779,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ13">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4194,7 +4206,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4397,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4525,7 +4537,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4606,7 +4618,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4937,7 +4949,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5221,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5555,7 +5567,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>2.66</v>
@@ -5636,7 +5648,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5761,7 +5773,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5842,7 +5854,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ23">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -5967,7 +5979,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6457,7 +6469,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6872,7 +6884,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -6997,7 +7009,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7203,7 +7215,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7281,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -7490,7 +7502,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7821,7 +7833,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7899,7 +7911,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ33">
         <v>2.11</v>
@@ -8314,7 +8326,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ35">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8439,7 +8451,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8645,7 +8657,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9138,7 +9150,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -9263,7 +9275,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9753,10 +9765,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -9959,10 +9971,10 @@
         <v>1.33</v>
       </c>
       <c r="AP43">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -10087,7 +10099,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10165,10 +10177,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10989,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>1.22</v>
@@ -11117,7 +11129,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11529,7 +11541,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11610,7 +11622,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11735,7 +11747,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11816,7 +11828,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -11941,7 +11953,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12019,7 +12031,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12353,7 +12365,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12559,7 +12571,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12971,7 +12983,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13464,7 +13476,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR60">
         <v>1.54</v>
@@ -13795,7 +13807,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13873,10 +13885,10 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -14001,7 +14013,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14079,7 +14091,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14413,7 +14425,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14491,7 +14503,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ65">
         <v>0.89</v>
@@ -14825,7 +14837,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15031,7 +15043,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15112,7 +15124,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR68">
         <v>2.08</v>
@@ -15237,7 +15249,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15443,7 +15455,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15649,7 +15661,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15730,7 +15742,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ71">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -15933,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>0.9</v>
@@ -16061,7 +16073,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16267,7 +16279,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16473,7 +16485,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16551,7 +16563,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
         <v>0.5</v>
@@ -16679,7 +16691,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16885,7 +16897,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16963,7 +16975,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17091,7 +17103,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17172,7 +17184,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR78">
         <v>1.64</v>
@@ -17297,7 +17309,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17378,7 +17390,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17584,7 +17596,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17787,7 +17799,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ81">
         <v>0.89</v>
@@ -17915,7 +17927,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -17993,10 +18005,10 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ82">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18327,7 +18339,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18739,7 +18751,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19151,7 +19163,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19357,7 +19369,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19435,7 +19447,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
         <v>0.78</v>
@@ -19644,7 +19656,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ90">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR90">
         <v>1.68</v>
@@ -19769,7 +19781,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19850,7 +19862,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR91">
         <v>1.45</v>
@@ -19975,7 +19987,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20181,7 +20193,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20877,7 +20889,7 @@
         <v>0.83</v>
       </c>
       <c r="AP96">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ96">
         <v>0.9</v>
@@ -21086,7 +21098,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ97">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21211,7 +21223,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21289,7 +21301,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98">
         <v>1.22</v>
@@ -21498,7 +21510,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21704,7 +21716,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ100">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21829,7 +21841,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21907,7 +21919,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ101">
         <v>0.6</v>
@@ -22035,7 +22047,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22653,7 +22665,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23065,7 +23077,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23349,7 +23361,7 @@
         <v>1.29</v>
       </c>
       <c r="AP108">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23477,7 +23489,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23683,7 +23695,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23889,7 +23901,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24301,7 +24313,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24507,7 +24519,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24794,7 +24806,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ115">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR115">
         <v>2.2</v>
@@ -24919,7 +24931,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -24997,7 +25009,7 @@
         <v>1.67</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ116">
         <v>2.11</v>
@@ -25331,7 +25343,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25409,10 +25421,10 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ118">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25537,7 +25549,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25824,7 +25836,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ120">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR120">
         <v>0.88</v>
@@ -25949,7 +25961,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26027,10 +26039,10 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ121">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR121">
         <v>1.16</v>
@@ -26155,7 +26167,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26361,7 +26373,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26645,7 +26657,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ124">
         <v>0.78</v>
@@ -26773,7 +26785,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26979,7 +26991,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27391,7 +27403,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27597,7 +27609,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27884,7 +27896,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ130">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28009,7 +28021,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28215,7 +28227,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28293,7 +28305,7 @@
         <v>0.89</v>
       </c>
       <c r="AP132">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ132">
         <v>0.9</v>
@@ -28499,7 +28511,7 @@
         <v>0.75</v>
       </c>
       <c r="AP133">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ133">
         <v>0.6</v>
@@ -28627,7 +28639,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28705,7 +28717,7 @@
         <v>1.86</v>
       </c>
       <c r="AP134">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ134">
         <v>2.11</v>
@@ -28833,7 +28845,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29039,7 +29051,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29120,7 +29132,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29245,7 +29257,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29326,7 +29338,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ137">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR137">
         <v>2.2</v>
@@ -29657,7 +29669,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29863,7 +29875,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30275,7 +30287,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30353,7 +30365,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30481,7 +30493,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30768,7 +30780,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ144">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -30893,7 +30905,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31057,7 +31069,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>7296678</v>
+        <v>7296683</v>
       </c>
       <c r="C146" t="s">
         <v>68</v>
@@ -31066,196 +31078,196 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45521.33333333334</v>
+        <v>45520.58333333334</v>
       </c>
       <c r="F146">
         <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H146" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M146">
         <v>0</v>
       </c>
       <c r="N146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O146" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="P146" t="s">
         <v>90</v>
       </c>
       <c r="Q146">
-        <v>3</v>
+        <v>2.31</v>
       </c>
       <c r="R146">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="S146">
-        <v>3.3</v>
+        <v>4.45</v>
       </c>
       <c r="T146">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="U146">
-        <v>3.2</v>
+        <v>3.28</v>
       </c>
       <c r="V146">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="W146">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X146">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y146">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z146">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="AA146">
-        <v>3.23</v>
+        <v>3.8</v>
       </c>
       <c r="AB146">
-        <v>2.57</v>
+        <v>4</v>
       </c>
       <c r="AC146">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD146">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE146">
+        <v>1.18</v>
+      </c>
+      <c r="AF146">
+        <v>4.05</v>
+      </c>
+      <c r="AG146">
+        <v>1.64</v>
+      </c>
+      <c r="AH146">
+        <v>2.1</v>
+      </c>
+      <c r="AI146">
+        <v>1.62</v>
+      </c>
+      <c r="AJ146">
+        <v>2.24</v>
+      </c>
+      <c r="AK146">
+        <v>1.23</v>
+      </c>
+      <c r="AL146">
+        <v>1.24</v>
+      </c>
+      <c r="AM146">
+        <v>1.95</v>
+      </c>
+      <c r="AN146">
         <v>1.22</v>
       </c>
-      <c r="AF146">
-        <v>4.2</v>
-      </c>
-      <c r="AG146">
-        <v>1.66</v>
-      </c>
-      <c r="AH146">
-        <v>2.08</v>
-      </c>
-      <c r="AI146">
-        <v>1.57</v>
-      </c>
-      <c r="AJ146">
-        <v>2.35</v>
-      </c>
-      <c r="AK146">
-        <v>1.47</v>
-      </c>
-      <c r="AL146">
-        <v>1.25</v>
-      </c>
-      <c r="AM146">
-        <v>1.57</v>
-      </c>
-      <c r="AN146">
-        <v>1.33</v>
-      </c>
       <c r="AO146">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ146">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AR146">
-        <v>1.69</v>
+        <v>1.12</v>
       </c>
       <c r="AS146">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AT146">
-        <v>3.19</v>
+        <v>2.33</v>
       </c>
       <c r="AU146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV146">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AW146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
         <v>7</v>
       </c>
-      <c r="AY146">
-        <v>9</v>
-      </c>
       <c r="AZ146">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BA146">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BB146">
         <v>9</v>
       </c>
       <c r="BC146">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BD146">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="BE146">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF146">
-        <v>2.08</v>
+        <v>2.65</v>
       </c>
       <c r="BG146">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="BH146">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="BI146">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="BJ146">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="BK146">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="BL146">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="BM146">
-        <v>1.71</v>
+        <v>1.96</v>
       </c>
       <c r="BN146">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="BO146">
-        <v>2.07</v>
+        <v>2.45</v>
       </c>
       <c r="BP146">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="147" spans="1:68">
@@ -31263,7 +31275,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7296679</v>
+        <v>7296681</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31272,196 +31284,196 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45521.33333333334</v>
+        <v>45520.58333333334</v>
       </c>
       <c r="F147">
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H147" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="Q147">
+        <v>2.77</v>
+      </c>
+      <c r="R147">
+        <v>2.21</v>
+      </c>
+      <c r="S147">
+        <v>3.88</v>
+      </c>
+      <c r="T147">
+        <v>1.37</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
+        <v>2.89</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>7.2</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>2.12</v>
+      </c>
+      <c r="AA147">
+        <v>3.38</v>
+      </c>
+      <c r="AB147">
+        <v>3.38</v>
+      </c>
+      <c r="AC147">
+        <v>1.02</v>
+      </c>
+      <c r="AD147">
+        <v>8.6</v>
+      </c>
+      <c r="AE147">
+        <v>1.27</v>
+      </c>
+      <c r="AF147">
+        <v>3.28</v>
+      </c>
+      <c r="AG147">
         <v>1.9</v>
       </c>
-      <c r="R147">
-        <v>2.6</v>
-      </c>
-      <c r="S147">
-        <v>5.15</v>
-      </c>
-      <c r="T147">
+      <c r="AH147">
+        <v>1.88</v>
+      </c>
+      <c r="AI147">
+        <v>1.73</v>
+      </c>
+      <c r="AJ147">
+        <v>1.99</v>
+      </c>
+      <c r="AK147">
+        <v>1.3</v>
+      </c>
+      <c r="AL147">
+        <v>1.35</v>
+      </c>
+      <c r="AM147">
+        <v>1.7</v>
+      </c>
+      <c r="AN147">
+        <v>1.25</v>
+      </c>
+      <c r="AO147">
         <v>1.22</v>
       </c>
-      <c r="U147">
-        <v>4</v>
-      </c>
-      <c r="V147">
-        <v>2.07</v>
-      </c>
-      <c r="W147">
-        <v>1.71</v>
-      </c>
-      <c r="X147">
-        <v>4.4</v>
-      </c>
-      <c r="Y147">
-        <v>1.19</v>
-      </c>
-      <c r="Z147">
-        <v>1.43</v>
-      </c>
-      <c r="AA147">
-        <v>4.26</v>
-      </c>
-      <c r="AB147">
-        <v>5.13</v>
-      </c>
-      <c r="AC147">
-        <v>1.01</v>
-      </c>
-      <c r="AD147">
-        <v>24.5</v>
-      </c>
-      <c r="AE147">
-        <v>1.13</v>
-      </c>
-      <c r="AF147">
-        <v>5.25</v>
-      </c>
-      <c r="AG147">
-        <v>1.48</v>
-      </c>
-      <c r="AH147">
-        <v>2.47</v>
-      </c>
-      <c r="AI147">
-        <v>1.53</v>
-      </c>
-      <c r="AJ147">
-        <v>2.34</v>
-      </c>
-      <c r="AK147">
-        <v>1.08</v>
-      </c>
-      <c r="AL147">
-        <v>1.15</v>
-      </c>
-      <c r="AM147">
-        <v>2.55</v>
-      </c>
-      <c r="AN147">
-        <v>2</v>
-      </c>
-      <c r="AO147">
-        <v>1.13</v>
-      </c>
       <c r="AP147">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AR147">
-        <v>2.21</v>
+        <v>1.56</v>
       </c>
       <c r="AS147">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT147">
-        <v>3.52</v>
+        <v>2.89</v>
       </c>
       <c r="AU147">
+        <v>5</v>
+      </c>
+      <c r="AV147">
         <v>8</v>
-      </c>
-      <c r="AV147">
-        <v>3</v>
       </c>
       <c r="AW147">
         <v>6</v>
       </c>
       <c r="AX147">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY147">
+        <v>11</v>
+      </c>
+      <c r="AZ147">
         <v>14</v>
       </c>
-      <c r="AZ147">
-        <v>13</v>
-      </c>
       <c r="BA147">
+        <v>1</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
         <v>5</v>
       </c>
-      <c r="BB147">
-        <v>5</v>
-      </c>
-      <c r="BC147">
-        <v>10</v>
-      </c>
       <c r="BD147">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="BE147">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF147">
-        <v>3.15</v>
+        <v>2.23</v>
       </c>
       <c r="BG147">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="BH147">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="BI147">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="BJ147">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="BK147">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BL147">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="BM147">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="BN147">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="BO147">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="BP147">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31469,7 +31481,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7296677</v>
+        <v>7296678</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31478,196 +31490,196 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45521.41666666666</v>
+        <v>45521.33333333334</v>
       </c>
       <c r="F148">
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H148" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>86</v>
+      </c>
+      <c r="P148" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q148">
         <v>3</v>
       </c>
-      <c r="K148">
-        <v>4</v>
-      </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148">
-        <v>3</v>
-      </c>
-      <c r="N148">
-        <v>4</v>
-      </c>
-      <c r="O148" t="s">
-        <v>191</v>
-      </c>
-      <c r="P148" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q148">
-        <v>4.75</v>
-      </c>
       <c r="R148">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S148">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="T148">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U148">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="V148">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="W148">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="X148">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="Y148">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z148">
+        <v>2.32</v>
+      </c>
+      <c r="AA148">
+        <v>3.23</v>
+      </c>
+      <c r="AB148">
+        <v>2.57</v>
+      </c>
+      <c r="AC148">
+        <v>1.03</v>
+      </c>
+      <c r="AD148">
+        <v>15</v>
+      </c>
+      <c r="AE148">
+        <v>1.22</v>
+      </c>
+      <c r="AF148">
         <v>4.2</v>
       </c>
-      <c r="AA148">
-        <v>3.6</v>
-      </c>
-      <c r="AB148">
-        <v>1.83</v>
-      </c>
-      <c r="AC148">
-        <v>1.04</v>
-      </c>
-      <c r="AD148">
-        <v>8.5</v>
-      </c>
-      <c r="AE148">
-        <v>1.27</v>
-      </c>
-      <c r="AF148">
-        <v>3.3</v>
-      </c>
       <c r="AG148">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="AH148">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AI148">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="AJ148">
-        <v>1.91</v>
+        <v>2.35</v>
       </c>
       <c r="AK148">
-        <v>1.93</v>
+        <v>1.47</v>
       </c>
       <c r="AL148">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AM148">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AN148">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AO148">
-        <v>2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP148">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>2.11</v>
+        <v>0.5</v>
       </c>
       <c r="AR148">
-        <v>0.9399999999999999</v>
+        <v>1.69</v>
       </c>
       <c r="AS148">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT148">
-        <v>2.38</v>
+        <v>3.19</v>
       </c>
       <c r="AU148">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV148">
         <v>12</v>
       </c>
       <c r="AW148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX148">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY148">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ148">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA148">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB148">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC148">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD148">
-        <v>2.8</v>
+        <v>1.76</v>
       </c>
       <c r="BE148">
         <v>7</v>
       </c>
       <c r="BF148">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="BG148">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BH148">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="BI148">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="BJ148">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BK148">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="BL148">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="BM148">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="BN148">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="BO148">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="BP148">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31675,7 +31687,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7296676</v>
+        <v>7296679</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31684,196 +31696,1020 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45521.41666666666</v>
+        <v>45521.33333333334</v>
       </c>
       <c r="F149">
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H149" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O149" t="s">
         <v>192</v>
       </c>
       <c r="P149" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Q149">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R149">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S149">
-        <v>5</v>
+        <v>5.15</v>
       </c>
       <c r="T149">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="U149">
-        <v>3.44</v>
+        <v>4</v>
       </c>
       <c r="V149">
-        <v>2.36</v>
+        <v>2.07</v>
       </c>
       <c r="W149">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="X149">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="Y149">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="Z149">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="AA149">
-        <v>4</v>
+        <v>4.26</v>
       </c>
       <c r="AB149">
-        <v>4.2</v>
+        <v>5.13</v>
       </c>
       <c r="AC149">
         <v>1.01</v>
       </c>
       <c r="AD149">
-        <v>11</v>
+        <v>24.5</v>
       </c>
       <c r="AE149">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AF149">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="AG149">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AH149">
-        <v>2.17</v>
+        <v>2.47</v>
       </c>
       <c r="AI149">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AJ149">
+        <v>2.34</v>
+      </c>
+      <c r="AK149">
+        <v>1.08</v>
+      </c>
+      <c r="AL149">
+        <v>1.15</v>
+      </c>
+      <c r="AM149">
+        <v>2.55</v>
+      </c>
+      <c r="AN149">
+        <v>2</v>
+      </c>
+      <c r="AO149">
+        <v>1.13</v>
+      </c>
+      <c r="AP149">
         <v>2.1</v>
       </c>
-      <c r="AK149">
-        <v>1.17</v>
-      </c>
-      <c r="AL149">
-        <v>1.2</v>
-      </c>
-      <c r="AM149">
-        <v>2.1</v>
-      </c>
-      <c r="AN149">
-        <v>1.67</v>
-      </c>
-      <c r="AO149">
-        <v>0.67</v>
-      </c>
-      <c r="AP149">
-        <v>1.8</v>
-      </c>
       <c r="AQ149">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR149">
-        <v>1.65</v>
+        <v>2.21</v>
       </c>
       <c r="AS149">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AT149">
-        <v>2.89</v>
+        <v>3.52</v>
       </c>
       <c r="AU149">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV149">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX149">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AY149">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ149">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA149">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB149">
         <v>5</v>
       </c>
       <c r="BC149">
+        <v>10</v>
+      </c>
+      <c r="BD149">
+        <v>1.35</v>
+      </c>
+      <c r="BE149">
+        <v>7.5</v>
+      </c>
+      <c r="BF149">
+        <v>3.15</v>
+      </c>
+      <c r="BG149">
+        <v>1.16</v>
+      </c>
+      <c r="BH149">
+        <v>4.6</v>
+      </c>
+      <c r="BI149">
+        <v>1.28</v>
+      </c>
+      <c r="BJ149">
+        <v>3.3</v>
+      </c>
+      <c r="BK149">
+        <v>1.47</v>
+      </c>
+      <c r="BL149">
+        <v>2.48</v>
+      </c>
+      <c r="BM149">
+        <v>1.74</v>
+      </c>
+      <c r="BN149">
+        <v>1.97</v>
+      </c>
+      <c r="BO149">
+        <v>2.1</v>
+      </c>
+      <c r="BP149">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7296677</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45521.41666666666</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>83</v>
+      </c>
+      <c r="H150" t="s">
+        <v>85</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>3</v>
+      </c>
+      <c r="K150">
+        <v>4</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>193</v>
+      </c>
+      <c r="P150" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q150">
+        <v>4.75</v>
+      </c>
+      <c r="R150">
+        <v>2.1</v>
+      </c>
+      <c r="S150">
+        <v>2.5</v>
+      </c>
+      <c r="T150">
+        <v>1.4</v>
+      </c>
+      <c r="U150">
+        <v>2.75</v>
+      </c>
+      <c r="V150">
+        <v>3</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>8</v>
+      </c>
+      <c r="Y150">
+        <v>1.08</v>
+      </c>
+      <c r="Z150">
+        <v>4.2</v>
+      </c>
+      <c r="AA150">
+        <v>3.6</v>
+      </c>
+      <c r="AB150">
+        <v>1.83</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>8.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.27</v>
+      </c>
+      <c r="AF150">
+        <v>3.3</v>
+      </c>
+      <c r="AG150">
+        <v>1.95</v>
+      </c>
+      <c r="AH150">
+        <v>1.9</v>
+      </c>
+      <c r="AI150">
+        <v>1.91</v>
+      </c>
+      <c r="AJ150">
+        <v>1.91</v>
+      </c>
+      <c r="AK150">
+        <v>1.93</v>
+      </c>
+      <c r="AL150">
+        <v>1.27</v>
+      </c>
+      <c r="AM150">
+        <v>1.21</v>
+      </c>
+      <c r="AN150">
+        <v>1.22</v>
+      </c>
+      <c r="AO150">
+        <v>2</v>
+      </c>
+      <c r="AP150">
+        <v>1.1</v>
+      </c>
+      <c r="AQ150">
+        <v>2.11</v>
+      </c>
+      <c r="AR150">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS150">
+        <v>1.44</v>
+      </c>
+      <c r="AT150">
+        <v>2.38</v>
+      </c>
+      <c r="AU150">
+        <v>10</v>
+      </c>
+      <c r="AV150">
         <v>12</v>
       </c>
-      <c r="BD149">
+      <c r="AW150">
+        <v>2</v>
+      </c>
+      <c r="AX150">
+        <v>5</v>
+      </c>
+      <c r="AY150">
+        <v>12</v>
+      </c>
+      <c r="AZ150">
+        <v>17</v>
+      </c>
+      <c r="BA150">
+        <v>6</v>
+      </c>
+      <c r="BB150">
+        <v>7</v>
+      </c>
+      <c r="BC150">
+        <v>13</v>
+      </c>
+      <c r="BD150">
+        <v>2.8</v>
+      </c>
+      <c r="BE150">
+        <v>7</v>
+      </c>
+      <c r="BF150">
+        <v>1.44</v>
+      </c>
+      <c r="BG150">
+        <v>1.2</v>
+      </c>
+      <c r="BH150">
+        <v>3.95</v>
+      </c>
+      <c r="BI150">
+        <v>1.35</v>
+      </c>
+      <c r="BJ150">
+        <v>2.9</v>
+      </c>
+      <c r="BK150">
+        <v>1.58</v>
+      </c>
+      <c r="BL150">
+        <v>2.18</v>
+      </c>
+      <c r="BM150">
+        <v>1.92</v>
+      </c>
+      <c r="BN150">
+        <v>1.78</v>
+      </c>
+      <c r="BO150">
+        <v>2.4</v>
+      </c>
+      <c r="BP150">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7296676</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45521.41666666666</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151" t="s">
+        <v>194</v>
+      </c>
+      <c r="P151" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q151">
+        <v>2.05</v>
+      </c>
+      <c r="R151">
+        <v>2.4</v>
+      </c>
+      <c r="S151">
+        <v>5</v>
+      </c>
+      <c r="T151">
+        <v>1.28</v>
+      </c>
+      <c r="U151">
+        <v>3.44</v>
+      </c>
+      <c r="V151">
+        <v>2.36</v>
+      </c>
+      <c r="W151">
+        <v>1.55</v>
+      </c>
+      <c r="X151">
+        <v>5.4</v>
+      </c>
+      <c r="Y151">
+        <v>1.13</v>
+      </c>
+      <c r="Z151">
+        <v>1.73</v>
+      </c>
+      <c r="AA151">
+        <v>4</v>
+      </c>
+      <c r="AB151">
+        <v>4.2</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>11</v>
+      </c>
+      <c r="AE151">
+        <v>1.2</v>
+      </c>
+      <c r="AF151">
+        <v>4.33</v>
+      </c>
+      <c r="AG151">
+        <v>1.6</v>
+      </c>
+      <c r="AH151">
+        <v>2.17</v>
+      </c>
+      <c r="AI151">
+        <v>1.6</v>
+      </c>
+      <c r="AJ151">
+        <v>2.1</v>
+      </c>
+      <c r="AK151">
+        <v>1.17</v>
+      </c>
+      <c r="AL151">
+        <v>1.2</v>
+      </c>
+      <c r="AM151">
+        <v>2.1</v>
+      </c>
+      <c r="AN151">
+        <v>1.67</v>
+      </c>
+      <c r="AO151">
+        <v>0.67</v>
+      </c>
+      <c r="AP151">
+        <v>1.8</v>
+      </c>
+      <c r="AQ151">
+        <v>0.6</v>
+      </c>
+      <c r="AR151">
+        <v>1.65</v>
+      </c>
+      <c r="AS151">
+        <v>1.24</v>
+      </c>
+      <c r="AT151">
+        <v>2.89</v>
+      </c>
+      <c r="AU151">
+        <v>11</v>
+      </c>
+      <c r="AV151">
+        <v>7</v>
+      </c>
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>15</v>
+      </c>
+      <c r="AZ151">
+        <v>9</v>
+      </c>
+      <c r="BA151">
+        <v>7</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>12</v>
+      </c>
+      <c r="BD151">
         <v>1.42</v>
       </c>
-      <c r="BE149">
+      <c r="BE151">
         <v>6.75</v>
       </c>
-      <c r="BF149">
+      <c r="BF151">
         <v>2.95</v>
       </c>
-      <c r="BG149">
+      <c r="BG151">
         <v>1.25</v>
       </c>
-      <c r="BH149">
+      <c r="BH151">
         <v>3.45</v>
       </c>
-      <c r="BI149">
+      <c r="BI151">
         <v>1.44</v>
       </c>
-      <c r="BJ149">
+      <c r="BJ151">
         <v>2.55</v>
       </c>
-      <c r="BK149">
+      <c r="BK151">
         <v>1.72</v>
       </c>
-      <c r="BL149">
+      <c r="BL151">
         <v>1.98</v>
       </c>
-      <c r="BM149">
+      <c r="BM151">
         <v>2.1</v>
       </c>
-      <c r="BN149">
+      <c r="BN151">
         <v>1.65</v>
       </c>
-      <c r="BO149">
+      <c r="BO151">
         <v>2.65</v>
       </c>
-      <c r="BP149">
+      <c r="BP151">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7296682</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45522.33333333334</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>81</v>
+      </c>
+      <c r="H152" t="s">
+        <v>76</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>195</v>
+      </c>
+      <c r="P152" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q152">
+        <v>2.88</v>
+      </c>
+      <c r="R152">
+        <v>2.25</v>
+      </c>
+      <c r="S152">
+        <v>3.4</v>
+      </c>
+      <c r="T152">
+        <v>1.36</v>
+      </c>
+      <c r="U152">
+        <v>3</v>
+      </c>
+      <c r="V152">
+        <v>2.63</v>
+      </c>
+      <c r="W152">
+        <v>1.44</v>
+      </c>
+      <c r="X152">
+        <v>7</v>
+      </c>
+      <c r="Y152">
+        <v>1.1</v>
+      </c>
+      <c r="Z152">
+        <v>1.71</v>
+      </c>
+      <c r="AA152">
+        <v>4.3</v>
+      </c>
+      <c r="AB152">
+        <v>3.43</v>
+      </c>
+      <c r="AC152">
+        <v>1.05</v>
+      </c>
+      <c r="AD152">
+        <v>8.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.25</v>
+      </c>
+      <c r="AF152">
+        <v>3.65</v>
+      </c>
+      <c r="AG152">
+        <v>1.78</v>
+      </c>
+      <c r="AH152">
+        <v>1.98</v>
+      </c>
+      <c r="AI152">
+        <v>1.62</v>
+      </c>
+      <c r="AJ152">
+        <v>2.2</v>
+      </c>
+      <c r="AK152">
+        <v>1.38</v>
+      </c>
+      <c r="AL152">
+        <v>1.25</v>
+      </c>
+      <c r="AM152">
+        <v>1.57</v>
+      </c>
+      <c r="AN152">
+        <v>2.22</v>
+      </c>
+      <c r="AO152">
+        <v>1.22</v>
+      </c>
+      <c r="AP152">
+        <v>2.1</v>
+      </c>
+      <c r="AQ152">
+        <v>1.2</v>
+      </c>
+      <c r="AR152">
+        <v>2.16</v>
+      </c>
+      <c r="AS152">
+        <v>1.58</v>
+      </c>
+      <c r="AT152">
+        <v>3.74</v>
+      </c>
+      <c r="AU152">
+        <v>11</v>
+      </c>
+      <c r="AV152">
+        <v>5</v>
+      </c>
+      <c r="AW152">
+        <v>9</v>
+      </c>
+      <c r="AX152">
+        <v>2</v>
+      </c>
+      <c r="AY152">
+        <v>20</v>
+      </c>
+      <c r="AZ152">
+        <v>7</v>
+      </c>
+      <c r="BA152">
+        <v>11</v>
+      </c>
+      <c r="BB152">
+        <v>2</v>
+      </c>
+      <c r="BC152">
+        <v>13</v>
+      </c>
+      <c r="BD152">
+        <v>1.57</v>
+      </c>
+      <c r="BE152">
+        <v>6.75</v>
+      </c>
+      <c r="BF152">
+        <v>2.48</v>
+      </c>
+      <c r="BG152">
+        <v>1.19</v>
+      </c>
+      <c r="BH152">
+        <v>4.1</v>
+      </c>
+      <c r="BI152">
+        <v>1.34</v>
+      </c>
+      <c r="BJ152">
+        <v>2.9</v>
+      </c>
+      <c r="BK152">
+        <v>1.55</v>
+      </c>
+      <c r="BL152">
+        <v>2.25</v>
+      </c>
+      <c r="BM152">
+        <v>1.89</v>
+      </c>
+      <c r="BN152">
+        <v>1.81</v>
+      </c>
+      <c r="BO152">
+        <v>2.32</v>
+      </c>
+      <c r="BP152">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7296680</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45522.41666666666</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>80</v>
+      </c>
+      <c r="H153" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>196</v>
+      </c>
+      <c r="P153" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q153">
+        <v>2.81</v>
+      </c>
+      <c r="R153">
+        <v>2.21</v>
+      </c>
+      <c r="S153">
+        <v>3.38</v>
+      </c>
+      <c r="T153">
+        <v>1.33</v>
+      </c>
+      <c r="U153">
+        <v>3.15</v>
+      </c>
+      <c r="V153">
+        <v>2.54</v>
+      </c>
+      <c r="W153">
+        <v>1.48</v>
+      </c>
+      <c r="X153">
+        <v>6.1</v>
+      </c>
+      <c r="Y153">
+        <v>1.1</v>
+      </c>
+      <c r="Z153">
+        <v>2.29</v>
+      </c>
+      <c r="AA153">
+        <v>3.5</v>
+      </c>
+      <c r="AB153">
+        <v>2.69</v>
+      </c>
+      <c r="AC153">
+        <v>1.02</v>
+      </c>
+      <c r="AD153">
+        <v>10.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.21</v>
+      </c>
+      <c r="AF153">
+        <v>3.74</v>
+      </c>
+      <c r="AG153">
+        <v>1.65</v>
+      </c>
+      <c r="AH153">
+        <v>2.11</v>
+      </c>
+      <c r="AI153">
+        <v>1.56</v>
+      </c>
+      <c r="AJ153">
+        <v>2.27</v>
+      </c>
+      <c r="AK153">
+        <v>1.4</v>
+      </c>
+      <c r="AL153">
+        <v>1.28</v>
+      </c>
+      <c r="AM153">
+        <v>1.58</v>
+      </c>
+      <c r="AN153">
+        <v>2.25</v>
+      </c>
+      <c r="AO153">
+        <v>2</v>
+      </c>
+      <c r="AP153">
+        <v>2.33</v>
+      </c>
+      <c r="AQ153">
+        <v>1.8</v>
+      </c>
+      <c r="AR153">
+        <v>1.41</v>
+      </c>
+      <c r="AS153">
+        <v>1.6</v>
+      </c>
+      <c r="AT153">
+        <v>3.01</v>
+      </c>
+      <c r="AU153">
+        <v>10</v>
+      </c>
+      <c r="AV153">
+        <v>5</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>11</v>
+      </c>
+      <c r="AY153">
+        <v>14</v>
+      </c>
+      <c r="AZ153">
+        <v>16</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
+        <v>5</v>
+      </c>
+      <c r="BC153">
+        <v>12</v>
+      </c>
+      <c r="BD153">
+        <v>1.85</v>
+      </c>
+      <c r="BE153">
+        <v>6.25</v>
+      </c>
+      <c r="BF153">
+        <v>2.05</v>
+      </c>
+      <c r="BG153">
+        <v>1.27</v>
+      </c>
+      <c r="BH153">
+        <v>3.3</v>
+      </c>
+      <c r="BI153">
+        <v>1.48</v>
+      </c>
+      <c r="BJ153">
+        <v>2.43</v>
+      </c>
+      <c r="BK153">
+        <v>1.78</v>
+      </c>
+      <c r="BL153">
+        <v>1.91</v>
+      </c>
+      <c r="BM153">
+        <v>2.23</v>
+      </c>
+      <c r="BN153">
+        <v>1.57</v>
+      </c>
+      <c r="BO153">
+        <v>2.9</v>
+      </c>
+      <c r="BP153">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,15 @@
     <t>['6', '90+3']</t>
   </si>
   <si>
+    <t>['4', '13']</t>
+  </si>
+  <si>
+    <t>['43', '86']</t>
+  </si>
+  <si>
+    <t>['2', '39', '90+4', '90+7']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -827,6 +836,9 @@
   </si>
   <si>
     <t>['37', '41', '43']</t>
+  </si>
+  <si>
+    <t>['42', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1665,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2065,7 +2077,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2352,7 +2364,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2477,7 +2489,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2555,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>2.11</v>
@@ -2889,7 +2901,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3173,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ10">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3301,7 +3313,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3382,7 +3394,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3507,7 +3519,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3585,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12">
         <v>0.5600000000000001</v>
@@ -4537,7 +4549,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4824,7 +4836,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ18">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -4949,7 +4961,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5773,7 +5785,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5979,7 +5991,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6057,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.22</v>
@@ -6469,10 +6481,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6678,7 +6690,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ27">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR27">
         <v>0.63</v>
@@ -7009,7 +7021,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7087,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7215,7 +7227,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7833,7 +7845,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8451,7 +8463,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8529,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8657,7 +8669,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8738,7 +8750,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -9275,7 +9287,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9971,7 +9983,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ43">
         <v>1.2</v>
@@ -10099,7 +10111,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10592,7 +10604,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ46">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -10795,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ47">
         <v>0.5600000000000001</v>
@@ -11004,7 +11016,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11129,7 +11141,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11541,7 +11553,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11747,7 +11759,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11953,7 +11965,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12237,10 +12249,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12365,7 +12377,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12571,7 +12583,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12983,7 +12995,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13064,7 +13076,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13473,7 +13485,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>0.2</v>
@@ -13807,7 +13819,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14013,7 +14025,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14425,7 +14437,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14503,7 +14515,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ65">
         <v>0.89</v>
@@ -14837,7 +14849,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14915,7 +14927,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ67">
         <v>0.6</v>
@@ -15043,7 +15055,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15249,7 +15261,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15330,7 +15342,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ69">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15455,7 +15467,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15536,7 +15548,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR70">
         <v>1.65</v>
@@ -15661,7 +15673,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16073,7 +16085,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16279,7 +16291,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16360,7 +16372,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR74">
         <v>0.98</v>
@@ -16485,7 +16497,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16691,7 +16703,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16769,7 +16781,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
         <v>0.5600000000000001</v>
@@ -16897,7 +16909,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16975,7 +16987,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17103,7 +17115,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17309,7 +17321,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17927,7 +17939,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18214,7 +18226,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR83">
         <v>1.38</v>
@@ -18339,7 +18351,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18417,7 +18429,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18626,7 +18638,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ85">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18751,7 +18763,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19163,7 +19175,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19369,7 +19381,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19450,7 +19462,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>1.03</v>
@@ -19781,7 +19793,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19859,7 +19871,7 @@
         <v>1.83</v>
       </c>
       <c r="AP91">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>1.8</v>
@@ -19987,7 +19999,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20193,7 +20205,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20889,7 +20901,7 @@
         <v>0.83</v>
       </c>
       <c r="AP96">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ96">
         <v>0.9</v>
@@ -21223,7 +21235,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21507,7 +21519,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ99">
         <v>1.1</v>
@@ -21841,7 +21853,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22047,7 +22059,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22540,7 +22552,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ104">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22665,7 +22677,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23077,7 +23089,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23489,7 +23501,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23695,7 +23707,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23901,7 +23913,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24188,7 +24200,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ112">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24313,7 +24325,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24394,7 +24406,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24519,7 +24531,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24597,10 +24609,10 @@
         <v>1.17</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR114">
         <v>1.35</v>
@@ -24931,7 +24943,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25343,7 +25355,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25421,7 +25433,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ118">
         <v>1.1</v>
@@ -25549,7 +25561,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25627,7 +25639,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ119">
         <v>1.22</v>
@@ -25961,7 +25973,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26167,7 +26179,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26373,7 +26385,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26451,7 +26463,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ123">
         <v>0.89</v>
@@ -26660,7 +26672,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ124">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR124">
         <v>1.88</v>
@@ -26785,7 +26797,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26866,7 +26878,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -26991,7 +27003,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27403,7 +27415,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27609,7 +27621,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27690,7 +27702,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR129">
         <v>1.56</v>
@@ -28021,7 +28033,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28227,7 +28239,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28511,7 +28523,7 @@
         <v>0.75</v>
       </c>
       <c r="AP133">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ133">
         <v>0.6</v>
@@ -28639,7 +28651,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28845,7 +28857,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29051,7 +29063,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29257,7 +29269,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29544,7 +29556,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ138">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR138">
         <v>1.56</v>
@@ -29669,7 +29681,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29747,7 +29759,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>0.89</v>
@@ -29875,7 +29887,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -29956,7 +29968,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR140">
         <v>1.51</v>
@@ -30159,10 +30171,10 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ141">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR141">
         <v>1.67</v>
@@ -30287,7 +30299,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30493,7 +30505,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30905,7 +30917,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31935,7 +31947,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32347,7 +32359,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32631,7 +32643,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ153">
         <v>1.8</v>
@@ -32710,6 +32722,624 @@
       </c>
       <c r="BP153">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7296689</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45529.33333333334</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>78</v>
+      </c>
+      <c r="H154" t="s">
+        <v>83</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>197</v>
+      </c>
+      <c r="P154" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q154">
+        <v>1.9</v>
+      </c>
+      <c r="R154">
+        <v>2.55</v>
+      </c>
+      <c r="S154">
+        <v>6.5</v>
+      </c>
+      <c r="T154">
+        <v>1.27</v>
+      </c>
+      <c r="U154">
+        <v>3.45</v>
+      </c>
+      <c r="V154">
+        <v>2.39</v>
+      </c>
+      <c r="W154">
+        <v>1.52</v>
+      </c>
+      <c r="X154">
+        <v>5.45</v>
+      </c>
+      <c r="Y154">
+        <v>1.12</v>
+      </c>
+      <c r="Z154">
+        <v>1.4</v>
+      </c>
+      <c r="AA154">
+        <v>5</v>
+      </c>
+      <c r="AB154">
+        <v>7</v>
+      </c>
+      <c r="AC154">
+        <v>1.02</v>
+      </c>
+      <c r="AD154">
+        <v>10</v>
+      </c>
+      <c r="AE154">
+        <v>1.15</v>
+      </c>
+      <c r="AF154">
+        <v>4.6</v>
+      </c>
+      <c r="AG154">
+        <v>1.62</v>
+      </c>
+      <c r="AH154">
+        <v>2.3</v>
+      </c>
+      <c r="AI154">
+        <v>1.85</v>
+      </c>
+      <c r="AJ154">
+        <v>1.9</v>
+      </c>
+      <c r="AK154">
+        <v>1.08</v>
+      </c>
+      <c r="AL154">
+        <v>1.14</v>
+      </c>
+      <c r="AM154">
+        <v>2.95</v>
+      </c>
+      <c r="AN154">
+        <v>2</v>
+      </c>
+      <c r="AO154">
+        <v>0.78</v>
+      </c>
+      <c r="AP154">
+        <v>1.9</v>
+      </c>
+      <c r="AQ154">
+        <v>0.8</v>
+      </c>
+      <c r="AR154">
+        <v>1.63</v>
+      </c>
+      <c r="AS154">
+        <v>1.03</v>
+      </c>
+      <c r="AT154">
+        <v>2.66</v>
+      </c>
+      <c r="AU154">
+        <v>15</v>
+      </c>
+      <c r="AV154">
+        <v>3</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
+        <v>2</v>
+      </c>
+      <c r="AY154">
+        <v>20</v>
+      </c>
+      <c r="AZ154">
+        <v>5</v>
+      </c>
+      <c r="BA154">
+        <v>12</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>15</v>
+      </c>
+      <c r="BD154">
+        <v>1.24</v>
+      </c>
+      <c r="BE154">
+        <v>7.5</v>
+      </c>
+      <c r="BF154">
+        <v>3.9</v>
+      </c>
+      <c r="BG154">
+        <v>1.24</v>
+      </c>
+      <c r="BH154">
+        <v>3.65</v>
+      </c>
+      <c r="BI154">
+        <v>1.42</v>
+      </c>
+      <c r="BJ154">
+        <v>2.65</v>
+      </c>
+      <c r="BK154">
+        <v>1.68</v>
+      </c>
+      <c r="BL154">
+        <v>2.05</v>
+      </c>
+      <c r="BM154">
+        <v>2.07</v>
+      </c>
+      <c r="BN154">
+        <v>1.67</v>
+      </c>
+      <c r="BO154">
+        <v>2.55</v>
+      </c>
+      <c r="BP154">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7296686</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45529.41666666666</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" t="s">
+        <v>77</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>198</v>
+      </c>
+      <c r="P155" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q155">
+        <v>5</v>
+      </c>
+      <c r="R155">
+        <v>2.55</v>
+      </c>
+      <c r="S155">
+        <v>2.05</v>
+      </c>
+      <c r="T155">
+        <v>1.27</v>
+      </c>
+      <c r="U155">
+        <v>3.54</v>
+      </c>
+      <c r="V155">
+        <v>2.25</v>
+      </c>
+      <c r="W155">
+        <v>1.6</v>
+      </c>
+      <c r="X155">
+        <v>5.05</v>
+      </c>
+      <c r="Y155">
+        <v>1.15</v>
+      </c>
+      <c r="Z155">
+        <v>4.6</v>
+      </c>
+      <c r="AA155">
+        <v>4</v>
+      </c>
+      <c r="AB155">
+        <v>1.53</v>
+      </c>
+      <c r="AC155">
+        <v>1.01</v>
+      </c>
+      <c r="AD155">
+        <v>19</v>
+      </c>
+      <c r="AE155">
+        <v>1.13</v>
+      </c>
+      <c r="AF155">
+        <v>4.75</v>
+      </c>
+      <c r="AG155">
+        <v>1.53</v>
+      </c>
+      <c r="AH155">
+        <v>2.34</v>
+      </c>
+      <c r="AI155">
+        <v>1.63</v>
+      </c>
+      <c r="AJ155">
+        <v>2.2</v>
+      </c>
+      <c r="AK155">
+        <v>2.45</v>
+      </c>
+      <c r="AL155">
+        <v>1.16</v>
+      </c>
+      <c r="AM155">
+        <v>1.15</v>
+      </c>
+      <c r="AN155">
+        <v>1.33</v>
+      </c>
+      <c r="AO155">
+        <v>1.33</v>
+      </c>
+      <c r="AP155">
+        <v>1.5</v>
+      </c>
+      <c r="AQ155">
+        <v>1.2</v>
+      </c>
+      <c r="AR155">
+        <v>1.25</v>
+      </c>
+      <c r="AS155">
+        <v>1.86</v>
+      </c>
+      <c r="AT155">
+        <v>3.11</v>
+      </c>
+      <c r="AU155">
+        <v>8</v>
+      </c>
+      <c r="AV155">
+        <v>17</v>
+      </c>
+      <c r="AW155">
+        <v>7</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>15</v>
+      </c>
+      <c r="AZ155">
+        <v>22</v>
+      </c>
+      <c r="BA155">
+        <v>5</v>
+      </c>
+      <c r="BB155">
+        <v>8</v>
+      </c>
+      <c r="BC155">
+        <v>13</v>
+      </c>
+      <c r="BD155">
+        <v>3.3</v>
+      </c>
+      <c r="BE155">
+        <v>7</v>
+      </c>
+      <c r="BF155">
+        <v>1.33</v>
+      </c>
+      <c r="BG155">
+        <v>1.16</v>
+      </c>
+      <c r="BH155">
+        <v>4.4</v>
+      </c>
+      <c r="BI155">
+        <v>1.29</v>
+      </c>
+      <c r="BJ155">
+        <v>3.15</v>
+      </c>
+      <c r="BK155">
+        <v>1.49</v>
+      </c>
+      <c r="BL155">
+        <v>2.4</v>
+      </c>
+      <c r="BM155">
+        <v>1.77</v>
+      </c>
+      <c r="BN155">
+        <v>1.93</v>
+      </c>
+      <c r="BO155">
+        <v>2.17</v>
+      </c>
+      <c r="BP155">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7296691</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45529.5</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>80</v>
+      </c>
+      <c r="H156" t="s">
+        <v>73</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156" t="s">
+        <v>199</v>
+      </c>
+      <c r="P156" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q156">
+        <v>2.25</v>
+      </c>
+      <c r="R156">
+        <v>2.45</v>
+      </c>
+      <c r="S156">
+        <v>4.5</v>
+      </c>
+      <c r="T156">
+        <v>1.28</v>
+      </c>
+      <c r="U156">
+        <v>3.44</v>
+      </c>
+      <c r="V156">
+        <v>2.34</v>
+      </c>
+      <c r="W156">
+        <v>1.56</v>
+      </c>
+      <c r="X156">
+        <v>5.35</v>
+      </c>
+      <c r="Y156">
+        <v>1.13</v>
+      </c>
+      <c r="Z156">
+        <v>1.67</v>
+      </c>
+      <c r="AA156">
+        <v>3.7</v>
+      </c>
+      <c r="AB156">
+        <v>4</v>
+      </c>
+      <c r="AC156">
+        <v>1.02</v>
+      </c>
+      <c r="AD156">
+        <v>17</v>
+      </c>
+      <c r="AE156">
+        <v>1.15</v>
+      </c>
+      <c r="AF156">
+        <v>4.4</v>
+      </c>
+      <c r="AG156">
+        <v>1.55</v>
+      </c>
+      <c r="AH156">
+        <v>2.2</v>
+      </c>
+      <c r="AI156">
+        <v>1.6</v>
+      </c>
+      <c r="AJ156">
+        <v>2.3</v>
+      </c>
+      <c r="AK156">
+        <v>1.22</v>
+      </c>
+      <c r="AL156">
+        <v>1.18</v>
+      </c>
+      <c r="AM156">
+        <v>2.15</v>
+      </c>
+      <c r="AN156">
+        <v>2.33</v>
+      </c>
+      <c r="AO156">
+        <v>1.22</v>
+      </c>
+      <c r="AP156">
+        <v>2.4</v>
+      </c>
+      <c r="AQ156">
+        <v>1.1</v>
+      </c>
+      <c r="AR156">
+        <v>1.46</v>
+      </c>
+      <c r="AS156">
+        <v>1.43</v>
+      </c>
+      <c r="AT156">
+        <v>2.89</v>
+      </c>
+      <c r="AU156">
+        <v>-1</v>
+      </c>
+      <c r="AV156">
+        <v>-1</v>
+      </c>
+      <c r="AW156">
+        <v>-1</v>
+      </c>
+      <c r="AX156">
+        <v>-1</v>
+      </c>
+      <c r="AY156">
+        <v>-1</v>
+      </c>
+      <c r="AZ156">
+        <v>-1</v>
+      </c>
+      <c r="BA156">
+        <v>-1</v>
+      </c>
+      <c r="BB156">
+        <v>-1</v>
+      </c>
+      <c r="BC156">
+        <v>-1</v>
+      </c>
+      <c r="BD156">
+        <v>1.54</v>
+      </c>
+      <c r="BE156">
+        <v>7</v>
+      </c>
+      <c r="BF156">
+        <v>2.48</v>
+      </c>
+      <c r="BG156">
+        <v>1.13</v>
+      </c>
+      <c r="BH156">
+        <v>5.1</v>
+      </c>
+      <c r="BI156">
+        <v>1.24</v>
+      </c>
+      <c r="BJ156">
+        <v>3.55</v>
+      </c>
+      <c r="BK156">
+        <v>1.41</v>
+      </c>
+      <c r="BL156">
+        <v>2.65</v>
+      </c>
+      <c r="BM156">
+        <v>1.65</v>
+      </c>
+      <c r="BN156">
+        <v>2.1</v>
+      </c>
+      <c r="BO156">
+        <v>1.98</v>
+      </c>
+      <c r="BP156">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,12 @@
     <t>['2', '39', '90+4', '90+7']</t>
   </si>
   <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['9', '50', '75']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -716,9 +722,6 @@
   </si>
   <si>
     <t>['25', '31']</t>
-  </si>
-  <si>
-    <t>['5']</t>
   </si>
   <si>
     <t>['88', '90+3']</t>
@@ -839,6 +842,12 @@
   </si>
   <si>
     <t>['42', '90+1']</t>
+  </si>
+  <si>
+    <t>['1', '45', '73']</t>
+  </si>
+  <si>
+    <t>['12', '44', '50', '90']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1665,7 +1674,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1743,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ3">
         <v>1.1</v>
@@ -1949,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2077,7 +2086,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2158,7 +2167,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2489,7 +2498,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2776,7 +2785,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ8">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2901,7 +2910,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2982,7 +2991,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ9">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3313,7 +3322,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3519,7 +3528,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4549,7 +4558,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4833,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ18">
         <v>0.8</v>
@@ -4961,7 +4970,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5039,10 +5048,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5785,7 +5794,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5863,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ23">
         <v>1.2</v>
@@ -5991,7 +6000,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6072,7 +6081,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -7021,7 +7030,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7227,7 +7236,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7720,7 +7729,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ32">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -7845,7 +7854,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8129,10 +8138,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ34">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -8335,7 +8344,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.1</v>
@@ -8463,7 +8472,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8669,7 +8678,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8747,7 +8756,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ37">
         <v>1.2</v>
@@ -9287,7 +9296,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9368,7 +9377,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9574,7 +9583,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ41">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -10111,7 +10120,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -11141,7 +11150,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11219,7 +11228,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ49">
         <v>2.11</v>
@@ -11428,7 +11437,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ50">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11553,7 +11562,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11759,7 +11768,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11837,7 +11846,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ52">
         <v>1.8</v>
@@ -11965,7 +11974,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12377,7 +12386,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12583,7 +12592,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12870,7 +12879,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -12995,7 +13004,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13819,7 +13828,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14025,7 +14034,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14309,7 +14318,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>0.5600000000000001</v>
@@ -14437,7 +14446,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14518,7 +14527,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ65">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -14721,7 +14730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14849,7 +14858,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15055,7 +15064,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15261,7 +15270,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15467,7 +15476,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15545,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ70">
         <v>1.1</v>
@@ -15673,7 +15682,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15960,7 +15969,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ72">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR72">
         <v>1.24</v>
@@ -16085,7 +16094,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16166,7 +16175,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ73">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -16291,7 +16300,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16497,7 +16506,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16703,7 +16712,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16909,7 +16918,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17115,7 +17124,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17321,7 +17330,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17814,7 +17823,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ81">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR81">
         <v>1.9</v>
@@ -17939,7 +17948,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18351,7 +18360,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18635,7 +18644,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.1</v>
@@ -18763,7 +18772,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18844,7 +18853,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ86">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19047,7 +19056,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ87">
         <v>0.6</v>
@@ -19175,7 +19184,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19253,7 +19262,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ88">
         <v>2.11</v>
@@ -19381,7 +19390,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19665,7 +19674,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90">
         <v>0.2</v>
@@ -19793,7 +19802,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19999,7 +20008,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20080,7 +20089,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ92">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR92">
         <v>0.98</v>
@@ -20205,7 +20214,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20286,7 +20295,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR93">
         <v>1.46</v>
@@ -20904,7 +20913,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ96">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21235,7 +21244,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21316,7 +21325,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ98">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR98">
         <v>1.48</v>
@@ -21853,7 +21862,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22059,7 +22068,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22677,7 +22686,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22755,7 +22764,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22964,7 +22973,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ106">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR106">
         <v>1.49</v>
@@ -23089,7 +23098,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23501,7 +23510,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23579,7 +23588,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ109">
         <v>0.5600000000000001</v>
@@ -23707,7 +23716,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23788,7 +23797,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ110">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -23913,7 +23922,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -23991,7 +24000,7 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>0.5</v>
@@ -24197,7 +24206,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ112">
         <v>0.8</v>
@@ -24325,7 +24334,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24531,7 +24540,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24943,7 +24952,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25355,7 +25364,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25561,7 +25570,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25642,7 +25651,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ119">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -25973,7 +25982,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26179,7 +26188,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26385,7 +26394,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26466,7 +26475,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ123">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR123">
         <v>1.59</v>
@@ -26797,7 +26806,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26875,7 +26884,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ125">
         <v>1.1</v>
@@ -27003,7 +27012,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27081,7 +27090,7 @@
         <v>0.43</v>
       </c>
       <c r="AP126">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>0.6</v>
@@ -27415,7 +27424,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27493,10 +27502,10 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ128">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR128">
         <v>1.81</v>
@@ -27621,7 +27630,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27905,7 +27914,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ130">
         <v>1.1</v>
@@ -28033,7 +28042,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28239,7 +28248,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28320,7 +28329,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ132">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR132">
         <v>2.21</v>
@@ -28651,7 +28660,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28857,7 +28866,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29063,7 +29072,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29269,7 +29278,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29681,7 +29690,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29762,7 +29771,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR139">
         <v>1.27</v>
@@ -29887,7 +29896,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30299,7 +30308,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30505,7 +30514,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30583,7 +30592,7 @@
         <v>0.63</v>
       </c>
       <c r="AP143">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ143">
         <v>0.5600000000000001</v>
@@ -30789,7 +30798,7 @@
         <v>0.13</v>
       </c>
       <c r="AP144">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>0.2</v>
@@ -30917,7 +30926,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -30998,7 +31007,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ145">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR145">
         <v>1.55</v>
@@ -31947,7 +31956,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32359,7 +32368,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32771,7 +32780,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -33276,31 +33285,31 @@
         <v>2.89</v>
       </c>
       <c r="AU156">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX156">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ156">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BA156">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB156">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC156">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD156">
         <v>1.54</v>
@@ -33340,6 +33349,624 @@
       </c>
       <c r="BP156">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7296684</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>71</v>
+      </c>
+      <c r="H157" t="s">
+        <v>81</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>3</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>163</v>
+      </c>
+      <c r="P157" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q157">
+        <v>3.3</v>
+      </c>
+      <c r="R157">
+        <v>2.25</v>
+      </c>
+      <c r="S157">
+        <v>2.8</v>
+      </c>
+      <c r="T157">
+        <v>1.31</v>
+      </c>
+      <c r="U157">
+        <v>3.28</v>
+      </c>
+      <c r="V157">
+        <v>2.46</v>
+      </c>
+      <c r="W157">
+        <v>1.51</v>
+      </c>
+      <c r="X157">
+        <v>5.8</v>
+      </c>
+      <c r="Y157">
+        <v>1.12</v>
+      </c>
+      <c r="Z157">
+        <v>2.75</v>
+      </c>
+      <c r="AA157">
+        <v>3.3</v>
+      </c>
+      <c r="AB157">
+        <v>2.2</v>
+      </c>
+      <c r="AC157">
+        <v>1.04</v>
+      </c>
+      <c r="AD157">
+        <v>8.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.18</v>
+      </c>
+      <c r="AF157">
+        <v>4.2</v>
+      </c>
+      <c r="AG157">
+        <v>1.65</v>
+      </c>
+      <c r="AH157">
+        <v>2.05</v>
+      </c>
+      <c r="AI157">
+        <v>1.5</v>
+      </c>
+      <c r="AJ157">
+        <v>2.35</v>
+      </c>
+      <c r="AK157">
+        <v>1.58</v>
+      </c>
+      <c r="AL157">
+        <v>1.32</v>
+      </c>
+      <c r="AM157">
+        <v>1.42</v>
+      </c>
+      <c r="AN157">
+        <v>1.4</v>
+      </c>
+      <c r="AO157">
+        <v>1.22</v>
+      </c>
+      <c r="AP157">
+        <v>1.27</v>
+      </c>
+      <c r="AQ157">
+        <v>1.4</v>
+      </c>
+      <c r="AR157">
+        <v>1.72</v>
+      </c>
+      <c r="AS157">
+        <v>1.28</v>
+      </c>
+      <c r="AT157">
+        <v>3</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>5</v>
+      </c>
+      <c r="AW157">
+        <v>9</v>
+      </c>
+      <c r="AX157">
+        <v>5</v>
+      </c>
+      <c r="AY157">
+        <v>13</v>
+      </c>
+      <c r="AZ157">
+        <v>10</v>
+      </c>
+      <c r="BA157">
+        <v>6</v>
+      </c>
+      <c r="BB157">
+        <v>4</v>
+      </c>
+      <c r="BC157">
+        <v>10</v>
+      </c>
+      <c r="BD157">
+        <v>2.18</v>
+      </c>
+      <c r="BE157">
+        <v>6.5</v>
+      </c>
+      <c r="BF157">
+        <v>1.73</v>
+      </c>
+      <c r="BG157">
+        <v>1.19</v>
+      </c>
+      <c r="BH157">
+        <v>4.1</v>
+      </c>
+      <c r="BI157">
+        <v>1.33</v>
+      </c>
+      <c r="BJ157">
+        <v>2.95</v>
+      </c>
+      <c r="BK157">
+        <v>1.55</v>
+      </c>
+      <c r="BL157">
+        <v>2.25</v>
+      </c>
+      <c r="BM157">
+        <v>1.88</v>
+      </c>
+      <c r="BN157">
+        <v>1.81</v>
+      </c>
+      <c r="BO157">
+        <v>2.33</v>
+      </c>
+      <c r="BP157">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7296685</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158" t="s">
+        <v>79</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>4</v>
+      </c>
+      <c r="N158">
+        <v>5</v>
+      </c>
+      <c r="O158" t="s">
+        <v>200</v>
+      </c>
+      <c r="P158" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q158">
+        <v>1.92</v>
+      </c>
+      <c r="R158">
+        <v>2.55</v>
+      </c>
+      <c r="S158">
+        <v>5.3</v>
+      </c>
+      <c r="T158">
+        <v>1.25</v>
+      </c>
+      <c r="U158">
+        <v>3.45</v>
+      </c>
+      <c r="V158">
+        <v>2.23</v>
+      </c>
+      <c r="W158">
+        <v>1.57</v>
+      </c>
+      <c r="X158">
+        <v>4.9</v>
+      </c>
+      <c r="Y158">
+        <v>1.13</v>
+      </c>
+      <c r="Z158">
+        <v>1.48</v>
+      </c>
+      <c r="AA158">
+        <v>4.2</v>
+      </c>
+      <c r="AB158">
+        <v>5</v>
+      </c>
+      <c r="AC158">
+        <v>1.02</v>
+      </c>
+      <c r="AD158">
+        <v>12</v>
+      </c>
+      <c r="AE158">
+        <v>1.16</v>
+      </c>
+      <c r="AF158">
+        <v>4.33</v>
+      </c>
+      <c r="AG158">
+        <v>1.55</v>
+      </c>
+      <c r="AH158">
+        <v>2.2</v>
+      </c>
+      <c r="AI158">
+        <v>1.7</v>
+      </c>
+      <c r="AJ158">
+        <v>2.02</v>
+      </c>
+      <c r="AK158">
+        <v>1.04</v>
+      </c>
+      <c r="AL158">
+        <v>1.18</v>
+      </c>
+      <c r="AM158">
+        <v>2.5</v>
+      </c>
+      <c r="AN158">
+        <v>2.22</v>
+      </c>
+      <c r="AO158">
+        <v>0.89</v>
+      </c>
+      <c r="AP158">
+        <v>2</v>
+      </c>
+      <c r="AQ158">
+        <v>1.1</v>
+      </c>
+      <c r="AR158">
+        <v>1.55</v>
+      </c>
+      <c r="AS158">
+        <v>1.44</v>
+      </c>
+      <c r="AT158">
+        <v>2.99</v>
+      </c>
+      <c r="AU158">
+        <v>8</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>9</v>
+      </c>
+      <c r="AX158">
+        <v>6</v>
+      </c>
+      <c r="AY158">
+        <v>17</v>
+      </c>
+      <c r="AZ158">
+        <v>11</v>
+      </c>
+      <c r="BA158">
+        <v>10</v>
+      </c>
+      <c r="BB158">
+        <v>3</v>
+      </c>
+      <c r="BC158">
+        <v>13</v>
+      </c>
+      <c r="BD158">
+        <v>1.34</v>
+      </c>
+      <c r="BE158">
+        <v>7</v>
+      </c>
+      <c r="BF158">
+        <v>3.3</v>
+      </c>
+      <c r="BG158">
+        <v>1.21</v>
+      </c>
+      <c r="BH158">
+        <v>3.9</v>
+      </c>
+      <c r="BI158">
+        <v>1.36</v>
+      </c>
+      <c r="BJ158">
+        <v>2.8</v>
+      </c>
+      <c r="BK158">
+        <v>1.58</v>
+      </c>
+      <c r="BL158">
+        <v>2.18</v>
+      </c>
+      <c r="BM158">
+        <v>1.93</v>
+      </c>
+      <c r="BN158">
+        <v>1.77</v>
+      </c>
+      <c r="BO158">
+        <v>2.4</v>
+      </c>
+      <c r="BP158">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7296690</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45530.58333333334</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>84</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>3</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>201</v>
+      </c>
+      <c r="P159" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q159">
+        <v>3.36</v>
+      </c>
+      <c r="R159">
+        <v>2.28</v>
+      </c>
+      <c r="S159">
+        <v>3.02</v>
+      </c>
+      <c r="T159">
+        <v>1.33</v>
+      </c>
+      <c r="U159">
+        <v>3.2</v>
+      </c>
+      <c r="V159">
+        <v>2.68</v>
+      </c>
+      <c r="W159">
+        <v>1.45</v>
+      </c>
+      <c r="X159">
+        <v>6.45</v>
+      </c>
+      <c r="Y159">
+        <v>1.09</v>
+      </c>
+      <c r="Z159">
+        <v>2.75</v>
+      </c>
+      <c r="AA159">
+        <v>3.3</v>
+      </c>
+      <c r="AB159">
+        <v>2.2</v>
+      </c>
+      <c r="AC159">
+        <v>1.01</v>
+      </c>
+      <c r="AD159">
+        <v>9.9</v>
+      </c>
+      <c r="AE159">
+        <v>1.23</v>
+      </c>
+      <c r="AF159">
+        <v>3.56</v>
+      </c>
+      <c r="AG159">
+        <v>1.75</v>
+      </c>
+      <c r="AH159">
+        <v>1.91</v>
+      </c>
+      <c r="AI159">
+        <v>1.55</v>
+      </c>
+      <c r="AJ159">
+        <v>2.2</v>
+      </c>
+      <c r="AK159">
+        <v>1.55</v>
+      </c>
+      <c r="AL159">
+        <v>1.28</v>
+      </c>
+      <c r="AM159">
+        <v>1.42</v>
+      </c>
+      <c r="AN159">
+        <v>1.56</v>
+      </c>
+      <c r="AO159">
+        <v>0.9</v>
+      </c>
+      <c r="AP159">
+        <v>1.7</v>
+      </c>
+      <c r="AQ159">
+        <v>0.82</v>
+      </c>
+      <c r="AR159">
+        <v>1.44</v>
+      </c>
+      <c r="AS159">
+        <v>1.27</v>
+      </c>
+      <c r="AT159">
+        <v>2.71</v>
+      </c>
+      <c r="AU159">
+        <v>5</v>
+      </c>
+      <c r="AV159">
+        <v>9</v>
+      </c>
+      <c r="AW159">
+        <v>7</v>
+      </c>
+      <c r="AX159">
+        <v>6</v>
+      </c>
+      <c r="AY159">
+        <v>12</v>
+      </c>
+      <c r="AZ159">
+        <v>15</v>
+      </c>
+      <c r="BA159">
+        <v>3</v>
+      </c>
+      <c r="BB159">
+        <v>10</v>
+      </c>
+      <c r="BC159">
+        <v>13</v>
+      </c>
+      <c r="BD159">
+        <v>2.18</v>
+      </c>
+      <c r="BE159">
+        <v>6.4</v>
+      </c>
+      <c r="BF159">
+        <v>1.74</v>
+      </c>
+      <c r="BG159">
+        <v>1.25</v>
+      </c>
+      <c r="BH159">
+        <v>3.45</v>
+      </c>
+      <c r="BI159">
+        <v>1.45</v>
+      </c>
+      <c r="BJ159">
+        <v>2.55</v>
+      </c>
+      <c r="BK159">
+        <v>1.73</v>
+      </c>
+      <c r="BL159">
+        <v>1.98</v>
+      </c>
+      <c r="BM159">
+        <v>2.12</v>
+      </c>
+      <c r="BN159">
+        <v>1.63</v>
+      </c>
+      <c r="BO159">
+        <v>2.7</v>
+      </c>
+      <c r="BP159">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['9', '50', '75']</t>
   </si>
   <si>
+    <t>['33', '40', '59']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -848,6 +851,12 @@
   </si>
   <si>
     <t>['12', '44', '50', '90']</t>
+  </si>
+  <si>
+    <t>['25', '69']</t>
+  </si>
+  <si>
+    <t>['36', '45', '77']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1674,7 +1683,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2086,7 +2095,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2498,7 +2507,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2579,7 +2588,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2782,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1.1</v>
@@ -2910,7 +2919,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3322,7 +3331,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3528,7 +3537,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3609,7 +3618,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ12">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4018,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ14">
         <v>0.6</v>
@@ -4558,7 +4567,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4970,7 +4979,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5794,7 +5803,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6000,7 +6009,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6287,7 +6296,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ25">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6902,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28">
         <v>0.2</v>
@@ -7030,7 +7039,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7236,7 +7245,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7520,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.8</v>
@@ -7854,7 +7863,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7935,7 +7944,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ33">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -8472,7 +8481,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8678,7 +8687,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9296,7 +9305,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -10120,7 +10129,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10610,7 +10619,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ46">
         <v>0.8</v>
@@ -10819,7 +10828,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ47">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -11150,7 +11159,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11231,7 +11240,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ49">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11562,7 +11571,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11768,7 +11777,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11974,7 +11983,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12386,7 +12395,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12592,7 +12601,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12670,7 +12679,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>0.5</v>
@@ -13004,7 +13013,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13082,7 +13091,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ58">
         <v>1.2</v>
@@ -13291,7 +13300,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13828,7 +13837,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14034,7 +14043,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14321,7 +14330,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14446,7 +14455,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14858,7 +14867,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15064,7 +15073,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15270,7 +15279,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15476,7 +15485,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15682,7 +15691,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16094,7 +16103,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16172,7 +16181,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>1.4</v>
@@ -16300,7 +16309,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16506,7 +16515,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16712,7 +16721,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16793,7 +16802,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR76">
         <v>1.5</v>
@@ -16918,7 +16927,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17330,7 +17339,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17614,7 +17623,7 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ80">
         <v>1.2</v>
@@ -17948,7 +17957,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18232,7 +18241,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>1.2</v>
@@ -18360,7 +18369,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18772,7 +18781,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19184,7 +19193,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19265,7 +19274,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ88">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR88">
         <v>1.45</v>
@@ -19390,7 +19399,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19802,7 +19811,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20008,7 +20017,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20214,7 +20223,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20292,7 +20301,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ93">
         <v>1.1</v>
@@ -20501,7 +20510,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ94">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -21244,7 +21253,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21734,7 +21743,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>0.2</v>
@@ -21862,7 +21871,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22068,7 +22077,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22355,7 +22364,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ103">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR103">
         <v>2.16</v>
@@ -22686,7 +22695,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23098,7 +23107,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23176,7 +23185,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>0.6</v>
@@ -23510,7 +23519,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23591,7 +23600,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ109">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR109">
         <v>1.45</v>
@@ -23716,7 +23725,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23794,7 +23803,7 @@
         <v>0.71</v>
       </c>
       <c r="AP110">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ110">
         <v>0.82</v>
@@ -23922,7 +23931,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24334,7 +24343,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24540,7 +24549,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24952,7 +24961,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25033,7 +25042,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ116">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25364,7 +25373,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25570,7 +25579,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25982,7 +25991,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26188,7 +26197,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26266,7 +26275,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26394,7 +26403,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26806,7 +26815,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27012,7 +27021,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27296,10 +27305,10 @@
         <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.58</v>
@@ -27424,7 +27433,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27630,7 +27639,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28042,7 +28051,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28248,7 +28257,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28660,7 +28669,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28741,7 +28750,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ134">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR134">
         <v>1.09</v>
@@ -28866,7 +28875,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29072,7 +29081,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29278,7 +29287,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29562,7 +29571,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>0.8</v>
@@ -29690,7 +29699,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29896,7 +29905,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -29974,7 +29983,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ140">
         <v>1.1</v>
@@ -30308,7 +30317,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30514,7 +30523,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30595,7 +30604,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ143">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR143">
         <v>1.78</v>
@@ -30926,7 +30935,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31956,7 +31965,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32037,7 +32046,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ150">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR150">
         <v>0.9399999999999999</v>
@@ -32368,7 +32377,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32780,7 +32789,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -33398,7 +33407,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33604,7 +33613,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -33967,6 +33976,418 @@
       </c>
       <c r="BP159">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7296688</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45531.58333333334</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>82</v>
+      </c>
+      <c r="H160" t="s">
+        <v>74</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160" t="s">
+        <v>202</v>
+      </c>
+      <c r="P160" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q160">
+        <v>3.1</v>
+      </c>
+      <c r="R160">
+        <v>2.25</v>
+      </c>
+      <c r="S160">
+        <v>3.2</v>
+      </c>
+      <c r="T160">
+        <v>1.36</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>2.63</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>7</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>2.45</v>
+      </c>
+      <c r="AA160">
+        <v>3.4</v>
+      </c>
+      <c r="AB160">
+        <v>2.45</v>
+      </c>
+      <c r="AC160">
+        <v>1.05</v>
+      </c>
+      <c r="AD160">
+        <v>13.25</v>
+      </c>
+      <c r="AE160">
+        <v>1.25</v>
+      </c>
+      <c r="AF160">
+        <v>3.97</v>
+      </c>
+      <c r="AG160">
+        <v>1.8</v>
+      </c>
+      <c r="AH160">
+        <v>1.9</v>
+      </c>
+      <c r="AI160">
+        <v>1.62</v>
+      </c>
+      <c r="AJ160">
+        <v>2.2</v>
+      </c>
+      <c r="AK160">
+        <v>1.46</v>
+      </c>
+      <c r="AL160">
+        <v>1.28</v>
+      </c>
+      <c r="AM160">
+        <v>1.55</v>
+      </c>
+      <c r="AN160">
+        <v>1.56</v>
+      </c>
+      <c r="AO160">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP160">
+        <v>1.7</v>
+      </c>
+      <c r="AQ160">
+        <v>0.5</v>
+      </c>
+      <c r="AR160">
+        <v>1.48</v>
+      </c>
+      <c r="AS160">
+        <v>1.34</v>
+      </c>
+      <c r="AT160">
+        <v>2.82</v>
+      </c>
+      <c r="AU160">
+        <v>6</v>
+      </c>
+      <c r="AV160">
+        <v>8</v>
+      </c>
+      <c r="AW160">
+        <v>3</v>
+      </c>
+      <c r="AX160">
+        <v>6</v>
+      </c>
+      <c r="AY160">
+        <v>9</v>
+      </c>
+      <c r="AZ160">
+        <v>14</v>
+      </c>
+      <c r="BA160">
+        <v>3</v>
+      </c>
+      <c r="BB160">
+        <v>9</v>
+      </c>
+      <c r="BC160">
+        <v>12</v>
+      </c>
+      <c r="BD160">
+        <v>1.75</v>
+      </c>
+      <c r="BE160">
+        <v>6.4</v>
+      </c>
+      <c r="BF160">
+        <v>2.15</v>
+      </c>
+      <c r="BG160">
+        <v>1.23</v>
+      </c>
+      <c r="BH160">
+        <v>3.65</v>
+      </c>
+      <c r="BI160">
+        <v>1.41</v>
+      </c>
+      <c r="BJ160">
+        <v>2.65</v>
+      </c>
+      <c r="BK160">
+        <v>1.68</v>
+      </c>
+      <c r="BL160">
+        <v>2.05</v>
+      </c>
+      <c r="BM160">
+        <v>2.05</v>
+      </c>
+      <c r="BN160">
+        <v>1.68</v>
+      </c>
+      <c r="BO160">
+        <v>2.55</v>
+      </c>
+      <c r="BP160">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7296687</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45531.58333333334</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>76</v>
+      </c>
+      <c r="H161" t="s">
+        <v>85</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>90</v>
+      </c>
+      <c r="P161" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q161">
+        <v>2.88</v>
+      </c>
+      <c r="R161">
+        <v>2.2</v>
+      </c>
+      <c r="S161">
+        <v>3.75</v>
+      </c>
+      <c r="T161">
+        <v>1.36</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161">
+        <v>2.75</v>
+      </c>
+      <c r="W161">
+        <v>1.4</v>
+      </c>
+      <c r="X161">
+        <v>7</v>
+      </c>
+      <c r="Y161">
+        <v>1.1</v>
+      </c>
+      <c r="Z161">
+        <v>2.05</v>
+      </c>
+      <c r="AA161">
+        <v>3.4</v>
+      </c>
+      <c r="AB161">
+        <v>3.1</v>
+      </c>
+      <c r="AC161">
+        <v>1.04</v>
+      </c>
+      <c r="AD161">
+        <v>13</v>
+      </c>
+      <c r="AE161">
+        <v>1.28</v>
+      </c>
+      <c r="AF161">
+        <v>3.75</v>
+      </c>
+      <c r="AG161">
+        <v>1.88</v>
+      </c>
+      <c r="AH161">
+        <v>1.8</v>
+      </c>
+      <c r="AI161">
+        <v>1.7</v>
+      </c>
+      <c r="AJ161">
+        <v>2.05</v>
+      </c>
+      <c r="AK161">
+        <v>1.38</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>1.68</v>
+      </c>
+      <c r="AN161">
+        <v>2.22</v>
+      </c>
+      <c r="AO161">
+        <v>2.11</v>
+      </c>
+      <c r="AP161">
+        <v>2</v>
+      </c>
+      <c r="AQ161">
+        <v>2.2</v>
+      </c>
+      <c r="AR161">
+        <v>1.59</v>
+      </c>
+      <c r="AS161">
+        <v>1.52</v>
+      </c>
+      <c r="AT161">
+        <v>3.11</v>
+      </c>
+      <c r="AU161">
+        <v>8</v>
+      </c>
+      <c r="AV161">
+        <v>8</v>
+      </c>
+      <c r="AW161">
+        <v>10</v>
+      </c>
+      <c r="AX161">
+        <v>10</v>
+      </c>
+      <c r="AY161">
+        <v>18</v>
+      </c>
+      <c r="AZ161">
+        <v>18</v>
+      </c>
+      <c r="BA161">
+        <v>6</v>
+      </c>
+      <c r="BB161">
+        <v>5</v>
+      </c>
+      <c r="BC161">
+        <v>11</v>
+      </c>
+      <c r="BD161">
+        <v>1.79</v>
+      </c>
+      <c r="BE161">
+        <v>6.75</v>
+      </c>
+      <c r="BF161">
+        <v>2.08</v>
+      </c>
+      <c r="BG161">
+        <v>1.18</v>
+      </c>
+      <c r="BH161">
+        <v>4.2</v>
+      </c>
+      <c r="BI161">
+        <v>1.32</v>
+      </c>
+      <c r="BJ161">
+        <v>3.05</v>
+      </c>
+      <c r="BK161">
+        <v>1.53</v>
+      </c>
+      <c r="BL161">
+        <v>2.3</v>
+      </c>
+      <c r="BM161">
+        <v>1.84</v>
+      </c>
+      <c r="BN161">
+        <v>1.84</v>
+      </c>
+      <c r="BO161">
+        <v>2.3</v>
+      </c>
+      <c r="BP161">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,15 @@
     <t>['33', '40', '59']</t>
   </si>
   <si>
+    <t>['25', '71']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['25', '45+2']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -857,6 +866,9 @@
   </si>
   <si>
     <t>['36', '45', '77']</t>
+  </si>
+  <si>
+    <t>['43', '84']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1570,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1683,7 +1695,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1764,7 +1776,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2095,7 +2107,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2379,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ6">
         <v>0.8</v>
@@ -2507,7 +2519,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2919,7 +2931,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2997,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.4</v>
@@ -3331,7 +3343,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3409,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11">
         <v>1.2</v>
@@ -3537,7 +3549,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3821,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ13">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4567,7 +4579,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4979,7 +4991,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5263,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5678,7 +5690,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5803,7 +5815,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6009,7 +6021,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6293,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6914,7 +6926,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ28">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7039,7 +7051,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7245,7 +7257,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7735,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ32">
         <v>1.1</v>
@@ -7863,7 +7875,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7941,7 +7953,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ33">
         <v>2.2</v>
@@ -8356,7 +8368,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8481,7 +8493,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8687,7 +8699,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8974,7 +8986,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -9177,7 +9189,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ39">
         <v>1.2</v>
@@ -9305,7 +9317,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9798,7 +9810,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -10129,7 +10141,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10207,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ44">
         <v>1.8</v>
@@ -10413,7 +10425,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>0.6</v>
@@ -11031,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48">
         <v>1.1</v>
@@ -11159,7 +11171,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11443,7 +11455,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0.82</v>
@@ -11571,7 +11583,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11652,7 +11664,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11777,7 +11789,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11983,7 +11995,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12061,7 +12073,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12395,7 +12407,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12601,7 +12613,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12682,7 +12694,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12885,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -13013,7 +13025,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13506,7 +13518,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR60">
         <v>1.54</v>
@@ -13712,7 +13724,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR61">
         <v>0.92</v>
@@ -13837,7 +13849,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14043,7 +14055,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14121,7 +14133,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14455,7 +14467,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14867,7 +14879,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15073,7 +15085,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15151,7 +15163,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.8</v>
@@ -15279,7 +15291,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15485,7 +15497,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15691,7 +15703,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15769,10 +15781,10 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ71">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -15975,7 +15987,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ72">
         <v>0.82</v>
@@ -16103,7 +16115,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16309,7 +16321,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16515,7 +16527,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16596,7 +16608,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR75">
         <v>1.67</v>
@@ -16721,7 +16733,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16927,7 +16939,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17339,7 +17351,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17420,7 +17432,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17829,7 +17841,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ81">
         <v>1.1</v>
@@ -17957,7 +17969,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18035,10 +18047,10 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ82">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18369,7 +18381,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18781,7 +18793,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18859,7 +18871,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ86">
         <v>0.82</v>
@@ -19193,7 +19205,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19399,7 +19411,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19477,7 +19489,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
         <v>0.8</v>
@@ -19686,7 +19698,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ90">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR90">
         <v>1.68</v>
@@ -19811,7 +19823,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20017,7 +20029,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20223,7 +20235,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20713,10 +20725,10 @@
         <v>0.67</v>
       </c>
       <c r="AP95">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR95">
         <v>2.11</v>
@@ -21253,7 +21265,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21540,7 +21552,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ99">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21746,7 +21758,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21871,7 +21883,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21949,7 +21961,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ101">
         <v>0.6</v>
@@ -22077,7 +22089,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22361,7 +22373,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>2.2</v>
@@ -22567,7 +22579,7 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ104">
         <v>1.1</v>
@@ -22695,7 +22707,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23107,7 +23119,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23391,7 +23403,7 @@
         <v>1.29</v>
       </c>
       <c r="AP108">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23519,7 +23531,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23725,7 +23737,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23931,7 +23943,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24012,7 +24024,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24343,7 +24355,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24549,7 +24561,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24833,10 +24845,10 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR115">
         <v>2.2</v>
@@ -24961,7 +24973,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25245,7 +25257,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25373,7 +25385,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25454,7 +25466,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ118">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25579,7 +25591,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25991,7 +26003,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26069,7 +26081,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ121">
         <v>1.8</v>
@@ -26197,7 +26209,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26403,7 +26415,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26687,7 +26699,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ124">
         <v>0.8</v>
@@ -26815,7 +26827,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27021,7 +27033,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27433,7 +27445,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27639,7 +27651,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27926,7 +27938,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ130">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28051,7 +28063,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28129,10 +28141,10 @@
         <v>0.63</v>
       </c>
       <c r="AP131">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ131">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR131">
         <v>1.57</v>
@@ -28257,7 +28269,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28335,7 +28347,7 @@
         <v>0.89</v>
       </c>
       <c r="AP132">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ132">
         <v>0.82</v>
@@ -28669,7 +28681,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28747,7 +28759,7 @@
         <v>1.86</v>
       </c>
       <c r="AP134">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ134">
         <v>2.2</v>
@@ -28875,7 +28887,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29081,7 +29093,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29287,7 +29299,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29365,7 +29377,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>1.2</v>
@@ -29699,7 +29711,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29905,7 +29917,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30317,7 +30329,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30523,7 +30535,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30810,7 +30822,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -30935,7 +30947,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31219,10 +31231,10 @@
         <v>0.22</v>
       </c>
       <c r="AP146">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ146">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR146">
         <v>1.12</v>
@@ -31428,7 +31440,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ147">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -31634,7 +31646,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR148">
         <v>1.69</v>
@@ -31837,7 +31849,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -31965,7 +31977,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32249,7 +32261,7 @@
         <v>0.67</v>
       </c>
       <c r="AP151">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ151">
         <v>0.6</v>
@@ -32377,7 +32389,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32455,7 +32467,7 @@
         <v>1.22</v>
       </c>
       <c r="AP152">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ152">
         <v>1.2</v>
@@ -32789,7 +32801,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -33407,7 +33419,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33613,7 +33625,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -34025,7 +34037,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34231,7 +34243,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34388,6 +34400,830 @@
       </c>
       <c r="BP161">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7296692</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>74</v>
+      </c>
+      <c r="H162" t="s">
+        <v>70</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>90</v>
+      </c>
+      <c r="P162" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q162">
+        <v>2.1</v>
+      </c>
+      <c r="R162">
+        <v>2.4</v>
+      </c>
+      <c r="S162">
+        <v>5.5</v>
+      </c>
+      <c r="T162">
+        <v>1.3</v>
+      </c>
+      <c r="U162">
+        <v>3.4</v>
+      </c>
+      <c r="V162">
+        <v>2.5</v>
+      </c>
+      <c r="W162">
+        <v>1.5</v>
+      </c>
+      <c r="X162">
+        <v>6</v>
+      </c>
+      <c r="Y162">
+        <v>1.13</v>
+      </c>
+      <c r="Z162">
+        <v>1.53</v>
+      </c>
+      <c r="AA162">
+        <v>4.1</v>
+      </c>
+      <c r="AB162">
+        <v>5</v>
+      </c>
+      <c r="AC162">
+        <v>1.02</v>
+      </c>
+      <c r="AD162">
+        <v>16.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.17</v>
+      </c>
+      <c r="AF162">
+        <v>4.48</v>
+      </c>
+      <c r="AG162">
+        <v>1.61</v>
+      </c>
+      <c r="AH162">
+        <v>2.15</v>
+      </c>
+      <c r="AI162">
+        <v>1.7</v>
+      </c>
+      <c r="AJ162">
+        <v>2.05</v>
+      </c>
+      <c r="AK162">
+        <v>1.15</v>
+      </c>
+      <c r="AL162">
+        <v>1.2</v>
+      </c>
+      <c r="AM162">
+        <v>2.5</v>
+      </c>
+      <c r="AN162">
+        <v>1.8</v>
+      </c>
+      <c r="AO162">
+        <v>0.2</v>
+      </c>
+      <c r="AP162">
+        <v>1.73</v>
+      </c>
+      <c r="AQ162">
+        <v>0.27</v>
+      </c>
+      <c r="AR162">
+        <v>1.69</v>
+      </c>
+      <c r="AS162">
+        <v>1.28</v>
+      </c>
+      <c r="AT162">
+        <v>2.97</v>
+      </c>
+      <c r="AU162">
+        <v>-1</v>
+      </c>
+      <c r="AV162">
+        <v>-1</v>
+      </c>
+      <c r="AW162">
+        <v>-1</v>
+      </c>
+      <c r="AX162">
+        <v>-1</v>
+      </c>
+      <c r="AY162">
+        <v>-1</v>
+      </c>
+      <c r="AZ162">
+        <v>-1</v>
+      </c>
+      <c r="BA162">
+        <v>-1</v>
+      </c>
+      <c r="BB162">
+        <v>-1</v>
+      </c>
+      <c r="BC162">
+        <v>-1</v>
+      </c>
+      <c r="BD162">
+        <v>1.29</v>
+      </c>
+      <c r="BE162">
+        <v>7.5</v>
+      </c>
+      <c r="BF162">
+        <v>3.55</v>
+      </c>
+      <c r="BG162">
+        <v>1.23</v>
+      </c>
+      <c r="BH162">
+        <v>3.7</v>
+      </c>
+      <c r="BI162">
+        <v>1.38</v>
+      </c>
+      <c r="BJ162">
+        <v>2.7</v>
+      </c>
+      <c r="BK162">
+        <v>1.63</v>
+      </c>
+      <c r="BL162">
+        <v>2.12</v>
+      </c>
+      <c r="BM162">
+        <v>1.98</v>
+      </c>
+      <c r="BN162">
+        <v>1.73</v>
+      </c>
+      <c r="BO162">
+        <v>2.48</v>
+      </c>
+      <c r="BP162">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7296698</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>81</v>
+      </c>
+      <c r="H163" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>203</v>
+      </c>
+      <c r="P163" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q163">
+        <v>2.3</v>
+      </c>
+      <c r="R163">
+        <v>2.2</v>
+      </c>
+      <c r="S163">
+        <v>4.5</v>
+      </c>
+      <c r="T163">
+        <v>1.32</v>
+      </c>
+      <c r="U163">
+        <v>3.2</v>
+      </c>
+      <c r="V163">
+        <v>2.48</v>
+      </c>
+      <c r="W163">
+        <v>1.5</v>
+      </c>
+      <c r="X163">
+        <v>5.6</v>
+      </c>
+      <c r="Y163">
+        <v>1.1</v>
+      </c>
+      <c r="Z163">
+        <v>1.8</v>
+      </c>
+      <c r="AA163">
+        <v>3.6</v>
+      </c>
+      <c r="AB163">
+        <v>3.8</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>11</v>
+      </c>
+      <c r="AE163">
+        <v>1.2</v>
+      </c>
+      <c r="AF163">
+        <v>4</v>
+      </c>
+      <c r="AG163">
+        <v>1.67</v>
+      </c>
+      <c r="AH163">
+        <v>2.07</v>
+      </c>
+      <c r="AI163">
+        <v>1.67</v>
+      </c>
+      <c r="AJ163">
+        <v>2.15</v>
+      </c>
+      <c r="AK163">
+        <v>1.23</v>
+      </c>
+      <c r="AL163">
+        <v>1.26</v>
+      </c>
+      <c r="AM163">
+        <v>1.98</v>
+      </c>
+      <c r="AN163">
+        <v>2.1</v>
+      </c>
+      <c r="AO163">
+        <v>0.5</v>
+      </c>
+      <c r="AP163">
+        <v>2.18</v>
+      </c>
+      <c r="AQ163">
+        <v>0.45</v>
+      </c>
+      <c r="AR163">
+        <v>2.19</v>
+      </c>
+      <c r="AS163">
+        <v>1.59</v>
+      </c>
+      <c r="AT163">
+        <v>3.78</v>
+      </c>
+      <c r="AU163">
+        <v>-1</v>
+      </c>
+      <c r="AV163">
+        <v>-1</v>
+      </c>
+      <c r="AW163">
+        <v>-1</v>
+      </c>
+      <c r="AX163">
+        <v>-1</v>
+      </c>
+      <c r="AY163">
+        <v>-1</v>
+      </c>
+      <c r="AZ163">
+        <v>-1</v>
+      </c>
+      <c r="BA163">
+        <v>-1</v>
+      </c>
+      <c r="BB163">
+        <v>-1</v>
+      </c>
+      <c r="BC163">
+        <v>-1</v>
+      </c>
+      <c r="BD163">
+        <v>1.5</v>
+      </c>
+      <c r="BE163">
+        <v>6.5</v>
+      </c>
+      <c r="BF163">
+        <v>2.65</v>
+      </c>
+      <c r="BG163">
+        <v>1.26</v>
+      </c>
+      <c r="BH163">
+        <v>3.4</v>
+      </c>
+      <c r="BI163">
+        <v>1.46</v>
+      </c>
+      <c r="BJ163">
+        <v>2.48</v>
+      </c>
+      <c r="BK163">
+        <v>1.74</v>
+      </c>
+      <c r="BL163">
+        <v>1.97</v>
+      </c>
+      <c r="BM163">
+        <v>2.17</v>
+      </c>
+      <c r="BN163">
+        <v>1.6</v>
+      </c>
+      <c r="BO163">
+        <v>2.8</v>
+      </c>
+      <c r="BP163">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7296699</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>79</v>
+      </c>
+      <c r="H164" t="s">
+        <v>82</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>204</v>
+      </c>
+      <c r="P164" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q164">
+        <v>3</v>
+      </c>
+      <c r="R164">
+        <v>2.2</v>
+      </c>
+      <c r="S164">
+        <v>3.4</v>
+      </c>
+      <c r="T164">
+        <v>1.36</v>
+      </c>
+      <c r="U164">
+        <v>3</v>
+      </c>
+      <c r="V164">
+        <v>2.75</v>
+      </c>
+      <c r="W164">
+        <v>1.4</v>
+      </c>
+      <c r="X164">
+        <v>7</v>
+      </c>
+      <c r="Y164">
+        <v>1.1</v>
+      </c>
+      <c r="Z164">
+        <v>2.37</v>
+      </c>
+      <c r="AA164">
+        <v>3.4</v>
+      </c>
+      <c r="AB164">
+        <v>2.6</v>
+      </c>
+      <c r="AC164">
+        <v>1.02</v>
+      </c>
+      <c r="AD164">
+        <v>10</v>
+      </c>
+      <c r="AE164">
+        <v>1.2</v>
+      </c>
+      <c r="AF164">
+        <v>4</v>
+      </c>
+      <c r="AG164">
+        <v>1.8</v>
+      </c>
+      <c r="AH164">
+        <v>1.9</v>
+      </c>
+      <c r="AI164">
+        <v>1.67</v>
+      </c>
+      <c r="AJ164">
+        <v>2.1</v>
+      </c>
+      <c r="AK164">
+        <v>1.44</v>
+      </c>
+      <c r="AL164">
+        <v>1.33</v>
+      </c>
+      <c r="AM164">
+        <v>1.53</v>
+      </c>
+      <c r="AN164">
+        <v>1.4</v>
+      </c>
+      <c r="AO164">
+        <v>1.1</v>
+      </c>
+      <c r="AP164">
+        <v>1.36</v>
+      </c>
+      <c r="AQ164">
+        <v>1.09</v>
+      </c>
+      <c r="AR164">
+        <v>1.12</v>
+      </c>
+      <c r="AS164">
+        <v>1.38</v>
+      </c>
+      <c r="AT164">
+        <v>2.5</v>
+      </c>
+      <c r="AU164">
+        <v>6</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>3</v>
+      </c>
+      <c r="AX164">
+        <v>7</v>
+      </c>
+      <c r="AY164">
+        <v>9</v>
+      </c>
+      <c r="AZ164">
+        <v>10</v>
+      </c>
+      <c r="BA164">
+        <v>9</v>
+      </c>
+      <c r="BB164">
+        <v>1</v>
+      </c>
+      <c r="BC164">
+        <v>10</v>
+      </c>
+      <c r="BD164">
+        <v>2.2</v>
+      </c>
+      <c r="BE164">
+        <v>8.5</v>
+      </c>
+      <c r="BF164">
+        <v>1.83</v>
+      </c>
+      <c r="BG164">
+        <v>1.18</v>
+      </c>
+      <c r="BH164">
+        <v>4.3</v>
+      </c>
+      <c r="BI164">
+        <v>1.25</v>
+      </c>
+      <c r="BJ164">
+        <v>3.05</v>
+      </c>
+      <c r="BK164">
+        <v>1.51</v>
+      </c>
+      <c r="BL164">
+        <v>2.5</v>
+      </c>
+      <c r="BM164">
+        <v>1.98</v>
+      </c>
+      <c r="BN164">
+        <v>1.82</v>
+      </c>
+      <c r="BO164">
+        <v>2.32</v>
+      </c>
+      <c r="BP164">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7296696</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>77</v>
+      </c>
+      <c r="H165" t="s">
+        <v>80</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>3</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>205</v>
+      </c>
+      <c r="P165" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q165">
+        <v>2.2</v>
+      </c>
+      <c r="R165">
+        <v>2.5</v>
+      </c>
+      <c r="S165">
+        <v>4.33</v>
+      </c>
+      <c r="T165">
+        <v>1.27</v>
+      </c>
+      <c r="U165">
+        <v>3.54</v>
+      </c>
+      <c r="V165">
+        <v>2.25</v>
+      </c>
+      <c r="W165">
+        <v>1.6</v>
+      </c>
+      <c r="X165">
+        <v>5.05</v>
+      </c>
+      <c r="Y165">
+        <v>1.15</v>
+      </c>
+      <c r="Z165">
+        <v>1.7</v>
+      </c>
+      <c r="AA165">
+        <v>3.9</v>
+      </c>
+      <c r="AB165">
+        <v>4</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>13</v>
+      </c>
+      <c r="AE165">
+        <v>1.14</v>
+      </c>
+      <c r="AF165">
+        <v>4.7</v>
+      </c>
+      <c r="AG165">
+        <v>1.53</v>
+      </c>
+      <c r="AH165">
+        <v>2.35</v>
+      </c>
+      <c r="AI165">
+        <v>1.53</v>
+      </c>
+      <c r="AJ165">
+        <v>2.4</v>
+      </c>
+      <c r="AK165">
+        <v>1.2</v>
+      </c>
+      <c r="AL165">
+        <v>1.18</v>
+      </c>
+      <c r="AM165">
+        <v>2.2</v>
+      </c>
+      <c r="AN165">
+        <v>2.1</v>
+      </c>
+      <c r="AO165">
+        <v>1</v>
+      </c>
+      <c r="AP165">
+        <v>2</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>2.15</v>
+      </c>
+      <c r="AS165">
+        <v>1.41</v>
+      </c>
+      <c r="AT165">
+        <v>3.56</v>
+      </c>
+      <c r="AU165">
+        <v>5</v>
+      </c>
+      <c r="AV165">
+        <v>9</v>
+      </c>
+      <c r="AW165">
+        <v>4</v>
+      </c>
+      <c r="AX165">
+        <v>5</v>
+      </c>
+      <c r="AY165">
+        <v>9</v>
+      </c>
+      <c r="AZ165">
+        <v>14</v>
+      </c>
+      <c r="BA165">
+        <v>6</v>
+      </c>
+      <c r="BB165">
+        <v>4</v>
+      </c>
+      <c r="BC165">
+        <v>10</v>
+      </c>
+      <c r="BD165">
+        <v>1.48</v>
+      </c>
+      <c r="BE165">
+        <v>6.75</v>
+      </c>
+      <c r="BF165">
+        <v>2.7</v>
+      </c>
+      <c r="BG165">
+        <v>1.23</v>
+      </c>
+      <c r="BH165">
+        <v>3.65</v>
+      </c>
+      <c r="BI165">
+        <v>1.4</v>
+      </c>
+      <c r="BJ165">
+        <v>2.7</v>
+      </c>
+      <c r="BK165">
+        <v>1.65</v>
+      </c>
+      <c r="BL165">
+        <v>2.1</v>
+      </c>
+      <c r="BM165">
+        <v>1.98</v>
+      </c>
+      <c r="BN165">
+        <v>1.72</v>
+      </c>
+      <c r="BO165">
+        <v>2.48</v>
+      </c>
+      <c r="BP165">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -870,6 +870,15 @@
   <si>
     <t>['43', '84']</t>
   </si>
+  <si>
+    <t>['15', '44', '52']</t>
+  </si>
+  <si>
+    <t>['39', '45', '90+4']</t>
+  </si>
+  <si>
+    <t>['39', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1230,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2803,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ8">
         <v>1.1</v>
@@ -3218,7 +3227,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ10">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4042,7 +4051,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4245,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4451,10 +4460,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4657,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ17">
         <v>1.2</v>
@@ -5687,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ22">
         <v>1.09</v>
@@ -6717,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR27">
         <v>0.63</v>
@@ -7132,7 +7141,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7335,10 +7344,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7541,10 +7550,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ31">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -8983,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ38">
         <v>0.45</v>
@@ -9601,7 +9610,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>0.82</v>
@@ -9807,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42">
         <v>0.27</v>
@@ -10222,7 +10231,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ44">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10428,7 +10437,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -11046,7 +11055,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ48">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11870,7 +11879,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ52">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -12076,7 +12085,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12485,7 +12494,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12691,7 +12700,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
         <v>0.45</v>
@@ -13721,7 +13730,7 @@
         <v>0.25</v>
       </c>
       <c r="AP61">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>0.45</v>
@@ -13927,7 +13936,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ62">
         <v>1.2</v>
@@ -14136,7 +14145,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.89</v>
@@ -14960,7 +14969,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ67">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR67">
         <v>1.81</v>
@@ -15166,7 +15175,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR68">
         <v>2.08</v>
@@ -15369,7 +15378,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ69">
         <v>0.8</v>
@@ -15578,7 +15587,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ70">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR70">
         <v>1.65</v>
@@ -16193,7 +16202,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ73">
         <v>1.4</v>
@@ -16399,7 +16408,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.2</v>
@@ -16605,7 +16614,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ75">
         <v>0.45</v>
@@ -17020,7 +17029,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -17223,10 +17232,10 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR78">
         <v>1.64</v>
@@ -18253,7 +18262,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ83">
         <v>1.2</v>
@@ -18668,7 +18677,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -19080,7 +19089,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ87">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -19904,7 +19913,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR91">
         <v>1.45</v>
@@ -20107,7 +20116,7 @@
         <v>1.2</v>
       </c>
       <c r="AP92">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1.4</v>
@@ -20519,7 +20528,7 @@
         <v>0.4</v>
       </c>
       <c r="AP94">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ94">
         <v>0.5</v>
@@ -21343,7 +21352,7 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ98">
         <v>1.4</v>
@@ -21755,7 +21764,7 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ100">
         <v>0.27</v>
@@ -21964,7 +21973,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ101">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR101">
         <v>1.1</v>
@@ -22167,7 +22176,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22582,7 +22591,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ104">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22788,7 +22797,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR105">
         <v>1.43</v>
@@ -22991,7 +23000,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ106">
         <v>1.1</v>
@@ -23197,10 +23206,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ107">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR107">
         <v>1.45</v>
@@ -24642,7 +24651,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ114">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR114">
         <v>1.35</v>
@@ -25051,7 +25060,7 @@
         <v>1.67</v>
       </c>
       <c r="AP116">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ116">
         <v>2.2</v>
@@ -25260,7 +25269,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25875,7 +25884,7 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
         <v>1.2</v>
@@ -26084,7 +26093,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ121">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR121">
         <v>1.16</v>
@@ -26908,7 +26917,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ125">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27114,7 +27123,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27317,7 +27326,7 @@
         <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ127">
         <v>0.5</v>
@@ -27729,7 +27738,7 @@
         <v>1.57</v>
       </c>
       <c r="AP129">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ129">
         <v>1.2</v>
@@ -28556,7 +28565,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ133">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28965,10 +28974,10 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR135">
         <v>0.9</v>
@@ -29174,7 +29183,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29583,7 +29592,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ138">
         <v>0.8</v>
@@ -29998,7 +30007,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ140">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR140">
         <v>1.51</v>
@@ -30407,7 +30416,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -31025,7 +31034,7 @@
         <v>1.25</v>
       </c>
       <c r="AP145">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ145">
         <v>1.4</v>
@@ -31437,7 +31446,7 @@
         <v>1.22</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ147">
         <v>1.09</v>
@@ -31852,7 +31861,7 @@
         <v>2</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR149">
         <v>2.21</v>
@@ -32055,7 +32064,7 @@
         <v>2</v>
       </c>
       <c r="AP150">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
         <v>2.2</v>
@@ -32264,7 +32273,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ151">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR151">
         <v>1.65</v>
@@ -32676,7 +32685,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ153">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33294,7 +33303,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ156">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR156">
         <v>1.46</v>
@@ -34321,7 +34330,7 @@
         <v>2.11</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ161">
         <v>2.2</v>
@@ -34542,31 +34551,31 @@
         <v>2.97</v>
       </c>
       <c r="AU162">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV162">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW162">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY162">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ162">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA162">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB162">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC162">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD162">
         <v>1.29</v>
@@ -34748,31 +34757,31 @@
         <v>3.78</v>
       </c>
       <c r="AU163">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AV163">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW163">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX163">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY163">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ163">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA163">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB163">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC163">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD163">
         <v>1.5</v>
@@ -35224,6 +35233,830 @@
       </c>
       <c r="BP165">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7296697</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>84</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>90</v>
+      </c>
+      <c r="P166" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q166">
+        <v>3.4</v>
+      </c>
+      <c r="R166">
+        <v>2.1</v>
+      </c>
+      <c r="S166">
+        <v>3</v>
+      </c>
+      <c r="T166">
+        <v>1.38</v>
+      </c>
+      <c r="U166">
+        <v>2.9</v>
+      </c>
+      <c r="V166">
+        <v>2.7</v>
+      </c>
+      <c r="W166">
+        <v>1.38</v>
+      </c>
+      <c r="X166">
+        <v>6.5</v>
+      </c>
+      <c r="Y166">
+        <v>1.07</v>
+      </c>
+      <c r="Z166">
+        <v>2.8</v>
+      </c>
+      <c r="AA166">
+        <v>3.3</v>
+      </c>
+      <c r="AB166">
+        <v>2.35</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>9</v>
+      </c>
+      <c r="AE166">
+        <v>1.25</v>
+      </c>
+      <c r="AF166">
+        <v>3.6</v>
+      </c>
+      <c r="AG166">
+        <v>1.92</v>
+      </c>
+      <c r="AH166">
+        <v>1.78</v>
+      </c>
+      <c r="AI166">
+        <v>1.73</v>
+      </c>
+      <c r="AJ166">
+        <v>2.1</v>
+      </c>
+      <c r="AK166">
+        <v>1.55</v>
+      </c>
+      <c r="AL166">
+        <v>1.32</v>
+      </c>
+      <c r="AM166">
+        <v>1.25</v>
+      </c>
+      <c r="AN166">
+        <v>1.44</v>
+      </c>
+      <c r="AO166">
+        <v>1.8</v>
+      </c>
+      <c r="AP166">
+        <v>1.3</v>
+      </c>
+      <c r="AQ166">
+        <v>1.91</v>
+      </c>
+      <c r="AR166">
+        <v>1.53</v>
+      </c>
+      <c r="AS166">
+        <v>1.6</v>
+      </c>
+      <c r="AT166">
+        <v>3.13</v>
+      </c>
+      <c r="AU166">
+        <v>3</v>
+      </c>
+      <c r="AV166">
+        <v>4</v>
+      </c>
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
+        <v>5</v>
+      </c>
+      <c r="AY166">
+        <v>8</v>
+      </c>
+      <c r="AZ166">
+        <v>9</v>
+      </c>
+      <c r="BA166">
+        <v>4</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>9</v>
+      </c>
+      <c r="BD166">
+        <v>1.95</v>
+      </c>
+      <c r="BE166">
+        <v>6.4</v>
+      </c>
+      <c r="BF166">
+        <v>1.93</v>
+      </c>
+      <c r="BG166">
+        <v>1.26</v>
+      </c>
+      <c r="BH166">
+        <v>3.4</v>
+      </c>
+      <c r="BI166">
+        <v>1.46</v>
+      </c>
+      <c r="BJ166">
+        <v>2.5</v>
+      </c>
+      <c r="BK166">
+        <v>1.74</v>
+      </c>
+      <c r="BL166">
+        <v>1.95</v>
+      </c>
+      <c r="BM166">
+        <v>2.17</v>
+      </c>
+      <c r="BN166">
+        <v>1.58</v>
+      </c>
+      <c r="BO166">
+        <v>2.8</v>
+      </c>
+      <c r="BP166">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7296693</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>85</v>
+      </c>
+      <c r="H167" t="s">
+        <v>73</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>2</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>3</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>90</v>
+      </c>
+      <c r="P167" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q167">
+        <v>2.4</v>
+      </c>
+      <c r="R167">
+        <v>2.3</v>
+      </c>
+      <c r="S167">
+        <v>4.33</v>
+      </c>
+      <c r="T167">
+        <v>1.33</v>
+      </c>
+      <c r="U167">
+        <v>3.25</v>
+      </c>
+      <c r="V167">
+        <v>2.63</v>
+      </c>
+      <c r="W167">
+        <v>1.44</v>
+      </c>
+      <c r="X167">
+        <v>6.5</v>
+      </c>
+      <c r="Y167">
+        <v>1.11</v>
+      </c>
+      <c r="Z167">
+        <v>1.73</v>
+      </c>
+      <c r="AA167">
+        <v>3.75</v>
+      </c>
+      <c r="AB167">
+        <v>4.1</v>
+      </c>
+      <c r="AC167">
+        <v>1.01</v>
+      </c>
+      <c r="AD167">
+        <v>11</v>
+      </c>
+      <c r="AE167">
+        <v>1.2</v>
+      </c>
+      <c r="AF167">
+        <v>4</v>
+      </c>
+      <c r="AG167">
+        <v>1.7</v>
+      </c>
+      <c r="AH167">
+        <v>2.02</v>
+      </c>
+      <c r="AI167">
+        <v>1.7</v>
+      </c>
+      <c r="AJ167">
+        <v>2.05</v>
+      </c>
+      <c r="AK167">
+        <v>1.23</v>
+      </c>
+      <c r="AL167">
+        <v>1.25</v>
+      </c>
+      <c r="AM167">
+        <v>1.98</v>
+      </c>
+      <c r="AN167">
+        <v>1.4</v>
+      </c>
+      <c r="AO167">
+        <v>1.1</v>
+      </c>
+      <c r="AP167">
+        <v>1.27</v>
+      </c>
+      <c r="AQ167">
+        <v>1.27</v>
+      </c>
+      <c r="AR167">
+        <v>1.54</v>
+      </c>
+      <c r="AS167">
+        <v>1.36</v>
+      </c>
+      <c r="AT167">
+        <v>2.9</v>
+      </c>
+      <c r="AU167">
+        <v>7</v>
+      </c>
+      <c r="AV167">
+        <v>14</v>
+      </c>
+      <c r="AW167">
+        <v>2</v>
+      </c>
+      <c r="AX167">
+        <v>3</v>
+      </c>
+      <c r="AY167">
+        <v>9</v>
+      </c>
+      <c r="AZ167">
+        <v>17</v>
+      </c>
+      <c r="BA167">
+        <v>2</v>
+      </c>
+      <c r="BB167">
+        <v>11</v>
+      </c>
+      <c r="BC167">
+        <v>13</v>
+      </c>
+      <c r="BD167">
+        <v>1.49</v>
+      </c>
+      <c r="BE167">
+        <v>6.75</v>
+      </c>
+      <c r="BF167">
+        <v>2.65</v>
+      </c>
+      <c r="BG167">
+        <v>1.16</v>
+      </c>
+      <c r="BH167">
+        <v>4.6</v>
+      </c>
+      <c r="BI167">
+        <v>1.27</v>
+      </c>
+      <c r="BJ167">
+        <v>3.3</v>
+      </c>
+      <c r="BK167">
+        <v>1.47</v>
+      </c>
+      <c r="BL167">
+        <v>2.48</v>
+      </c>
+      <c r="BM167">
+        <v>1.74</v>
+      </c>
+      <c r="BN167">
+        <v>1.96</v>
+      </c>
+      <c r="BO167">
+        <v>2.15</v>
+      </c>
+      <c r="BP167">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7296695</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>83</v>
+      </c>
+      <c r="H168" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>90</v>
+      </c>
+      <c r="P168" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q168">
+        <v>3.5</v>
+      </c>
+      <c r="R168">
+        <v>2.22</v>
+      </c>
+      <c r="S168">
+        <v>2.72</v>
+      </c>
+      <c r="T168">
+        <v>1.33</v>
+      </c>
+      <c r="U168">
+        <v>3.15</v>
+      </c>
+      <c r="V168">
+        <v>2.56</v>
+      </c>
+      <c r="W168">
+        <v>1.48</v>
+      </c>
+      <c r="X168">
+        <v>6.1</v>
+      </c>
+      <c r="Y168">
+        <v>1.1</v>
+      </c>
+      <c r="Z168">
+        <v>2.75</v>
+      </c>
+      <c r="AA168">
+        <v>3.5</v>
+      </c>
+      <c r="AB168">
+        <v>2.28</v>
+      </c>
+      <c r="AC168">
+        <v>1.01</v>
+      </c>
+      <c r="AD168">
+        <v>11</v>
+      </c>
+      <c r="AE168">
+        <v>1.21</v>
+      </c>
+      <c r="AF168">
+        <v>3.74</v>
+      </c>
+      <c r="AG168">
+        <v>1.72</v>
+      </c>
+      <c r="AH168">
+        <v>1.98</v>
+      </c>
+      <c r="AI168">
+        <v>1.57</v>
+      </c>
+      <c r="AJ168">
+        <v>2.38</v>
+      </c>
+      <c r="AK168">
+        <v>1.62</v>
+      </c>
+      <c r="AL168">
+        <v>1.28</v>
+      </c>
+      <c r="AM168">
+        <v>1.37</v>
+      </c>
+      <c r="AN168">
+        <v>1.1</v>
+      </c>
+      <c r="AO168">
+        <v>0.6</v>
+      </c>
+      <c r="AP168">
+        <v>1</v>
+      </c>
+      <c r="AQ168">
+        <v>0.82</v>
+      </c>
+      <c r="AR168">
+        <v>1.02</v>
+      </c>
+      <c r="AS168">
+        <v>1.25</v>
+      </c>
+      <c r="AT168">
+        <v>2.27</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>10</v>
+      </c>
+      <c r="AW168">
+        <v>8</v>
+      </c>
+      <c r="AX168">
+        <v>5</v>
+      </c>
+      <c r="AY168">
+        <v>12</v>
+      </c>
+      <c r="AZ168">
+        <v>15</v>
+      </c>
+      <c r="BA168">
+        <v>2</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>6</v>
+      </c>
+      <c r="BD168">
+        <v>1.98</v>
+      </c>
+      <c r="BE168">
+        <v>6.4</v>
+      </c>
+      <c r="BF168">
+        <v>1.88</v>
+      </c>
+      <c r="BG168">
+        <v>1.24</v>
+      </c>
+      <c r="BH168">
+        <v>3.55</v>
+      </c>
+      <c r="BI168">
+        <v>1.41</v>
+      </c>
+      <c r="BJ168">
+        <v>2.65</v>
+      </c>
+      <c r="BK168">
+        <v>1.68</v>
+      </c>
+      <c r="BL168">
+        <v>2.05</v>
+      </c>
+      <c r="BM168">
+        <v>2.05</v>
+      </c>
+      <c r="BN168">
+        <v>1.68</v>
+      </c>
+      <c r="BO168">
+        <v>2.55</v>
+      </c>
+      <c r="BP168">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7296694</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>76</v>
+      </c>
+      <c r="H169" t="s">
+        <v>71</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>90</v>
+      </c>
+      <c r="P169" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q169">
+        <v>2.2</v>
+      </c>
+      <c r="R169">
+        <v>2.4</v>
+      </c>
+      <c r="S169">
+        <v>4.75</v>
+      </c>
+      <c r="T169">
+        <v>1.29</v>
+      </c>
+      <c r="U169">
+        <v>3.5</v>
+      </c>
+      <c r="V169">
+        <v>2.38</v>
+      </c>
+      <c r="W169">
+        <v>1.53</v>
+      </c>
+      <c r="X169">
+        <v>5.5</v>
+      </c>
+      <c r="Y169">
+        <v>1.14</v>
+      </c>
+      <c r="Z169">
+        <v>1.57</v>
+      </c>
+      <c r="AA169">
+        <v>4</v>
+      </c>
+      <c r="AB169">
+        <v>4.4</v>
+      </c>
+      <c r="AC169">
+        <v>1.02</v>
+      </c>
+      <c r="AD169">
+        <v>17.25</v>
+      </c>
+      <c r="AE169">
+        <v>1.16</v>
+      </c>
+      <c r="AF169">
+        <v>4.72</v>
+      </c>
+      <c r="AG169">
+        <v>1.6</v>
+      </c>
+      <c r="AH169">
+        <v>2.2</v>
+      </c>
+      <c r="AI169">
+        <v>1.62</v>
+      </c>
+      <c r="AJ169">
+        <v>2.2</v>
+      </c>
+      <c r="AK169">
+        <v>1.18</v>
+      </c>
+      <c r="AL169">
+        <v>1.19</v>
+      </c>
+      <c r="AM169">
+        <v>2.17</v>
+      </c>
+      <c r="AN169">
+        <v>2</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>1.82</v>
+      </c>
+      <c r="AQ169">
+        <v>1.2</v>
+      </c>
+      <c r="AR169">
+        <v>1.69</v>
+      </c>
+      <c r="AS169">
+        <v>1.32</v>
+      </c>
+      <c r="AT169">
+        <v>3.01</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>8</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>5</v>
+      </c>
+      <c r="AY169">
+        <v>14</v>
+      </c>
+      <c r="AZ169">
+        <v>13</v>
+      </c>
+      <c r="BA169">
+        <v>6</v>
+      </c>
+      <c r="BB169">
+        <v>6</v>
+      </c>
+      <c r="BC169">
+        <v>12</v>
+      </c>
+      <c r="BD169">
+        <v>1.69</v>
+      </c>
+      <c r="BE169">
+        <v>8.5</v>
+      </c>
+      <c r="BF169">
+        <v>2.53</v>
+      </c>
+      <c r="BG169">
+        <v>1.13</v>
+      </c>
+      <c r="BH169">
+        <v>4.9</v>
+      </c>
+      <c r="BI169">
+        <v>1.24</v>
+      </c>
+      <c r="BJ169">
+        <v>3.55</v>
+      </c>
+      <c r="BK169">
+        <v>1.37</v>
+      </c>
+      <c r="BL169">
+        <v>2.75</v>
+      </c>
+      <c r="BM169">
+        <v>1.82</v>
+      </c>
+      <c r="BN169">
+        <v>1.98</v>
+      </c>
+      <c r="BO169">
+        <v>2.07</v>
+      </c>
+      <c r="BP169">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -34775,10 +34775,10 @@
         <v>12</v>
       </c>
       <c r="BA163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC163">
         <v>10</v>
@@ -35190,10 +35190,10 @@
         <v>6</v>
       </c>
       <c r="BB165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC165">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD165">
         <v>1.48</v>
@@ -35378,19 +35378,19 @@
         <v>3</v>
       </c>
       <c r="AV166">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY166">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ166">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA166">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,9 @@
     <t>['25', '45+2']</t>
   </si>
   <si>
+    <t>['59', '70']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -1239,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +1707,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1988,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2116,7 +2119,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2194,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ5">
         <v>0.82</v>
@@ -2528,7 +2531,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2609,7 +2612,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2940,7 +2943,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3224,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.27</v>
@@ -3352,7 +3355,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3433,7 +3436,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3558,7 +3561,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3639,7 +3642,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4588,7 +4591,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -5000,7 +5003,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5078,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ19">
         <v>0.82</v>
@@ -5490,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5824,7 +5827,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6030,7 +6033,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6317,7 +6320,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6523,7 +6526,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -7060,7 +7063,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7138,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.2</v>
@@ -7266,7 +7269,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7884,7 +7887,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7965,7 +7968,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ33">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -8374,7 +8377,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ35">
         <v>1.09</v>
@@ -8502,7 +8505,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8708,7 +8711,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8789,7 +8792,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -9326,7 +9329,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9404,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -10150,7 +10153,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10846,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -11180,7 +11183,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11261,7 +11264,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ49">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11592,7 +11595,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11670,7 +11673,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ51">
         <v>1.09</v>
@@ -11798,7 +11801,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -12004,7 +12007,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12416,7 +12419,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12622,7 +12625,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13034,7 +13037,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13115,7 +13118,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13318,10 +13321,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ59">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13858,7 +13861,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14064,7 +14067,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14348,10 +14351,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14476,7 +14479,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14888,7 +14891,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14966,7 +14969,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.82</v>
@@ -15094,7 +15097,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15300,7 +15303,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15506,7 +15509,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15712,7 +15715,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16124,7 +16127,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16330,7 +16333,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16411,7 +16414,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR74">
         <v>0.98</v>
@@ -16536,7 +16539,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16742,7 +16745,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16823,7 +16826,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR76">
         <v>1.5</v>
@@ -16948,7 +16951,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17360,7 +17363,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17438,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ79">
         <v>0.27</v>
@@ -17978,7 +17981,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18265,7 +18268,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR83">
         <v>1.38</v>
@@ -18390,7 +18393,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18468,7 +18471,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18674,7 +18677,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ85">
         <v>1.27</v>
@@ -18802,7 +18805,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19214,7 +19217,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19295,7 +19298,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ88">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.45</v>
@@ -19420,7 +19423,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19832,7 +19835,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20038,7 +20041,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20244,7 +20247,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20531,7 +20534,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ94">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -21146,7 +21149,7 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ97">
         <v>1.2</v>
@@ -21274,7 +21277,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21558,7 +21561,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1.09</v>
@@ -21892,7 +21895,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22098,7 +22101,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22385,7 +22388,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR103">
         <v>2.16</v>
@@ -22716,7 +22719,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22794,7 +22797,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ105">
         <v>1.2</v>
@@ -23128,7 +23131,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23540,7 +23543,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23621,7 +23624,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ109">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR109">
         <v>1.45</v>
@@ -23746,7 +23749,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23952,7 +23955,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24030,7 +24033,7 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ111">
         <v>0.45</v>
@@ -24364,7 +24367,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24442,10 +24445,10 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ113">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24570,7 +24573,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24982,7 +24985,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25063,7 +25066,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ116">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25394,7 +25397,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25600,7 +25603,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25678,7 +25681,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>1.4</v>
@@ -26012,7 +26015,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26218,7 +26221,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26424,7 +26427,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26502,7 +26505,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>1.1</v>
@@ -26836,7 +26839,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27042,7 +27045,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27120,7 +27123,7 @@
         <v>0.43</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ126">
         <v>0.82</v>
@@ -27329,7 +27332,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR127">
         <v>1.58</v>
@@ -27454,7 +27457,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27660,7 +27663,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27741,7 +27744,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ129">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR129">
         <v>1.56</v>
@@ -28072,7 +28075,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28278,7 +28281,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28690,7 +28693,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28771,7 +28774,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ134">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR134">
         <v>1.09</v>
@@ -28896,7 +28899,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29102,7 +29105,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29180,7 +29183,7 @@
         <v>1.88</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ136">
         <v>1.91</v>
@@ -29308,7 +29311,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29720,7 +29723,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29926,7 +29929,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30210,10 +30213,10 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR141">
         <v>1.67</v>
@@ -30338,7 +30341,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30544,7 +30547,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30625,7 +30628,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ143">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR143">
         <v>1.78</v>
@@ -30828,7 +30831,7 @@
         <v>0.13</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ144">
         <v>0.27</v>
@@ -30956,7 +30959,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31652,7 +31655,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ148">
         <v>0.45</v>
@@ -31986,7 +31989,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32067,7 +32070,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR150">
         <v>0.9399999999999999</v>
@@ -32398,7 +32401,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32810,7 +32813,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -32888,7 +32891,7 @@
         <v>0.78</v>
       </c>
       <c r="AP154">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
         <v>0.8</v>
@@ -33097,7 +33100,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR155">
         <v>1.25</v>
@@ -33428,7 +33431,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33634,7 +33637,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -33712,7 +33715,7 @@
         <v>0.89</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ158">
         <v>1.1</v>
@@ -34046,7 +34049,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34127,7 +34130,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ160">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR160">
         <v>1.48</v>
@@ -34252,7 +34255,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34333,7 +34336,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ161">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR161">
         <v>1.59</v>
@@ -35076,7 +35079,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35282,7 +35285,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35488,7 +35491,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35694,7 +35697,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -35900,7 +35903,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -36057,6 +36060,624 @@
       </c>
       <c r="BP169">
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7296700</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45548.58333333334</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" t="s">
+        <v>77</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170" t="s">
+        <v>90</v>
+      </c>
+      <c r="P170" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q170">
+        <v>3.12</v>
+      </c>
+      <c r="R170">
+        <v>2.38</v>
+      </c>
+      <c r="S170">
+        <v>3.07</v>
+      </c>
+      <c r="T170">
+        <v>1.32</v>
+      </c>
+      <c r="U170">
+        <v>3.2</v>
+      </c>
+      <c r="V170">
+        <v>2.45</v>
+      </c>
+      <c r="W170">
+        <v>1.53</v>
+      </c>
+      <c r="X170">
+        <v>5.25</v>
+      </c>
+      <c r="Y170">
+        <v>1.12</v>
+      </c>
+      <c r="Z170">
+        <v>2.5</v>
+      </c>
+      <c r="AA170">
+        <v>3.35</v>
+      </c>
+      <c r="AB170">
+        <v>2.5</v>
+      </c>
+      <c r="AC170">
+        <v>1.03</v>
+      </c>
+      <c r="AD170">
+        <v>15.75</v>
+      </c>
+      <c r="AE170">
+        <v>1.21</v>
+      </c>
+      <c r="AF170">
+        <v>4.48</v>
+      </c>
+      <c r="AG170">
+        <v>1.65</v>
+      </c>
+      <c r="AH170">
+        <v>2.11</v>
+      </c>
+      <c r="AI170">
+        <v>1.55</v>
+      </c>
+      <c r="AJ170">
+        <v>2.4</v>
+      </c>
+      <c r="AK170">
+        <v>1.52</v>
+      </c>
+      <c r="AL170">
+        <v>1.3</v>
+      </c>
+      <c r="AM170">
+        <v>1.48</v>
+      </c>
+      <c r="AN170">
+        <v>2</v>
+      </c>
+      <c r="AO170">
+        <v>1.2</v>
+      </c>
+      <c r="AP170">
+        <v>1.91</v>
+      </c>
+      <c r="AQ170">
+        <v>1.18</v>
+      </c>
+      <c r="AR170">
+        <v>1.59</v>
+      </c>
+      <c r="AS170">
+        <v>1.99</v>
+      </c>
+      <c r="AT170">
+        <v>3.58</v>
+      </c>
+      <c r="AU170">
+        <v>6</v>
+      </c>
+      <c r="AV170">
+        <v>3</v>
+      </c>
+      <c r="AW170">
+        <v>10</v>
+      </c>
+      <c r="AX170">
+        <v>8</v>
+      </c>
+      <c r="AY170">
+        <v>16</v>
+      </c>
+      <c r="AZ170">
+        <v>11</v>
+      </c>
+      <c r="BA170">
+        <v>3</v>
+      </c>
+      <c r="BB170">
+        <v>3</v>
+      </c>
+      <c r="BC170">
+        <v>6</v>
+      </c>
+      <c r="BD170">
+        <v>1.88</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>2.17</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>0</v>
+      </c>
+      <c r="BI170">
+        <v>0</v>
+      </c>
+      <c r="BJ170">
+        <v>0</v>
+      </c>
+      <c r="BK170">
+        <v>1.43</v>
+      </c>
+      <c r="BL170">
+        <v>2.54</v>
+      </c>
+      <c r="BM170">
+        <v>1.8</v>
+      </c>
+      <c r="BN170">
+        <v>2</v>
+      </c>
+      <c r="BO170">
+        <v>2.18</v>
+      </c>
+      <c r="BP170">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7296702</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45548.58333333334</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171" t="s">
+        <v>74</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>206</v>
+      </c>
+      <c r="P171" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q171">
+        <v>3.2</v>
+      </c>
+      <c r="R171">
+        <v>2.25</v>
+      </c>
+      <c r="S171">
+        <v>3.1</v>
+      </c>
+      <c r="T171">
+        <v>1.32</v>
+      </c>
+      <c r="U171">
+        <v>3.15</v>
+      </c>
+      <c r="V171">
+        <v>2.5</v>
+      </c>
+      <c r="W171">
+        <v>1.47</v>
+      </c>
+      <c r="X171">
+        <v>5.95</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>2.55</v>
+      </c>
+      <c r="AA171">
+        <v>3.35</v>
+      </c>
+      <c r="AB171">
+        <v>2.5</v>
+      </c>
+      <c r="AC171">
+        <v>1.03</v>
+      </c>
+      <c r="AD171">
+        <v>13</v>
+      </c>
+      <c r="AE171">
+        <v>1.22</v>
+      </c>
+      <c r="AF171">
+        <v>4.2</v>
+      </c>
+      <c r="AG171">
+        <v>1.65</v>
+      </c>
+      <c r="AH171">
+        <v>2.11</v>
+      </c>
+      <c r="AI171">
+        <v>1.6</v>
+      </c>
+      <c r="AJ171">
+        <v>2.3</v>
+      </c>
+      <c r="AK171">
+        <v>1.52</v>
+      </c>
+      <c r="AL171">
+        <v>1.25</v>
+      </c>
+      <c r="AM171">
+        <v>1.5</v>
+      </c>
+      <c r="AN171">
+        <v>1.5</v>
+      </c>
+      <c r="AO171">
+        <v>0.5</v>
+      </c>
+      <c r="AP171">
+        <v>1.64</v>
+      </c>
+      <c r="AQ171">
+        <v>0.45</v>
+      </c>
+      <c r="AR171">
+        <v>1.65</v>
+      </c>
+      <c r="AS171">
+        <v>1.39</v>
+      </c>
+      <c r="AT171">
+        <v>3.04</v>
+      </c>
+      <c r="AU171">
+        <v>9</v>
+      </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
+      <c r="AW171">
+        <v>4</v>
+      </c>
+      <c r="AX171">
+        <v>6</v>
+      </c>
+      <c r="AY171">
+        <v>13</v>
+      </c>
+      <c r="AZ171">
+        <v>9</v>
+      </c>
+      <c r="BA171">
+        <v>3</v>
+      </c>
+      <c r="BB171">
+        <v>6</v>
+      </c>
+      <c r="BC171">
+        <v>9</v>
+      </c>
+      <c r="BD171">
+        <v>1.67</v>
+      </c>
+      <c r="BE171">
+        <v>6.5</v>
+      </c>
+      <c r="BF171">
+        <v>2.3</v>
+      </c>
+      <c r="BG171">
+        <v>1.19</v>
+      </c>
+      <c r="BH171">
+        <v>4.1</v>
+      </c>
+      <c r="BI171">
+        <v>1.33</v>
+      </c>
+      <c r="BJ171">
+        <v>2.95</v>
+      </c>
+      <c r="BK171">
+        <v>1.55</v>
+      </c>
+      <c r="BL171">
+        <v>2.25</v>
+      </c>
+      <c r="BM171">
+        <v>1.89</v>
+      </c>
+      <c r="BN171">
+        <v>1.8</v>
+      </c>
+      <c r="BO171">
+        <v>2.33</v>
+      </c>
+      <c r="BP171">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7296704</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45548.58333333334</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>78</v>
+      </c>
+      <c r="H172" t="s">
+        <v>85</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>153</v>
+      </c>
+      <c r="P172" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q172">
+        <v>3.08</v>
+      </c>
+      <c r="R172">
+        <v>2.29</v>
+      </c>
+      <c r="S172">
+        <v>3.25</v>
+      </c>
+      <c r="T172">
+        <v>1.35</v>
+      </c>
+      <c r="U172">
+        <v>2.95</v>
+      </c>
+      <c r="V172">
+        <v>2.6</v>
+      </c>
+      <c r="W172">
+        <v>1.45</v>
+      </c>
+      <c r="X172">
+        <v>5.75</v>
+      </c>
+      <c r="Y172">
+        <v>1.1</v>
+      </c>
+      <c r="Z172">
+        <v>2.5</v>
+      </c>
+      <c r="AA172">
+        <v>3.3</v>
+      </c>
+      <c r="AB172">
+        <v>2.6</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>10.25</v>
+      </c>
+      <c r="AE172">
+        <v>1.22</v>
+      </c>
+      <c r="AF172">
+        <v>3.65</v>
+      </c>
+      <c r="AG172">
+        <v>1.75</v>
+      </c>
+      <c r="AH172">
+        <v>1.96</v>
+      </c>
+      <c r="AI172">
+        <v>1.62</v>
+      </c>
+      <c r="AJ172">
+        <v>2.2</v>
+      </c>
+      <c r="AK172">
+        <v>1.48</v>
+      </c>
+      <c r="AL172">
+        <v>1.3</v>
+      </c>
+      <c r="AM172">
+        <v>1.53</v>
+      </c>
+      <c r="AN172">
+        <v>1.9</v>
+      </c>
+      <c r="AO172">
+        <v>2.2</v>
+      </c>
+      <c r="AP172">
+        <v>2</v>
+      </c>
+      <c r="AQ172">
+        <v>2</v>
+      </c>
+      <c r="AR172">
+        <v>1.75</v>
+      </c>
+      <c r="AS172">
+        <v>1.58</v>
+      </c>
+      <c r="AT172">
+        <v>3.33</v>
+      </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
+      <c r="AV172">
+        <v>4</v>
+      </c>
+      <c r="AW172">
+        <v>7</v>
+      </c>
+      <c r="AX172">
+        <v>8</v>
+      </c>
+      <c r="AY172">
+        <v>10</v>
+      </c>
+      <c r="AZ172">
+        <v>12</v>
+      </c>
+      <c r="BA172">
+        <v>2</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>6</v>
+      </c>
+      <c r="BD172">
+        <v>1.76</v>
+      </c>
+      <c r="BE172">
+        <v>6.4</v>
+      </c>
+      <c r="BF172">
+        <v>2.15</v>
+      </c>
+      <c r="BG172">
+        <v>1.21</v>
+      </c>
+      <c r="BH172">
+        <v>3.9</v>
+      </c>
+      <c r="BI172">
+        <v>1.36</v>
+      </c>
+      <c r="BJ172">
+        <v>2.8</v>
+      </c>
+      <c r="BK172">
+        <v>1.6</v>
+      </c>
+      <c r="BL172">
+        <v>2.17</v>
+      </c>
+      <c r="BM172">
+        <v>1.95</v>
+      </c>
+      <c r="BN172">
+        <v>1.74</v>
+      </c>
+      <c r="BO172">
+        <v>2.43</v>
+      </c>
+      <c r="BP172">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,12 @@
     <t>['59', '70']</t>
   </si>
   <si>
+    <t>['25', '50', '69']</t>
+  </si>
+  <si>
+    <t>['6', '90+2']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -881,6 +887,15 @@
   </si>
   <si>
     <t>['39', '90+4']</t>
+  </si>
+  <si>
+    <t>['48', '89']</t>
+  </si>
+  <si>
+    <t>['45+1', '67', '90']</t>
+  </si>
+  <si>
+    <t>['8', '33']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ2">
         <v>0.45</v>
@@ -1707,7 +1722,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2119,7 +2134,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2406,7 +2421,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2531,7 +2546,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2818,7 +2833,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ8">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2943,7 +2958,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3024,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3355,7 +3370,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3561,7 +3576,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3639,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ12">
         <v>0.45</v>
@@ -4051,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ14">
         <v>0.82</v>
@@ -4463,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -4591,7 +4606,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4672,7 +4687,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ17">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4875,10 +4890,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ18">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -5003,7 +5018,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5827,7 +5842,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5908,7 +5923,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ23">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -6033,7 +6048,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6114,7 +6129,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6523,7 +6538,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ26">
         <v>1.18</v>
@@ -6935,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ28">
         <v>0.27</v>
@@ -7063,7 +7078,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7269,7 +7284,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7347,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ30">
         <v>0.82</v>
@@ -7762,7 +7777,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -7887,7 +7902,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8171,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ34">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.44</v>
@@ -8505,7 +8520,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8711,7 +8726,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9204,7 +9219,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -9329,7 +9344,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9410,7 +9425,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9819,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ42">
         <v>0.27</v>
@@ -10025,10 +10040,10 @@
         <v>1.33</v>
       </c>
       <c r="AP43">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -10153,7 +10168,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10643,10 +10658,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ46">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -11183,7 +11198,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11595,7 +11610,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11801,7 +11816,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11879,7 +11894,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ52">
         <v>1.91</v>
@@ -12007,7 +12022,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12294,7 +12309,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12419,7 +12434,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12625,7 +12640,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12912,7 +12927,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -13037,7 +13052,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13115,7 +13130,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ58">
         <v>1.18</v>
@@ -13861,7 +13876,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13939,10 +13954,10 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -14067,7 +14082,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14479,7 +14494,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14557,10 +14572,10 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ65">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -14763,7 +14778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14891,7 +14906,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15097,7 +15112,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15303,7 +15318,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15384,7 +15399,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ69">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15509,7 +15524,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15715,7 +15730,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16127,7 +16142,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16208,7 +16223,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -16333,7 +16348,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16539,7 +16554,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16617,7 +16632,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75">
         <v>0.45</v>
@@ -16745,7 +16760,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16951,7 +16966,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17029,7 +17044,7 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ77">
         <v>1.2</v>
@@ -17363,7 +17378,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17647,10 +17662,10 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17856,7 +17871,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ81">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.9</v>
@@ -17981,7 +17996,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18393,7 +18408,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18805,7 +18820,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19217,7 +19232,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19295,7 +19310,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ88">
         <v>2</v>
@@ -19423,7 +19438,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19504,7 +19519,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR89">
         <v>1.03</v>
@@ -19835,7 +19850,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20041,7 +20056,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20122,7 +20137,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR92">
         <v>0.98</v>
@@ -20247,7 +20262,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20325,10 +20340,10 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ93">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.46</v>
@@ -20943,7 +20958,7 @@
         <v>0.83</v>
       </c>
       <c r="AP96">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ96">
         <v>0.82</v>
@@ -21152,7 +21167,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ97">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21277,7 +21292,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21355,10 +21370,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ98">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR98">
         <v>1.48</v>
@@ -21895,7 +21910,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22101,7 +22116,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22719,7 +22734,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23006,7 +23021,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ106">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.49</v>
@@ -23131,7 +23146,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23543,7 +23558,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23621,7 +23636,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ109">
         <v>0.45</v>
@@ -23749,7 +23764,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23827,7 +23842,7 @@
         <v>0.71</v>
       </c>
       <c r="AP110">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ110">
         <v>0.82</v>
@@ -23955,7 +23970,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24242,7 +24257,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ112">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24367,7 +24382,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24573,7 +24588,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24985,7 +25000,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25063,7 +25078,7 @@
         <v>1.67</v>
       </c>
       <c r="AP116">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ116">
         <v>2</v>
@@ -25397,7 +25412,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25475,7 +25490,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ118">
         <v>1.09</v>
@@ -25603,7 +25618,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25684,7 +25699,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -25890,7 +25905,7 @@
         <v>1</v>
       </c>
       <c r="AQ120">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR120">
         <v>0.88</v>
@@ -26015,7 +26030,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26221,7 +26236,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26299,7 +26314,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26427,7 +26442,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26508,7 +26523,7 @@
         <v>2</v>
       </c>
       <c r="AQ123">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.59</v>
@@ -26714,7 +26729,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ124">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR124">
         <v>1.88</v>
@@ -26839,7 +26854,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26917,7 +26932,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ125">
         <v>1.27</v>
@@ -27045,7 +27060,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27457,7 +27472,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27663,7 +27678,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27947,7 +27962,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ130">
         <v>1.09</v>
@@ -28075,7 +28090,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28281,7 +28296,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28565,7 +28580,7 @@
         <v>0.75</v>
       </c>
       <c r="AP133">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ133">
         <v>0.82</v>
@@ -28693,7 +28708,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28899,7 +28914,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29105,7 +29120,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29311,7 +29326,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29392,7 +29407,7 @@
         <v>2</v>
       </c>
       <c r="AQ137">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR137">
         <v>2.2</v>
@@ -29598,7 +29613,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ138">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR138">
         <v>1.56</v>
@@ -29723,7 +29738,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29804,7 +29819,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.27</v>
@@ -29929,7 +29944,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30007,7 +30022,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ140">
         <v>1.27</v>
@@ -30341,7 +30356,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30419,7 +30434,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30547,7 +30562,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30959,7 +30974,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31040,7 +31055,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ145">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR145">
         <v>1.55</v>
@@ -31449,7 +31464,7 @@
         <v>1.22</v>
       </c>
       <c r="AP147">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ147">
         <v>1.09</v>
@@ -31989,7 +32004,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32401,7 +32416,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32482,7 +32497,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ152">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR152">
         <v>2.16</v>
@@ -32685,7 +32700,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ153">
         <v>1.91</v>
@@ -32813,7 +32828,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -32894,7 +32909,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR154">
         <v>1.63</v>
@@ -33303,7 +33318,7 @@
         <v>1.22</v>
       </c>
       <c r="AP156">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ156">
         <v>1.27</v>
@@ -33431,7 +33446,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33512,7 +33527,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ157">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR157">
         <v>1.72</v>
@@ -33637,7 +33652,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -33718,7 +33733,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ158">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.55</v>
@@ -33921,7 +33936,7 @@
         <v>0.9</v>
       </c>
       <c r="AP159">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ159">
         <v>0.82</v>
@@ -34049,7 +34064,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34127,7 +34142,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP160">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ160">
         <v>0.45</v>
@@ -34255,7 +34270,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -35079,7 +35094,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35285,7 +35300,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35363,7 +35378,7 @@
         <v>1.8</v>
       </c>
       <c r="AP166">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ166">
         <v>1.91</v>
@@ -35491,7 +35506,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35697,7 +35712,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -35903,7 +35918,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -36678,6 +36693,830 @@
       </c>
       <c r="BP172">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7296707</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45549.33333333334</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>84</v>
+      </c>
+      <c r="H173" t="s">
+        <v>79</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>5</v>
+      </c>
+      <c r="O173" t="s">
+        <v>207</v>
+      </c>
+      <c r="P173" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q173">
+        <v>2.63</v>
+      </c>
+      <c r="R173">
+        <v>2.25</v>
+      </c>
+      <c r="S173">
+        <v>3.75</v>
+      </c>
+      <c r="T173">
+        <v>1.33</v>
+      </c>
+      <c r="U173">
+        <v>3.25</v>
+      </c>
+      <c r="V173">
+        <v>2.63</v>
+      </c>
+      <c r="W173">
+        <v>1.44</v>
+      </c>
+      <c r="X173">
+        <v>6.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.11</v>
+      </c>
+      <c r="Z173">
+        <v>2.15</v>
+      </c>
+      <c r="AA173">
+        <v>3.4</v>
+      </c>
+      <c r="AB173">
+        <v>3.1</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>10.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.21</v>
+      </c>
+      <c r="AF173">
+        <v>3.74</v>
+      </c>
+      <c r="AG173">
+        <v>1.7</v>
+      </c>
+      <c r="AH173">
+        <v>2</v>
+      </c>
+      <c r="AI173">
+        <v>1.62</v>
+      </c>
+      <c r="AJ173">
+        <v>2.2</v>
+      </c>
+      <c r="AK173">
+        <v>1.3</v>
+      </c>
+      <c r="AL173">
+        <v>1.27</v>
+      </c>
+      <c r="AM173">
+        <v>1.74</v>
+      </c>
+      <c r="AN173">
+        <v>1.3</v>
+      </c>
+      <c r="AO173">
+        <v>1.1</v>
+      </c>
+      <c r="AP173">
+        <v>1.45</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>1.49</v>
+      </c>
+      <c r="AS173">
+        <v>1.42</v>
+      </c>
+      <c r="AT173">
+        <v>2.91</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>4</v>
+      </c>
+      <c r="AW173">
+        <v>7</v>
+      </c>
+      <c r="AX173">
+        <v>3</v>
+      </c>
+      <c r="AY173">
+        <v>13</v>
+      </c>
+      <c r="AZ173">
+        <v>7</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>5</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.68</v>
+      </c>
+      <c r="BE173">
+        <v>6.5</v>
+      </c>
+      <c r="BF173">
+        <v>2.25</v>
+      </c>
+      <c r="BG173">
+        <v>1.19</v>
+      </c>
+      <c r="BH173">
+        <v>4.1</v>
+      </c>
+      <c r="BI173">
+        <v>1.34</v>
+      </c>
+      <c r="BJ173">
+        <v>2.9</v>
+      </c>
+      <c r="BK173">
+        <v>1.56</v>
+      </c>
+      <c r="BL173">
+        <v>2.23</v>
+      </c>
+      <c r="BM173">
+        <v>1.9</v>
+      </c>
+      <c r="BN173">
+        <v>1.79</v>
+      </c>
+      <c r="BO173">
+        <v>2.33</v>
+      </c>
+      <c r="BP173">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7296703</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45549.41666666666</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>82</v>
+      </c>
+      <c r="H174" t="s">
+        <v>81</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>3</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>90</v>
+      </c>
+      <c r="P174" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q174">
+        <v>3.75</v>
+      </c>
+      <c r="R174">
+        <v>2.25</v>
+      </c>
+      <c r="S174">
+        <v>2.75</v>
+      </c>
+      <c r="T174">
+        <v>1.36</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <v>2.63</v>
+      </c>
+      <c r="W174">
+        <v>1.44</v>
+      </c>
+      <c r="X174">
+        <v>7</v>
+      </c>
+      <c r="Y174">
+        <v>1.1</v>
+      </c>
+      <c r="Z174">
+        <v>3.15</v>
+      </c>
+      <c r="AA174">
+        <v>3.35</v>
+      </c>
+      <c r="AB174">
+        <v>2.15</v>
+      </c>
+      <c r="AC174">
+        <v>1.03</v>
+      </c>
+      <c r="AD174">
+        <v>13</v>
+      </c>
+      <c r="AE174">
+        <v>1.25</v>
+      </c>
+      <c r="AF174">
+        <v>3.75</v>
+      </c>
+      <c r="AG174">
+        <v>1.83</v>
+      </c>
+      <c r="AH174">
+        <v>1.95</v>
+      </c>
+      <c r="AI174">
+        <v>1.67</v>
+      </c>
+      <c r="AJ174">
+        <v>2.1</v>
+      </c>
+      <c r="AK174">
+        <v>1.72</v>
+      </c>
+      <c r="AL174">
+        <v>1.25</v>
+      </c>
+      <c r="AM174">
+        <v>1.35</v>
+      </c>
+      <c r="AN174">
+        <v>1.7</v>
+      </c>
+      <c r="AO174">
+        <v>1.4</v>
+      </c>
+      <c r="AP174">
+        <v>1.55</v>
+      </c>
+      <c r="AQ174">
+        <v>1.55</v>
+      </c>
+      <c r="AR174">
+        <v>1.44</v>
+      </c>
+      <c r="AS174">
+        <v>1.28</v>
+      </c>
+      <c r="AT174">
+        <v>2.72</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>10</v>
+      </c>
+      <c r="AW174">
+        <v>3</v>
+      </c>
+      <c r="AX174">
+        <v>10</v>
+      </c>
+      <c r="AY174">
+        <v>6</v>
+      </c>
+      <c r="AZ174">
+        <v>20</v>
+      </c>
+      <c r="BA174">
+        <v>3</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>6</v>
+      </c>
+      <c r="BD174">
+        <v>2.05</v>
+      </c>
+      <c r="BE174">
+        <v>6.4</v>
+      </c>
+      <c r="BF174">
+        <v>1.83</v>
+      </c>
+      <c r="BG174">
+        <v>1.2</v>
+      </c>
+      <c r="BH174">
+        <v>4</v>
+      </c>
+      <c r="BI174">
+        <v>1.34</v>
+      </c>
+      <c r="BJ174">
+        <v>2.9</v>
+      </c>
+      <c r="BK174">
+        <v>1.57</v>
+      </c>
+      <c r="BL174">
+        <v>2.23</v>
+      </c>
+      <c r="BM174">
+        <v>1.9</v>
+      </c>
+      <c r="BN174">
+        <v>1.79</v>
+      </c>
+      <c r="BO174">
+        <v>2.35</v>
+      </c>
+      <c r="BP174">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7296705</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45549.41666666666</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>70</v>
+      </c>
+      <c r="H175" t="s">
+        <v>76</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175" t="s">
+        <v>90</v>
+      </c>
+      <c r="P175" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q175">
+        <v>4</v>
+      </c>
+      <c r="R175">
+        <v>2.25</v>
+      </c>
+      <c r="S175">
+        <v>2.6</v>
+      </c>
+      <c r="T175">
+        <v>1.33</v>
+      </c>
+      <c r="U175">
+        <v>3.25</v>
+      </c>
+      <c r="V175">
+        <v>2.63</v>
+      </c>
+      <c r="W175">
+        <v>1.44</v>
+      </c>
+      <c r="X175">
+        <v>6.5</v>
+      </c>
+      <c r="Y175">
+        <v>1.11</v>
+      </c>
+      <c r="Z175">
+        <v>3.45</v>
+      </c>
+      <c r="AA175">
+        <v>3.45</v>
+      </c>
+      <c r="AB175">
+        <v>1.95</v>
+      </c>
+      <c r="AC175">
+        <v>1.02</v>
+      </c>
+      <c r="AD175">
+        <v>15</v>
+      </c>
+      <c r="AE175">
+        <v>1.22</v>
+      </c>
+      <c r="AF175">
+        <v>4</v>
+      </c>
+      <c r="AG175">
+        <v>1.78</v>
+      </c>
+      <c r="AH175">
+        <v>1.98</v>
+      </c>
+      <c r="AI175">
+        <v>1.67</v>
+      </c>
+      <c r="AJ175">
+        <v>2.1</v>
+      </c>
+      <c r="AK175">
+        <v>1.85</v>
+      </c>
+      <c r="AL175">
+        <v>1.22</v>
+      </c>
+      <c r="AM175">
+        <v>1.3</v>
+      </c>
+      <c r="AN175">
+        <v>1.7</v>
+      </c>
+      <c r="AO175">
+        <v>1.2</v>
+      </c>
+      <c r="AP175">
+        <v>1.64</v>
+      </c>
+      <c r="AQ175">
+        <v>1.18</v>
+      </c>
+      <c r="AR175">
+        <v>1.44</v>
+      </c>
+      <c r="AS175">
+        <v>1.53</v>
+      </c>
+      <c r="AT175">
+        <v>2.97</v>
+      </c>
+      <c r="AU175">
+        <v>9</v>
+      </c>
+      <c r="AV175">
+        <v>8</v>
+      </c>
+      <c r="AW175">
+        <v>7</v>
+      </c>
+      <c r="AX175">
+        <v>3</v>
+      </c>
+      <c r="AY175">
+        <v>16</v>
+      </c>
+      <c r="AZ175">
+        <v>11</v>
+      </c>
+      <c r="BA175">
+        <v>4</v>
+      </c>
+      <c r="BB175">
+        <v>7</v>
+      </c>
+      <c r="BC175">
+        <v>11</v>
+      </c>
+      <c r="BD175">
+        <v>2.15</v>
+      </c>
+      <c r="BE175">
+        <v>6.4</v>
+      </c>
+      <c r="BF175">
+        <v>1.76</v>
+      </c>
+      <c r="BG175">
+        <v>1.23</v>
+      </c>
+      <c r="BH175">
+        <v>3.7</v>
+      </c>
+      <c r="BI175">
+        <v>1.38</v>
+      </c>
+      <c r="BJ175">
+        <v>2.7</v>
+      </c>
+      <c r="BK175">
+        <v>1.64</v>
+      </c>
+      <c r="BL175">
+        <v>2.1</v>
+      </c>
+      <c r="BM175">
+        <v>1.98</v>
+      </c>
+      <c r="BN175">
+        <v>1.72</v>
+      </c>
+      <c r="BO175">
+        <v>2.5</v>
+      </c>
+      <c r="BP175">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7296706</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45549.41666666666</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>80</v>
+      </c>
+      <c r="H176" t="s">
+        <v>83</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>2</v>
+      </c>
+      <c r="K176">
+        <v>3</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>208</v>
+      </c>
+      <c r="P176" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q176">
+        <v>1.73</v>
+      </c>
+      <c r="R176">
+        <v>2.75</v>
+      </c>
+      <c r="S176">
+        <v>7.5</v>
+      </c>
+      <c r="T176">
+        <v>1.25</v>
+      </c>
+      <c r="U176">
+        <v>3.75</v>
+      </c>
+      <c r="V176">
+        <v>2.2</v>
+      </c>
+      <c r="W176">
+        <v>1.62</v>
+      </c>
+      <c r="X176">
+        <v>5</v>
+      </c>
+      <c r="Y176">
+        <v>1.17</v>
+      </c>
+      <c r="Z176">
+        <v>1.27</v>
+      </c>
+      <c r="AA176">
+        <v>5.75</v>
+      </c>
+      <c r="AB176">
+        <v>9</v>
+      </c>
+      <c r="AC176">
+        <v>1.03</v>
+      </c>
+      <c r="AD176">
+        <v>0</v>
+      </c>
+      <c r="AE176">
+        <v>1.11</v>
+      </c>
+      <c r="AF176">
+        <v>6.75</v>
+      </c>
+      <c r="AG176">
+        <v>1.45</v>
+      </c>
+      <c r="AH176">
+        <v>2.55</v>
+      </c>
+      <c r="AI176">
+        <v>1.8</v>
+      </c>
+      <c r="AJ176">
+        <v>1.95</v>
+      </c>
+      <c r="AK176">
+        <v>1.07</v>
+      </c>
+      <c r="AL176">
+        <v>1.14</v>
+      </c>
+      <c r="AM176">
+        <v>4</v>
+      </c>
+      <c r="AN176">
+        <v>2.4</v>
+      </c>
+      <c r="AO176">
+        <v>0.8</v>
+      </c>
+      <c r="AP176">
+        <v>2.27</v>
+      </c>
+      <c r="AQ176">
+        <v>0.82</v>
+      </c>
+      <c r="AR176">
+        <v>1.38</v>
+      </c>
+      <c r="AS176">
+        <v>1.01</v>
+      </c>
+      <c r="AT176">
+        <v>2.39</v>
+      </c>
+      <c r="AU176">
+        <v>9</v>
+      </c>
+      <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>18</v>
+      </c>
+      <c r="AX176">
+        <v>1</v>
+      </c>
+      <c r="AY176">
+        <v>27</v>
+      </c>
+      <c r="AZ176">
+        <v>7</v>
+      </c>
+      <c r="BA176">
+        <v>8</v>
+      </c>
+      <c r="BB176">
+        <v>1</v>
+      </c>
+      <c r="BC176">
+        <v>9</v>
+      </c>
+      <c r="BD176">
+        <v>1.24</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>3.95</v>
+      </c>
+      <c r="BG176">
+        <v>0</v>
+      </c>
+      <c r="BH176">
+        <v>0</v>
+      </c>
+      <c r="BI176">
+        <v>0</v>
+      </c>
+      <c r="BJ176">
+        <v>0</v>
+      </c>
+      <c r="BK176">
+        <v>0</v>
+      </c>
+      <c r="BL176">
+        <v>2.38</v>
+      </c>
+      <c r="BM176">
+        <v>1.77</v>
+      </c>
+      <c r="BN176">
+        <v>2.02</v>
+      </c>
+      <c r="BO176">
+        <v>2.2</v>
+      </c>
+      <c r="BP176">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,9 @@
     <t>['6', '90+2']</t>
   </si>
   <si>
+    <t>['5', '45+1']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -896,6 +899,9 @@
   </si>
   <si>
     <t>['8', '33']</t>
+  </si>
+  <si>
+    <t>['14', '24', '82']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1722,7 +1728,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2134,7 +2140,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2546,7 +2552,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2624,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2958,7 +2964,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3370,7 +3376,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3576,7 +3582,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4481,7 +4487,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4606,7 +4612,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -5018,7 +5024,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5842,7 +5848,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6048,7 +6054,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6126,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ24">
         <v>1.55</v>
@@ -7078,7 +7084,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7159,7 +7165,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7284,7 +7290,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7902,7 +7908,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8520,7 +8526,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8598,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8726,7 +8732,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9344,7 +9350,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -10168,7 +10174,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -11198,7 +11204,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11610,7 +11616,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11816,7 +11822,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -12022,7 +12028,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12103,7 +12109,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ53">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12306,7 +12312,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ54">
         <v>0.82</v>
@@ -12434,7 +12440,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12640,7 +12646,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13052,7 +13058,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13542,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ60">
         <v>0.27</v>
@@ -13876,7 +13882,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14082,7 +14088,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14163,7 +14169,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR63">
         <v>1.89</v>
@@ -14494,7 +14500,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14906,7 +14912,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15112,7 +15118,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15318,7 +15324,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15524,7 +15530,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15730,7 +15736,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16142,7 +16148,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16348,7 +16354,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16554,7 +16560,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16760,7 +16766,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16838,7 +16844,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ76">
         <v>0.45</v>
@@ -16966,7 +16972,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17047,7 +17053,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ77">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -17378,7 +17384,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17996,7 +18002,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18408,7 +18414,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18820,7 +18826,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19232,7 +19238,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19438,7 +19444,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19850,7 +19856,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19928,7 +19934,7 @@
         <v>1.83</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ91">
         <v>1.91</v>
@@ -20056,7 +20062,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20262,7 +20268,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -21292,7 +21298,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21910,7 +21916,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22116,7 +22122,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22734,7 +22740,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22815,7 +22821,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ105">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR105">
         <v>1.43</v>
@@ -23146,7 +23152,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23558,7 +23564,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23764,7 +23770,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23970,7 +23976,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24382,7 +24388,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24588,7 +24594,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24666,7 +24672,7 @@
         <v>1.17</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ114">
         <v>1.27</v>
@@ -25000,7 +25006,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25287,7 +25293,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ117">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25412,7 +25418,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25618,7 +25624,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -26030,7 +26036,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26236,7 +26242,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26442,7 +26448,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26854,7 +26860,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27060,7 +27066,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27472,7 +27478,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27678,7 +27684,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28090,7 +28096,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28296,7 +28302,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28708,7 +28714,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28914,7 +28920,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -28995,7 +29001,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR135">
         <v>0.9</v>
@@ -29120,7 +29126,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29326,7 +29332,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29738,7 +29744,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29816,7 +29822,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -29944,7 +29950,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30356,7 +30362,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30562,7 +30568,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30974,7 +30980,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31879,7 +31885,7 @@
         <v>2</v>
       </c>
       <c r="AQ149">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR149">
         <v>2.21</v>
@@ -32004,7 +32010,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32416,7 +32422,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32828,7 +32834,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -33112,7 +33118,7 @@
         <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ155">
         <v>1.18</v>
@@ -33446,7 +33452,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33652,7 +33658,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -34064,7 +34070,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34270,7 +34276,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -35094,7 +35100,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35300,7 +35306,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35506,7 +35512,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35712,7 +35718,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -35918,7 +35924,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -35999,7 +36005,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ169">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR169">
         <v>1.69</v>
@@ -36742,7 +36748,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q173">
         <v>2.63</v>
@@ -36948,7 +36954,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37360,7 +37366,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q176">
         <v>1.73</v>
@@ -37517,6 +37523,212 @@
       </c>
       <c r="BP176">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7296701</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45550.41666666666</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>75</v>
+      </c>
+      <c r="H177" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+      <c r="K177">
+        <v>4</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>5</v>
+      </c>
+      <c r="O177" t="s">
+        <v>209</v>
+      </c>
+      <c r="P177" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q177">
+        <v>3.15</v>
+      </c>
+      <c r="R177">
+        <v>2.4</v>
+      </c>
+      <c r="S177">
+        <v>2.7</v>
+      </c>
+      <c r="T177">
+        <v>1.25</v>
+      </c>
+      <c r="U177">
+        <v>3.45</v>
+      </c>
+      <c r="V177">
+        <v>2.18</v>
+      </c>
+      <c r="W177">
+        <v>1.58</v>
+      </c>
+      <c r="X177">
+        <v>4.8</v>
+      </c>
+      <c r="Y177">
+        <v>1.14</v>
+      </c>
+      <c r="Z177">
+        <v>2.73</v>
+      </c>
+      <c r="AA177">
+        <v>3.55</v>
+      </c>
+      <c r="AB177">
+        <v>2.32</v>
+      </c>
+      <c r="AC177">
+        <v>1.01</v>
+      </c>
+      <c r="AD177">
+        <v>11</v>
+      </c>
+      <c r="AE177">
+        <v>1.14</v>
+      </c>
+      <c r="AF177">
+        <v>4.8</v>
+      </c>
+      <c r="AG177">
+        <v>1.62</v>
+      </c>
+      <c r="AH177">
+        <v>2.2</v>
+      </c>
+      <c r="AI177">
+        <v>1.48</v>
+      </c>
+      <c r="AJ177">
+        <v>2.43</v>
+      </c>
+      <c r="AK177">
+        <v>1.61</v>
+      </c>
+      <c r="AL177">
+        <v>1.25</v>
+      </c>
+      <c r="AM177">
+        <v>1.44</v>
+      </c>
+      <c r="AN177">
+        <v>1.5</v>
+      </c>
+      <c r="AO177">
+        <v>1.2</v>
+      </c>
+      <c r="AP177">
+        <v>1.36</v>
+      </c>
+      <c r="AQ177">
+        <v>1.36</v>
+      </c>
+      <c r="AR177">
+        <v>1.32</v>
+      </c>
+      <c r="AS177">
+        <v>1.37</v>
+      </c>
+      <c r="AT177">
+        <v>2.69</v>
+      </c>
+      <c r="AU177">
+        <v>5</v>
+      </c>
+      <c r="AV177">
+        <v>9</v>
+      </c>
+      <c r="AW177">
+        <v>8</v>
+      </c>
+      <c r="AX177">
+        <v>10</v>
+      </c>
+      <c r="AY177">
+        <v>13</v>
+      </c>
+      <c r="AZ177">
+        <v>19</v>
+      </c>
+      <c r="BA177">
+        <v>6</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>11</v>
+      </c>
+      <c r="BD177">
+        <v>1.97</v>
+      </c>
+      <c r="BE177">
+        <v>6.5</v>
+      </c>
+      <c r="BF177">
+        <v>1.9</v>
+      </c>
+      <c r="BG177">
+        <v>1.17</v>
+      </c>
+      <c r="BH177">
+        <v>4.35</v>
+      </c>
+      <c r="BI177">
+        <v>1.29</v>
+      </c>
+      <c r="BJ177">
+        <v>3.15</v>
+      </c>
+      <c r="BK177">
+        <v>1.49</v>
+      </c>
+      <c r="BL177">
+        <v>2.4</v>
+      </c>
+      <c r="BM177">
+        <v>1.77</v>
+      </c>
+      <c r="BN177">
+        <v>1.92</v>
+      </c>
+      <c r="BO177">
+        <v>2.18</v>
+      </c>
+      <c r="BP177">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,21 @@
     <t>['5', '45+1']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['14', '29', '54', '80']</t>
+  </si>
+  <si>
+    <t>['83', '88']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['40', '60']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -767,9 +782,6 @@
   </si>
   <si>
     <t>['64', '66']</t>
-  </si>
-  <si>
-    <t>['70']</t>
   </si>
   <si>
     <t>['9']</t>
@@ -902,6 +914,15 @@
   </si>
   <si>
     <t>['14', '24', '82']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['43', '68']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1728,7 +1749,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1806,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ3">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2015,7 +2036,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2140,7 +2161,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2221,7 +2242,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ5">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2424,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
         <v>0.82</v>
@@ -2552,7 +2573,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2836,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2964,7 +2985,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3042,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ9">
         <v>1.55</v>
@@ -3248,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3376,7 +3397,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3582,7 +3603,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3866,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4075,7 +4096,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ14">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4281,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4612,7 +4633,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4690,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>1.18</v>
@@ -5024,7 +5045,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5105,7 +5126,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ19">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5517,7 +5538,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5720,10 +5741,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5848,7 +5869,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5926,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ23">
         <v>1.18</v>
@@ -6054,7 +6075,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6338,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ25">
         <v>0.45</v>
@@ -6753,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
         <v>0.63</v>
@@ -6959,7 +6980,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ28">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7084,7 +7105,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7162,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
         <v>1.36</v>
@@ -7290,7 +7311,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7371,7 +7392,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ30">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7574,10 +7595,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7780,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7908,7 +7929,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7986,7 +8007,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8401,7 +8422,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ35">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8526,7 +8547,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8607,7 +8628,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR36">
         <v>1.08</v>
@@ -8732,7 +8753,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8810,7 +8831,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ37">
         <v>1.18</v>
@@ -9016,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ38">
         <v>0.45</v>
@@ -9222,7 +9243,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ39">
         <v>1.18</v>
@@ -9350,7 +9371,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9637,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -9843,7 +9864,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ42">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -10174,7 +10195,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10252,10 +10273,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10458,10 +10479,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ45">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -10870,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47">
         <v>0.45</v>
@@ -11079,7 +11100,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ48">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11204,7 +11225,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11282,7 +11303,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11488,10 +11509,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ50">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11616,7 +11637,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11697,7 +11718,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ51">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11822,7 +11843,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11903,7 +11924,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -12028,7 +12049,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12440,7 +12461,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12518,10 +12539,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -12646,7 +12667,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12724,7 +12745,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>0.45</v>
@@ -12930,7 +12951,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
         <v>1.55</v>
@@ -13058,7 +13079,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13551,7 +13572,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ60">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR60">
         <v>1.54</v>
@@ -13882,7 +13903,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14088,7 +14109,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14166,7 +14187,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
         <v>1.36</v>
@@ -14500,7 +14521,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14787,7 +14808,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14912,7 +14933,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -14990,10 +15011,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ67">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR67">
         <v>1.81</v>
@@ -15118,7 +15139,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15196,10 +15217,10 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ68">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR68">
         <v>2.08</v>
@@ -15324,7 +15345,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15402,7 +15423,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
         <v>0.82</v>
@@ -15530,7 +15551,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15608,10 +15629,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ70">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR70">
         <v>1.65</v>
@@ -15736,7 +15757,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15814,10 +15835,10 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ71">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -16023,7 +16044,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ72">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR72">
         <v>1.24</v>
@@ -16148,7 +16169,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16226,7 +16247,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73">
         <v>1.55</v>
@@ -16354,7 +16375,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16560,7 +16581,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16766,7 +16787,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16972,7 +16993,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17256,10 +17277,10 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR78">
         <v>1.64</v>
@@ -17384,7 +17405,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17465,7 +17486,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ79">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17874,7 +17895,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18002,7 +18023,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18080,10 +18101,10 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ82">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18286,7 +18307,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ83">
         <v>1.18</v>
@@ -18414,7 +18435,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18492,10 +18513,10 @@
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18701,7 +18722,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ85">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18826,7 +18847,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18904,10 +18925,10 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ86">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19110,10 +19131,10 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ87">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -19238,7 +19259,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19444,7 +19465,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19728,10 +19749,10 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ90">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR90">
         <v>1.68</v>
@@ -19856,7 +19877,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19937,7 +19958,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ91">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR91">
         <v>1.45</v>
@@ -20062,7 +20083,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20268,7 +20289,7 @@
         <v>90</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>2.5</v>
@@ -20552,7 +20573,7 @@
         <v>0.4</v>
       </c>
       <c r="AP94">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
         <v>0.45</v>
@@ -20758,7 +20779,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ95">
         <v>0.45</v>
@@ -20967,7 +20988,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ96">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21298,7 +21319,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21582,10 +21603,10 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ99">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21788,10 +21809,10 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ100">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21916,7 +21937,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -21997,7 +22018,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ101">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR101">
         <v>1.1</v>
@@ -22122,7 +22143,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22203,7 +22224,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR102">
         <v>0.86</v>
@@ -22406,7 +22427,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ103">
         <v>2</v>
@@ -22612,10 +22633,10 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ104">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22740,7 +22761,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23024,7 +23045,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23152,7 +23173,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23230,10 +23251,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR107">
         <v>1.45</v>
@@ -23436,10 +23457,10 @@
         <v>1.29</v>
       </c>
       <c r="AP108">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR108">
         <v>1.94</v>
@@ -23564,7 +23585,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23770,7 +23791,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23851,7 +23872,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ110">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -23976,7 +23997,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24260,7 +24281,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ112">
         <v>0.82</v>
@@ -24388,7 +24409,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24594,7 +24615,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24675,7 +24696,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
         <v>1.35</v>
@@ -24878,10 +24899,10 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ115">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR115">
         <v>2.2</v>
@@ -25006,7 +25027,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25290,7 +25311,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ117">
         <v>1.36</v>
@@ -25418,7 +25439,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25499,7 +25520,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ118">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25624,7 +25645,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25702,7 +25723,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ119">
         <v>1.55</v>
@@ -26036,7 +26057,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26117,7 +26138,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ121">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR121">
         <v>1.16</v>
@@ -26242,7 +26263,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26323,7 +26344,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR122">
         <v>1.51</v>
@@ -26448,7 +26469,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26526,7 +26547,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26732,7 +26753,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ124">
         <v>0.82</v>
@@ -26860,7 +26881,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26941,7 +26962,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ125">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27066,7 +27087,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27147,7 +27168,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ126">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27350,7 +27371,7 @@
         <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127">
         <v>0.45</v>
@@ -27478,7 +27499,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27556,10 +27577,10 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR128">
         <v>1.81</v>
@@ -27684,7 +27705,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27762,7 +27783,7 @@
         <v>1.57</v>
       </c>
       <c r="AP129">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129">
         <v>1.18</v>
@@ -27971,7 +27992,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ130">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28096,7 +28117,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28174,7 +28195,7 @@
         <v>0.63</v>
       </c>
       <c r="AP131">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ131">
         <v>0.45</v>
@@ -28302,7 +28323,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28380,10 +28401,10 @@
         <v>0.89</v>
       </c>
       <c r="AP132">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ132">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR132">
         <v>2.21</v>
@@ -28589,7 +28610,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ133">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28714,7 +28735,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28920,7 +28941,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29126,7 +29147,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29207,7 +29228,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ136">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29332,7 +29353,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29410,7 +29431,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ137">
         <v>1.18</v>
@@ -29616,7 +29637,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ138">
         <v>0.82</v>
@@ -29744,7 +29765,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29950,7 +29971,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30031,7 +30052,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ140">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR140">
         <v>1.51</v>
@@ -30234,7 +30255,7 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ141">
         <v>1.18</v>
@@ -30362,7 +30383,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30443,7 +30464,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR142">
         <v>1.53</v>
@@ -30568,7 +30589,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30646,7 +30667,7 @@
         <v>0.63</v>
       </c>
       <c r="AP143">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ143">
         <v>0.45</v>
@@ -30855,7 +30876,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ144">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -30980,7 +31001,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31058,7 +31079,7 @@
         <v>1.25</v>
       </c>
       <c r="AP145">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ145">
         <v>1.55</v>
@@ -31267,7 +31288,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ146">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR146">
         <v>1.12</v>
@@ -31473,7 +31494,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ147">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -31882,7 +31903,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ149">
         <v>1.36</v>
@@ -32010,7 +32031,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32294,10 +32315,10 @@
         <v>0.67</v>
       </c>
       <c r="AP151">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ151">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR151">
         <v>1.65</v>
@@ -32422,7 +32443,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32500,7 +32521,7 @@
         <v>1.22</v>
       </c>
       <c r="AP152">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ152">
         <v>1.18</v>
@@ -32709,7 +32730,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ153">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -32834,7 +32855,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -32912,7 +32933,7 @@
         <v>0.78</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ154">
         <v>0.82</v>
@@ -33327,7 +33348,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ156">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR156">
         <v>1.46</v>
@@ -33452,7 +33473,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33530,7 +33551,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ157">
         <v>1.55</v>
@@ -33658,7 +33679,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -33945,7 +33966,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ159">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR159">
         <v>1.44</v>
@@ -34070,7 +34091,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34276,7 +34297,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34354,7 +34375,7 @@
         <v>2.11</v>
       </c>
       <c r="AP161">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ161">
         <v>2</v>
@@ -34560,10 +34581,10 @@
         <v>0.2</v>
       </c>
       <c r="AP162">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ162">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR162">
         <v>1.69</v>
@@ -34766,7 +34787,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ163">
         <v>0.45</v>
@@ -34975,7 +34996,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ164">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR164">
         <v>1.12</v>
@@ -35100,7 +35121,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35178,10 +35199,10 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR165">
         <v>2.15</v>
@@ -35306,7 +35327,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35387,7 +35408,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ166">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR166">
         <v>1.53</v>
@@ -35512,7 +35533,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35590,10 +35611,10 @@
         <v>1.1</v>
       </c>
       <c r="AP167">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ167">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR167">
         <v>1.54</v>
@@ -35718,7 +35739,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -35799,7 +35820,7 @@
         <v>1</v>
       </c>
       <c r="AQ168">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR168">
         <v>1.02</v>
@@ -35924,7 +35945,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -36002,7 +36023,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AQ169">
         <v>1.36</v>
@@ -36620,7 +36641,7 @@
         <v>2.2</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ172">
         <v>2</v>
@@ -36748,7 +36769,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q173">
         <v>2.63</v>
@@ -36954,7 +36975,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37366,7 +37387,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q176">
         <v>1.73</v>
@@ -37572,7 +37593,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q177">
         <v>3.15</v>
@@ -37729,6 +37750,1654 @@
       </c>
       <c r="BP177">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7296714</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45553.58333333334</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>78</v>
+      </c>
+      <c r="H178" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>210</v>
+      </c>
+      <c r="P178" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q178">
+        <v>2.1</v>
+      </c>
+      <c r="R178">
+        <v>2.3</v>
+      </c>
+      <c r="S178">
+        <v>5</v>
+      </c>
+      <c r="T178">
+        <v>1.32</v>
+      </c>
+      <c r="U178">
+        <v>3.22</v>
+      </c>
+      <c r="V178">
+        <v>2.52</v>
+      </c>
+      <c r="W178">
+        <v>1.5</v>
+      </c>
+      <c r="X178">
+        <v>5.9</v>
+      </c>
+      <c r="Y178">
+        <v>1.11</v>
+      </c>
+      <c r="Z178">
+        <v>1.65</v>
+      </c>
+      <c r="AA178">
+        <v>3.8</v>
+      </c>
+      <c r="AB178">
+        <v>4.5</v>
+      </c>
+      <c r="AC178">
+        <v>1.01</v>
+      </c>
+      <c r="AD178">
+        <v>11</v>
+      </c>
+      <c r="AE178">
+        <v>1.17</v>
+      </c>
+      <c r="AF178">
+        <v>4.5</v>
+      </c>
+      <c r="AG178">
+        <v>1.73</v>
+      </c>
+      <c r="AH178">
+        <v>2</v>
+      </c>
+      <c r="AI178">
+        <v>1.67</v>
+      </c>
+      <c r="AJ178">
+        <v>2.15</v>
+      </c>
+      <c r="AK178">
+        <v>1.16</v>
+      </c>
+      <c r="AL178">
+        <v>1.22</v>
+      </c>
+      <c r="AM178">
+        <v>2.18</v>
+      </c>
+      <c r="AN178">
+        <v>2</v>
+      </c>
+      <c r="AO178">
+        <v>0.27</v>
+      </c>
+      <c r="AP178">
+        <v>1.83</v>
+      </c>
+      <c r="AQ178">
+        <v>0.5</v>
+      </c>
+      <c r="AR178">
+        <v>1.7</v>
+      </c>
+      <c r="AS178">
+        <v>1.24</v>
+      </c>
+      <c r="AT178">
+        <v>2.94</v>
+      </c>
+      <c r="AU178">
+        <v>5</v>
+      </c>
+      <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>6</v>
+      </c>
+      <c r="AX178">
+        <v>1</v>
+      </c>
+      <c r="AY178">
+        <v>11</v>
+      </c>
+      <c r="AZ178">
+        <v>6</v>
+      </c>
+      <c r="BA178">
+        <v>9</v>
+      </c>
+      <c r="BB178">
+        <v>1</v>
+      </c>
+      <c r="BC178">
+        <v>10</v>
+      </c>
+      <c r="BD178">
+        <v>1.18</v>
+      </c>
+      <c r="BE178">
+        <v>12</v>
+      </c>
+      <c r="BF178">
+        <v>6.11</v>
+      </c>
+      <c r="BG178">
+        <v>1.15</v>
+      </c>
+      <c r="BH178">
+        <v>4.6</v>
+      </c>
+      <c r="BI178">
+        <v>1.27</v>
+      </c>
+      <c r="BJ178">
+        <v>3.3</v>
+      </c>
+      <c r="BK178">
+        <v>1.46</v>
+      </c>
+      <c r="BL178">
+        <v>2.5</v>
+      </c>
+      <c r="BM178">
+        <v>1.82</v>
+      </c>
+      <c r="BN178">
+        <v>1.98</v>
+      </c>
+      <c r="BO178">
+        <v>2.07</v>
+      </c>
+      <c r="BP178">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7296713</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45553.58333333334</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>77</v>
+      </c>
+      <c r="H179" t="s">
+        <v>73</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>4</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179" t="s">
+        <v>211</v>
+      </c>
+      <c r="P179" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q179">
+        <v>1.92</v>
+      </c>
+      <c r="R179">
+        <v>2.69</v>
+      </c>
+      <c r="S179">
+        <v>5.56</v>
+      </c>
+      <c r="T179">
+        <v>1.22</v>
+      </c>
+      <c r="U179">
+        <v>3.9</v>
+      </c>
+      <c r="V179">
+        <v>2.19</v>
+      </c>
+      <c r="W179">
+        <v>1.63</v>
+      </c>
+      <c r="X179">
+        <v>4.7</v>
+      </c>
+      <c r="Y179">
+        <v>1.16</v>
+      </c>
+      <c r="Z179">
+        <v>1.5</v>
+      </c>
+      <c r="AA179">
+        <v>4.2</v>
+      </c>
+      <c r="AB179">
+        <v>5.5</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>17</v>
+      </c>
+      <c r="AE179">
+        <v>1.15</v>
+      </c>
+      <c r="AF179">
+        <v>5.5</v>
+      </c>
+      <c r="AG179">
+        <v>1.6</v>
+      </c>
+      <c r="AH179">
+        <v>2.2</v>
+      </c>
+      <c r="AI179">
+        <v>1.6</v>
+      </c>
+      <c r="AJ179">
+        <v>2.3</v>
+      </c>
+      <c r="AK179">
+        <v>1.14</v>
+      </c>
+      <c r="AL179">
+        <v>1.16</v>
+      </c>
+      <c r="AM179">
+        <v>2.65</v>
+      </c>
+      <c r="AN179">
+        <v>2</v>
+      </c>
+      <c r="AO179">
+        <v>1.27</v>
+      </c>
+      <c r="AP179">
+        <v>2.08</v>
+      </c>
+      <c r="AQ179">
+        <v>1.17</v>
+      </c>
+      <c r="AR179">
+        <v>2.06</v>
+      </c>
+      <c r="AS179">
+        <v>1.46</v>
+      </c>
+      <c r="AT179">
+        <v>3.52</v>
+      </c>
+      <c r="AU179">
+        <v>9</v>
+      </c>
+      <c r="AV179">
+        <v>10</v>
+      </c>
+      <c r="AW179">
+        <v>10</v>
+      </c>
+      <c r="AX179">
+        <v>7</v>
+      </c>
+      <c r="AY179">
+        <v>19</v>
+      </c>
+      <c r="AZ179">
+        <v>17</v>
+      </c>
+      <c r="BA179">
+        <v>9</v>
+      </c>
+      <c r="BB179">
+        <v>4</v>
+      </c>
+      <c r="BC179">
+        <v>13</v>
+      </c>
+      <c r="BD179">
+        <v>1.31</v>
+      </c>
+      <c r="BE179">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF179">
+        <v>4.74</v>
+      </c>
+      <c r="BG179">
+        <v>1.11</v>
+      </c>
+      <c r="BH179">
+        <v>5.3</v>
+      </c>
+      <c r="BI179">
+        <v>1.28</v>
+      </c>
+      <c r="BJ179">
+        <v>3.2</v>
+      </c>
+      <c r="BK179">
+        <v>1.51</v>
+      </c>
+      <c r="BL179">
+        <v>2.32</v>
+      </c>
+      <c r="BM179">
+        <v>1.87</v>
+      </c>
+      <c r="BN179">
+        <v>1.83</v>
+      </c>
+      <c r="BO179">
+        <v>2.38</v>
+      </c>
+      <c r="BP179">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7296712</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45553.58333333334</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>83</v>
+      </c>
+      <c r="H180" t="s">
+        <v>79</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>212</v>
+      </c>
+      <c r="P180" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q180">
+        <v>3.5</v>
+      </c>
+      <c r="R180">
+        <v>2.25</v>
+      </c>
+      <c r="S180">
+        <v>2.88</v>
+      </c>
+      <c r="T180">
+        <v>1.33</v>
+      </c>
+      <c r="U180">
+        <v>3.25</v>
+      </c>
+      <c r="V180">
+        <v>2.63</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>6.5</v>
+      </c>
+      <c r="Y180">
+        <v>1.11</v>
+      </c>
+      <c r="Z180">
+        <v>3</v>
+      </c>
+      <c r="AA180">
+        <v>3.4</v>
+      </c>
+      <c r="AB180">
+        <v>2.15</v>
+      </c>
+      <c r="AC180">
+        <v>1.04</v>
+      </c>
+      <c r="AD180">
+        <v>11</v>
+      </c>
+      <c r="AE180">
+        <v>1.18</v>
+      </c>
+      <c r="AF180">
+        <v>3.72</v>
+      </c>
+      <c r="AG180">
+        <v>1.73</v>
+      </c>
+      <c r="AH180">
+        <v>2</v>
+      </c>
+      <c r="AI180">
+        <v>1.62</v>
+      </c>
+      <c r="AJ180">
+        <v>2.2</v>
+      </c>
+      <c r="AK180">
+        <v>1.57</v>
+      </c>
+      <c r="AL180">
+        <v>1.25</v>
+      </c>
+      <c r="AM180">
+        <v>1.33</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+      <c r="AO180">
+        <v>1</v>
+      </c>
+      <c r="AP180">
+        <v>1</v>
+      </c>
+      <c r="AQ180">
+        <v>1</v>
+      </c>
+      <c r="AR180">
+        <v>1.05</v>
+      </c>
+      <c r="AS180">
+        <v>1.38</v>
+      </c>
+      <c r="AT180">
+        <v>2.43</v>
+      </c>
+      <c r="AU180">
+        <v>5</v>
+      </c>
+      <c r="AV180">
+        <v>8</v>
+      </c>
+      <c r="AW180">
+        <v>9</v>
+      </c>
+      <c r="AX180">
+        <v>6</v>
+      </c>
+      <c r="AY180">
+        <v>14</v>
+      </c>
+      <c r="AZ180">
+        <v>14</v>
+      </c>
+      <c r="BA180">
+        <v>2</v>
+      </c>
+      <c r="BB180">
+        <v>2</v>
+      </c>
+      <c r="BC180">
+        <v>4</v>
+      </c>
+      <c r="BD180">
+        <v>2.14</v>
+      </c>
+      <c r="BE180">
+        <v>8.5</v>
+      </c>
+      <c r="BF180">
+        <v>1.9</v>
+      </c>
+      <c r="BG180">
+        <v>0</v>
+      </c>
+      <c r="BH180">
+        <v>4.35</v>
+      </c>
+      <c r="BI180">
+        <v>0</v>
+      </c>
+      <c r="BJ180">
+        <v>0</v>
+      </c>
+      <c r="BK180">
+        <v>1.49</v>
+      </c>
+      <c r="BL180">
+        <v>2.55</v>
+      </c>
+      <c r="BM180">
+        <v>1.8</v>
+      </c>
+      <c r="BN180">
+        <v>2</v>
+      </c>
+      <c r="BO180">
+        <v>2.12</v>
+      </c>
+      <c r="BP180">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7296711</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45553.58333333334</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>76</v>
+      </c>
+      <c r="H181" t="s">
+        <v>82</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181" t="s">
+        <v>90</v>
+      </c>
+      <c r="P181" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q181">
+        <v>2.2</v>
+      </c>
+      <c r="R181">
+        <v>2.25</v>
+      </c>
+      <c r="S181">
+        <v>4.5</v>
+      </c>
+      <c r="T181">
+        <v>1.32</v>
+      </c>
+      <c r="U181">
+        <v>3.22</v>
+      </c>
+      <c r="V181">
+        <v>2.55</v>
+      </c>
+      <c r="W181">
+        <v>1.52</v>
+      </c>
+      <c r="X181">
+        <v>5.85</v>
+      </c>
+      <c r="Y181">
+        <v>1.11</v>
+      </c>
+      <c r="Z181">
+        <v>1.73</v>
+      </c>
+      <c r="AA181">
+        <v>3.6</v>
+      </c>
+      <c r="AB181">
+        <v>4.33</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>11</v>
+      </c>
+      <c r="AE181">
+        <v>1.17</v>
+      </c>
+      <c r="AF181">
+        <v>4.5</v>
+      </c>
+      <c r="AG181">
+        <v>1.73</v>
+      </c>
+      <c r="AH181">
+        <v>2</v>
+      </c>
+      <c r="AI181">
+        <v>1.65</v>
+      </c>
+      <c r="AJ181">
+        <v>2.2</v>
+      </c>
+      <c r="AK181">
+        <v>1.19</v>
+      </c>
+      <c r="AL181">
+        <v>1.23</v>
+      </c>
+      <c r="AM181">
+        <v>2.07</v>
+      </c>
+      <c r="AN181">
+        <v>1.82</v>
+      </c>
+      <c r="AO181">
+        <v>1.09</v>
+      </c>
+      <c r="AP181">
+        <v>1.75</v>
+      </c>
+      <c r="AQ181">
+        <v>1.08</v>
+      </c>
+      <c r="AR181">
+        <v>1.7</v>
+      </c>
+      <c r="AS181">
+        <v>1.36</v>
+      </c>
+      <c r="AT181">
+        <v>3.06</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>3</v>
+      </c>
+      <c r="AW181">
+        <v>21</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+      <c r="AY181">
+        <v>26</v>
+      </c>
+      <c r="AZ181">
+        <v>6</v>
+      </c>
+      <c r="BA181">
+        <v>9</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>11</v>
+      </c>
+      <c r="BD181">
+        <v>1.64</v>
+      </c>
+      <c r="BE181">
+        <v>8.5</v>
+      </c>
+      <c r="BF181">
+        <v>2.64</v>
+      </c>
+      <c r="BG181">
+        <v>1.15</v>
+      </c>
+      <c r="BH181">
+        <v>4.6</v>
+      </c>
+      <c r="BI181">
+        <v>1.28</v>
+      </c>
+      <c r="BJ181">
+        <v>3.3</v>
+      </c>
+      <c r="BK181">
+        <v>1.48</v>
+      </c>
+      <c r="BL181">
+        <v>2.45</v>
+      </c>
+      <c r="BM181">
+        <v>1.95</v>
+      </c>
+      <c r="BN181">
+        <v>1.85</v>
+      </c>
+      <c r="BO181">
+        <v>2.15</v>
+      </c>
+      <c r="BP181">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7296709</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45553.58333333334</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>74</v>
+      </c>
+      <c r="H182" t="s">
+        <v>80</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>213</v>
+      </c>
+      <c r="P182" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q182">
+        <v>2.8</v>
+      </c>
+      <c r="R182">
+        <v>2.2</v>
+      </c>
+      <c r="S182">
+        <v>3.4</v>
+      </c>
+      <c r="T182">
+        <v>1.31</v>
+      </c>
+      <c r="U182">
+        <v>3.28</v>
+      </c>
+      <c r="V182">
+        <v>2.45</v>
+      </c>
+      <c r="W182">
+        <v>1.5</v>
+      </c>
+      <c r="X182">
+        <v>5.75</v>
+      </c>
+      <c r="Y182">
+        <v>1.12</v>
+      </c>
+      <c r="Z182">
+        <v>2.2</v>
+      </c>
+      <c r="AA182">
+        <v>3.6</v>
+      </c>
+      <c r="AB182">
+        <v>2.8</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>11</v>
+      </c>
+      <c r="AE182">
+        <v>1.17</v>
+      </c>
+      <c r="AF182">
+        <v>4.5</v>
+      </c>
+      <c r="AG182">
+        <v>1.57</v>
+      </c>
+      <c r="AH182">
+        <v>2.25</v>
+      </c>
+      <c r="AI182">
+        <v>1.53</v>
+      </c>
+      <c r="AJ182">
+        <v>2.45</v>
+      </c>
+      <c r="AK182">
+        <v>1.42</v>
+      </c>
+      <c r="AL182">
+        <v>1.27</v>
+      </c>
+      <c r="AM182">
+        <v>1.57</v>
+      </c>
+      <c r="AN182">
+        <v>1.73</v>
+      </c>
+      <c r="AO182">
+        <v>1</v>
+      </c>
+      <c r="AP182">
+        <v>1.83</v>
+      </c>
+      <c r="AQ182">
+        <v>0.92</v>
+      </c>
+      <c r="AR182">
+        <v>1.7</v>
+      </c>
+      <c r="AS182">
+        <v>1.44</v>
+      </c>
+      <c r="AT182">
+        <v>3.14</v>
+      </c>
+      <c r="AU182">
+        <v>6</v>
+      </c>
+      <c r="AV182">
+        <v>7</v>
+      </c>
+      <c r="AW182">
+        <v>1</v>
+      </c>
+      <c r="AX182">
+        <v>6</v>
+      </c>
+      <c r="AY182">
+        <v>7</v>
+      </c>
+      <c r="AZ182">
+        <v>13</v>
+      </c>
+      <c r="BA182">
+        <v>5</v>
+      </c>
+      <c r="BB182">
+        <v>3</v>
+      </c>
+      <c r="BC182">
+        <v>8</v>
+      </c>
+      <c r="BD182">
+        <v>1.75</v>
+      </c>
+      <c r="BE182">
+        <v>8</v>
+      </c>
+      <c r="BF182">
+        <v>2.42</v>
+      </c>
+      <c r="BG182">
+        <v>1.2</v>
+      </c>
+      <c r="BH182">
+        <v>3.95</v>
+      </c>
+      <c r="BI182">
+        <v>1.35</v>
+      </c>
+      <c r="BJ182">
+        <v>2.9</v>
+      </c>
+      <c r="BK182">
+        <v>1.58</v>
+      </c>
+      <c r="BL182">
+        <v>2.18</v>
+      </c>
+      <c r="BM182">
+        <v>1.94</v>
+      </c>
+      <c r="BN182">
+        <v>1.76</v>
+      </c>
+      <c r="BO182">
+        <v>2.43</v>
+      </c>
+      <c r="BP182">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7296710</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45554.58333333334</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>85</v>
+      </c>
+      <c r="H183" t="s">
+        <v>84</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183" t="s">
+        <v>90</v>
+      </c>
+      <c r="P183" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q183">
+        <v>2.6</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>4.2</v>
+      </c>
+      <c r="T183">
+        <v>1.38</v>
+      </c>
+      <c r="U183">
+        <v>2.95</v>
+      </c>
+      <c r="V183">
+        <v>2.95</v>
+      </c>
+      <c r="W183">
+        <v>1.39</v>
+      </c>
+      <c r="X183">
+        <v>7.3</v>
+      </c>
+      <c r="Y183">
+        <v>1.07</v>
+      </c>
+      <c r="Z183">
+        <v>2</v>
+      </c>
+      <c r="AA183">
+        <v>3.35</v>
+      </c>
+      <c r="AB183">
+        <v>3.45</v>
+      </c>
+      <c r="AC183">
+        <v>1.03</v>
+      </c>
+      <c r="AD183">
+        <v>9</v>
+      </c>
+      <c r="AE183">
+        <v>1.29</v>
+      </c>
+      <c r="AF183">
+        <v>3.3</v>
+      </c>
+      <c r="AG183">
+        <v>2.08</v>
+      </c>
+      <c r="AH183">
+        <v>1.92</v>
+      </c>
+      <c r="AI183">
+        <v>1.8</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+      <c r="AK183">
+        <v>1.27</v>
+      </c>
+      <c r="AL183">
+        <v>1.28</v>
+      </c>
+      <c r="AM183">
+        <v>1.79</v>
+      </c>
+      <c r="AN183">
+        <v>1.27</v>
+      </c>
+      <c r="AO183">
+        <v>0.82</v>
+      </c>
+      <c r="AP183">
+        <v>1.25</v>
+      </c>
+      <c r="AQ183">
+        <v>0.83</v>
+      </c>
+      <c r="AR183">
+        <v>1.53</v>
+      </c>
+      <c r="AS183">
+        <v>1.34</v>
+      </c>
+      <c r="AT183">
+        <v>2.87</v>
+      </c>
+      <c r="AU183">
+        <v>5</v>
+      </c>
+      <c r="AV183">
+        <v>5</v>
+      </c>
+      <c r="AW183">
+        <v>8</v>
+      </c>
+      <c r="AX183">
+        <v>8</v>
+      </c>
+      <c r="AY183">
+        <v>13</v>
+      </c>
+      <c r="AZ183">
+        <v>13</v>
+      </c>
+      <c r="BA183">
+        <v>9</v>
+      </c>
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
+        <v>13</v>
+      </c>
+      <c r="BD183">
+        <v>1.75</v>
+      </c>
+      <c r="BE183">
+        <v>8.5</v>
+      </c>
+      <c r="BF183">
+        <v>2.41</v>
+      </c>
+      <c r="BG183">
+        <v>1.17</v>
+      </c>
+      <c r="BH183">
+        <v>4.35</v>
+      </c>
+      <c r="BI183">
+        <v>1.3</v>
+      </c>
+      <c r="BJ183">
+        <v>3.15</v>
+      </c>
+      <c r="BK183">
+        <v>1.49</v>
+      </c>
+      <c r="BL183">
+        <v>2.4</v>
+      </c>
+      <c r="BM183">
+        <v>1.88</v>
+      </c>
+      <c r="BN183">
+        <v>1.92</v>
+      </c>
+      <c r="BO183">
+        <v>2.18</v>
+      </c>
+      <c r="BP183">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7296708</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45554.58333333334</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>71</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>214</v>
+      </c>
+      <c r="P184" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q184">
+        <v>3.3</v>
+      </c>
+      <c r="R184">
+        <v>2.2</v>
+      </c>
+      <c r="S184">
+        <v>2.88</v>
+      </c>
+      <c r="T184">
+        <v>1.29</v>
+      </c>
+      <c r="U184">
+        <v>3.3</v>
+      </c>
+      <c r="V184">
+        <v>2.4</v>
+      </c>
+      <c r="W184">
+        <v>1.51</v>
+      </c>
+      <c r="X184">
+        <v>5.45</v>
+      </c>
+      <c r="Y184">
+        <v>1.12</v>
+      </c>
+      <c r="Z184">
+        <v>2.8</v>
+      </c>
+      <c r="AA184">
+        <v>3.55</v>
+      </c>
+      <c r="AB184">
+        <v>2.2</v>
+      </c>
+      <c r="AC184">
+        <v>1.01</v>
+      </c>
+      <c r="AD184">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <v>1.17</v>
+      </c>
+      <c r="AF184">
+        <v>4.5</v>
+      </c>
+      <c r="AG184">
+        <v>1.65</v>
+      </c>
+      <c r="AH184">
+        <v>2.15</v>
+      </c>
+      <c r="AI184">
+        <v>1.53</v>
+      </c>
+      <c r="AJ184">
+        <v>2.45</v>
+      </c>
+      <c r="AK184">
+        <v>1.66</v>
+      </c>
+      <c r="AL184">
+        <v>1.25</v>
+      </c>
+      <c r="AM184">
+        <v>1.4</v>
+      </c>
+      <c r="AN184">
+        <v>1.27</v>
+      </c>
+      <c r="AO184">
+        <v>1.91</v>
+      </c>
+      <c r="AP184">
+        <v>1.42</v>
+      </c>
+      <c r="AQ184">
+        <v>1.75</v>
+      </c>
+      <c r="AR184">
+        <v>1.69</v>
+      </c>
+      <c r="AS184">
+        <v>1.6</v>
+      </c>
+      <c r="AT184">
+        <v>3.29</v>
+      </c>
+      <c r="AU184">
+        <v>7</v>
+      </c>
+      <c r="AV184">
+        <v>9</v>
+      </c>
+      <c r="AW184">
+        <v>0</v>
+      </c>
+      <c r="AX184">
+        <v>8</v>
+      </c>
+      <c r="AY184">
+        <v>7</v>
+      </c>
+      <c r="AZ184">
+        <v>17</v>
+      </c>
+      <c r="BA184">
+        <v>2</v>
+      </c>
+      <c r="BB184">
+        <v>6</v>
+      </c>
+      <c r="BC184">
+        <v>8</v>
+      </c>
+      <c r="BD184">
+        <v>2.05</v>
+      </c>
+      <c r="BE184">
+        <v>8.5</v>
+      </c>
+      <c r="BF184">
+        <v>2</v>
+      </c>
+      <c r="BG184">
+        <v>1.21</v>
+      </c>
+      <c r="BH184">
+        <v>4.6</v>
+      </c>
+      <c r="BI184">
+        <v>1.27</v>
+      </c>
+      <c r="BJ184">
+        <v>3.3</v>
+      </c>
+      <c r="BK184">
+        <v>1.47</v>
+      </c>
+      <c r="BL184">
+        <v>2.48</v>
+      </c>
+      <c r="BM184">
+        <v>1.92</v>
+      </c>
+      <c r="BN184">
+        <v>1.88</v>
+      </c>
+      <c r="BO184">
+        <v>2.12</v>
+      </c>
+      <c r="BP184">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7296715</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45554.58333333334</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>81</v>
+      </c>
+      <c r="H185" t="s">
+        <v>75</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>86</v>
+      </c>
+      <c r="P185" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q185">
+        <v>1.83</v>
+      </c>
+      <c r="R185">
+        <v>2.4</v>
+      </c>
+      <c r="S185">
+        <v>6.5</v>
+      </c>
+      <c r="T185">
+        <v>1.26</v>
+      </c>
+      <c r="U185">
+        <v>3.5</v>
+      </c>
+      <c r="V185">
+        <v>2.34</v>
+      </c>
+      <c r="W185">
+        <v>1.54</v>
+      </c>
+      <c r="X185">
+        <v>5.4</v>
+      </c>
+      <c r="Y185">
+        <v>1.12</v>
+      </c>
+      <c r="Z185">
+        <v>1.41</v>
+      </c>
+      <c r="AA185">
+        <v>5</v>
+      </c>
+      <c r="AB185">
+        <v>5.6</v>
+      </c>
+      <c r="AC185">
+        <v>1.01</v>
+      </c>
+      <c r="AD185">
+        <v>13</v>
+      </c>
+      <c r="AE185">
+        <v>1.14</v>
+      </c>
+      <c r="AF185">
+        <v>4.8</v>
+      </c>
+      <c r="AG185">
+        <v>1.5</v>
+      </c>
+      <c r="AH185">
+        <v>2.9</v>
+      </c>
+      <c r="AI185">
+        <v>1.8</v>
+      </c>
+      <c r="AJ185">
+        <v>2</v>
+      </c>
+      <c r="AK185">
+        <v>1.09</v>
+      </c>
+      <c r="AL185">
+        <v>1.14</v>
+      </c>
+      <c r="AM185">
+        <v>2.95</v>
+      </c>
+      <c r="AN185">
+        <v>2.18</v>
+      </c>
+      <c r="AO185">
+        <v>0.82</v>
+      </c>
+      <c r="AP185">
+        <v>2.25</v>
+      </c>
+      <c r="AQ185">
+        <v>0.75</v>
+      </c>
+      <c r="AR185">
+        <v>2.21</v>
+      </c>
+      <c r="AS185">
+        <v>1.32</v>
+      </c>
+      <c r="AT185">
+        <v>3.53</v>
+      </c>
+      <c r="AU185">
+        <v>9</v>
+      </c>
+      <c r="AV185">
+        <v>3</v>
+      </c>
+      <c r="AW185">
+        <v>18</v>
+      </c>
+      <c r="AX185">
+        <v>6</v>
+      </c>
+      <c r="AY185">
+        <v>27</v>
+      </c>
+      <c r="AZ185">
+        <v>9</v>
+      </c>
+      <c r="BA185">
+        <v>12</v>
+      </c>
+      <c r="BB185">
+        <v>6</v>
+      </c>
+      <c r="BC185">
+        <v>18</v>
+      </c>
+      <c r="BD185">
+        <v>1.31</v>
+      </c>
+      <c r="BE185">
+        <v>10</v>
+      </c>
+      <c r="BF185">
+        <v>4.11</v>
+      </c>
+      <c r="BG185">
+        <v>1.16</v>
+      </c>
+      <c r="BH185">
+        <v>4.6</v>
+      </c>
+      <c r="BI185">
+        <v>1.28</v>
+      </c>
+      <c r="BJ185">
+        <v>3.3</v>
+      </c>
+      <c r="BK185">
+        <v>1.48</v>
+      </c>
+      <c r="BL185">
+        <v>2.45</v>
+      </c>
+      <c r="BM185">
+        <v>1.98</v>
+      </c>
+      <c r="BN185">
+        <v>1.82</v>
+      </c>
+      <c r="BO185">
+        <v>2.12</v>
+      </c>
+      <c r="BP185">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -39149,10 +39149,10 @@
         <v>2</v>
       </c>
       <c r="BB184">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC184">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD184">
         <v>2.05</v>
@@ -39355,10 +39355,10 @@
         <v>12</v>
       </c>
       <c r="BB185">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC185">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD185">
         <v>1.31</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -924,6 +924,12 @@
   <si>
     <t>['45+1']</t>
   </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
 </sst>
 </file>
 
@@ -1284,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2239,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ5">
         <v>0.83</v>
@@ -2448,7 +2454,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3475,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>1.18</v>
@@ -4714,7 +4720,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4920,7 +4926,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ18">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -5329,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20">
         <v>0.45</v>
@@ -5535,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ21">
         <v>0.92</v>
@@ -5950,7 +5956,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ23">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -9246,7 +9252,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ39">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -9449,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ40">
         <v>1.55</v>
@@ -10070,7 +10076,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ43">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -10688,7 +10694,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ46">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -11097,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11715,7 +11721,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ51">
         <v>1.08</v>
@@ -12127,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
         <v>1.36</v>
@@ -12336,7 +12342,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ54">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -13363,7 +13369,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13984,7 +13990,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ62">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -15426,7 +15432,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ69">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -16041,7 +16047,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
         <v>0.83</v>
@@ -17483,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17692,7 +17698,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ80">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -19543,10 +19549,10 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR89">
         <v>1.03</v>
@@ -21191,10 +21197,10 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ97">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -22015,7 +22021,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -24284,7 +24290,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ112">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24487,7 +24493,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ113">
         <v>1.18</v>
@@ -25932,7 +25938,7 @@
         <v>1</v>
       </c>
       <c r="AQ120">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR120">
         <v>0.88</v>
@@ -26135,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121">
         <v>1.75</v>
@@ -26756,7 +26762,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ124">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR124">
         <v>1.88</v>
@@ -28813,7 +28819,7 @@
         <v>1.86</v>
       </c>
       <c r="AP134">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ134">
         <v>2</v>
@@ -29225,7 +29231,7 @@
         <v>1.88</v>
       </c>
       <c r="AP136">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ136">
         <v>1.75</v>
@@ -29434,7 +29440,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ137">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>2.2</v>
@@ -29640,7 +29646,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR138">
         <v>1.56</v>
@@ -31285,7 +31291,7 @@
         <v>0.22</v>
       </c>
       <c r="AP146">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ146">
         <v>0.5</v>
@@ -31697,7 +31703,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP148">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ148">
         <v>0.45</v>
@@ -32524,7 +32530,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ152">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR152">
         <v>2.16</v>
@@ -32936,7 +32942,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ154">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR154">
         <v>1.63</v>
@@ -34993,7 +34999,7 @@
         <v>1.1</v>
       </c>
       <c r="AP164">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ164">
         <v>1.08</v>
@@ -36435,7 +36441,7 @@
         <v>0.5</v>
       </c>
       <c r="AP171">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ171">
         <v>0.45</v>
@@ -37262,7 +37268,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ175">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR175">
         <v>1.44</v>
@@ -37468,7 +37474,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ176">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR176">
         <v>1.38</v>
@@ -39398,6 +39404,418 @@
       </c>
       <c r="BP185">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7296718</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45557.41666666666</v>
+      </c>
+      <c r="F186">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>83</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>149</v>
+      </c>
+      <c r="P186" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q186">
+        <v>2.05</v>
+      </c>
+      <c r="R186">
+        <v>2.5</v>
+      </c>
+      <c r="S186">
+        <v>5.5</v>
+      </c>
+      <c r="T186">
+        <v>1.29</v>
+      </c>
+      <c r="U186">
+        <v>3.5</v>
+      </c>
+      <c r="V186">
+        <v>2.38</v>
+      </c>
+      <c r="W186">
+        <v>1.53</v>
+      </c>
+      <c r="X186">
+        <v>5.5</v>
+      </c>
+      <c r="Y186">
+        <v>1.14</v>
+      </c>
+      <c r="Z186">
+        <v>1.53</v>
+      </c>
+      <c r="AA186">
+        <v>4.2</v>
+      </c>
+      <c r="AB186">
+        <v>5</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>11.75</v>
+      </c>
+      <c r="AE186">
+        <v>1.14</v>
+      </c>
+      <c r="AF186">
+        <v>4.75</v>
+      </c>
+      <c r="AG186">
+        <v>1.6</v>
+      </c>
+      <c r="AH186">
+        <v>2.3</v>
+      </c>
+      <c r="AI186">
+        <v>1.67</v>
+      </c>
+      <c r="AJ186">
+        <v>2.1</v>
+      </c>
+      <c r="AK186">
+        <v>1.04</v>
+      </c>
+      <c r="AL186">
+        <v>1.19</v>
+      </c>
+      <c r="AM186">
+        <v>2.45</v>
+      </c>
+      <c r="AN186">
+        <v>1.64</v>
+      </c>
+      <c r="AO186">
+        <v>0.82</v>
+      </c>
+      <c r="AP186">
+        <v>1.58</v>
+      </c>
+      <c r="AQ186">
+        <v>0.83</v>
+      </c>
+      <c r="AR186">
+        <v>1.67</v>
+      </c>
+      <c r="AS186">
+        <v>1.01</v>
+      </c>
+      <c r="AT186">
+        <v>2.68</v>
+      </c>
+      <c r="AU186">
+        <v>10</v>
+      </c>
+      <c r="AV186">
+        <v>9</v>
+      </c>
+      <c r="AW186">
+        <v>1</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>11</v>
+      </c>
+      <c r="AZ186">
+        <v>14</v>
+      </c>
+      <c r="BA186">
+        <v>8</v>
+      </c>
+      <c r="BB186">
+        <v>9</v>
+      </c>
+      <c r="BC186">
+        <v>17</v>
+      </c>
+      <c r="BD186">
+        <v>1.27</v>
+      </c>
+      <c r="BE186">
+        <v>7.5</v>
+      </c>
+      <c r="BF186">
+        <v>5.25</v>
+      </c>
+      <c r="BG186">
+        <v>0</v>
+      </c>
+      <c r="BH186">
+        <v>0</v>
+      </c>
+      <c r="BI186">
+        <v>0</v>
+      </c>
+      <c r="BJ186">
+        <v>0</v>
+      </c>
+      <c r="BK186">
+        <v>1.5</v>
+      </c>
+      <c r="BL186">
+        <v>2.55</v>
+      </c>
+      <c r="BM186">
+        <v>1.82</v>
+      </c>
+      <c r="BN186">
+        <v>1.86</v>
+      </c>
+      <c r="BO186">
+        <v>2.29</v>
+      </c>
+      <c r="BP186">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7296723</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45557.41666666666</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s">
+        <v>79</v>
+      </c>
+      <c r="H187" t="s">
+        <v>76</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>90</v>
+      </c>
+      <c r="P187" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q187">
+        <v>3.5</v>
+      </c>
+      <c r="R187">
+        <v>2.25</v>
+      </c>
+      <c r="S187">
+        <v>2.75</v>
+      </c>
+      <c r="T187">
+        <v>1.31</v>
+      </c>
+      <c r="U187">
+        <v>3.2</v>
+      </c>
+      <c r="V187">
+        <v>2.54</v>
+      </c>
+      <c r="W187">
+        <v>1.5</v>
+      </c>
+      <c r="X187">
+        <v>5.95</v>
+      </c>
+      <c r="Y187">
+        <v>1.1</v>
+      </c>
+      <c r="Z187">
+        <v>2.7</v>
+      </c>
+      <c r="AA187">
+        <v>3.5</v>
+      </c>
+      <c r="AB187">
+        <v>2.25</v>
+      </c>
+      <c r="AC187">
+        <v>1.03</v>
+      </c>
+      <c r="AD187">
+        <v>13</v>
+      </c>
+      <c r="AE187">
+        <v>1.22</v>
+      </c>
+      <c r="AF187">
+        <v>4.2</v>
+      </c>
+      <c r="AG187">
+        <v>1.75</v>
+      </c>
+      <c r="AH187">
+        <v>2.05</v>
+      </c>
+      <c r="AI187">
+        <v>1.55</v>
+      </c>
+      <c r="AJ187">
+        <v>2.2</v>
+      </c>
+      <c r="AK187">
+        <v>1.65</v>
+      </c>
+      <c r="AL187">
+        <v>1.29</v>
+      </c>
+      <c r="AM187">
+        <v>1.4</v>
+      </c>
+      <c r="AN187">
+        <v>1.36</v>
+      </c>
+      <c r="AO187">
+        <v>1.18</v>
+      </c>
+      <c r="AP187">
+        <v>1.25</v>
+      </c>
+      <c r="AQ187">
+        <v>1.33</v>
+      </c>
+      <c r="AR187">
+        <v>1.14</v>
+      </c>
+      <c r="AS187">
+        <v>1.54</v>
+      </c>
+      <c r="AT187">
+        <v>2.68</v>
+      </c>
+      <c r="AU187">
+        <v>3</v>
+      </c>
+      <c r="AV187">
+        <v>6</v>
+      </c>
+      <c r="AW187">
+        <v>0</v>
+      </c>
+      <c r="AX187">
+        <v>1</v>
+      </c>
+      <c r="AY187">
+        <v>3</v>
+      </c>
+      <c r="AZ187">
+        <v>7</v>
+      </c>
+      <c r="BA187">
+        <v>7</v>
+      </c>
+      <c r="BB187">
+        <v>3</v>
+      </c>
+      <c r="BC187">
+        <v>10</v>
+      </c>
+      <c r="BD187">
+        <v>2.15</v>
+      </c>
+      <c r="BE187">
+        <v>6.75</v>
+      </c>
+      <c r="BF187">
+        <v>2.03</v>
+      </c>
+      <c r="BG187">
+        <v>1.13</v>
+      </c>
+      <c r="BH187">
+        <v>4.9</v>
+      </c>
+      <c r="BI187">
+        <v>1.18</v>
+      </c>
+      <c r="BJ187">
+        <v>3.7</v>
+      </c>
+      <c r="BK187">
+        <v>1.37</v>
+      </c>
+      <c r="BL187">
+        <v>2.66</v>
+      </c>
+      <c r="BM187">
+        <v>1.71</v>
+      </c>
+      <c r="BN187">
+        <v>2.1</v>
+      </c>
+      <c r="BO187">
+        <v>2.12</v>
+      </c>
+      <c r="BP187">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,9 @@
     <t>['40', '60']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -929,6 +932,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['58', '90']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1755,7 +1761,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2039,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>0.92</v>
@@ -2167,7 +2173,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2579,7 +2585,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2657,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2991,7 +2997,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3072,7 +3078,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ9">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3403,7 +3409,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3484,7 +3490,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3609,7 +3615,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3687,10 +3693,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ12">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4099,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -4511,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ16">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4639,7 +4645,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4923,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>0.83</v>
@@ -5051,7 +5057,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5129,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>0.83</v>
@@ -5338,7 +5344,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5875,7 +5881,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6081,7 +6087,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6159,10 +6165,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6368,7 +6374,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ25">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6571,10 +6577,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ26">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6983,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -7111,7 +7117,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7192,7 +7198,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ29">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7317,7 +7323,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7395,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ30">
         <v>0.75</v>
@@ -7935,7 +7941,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8016,7 +8022,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -8219,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8425,7 +8431,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
         <v>1.08</v>
@@ -8553,7 +8559,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8631,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0.92</v>
@@ -8759,7 +8765,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8840,7 +8846,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ37">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -9046,7 +9052,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -9377,7 +9383,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9458,7 +9464,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ40">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9867,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ42">
         <v>0.5</v>
@@ -10073,7 +10079,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -10201,7 +10207,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10691,7 +10697,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0.83</v>
@@ -10900,7 +10906,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ47">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -11231,7 +11237,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11312,7 +11318,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11643,7 +11649,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11849,7 +11855,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11927,7 +11933,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>1.75</v>
@@ -12055,7 +12061,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12136,7 +12142,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12339,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>0.83</v>
@@ -12467,7 +12473,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12673,7 +12679,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12754,7 +12760,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -12960,7 +12966,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -13085,7 +13091,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13163,10 +13169,10 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -13372,7 +13378,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13575,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>0.5</v>
@@ -13784,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>0.92</v>
@@ -13909,7 +13915,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13987,7 +13993,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -14115,7 +14121,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14196,7 +14202,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.89</v>
@@ -14399,10 +14405,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14527,7 +14533,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14605,7 +14611,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14811,7 +14817,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>0.92</v>
@@ -14939,7 +14945,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15145,7 +15151,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15351,7 +15357,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15557,7 +15563,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15763,7 +15769,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16175,7 +16181,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16256,7 +16262,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ73">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -16381,7 +16387,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16462,7 +16468,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>0.98</v>
@@ -16587,7 +16593,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16665,10 +16671,10 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ75">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.67</v>
@@ -16793,7 +16799,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16871,10 +16877,10 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR76">
         <v>1.5</v>
@@ -16999,7 +17005,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17077,10 +17083,10 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ77">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -17411,7 +17417,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17695,7 +17701,7 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -18029,7 +18035,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18316,7 +18322,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ83">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR83">
         <v>1.38</v>
@@ -18441,7 +18447,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18725,7 +18731,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
         <v>1.17</v>
@@ -18853,7 +18859,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19265,7 +19271,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19343,10 +19349,10 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR88">
         <v>1.45</v>
@@ -19471,7 +19477,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19883,7 +19889,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19961,7 +19967,7 @@
         <v>1.83</v>
       </c>
       <c r="AP91">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
         <v>1.75</v>
@@ -20089,7 +20095,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20170,7 +20176,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>0.98</v>
@@ -20373,7 +20379,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20582,7 +20588,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -20788,7 +20794,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ95">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR95">
         <v>2.11</v>
@@ -20991,7 +20997,7 @@
         <v>0.83</v>
       </c>
       <c r="AP96">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ96">
         <v>0.83</v>
@@ -21325,7 +21331,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21403,10 +21409,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ98">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.48</v>
@@ -21943,7 +21949,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22149,7 +22155,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22436,7 +22442,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR103">
         <v>2.16</v>
@@ -22767,7 +22773,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22845,10 +22851,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR105">
         <v>1.43</v>
@@ -23179,7 +23185,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23591,7 +23597,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23669,10 +23675,10 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR109">
         <v>1.45</v>
@@ -23797,7 +23803,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23875,7 +23881,7 @@
         <v>0.71</v>
       </c>
       <c r="AP110">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>0.83</v>
@@ -24003,7 +24009,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24081,10 +24087,10 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ111">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24415,7 +24421,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24496,7 +24502,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ113">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24621,7 +24627,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24699,7 +24705,7 @@
         <v>1.17</v>
       </c>
       <c r="AP114">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
         <v>1.17</v>
@@ -25033,7 +25039,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25111,10 +25117,10 @@
         <v>1.67</v>
       </c>
       <c r="AP116">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ116">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25320,7 +25326,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ117">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25445,7 +25451,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25523,7 +25529,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ118">
         <v>1.08</v>
@@ -25651,7 +25657,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25732,7 +25738,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ119">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -26063,7 +26069,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26269,7 +26275,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26347,7 +26353,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ122">
         <v>0.92</v>
@@ -26475,7 +26481,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26887,7 +26893,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26965,7 +26971,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
         <v>1.17</v>
@@ -27093,7 +27099,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27171,7 +27177,7 @@
         <v>0.43</v>
       </c>
       <c r="AP126">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
         <v>0.75</v>
@@ -27380,7 +27386,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ127">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.58</v>
@@ -27505,7 +27511,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27711,7 +27717,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27792,7 +27798,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ129">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.56</v>
@@ -27995,7 +28001,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130">
         <v>1.08</v>
@@ -28123,7 +28129,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28204,7 +28210,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ131">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR131">
         <v>1.57</v>
@@ -28329,7 +28335,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28613,7 +28619,7 @@
         <v>0.75</v>
       </c>
       <c r="AP133">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ133">
         <v>0.75</v>
@@ -28741,7 +28747,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28822,7 +28828,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ134">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR134">
         <v>1.09</v>
@@ -28947,7 +28953,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29028,7 +29034,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR135">
         <v>0.9</v>
@@ -29153,7 +29159,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29359,7 +29365,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29771,7 +29777,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29849,7 +29855,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -29977,7 +29983,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30055,7 +30061,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
         <v>1.17</v>
@@ -30264,7 +30270,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ141">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR141">
         <v>1.67</v>
@@ -30389,7 +30395,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30467,7 +30473,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ142">
         <v>0.92</v>
@@ -30595,7 +30601,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30676,7 +30682,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ143">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR143">
         <v>1.78</v>
@@ -30879,7 +30885,7 @@
         <v>0.13</v>
       </c>
       <c r="AP144">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ144">
         <v>0.5</v>
@@ -31007,7 +31013,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31088,7 +31094,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ145">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR145">
         <v>1.55</v>
@@ -31497,7 +31503,7 @@
         <v>1.22</v>
       </c>
       <c r="AP147">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ147">
         <v>1.08</v>
@@ -31706,7 +31712,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ148">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR148">
         <v>1.69</v>
@@ -31912,7 +31918,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ149">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR149">
         <v>2.21</v>
@@ -32037,7 +32043,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32118,7 +32124,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR150">
         <v>0.9399999999999999</v>
@@ -32449,7 +32455,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32733,7 +32739,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ153">
         <v>1.75</v>
@@ -32861,7 +32867,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -33145,10 +33151,10 @@
         <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR155">
         <v>1.25</v>
@@ -33351,7 +33357,7 @@
         <v>1.22</v>
       </c>
       <c r="AP156">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ156">
         <v>1.17</v>
@@ -33479,7 +33485,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33560,7 +33566,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ157">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR157">
         <v>1.72</v>
@@ -33685,7 +33691,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -33763,7 +33769,7 @@
         <v>0.89</v>
       </c>
       <c r="AP158">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -33969,7 +33975,7 @@
         <v>0.9</v>
       </c>
       <c r="AP159">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
         <v>0.83</v>
@@ -34097,7 +34103,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34175,10 +34181,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP160">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR160">
         <v>1.48</v>
@@ -34303,7 +34309,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34384,7 +34390,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ161">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR161">
         <v>1.59</v>
@@ -34796,7 +34802,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ163">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR163">
         <v>2.19</v>
@@ -35127,7 +35133,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35333,7 +35339,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35411,7 +35417,7 @@
         <v>1.8</v>
       </c>
       <c r="AP166">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ166">
         <v>1.75</v>
@@ -35539,7 +35545,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35745,7 +35751,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -35951,7 +35957,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -36032,7 +36038,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ169">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR169">
         <v>1.69</v>
@@ -36235,10 +36241,10 @@
         <v>1.2</v>
       </c>
       <c r="AP170">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ170">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR170">
         <v>1.59</v>
@@ -36444,7 +36450,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ171">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
         <v>1.65</v>
@@ -36650,7 +36656,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ172">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR172">
         <v>1.75</v>
@@ -36775,7 +36781,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q173">
         <v>2.63</v>
@@ -36853,7 +36859,7 @@
         <v>1.1</v>
       </c>
       <c r="AP173">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ173">
         <v>1</v>
@@ -36981,7 +36987,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37059,10 +37065,10 @@
         <v>1.4</v>
       </c>
       <c r="AP174">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR174">
         <v>1.44</v>
@@ -37265,7 +37271,7 @@
         <v>1.2</v>
       </c>
       <c r="AP175">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175">
         <v>1.33</v>
@@ -37393,7 +37399,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q176">
         <v>1.73</v>
@@ -37471,7 +37477,7 @@
         <v>0.8</v>
       </c>
       <c r="AP176">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ176">
         <v>0.83</v>
@@ -37599,7 +37605,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q177">
         <v>3.15</v>
@@ -37677,10 +37683,10 @@
         <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ177">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR177">
         <v>1.32</v>
@@ -38011,7 +38017,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q179">
         <v>1.92</v>
@@ -38217,7 +38223,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -39041,7 +39047,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q184">
         <v>3.3</v>
@@ -39420,7 +39426,7 @@
         <v>69</v>
       </c>
       <c r="E186" s="2">
-        <v>45557.41666666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F186">
         <v>24</v>
@@ -39453,7 +39459,7 @@
         <v>149</v>
       </c>
       <c r="P186" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q186">
         <v>2.05</v>
@@ -39546,31 +39552,31 @@
         <v>2.68</v>
       </c>
       <c r="AU186">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AV186">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AX186">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY186">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ186">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA186">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB186">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BC186">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="BD186">
         <v>1.27</v>
@@ -39626,7 +39632,7 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45557.41666666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F187">
         <v>24</v>
@@ -39659,7 +39665,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39752,31 +39758,31 @@
         <v>2.68</v>
       </c>
       <c r="AU187">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV187">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AY187">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AZ187">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA187">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB187">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC187">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD187">
         <v>2.15</v>
@@ -39816,6 +39822,1242 @@
       </c>
       <c r="BP187">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7296721</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45557.875</v>
+      </c>
+      <c r="F188">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>80</v>
+      </c>
+      <c r="H188" t="s">
+        <v>81</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>90</v>
+      </c>
+      <c r="P188" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q188">
+        <v>2.85</v>
+      </c>
+      <c r="R188">
+        <v>2.3</v>
+      </c>
+      <c r="S188">
+        <v>3.4</v>
+      </c>
+      <c r="T188">
+        <v>1.29</v>
+      </c>
+      <c r="U188">
+        <v>3.3</v>
+      </c>
+      <c r="V188">
+        <v>2.45</v>
+      </c>
+      <c r="W188">
+        <v>1.49</v>
+      </c>
+      <c r="X188">
+        <v>5.9</v>
+      </c>
+      <c r="Y188">
+        <v>1.1</v>
+      </c>
+      <c r="Z188">
+        <v>2.2</v>
+      </c>
+      <c r="AA188">
+        <v>3.45</v>
+      </c>
+      <c r="AB188">
+        <v>2.8</v>
+      </c>
+      <c r="AC188">
+        <v>1.02</v>
+      </c>
+      <c r="AD188">
+        <v>15</v>
+      </c>
+      <c r="AE188">
+        <v>1.22</v>
+      </c>
+      <c r="AF188">
+        <v>4.2</v>
+      </c>
+      <c r="AG188">
+        <v>1.65</v>
+      </c>
+      <c r="AH188">
+        <v>2.1</v>
+      </c>
+      <c r="AI188">
+        <v>1.57</v>
+      </c>
+      <c r="AJ188">
+        <v>2.3</v>
+      </c>
+      <c r="AK188">
+        <v>1.4</v>
+      </c>
+      <c r="AL188">
+        <v>1.22</v>
+      </c>
+      <c r="AM188">
+        <v>1.65</v>
+      </c>
+      <c r="AN188">
+        <v>2.27</v>
+      </c>
+      <c r="AO188">
+        <v>1.55</v>
+      </c>
+      <c r="AP188">
+        <v>2.08</v>
+      </c>
+      <c r="AQ188">
+        <v>1.67</v>
+      </c>
+      <c r="AR188">
+        <v>1.51</v>
+      </c>
+      <c r="AS188">
+        <v>1.36</v>
+      </c>
+      <c r="AT188">
+        <v>2.87</v>
+      </c>
+      <c r="AU188">
+        <v>6</v>
+      </c>
+      <c r="AV188">
+        <v>3</v>
+      </c>
+      <c r="AW188">
+        <v>9</v>
+      </c>
+      <c r="AX188">
+        <v>4</v>
+      </c>
+      <c r="AY188">
+        <v>15</v>
+      </c>
+      <c r="AZ188">
+        <v>7</v>
+      </c>
+      <c r="BA188">
+        <v>8</v>
+      </c>
+      <c r="BB188">
+        <v>3</v>
+      </c>
+      <c r="BC188">
+        <v>11</v>
+      </c>
+      <c r="BD188">
+        <v>1.75</v>
+      </c>
+      <c r="BE188">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF188">
+        <v>2.38</v>
+      </c>
+      <c r="BG188">
+        <v>1.15</v>
+      </c>
+      <c r="BH188">
+        <v>4.7</v>
+      </c>
+      <c r="BI188">
+        <v>1.25</v>
+      </c>
+      <c r="BJ188">
+        <v>3.14</v>
+      </c>
+      <c r="BK188">
+        <v>1.53</v>
+      </c>
+      <c r="BL188">
+        <v>2.44</v>
+      </c>
+      <c r="BM188">
+        <v>1.88</v>
+      </c>
+      <c r="BN188">
+        <v>1.92</v>
+      </c>
+      <c r="BO188">
+        <v>2.33</v>
+      </c>
+      <c r="BP188">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7296722</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45557.875</v>
+      </c>
+      <c r="F189">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s">
+        <v>84</v>
+      </c>
+      <c r="H189" t="s">
+        <v>74</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189" t="s">
+        <v>90</v>
+      </c>
+      <c r="P189" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q189">
+        <v>3.2</v>
+      </c>
+      <c r="R189">
+        <v>2.1</v>
+      </c>
+      <c r="S189">
+        <v>3.4</v>
+      </c>
+      <c r="T189">
+        <v>1.38</v>
+      </c>
+      <c r="U189">
+        <v>2.85</v>
+      </c>
+      <c r="V189">
+        <v>2.8</v>
+      </c>
+      <c r="W189">
+        <v>1.39</v>
+      </c>
+      <c r="X189">
+        <v>6.95</v>
+      </c>
+      <c r="Y189">
+        <v>1.07</v>
+      </c>
+      <c r="Z189">
+        <v>2.35</v>
+      </c>
+      <c r="AA189">
+        <v>3.15</v>
+      </c>
+      <c r="AB189">
+        <v>2.75</v>
+      </c>
+      <c r="AC189">
+        <v>1.05</v>
+      </c>
+      <c r="AD189">
+        <v>11</v>
+      </c>
+      <c r="AE189">
+        <v>1.3</v>
+      </c>
+      <c r="AF189">
+        <v>3.4</v>
+      </c>
+      <c r="AG189">
+        <v>1.85</v>
+      </c>
+      <c r="AH189">
+        <v>1.85</v>
+      </c>
+      <c r="AI189">
+        <v>1.72</v>
+      </c>
+      <c r="AJ189">
+        <v>2.05</v>
+      </c>
+      <c r="AK189">
+        <v>1.47</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.53</v>
+      </c>
+      <c r="AN189">
+        <v>1.45</v>
+      </c>
+      <c r="AO189">
+        <v>0.45</v>
+      </c>
+      <c r="AP189">
+        <v>1.42</v>
+      </c>
+      <c r="AQ189">
+        <v>0.5</v>
+      </c>
+      <c r="AR189">
+        <v>1.49</v>
+      </c>
+      <c r="AS189">
+        <v>1.38</v>
+      </c>
+      <c r="AT189">
+        <v>2.87</v>
+      </c>
+      <c r="AU189">
+        <v>5</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
+        <v>5</v>
+      </c>
+      <c r="AX189">
+        <v>3</v>
+      </c>
+      <c r="AY189">
+        <v>10</v>
+      </c>
+      <c r="AZ189">
+        <v>5</v>
+      </c>
+      <c r="BA189">
+        <v>4</v>
+      </c>
+      <c r="BB189">
+        <v>1</v>
+      </c>
+      <c r="BC189">
+        <v>5</v>
+      </c>
+      <c r="BD189">
+        <v>1.95</v>
+      </c>
+      <c r="BE189">
+        <v>7.6</v>
+      </c>
+      <c r="BF189">
+        <v>2.2</v>
+      </c>
+      <c r="BG189">
+        <v>1.19</v>
+      </c>
+      <c r="BH189">
+        <v>4.1</v>
+      </c>
+      <c r="BI189">
+        <v>1.37</v>
+      </c>
+      <c r="BJ189">
+        <v>2.85</v>
+      </c>
+      <c r="BK189">
+        <v>1.77</v>
+      </c>
+      <c r="BL189">
+        <v>1.95</v>
+      </c>
+      <c r="BM189">
+        <v>2</v>
+      </c>
+      <c r="BN189">
+        <v>1.72</v>
+      </c>
+      <c r="BO189">
+        <v>2.5</v>
+      </c>
+      <c r="BP189">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7296720</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45558.58333333334</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>70</v>
+      </c>
+      <c r="H190" t="s">
+        <v>77</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>90</v>
+      </c>
+      <c r="P190" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q190">
+        <v>4.75</v>
+      </c>
+      <c r="R190">
+        <v>2.35</v>
+      </c>
+      <c r="S190">
+        <v>2.25</v>
+      </c>
+      <c r="T190">
+        <v>1.3</v>
+      </c>
+      <c r="U190">
+        <v>3.2</v>
+      </c>
+      <c r="V190">
+        <v>2.5</v>
+      </c>
+      <c r="W190">
+        <v>1.47</v>
+      </c>
+      <c r="X190">
+        <v>5.95</v>
+      </c>
+      <c r="Y190">
+        <v>1.1</v>
+      </c>
+      <c r="Z190">
+        <v>4.5</v>
+      </c>
+      <c r="AA190">
+        <v>3.9</v>
+      </c>
+      <c r="AB190">
+        <v>1.6</v>
+      </c>
+      <c r="AC190">
+        <v>1.02</v>
+      </c>
+      <c r="AD190">
+        <v>15</v>
+      </c>
+      <c r="AE190">
+        <v>1.22</v>
+      </c>
+      <c r="AF190">
+        <v>4.2</v>
+      </c>
+      <c r="AG190">
+        <v>1.7</v>
+      </c>
+      <c r="AH190">
+        <v>2</v>
+      </c>
+      <c r="AI190">
+        <v>1.72</v>
+      </c>
+      <c r="AJ190">
+        <v>2.1</v>
+      </c>
+      <c r="AK190">
+        <v>1.93</v>
+      </c>
+      <c r="AL190">
+        <v>1.22</v>
+      </c>
+      <c r="AM190">
+        <v>1.16</v>
+      </c>
+      <c r="AN190">
+        <v>1.64</v>
+      </c>
+      <c r="AO190">
+        <v>1.18</v>
+      </c>
+      <c r="AP190">
+        <v>1.5</v>
+      </c>
+      <c r="AQ190">
+        <v>1.33</v>
+      </c>
+      <c r="AR190">
+        <v>1.49</v>
+      </c>
+      <c r="AS190">
+        <v>1.92</v>
+      </c>
+      <c r="AT190">
+        <v>3.41</v>
+      </c>
+      <c r="AU190">
+        <v>0</v>
+      </c>
+      <c r="AV190">
+        <v>4</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>4</v>
+      </c>
+      <c r="AY190">
+        <v>5</v>
+      </c>
+      <c r="AZ190">
+        <v>8</v>
+      </c>
+      <c r="BA190">
+        <v>5</v>
+      </c>
+      <c r="BB190">
+        <v>10</v>
+      </c>
+      <c r="BC190">
+        <v>15</v>
+      </c>
+      <c r="BD190">
+        <v>4.11</v>
+      </c>
+      <c r="BE190">
+        <v>10</v>
+      </c>
+      <c r="BF190">
+        <v>1.31</v>
+      </c>
+      <c r="BG190">
+        <v>1.18</v>
+      </c>
+      <c r="BH190">
+        <v>4.1</v>
+      </c>
+      <c r="BI190">
+        <v>1.21</v>
+      </c>
+      <c r="BJ190">
+        <v>3.44</v>
+      </c>
+      <c r="BK190">
+        <v>1.4</v>
+      </c>
+      <c r="BL190">
+        <v>2.56</v>
+      </c>
+      <c r="BM190">
+        <v>1.8</v>
+      </c>
+      <c r="BN190">
+        <v>1.91</v>
+      </c>
+      <c r="BO190">
+        <v>2.12</v>
+      </c>
+      <c r="BP190">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7296716</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45559.58333333334</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>72</v>
+      </c>
+      <c r="H191" t="s">
+        <v>85</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>90</v>
+      </c>
+      <c r="P191" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q191">
+        <v>2.6</v>
+      </c>
+      <c r="R191">
+        <v>2.17</v>
+      </c>
+      <c r="S191">
+        <v>3.95</v>
+      </c>
+      <c r="T191">
+        <v>1.36</v>
+      </c>
+      <c r="U191">
+        <v>3</v>
+      </c>
+      <c r="V191">
+        <v>2.63</v>
+      </c>
+      <c r="W191">
+        <v>1.44</v>
+      </c>
+      <c r="X191">
+        <v>7</v>
+      </c>
+      <c r="Y191">
+        <v>1.1</v>
+      </c>
+      <c r="Z191">
+        <v>2.13</v>
+      </c>
+      <c r="AA191">
+        <v>3.2</v>
+      </c>
+      <c r="AB191">
+        <v>3.2</v>
+      </c>
+      <c r="AC191">
+        <v>1.04</v>
+      </c>
+      <c r="AD191">
+        <v>10.5</v>
+      </c>
+      <c r="AE191">
+        <v>1.22</v>
+      </c>
+      <c r="AF191">
+        <v>3.7</v>
+      </c>
+      <c r="AG191">
+        <v>1.75</v>
+      </c>
+      <c r="AH191">
+        <v>1.95</v>
+      </c>
+      <c r="AI191">
+        <v>1.7</v>
+      </c>
+      <c r="AJ191">
+        <v>2.05</v>
+      </c>
+      <c r="AK191">
+        <v>1.31</v>
+      </c>
+      <c r="AL191">
+        <v>1.28</v>
+      </c>
+      <c r="AM191">
+        <v>1.72</v>
+      </c>
+      <c r="AN191">
+        <v>1.91</v>
+      </c>
+      <c r="AO191">
+        <v>2</v>
+      </c>
+      <c r="AP191">
+        <v>1.75</v>
+      </c>
+      <c r="AQ191">
+        <v>2.08</v>
+      </c>
+      <c r="AR191">
+        <v>1.63</v>
+      </c>
+      <c r="AS191">
+        <v>1.56</v>
+      </c>
+      <c r="AT191">
+        <v>3.19</v>
+      </c>
+      <c r="AU191">
+        <v>0</v>
+      </c>
+      <c r="AV191">
+        <v>2</v>
+      </c>
+      <c r="AW191">
+        <v>0</v>
+      </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>0</v>
+      </c>
+      <c r="AZ191">
+        <v>2</v>
+      </c>
+      <c r="BA191">
+        <v>7</v>
+      </c>
+      <c r="BB191">
+        <v>2</v>
+      </c>
+      <c r="BC191">
+        <v>9</v>
+      </c>
+      <c r="BD191">
+        <v>1.43</v>
+      </c>
+      <c r="BE191">
+        <v>7.4</v>
+      </c>
+      <c r="BF191">
+        <v>3.7</v>
+      </c>
+      <c r="BG191">
+        <v>1.21</v>
+      </c>
+      <c r="BH191">
+        <v>3.9</v>
+      </c>
+      <c r="BI191">
+        <v>1.29</v>
+      </c>
+      <c r="BJ191">
+        <v>2.92</v>
+      </c>
+      <c r="BK191">
+        <v>1.58</v>
+      </c>
+      <c r="BL191">
+        <v>2.32</v>
+      </c>
+      <c r="BM191">
+        <v>2</v>
+      </c>
+      <c r="BN191">
+        <v>1.8</v>
+      </c>
+      <c r="BO191">
+        <v>2.48</v>
+      </c>
+      <c r="BP191">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7296717</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45559.58333333334</v>
+      </c>
+      <c r="F192">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>75</v>
+      </c>
+      <c r="H192" t="s">
+        <v>78</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192" t="s">
+        <v>90</v>
+      </c>
+      <c r="P192" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q192">
+        <v>3.25</v>
+      </c>
+      <c r="R192">
+        <v>2.3</v>
+      </c>
+      <c r="S192">
+        <v>2.85</v>
+      </c>
+      <c r="T192">
+        <v>1.33</v>
+      </c>
+      <c r="U192">
+        <v>3.25</v>
+      </c>
+      <c r="V192">
+        <v>2.5</v>
+      </c>
+      <c r="W192">
+        <v>1.5</v>
+      </c>
+      <c r="X192">
+        <v>6.5</v>
+      </c>
+      <c r="Y192">
+        <v>1.11</v>
+      </c>
+      <c r="Z192">
+        <v>2.7</v>
+      </c>
+      <c r="AA192">
+        <v>3.4</v>
+      </c>
+      <c r="AB192">
+        <v>2.33</v>
+      </c>
+      <c r="AC192">
+        <v>1.03</v>
+      </c>
+      <c r="AD192">
+        <v>12</v>
+      </c>
+      <c r="AE192">
+        <v>1.18</v>
+      </c>
+      <c r="AF192">
+        <v>4.2</v>
+      </c>
+      <c r="AG192">
+        <v>1.65</v>
+      </c>
+      <c r="AH192">
+        <v>2.1</v>
+      </c>
+      <c r="AI192">
+        <v>1.56</v>
+      </c>
+      <c r="AJ192">
+        <v>2.27</v>
+      </c>
+      <c r="AK192">
+        <v>1.55</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.42</v>
+      </c>
+      <c r="AN192">
+        <v>1.36</v>
+      </c>
+      <c r="AO192">
+        <v>0.45</v>
+      </c>
+      <c r="AP192">
+        <v>1.33</v>
+      </c>
+      <c r="AQ192">
+        <v>0.5</v>
+      </c>
+      <c r="AR192">
+        <v>1.33</v>
+      </c>
+      <c r="AS192">
+        <v>1.59</v>
+      </c>
+      <c r="AT192">
+        <v>2.92</v>
+      </c>
+      <c r="AU192">
+        <v>3</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>6</v>
+      </c>
+      <c r="AY192">
+        <v>8</v>
+      </c>
+      <c r="AZ192">
+        <v>11</v>
+      </c>
+      <c r="BA192">
+        <v>4</v>
+      </c>
+      <c r="BB192">
+        <v>8</v>
+      </c>
+      <c r="BC192">
+        <v>12</v>
+      </c>
+      <c r="BD192">
+        <v>2.38</v>
+      </c>
+      <c r="BE192">
+        <v>6.7</v>
+      </c>
+      <c r="BF192">
+        <v>1.87</v>
+      </c>
+      <c r="BG192">
+        <v>1.18</v>
+      </c>
+      <c r="BH192">
+        <v>4.1</v>
+      </c>
+      <c r="BI192">
+        <v>1.32</v>
+      </c>
+      <c r="BJ192">
+        <v>3.05</v>
+      </c>
+      <c r="BK192">
+        <v>1.42</v>
+      </c>
+      <c r="BL192">
+        <v>2.49</v>
+      </c>
+      <c r="BM192">
+        <v>1.85</v>
+      </c>
+      <c r="BN192">
+        <v>1.85</v>
+      </c>
+      <c r="BO192">
+        <v>2.15</v>
+      </c>
+      <c r="BP192">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7296719</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45559.58333333334</v>
+      </c>
+      <c r="F193">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s">
+        <v>82</v>
+      </c>
+      <c r="H193" t="s">
+        <v>71</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>215</v>
+      </c>
+      <c r="P193" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q193">
+        <v>2.88</v>
+      </c>
+      <c r="R193">
+        <v>2.3</v>
+      </c>
+      <c r="S193">
+        <v>3.4</v>
+      </c>
+      <c r="T193">
+        <v>1.3</v>
+      </c>
+      <c r="U193">
+        <v>3.4</v>
+      </c>
+      <c r="V193">
+        <v>2.5</v>
+      </c>
+      <c r="W193">
+        <v>1.5</v>
+      </c>
+      <c r="X193">
+        <v>6</v>
+      </c>
+      <c r="Y193">
+        <v>1.13</v>
+      </c>
+      <c r="Z193">
+        <v>2.34</v>
+      </c>
+      <c r="AA193">
+        <v>3.2</v>
+      </c>
+      <c r="AB193">
+        <v>2.8</v>
+      </c>
+      <c r="AC193">
+        <v>1.02</v>
+      </c>
+      <c r="AD193">
+        <v>15</v>
+      </c>
+      <c r="AE193">
+        <v>1.16</v>
+      </c>
+      <c r="AF193">
+        <v>3.94</v>
+      </c>
+      <c r="AG193">
+        <v>1.8</v>
+      </c>
+      <c r="AH193">
+        <v>1.9</v>
+      </c>
+      <c r="AI193">
+        <v>1.57</v>
+      </c>
+      <c r="AJ193">
+        <v>2.25</v>
+      </c>
+      <c r="AK193">
+        <v>1.45</v>
+      </c>
+      <c r="AL193">
+        <v>1.22</v>
+      </c>
+      <c r="AM193">
+        <v>1.6</v>
+      </c>
+      <c r="AN193">
+        <v>1.55</v>
+      </c>
+      <c r="AO193">
+        <v>1.36</v>
+      </c>
+      <c r="AP193">
+        <v>1.5</v>
+      </c>
+      <c r="AQ193">
+        <v>1.33</v>
+      </c>
+      <c r="AR193">
+        <v>1.4</v>
+      </c>
+      <c r="AS193">
+        <v>1.44</v>
+      </c>
+      <c r="AT193">
+        <v>2.84</v>
+      </c>
+      <c r="AU193">
+        <v>2</v>
+      </c>
+      <c r="AV193">
+        <v>2</v>
+      </c>
+      <c r="AW193">
+        <v>0</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>2</v>
+      </c>
+      <c r="AZ193">
+        <v>2</v>
+      </c>
+      <c r="BA193">
+        <v>6</v>
+      </c>
+      <c r="BB193">
+        <v>8</v>
+      </c>
+      <c r="BC193">
+        <v>14</v>
+      </c>
+      <c r="BD193">
+        <v>1.98</v>
+      </c>
+      <c r="BE193">
+        <v>6.65</v>
+      </c>
+      <c r="BF193">
+        <v>2.22</v>
+      </c>
+      <c r="BG193">
+        <v>1.17</v>
+      </c>
+      <c r="BH193">
+        <v>4.35</v>
+      </c>
+      <c r="BI193">
+        <v>1.21</v>
+      </c>
+      <c r="BJ193">
+        <v>3.44</v>
+      </c>
+      <c r="BK193">
+        <v>1.41</v>
+      </c>
+      <c r="BL193">
+        <v>2.52</v>
+      </c>
+      <c r="BM193">
+        <v>1.75</v>
+      </c>
+      <c r="BN193">
+        <v>1.96</v>
+      </c>
+      <c r="BO193">
+        <v>2.14</v>
+      </c>
+      <c r="BP193">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,18 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['7', '24', '43']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['7', '56']</t>
+  </si>
+  <si>
+    <t>['8', '29', '50', '51']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -823,9 +835,6 @@
     <t>['25', '54']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -935,6 +944,15 @@
   </si>
   <si>
     <t>['58', '90']</t>
+  </si>
+  <si>
+    <t>['49', '51', '90+4']</t>
+  </si>
+  <si>
+    <t>['26', '37']</t>
+  </si>
+  <si>
+    <t>['4', '57']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP193"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1779,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1839,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
         <v>1.08</v>
@@ -2048,7 +2066,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2173,7 +2191,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2457,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ6">
         <v>0.83</v>
@@ -2585,7 +2603,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2869,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2997,7 +3015,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3284,7 +3302,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3409,7 +3427,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3615,7 +3633,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3899,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4108,7 +4126,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4311,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4645,7 +4663,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4723,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -5057,7 +5075,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5550,7 +5568,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ21">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5753,7 +5771,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
         <v>1.08</v>
@@ -5881,7 +5899,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5959,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -6087,7 +6105,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6783,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR27">
         <v>0.63</v>
@@ -6992,7 +7010,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR28">
         <v>1.15</v>
@@ -7117,7 +7135,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7323,7 +7341,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7404,7 +7422,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR30">
         <v>2.02</v>
@@ -7607,10 +7625,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR31">
         <v>1.22</v>
@@ -7813,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7941,7 +7959,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8019,7 +8037,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ33">
         <v>2.08</v>
@@ -8559,7 +8577,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8640,7 +8658,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR36">
         <v>1.08</v>
@@ -8765,7 +8783,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8843,7 +8861,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -9049,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
         <v>0.5</v>
@@ -9255,7 +9273,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9383,7 +9401,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9667,7 +9685,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -9876,7 +9894,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -10207,7 +10225,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10285,10 +10303,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR44">
         <v>1.82</v>
@@ -10494,7 +10512,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ45">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR45">
         <v>1.91</v>
@@ -11112,7 +11130,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -11237,7 +11255,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11315,7 +11333,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>2.08</v>
@@ -11649,7 +11667,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11855,7 +11873,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -11936,7 +11954,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR52">
         <v>1.67</v>
@@ -12061,7 +12079,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12473,7 +12491,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12551,10 +12569,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -12679,7 +12697,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12757,7 +12775,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ56">
         <v>0.5</v>
@@ -12963,7 +12981,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ57">
         <v>1.67</v>
@@ -13091,7 +13109,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13584,7 +13602,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR60">
         <v>1.54</v>
@@ -13787,7 +13805,7 @@
         <v>0.25</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -13915,7 +13933,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14121,7 +14139,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14199,7 +14217,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ63">
         <v>1.33</v>
@@ -14533,7 +14551,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14820,7 +14838,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14945,7 +14963,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15026,7 +15044,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR67">
         <v>1.81</v>
@@ -15151,7 +15169,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15232,7 +15250,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR68">
         <v>2.08</v>
@@ -15357,7 +15375,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15435,7 +15453,7 @@
         <v>0.75</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
         <v>0.83</v>
@@ -15563,7 +15581,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15641,10 +15659,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR70">
         <v>1.65</v>
@@ -15769,7 +15787,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15847,7 +15865,7 @@
         <v>1.25</v>
       </c>
       <c r="AP71">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ71">
         <v>1.08</v>
@@ -16181,7 +16199,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16259,7 +16277,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ73">
         <v>1.67</v>
@@ -16387,7 +16405,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16465,7 +16483,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -16593,7 +16611,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16799,7 +16817,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17005,7 +17023,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17289,10 +17307,10 @@
         <v>1.6</v>
       </c>
       <c r="AP78">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR78">
         <v>1.64</v>
@@ -17417,7 +17435,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17498,7 +17516,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ79">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR79">
         <v>1.74</v>
@@ -17907,7 +17925,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18035,7 +18053,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18113,7 +18131,7 @@
         <v>1.6</v>
       </c>
       <c r="AP82">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ82">
         <v>1.08</v>
@@ -18319,7 +18337,7 @@
         <v>1.6</v>
       </c>
       <c r="AP83">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ83">
         <v>1.33</v>
@@ -18447,7 +18465,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18528,7 +18546,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ84">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18734,7 +18752,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR85">
         <v>1.47</v>
@@ -18859,7 +18877,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18937,7 +18955,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ86">
         <v>0.83</v>
@@ -19143,10 +19161,10 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR87">
         <v>1.65</v>
@@ -19271,7 +19289,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19477,7 +19495,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19761,10 +19779,10 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90">
         <v>1.68</v>
@@ -19889,7 +19907,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19970,7 +19988,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR91">
         <v>1.45</v>
@@ -20095,7 +20113,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20173,7 +20191,7 @@
         <v>1.2</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ92">
         <v>1.67</v>
@@ -20585,7 +20603,7 @@
         <v>0.4</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
         <v>0.5</v>
@@ -21331,7 +21349,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21821,10 +21839,10 @@
         <v>0.17</v>
       </c>
       <c r="AP100">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ100">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR100">
         <v>1.3</v>
@@ -21949,7 +21967,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22030,7 +22048,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
         <v>1.1</v>
@@ -22155,7 +22173,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22233,10 +22251,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ102">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR102">
         <v>0.86</v>
@@ -22645,10 +22663,10 @@
         <v>1.2</v>
       </c>
       <c r="AP104">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ104">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR104">
         <v>1.44</v>
@@ -22773,7 +22791,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23057,7 +23075,7 @@
         <v>0.83</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23185,7 +23203,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23263,10 +23281,10 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ107">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR107">
         <v>1.45</v>
@@ -23469,10 +23487,10 @@
         <v>1.29</v>
       </c>
       <c r="AP108">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ108">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR108">
         <v>1.94</v>
@@ -23597,7 +23615,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23803,7 +23821,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -24009,7 +24027,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24293,7 +24311,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
         <v>0.83</v>
@@ -24421,7 +24439,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24627,7 +24645,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24708,7 +24726,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR114">
         <v>1.35</v>
@@ -24914,7 +24932,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ115">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR115">
         <v>2.2</v>
@@ -25039,7 +25057,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25323,7 +25341,7 @@
         <v>0.83</v>
       </c>
       <c r="AP117">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ117">
         <v>1.33</v>
@@ -25451,7 +25469,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25657,7 +25675,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -25941,7 +25959,7 @@
         <v>1.14</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ120">
         <v>1.33</v>
@@ -26069,7 +26087,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26150,7 +26168,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ121">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR121">
         <v>1.16</v>
@@ -26275,7 +26293,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26356,7 +26374,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ122">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR122">
         <v>1.51</v>
@@ -26481,7 +26499,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26765,7 +26783,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ124">
         <v>0.83</v>
@@ -26893,7 +26911,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -26974,7 +26992,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27099,7 +27117,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27180,7 +27198,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ126">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR126">
         <v>1.56</v>
@@ -27383,7 +27401,7 @@
         <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ127">
         <v>0.5</v>
@@ -27511,7 +27529,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27589,7 +27607,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>0.83</v>
@@ -27717,7 +27735,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27795,7 +27813,7 @@
         <v>1.57</v>
       </c>
       <c r="AP129">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -28129,7 +28147,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28207,7 +28225,7 @@
         <v>0.63</v>
       </c>
       <c r="AP131">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ131">
         <v>0.5</v>
@@ -28335,7 +28353,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28413,7 +28431,7 @@
         <v>0.89</v>
       </c>
       <c r="AP132">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ132">
         <v>0.83</v>
@@ -28622,7 +28640,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ133">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28747,7 +28765,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28953,7 +28971,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29031,7 +29049,7 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ135">
         <v>1.33</v>
@@ -29159,7 +29177,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29240,7 +29258,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ136">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR136">
         <v>1.73</v>
@@ -29365,7 +29383,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29649,7 +29667,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ138">
         <v>0.83</v>
@@ -29777,7 +29795,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29983,7 +30001,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30064,7 +30082,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR140">
         <v>1.51</v>
@@ -30395,7 +30413,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30476,7 +30494,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ142">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR142">
         <v>1.53</v>
@@ -30601,7 +30619,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30679,7 +30697,7 @@
         <v>0.63</v>
       </c>
       <c r="AP143">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
         <v>0.5</v>
@@ -30888,7 +30906,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ144">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR144">
         <v>1.52</v>
@@ -31013,7 +31031,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31091,7 +31109,7 @@
         <v>1.25</v>
       </c>
       <c r="AP145">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ145">
         <v>1.67</v>
@@ -31300,7 +31318,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ146">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR146">
         <v>1.12</v>
@@ -32043,7 +32061,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32121,7 +32139,7 @@
         <v>2</v>
       </c>
       <c r="AP150">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ150">
         <v>2.08</v>
@@ -32327,10 +32345,10 @@
         <v>0.67</v>
       </c>
       <c r="AP151">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ151">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR151">
         <v>1.65</v>
@@ -32455,7 +32473,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32533,7 +32551,7 @@
         <v>1.22</v>
       </c>
       <c r="AP152">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ152">
         <v>1.33</v>
@@ -32742,7 +32760,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ153">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -32867,7 +32885,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -33360,7 +33378,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ156">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR156">
         <v>1.46</v>
@@ -33485,7 +33503,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33563,7 +33581,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ157">
         <v>1.67</v>
@@ -33691,7 +33709,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -34103,7 +34121,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34309,7 +34327,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34387,7 +34405,7 @@
         <v>2.11</v>
       </c>
       <c r="AP161">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ161">
         <v>2.08</v>
@@ -34593,10 +34611,10 @@
         <v>0.2</v>
       </c>
       <c r="AP162">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ162">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR162">
         <v>1.69</v>
@@ -34799,7 +34817,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ163">
         <v>0.5</v>
@@ -35133,7 +35151,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35214,7 +35232,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ165">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR165">
         <v>2.15</v>
@@ -35339,7 +35357,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35420,7 +35438,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ166">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR166">
         <v>1.53</v>
@@ -35545,7 +35563,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35623,10 +35641,10 @@
         <v>1.1</v>
       </c>
       <c r="AP167">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR167">
         <v>1.54</v>
@@ -35751,7 +35769,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -35829,10 +35847,10 @@
         <v>0.6</v>
       </c>
       <c r="AP168">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ168">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR168">
         <v>1.02</v>
@@ -35957,7 +35975,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -36035,7 +36053,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ169">
         <v>1.33</v>
@@ -36781,7 +36799,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q173">
         <v>2.63</v>
@@ -36987,7 +37005,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37399,7 +37417,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q176">
         <v>1.73</v>
@@ -37605,7 +37623,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q177">
         <v>3.15</v>
@@ -37892,7 +37910,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ178">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR178">
         <v>1.7</v>
@@ -38017,7 +38035,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q179">
         <v>1.92</v>
@@ -38098,7 +38116,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ179">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR179">
         <v>2.06</v>
@@ -38223,7 +38241,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38301,7 +38319,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ180">
         <v>1</v>
@@ -38507,7 +38525,7 @@
         <v>1.09</v>
       </c>
       <c r="AP181">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ181">
         <v>1.08</v>
@@ -38713,10 +38731,10 @@
         <v>1</v>
       </c>
       <c r="AP182">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ182">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR182">
         <v>1.7</v>
@@ -38919,7 +38937,7 @@
         <v>0.82</v>
       </c>
       <c r="AP183">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ183">
         <v>0.83</v>
@@ -39047,7 +39065,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q184">
         <v>3.3</v>
@@ -39125,10 +39143,10 @@
         <v>1.91</v>
       </c>
       <c r="AP184">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR184">
         <v>1.69</v>
@@ -39331,10 +39349,10 @@
         <v>0.82</v>
       </c>
       <c r="AP185">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ185">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR185">
         <v>2.21</v>
@@ -39459,7 +39477,7 @@
         <v>149</v>
       </c>
       <c r="P186" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q186">
         <v>2.05</v>
@@ -39665,7 +39683,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -40283,7 +40301,7 @@
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q190">
         <v>4.75</v>
@@ -40456,7 +40474,7 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45559.58333333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F191">
         <v>24</v>
@@ -40582,22 +40600,22 @@
         <v>3.19</v>
       </c>
       <c r="AU191">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW191">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AX191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY191">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ191">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA191">
         <v>7</v>
@@ -40662,7 +40680,7 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45559.58333333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F192">
         <v>24</v>
@@ -40868,7 +40886,7 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45559.58333333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F193">
         <v>24</v>
@@ -40994,22 +41012,22 @@
         <v>2.84</v>
       </c>
       <c r="AU193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX193">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY193">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AZ193">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BA193">
         <v>6</v>
@@ -41058,6 +41076,1242 @@
       </c>
       <c r="BP193">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7296724</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45562.875</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
+      </c>
+      <c r="H194" t="s">
+        <v>79</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194">
+        <v>3</v>
+      </c>
+      <c r="N194">
+        <v>6</v>
+      </c>
+      <c r="O194" t="s">
+        <v>216</v>
+      </c>
+      <c r="P194" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q194">
+        <v>2.62</v>
+      </c>
+      <c r="R194">
+        <v>2.39</v>
+      </c>
+      <c r="S194">
+        <v>3.71</v>
+      </c>
+      <c r="T194">
+        <v>1.33</v>
+      </c>
+      <c r="U194">
+        <v>2.95</v>
+      </c>
+      <c r="V194">
+        <v>2.35</v>
+      </c>
+      <c r="W194">
+        <v>1.5</v>
+      </c>
+      <c r="X194">
+        <v>5.65</v>
+      </c>
+      <c r="Y194">
+        <v>1.12</v>
+      </c>
+      <c r="Z194">
+        <v>2.08</v>
+      </c>
+      <c r="AA194">
+        <v>3.62</v>
+      </c>
+      <c r="AB194">
+        <v>3.2</v>
+      </c>
+      <c r="AC194">
+        <v>1.03</v>
+      </c>
+      <c r="AD194">
+        <v>9</v>
+      </c>
+      <c r="AE194">
+        <v>1.16</v>
+      </c>
+      <c r="AF194">
+        <v>3.96</v>
+      </c>
+      <c r="AG194">
+        <v>1.65</v>
+      </c>
+      <c r="AH194">
+        <v>2.2</v>
+      </c>
+      <c r="AI194">
+        <v>1.57</v>
+      </c>
+      <c r="AJ194">
+        <v>2.3</v>
+      </c>
+      <c r="AK194">
+        <v>1.33</v>
+      </c>
+      <c r="AL194">
+        <v>1.29</v>
+      </c>
+      <c r="AM194">
+        <v>1.7</v>
+      </c>
+      <c r="AN194">
+        <v>1.42</v>
+      </c>
+      <c r="AO194">
+        <v>1</v>
+      </c>
+      <c r="AP194">
+        <v>1.38</v>
+      </c>
+      <c r="AQ194">
+        <v>1</v>
+      </c>
+      <c r="AR194">
+        <v>1.65</v>
+      </c>
+      <c r="AS194">
+        <v>1.42</v>
+      </c>
+      <c r="AT194">
+        <v>3.07</v>
+      </c>
+      <c r="AU194">
+        <v>7</v>
+      </c>
+      <c r="AV194">
+        <v>6</v>
+      </c>
+      <c r="AW194">
+        <v>7</v>
+      </c>
+      <c r="AX194">
+        <v>5</v>
+      </c>
+      <c r="AY194">
+        <v>14</v>
+      </c>
+      <c r="AZ194">
+        <v>11</v>
+      </c>
+      <c r="BA194">
+        <v>5</v>
+      </c>
+      <c r="BB194">
+        <v>5</v>
+      </c>
+      <c r="BC194">
+        <v>10</v>
+      </c>
+      <c r="BD194">
+        <v>1.49</v>
+      </c>
+      <c r="BE194">
+        <v>7</v>
+      </c>
+      <c r="BF194">
+        <v>2.65</v>
+      </c>
+      <c r="BG194">
+        <v>1.13</v>
+      </c>
+      <c r="BH194">
+        <v>4.9</v>
+      </c>
+      <c r="BI194">
+        <v>1.24</v>
+      </c>
+      <c r="BJ194">
+        <v>3.55</v>
+      </c>
+      <c r="BK194">
+        <v>1.42</v>
+      </c>
+      <c r="BL194">
+        <v>2.65</v>
+      </c>
+      <c r="BM194">
+        <v>1.66</v>
+      </c>
+      <c r="BN194">
+        <v>2.07</v>
+      </c>
+      <c r="BO194">
+        <v>1.98</v>
+      </c>
+      <c r="BP194">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7296725</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45562.875</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>74</v>
+      </c>
+      <c r="H195" t="s">
+        <v>72</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>217</v>
+      </c>
+      <c r="P195" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q195">
+        <v>2.96</v>
+      </c>
+      <c r="R195">
+        <v>2.33</v>
+      </c>
+      <c r="S195">
+        <v>3.33</v>
+      </c>
+      <c r="T195">
+        <v>1.33</v>
+      </c>
+      <c r="U195">
+        <v>3.25</v>
+      </c>
+      <c r="V195">
+        <v>2.5</v>
+      </c>
+      <c r="W195">
+        <v>1.5</v>
+      </c>
+      <c r="X195">
+        <v>5.5</v>
+      </c>
+      <c r="Y195">
+        <v>1.12</v>
+      </c>
+      <c r="Z195">
+        <v>2.38</v>
+      </c>
+      <c r="AA195">
+        <v>3.45</v>
+      </c>
+      <c r="AB195">
+        <v>2.78</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>11.3</v>
+      </c>
+      <c r="AE195">
+        <v>1.18</v>
+      </c>
+      <c r="AF195">
+        <v>3.74</v>
+      </c>
+      <c r="AG195">
+        <v>1.71</v>
+      </c>
+      <c r="AH195">
+        <v>2.1</v>
+      </c>
+      <c r="AI195">
+        <v>1.6</v>
+      </c>
+      <c r="AJ195">
+        <v>2.25</v>
+      </c>
+      <c r="AK195">
+        <v>1.4</v>
+      </c>
+      <c r="AL195">
+        <v>1.3</v>
+      </c>
+      <c r="AM195">
+        <v>1.53</v>
+      </c>
+      <c r="AN195">
+        <v>1.83</v>
+      </c>
+      <c r="AO195">
+        <v>1.75</v>
+      </c>
+      <c r="AP195">
+        <v>1.92</v>
+      </c>
+      <c r="AQ195">
+        <v>1.62</v>
+      </c>
+      <c r="AR195">
+        <v>1.65</v>
+      </c>
+      <c r="AS195">
+        <v>1.65</v>
+      </c>
+      <c r="AT195">
+        <v>3.3</v>
+      </c>
+      <c r="AU195">
+        <v>-1</v>
+      </c>
+      <c r="AV195">
+        <v>-1</v>
+      </c>
+      <c r="AW195">
+        <v>-1</v>
+      </c>
+      <c r="AX195">
+        <v>-1</v>
+      </c>
+      <c r="AY195">
+        <v>-1</v>
+      </c>
+      <c r="AZ195">
+        <v>-1</v>
+      </c>
+      <c r="BA195">
+        <v>-1</v>
+      </c>
+      <c r="BB195">
+        <v>-1</v>
+      </c>
+      <c r="BC195">
+        <v>-1</v>
+      </c>
+      <c r="BD195">
+        <v>1.82</v>
+      </c>
+      <c r="BE195">
+        <v>6.25</v>
+      </c>
+      <c r="BF195">
+        <v>2.08</v>
+      </c>
+      <c r="BG195">
+        <v>1.33</v>
+      </c>
+      <c r="BH195">
+        <v>3.55</v>
+      </c>
+      <c r="BI195">
+        <v>1.3</v>
+      </c>
+      <c r="BJ195">
+        <v>2.88</v>
+      </c>
+      <c r="BK195">
+        <v>1.56</v>
+      </c>
+      <c r="BL195">
+        <v>2.16</v>
+      </c>
+      <c r="BM195">
+        <v>1.98</v>
+      </c>
+      <c r="BN195">
+        <v>1.74</v>
+      </c>
+      <c r="BO195">
+        <v>2.49</v>
+      </c>
+      <c r="BP195">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7296731</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45563.41666666666</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>81</v>
+      </c>
+      <c r="H196" t="s">
+        <v>73</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>218</v>
+      </c>
+      <c r="P196" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q196">
+        <v>2</v>
+      </c>
+      <c r="R196">
+        <v>2.3</v>
+      </c>
+      <c r="S196">
+        <v>5</v>
+      </c>
+      <c r="T196">
+        <v>1.27</v>
+      </c>
+      <c r="U196">
+        <v>3.3</v>
+      </c>
+      <c r="V196">
+        <v>2.32</v>
+      </c>
+      <c r="W196">
+        <v>1.53</v>
+      </c>
+      <c r="X196">
+        <v>5.1</v>
+      </c>
+      <c r="Y196">
+        <v>1.12</v>
+      </c>
+      <c r="Z196">
+        <v>1.55</v>
+      </c>
+      <c r="AA196">
+        <v>4.25</v>
+      </c>
+      <c r="AB196">
+        <v>5.3</v>
+      </c>
+      <c r="AC196">
+        <v>1.01</v>
+      </c>
+      <c r="AD196">
+        <v>13</v>
+      </c>
+      <c r="AE196">
+        <v>1.14</v>
+      </c>
+      <c r="AF196">
+        <v>4.8</v>
+      </c>
+      <c r="AG196">
+        <v>1.64</v>
+      </c>
+      <c r="AH196">
+        <v>2.22</v>
+      </c>
+      <c r="AI196">
+        <v>1.65</v>
+      </c>
+      <c r="AJ196">
+        <v>2.2</v>
+      </c>
+      <c r="AK196">
+        <v>1.14</v>
+      </c>
+      <c r="AL196">
+        <v>1.2</v>
+      </c>
+      <c r="AM196">
+        <v>2.28</v>
+      </c>
+      <c r="AN196">
+        <v>2.25</v>
+      </c>
+      <c r="AO196">
+        <v>1.17</v>
+      </c>
+      <c r="AP196">
+        <v>2.31</v>
+      </c>
+      <c r="AQ196">
+        <v>1.08</v>
+      </c>
+      <c r="AR196">
+        <v>2.25</v>
+      </c>
+      <c r="AS196">
+        <v>1.51</v>
+      </c>
+      <c r="AT196">
+        <v>3.76</v>
+      </c>
+      <c r="AU196">
+        <v>3</v>
+      </c>
+      <c r="AV196">
+        <v>7</v>
+      </c>
+      <c r="AW196">
+        <v>8</v>
+      </c>
+      <c r="AX196">
+        <v>8</v>
+      </c>
+      <c r="AY196">
+        <v>11</v>
+      </c>
+      <c r="AZ196">
+        <v>15</v>
+      </c>
+      <c r="BA196">
+        <v>5</v>
+      </c>
+      <c r="BB196">
+        <v>3</v>
+      </c>
+      <c r="BC196">
+        <v>8</v>
+      </c>
+      <c r="BD196">
+        <v>1.48</v>
+      </c>
+      <c r="BE196">
+        <v>7</v>
+      </c>
+      <c r="BF196">
+        <v>2.7</v>
+      </c>
+      <c r="BG196">
+        <v>1.16</v>
+      </c>
+      <c r="BH196">
+        <v>4.4</v>
+      </c>
+      <c r="BI196">
+        <v>1.29</v>
+      </c>
+      <c r="BJ196">
+        <v>3.15</v>
+      </c>
+      <c r="BK196">
+        <v>1.49</v>
+      </c>
+      <c r="BL196">
+        <v>2.43</v>
+      </c>
+      <c r="BM196">
+        <v>1.76</v>
+      </c>
+      <c r="BN196">
+        <v>1.93</v>
+      </c>
+      <c r="BO196">
+        <v>2.17</v>
+      </c>
+      <c r="BP196">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7296728</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45563.41666666666</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>83</v>
+      </c>
+      <c r="H197" t="s">
+        <v>70</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>90</v>
+      </c>
+      <c r="P197" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q197">
+        <v>3.15</v>
+      </c>
+      <c r="R197">
+        <v>2.2</v>
+      </c>
+      <c r="S197">
+        <v>2.95</v>
+      </c>
+      <c r="T197">
+        <v>1.35</v>
+      </c>
+      <c r="U197">
+        <v>3.05</v>
+      </c>
+      <c r="V197">
+        <v>2.65</v>
+      </c>
+      <c r="W197">
+        <v>1.44</v>
+      </c>
+      <c r="X197">
+        <v>6.1</v>
+      </c>
+      <c r="Y197">
+        <v>1.08</v>
+      </c>
+      <c r="Z197">
+        <v>2.66</v>
+      </c>
+      <c r="AA197">
+        <v>3.36</v>
+      </c>
+      <c r="AB197">
+        <v>2.52</v>
+      </c>
+      <c r="AC197">
+        <v>1.01</v>
+      </c>
+      <c r="AD197">
+        <v>12</v>
+      </c>
+      <c r="AE197">
+        <v>1.22</v>
+      </c>
+      <c r="AF197">
+        <v>3.85</v>
+      </c>
+      <c r="AG197">
+        <v>1.8</v>
+      </c>
+      <c r="AH197">
+        <v>1.85</v>
+      </c>
+      <c r="AI197">
+        <v>1.65</v>
+      </c>
+      <c r="AJ197">
+        <v>2.1</v>
+      </c>
+      <c r="AK197">
+        <v>1.49</v>
+      </c>
+      <c r="AL197">
+        <v>1.3</v>
+      </c>
+      <c r="AM197">
+        <v>1.46</v>
+      </c>
+      <c r="AN197">
+        <v>1</v>
+      </c>
+      <c r="AO197">
+        <v>0.5</v>
+      </c>
+      <c r="AP197">
+        <v>0.92</v>
+      </c>
+      <c r="AQ197">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR197">
+        <v>1.09</v>
+      </c>
+      <c r="AS197">
+        <v>1.21</v>
+      </c>
+      <c r="AT197">
+        <v>2.3</v>
+      </c>
+      <c r="AU197">
+        <v>5</v>
+      </c>
+      <c r="AV197">
+        <v>8</v>
+      </c>
+      <c r="AW197">
+        <v>12</v>
+      </c>
+      <c r="AX197">
+        <v>2</v>
+      </c>
+      <c r="AY197">
+        <v>17</v>
+      </c>
+      <c r="AZ197">
+        <v>10</v>
+      </c>
+      <c r="BA197">
+        <v>4</v>
+      </c>
+      <c r="BB197">
+        <v>4</v>
+      </c>
+      <c r="BC197">
+        <v>8</v>
+      </c>
+      <c r="BD197">
+        <v>1.95</v>
+      </c>
+      <c r="BE197">
+        <v>6.25</v>
+      </c>
+      <c r="BF197">
+        <v>1.95</v>
+      </c>
+      <c r="BG197">
+        <v>1.32</v>
+      </c>
+      <c r="BH197">
+        <v>3.05</v>
+      </c>
+      <c r="BI197">
+        <v>1.57</v>
+      </c>
+      <c r="BJ197">
+        <v>2.23</v>
+      </c>
+      <c r="BK197">
+        <v>1.92</v>
+      </c>
+      <c r="BL197">
+        <v>1.77</v>
+      </c>
+      <c r="BM197">
+        <v>2.43</v>
+      </c>
+      <c r="BN197">
+        <v>1.49</v>
+      </c>
+      <c r="BO197">
+        <v>3.15</v>
+      </c>
+      <c r="BP197">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7296727</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45563.5</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>76</v>
+      </c>
+      <c r="H198" t="s">
+        <v>80</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>155</v>
+      </c>
+      <c r="P198" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q198">
+        <v>2.7</v>
+      </c>
+      <c r="R198">
+        <v>2.25</v>
+      </c>
+      <c r="S198">
+        <v>3.4</v>
+      </c>
+      <c r="T198">
+        <v>1.28</v>
+      </c>
+      <c r="U198">
+        <v>3.44</v>
+      </c>
+      <c r="V198">
+        <v>2.34</v>
+      </c>
+      <c r="W198">
+        <v>1.56</v>
+      </c>
+      <c r="X198">
+        <v>5.4</v>
+      </c>
+      <c r="Y198">
+        <v>1.13</v>
+      </c>
+      <c r="Z198">
+        <v>1.98</v>
+      </c>
+      <c r="AA198">
+        <v>3.73</v>
+      </c>
+      <c r="AB198">
+        <v>3.35</v>
+      </c>
+      <c r="AC198">
+        <v>1.01</v>
+      </c>
+      <c r="AD198">
+        <v>13</v>
+      </c>
+      <c r="AE198">
+        <v>1.14</v>
+      </c>
+      <c r="AF198">
+        <v>4.8</v>
+      </c>
+      <c r="AG198">
+        <v>1.61</v>
+      </c>
+      <c r="AH198">
+        <v>2.27</v>
+      </c>
+      <c r="AI198">
+        <v>1.5</v>
+      </c>
+      <c r="AJ198">
+        <v>2.55</v>
+      </c>
+      <c r="AK198">
+        <v>1.36</v>
+      </c>
+      <c r="AL198">
+        <v>1.28</v>
+      </c>
+      <c r="AM198">
+        <v>1.66</v>
+      </c>
+      <c r="AN198">
+        <v>1.75</v>
+      </c>
+      <c r="AO198">
+        <v>0.92</v>
+      </c>
+      <c r="AP198">
+        <v>1.62</v>
+      </c>
+      <c r="AQ198">
+        <v>1.08</v>
+      </c>
+      <c r="AR198">
+        <v>1.76</v>
+      </c>
+      <c r="AS198">
+        <v>1.47</v>
+      </c>
+      <c r="AT198">
+        <v>3.23</v>
+      </c>
+      <c r="AU198">
+        <v>2</v>
+      </c>
+      <c r="AV198">
+        <v>3</v>
+      </c>
+      <c r="AW198">
+        <v>3</v>
+      </c>
+      <c r="AX198">
+        <v>3</v>
+      </c>
+      <c r="AY198">
+        <v>5</v>
+      </c>
+      <c r="AZ198">
+        <v>6</v>
+      </c>
+      <c r="BA198">
+        <v>6</v>
+      </c>
+      <c r="BB198">
+        <v>4</v>
+      </c>
+      <c r="BC198">
+        <v>10</v>
+      </c>
+      <c r="BD198">
+        <v>1.71</v>
+      </c>
+      <c r="BE198">
+        <v>6.75</v>
+      </c>
+      <c r="BF198">
+        <v>2.2</v>
+      </c>
+      <c r="BG198">
+        <v>1.17</v>
+      </c>
+      <c r="BH198">
+        <v>4.4</v>
+      </c>
+      <c r="BI198">
+        <v>1.29</v>
+      </c>
+      <c r="BJ198">
+        <v>3.15</v>
+      </c>
+      <c r="BK198">
+        <v>1.49</v>
+      </c>
+      <c r="BL198">
+        <v>2.4</v>
+      </c>
+      <c r="BM198">
+        <v>1.78</v>
+      </c>
+      <c r="BN198">
+        <v>1.91</v>
+      </c>
+      <c r="BO198">
+        <v>2.18</v>
+      </c>
+      <c r="BP198">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7296726</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45564.41666666666</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>85</v>
+      </c>
+      <c r="H199" t="s">
+        <v>75</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199" t="s">
+        <v>219</v>
+      </c>
+      <c r="P199" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q199">
+        <v>1.93</v>
+      </c>
+      <c r="R199">
+        <v>2.56</v>
+      </c>
+      <c r="S199">
+        <v>6.16</v>
+      </c>
+      <c r="T199">
+        <v>1.29</v>
+      </c>
+      <c r="U199">
+        <v>3.4</v>
+      </c>
+      <c r="V199">
+        <v>2.38</v>
+      </c>
+      <c r="W199">
+        <v>1.54</v>
+      </c>
+      <c r="X199">
+        <v>5.6</v>
+      </c>
+      <c r="Y199">
+        <v>1.12</v>
+      </c>
+      <c r="Z199">
+        <v>1.4</v>
+      </c>
+      <c r="AA199">
+        <v>4.2</v>
+      </c>
+      <c r="AB199">
+        <v>5.75</v>
+      </c>
+      <c r="AC199">
+        <v>1.01</v>
+      </c>
+      <c r="AD199">
+        <v>11.5</v>
+      </c>
+      <c r="AE199">
+        <v>1.16</v>
+      </c>
+      <c r="AF199">
+        <v>3.94</v>
+      </c>
+      <c r="AG199">
+        <v>1.55</v>
+      </c>
+      <c r="AH199">
+        <v>2.2</v>
+      </c>
+      <c r="AI199">
+        <v>1.76</v>
+      </c>
+      <c r="AJ199">
+        <v>1.95</v>
+      </c>
+      <c r="AK199">
+        <v>1.11</v>
+      </c>
+      <c r="AL199">
+        <v>1.18</v>
+      </c>
+      <c r="AM199">
+        <v>2.58</v>
+      </c>
+      <c r="AN199">
+        <v>1.25</v>
+      </c>
+      <c r="AO199">
+        <v>0.75</v>
+      </c>
+      <c r="AP199">
+        <v>1.38</v>
+      </c>
+      <c r="AQ199">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR199">
+        <v>1.53</v>
+      </c>
+      <c r="AS199">
+        <v>1.3</v>
+      </c>
+      <c r="AT199">
+        <v>2.83</v>
+      </c>
+      <c r="AU199">
+        <v>11</v>
+      </c>
+      <c r="AV199">
+        <v>2</v>
+      </c>
+      <c r="AW199">
+        <v>7</v>
+      </c>
+      <c r="AX199">
+        <v>6</v>
+      </c>
+      <c r="AY199">
+        <v>18</v>
+      </c>
+      <c r="AZ199">
+        <v>8</v>
+      </c>
+      <c r="BA199">
+        <v>6</v>
+      </c>
+      <c r="BB199">
+        <v>5</v>
+      </c>
+      <c r="BC199">
+        <v>11</v>
+      </c>
+      <c r="BD199">
+        <v>1.45</v>
+      </c>
+      <c r="BE199">
+        <v>6.75</v>
+      </c>
+      <c r="BF199">
+        <v>2.8</v>
+      </c>
+      <c r="BG199">
+        <v>1.17</v>
+      </c>
+      <c r="BH199">
+        <v>4.35</v>
+      </c>
+      <c r="BI199">
+        <v>1.29</v>
+      </c>
+      <c r="BJ199">
+        <v>3.2</v>
+      </c>
+      <c r="BK199">
+        <v>1.49</v>
+      </c>
+      <c r="BL199">
+        <v>2.4</v>
+      </c>
+      <c r="BM199">
+        <v>1.76</v>
+      </c>
+      <c r="BN199">
+        <v>1.94</v>
+      </c>
+      <c r="BO199">
+        <v>2.17</v>
+      </c>
+      <c r="BP199">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,16 +664,19 @@
     <t>['84']</t>
   </si>
   <si>
-    <t>['7', '24', '43']</t>
+    <t>['7', '56']</t>
   </si>
   <si>
     <t>['87']</t>
   </si>
   <si>
-    <t>['7', '56']</t>
+    <t>['7', '24', '43']</t>
   </si>
   <si>
     <t>['8', '29', '50', '51']</t>
+  </si>
+  <si>
+    <t>['21', '24', '72', '78', '88']</t>
   </si>
   <si>
     <t>['23', '51']</t>
@@ -946,13 +949,19 @@
     <t>['58', '90']</t>
   </si>
   <si>
-    <t>['49', '51', '90+4']</t>
+    <t>['4', '57']</t>
   </si>
   <si>
     <t>['26', '37']</t>
   </si>
   <si>
-    <t>['4', '57']</t>
+    <t>['49', '51', '90+4']</t>
+  </si>
+  <si>
+    <t>['6', '89']</t>
+  </si>
+  <si>
+    <t>['74', '80']</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1779,7 +1788,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1860,7 +1869,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2191,7 +2200,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2272,7 +2281,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ5">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2603,7 +2612,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3015,7 +3024,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3093,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -3299,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ10">
         <v>1.08</v>
@@ -3427,7 +3436,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3633,7 +3642,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4663,7 +4672,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -5075,7 +5084,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5156,7 +5165,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.38</v>
@@ -5774,7 +5783,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.49</v>
@@ -5899,7 +5908,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6105,7 +6114,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6389,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -7135,7 +7144,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7213,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7341,7 +7350,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7959,7 +7968,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8452,7 +8461,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8577,7 +8586,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8783,7 +8792,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9401,7 +9410,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9688,7 +9697,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.02</v>
@@ -10225,7 +10234,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10509,7 +10518,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ45">
         <v>0.6899999999999999</v>
@@ -10921,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -11255,7 +11264,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11539,10 +11548,10 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>2.24</v>
@@ -11667,7 +11676,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11748,7 +11757,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ51">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -11873,7 +11882,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -12079,7 +12088,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12491,7 +12500,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12697,7 +12706,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13109,7 +13118,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13933,7 +13942,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14139,7 +14148,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14551,7 +14560,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14963,7 +14972,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15041,7 +15050,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ67">
         <v>0.6899999999999999</v>
@@ -15169,7 +15178,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15247,7 +15256,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ68">
         <v>1.62</v>
@@ -15375,7 +15384,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15581,7 +15590,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15787,7 +15796,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -15868,7 +15877,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ71">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -16074,7 +16083,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.24</v>
@@ -16199,7 +16208,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16405,7 +16414,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16611,7 +16620,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16817,7 +16826,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17023,7 +17032,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17435,7 +17444,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -18053,7 +18062,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18134,7 +18143,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ82">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18465,7 +18474,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18543,7 +18552,7 @@
         <v>0.6</v>
       </c>
       <c r="AP84">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ84">
         <v>1.08</v>
@@ -18877,7 +18886,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -18958,7 +18967,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19289,7 +19298,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19495,7 +19504,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19907,7 +19916,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20113,7 +20122,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20809,7 +20818,7 @@
         <v>0.67</v>
       </c>
       <c r="AP95">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ95">
         <v>0.5</v>
@@ -21018,7 +21027,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ96">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21349,7 +21358,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21633,10 +21642,10 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ99">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21967,7 +21976,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22173,7 +22182,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22457,7 +22466,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ103">
         <v>2.08</v>
@@ -22791,7 +22800,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23203,7 +23212,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23615,7 +23624,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23821,7 +23830,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23902,7 +23911,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -24027,7 +24036,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24439,7 +24448,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24645,7 +24654,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24929,7 +24938,7 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ115">
         <v>0.6899999999999999</v>
@@ -25057,7 +25066,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25469,7 +25478,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25550,7 +25559,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>1.45</v>
@@ -25753,7 +25762,7 @@
         <v>1.43</v>
       </c>
       <c r="AP119">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ119">
         <v>1.67</v>
@@ -26087,7 +26096,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26293,7 +26302,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26499,7 +26508,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26577,7 +26586,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26911,7 +26920,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27117,7 +27126,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27529,7 +27538,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27610,7 +27619,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.81</v>
@@ -27735,7 +27744,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28022,7 +28031,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ130">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28147,7 +28156,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28353,7 +28362,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28434,7 +28443,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ132">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>2.21</v>
@@ -28765,7 +28774,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28971,7 +28980,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29177,7 +29186,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29383,7 +29392,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29461,7 +29470,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ137">
         <v>1.33</v>
@@ -29795,7 +29804,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30001,7 +30010,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30285,7 +30294,7 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ141">
         <v>1.33</v>
@@ -30413,7 +30422,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30619,7 +30628,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -31031,7 +31040,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31524,7 +31533,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ147">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.56</v>
@@ -31933,7 +31942,7 @@
         <v>1.13</v>
       </c>
       <c r="AP149">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ149">
         <v>1.33</v>
@@ -32061,7 +32070,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32473,7 +32482,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32885,7 +32894,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -32963,7 +32972,7 @@
         <v>0.78</v>
       </c>
       <c r="AP154">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ154">
         <v>0.83</v>
@@ -33503,7 +33512,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33709,7 +33718,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -33996,7 +34005,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ159">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.44</v>
@@ -34121,7 +34130,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34327,7 +34336,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -35026,7 +35035,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ164">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.12</v>
@@ -35151,7 +35160,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35229,7 +35238,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ165">
         <v>1.08</v>
@@ -35357,7 +35366,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35563,7 +35572,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35769,7 +35778,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -35975,7 +35984,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -36671,7 +36680,7 @@
         <v>2.2</v>
       </c>
       <c r="AP172">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ172">
         <v>2.08</v>
@@ -36799,7 +36808,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q173">
         <v>2.63</v>
@@ -37005,7 +37014,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37417,7 +37426,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q176">
         <v>1.73</v>
@@ -37623,7 +37632,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q177">
         <v>3.15</v>
@@ -37907,7 +37916,7 @@
         <v>0.27</v>
       </c>
       <c r="AP178">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AQ178">
         <v>0.6899999999999999</v>
@@ -38035,7 +38044,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q179">
         <v>1.92</v>
@@ -38113,7 +38122,7 @@
         <v>1.27</v>
       </c>
       <c r="AP179">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ179">
         <v>1.08</v>
@@ -38241,7 +38250,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38528,7 +38537,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ181">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR181">
         <v>1.7</v>
@@ -38940,7 +38949,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ183">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR183">
         <v>1.53</v>
@@ -39065,7 +39074,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q184">
         <v>3.3</v>
@@ -39477,7 +39486,7 @@
         <v>149</v>
       </c>
       <c r="P186" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q186">
         <v>2.05</v>
@@ -39683,7 +39692,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39847,7 +39856,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7296721</v>
+        <v>7296720</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39862,70 +39871,70 @@
         <v>24</v>
       </c>
       <c r="G188" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H188" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I188">
         <v>0</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188">
         <v>0</v>
       </c>
       <c r="M188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O188" t="s">
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="Q188">
-        <v>2.85</v>
+        <v>4.75</v>
       </c>
       <c r="R188">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S188">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="T188">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U188">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="V188">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="W188">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X188">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="Y188">
         <v>1.1</v>
       </c>
       <c r="Z188">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="AA188">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="AB188">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="AC188">
         <v>1.02</v>
@@ -39940,112 +39949,112 @@
         <v>4.2</v>
       </c>
       <c r="AG188">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AH188">
+        <v>2</v>
+      </c>
+      <c r="AI188">
+        <v>1.72</v>
+      </c>
+      <c r="AJ188">
         <v>2.1</v>
       </c>
-      <c r="AI188">
-        <v>1.57</v>
-      </c>
-      <c r="AJ188">
-        <v>2.3</v>
-      </c>
       <c r="AK188">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="AL188">
         <v>1.22</v>
       </c>
       <c r="AM188">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="AN188">
-        <v>2.27</v>
+        <v>1.64</v>
       </c>
       <c r="AO188">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AP188">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR188">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AS188">
-        <v>1.36</v>
+        <v>1.92</v>
       </c>
       <c r="AT188">
-        <v>2.87</v>
+        <v>3.41</v>
       </c>
       <c r="AU188">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV188">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW188">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX188">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY188">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AZ188">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA188">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB188">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC188">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BD188">
-        <v>1.75</v>
+        <v>4.11</v>
       </c>
       <c r="BE188">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BF188">
-        <v>2.38</v>
+        <v>1.31</v>
       </c>
       <c r="BG188">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BH188">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="BI188">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="BJ188">
-        <v>3.14</v>
+        <v>3.44</v>
       </c>
       <c r="BK188">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="BL188">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="BM188">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BN188">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="BO188">
-        <v>2.33</v>
+        <v>2.12</v>
       </c>
       <c r="BP188">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40053,7 +40062,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7296722</v>
+        <v>7296721</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40068,190 +40077,190 @@
         <v>24</v>
       </c>
       <c r="G189" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H189" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189">
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O189" t="s">
         <v>90</v>
       </c>
       <c r="P189" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="Q189">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="R189">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S189">
         <v>3.4</v>
       </c>
       <c r="T189">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="U189">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="V189">
+        <v>2.45</v>
+      </c>
+      <c r="W189">
+        <v>1.49</v>
+      </c>
+      <c r="X189">
+        <v>5.9</v>
+      </c>
+      <c r="Y189">
+        <v>1.1</v>
+      </c>
+      <c r="Z189">
+        <v>2.2</v>
+      </c>
+      <c r="AA189">
+        <v>3.45</v>
+      </c>
+      <c r="AB189">
         <v>2.8</v>
       </c>
-      <c r="W189">
-        <v>1.39</v>
-      </c>
-      <c r="X189">
-        <v>6.95</v>
-      </c>
-      <c r="Y189">
-        <v>1.07</v>
-      </c>
-      <c r="Z189">
-        <v>2.35</v>
-      </c>
-      <c r="AA189">
-        <v>3.15</v>
-      </c>
-      <c r="AB189">
-        <v>2.75</v>
-      </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD189">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE189">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AF189">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AG189">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AH189">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AI189">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AJ189">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AK189">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AL189">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM189">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AN189">
-        <v>1.45</v>
+        <v>2.27</v>
       </c>
       <c r="AO189">
-        <v>0.45</v>
+        <v>1.55</v>
       </c>
       <c r="AP189">
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="AQ189">
-        <v>0.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR189">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AS189">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT189">
         <v>2.87</v>
       </c>
       <c r="AU189">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW189">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>15</v>
+      </c>
+      <c r="AZ189">
+        <v>7</v>
+      </c>
+      <c r="BA189">
+        <v>8</v>
+      </c>
+      <c r="BB189">
         <v>3</v>
       </c>
-      <c r="AY189">
-        <v>10</v>
-      </c>
-      <c r="AZ189">
-        <v>5</v>
-      </c>
-      <c r="BA189">
-        <v>4</v>
-      </c>
-      <c r="BB189">
-        <v>1</v>
-      </c>
       <c r="BC189">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD189">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="BE189">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF189">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="BG189">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="BH189">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="BI189">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="BJ189">
-        <v>2.85</v>
+        <v>3.14</v>
       </c>
       <c r="BK189">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="BL189">
-        <v>1.95</v>
+        <v>2.44</v>
       </c>
       <c r="BM189">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BN189">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="BO189">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="BP189">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40259,7 +40268,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7296720</v>
+        <v>7296722</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40268,16 +40277,16 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45558.58333333334</v>
+        <v>45557.875</v>
       </c>
       <c r="F190">
         <v>24</v>
       </c>
       <c r="G190" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H190" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -40292,172 +40301,172 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O190" t="s">
         <v>90</v>
       </c>
       <c r="P190" t="s">
-        <v>309</v>
+        <v>90</v>
       </c>
       <c r="Q190">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>3.4</v>
+      </c>
+      <c r="T190">
+        <v>1.38</v>
+      </c>
+      <c r="U190">
+        <v>2.85</v>
+      </c>
+      <c r="V190">
+        <v>2.8</v>
+      </c>
+      <c r="W190">
+        <v>1.39</v>
+      </c>
+      <c r="X190">
+        <v>6.95</v>
+      </c>
+      <c r="Y190">
+        <v>1.07</v>
+      </c>
+      <c r="Z190">
         <v>2.35</v>
       </c>
-      <c r="S190">
-        <v>2.25</v>
-      </c>
-      <c r="T190">
+      <c r="AA190">
+        <v>3.15</v>
+      </c>
+      <c r="AB190">
+        <v>2.75</v>
+      </c>
+      <c r="AC190">
+        <v>1.05</v>
+      </c>
+      <c r="AD190">
+        <v>11</v>
+      </c>
+      <c r="AE190">
         <v>1.3</v>
       </c>
-      <c r="U190">
-        <v>3.2</v>
-      </c>
-      <c r="V190">
-        <v>2.5</v>
-      </c>
-      <c r="W190">
-        <v>1.47</v>
-      </c>
-      <c r="X190">
-        <v>5.95</v>
-      </c>
-      <c r="Y190">
-        <v>1.1</v>
-      </c>
-      <c r="Z190">
-        <v>4.5</v>
-      </c>
-      <c r="AA190">
-        <v>3.9</v>
-      </c>
-      <c r="AB190">
-        <v>1.6</v>
-      </c>
-      <c r="AC190">
-        <v>1.02</v>
-      </c>
-      <c r="AD190">
-        <v>15</v>
-      </c>
-      <c r="AE190">
-        <v>1.22</v>
-      </c>
       <c r="AF190">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG190">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AH190">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AI190">
         <v>1.72</v>
       </c>
       <c r="AJ190">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK190">
-        <v>1.93</v>
+        <v>1.47</v>
       </c>
       <c r="AL190">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM190">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="AN190">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AO190">
-        <v>1.18</v>
+        <v>0.45</v>
       </c>
       <c r="AP190">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ190">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR190">
         <v>1.49</v>
       </c>
       <c r="AS190">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="AT190">
-        <v>3.41</v>
+        <v>2.87</v>
       </c>
       <c r="AU190">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW190">
         <v>5</v>
       </c>
       <c r="AX190">
+        <v>3</v>
+      </c>
+      <c r="AY190">
+        <v>10</v>
+      </c>
+      <c r="AZ190">
+        <v>5</v>
+      </c>
+      <c r="BA190">
         <v>4</v>
       </c>
-      <c r="AY190">
+      <c r="BB190">
+        <v>1</v>
+      </c>
+      <c r="BC190">
         <v>5</v>
       </c>
-      <c r="AZ190">
-        <v>8</v>
-      </c>
-      <c r="BA190">
-        <v>5</v>
-      </c>
-      <c r="BB190">
-        <v>10</v>
-      </c>
-      <c r="BC190">
-        <v>15</v>
-      </c>
       <c r="BD190">
-        <v>4.11</v>
+        <v>1.95</v>
       </c>
       <c r="BE190">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="BF190">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="BG190">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH190">
         <v>4.1</v>
       </c>
       <c r="BI190">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="BJ190">
-        <v>3.44</v>
+        <v>2.85</v>
       </c>
       <c r="BK190">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="BL190">
-        <v>2.56</v>
+        <v>1.95</v>
       </c>
       <c r="BM190">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BN190">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="BO190">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="BP190">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -41083,7 +41092,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7296724</v>
+        <v>7296731</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41098,190 +41107,190 @@
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H194" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M194">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O194" t="s">
         <v>216</v>
       </c>
       <c r="P194" t="s">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="Q194">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="R194">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="S194">
-        <v>3.71</v>
+        <v>5</v>
       </c>
       <c r="T194">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="U194">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="V194">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="W194">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X194">
-        <v>5.65</v>
+        <v>5.1</v>
       </c>
       <c r="Y194">
         <v>1.12</v>
       </c>
       <c r="Z194">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="AA194">
-        <v>3.62</v>
+        <v>4.25</v>
       </c>
       <c r="AB194">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="AC194">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD194">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE194">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AF194">
-        <v>3.96</v>
+        <v>4.8</v>
       </c>
       <c r="AG194">
+        <v>1.64</v>
+      </c>
+      <c r="AH194">
+        <v>2.22</v>
+      </c>
+      <c r="AI194">
         <v>1.65</v>
       </c>
-      <c r="AH194">
+      <c r="AJ194">
         <v>2.2</v>
       </c>
-      <c r="AI194">
-        <v>1.57</v>
-      </c>
-      <c r="AJ194">
-        <v>2.3</v>
-      </c>
       <c r="AK194">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AL194">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AM194">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="AN194">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
       <c r="AO194">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP194">
-        <v>1.38</v>
+        <v>2.31</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AR194">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="AS194">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AT194">
-        <v>3.07</v>
+        <v>3.76</v>
       </c>
       <c r="AU194">
+        <v>0</v>
+      </c>
+      <c r="AV194">
         <v>7</v>
       </c>
-      <c r="AV194">
-        <v>6</v>
-      </c>
       <c r="AW194">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX194">
         <v>5</v>
       </c>
       <c r="AY194">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AZ194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA194">
         <v>5</v>
       </c>
       <c r="BB194">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC194">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD194">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BE194">
         <v>7</v>
       </c>
       <c r="BF194">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BG194">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="BH194">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="BI194">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BJ194">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BK194">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="BL194">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BM194">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="BN194">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="BO194">
-        <v>1.98</v>
+        <v>2.17</v>
       </c>
       <c r="BP194">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41289,7 +41298,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7296725</v>
+        <v>7296727</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41304,124 +41313,124 @@
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H195" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O195" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="P195" t="s">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="Q195">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="R195">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="S195">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="T195">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U195">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="V195">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="W195">
+        <v>1.56</v>
+      </c>
+      <c r="X195">
+        <v>5.4</v>
+      </c>
+      <c r="Y195">
+        <v>1.13</v>
+      </c>
+      <c r="Z195">
+        <v>1.98</v>
+      </c>
+      <c r="AA195">
+        <v>3.73</v>
+      </c>
+      <c r="AB195">
+        <v>3.35</v>
+      </c>
+      <c r="AC195">
+        <v>1.01</v>
+      </c>
+      <c r="AD195">
+        <v>13</v>
+      </c>
+      <c r="AE195">
+        <v>1.14</v>
+      </c>
+      <c r="AF195">
+        <v>4.8</v>
+      </c>
+      <c r="AG195">
+        <v>1.61</v>
+      </c>
+      <c r="AH195">
+        <v>2.27</v>
+      </c>
+      <c r="AI195">
         <v>1.5</v>
       </c>
-      <c r="X195">
-        <v>5.5</v>
-      </c>
-      <c r="Y195">
-        <v>1.12</v>
-      </c>
-      <c r="Z195">
-        <v>2.38</v>
-      </c>
-      <c r="AA195">
-        <v>3.45</v>
-      </c>
-      <c r="AB195">
-        <v>2.78</v>
-      </c>
-      <c r="AC195">
-        <v>1.04</v>
-      </c>
-      <c r="AD195">
-        <v>11.3</v>
-      </c>
-      <c r="AE195">
-        <v>1.18</v>
-      </c>
-      <c r="AF195">
-        <v>3.74</v>
-      </c>
-      <c r="AG195">
-        <v>1.71</v>
-      </c>
-      <c r="AH195">
-        <v>2.1</v>
-      </c>
-      <c r="AI195">
-        <v>1.6</v>
-      </c>
       <c r="AJ195">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="AK195">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AL195">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM195">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="AN195">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AO195">
-        <v>1.75</v>
+        <v>0.92</v>
       </c>
       <c r="AP195">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="AQ195">
-        <v>1.62</v>
+        <v>1.08</v>
       </c>
       <c r="AR195">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="AS195">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="AT195">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="AU195">
         <v>-1</v>
@@ -41451,43 +41460,43 @@
         <v>-1</v>
       </c>
       <c r="BD195">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="BE195">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF195">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="BG195">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="BH195">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="BI195">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BJ195">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="BK195">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="BL195">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="BM195">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="BN195">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="BO195">
-        <v>2.49</v>
+        <v>2.18</v>
       </c>
       <c r="BP195">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41495,7 +41504,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7296731</v>
+        <v>7296728</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41504,196 +41513,196 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45563.41666666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F196">
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H196" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
         <v>2</v>
-      </c>
-      <c r="M196">
-        <v>0</v>
       </c>
       <c r="N196">
         <v>2</v>
       </c>
       <c r="O196" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="P196" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="Q196">
-        <v>2</v>
+        <v>3.15</v>
       </c>
       <c r="R196">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S196">
-        <v>5</v>
+        <v>2.95</v>
       </c>
       <c r="T196">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="U196">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="V196">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="W196">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X196">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="Y196">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="Z196">
-        <v>1.55</v>
+        <v>2.66</v>
       </c>
       <c r="AA196">
-        <v>4.25</v>
+        <v>3.36</v>
       </c>
       <c r="AB196">
-        <v>5.3</v>
+        <v>2.52</v>
       </c>
       <c r="AC196">
         <v>1.01</v>
       </c>
       <c r="AD196">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE196">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AF196">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="AG196">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AH196">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="AI196">
         <v>1.65</v>
       </c>
       <c r="AJ196">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK196">
-        <v>1.14</v>
+        <v>1.49</v>
       </c>
       <c r="AL196">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AM196">
-        <v>2.28</v>
+        <v>1.46</v>
       </c>
       <c r="AN196">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AO196">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP196">
-        <v>2.31</v>
+        <v>0.92</v>
       </c>
       <c r="AQ196">
-        <v>1.08</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR196">
-        <v>2.25</v>
+        <v>1.09</v>
       </c>
       <c r="AS196">
-        <v>1.51</v>
+        <v>1.21</v>
       </c>
       <c r="AT196">
-        <v>3.76</v>
+        <v>2.3</v>
       </c>
       <c r="AU196">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV196">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW196">
         <v>8</v>
       </c>
       <c r="AX196">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY196">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ196">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC196">
         <v>8</v>
       </c>
       <c r="BD196">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="BE196">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="BF196">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="BG196">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="BH196">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI196">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="BJ196">
+        <v>2.23</v>
+      </c>
+      <c r="BK196">
+        <v>1.92</v>
+      </c>
+      <c r="BL196">
+        <v>1.77</v>
+      </c>
+      <c r="BM196">
+        <v>2.43</v>
+      </c>
+      <c r="BN196">
+        <v>1.49</v>
+      </c>
+      <c r="BO196">
         <v>3.15</v>
       </c>
-      <c r="BK196">
-        <v>1.49</v>
-      </c>
-      <c r="BL196">
-        <v>2.43</v>
-      </c>
-      <c r="BM196">
-        <v>1.76</v>
-      </c>
-      <c r="BN196">
-        <v>1.93</v>
-      </c>
-      <c r="BO196">
-        <v>2.17</v>
-      </c>
       <c r="BP196">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41701,7 +41710,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7296728</v>
+        <v>7296725</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41710,196 +41719,196 @@
         <v>69</v>
       </c>
       <c r="E197" s="2">
-        <v>45563.41666666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F197">
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H197" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O197" t="s">
+        <v>217</v>
+      </c>
+      <c r="P197" t="s">
         <v>90</v>
       </c>
-      <c r="P197" t="s">
-        <v>311</v>
-      </c>
       <c r="Q197">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="R197">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="S197">
-        <v>2.95</v>
+        <v>3.33</v>
       </c>
       <c r="T197">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U197">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="V197">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="W197">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X197">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="Y197">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="Z197">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="AA197">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="AB197">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="AC197">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD197">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="AE197">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF197">
-        <v>3.85</v>
+        <v>3.74</v>
       </c>
       <c r="AG197">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AH197">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AI197">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AJ197">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK197">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AL197">
         <v>1.3</v>
       </c>
       <c r="AM197">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="AN197">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="AO197">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP197">
-        <v>0.92</v>
+        <v>1.92</v>
       </c>
       <c r="AQ197">
-        <v>0.6899999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="AR197">
-        <v>1.09</v>
+        <v>1.65</v>
       </c>
       <c r="AS197">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AT197">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="AU197">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV197">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW197">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AX197">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY197">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="AZ197">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA197">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB197">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC197">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BD197">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="BE197">
         <v>6.25</v>
       </c>
       <c r="BF197">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="BG197">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="BH197">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="BI197">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="BJ197">
-        <v>2.23</v>
+        <v>2.88</v>
       </c>
       <c r="BK197">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
       <c r="BL197">
-        <v>1.77</v>
+        <v>2.16</v>
       </c>
       <c r="BM197">
-        <v>2.43</v>
+        <v>1.98</v>
       </c>
       <c r="BN197">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
       <c r="BO197">
-        <v>3.15</v>
+        <v>2.49</v>
       </c>
       <c r="BP197">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -41907,7 +41916,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7296727</v>
+        <v>7296724</v>
       </c>
       <c r="C198" t="s">
         <v>68</v>
@@ -41916,196 +41925,196 @@
         <v>69</v>
       </c>
       <c r="E198" s="2">
-        <v>45563.5</v>
+        <v>45562.875</v>
       </c>
       <c r="F198">
         <v>25</v>
       </c>
       <c r="G198" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H198" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N198">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O198" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q198">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="R198">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="S198">
-        <v>3.4</v>
+        <v>3.71</v>
       </c>
       <c r="T198">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U198">
-        <v>3.44</v>
+        <v>2.95</v>
       </c>
       <c r="V198">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="W198">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X198">
-        <v>5.4</v>
+        <v>5.65</v>
       </c>
       <c r="Y198">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="Z198">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="AA198">
-        <v>3.73</v>
+        <v>3.62</v>
       </c>
       <c r="AB198">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AC198">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD198">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE198">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AF198">
-        <v>4.8</v>
+        <v>3.96</v>
       </c>
       <c r="AG198">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AH198">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="AI198">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AJ198">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AK198">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AL198">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AM198">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AN198">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AO198">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP198">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AQ198">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR198">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="AS198">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AT198">
-        <v>3.23</v>
+        <v>3.07</v>
       </c>
       <c r="AU198">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV198">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW198">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX198">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY198">
+        <v>14</v>
+      </c>
+      <c r="AZ198">
+        <v>11</v>
+      </c>
+      <c r="BA198">
         <v>5</v>
       </c>
-      <c r="AZ198">
-        <v>6</v>
-      </c>
-      <c r="BA198">
-        <v>6</v>
-      </c>
       <c r="BB198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC198">
         <v>10</v>
       </c>
       <c r="BD198">
-        <v>1.71</v>
+        <v>1.49</v>
       </c>
       <c r="BE198">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF198">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="BG198">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="BH198">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="BI198">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="BJ198">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="BK198">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="BL198">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BM198">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="BN198">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="BO198">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="BP198">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="199" spans="1:68">
@@ -42122,7 +42131,7 @@
         <v>69</v>
       </c>
       <c r="E199" s="2">
-        <v>45564.41666666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F199">
         <v>25</v>
@@ -42248,22 +42257,22 @@
         <v>2.83</v>
       </c>
       <c r="AU199">
+        <v>7</v>
+      </c>
+      <c r="AV199">
+        <v>3</v>
+      </c>
+      <c r="AW199">
+        <v>4</v>
+      </c>
+      <c r="AX199">
+        <v>3</v>
+      </c>
+      <c r="AY199">
         <v>11</v>
       </c>
-      <c r="AV199">
-        <v>2</v>
-      </c>
-      <c r="AW199">
-        <v>7</v>
-      </c>
-      <c r="AX199">
+      <c r="AZ199">
         <v>6</v>
-      </c>
-      <c r="AY199">
-        <v>18</v>
-      </c>
-      <c r="AZ199">
-        <v>8</v>
       </c>
       <c r="BA199">
         <v>6</v>
@@ -42312,6 +42321,418 @@
       </c>
       <c r="BP199">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7296730</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45564.875</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>78</v>
+      </c>
+      <c r="H200" t="s">
+        <v>84</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>90</v>
+      </c>
+      <c r="P200" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q200">
+        <v>2.66</v>
+      </c>
+      <c r="R200">
+        <v>2.29</v>
+      </c>
+      <c r="S200">
+        <v>3.94</v>
+      </c>
+      <c r="T200">
+        <v>1.34</v>
+      </c>
+      <c r="U200">
+        <v>3.18</v>
+      </c>
+      <c r="V200">
+        <v>2.71</v>
+      </c>
+      <c r="W200">
+        <v>1.44</v>
+      </c>
+      <c r="X200">
+        <v>6.55</v>
+      </c>
+      <c r="Y200">
+        <v>1.09</v>
+      </c>
+      <c r="Z200">
+        <v>2.05</v>
+      </c>
+      <c r="AA200">
+        <v>3.4</v>
+      </c>
+      <c r="AB200">
+        <v>3.2</v>
+      </c>
+      <c r="AC200">
+        <v>1.05</v>
+      </c>
+      <c r="AD200">
+        <v>9.9</v>
+      </c>
+      <c r="AE200">
+        <v>1.25</v>
+      </c>
+      <c r="AF200">
+        <v>3.82</v>
+      </c>
+      <c r="AG200">
+        <v>1.78</v>
+      </c>
+      <c r="AH200">
+        <v>1.98</v>
+      </c>
+      <c r="AI200">
+        <v>1.67</v>
+      </c>
+      <c r="AJ200">
+        <v>2.1</v>
+      </c>
+      <c r="AK200">
+        <v>1.3</v>
+      </c>
+      <c r="AL200">
+        <v>1.29</v>
+      </c>
+      <c r="AM200">
+        <v>1.7</v>
+      </c>
+      <c r="AN200">
+        <v>1.83</v>
+      </c>
+      <c r="AO200">
+        <v>0.83</v>
+      </c>
+      <c r="AP200">
+        <v>1.69</v>
+      </c>
+      <c r="AQ200">
+        <v>1</v>
+      </c>
+      <c r="AR200">
+        <v>1.67</v>
+      </c>
+      <c r="AS200">
+        <v>1.34</v>
+      </c>
+      <c r="AT200">
+        <v>3.01</v>
+      </c>
+      <c r="AU200">
+        <v>-1</v>
+      </c>
+      <c r="AV200">
+        <v>-1</v>
+      </c>
+      <c r="AW200">
+        <v>-1</v>
+      </c>
+      <c r="AX200">
+        <v>-1</v>
+      </c>
+      <c r="AY200">
+        <v>-1</v>
+      </c>
+      <c r="AZ200">
+        <v>-1</v>
+      </c>
+      <c r="BA200">
+        <v>-1</v>
+      </c>
+      <c r="BB200">
+        <v>-1</v>
+      </c>
+      <c r="BC200">
+        <v>-1</v>
+      </c>
+      <c r="BD200">
+        <v>1.58</v>
+      </c>
+      <c r="BE200">
+        <v>6.75</v>
+      </c>
+      <c r="BF200">
+        <v>2.4</v>
+      </c>
+      <c r="BG200">
+        <v>1.18</v>
+      </c>
+      <c r="BH200">
+        <v>4.1</v>
+      </c>
+      <c r="BI200">
+        <v>1.32</v>
+      </c>
+      <c r="BJ200">
+        <v>3.05</v>
+      </c>
+      <c r="BK200">
+        <v>1.53</v>
+      </c>
+      <c r="BL200">
+        <v>2.32</v>
+      </c>
+      <c r="BM200">
+        <v>1.84</v>
+      </c>
+      <c r="BN200">
+        <v>1.84</v>
+      </c>
+      <c r="BO200">
+        <v>2.25</v>
+      </c>
+      <c r="BP200">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7296729</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45565.58333333334</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>77</v>
+      </c>
+      <c r="H201" t="s">
+        <v>82</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>5</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>7</v>
+      </c>
+      <c r="O201" t="s">
+        <v>220</v>
+      </c>
+      <c r="P201" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q201">
+        <v>1.81</v>
+      </c>
+      <c r="R201">
+        <v>2.64</v>
+      </c>
+      <c r="S201">
+        <v>6.93</v>
+      </c>
+      <c r="T201">
+        <v>1.29</v>
+      </c>
+      <c r="U201">
+        <v>3.5</v>
+      </c>
+      <c r="V201">
+        <v>2.39</v>
+      </c>
+      <c r="W201">
+        <v>1.55</v>
+      </c>
+      <c r="X201">
+        <v>5.1</v>
+      </c>
+      <c r="Y201">
+        <v>1.14</v>
+      </c>
+      <c r="Z201">
+        <v>1.38</v>
+      </c>
+      <c r="AA201">
+        <v>4.6</v>
+      </c>
+      <c r="AB201">
+        <v>6.75</v>
+      </c>
+      <c r="AC201">
+        <v>1.01</v>
+      </c>
+      <c r="AD201">
+        <v>12</v>
+      </c>
+      <c r="AE201">
+        <v>1.13</v>
+      </c>
+      <c r="AF201">
+        <v>4.5</v>
+      </c>
+      <c r="AG201">
+        <v>1.6</v>
+      </c>
+      <c r="AH201">
+        <v>2.2</v>
+      </c>
+      <c r="AI201">
+        <v>1.7</v>
+      </c>
+      <c r="AJ201">
+        <v>2.05</v>
+      </c>
+      <c r="AK201">
+        <v>1.08</v>
+      </c>
+      <c r="AL201">
+        <v>1.18</v>
+      </c>
+      <c r="AM201">
+        <v>2.7</v>
+      </c>
+      <c r="AN201">
+        <v>2.08</v>
+      </c>
+      <c r="AO201">
+        <v>1.08</v>
+      </c>
+      <c r="AP201">
+        <v>2.15</v>
+      </c>
+      <c r="AQ201">
+        <v>1</v>
+      </c>
+      <c r="AR201">
+        <v>2.07</v>
+      </c>
+      <c r="AS201">
+        <v>1.31</v>
+      </c>
+      <c r="AT201">
+        <v>3.38</v>
+      </c>
+      <c r="AU201">
+        <v>10</v>
+      </c>
+      <c r="AV201">
+        <v>5</v>
+      </c>
+      <c r="AW201">
+        <v>6</v>
+      </c>
+      <c r="AX201">
+        <v>5</v>
+      </c>
+      <c r="AY201">
+        <v>16</v>
+      </c>
+      <c r="AZ201">
+        <v>10</v>
+      </c>
+      <c r="BA201">
+        <v>4</v>
+      </c>
+      <c r="BB201">
+        <v>3</v>
+      </c>
+      <c r="BC201">
+        <v>7</v>
+      </c>
+      <c r="BD201">
+        <v>1.29</v>
+      </c>
+      <c r="BE201">
+        <v>7.5</v>
+      </c>
+      <c r="BF201">
+        <v>3.45</v>
+      </c>
+      <c r="BG201">
+        <v>1.16</v>
+      </c>
+      <c r="BH201">
+        <v>4.4</v>
+      </c>
+      <c r="BI201">
+        <v>1.28</v>
+      </c>
+      <c r="BJ201">
+        <v>3.2</v>
+      </c>
+      <c r="BK201">
+        <v>1.48</v>
+      </c>
+      <c r="BL201">
+        <v>2.45</v>
+      </c>
+      <c r="BM201">
+        <v>1.74</v>
+      </c>
+      <c r="BN201">
+        <v>1.98</v>
+      </c>
+      <c r="BO201">
+        <v>2.12</v>
+      </c>
+      <c r="BP201">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -958,10 +958,10 @@
     <t>['49', '51', '90+4']</t>
   </si>
   <si>
-    <t>['6', '89']</t>
+    <t>['74', '80']</t>
   </si>
   <si>
-    <t>['74', '80']</t>
+    <t>['6', '89']</t>
   </si>
 </sst>
 </file>
@@ -42328,7 +42328,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>7296730</v>
+        <v>7296729</v>
       </c>
       <c r="C200" t="s">
         <v>68</v>
@@ -42343,124 +42343,124 @@
         <v>25</v>
       </c>
       <c r="G200" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H200" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L200">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M200">
         <v>2</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O200" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="P200" t="s">
         <v>314</v>
       </c>
       <c r="Q200">
-        <v>2.66</v>
+        <v>1.81</v>
       </c>
       <c r="R200">
-        <v>2.29</v>
+        <v>2.64</v>
       </c>
       <c r="S200">
-        <v>3.94</v>
+        <v>6.93</v>
       </c>
       <c r="T200">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="U200">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="V200">
-        <v>2.71</v>
+        <v>2.39</v>
       </c>
       <c r="W200">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="X200">
-        <v>6.55</v>
+        <v>5.1</v>
       </c>
       <c r="Y200">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="Z200">
+        <v>1.38</v>
+      </c>
+      <c r="AA200">
+        <v>4.6</v>
+      </c>
+      <c r="AB200">
+        <v>6.75</v>
+      </c>
+      <c r="AC200">
+        <v>1.01</v>
+      </c>
+      <c r="AD200">
+        <v>12</v>
+      </c>
+      <c r="AE200">
+        <v>1.13</v>
+      </c>
+      <c r="AF200">
+        <v>4.5</v>
+      </c>
+      <c r="AG200">
+        <v>1.6</v>
+      </c>
+      <c r="AH200">
+        <v>2.2</v>
+      </c>
+      <c r="AI200">
+        <v>1.7</v>
+      </c>
+      <c r="AJ200">
         <v>2.05</v>
       </c>
-      <c r="AA200">
-        <v>3.4</v>
-      </c>
-      <c r="AB200">
-        <v>3.2</v>
-      </c>
-      <c r="AC200">
-        <v>1.05</v>
-      </c>
-      <c r="AD200">
-        <v>9.9</v>
-      </c>
-      <c r="AE200">
-        <v>1.25</v>
-      </c>
-      <c r="AF200">
-        <v>3.82</v>
-      </c>
-      <c r="AG200">
-        <v>1.78</v>
-      </c>
-      <c r="AH200">
-        <v>1.98</v>
-      </c>
-      <c r="AI200">
-        <v>1.67</v>
-      </c>
-      <c r="AJ200">
-        <v>2.1</v>
-      </c>
       <c r="AK200">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="AL200">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AM200">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AN200">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="AO200">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AP200">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="AQ200">
         <v>1</v>
       </c>
       <c r="AR200">
-        <v>1.67</v>
+        <v>2.07</v>
       </c>
       <c r="AS200">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT200">
-        <v>3.01</v>
+        <v>3.38</v>
       </c>
       <c r="AU200">
         <v>-1</v>
@@ -42490,43 +42490,43 @@
         <v>-1</v>
       </c>
       <c r="BD200">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="BE200">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF200">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="BG200">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH200">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BI200">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="BJ200">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BK200">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="BL200">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="BM200">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="BN200">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="BO200">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="BP200">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="201" spans="1:68">
@@ -42534,7 +42534,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>7296729</v>
+        <v>7296730</v>
       </c>
       <c r="C201" t="s">
         <v>68</v>
@@ -42543,196 +42543,196 @@
         <v>69</v>
       </c>
       <c r="E201" s="2">
-        <v>45565.58333333334</v>
+        <v>45564.875</v>
       </c>
       <c r="F201">
         <v>25</v>
       </c>
       <c r="G201" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H201" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L201">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M201">
         <v>2</v>
       </c>
       <c r="N201">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O201" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="P201" t="s">
         <v>315</v>
       </c>
       <c r="Q201">
-        <v>1.81</v>
+        <v>2.66</v>
       </c>
       <c r="R201">
-        <v>2.64</v>
+        <v>2.29</v>
       </c>
       <c r="S201">
-        <v>6.93</v>
+        <v>3.94</v>
       </c>
       <c r="T201">
+        <v>1.34</v>
+      </c>
+      <c r="U201">
+        <v>3.18</v>
+      </c>
+      <c r="V201">
+        <v>2.71</v>
+      </c>
+      <c r="W201">
+        <v>1.44</v>
+      </c>
+      <c r="X201">
+        <v>6.55</v>
+      </c>
+      <c r="Y201">
+        <v>1.09</v>
+      </c>
+      <c r="Z201">
+        <v>2.05</v>
+      </c>
+      <c r="AA201">
+        <v>3.4</v>
+      </c>
+      <c r="AB201">
+        <v>3.2</v>
+      </c>
+      <c r="AC201">
+        <v>1.05</v>
+      </c>
+      <c r="AD201">
+        <v>9.9</v>
+      </c>
+      <c r="AE201">
+        <v>1.25</v>
+      </c>
+      <c r="AF201">
+        <v>3.82</v>
+      </c>
+      <c r="AG201">
+        <v>1.78</v>
+      </c>
+      <c r="AH201">
+        <v>1.98</v>
+      </c>
+      <c r="AI201">
+        <v>1.67</v>
+      </c>
+      <c r="AJ201">
+        <v>2.1</v>
+      </c>
+      <c r="AK201">
+        <v>1.3</v>
+      </c>
+      <c r="AL201">
         <v>1.29</v>
       </c>
-      <c r="U201">
-        <v>3.5</v>
-      </c>
-      <c r="V201">
-        <v>2.39</v>
-      </c>
-      <c r="W201">
+      <c r="AM201">
+        <v>1.7</v>
+      </c>
+      <c r="AN201">
+        <v>1.83</v>
+      </c>
+      <c r="AO201">
+        <v>0.83</v>
+      </c>
+      <c r="AP201">
+        <v>1.69</v>
+      </c>
+      <c r="AQ201">
+        <v>1</v>
+      </c>
+      <c r="AR201">
+        <v>1.67</v>
+      </c>
+      <c r="AS201">
+        <v>1.34</v>
+      </c>
+      <c r="AT201">
+        <v>3.01</v>
+      </c>
+      <c r="AU201">
+        <v>-1</v>
+      </c>
+      <c r="AV201">
+        <v>-1</v>
+      </c>
+      <c r="AW201">
+        <v>-1</v>
+      </c>
+      <c r="AX201">
+        <v>-1</v>
+      </c>
+      <c r="AY201">
+        <v>-1</v>
+      </c>
+      <c r="AZ201">
+        <v>-1</v>
+      </c>
+      <c r="BA201">
+        <v>-1</v>
+      </c>
+      <c r="BB201">
+        <v>-1</v>
+      </c>
+      <c r="BC201">
+        <v>-1</v>
+      </c>
+      <c r="BD201">
+        <v>1.58</v>
+      </c>
+      <c r="BE201">
+        <v>6.75</v>
+      </c>
+      <c r="BF201">
+        <v>2.4</v>
+      </c>
+      <c r="BG201">
+        <v>1.18</v>
+      </c>
+      <c r="BH201">
+        <v>4.1</v>
+      </c>
+      <c r="BI201">
+        <v>1.32</v>
+      </c>
+      <c r="BJ201">
+        <v>3.05</v>
+      </c>
+      <c r="BK201">
+        <v>1.53</v>
+      </c>
+      <c r="BL201">
+        <v>2.32</v>
+      </c>
+      <c r="BM201">
+        <v>1.84</v>
+      </c>
+      <c r="BN201">
+        <v>1.84</v>
+      </c>
+      <c r="BO201">
+        <v>2.25</v>
+      </c>
+      <c r="BP201">
         <v>1.55</v>
-      </c>
-      <c r="X201">
-        <v>5.1</v>
-      </c>
-      <c r="Y201">
-        <v>1.14</v>
-      </c>
-      <c r="Z201">
-        <v>1.38</v>
-      </c>
-      <c r="AA201">
-        <v>4.6</v>
-      </c>
-      <c r="AB201">
-        <v>6.75</v>
-      </c>
-      <c r="AC201">
-        <v>1.01</v>
-      </c>
-      <c r="AD201">
-        <v>12</v>
-      </c>
-      <c r="AE201">
-        <v>1.13</v>
-      </c>
-      <c r="AF201">
-        <v>4.5</v>
-      </c>
-      <c r="AG201">
-        <v>1.6</v>
-      </c>
-      <c r="AH201">
-        <v>2.2</v>
-      </c>
-      <c r="AI201">
-        <v>1.7</v>
-      </c>
-      <c r="AJ201">
-        <v>2.05</v>
-      </c>
-      <c r="AK201">
-        <v>1.08</v>
-      </c>
-      <c r="AL201">
-        <v>1.18</v>
-      </c>
-      <c r="AM201">
-        <v>2.7</v>
-      </c>
-      <c r="AN201">
-        <v>2.08</v>
-      </c>
-      <c r="AO201">
-        <v>1.08</v>
-      </c>
-      <c r="AP201">
-        <v>2.15</v>
-      </c>
-      <c r="AQ201">
-        <v>1</v>
-      </c>
-      <c r="AR201">
-        <v>2.07</v>
-      </c>
-      <c r="AS201">
-        <v>1.31</v>
-      </c>
-      <c r="AT201">
-        <v>3.38</v>
-      </c>
-      <c r="AU201">
-        <v>10</v>
-      </c>
-      <c r="AV201">
-        <v>5</v>
-      </c>
-      <c r="AW201">
-        <v>6</v>
-      </c>
-      <c r="AX201">
-        <v>5</v>
-      </c>
-      <c r="AY201">
-        <v>16</v>
-      </c>
-      <c r="AZ201">
-        <v>10</v>
-      </c>
-      <c r="BA201">
-        <v>4</v>
-      </c>
-      <c r="BB201">
-        <v>3</v>
-      </c>
-      <c r="BC201">
-        <v>7</v>
-      </c>
-      <c r="BD201">
-        <v>1.29</v>
-      </c>
-      <c r="BE201">
-        <v>7.5</v>
-      </c>
-      <c r="BF201">
-        <v>3.45</v>
-      </c>
-      <c r="BG201">
-        <v>1.16</v>
-      </c>
-      <c r="BH201">
-        <v>4.4</v>
-      </c>
-      <c r="BI201">
-        <v>1.28</v>
-      </c>
-      <c r="BJ201">
-        <v>3.2</v>
-      </c>
-      <c r="BK201">
-        <v>1.48</v>
-      </c>
-      <c r="BL201">
-        <v>2.45</v>
-      </c>
-      <c r="BM201">
-        <v>1.74</v>
-      </c>
-      <c r="BN201">
-        <v>1.98</v>
-      </c>
-      <c r="BO201">
-        <v>2.12</v>
-      </c>
-      <c r="BP201">
-        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -667,10 +667,10 @@
     <t>['7', '56']</t>
   </si>
   <si>
-    <t>['87']</t>
+    <t>['7', '24', '43']</t>
   </si>
   <si>
-    <t>['7', '24', '43']</t>
+    <t>['87']</t>
   </si>
   <si>
     <t>['8', '29', '50', '51']</t>
@@ -949,10 +949,10 @@
     <t>['58', '90']</t>
   </si>
   <si>
-    <t>['4', '57']</t>
+    <t>['26', '37']</t>
   </si>
   <si>
-    <t>['26', '37']</t>
+    <t>['4', '57']</t>
   </si>
   <si>
     <t>['49', '51', '90+4']</t>
@@ -1687,10 +1687,10 @@
         <v>5</v>
       </c>
       <c r="AY2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -1893,10 +1893,10 @@
         <v>7</v>
       </c>
       <c r="AY3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA3">
         <v>7</v>
@@ -2099,10 +2099,10 @@
         <v>4</v>
       </c>
       <c r="AY4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA4">
         <v>2</v>
@@ -2511,10 +2511,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA6">
         <v>4</v>
@@ -2717,10 +2717,10 @@
         <v>7</v>
       </c>
       <c r="AY7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA7">
         <v>5</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="AY8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA8">
         <v>8</v>
@@ -4777,10 +4777,10 @@
         <v>11</v>
       </c>
       <c r="AY17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA17">
         <v>7</v>
@@ -4983,10 +4983,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA18">
         <v>3</v>
@@ -5189,10 +5189,10 @@
         <v>3</v>
       </c>
       <c r="AY19">
+        <v>11</v>
+      </c>
+      <c r="AZ19">
         <v>9</v>
-      </c>
-      <c r="AZ19">
-        <v>7</v>
       </c>
       <c r="BA19">
         <v>8</v>
@@ -5395,10 +5395,10 @@
         <v>11</v>
       </c>
       <c r="AY20">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ20">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA20">
         <v>4</v>
@@ -5601,10 +5601,10 @@
         <v>6</v>
       </c>
       <c r="AY21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA21">
         <v>9</v>
@@ -5807,10 +5807,10 @@
         <v>5</v>
       </c>
       <c r="AY22">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA22">
         <v>11</v>
@@ -6013,10 +6013,10 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23">
         <v>10</v>
@@ -6219,10 +6219,10 @@
         <v>7</v>
       </c>
       <c r="AY24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ24">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA24">
         <v>1</v>
@@ -6425,10 +6425,10 @@
         <v>2</v>
       </c>
       <c r="AY25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA25">
         <v>10</v>
@@ -6631,10 +6631,10 @@
         <v>7</v>
       </c>
       <c r="AY26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA26">
         <v>4</v>
@@ -6840,7 +6840,7 @@
         <v>12</v>
       </c>
       <c r="AZ27">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="BA27">
         <v>2</v>
@@ -7043,10 +7043,10 @@
         <v>-1</v>
       </c>
       <c r="AY28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AZ28">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="BA28">
         <v>9</v>
@@ -7249,10 +7249,10 @@
         <v>8</v>
       </c>
       <c r="AY29">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA29">
         <v>11</v>
@@ -7455,7 +7455,7 @@
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ30">
         <v>9</v>
@@ -7661,10 +7661,10 @@
         <v>3</v>
       </c>
       <c r="AY31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA31">
         <v>9</v>
@@ -7867,10 +7867,10 @@
         <v>7</v>
       </c>
       <c r="AY32">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA32">
         <v>3</v>
@@ -8073,10 +8073,10 @@
         <v>10</v>
       </c>
       <c r="AY33">
+        <v>20</v>
+      </c>
+      <c r="AZ33">
         <v>14</v>
-      </c>
-      <c r="AZ33">
-        <v>12</v>
       </c>
       <c r="BA33">
         <v>7</v>
@@ -8279,10 +8279,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA34">
         <v>4</v>
@@ -8485,10 +8485,10 @@
         <v>7</v>
       </c>
       <c r="AY35">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA35">
         <v>3</v>
@@ -8691,7 +8691,7 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ36">
         <v>10</v>
@@ -8897,10 +8897,10 @@
         <v>6</v>
       </c>
       <c r="AY37">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ37">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA37">
         <v>7</v>
@@ -9103,10 +9103,10 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA38">
         <v>5</v>
@@ -9309,10 +9309,10 @@
         <v>5</v>
       </c>
       <c r="AY39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ39">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA39">
         <v>8</v>
@@ -9515,10 +9515,10 @@
         <v>3</v>
       </c>
       <c r="AY40">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA40">
         <v>6</v>
@@ -11166,7 +11166,7 @@
         <v>7</v>
       </c>
       <c r="AZ48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA48">
         <v>6</v>
@@ -11369,10 +11369,10 @@
         <v>9</v>
       </c>
       <c r="AY49">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ49">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA49">
         <v>4</v>
@@ -17549,10 +17549,10 @@
         <v>7</v>
       </c>
       <c r="AY79">
+        <v>16</v>
+      </c>
+      <c r="AZ79">
         <v>13</v>
-      </c>
-      <c r="AZ79">
-        <v>12</v>
       </c>
       <c r="BA79">
         <v>3</v>
@@ -25684,7 +25684,7 @@
         <v>174</v>
       </c>
       <c r="P119" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q119">
         <v>3.3</v>
@@ -39453,7 +39453,7 @@
         <v>69</v>
       </c>
       <c r="E186" s="2">
-        <v>45556.875</v>
+        <v>45557.41666666666</v>
       </c>
       <c r="F186">
         <v>24</v>
@@ -39579,31 +39579,31 @@
         <v>2.68</v>
       </c>
       <c r="AU186">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV186">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW186">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX186">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY186">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ186">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA186">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB186">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC186">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BD186">
         <v>1.27</v>
@@ -39659,7 +39659,7 @@
         <v>69</v>
       </c>
       <c r="E187" s="2">
-        <v>45556.875</v>
+        <v>45557.41666666666</v>
       </c>
       <c r="F187">
         <v>24</v>
@@ -39785,31 +39785,31 @@
         <v>2.68</v>
       </c>
       <c r="AU187">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV187">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY187">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ187">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA187">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB187">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC187">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD187">
         <v>2.15</v>
@@ -39865,10 +39865,10 @@
         <v>69</v>
       </c>
       <c r="E188" s="2">
-        <v>45557.875</v>
+        <v>45558.58333333334</v>
       </c>
       <c r="F188">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G188" t="s">
         <v>70</v>
@@ -40003,19 +40003,19 @@
         <v>-1</v>
       </c>
       <c r="AY188">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AZ188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BA188">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB188">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC188">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD188">
         <v>4.11</v>
@@ -40071,10 +40071,10 @@
         <v>69</v>
       </c>
       <c r="E189" s="2">
-        <v>45557.875</v>
+        <v>45558.58333333334</v>
       </c>
       <c r="F189">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G189" t="s">
         <v>80</v>
@@ -40197,22 +40197,22 @@
         <v>2.87</v>
       </c>
       <c r="AU189">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW189">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX189">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY189">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ189">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BA189">
         <v>8</v>
@@ -40277,7 +40277,7 @@
         <v>69</v>
       </c>
       <c r="E190" s="2">
-        <v>45557.875</v>
+        <v>45558.58333333334</v>
       </c>
       <c r="F190">
         <v>24</v>
@@ -40403,22 +40403,22 @@
         <v>2.87</v>
       </c>
       <c r="AU190">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV190">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW190">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX190">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY190">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AZ190">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA190">
         <v>4</v>
@@ -40483,7 +40483,7 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45558.875</v>
+        <v>45559.58333333334</v>
       </c>
       <c r="F191">
         <v>24</v>
@@ -40609,22 +40609,22 @@
         <v>3.19</v>
       </c>
       <c r="AU191">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW191">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY191">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AZ191">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BA191">
         <v>7</v>
@@ -40689,7 +40689,7 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45558.875</v>
+        <v>45559.58333333334</v>
       </c>
       <c r="F192">
         <v>24</v>
@@ -40815,22 +40815,22 @@
         <v>2.92</v>
       </c>
       <c r="AU192">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV192">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW192">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX192">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY192">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AZ192">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA192">
         <v>4</v>
@@ -40895,7 +40895,7 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45558.875</v>
+        <v>45559.58333333334</v>
       </c>
       <c r="F193">
         <v>24</v>
@@ -41021,22 +41021,22 @@
         <v>2.84</v>
       </c>
       <c r="AU193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW193">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX193">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY193">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AZ193">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BA193">
         <v>6</v>
@@ -41101,7 +41101,7 @@
         <v>69</v>
       </c>
       <c r="E194" s="2">
-        <v>45562.875</v>
+        <v>45563.41666666666</v>
       </c>
       <c r="F194">
         <v>25</v>
@@ -41227,22 +41227,22 @@
         <v>3.76</v>
       </c>
       <c r="AU194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV194">
         <v>7</v>
       </c>
       <c r="AW194">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX194">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY194">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ194">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA194">
         <v>5</v>
@@ -41298,7 +41298,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7296727</v>
+        <v>7296728</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41307,196 +41307,196 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45562.875</v>
+        <v>45563.41666666666</v>
       </c>
       <c r="F195">
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H195" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K195">
         <v>2</v>
       </c>
       <c r="L195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M195">
         <v>2</v>
       </c>
       <c r="N195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O195" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="P195" t="s">
         <v>311</v>
       </c>
       <c r="Q195">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="R195">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S195">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="T195">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="U195">
-        <v>3.44</v>
+        <v>3.05</v>
       </c>
       <c r="V195">
-        <v>2.34</v>
+        <v>2.65</v>
       </c>
       <c r="W195">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="X195">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="Y195">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z195">
-        <v>1.98</v>
+        <v>2.66</v>
       </c>
       <c r="AA195">
-        <v>3.73</v>
+        <v>3.36</v>
       </c>
       <c r="AB195">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="AC195">
         <v>1.01</v>
       </c>
       <c r="AD195">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE195">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AF195">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="AG195">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AH195">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="AI195">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AJ195">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="AK195">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AL195">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM195">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="AN195">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO195">
+        <v>0.5</v>
+      </c>
+      <c r="AP195">
         <v>0.92</v>
       </c>
-      <c r="AP195">
-        <v>1.62</v>
-      </c>
       <c r="AQ195">
-        <v>1.08</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR195">
-        <v>1.76</v>
+        <v>1.09</v>
       </c>
       <c r="AS195">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="AT195">
-        <v>3.23</v>
+        <v>2.3</v>
       </c>
       <c r="AU195">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV195">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW195">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX195">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY195">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ195">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA195">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB195">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC195">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD195">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="BE195">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF195">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="BG195">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="BH195">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI195">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="BJ195">
+        <v>2.23</v>
+      </c>
+      <c r="BK195">
+        <v>1.92</v>
+      </c>
+      <c r="BL195">
+        <v>1.77</v>
+      </c>
+      <c r="BM195">
+        <v>2.43</v>
+      </c>
+      <c r="BN195">
+        <v>1.49</v>
+      </c>
+      <c r="BO195">
         <v>3.15</v>
       </c>
-      <c r="BK195">
-        <v>1.49</v>
-      </c>
-      <c r="BL195">
-        <v>2.4</v>
-      </c>
-      <c r="BM195">
-        <v>1.78</v>
-      </c>
-      <c r="BN195">
-        <v>1.91</v>
-      </c>
-      <c r="BO195">
-        <v>2.18</v>
-      </c>
       <c r="BP195">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41504,7 +41504,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7296728</v>
+        <v>7296727</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41513,196 +41513,196 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45562.875</v>
+        <v>45563.5</v>
       </c>
       <c r="F196">
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H196" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K196">
         <v>2</v>
       </c>
       <c r="L196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196">
         <v>2</v>
       </c>
       <c r="N196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O196" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="P196" t="s">
         <v>312</v>
       </c>
       <c r="Q196">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="R196">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S196">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="T196">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="U196">
-        <v>3.05</v>
+        <v>3.44</v>
       </c>
       <c r="V196">
-        <v>2.65</v>
+        <v>2.34</v>
       </c>
       <c r="W196">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="X196">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="Y196">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z196">
-        <v>2.66</v>
+        <v>1.98</v>
       </c>
       <c r="AA196">
-        <v>3.36</v>
+        <v>3.73</v>
       </c>
       <c r="AB196">
-        <v>2.52</v>
+        <v>3.35</v>
       </c>
       <c r="AC196">
         <v>1.01</v>
       </c>
       <c r="AD196">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE196">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AF196">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="AG196">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AH196">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="AI196">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AJ196">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="AK196">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="AL196">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM196">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="AN196">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO196">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AP196">
-        <v>0.92</v>
+        <v>1.62</v>
       </c>
       <c r="AQ196">
-        <v>0.6899999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="AR196">
-        <v>1.09</v>
+        <v>1.76</v>
       </c>
       <c r="AS196">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AT196">
-        <v>2.3</v>
+        <v>3.23</v>
       </c>
       <c r="AU196">
+        <v>2</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>3</v>
+      </c>
+      <c r="AX196">
+        <v>3</v>
+      </c>
+      <c r="AY196">
         <v>5</v>
       </c>
-      <c r="AV196">
+      <c r="AZ196">
         <v>6</v>
       </c>
-      <c r="AW196">
-        <v>8</v>
-      </c>
-      <c r="AX196">
-        <v>1</v>
-      </c>
-      <c r="AY196">
-        <v>13</v>
-      </c>
-      <c r="AZ196">
-        <v>7</v>
-      </c>
       <c r="BA196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB196">
         <v>4</v>
       </c>
       <c r="BC196">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD196">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="BE196">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF196">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="BG196">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="BH196">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="BI196">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="BJ196">
-        <v>2.23</v>
+        <v>3.15</v>
       </c>
       <c r="BK196">
-        <v>1.92</v>
+        <v>1.49</v>
       </c>
       <c r="BL196">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="BM196">
-        <v>2.43</v>
+        <v>1.78</v>
       </c>
       <c r="BN196">
-        <v>1.49</v>
+        <v>1.91</v>
       </c>
       <c r="BO196">
-        <v>3.15</v>
+        <v>2.18</v>
       </c>
       <c r="BP196">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41710,7 +41710,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7296725</v>
+        <v>7296724</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41719,196 +41719,196 @@
         <v>69</v>
       </c>
       <c r="E197" s="2">
-        <v>45562.875</v>
+        <v>45563.5</v>
       </c>
       <c r="F197">
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H197" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N197">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O197" t="s">
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="Q197">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="R197">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="S197">
-        <v>3.33</v>
+        <v>3.71</v>
       </c>
       <c r="T197">
         <v>1.33</v>
       </c>
       <c r="U197">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="V197">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="W197">
         <v>1.5</v>
       </c>
       <c r="X197">
-        <v>5.5</v>
+        <v>5.65</v>
       </c>
       <c r="Y197">
         <v>1.12</v>
       </c>
       <c r="Z197">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="AA197">
-        <v>3.45</v>
+        <v>3.62</v>
       </c>
       <c r="AB197">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="AC197">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD197">
-        <v>11.3</v>
+        <v>9</v>
       </c>
       <c r="AE197">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AF197">
-        <v>3.74</v>
+        <v>3.96</v>
       </c>
       <c r="AG197">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="AH197">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI197">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AJ197">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AK197">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AL197">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AM197">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AN197">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="AO197">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP197">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="AQ197">
-        <v>1.62</v>
+        <v>1</v>
       </c>
       <c r="AR197">
         <v>1.65</v>
       </c>
       <c r="AS197">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AT197">
-        <v>3.3</v>
+        <v>3.07</v>
       </c>
       <c r="AU197">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV197">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW197">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX197">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY197">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ197">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA197">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB197">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC197">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD197">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="BE197">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="BF197">
-        <v>2.08</v>
+        <v>2.65</v>
       </c>
       <c r="BG197">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="BH197">
+        <v>4.9</v>
+      </c>
+      <c r="BI197">
+        <v>1.24</v>
+      </c>
+      <c r="BJ197">
         <v>3.55</v>
       </c>
-      <c r="BI197">
-        <v>1.3</v>
-      </c>
-      <c r="BJ197">
-        <v>2.88</v>
-      </c>
       <c r="BK197">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="BL197">
-        <v>2.16</v>
+        <v>2.65</v>
       </c>
       <c r="BM197">
+        <v>1.66</v>
+      </c>
+      <c r="BN197">
+        <v>2.07</v>
+      </c>
+      <c r="BO197">
         <v>1.98</v>
       </c>
-      <c r="BN197">
-        <v>1.74</v>
-      </c>
-      <c r="BO197">
-        <v>2.49</v>
-      </c>
       <c r="BP197">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -41916,7 +41916,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>7296724</v>
+        <v>7296725</v>
       </c>
       <c r="C198" t="s">
         <v>68</v>
@@ -41925,196 +41925,196 @@
         <v>69</v>
       </c>
       <c r="E198" s="2">
-        <v>45562.875</v>
+        <v>45563.54166666666</v>
       </c>
       <c r="F198">
         <v>25</v>
       </c>
       <c r="G198" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H198" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N198">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O198" t="s">
         <v>218</v>
       </c>
       <c r="P198" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="Q198">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="R198">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="S198">
-        <v>3.71</v>
+        <v>3.33</v>
       </c>
       <c r="T198">
         <v>1.33</v>
       </c>
       <c r="U198">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="V198">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="W198">
         <v>1.5</v>
       </c>
       <c r="X198">
-        <v>5.65</v>
+        <v>5.5</v>
       </c>
       <c r="Y198">
         <v>1.12</v>
       </c>
       <c r="Z198">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="AA198">
-        <v>3.62</v>
+        <v>3.45</v>
       </c>
       <c r="AB198">
-        <v>3.2</v>
+        <v>2.78</v>
       </c>
       <c r="AC198">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD198">
-        <v>9</v>
+        <v>11.3</v>
       </c>
       <c r="AE198">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AF198">
-        <v>3.96</v>
+        <v>3.74</v>
       </c>
       <c r="AG198">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AH198">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AI198">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AJ198">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AK198">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AL198">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AM198">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AN198">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="AO198">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP198">
-        <v>1.38</v>
+        <v>1.92</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>1.62</v>
       </c>
       <c r="AR198">
         <v>1.65</v>
       </c>
       <c r="AS198">
+        <v>1.65</v>
+      </c>
+      <c r="AT198">
+        <v>3.3</v>
+      </c>
+      <c r="AU198">
+        <v>4</v>
+      </c>
+      <c r="AV198">
+        <v>0</v>
+      </c>
+      <c r="AW198">
+        <v>2</v>
+      </c>
+      <c r="AX198">
+        <v>8</v>
+      </c>
+      <c r="AY198">
+        <v>6</v>
+      </c>
+      <c r="AZ198">
+        <v>8</v>
+      </c>
+      <c r="BA198">
+        <v>3</v>
+      </c>
+      <c r="BB198">
+        <v>3</v>
+      </c>
+      <c r="BC198">
+        <v>6</v>
+      </c>
+      <c r="BD198">
+        <v>1.82</v>
+      </c>
+      <c r="BE198">
+        <v>6.25</v>
+      </c>
+      <c r="BF198">
+        <v>2.08</v>
+      </c>
+      <c r="BG198">
+        <v>1.33</v>
+      </c>
+      <c r="BH198">
+        <v>3.55</v>
+      </c>
+      <c r="BI198">
+        <v>1.3</v>
+      </c>
+      <c r="BJ198">
+        <v>2.88</v>
+      </c>
+      <c r="BK198">
+        <v>1.56</v>
+      </c>
+      <c r="BL198">
+        <v>2.16</v>
+      </c>
+      <c r="BM198">
+        <v>1.98</v>
+      </c>
+      <c r="BN198">
+        <v>1.74</v>
+      </c>
+      <c r="BO198">
+        <v>2.49</v>
+      </c>
+      <c r="BP198">
         <v>1.42</v>
-      </c>
-      <c r="AT198">
-        <v>3.07</v>
-      </c>
-      <c r="AU198">
-        <v>7</v>
-      </c>
-      <c r="AV198">
-        <v>6</v>
-      </c>
-      <c r="AW198">
-        <v>7</v>
-      </c>
-      <c r="AX198">
-        <v>5</v>
-      </c>
-      <c r="AY198">
-        <v>14</v>
-      </c>
-      <c r="AZ198">
-        <v>11</v>
-      </c>
-      <c r="BA198">
-        <v>5</v>
-      </c>
-      <c r="BB198">
-        <v>5</v>
-      </c>
-      <c r="BC198">
-        <v>10</v>
-      </c>
-      <c r="BD198">
-        <v>1.49</v>
-      </c>
-      <c r="BE198">
-        <v>7</v>
-      </c>
-      <c r="BF198">
-        <v>2.65</v>
-      </c>
-      <c r="BG198">
-        <v>1.13</v>
-      </c>
-      <c r="BH198">
-        <v>4.9</v>
-      </c>
-      <c r="BI198">
-        <v>1.24</v>
-      </c>
-      <c r="BJ198">
-        <v>3.55</v>
-      </c>
-      <c r="BK198">
-        <v>1.42</v>
-      </c>
-      <c r="BL198">
-        <v>2.65</v>
-      </c>
-      <c r="BM198">
-        <v>1.66</v>
-      </c>
-      <c r="BN198">
-        <v>2.07</v>
-      </c>
-      <c r="BO198">
-        <v>1.98</v>
-      </c>
-      <c r="BP198">
-        <v>1.72</v>
       </c>
     </row>
     <row r="199" spans="1:68">
@@ -42131,7 +42131,7 @@
         <v>69</v>
       </c>
       <c r="E199" s="2">
-        <v>45563.875</v>
+        <v>45564.41666666666</v>
       </c>
       <c r="F199">
         <v>25</v>
@@ -42257,22 +42257,22 @@
         <v>2.83</v>
       </c>
       <c r="AU199">
+        <v>11</v>
+      </c>
+      <c r="AV199">
+        <v>2</v>
+      </c>
+      <c r="AW199">
         <v>7</v>
       </c>
-      <c r="AV199">
-        <v>3</v>
-      </c>
-      <c r="AW199">
-        <v>4</v>
-      </c>
       <c r="AX199">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY199">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ199">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA199">
         <v>6</v>
@@ -42337,7 +42337,7 @@
         <v>69</v>
       </c>
       <c r="E200" s="2">
-        <v>45564.875</v>
+        <v>45565.58333333334</v>
       </c>
       <c r="F200">
         <v>25</v>
@@ -42463,31 +42463,31 @@
         <v>3.38</v>
       </c>
       <c r="AU200">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV200">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW200">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX200">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY200">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ200">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA200">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB200">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC200">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD200">
         <v>1.29</v>
@@ -42543,7 +42543,7 @@
         <v>69</v>
       </c>
       <c r="E201" s="2">
-        <v>45564.875</v>
+        <v>45565.58333333334</v>
       </c>
       <c r="F201">
         <v>25</v>
@@ -42669,31 +42669,31 @@
         <v>3.01</v>
       </c>
       <c r="AU201">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV201">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW201">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY201">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ201">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA201">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC201">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD201">
         <v>1.58</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,9 @@
     <t>['21', '24', '72', '78', '88']</t>
   </si>
   <si>
+    <t>['19', '27', '39', '90+1']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1788,7 +1791,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2072,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ4">
         <v>1.08</v>
@@ -2200,7 +2203,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2487,7 +2490,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ6">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2612,7 +2615,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3024,7 +3027,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3436,7 +3439,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3642,7 +3645,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4672,7 +4675,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4959,7 +4962,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR18">
         <v>1</v>
@@ -5084,7 +5087,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5162,7 +5165,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5908,7 +5911,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6114,7 +6117,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -7144,7 +7147,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7350,7 +7353,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7968,7 +7971,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8458,7 +8461,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8586,7 +8589,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8792,7 +8795,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9410,7 +9413,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -10234,7 +10237,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10727,7 +10730,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR46">
         <v>1.15</v>
@@ -11264,7 +11267,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11676,7 +11679,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11882,7 +11885,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -12088,7 +12091,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12375,7 +12378,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12500,7 +12503,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12706,7 +12709,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13118,7 +13121,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13942,7 +13945,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14148,7 +14151,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14432,7 +14435,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14560,7 +14563,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14972,7 +14975,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15178,7 +15181,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15384,7 +15387,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15465,7 +15468,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR69">
         <v>1.61</v>
@@ -15590,7 +15593,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15796,7 +15799,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16208,7 +16211,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16414,7 +16417,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16620,7 +16623,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16826,7 +16829,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17032,7 +17035,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17444,7 +17447,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -18062,7 +18065,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18474,7 +18477,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18758,7 +18761,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ85">
         <v>1.08</v>
@@ -18886,7 +18889,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19298,7 +19301,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19504,7 +19507,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19585,7 +19588,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR89">
         <v>1.03</v>
@@ -19916,7 +19919,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20122,7 +20125,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -21358,7 +21361,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21976,7 +21979,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22182,7 +22185,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22800,7 +22803,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22878,7 +22881,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ105">
         <v>1.33</v>
@@ -23212,7 +23215,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23624,7 +23627,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23830,7 +23833,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -24036,7 +24039,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24114,7 +24117,7 @@
         <v>0.71</v>
       </c>
       <c r="AP111">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ111">
         <v>0.5</v>
@@ -24323,7 +24326,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR112">
         <v>1.74</v>
@@ -24448,7 +24451,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24654,7 +24657,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25066,7 +25069,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25478,7 +25481,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26096,7 +26099,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26302,7 +26305,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26508,7 +26511,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26795,7 +26798,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ124">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR124">
         <v>1.88</v>
@@ -26920,7 +26923,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27126,7 +27129,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27204,7 +27207,7 @@
         <v>0.43</v>
       </c>
       <c r="AP126">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ126">
         <v>0.6899999999999999</v>
@@ -27538,7 +27541,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27744,7 +27747,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28156,7 +28159,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28362,7 +28365,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28774,7 +28777,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28980,7 +28983,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29186,7 +29189,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29392,7 +29395,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29679,7 +29682,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ138">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR138">
         <v>1.56</v>
@@ -29804,7 +29807,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30010,7 +30013,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30422,7 +30425,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30628,7 +30631,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30912,7 +30915,7 @@
         <v>0.13</v>
       </c>
       <c r="AP144">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ144">
         <v>0.6899999999999999</v>
@@ -31040,7 +31043,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -32070,7 +32073,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32482,7 +32485,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32894,7 +32897,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -32975,7 +32978,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ154">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR154">
         <v>1.63</v>
@@ -33512,7 +33515,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33718,7 +33721,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -33796,7 +33799,7 @@
         <v>0.89</v>
       </c>
       <c r="AP158">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34130,7 +34133,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34336,7 +34339,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -35160,7 +35163,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35366,7 +35369,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35572,7 +35575,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35778,7 +35781,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -35984,7 +35987,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -36268,7 +36271,7 @@
         <v>1.2</v>
       </c>
       <c r="AP170">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ170">
         <v>1.33</v>
@@ -36808,7 +36811,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>2.63</v>
@@ -37014,7 +37017,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37426,7 +37429,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>1.73</v>
@@ -37507,7 +37510,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ176">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR176">
         <v>1.38</v>
@@ -37632,7 +37635,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>3.15</v>
@@ -38044,7 +38047,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>1.92</v>
@@ -38250,7 +38253,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -39074,7 +39077,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>3.3</v>
@@ -39486,7 +39489,7 @@
         <v>149</v>
       </c>
       <c r="P186" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q186">
         <v>2.05</v>
@@ -39567,7 +39570,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ186">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR186">
         <v>1.67</v>
@@ -39692,7 +39695,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39898,7 +39901,7 @@
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q188">
         <v>4.75</v>
@@ -40594,7 +40597,7 @@
         <v>2</v>
       </c>
       <c r="AP191">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ191">
         <v>2.08</v>
@@ -41340,7 +41343,7 @@
         <v>90</v>
       </c>
       <c r="P195" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q195">
         <v>3.15</v>
@@ -41546,7 +41549,7 @@
         <v>155</v>
       </c>
       <c r="P196" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q196">
         <v>2.7</v>
@@ -41752,7 +41755,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q197">
         <v>2.62</v>
@@ -42370,7 +42373,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q200">
         <v>1.81</v>
@@ -42576,7 +42579,7 @@
         <v>90</v>
       </c>
       <c r="P201" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q201">
         <v>2.66</v>
@@ -42733,6 +42736,212 @@
       </c>
       <c r="BP201">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7296732</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>72</v>
+      </c>
+      <c r="H202" t="s">
+        <v>83</v>
+      </c>
+      <c r="I202">
+        <v>3</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>3</v>
+      </c>
+      <c r="L202">
+        <v>4</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>5</v>
+      </c>
+      <c r="O202" t="s">
+        <v>221</v>
+      </c>
+      <c r="P202" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q202">
+        <v>1.73</v>
+      </c>
+      <c r="R202">
+        <v>2.5</v>
+      </c>
+      <c r="S202">
+        <v>7</v>
+      </c>
+      <c r="T202">
+        <v>1.28</v>
+      </c>
+      <c r="U202">
+        <v>3.48</v>
+      </c>
+      <c r="V202">
+        <v>2.31</v>
+      </c>
+      <c r="W202">
+        <v>1.57</v>
+      </c>
+      <c r="X202">
+        <v>5.3</v>
+      </c>
+      <c r="Y202">
+        <v>1.14</v>
+      </c>
+      <c r="Z202">
+        <v>1.35</v>
+      </c>
+      <c r="AA202">
+        <v>5</v>
+      </c>
+      <c r="AB202">
+        <v>7.2</v>
+      </c>
+      <c r="AC202">
+        <v>1.01</v>
+      </c>
+      <c r="AD202">
+        <v>13</v>
+      </c>
+      <c r="AE202">
+        <v>1.13</v>
+      </c>
+      <c r="AF202">
+        <v>5.2</v>
+      </c>
+      <c r="AG202">
+        <v>1.54</v>
+      </c>
+      <c r="AH202">
+        <v>2.31</v>
+      </c>
+      <c r="AI202">
+        <v>1.87</v>
+      </c>
+      <c r="AJ202">
+        <v>1.9</v>
+      </c>
+      <c r="AK202">
+        <v>1.06</v>
+      </c>
+      <c r="AL202">
+        <v>1.15</v>
+      </c>
+      <c r="AM202">
+        <v>3.16</v>
+      </c>
+      <c r="AN202">
+        <v>1.75</v>
+      </c>
+      <c r="AO202">
+        <v>0.83</v>
+      </c>
+      <c r="AP202">
+        <v>1.85</v>
+      </c>
+      <c r="AQ202">
+        <v>0.77</v>
+      </c>
+      <c r="AR202">
+        <v>1.53</v>
+      </c>
+      <c r="AS202">
+        <v>1.08</v>
+      </c>
+      <c r="AT202">
+        <v>2.61</v>
+      </c>
+      <c r="AU202">
+        <v>7</v>
+      </c>
+      <c r="AV202">
+        <v>3</v>
+      </c>
+      <c r="AW202">
+        <v>9</v>
+      </c>
+      <c r="AX202">
+        <v>7</v>
+      </c>
+      <c r="AY202">
+        <v>16</v>
+      </c>
+      <c r="AZ202">
+        <v>10</v>
+      </c>
+      <c r="BA202">
+        <v>5</v>
+      </c>
+      <c r="BB202">
+        <v>6</v>
+      </c>
+      <c r="BC202">
+        <v>11</v>
+      </c>
+      <c r="BD202">
+        <v>1.24</v>
+      </c>
+      <c r="BE202">
+        <v>7.5</v>
+      </c>
+      <c r="BF202">
+        <v>3.95</v>
+      </c>
+      <c r="BG202">
+        <v>1.23</v>
+      </c>
+      <c r="BH202">
+        <v>3.65</v>
+      </c>
+      <c r="BI202">
+        <v>1.41</v>
+      </c>
+      <c r="BJ202">
+        <v>2.65</v>
+      </c>
+      <c r="BK202">
+        <v>1.67</v>
+      </c>
+      <c r="BL202">
+        <v>2.07</v>
+      </c>
+      <c r="BM202">
+        <v>1.95</v>
+      </c>
+      <c r="BN202">
+        <v>1.85</v>
+      </c>
+      <c r="BO202">
+        <v>2.55</v>
+      </c>
+      <c r="BP202">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="321">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,21 @@
     <t>['19', '27', '39', '90+1']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['48', '60', '67']</t>
+  </si>
+  <si>
+    <t>['23', '37', '67', '90+9']</t>
+  </si>
+  <si>
+    <t>['8', '30']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -773,9 +788,6 @@
   </si>
   <si>
     <t>['71']</t>
-  </si>
-  <si>
-    <t>['13']</t>
   </si>
   <si>
     <t>['62', '90+2']</t>
@@ -1326,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP202"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1678,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1791,7 +1803,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -2203,7 +2215,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2281,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2615,7 +2627,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2693,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ7">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3027,7 +3039,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3439,7 +3451,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3517,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3645,7 +3657,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3723,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4135,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ14">
         <v>0.6899999999999999</v>
@@ -4550,7 +4562,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4675,7 +4687,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4756,7 +4768,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5087,7 +5099,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5371,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR20">
         <v>1.27</v>
@@ -5577,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ21">
         <v>1.08</v>
@@ -5911,7 +5923,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -5992,7 +6004,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR23">
         <v>1.36</v>
@@ -6117,7 +6129,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -6195,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6404,7 +6416,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -6607,7 +6619,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -7019,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ28">
         <v>0.6899999999999999</v>
@@ -7147,7 +7159,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7228,7 +7240,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR29">
         <v>2.28</v>
@@ -7353,7 +7365,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7971,7 +7983,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8052,7 +8064,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ33">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR33">
         <v>2.19</v>
@@ -8589,7 +8601,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8667,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ36">
         <v>1.08</v>
@@ -8795,7 +8807,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -9082,7 +9094,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR38">
         <v>1.65</v>
@@ -9288,7 +9300,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -9413,7 +9425,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -9491,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ40">
         <v>1.67</v>
@@ -10109,10 +10121,10 @@
         <v>1.33</v>
       </c>
       <c r="AP43">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR43">
         <v>1.56</v>
@@ -10237,7 +10249,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10727,7 +10739,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ46">
         <v>0.77</v>
@@ -10936,7 +10948,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR47">
         <v>2.28</v>
@@ -11139,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ48">
         <v>1.08</v>
@@ -11267,7 +11279,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11348,7 +11360,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR49">
         <v>1.79</v>
@@ -11679,7 +11691,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11757,7 +11769,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11885,7 +11897,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -12091,7 +12103,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12169,10 +12181,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR53">
         <v>1.43</v>
@@ -12375,7 +12387,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ54">
         <v>0.77</v>
@@ -12503,7 +12515,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12709,7 +12721,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12790,7 +12802,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ56">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13121,7 +13133,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13199,7 +13211,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ58">
         <v>1.33</v>
@@ -13405,10 +13417,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ59">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13611,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ60">
         <v>0.6899999999999999</v>
@@ -13820,7 +13832,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR61">
         <v>0.92</v>
@@ -13945,7 +13957,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14026,7 +14038,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR62">
         <v>1.81</v>
@@ -14151,7 +14163,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14232,7 +14244,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR63">
         <v>1.89</v>
@@ -14438,7 +14450,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR64">
         <v>1.4</v>
@@ -14563,7 +14575,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14641,7 +14653,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14975,7 +14987,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15181,7 +15193,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15387,7 +15399,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15593,7 +15605,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15799,7 +15811,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16083,7 +16095,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16211,7 +16223,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16417,7 +16429,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16623,7 +16635,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16704,7 +16716,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR75">
         <v>1.67</v>
@@ -16829,7 +16841,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -16907,10 +16919,10 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ76">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR76">
         <v>1.5</v>
@@ -17035,7 +17047,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17113,10 +17125,10 @@
         <v>1.25</v>
       </c>
       <c r="AP77">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR77">
         <v>1.51</v>
@@ -17447,7 +17459,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -17525,7 +17537,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ79">
         <v>0.6899999999999999</v>
@@ -17731,10 +17743,10 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -18065,7 +18077,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>2.56</v>
@@ -18477,7 +18489,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18889,7 +18901,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19301,7 +19313,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19382,7 +19394,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR88">
         <v>1.45</v>
@@ -19507,7 +19519,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19585,7 +19597,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ89">
         <v>0.77</v>
@@ -19919,7 +19931,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19997,7 +20009,7 @@
         <v>1.83</v>
       </c>
       <c r="AP91">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ91">
         <v>1.62</v>
@@ -20125,7 +20137,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -20409,7 +20421,7 @@
         <v>0.4</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20618,7 +20630,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR94">
         <v>1.56</v>
@@ -20824,7 +20836,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR95">
         <v>2.11</v>
@@ -21027,7 +21039,7 @@
         <v>0.83</v>
       </c>
       <c r="AP96">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21233,10 +21245,10 @@
         <v>1.33</v>
       </c>
       <c r="AP97">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ97">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR97">
         <v>1.72</v>
@@ -21361,7 +21373,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21979,7 +21991,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22057,7 +22069,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ101">
         <v>0.6899999999999999</v>
@@ -22185,7 +22197,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22472,7 +22484,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ103">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR103">
         <v>2.16</v>
@@ -22803,7 +22815,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -22884,7 +22896,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ105">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR105">
         <v>1.43</v>
@@ -23215,7 +23227,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23627,7 +23639,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23708,7 +23720,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR109">
         <v>1.45</v>
@@ -23833,7 +23845,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -23911,7 +23923,7 @@
         <v>0.71</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24039,7 +24051,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24120,7 +24132,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ111">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR111">
         <v>1.53</v>
@@ -24451,7 +24463,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24529,7 +24541,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24657,7 +24669,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24735,7 +24747,7 @@
         <v>1.17</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ114">
         <v>1.08</v>
@@ -25069,7 +25081,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25150,7 +25162,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ116">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR116">
         <v>1.55</v>
@@ -25356,7 +25368,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ117">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR117">
         <v>1.51</v>
@@ -25481,7 +25493,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25559,7 +25571,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25974,7 +25986,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR120">
         <v>0.88</v>
@@ -26099,7 +26111,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26177,7 +26189,7 @@
         <v>2</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ121">
         <v>1.62</v>
@@ -26305,7 +26317,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26383,7 +26395,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ122">
         <v>1.08</v>
@@ -26511,7 +26523,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26923,7 +26935,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27129,7 +27141,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27416,7 +27428,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR127">
         <v>1.58</v>
@@ -27541,7 +27553,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27747,7 +27759,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28159,7 +28171,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28240,7 +28252,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ131">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR131">
         <v>1.57</v>
@@ -28365,7 +28377,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28649,7 +28661,7 @@
         <v>0.75</v>
       </c>
       <c r="AP133">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ133">
         <v>0.6899999999999999</v>
@@ -28777,7 +28789,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28855,10 +28867,10 @@
         <v>1.86</v>
       </c>
       <c r="AP134">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ134">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR134">
         <v>1.09</v>
@@ -28983,7 +28995,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29064,7 +29076,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ135">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR135">
         <v>0.9</v>
@@ -29189,7 +29201,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29267,7 +29279,7 @@
         <v>1.88</v>
       </c>
       <c r="AP136">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ136">
         <v>1.62</v>
@@ -29395,7 +29407,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29476,7 +29488,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR137">
         <v>2.2</v>
@@ -29807,7 +29819,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -29885,7 +29897,7 @@
         <v>0.63</v>
       </c>
       <c r="AP139">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -30013,7 +30025,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30091,7 +30103,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ140">
         <v>1.08</v>
@@ -30425,7 +30437,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30631,7 +30643,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30712,7 +30724,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR143">
         <v>1.78</v>
@@ -31043,7 +31055,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -31327,7 +31339,7 @@
         <v>0.22</v>
       </c>
       <c r="AP146">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ146">
         <v>0.6899999999999999</v>
@@ -31739,10 +31751,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP148">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ148">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR148">
         <v>1.69</v>
@@ -31948,7 +31960,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ149">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR149">
         <v>2.21</v>
@@ -32073,7 +32085,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32154,7 +32166,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ150">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR150">
         <v>0.9399999999999999</v>
@@ -32485,7 +32497,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32566,7 +32578,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ152">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR152">
         <v>2.16</v>
@@ -32769,7 +32781,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ153">
         <v>1.62</v>
@@ -32897,7 +32909,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -33181,7 +33193,7 @@
         <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ155">
         <v>1.33</v>
@@ -33387,7 +33399,7 @@
         <v>1.22</v>
       </c>
       <c r="AP156">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ156">
         <v>1.08</v>
@@ -33515,7 +33527,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33721,7 +33733,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -34133,7 +34145,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34211,10 +34223,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP160">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ160">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR160">
         <v>1.48</v>
@@ -34339,7 +34351,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -34420,7 +34432,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ161">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR161">
         <v>1.59</v>
@@ -34832,7 +34844,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ163">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR163">
         <v>2.19</v>
@@ -35035,7 +35047,7 @@
         <v>1.1</v>
       </c>
       <c r="AP164">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35163,7 +35175,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35369,7 +35381,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35575,7 +35587,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35781,7 +35793,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -35987,7 +35999,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -36068,7 +36080,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ169">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR169">
         <v>1.69</v>
@@ -36477,10 +36489,10 @@
         <v>0.5</v>
       </c>
       <c r="AP171">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR171">
         <v>1.65</v>
@@ -36686,7 +36698,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ172">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR172">
         <v>1.75</v>
@@ -36811,7 +36823,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>2.63</v>
@@ -37017,7 +37029,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37095,7 +37107,7 @@
         <v>1.4</v>
       </c>
       <c r="AP174">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ174">
         <v>1.67</v>
@@ -37304,7 +37316,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR175">
         <v>1.44</v>
@@ -37429,7 +37441,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q176">
         <v>1.73</v>
@@ -37507,7 +37519,7 @@
         <v>0.8</v>
       </c>
       <c r="AP176">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ176">
         <v>0.77</v>
@@ -37635,7 +37647,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>3.15</v>
@@ -37713,10 +37725,10 @@
         <v>1.2</v>
       </c>
       <c r="AP177">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ177">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR177">
         <v>1.32</v>
@@ -38047,7 +38059,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q179">
         <v>1.92</v>
@@ -38253,7 +38265,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -39077,7 +39089,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q184">
         <v>3.3</v>
@@ -39489,7 +39501,7 @@
         <v>149</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q186">
         <v>2.05</v>
@@ -39567,7 +39579,7 @@
         <v>0.82</v>
       </c>
       <c r="AP186">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ186">
         <v>0.77</v>
@@ -39695,7 +39707,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q187">
         <v>3.5</v>
@@ -39773,10 +39785,10 @@
         <v>1.18</v>
       </c>
       <c r="AP187">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ187">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR187">
         <v>1.14</v>
@@ -39901,7 +39913,7 @@
         <v>90</v>
       </c>
       <c r="P188" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q188">
         <v>4.75</v>
@@ -40185,7 +40197,7 @@
         <v>1.55</v>
       </c>
       <c r="AP189">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ189">
         <v>1.67</v>
@@ -40394,7 +40406,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ190">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR190">
         <v>1.49</v>
@@ -40600,7 +40612,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ191">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AR191">
         <v>1.63</v>
@@ -40803,10 +40815,10 @@
         <v>0.45</v>
       </c>
       <c r="AP192">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ192">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR192">
         <v>1.33</v>
@@ -41009,10 +41021,10 @@
         <v>1.36</v>
       </c>
       <c r="AP193">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ193">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR193">
         <v>1.4</v>
@@ -41343,7 +41355,7 @@
         <v>90</v>
       </c>
       <c r="P195" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q195">
         <v>3.15</v>
@@ -41549,7 +41561,7 @@
         <v>155</v>
       </c>
       <c r="P196" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q196">
         <v>2.7</v>
@@ -41755,7 +41767,7 @@
         <v>217</v>
       </c>
       <c r="P197" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q197">
         <v>2.62</v>
@@ -42373,7 +42385,7 @@
         <v>220</v>
       </c>
       <c r="P200" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q200">
         <v>1.81</v>
@@ -42579,7 +42591,7 @@
         <v>90</v>
       </c>
       <c r="P201" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q201">
         <v>2.66</v>
@@ -42785,7 +42797,7 @@
         <v>221</v>
       </c>
       <c r="P202" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q202">
         <v>1.73</v>
@@ -42942,6 +42954,1036 @@
       </c>
       <c r="BP202">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7296739</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>79</v>
+      </c>
+      <c r="H203" t="s">
+        <v>74</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>222</v>
+      </c>
+      <c r="P203" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q203">
+        <v>3.05</v>
+      </c>
+      <c r="R203">
+        <v>2.36</v>
+      </c>
+      <c r="S203">
+        <v>3.18</v>
+      </c>
+      <c r="T203">
+        <v>1.32</v>
+      </c>
+      <c r="U203">
+        <v>3.22</v>
+      </c>
+      <c r="V203">
+        <v>2.52</v>
+      </c>
+      <c r="W203">
+        <v>1.5</v>
+      </c>
+      <c r="X203">
+        <v>5.9</v>
+      </c>
+      <c r="Y203">
+        <v>1.11</v>
+      </c>
+      <c r="Z203">
+        <v>2.5</v>
+      </c>
+      <c r="AA203">
+        <v>3.5</v>
+      </c>
+      <c r="AB203">
+        <v>2.38</v>
+      </c>
+      <c r="AC203">
+        <v>1.01</v>
+      </c>
+      <c r="AD203">
+        <v>11</v>
+      </c>
+      <c r="AE203">
+        <v>1.17</v>
+      </c>
+      <c r="AF203">
+        <v>3.84</v>
+      </c>
+      <c r="AG203">
+        <v>1.7</v>
+      </c>
+      <c r="AH203">
+        <v>2.07</v>
+      </c>
+      <c r="AI203">
+        <v>1.56</v>
+      </c>
+      <c r="AJ203">
+        <v>2.27</v>
+      </c>
+      <c r="AK203">
+        <v>1.47</v>
+      </c>
+      <c r="AL203">
+        <v>1.27</v>
+      </c>
+      <c r="AM203">
+        <v>1.51</v>
+      </c>
+      <c r="AN203">
+        <v>1.25</v>
+      </c>
+      <c r="AO203">
+        <v>0.5</v>
+      </c>
+      <c r="AP203">
+        <v>1.23</v>
+      </c>
+      <c r="AQ203">
+        <v>0.54</v>
+      </c>
+      <c r="AR203">
+        <v>1.1</v>
+      </c>
+      <c r="AS203">
+        <v>1.38</v>
+      </c>
+      <c r="AT203">
+        <v>2.48</v>
+      </c>
+      <c r="AU203">
+        <v>-1</v>
+      </c>
+      <c r="AV203">
+        <v>-1</v>
+      </c>
+      <c r="AW203">
+        <v>-1</v>
+      </c>
+      <c r="AX203">
+        <v>-1</v>
+      </c>
+      <c r="AY203">
+        <v>-1</v>
+      </c>
+      <c r="AZ203">
+        <v>-1</v>
+      </c>
+      <c r="BA203">
+        <v>-1</v>
+      </c>
+      <c r="BB203">
+        <v>-1</v>
+      </c>
+      <c r="BC203">
+        <v>-1</v>
+      </c>
+      <c r="BD203">
+        <v>1.97</v>
+      </c>
+      <c r="BE203">
+        <v>6.4</v>
+      </c>
+      <c r="BF203">
+        <v>1.9</v>
+      </c>
+      <c r="BG203">
+        <v>1.23</v>
+      </c>
+      <c r="BH203">
+        <v>3.7</v>
+      </c>
+      <c r="BI203">
+        <v>1.38</v>
+      </c>
+      <c r="BJ203">
+        <v>2.7</v>
+      </c>
+      <c r="BK203">
+        <v>1.63</v>
+      </c>
+      <c r="BL203">
+        <v>2.12</v>
+      </c>
+      <c r="BM203">
+        <v>1.98</v>
+      </c>
+      <c r="BN203">
+        <v>1.73</v>
+      </c>
+      <c r="BO203">
+        <v>2.48</v>
+      </c>
+      <c r="BP203">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7296737</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204" t="s">
+        <v>80</v>
+      </c>
+      <c r="H204" t="s">
+        <v>78</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204" t="s">
+        <v>223</v>
+      </c>
+      <c r="P204" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q204">
+        <v>2.15</v>
+      </c>
+      <c r="R204">
+        <v>2.3</v>
+      </c>
+      <c r="S204">
+        <v>4.5</v>
+      </c>
+      <c r="T204">
+        <v>1.28</v>
+      </c>
+      <c r="U204">
+        <v>3.3</v>
+      </c>
+      <c r="V204">
+        <v>2.25</v>
+      </c>
+      <c r="W204">
+        <v>1.57</v>
+      </c>
+      <c r="X204">
+        <v>5.15</v>
+      </c>
+      <c r="Y204">
+        <v>1.14</v>
+      </c>
+      <c r="Z204">
+        <v>1.62</v>
+      </c>
+      <c r="AA204">
+        <v>3.9</v>
+      </c>
+      <c r="AB204">
+        <v>4.2</v>
+      </c>
+      <c r="AC204">
+        <v>1.03</v>
+      </c>
+      <c r="AD204">
+        <v>10</v>
+      </c>
+      <c r="AE204">
+        <v>1.18</v>
+      </c>
+      <c r="AF204">
+        <v>4.5</v>
+      </c>
+      <c r="AG204">
+        <v>1.55</v>
+      </c>
+      <c r="AH204">
+        <v>2.3</v>
+      </c>
+      <c r="AI204">
+        <v>1.53</v>
+      </c>
+      <c r="AJ204">
+        <v>2.25</v>
+      </c>
+      <c r="AK204">
+        <v>1.15</v>
+      </c>
+      <c r="AL204">
+        <v>1.18</v>
+      </c>
+      <c r="AM204">
+        <v>2.15</v>
+      </c>
+      <c r="AN204">
+        <v>2.08</v>
+      </c>
+      <c r="AO204">
+        <v>0.5</v>
+      </c>
+      <c r="AP204">
+        <v>2.15</v>
+      </c>
+      <c r="AQ204">
+        <v>0.46</v>
+      </c>
+      <c r="AR204">
+        <v>1.41</v>
+      </c>
+      <c r="AS204">
+        <v>1.59</v>
+      </c>
+      <c r="AT204">
+        <v>3</v>
+      </c>
+      <c r="AU204">
+        <v>-1</v>
+      </c>
+      <c r="AV204">
+        <v>-1</v>
+      </c>
+      <c r="AW204">
+        <v>-1</v>
+      </c>
+      <c r="AX204">
+        <v>-1</v>
+      </c>
+      <c r="AY204">
+        <v>-1</v>
+      </c>
+      <c r="AZ204">
+        <v>-1</v>
+      </c>
+      <c r="BA204">
+        <v>-1</v>
+      </c>
+      <c r="BB204">
+        <v>-1</v>
+      </c>
+      <c r="BC204">
+        <v>-1</v>
+      </c>
+      <c r="BD204">
+        <v>1.64</v>
+      </c>
+      <c r="BE204">
+        <v>6.75</v>
+      </c>
+      <c r="BF204">
+        <v>2.33</v>
+      </c>
+      <c r="BG204">
+        <v>1.18</v>
+      </c>
+      <c r="BH204">
+        <v>4.3</v>
+      </c>
+      <c r="BI204">
+        <v>1.3</v>
+      </c>
+      <c r="BJ204">
+        <v>3.05</v>
+      </c>
+      <c r="BK204">
+        <v>1.52</v>
+      </c>
+      <c r="BL204">
+        <v>2.33</v>
+      </c>
+      <c r="BM204">
+        <v>1.83</v>
+      </c>
+      <c r="BN204">
+        <v>1.85</v>
+      </c>
+      <c r="BO204">
+        <v>2.28</v>
+      </c>
+      <c r="BP204">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7296735</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>82</v>
+      </c>
+      <c r="H205" t="s">
+        <v>85</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205">
+        <v>4</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>4</v>
+      </c>
+      <c r="O205" t="s">
+        <v>224</v>
+      </c>
+      <c r="P205" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q205">
+        <v>4.07</v>
+      </c>
+      <c r="R205">
+        <v>2.28</v>
+      </c>
+      <c r="S205">
+        <v>2.61</v>
+      </c>
+      <c r="T205">
+        <v>1.35</v>
+      </c>
+      <c r="U205">
+        <v>3.12</v>
+      </c>
+      <c r="V205">
+        <v>2.75</v>
+      </c>
+      <c r="W205">
+        <v>1.43</v>
+      </c>
+      <c r="X205">
+        <v>6.7</v>
+      </c>
+      <c r="Y205">
+        <v>1.09</v>
+      </c>
+      <c r="Z205">
+        <v>3.4</v>
+      </c>
+      <c r="AA205">
+        <v>3.4</v>
+      </c>
+      <c r="AB205">
+        <v>1.91</v>
+      </c>
+      <c r="AC205">
+        <v>1.03</v>
+      </c>
+      <c r="AD205">
+        <v>9</v>
+      </c>
+      <c r="AE205">
+        <v>1.22</v>
+      </c>
+      <c r="AF205">
+        <v>3.35</v>
+      </c>
+      <c r="AG205">
+        <v>1.85</v>
+      </c>
+      <c r="AH205">
+        <v>1.92</v>
+      </c>
+      <c r="AI205">
+        <v>1.71</v>
+      </c>
+      <c r="AJ205">
+        <v>2.02</v>
+      </c>
+      <c r="AK205">
+        <v>1.79</v>
+      </c>
+      <c r="AL205">
+        <v>1.28</v>
+      </c>
+      <c r="AM205">
+        <v>1.26</v>
+      </c>
+      <c r="AN205">
+        <v>1.5</v>
+      </c>
+      <c r="AO205">
+        <v>2.08</v>
+      </c>
+      <c r="AP205">
+        <v>1.62</v>
+      </c>
+      <c r="AQ205">
+        <v>1.92</v>
+      </c>
+      <c r="AR205">
+        <v>1.32</v>
+      </c>
+      <c r="AS205">
+        <v>1.47</v>
+      </c>
+      <c r="AT205">
+        <v>2.79</v>
+      </c>
+      <c r="AU205">
+        <v>6</v>
+      </c>
+      <c r="AV205">
+        <v>4</v>
+      </c>
+      <c r="AW205">
+        <v>4</v>
+      </c>
+      <c r="AX205">
+        <v>4</v>
+      </c>
+      <c r="AY205">
+        <v>10</v>
+      </c>
+      <c r="AZ205">
+        <v>8</v>
+      </c>
+      <c r="BA205">
+        <v>2</v>
+      </c>
+      <c r="BB205">
+        <v>4</v>
+      </c>
+      <c r="BC205">
+        <v>6</v>
+      </c>
+      <c r="BD205">
+        <v>2.23</v>
+      </c>
+      <c r="BE205">
+        <v>6.75</v>
+      </c>
+      <c r="BF205">
+        <v>1.68</v>
+      </c>
+      <c r="BG205">
+        <v>1.16</v>
+      </c>
+      <c r="BH205">
+        <v>4.4</v>
+      </c>
+      <c r="BI205">
+        <v>1.29</v>
+      </c>
+      <c r="BJ205">
+        <v>3.15</v>
+      </c>
+      <c r="BK205">
+        <v>1.49</v>
+      </c>
+      <c r="BL205">
+        <v>2.4</v>
+      </c>
+      <c r="BM205">
+        <v>1.79</v>
+      </c>
+      <c r="BN205">
+        <v>1.9</v>
+      </c>
+      <c r="BO205">
+        <v>2.18</v>
+      </c>
+      <c r="BP205">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7296733</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F206">
+        <v>26</v>
+      </c>
+      <c r="G206" t="s">
+        <v>75</v>
+      </c>
+      <c r="H206" t="s">
+        <v>76</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>3</v>
+      </c>
+      <c r="L206">
+        <v>2</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206" t="s">
+        <v>225</v>
+      </c>
+      <c r="P206" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q206">
+        <v>3.75</v>
+      </c>
+      <c r="R206">
+        <v>2.2</v>
+      </c>
+      <c r="S206">
+        <v>2.5</v>
+      </c>
+      <c r="T206">
+        <v>1.32</v>
+      </c>
+      <c r="U206">
+        <v>3.22</v>
+      </c>
+      <c r="V206">
+        <v>2.52</v>
+      </c>
+      <c r="W206">
+        <v>1.5</v>
+      </c>
+      <c r="X206">
+        <v>5.9</v>
+      </c>
+      <c r="Y206">
+        <v>1.11</v>
+      </c>
+      <c r="Z206">
+        <v>3.6</v>
+      </c>
+      <c r="AA206">
+        <v>3.6</v>
+      </c>
+      <c r="AB206">
+        <v>1.8</v>
+      </c>
+      <c r="AC206">
+        <v>1.01</v>
+      </c>
+      <c r="AD206">
+        <v>11</v>
+      </c>
+      <c r="AE206">
+        <v>1.17</v>
+      </c>
+      <c r="AF206">
+        <v>4.5</v>
+      </c>
+      <c r="AG206">
+        <v>1.73</v>
+      </c>
+      <c r="AH206">
+        <v>2</v>
+      </c>
+      <c r="AI206">
+        <v>1.57</v>
+      </c>
+      <c r="AJ206">
+        <v>2.38</v>
+      </c>
+      <c r="AK206">
+        <v>1.86</v>
+      </c>
+      <c r="AL206">
+        <v>1.25</v>
+      </c>
+      <c r="AM206">
+        <v>1.26</v>
+      </c>
+      <c r="AN206">
+        <v>1.33</v>
+      </c>
+      <c r="AO206">
+        <v>1.33</v>
+      </c>
+      <c r="AP206">
+        <v>1.46</v>
+      </c>
+      <c r="AQ206">
+        <v>1.23</v>
+      </c>
+      <c r="AR206">
+        <v>1.33</v>
+      </c>
+      <c r="AS206">
+        <v>1.51</v>
+      </c>
+      <c r="AT206">
+        <v>2.84</v>
+      </c>
+      <c r="AU206">
+        <v>0</v>
+      </c>
+      <c r="AV206">
+        <v>7</v>
+      </c>
+      <c r="AW206">
+        <v>4</v>
+      </c>
+      <c r="AX206">
+        <v>11</v>
+      </c>
+      <c r="AY206">
+        <v>4</v>
+      </c>
+      <c r="AZ206">
+        <v>18</v>
+      </c>
+      <c r="BA206">
+        <v>4</v>
+      </c>
+      <c r="BB206">
+        <v>6</v>
+      </c>
+      <c r="BC206">
+        <v>10</v>
+      </c>
+      <c r="BD206">
+        <v>1.96</v>
+      </c>
+      <c r="BE206">
+        <v>6.75</v>
+      </c>
+      <c r="BF206">
+        <v>1.9</v>
+      </c>
+      <c r="BG206">
+        <v>1.16</v>
+      </c>
+      <c r="BH206">
+        <v>4.4</v>
+      </c>
+      <c r="BI206">
+        <v>1.29</v>
+      </c>
+      <c r="BJ206">
+        <v>3.2</v>
+      </c>
+      <c r="BK206">
+        <v>1.48</v>
+      </c>
+      <c r="BL206">
+        <v>2.43</v>
+      </c>
+      <c r="BM206">
+        <v>1.74</v>
+      </c>
+      <c r="BN206">
+        <v>1.95</v>
+      </c>
+      <c r="BO206">
+        <v>2.15</v>
+      </c>
+      <c r="BP206">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7296734</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45571.33333333334</v>
+      </c>
+      <c r="F207">
+        <v>26</v>
+      </c>
+      <c r="G207" t="s">
+        <v>73</v>
+      </c>
+      <c r="H207" t="s">
+        <v>71</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>226</v>
+      </c>
+      <c r="P207" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q207">
+        <v>2.75</v>
+      </c>
+      <c r="R207">
+        <v>2.38</v>
+      </c>
+      <c r="S207">
+        <v>3.4</v>
+      </c>
+      <c r="T207">
+        <v>1.29</v>
+      </c>
+      <c r="U207">
+        <v>3.5</v>
+      </c>
+      <c r="V207">
+        <v>2.38</v>
+      </c>
+      <c r="W207">
+        <v>1.53</v>
+      </c>
+      <c r="X207">
+        <v>5.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.14</v>
+      </c>
+      <c r="Z207">
+        <v>2.2</v>
+      </c>
+      <c r="AA207">
+        <v>3.5</v>
+      </c>
+      <c r="AB207">
+        <v>3</v>
+      </c>
+      <c r="AC207">
+        <v>1.01</v>
+      </c>
+      <c r="AD207">
+        <v>13</v>
+      </c>
+      <c r="AE207">
+        <v>1.13</v>
+      </c>
+      <c r="AF207">
+        <v>4.3</v>
+      </c>
+      <c r="AG207">
+        <v>1.67</v>
+      </c>
+      <c r="AH207">
+        <v>2.1</v>
+      </c>
+      <c r="AI207">
+        <v>1.5</v>
+      </c>
+      <c r="AJ207">
+        <v>2.5</v>
+      </c>
+      <c r="AK207">
+        <v>1.38</v>
+      </c>
+      <c r="AL207">
+        <v>1.22</v>
+      </c>
+      <c r="AM207">
+        <v>1.65</v>
+      </c>
+      <c r="AN207">
+        <v>1.58</v>
+      </c>
+      <c r="AO207">
+        <v>1.33</v>
+      </c>
+      <c r="AP207">
+        <v>1.69</v>
+      </c>
+      <c r="AQ207">
+        <v>1.23</v>
+      </c>
+      <c r="AR207">
+        <v>1.7</v>
+      </c>
+      <c r="AS207">
+        <v>1.35</v>
+      </c>
+      <c r="AT207">
+        <v>3.05</v>
+      </c>
+      <c r="AU207">
+        <v>7</v>
+      </c>
+      <c r="AV207">
+        <v>4</v>
+      </c>
+      <c r="AW207">
+        <v>7</v>
+      </c>
+      <c r="AX207">
+        <v>13</v>
+      </c>
+      <c r="AY207">
+        <v>14</v>
+      </c>
+      <c r="AZ207">
+        <v>17</v>
+      </c>
+      <c r="BA207">
+        <v>5</v>
+      </c>
+      <c r="BB207">
+        <v>12</v>
+      </c>
+      <c r="BC207">
+        <v>17</v>
+      </c>
+      <c r="BD207">
+        <v>1.74</v>
+      </c>
+      <c r="BE207">
+        <v>6.75</v>
+      </c>
+      <c r="BF207">
+        <v>2.15</v>
+      </c>
+      <c r="BG207">
+        <v>1.14</v>
+      </c>
+      <c r="BH207">
+        <v>4.8</v>
+      </c>
+      <c r="BI207">
+        <v>1.25</v>
+      </c>
+      <c r="BJ207">
+        <v>3.4</v>
+      </c>
+      <c r="BK207">
+        <v>1.43</v>
+      </c>
+      <c r="BL207">
+        <v>2.55</v>
+      </c>
+      <c r="BM207">
+        <v>1.9</v>
+      </c>
+      <c r="BN207">
+        <v>1.9</v>
+      </c>
+      <c r="BO207">
+        <v>2.05</v>
+      </c>
+      <c r="BP207">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,9 +682,6 @@
     <t>['19', '27', '39', '90+1']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['48', '60', '67']</t>
   </si>
   <si>
@@ -692,6 +689,9 @@
   </si>
   <si>
     <t>['8', '30']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
   <si>
     <t>['13']</t>
@@ -977,6 +977,12 @@
   </si>
   <si>
     <t>['6', '89']</t>
+  </si>
+  <si>
+    <t>['72', '88']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP207"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
         <v>0.46</v>
@@ -3120,7 +3126,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3532,7 +3538,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4559,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
         <v>1.23</v>
@@ -4971,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18">
         <v>0.77</v>
@@ -6210,7 +6216,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR24">
         <v>1</v>
@@ -6622,7 +6628,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -7443,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
         <v>0.6899999999999999</v>
@@ -8267,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8888,7 +8894,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR37">
         <v>1.82</v>
@@ -9506,7 +9512,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR40">
         <v>1.7</v>
@@ -9915,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
         <v>0.6899999999999999</v>
@@ -11975,7 +11981,7 @@
         <v>1.67</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>1.62</v>
@@ -13008,7 +13014,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR57">
         <v>1.67</v>
@@ -13214,7 +13220,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR58">
         <v>1.44</v>
@@ -14035,7 +14041,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
         <v>1.23</v>
@@ -14859,7 +14865,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ66">
         <v>1.08</v>
@@ -16304,7 +16310,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR73">
         <v>1.66</v>
@@ -16510,7 +16516,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR74">
         <v>0.98</v>
@@ -16713,7 +16719,7 @@
         <v>0.2</v>
       </c>
       <c r="AP75">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
         <v>0.46</v>
@@ -18364,7 +18370,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ83">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR83">
         <v>1.38</v>
@@ -19391,7 +19397,7 @@
         <v>1.75</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
         <v>1.92</v>
@@ -20218,7 +20224,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR92">
         <v>0.98</v>
@@ -21451,10 +21457,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR98">
         <v>1.48</v>
@@ -23717,7 +23723,7 @@
         <v>0.33</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
         <v>0.54</v>
@@ -24544,7 +24550,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -25159,7 +25165,7 @@
         <v>1.67</v>
       </c>
       <c r="AP116">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116">
         <v>1.92</v>
@@ -25780,7 +25786,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ119">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR119">
         <v>1.65</v>
@@ -27013,7 +27019,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ125">
         <v>1.08</v>
@@ -27840,7 +27846,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR129">
         <v>1.56</v>
@@ -28043,7 +28049,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -30312,7 +30318,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ141">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR141">
         <v>1.67</v>
@@ -30515,7 +30521,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
         <v>1.08</v>
@@ -31136,7 +31142,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ145">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR145">
         <v>1.55</v>
@@ -31545,7 +31551,7 @@
         <v>1.22</v>
       </c>
       <c r="AP147">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
         <v>1</v>
@@ -33196,7 +33202,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ155">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR155">
         <v>1.25</v>
@@ -33608,7 +33614,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ157">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR157">
         <v>1.72</v>
@@ -34017,7 +34023,7 @@
         <v>0.9</v>
       </c>
       <c r="AP159">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -35459,7 +35465,7 @@
         <v>1.8</v>
       </c>
       <c r="AP166">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ166">
         <v>1.62</v>
@@ -36286,7 +36292,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ170">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR170">
         <v>1.59</v>
@@ -36901,7 +36907,7 @@
         <v>1.1</v>
       </c>
       <c r="AP173">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ173">
         <v>1</v>
@@ -37110,7 +37116,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ174">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR174">
         <v>1.44</v>
@@ -37313,7 +37319,7 @@
         <v>1.2</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ175">
         <v>1.23</v>
@@ -39991,10 +39997,10 @@
         <v>1.18</v>
       </c>
       <c r="AP188">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ188">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR188">
         <v>1.49</v>
@@ -40200,7 +40206,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ189">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR189">
         <v>1.51</v>
@@ -40403,7 +40409,7 @@
         <v>0.45</v>
       </c>
       <c r="AP190">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ190">
         <v>0.54</v>
@@ -42764,7 +42770,7 @@
         <v>69</v>
       </c>
       <c r="E202" s="2">
-        <v>45568.875</v>
+        <v>45569.58333333334</v>
       </c>
       <c r="F202">
         <v>26</v>
@@ -42890,22 +42896,22 @@
         <v>2.61</v>
       </c>
       <c r="AU202">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW202">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX202">
         <v>7</v>
       </c>
       <c r="AY202">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ202">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA202">
         <v>5</v>
@@ -42961,7 +42967,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>7296739</v>
+        <v>7296737</v>
       </c>
       <c r="C203" t="s">
         <v>68</v>
@@ -42970,16 +42976,16 @@
         <v>69</v>
       </c>
       <c r="E203" s="2">
-        <v>45569.875</v>
+        <v>45570.33333333334</v>
       </c>
       <c r="F203">
         <v>26</v>
       </c>
       <c r="G203" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H203" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -42991,175 +42997,175 @@
         <v>1</v>
       </c>
       <c r="L203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M203">
         <v>1</v>
       </c>
       <c r="N203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O203" t="s">
         <v>222</v>
       </c>
       <c r="P203" t="s">
-        <v>313</v>
+        <v>92</v>
       </c>
       <c r="Q203">
-        <v>3.05</v>
+        <v>2.15</v>
       </c>
       <c r="R203">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="S203">
-        <v>3.18</v>
+        <v>4.5</v>
       </c>
       <c r="T203">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U203">
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
       <c r="V203">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="W203">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X203">
-        <v>5.9</v>
+        <v>5.15</v>
       </c>
       <c r="Y203">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z203">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="AA203">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB203">
-        <v>2.38</v>
+        <v>4.2</v>
       </c>
       <c r="AC203">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD203">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE203">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF203">
-        <v>3.84</v>
+        <v>4.5</v>
       </c>
       <c r="AG203">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AH203">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="AI203">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AJ203">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AK203">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="AL203">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AM203">
-        <v>1.51</v>
+        <v>2.15</v>
       </c>
       <c r="AN203">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="AO203">
         <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>1.23</v>
+        <v>2.15</v>
       </c>
       <c r="AQ203">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="AR203">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="AS203">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AT203">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="AU203">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV203">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW203">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX203">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY203">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ203">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA203">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB203">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC203">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD203">
-        <v>1.97</v>
+        <v>1.64</v>
       </c>
       <c r="BE203">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF203">
-        <v>1.9</v>
+        <v>2.33</v>
       </c>
       <c r="BG203">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="BH203">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="BI203">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BJ203">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="BK203">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="BL203">
-        <v>2.12</v>
+        <v>2.33</v>
       </c>
       <c r="BM203">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="BN203">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BO203">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="BP203">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="204" spans="1:68">
@@ -43167,7 +43173,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>7296737</v>
+        <v>7296735</v>
       </c>
       <c r="C204" t="s">
         <v>68</v>
@@ -43176,31 +43182,31 @@
         <v>69</v>
       </c>
       <c r="E204" s="2">
-        <v>45569.875</v>
+        <v>45570.33333333334</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G204" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H204" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N204">
         <v>4</v>
@@ -43209,163 +43215,163 @@
         <v>223</v>
       </c>
       <c r="P204" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q204">
-        <v>2.15</v>
+        <v>4.07</v>
       </c>
       <c r="R204">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="S204">
-        <v>4.5</v>
+        <v>2.61</v>
       </c>
       <c r="T204">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="U204">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="V204">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W204">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="X204">
-        <v>5.15</v>
+        <v>6.7</v>
       </c>
       <c r="Y204">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="Z204">
-        <v>1.62</v>
+        <v>3.4</v>
       </c>
       <c r="AA204">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AB204">
-        <v>4.2</v>
+        <v>1.91</v>
       </c>
       <c r="AC204">
         <v>1.03</v>
       </c>
       <c r="AD204">
+        <v>9</v>
+      </c>
+      <c r="AE204">
+        <v>1.22</v>
+      </c>
+      <c r="AF204">
+        <v>3.35</v>
+      </c>
+      <c r="AG204">
+        <v>1.85</v>
+      </c>
+      <c r="AH204">
+        <v>1.92</v>
+      </c>
+      <c r="AI204">
+        <v>1.71</v>
+      </c>
+      <c r="AJ204">
+        <v>2.02</v>
+      </c>
+      <c r="AK204">
+        <v>1.79</v>
+      </c>
+      <c r="AL204">
+        <v>1.28</v>
+      </c>
+      <c r="AM204">
+        <v>1.26</v>
+      </c>
+      <c r="AN204">
+        <v>1.5</v>
+      </c>
+      <c r="AO204">
+        <v>2.08</v>
+      </c>
+      <c r="AP204">
+        <v>1.62</v>
+      </c>
+      <c r="AQ204">
+        <v>1.92</v>
+      </c>
+      <c r="AR204">
+        <v>1.32</v>
+      </c>
+      <c r="AS204">
+        <v>1.47</v>
+      </c>
+      <c r="AT204">
+        <v>2.79</v>
+      </c>
+      <c r="AU204">
         <v>10</v>
       </c>
-      <c r="AE204">
-        <v>1.18</v>
-      </c>
-      <c r="AF204">
-        <v>4.5</v>
-      </c>
-      <c r="AG204">
-        <v>1.55</v>
-      </c>
-      <c r="AH204">
-        <v>2.3</v>
-      </c>
-      <c r="AI204">
-        <v>1.53</v>
-      </c>
-      <c r="AJ204">
-        <v>2.25</v>
-      </c>
-      <c r="AK204">
-        <v>1.15</v>
-      </c>
-      <c r="AL204">
-        <v>1.18</v>
-      </c>
-      <c r="AM204">
-        <v>2.15</v>
-      </c>
-      <c r="AN204">
-        <v>2.08</v>
-      </c>
-      <c r="AO204">
-        <v>0.5</v>
-      </c>
-      <c r="AP204">
-        <v>2.15</v>
-      </c>
-      <c r="AQ204">
-        <v>0.46</v>
-      </c>
-      <c r="AR204">
-        <v>1.41</v>
-      </c>
-      <c r="AS204">
-        <v>1.59</v>
-      </c>
-      <c r="AT204">
-        <v>3</v>
-      </c>
-      <c r="AU204">
-        <v>-1</v>
-      </c>
       <c r="AV204">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW204">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX204">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY204">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ204">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA204">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB204">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC204">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD204">
-        <v>1.64</v>
+        <v>2.23</v>
       </c>
       <c r="BE204">
         <v>6.75</v>
       </c>
       <c r="BF204">
-        <v>2.33</v>
+        <v>1.68</v>
       </c>
       <c r="BG204">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH204">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BI204">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BJ204">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BK204">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="BL204">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BM204">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="BN204">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BO204">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="BP204">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="205" spans="1:68">
@@ -43373,7 +43379,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>7296735</v>
+        <v>7296733</v>
       </c>
       <c r="C205" t="s">
         <v>68</v>
@@ -43382,166 +43388,166 @@
         <v>69</v>
       </c>
       <c r="E205" s="2">
-        <v>45569.875</v>
+        <v>45570.41666666666</v>
       </c>
       <c r="F205">
         <v>26</v>
       </c>
       <c r="G205" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H205" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I205">
         <v>2</v>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
         <v>2</v>
       </c>
-      <c r="L205">
-        <v>4</v>
-      </c>
       <c r="M205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O205" t="s">
         <v>224</v>
       </c>
       <c r="P205" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Q205">
-        <v>4.07</v>
+        <v>3.75</v>
       </c>
       <c r="R205">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="S205">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="T205">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="U205">
-        <v>3.12</v>
+        <v>3.22</v>
       </c>
       <c r="V205">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="W205">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="X205">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y205">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="Z205">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AA205">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB205">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC205">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD205">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE205">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AF205">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="AG205">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AH205">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AI205">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AJ205">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="AK205">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AL205">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM205">
         <v>1.26</v>
       </c>
       <c r="AN205">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO205">
-        <v>2.08</v>
+        <v>1.33</v>
       </c>
       <c r="AP205">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ205">
-        <v>1.92</v>
+        <v>1.23</v>
       </c>
       <c r="AR205">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS205">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT205">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="AU205">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV205">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW205">
         <v>4</v>
       </c>
       <c r="AX205">
+        <v>13</v>
+      </c>
+      <c r="AY205">
+        <v>7</v>
+      </c>
+      <c r="AZ205">
+        <v>21</v>
+      </c>
+      <c r="BA205">
         <v>4</v>
       </c>
-      <c r="AY205">
+      <c r="BB205">
+        <v>6</v>
+      </c>
+      <c r="BC205">
         <v>10</v>
       </c>
-      <c r="AZ205">
-        <v>8</v>
-      </c>
-      <c r="BA205">
-        <v>2</v>
-      </c>
-      <c r="BB205">
-        <v>4</v>
-      </c>
-      <c r="BC205">
-        <v>6</v>
-      </c>
       <c r="BD205">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="BE205">
         <v>6.75</v>
       </c>
       <c r="BF205">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="BG205">
         <v>1.16</v>
@@ -43553,25 +43559,25 @@
         <v>1.29</v>
       </c>
       <c r="BJ205">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="BK205">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BL205">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="BM205">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="BN205">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BO205">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="BP205">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="206" spans="1:68">
@@ -43579,7 +43585,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>7296733</v>
+        <v>7296739</v>
       </c>
       <c r="C206" t="s">
         <v>68</v>
@@ -43588,49 +43594,49 @@
         <v>69</v>
       </c>
       <c r="E206" s="2">
-        <v>45569.875</v>
+        <v>45570.41666666666</v>
       </c>
       <c r="F206">
         <v>26</v>
       </c>
       <c r="G206" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H206" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
         <v>2</v>
-      </c>
-      <c r="J206">
-        <v>1</v>
-      </c>
-      <c r="K206">
-        <v>3</v>
-      </c>
-      <c r="L206">
-        <v>2</v>
-      </c>
-      <c r="M206">
-        <v>1</v>
-      </c>
-      <c r="N206">
-        <v>3</v>
       </c>
       <c r="O206" t="s">
         <v>225</v>
       </c>
       <c r="P206" t="s">
-        <v>108</v>
+        <v>313</v>
       </c>
       <c r="Q206">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="R206">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="S206">
-        <v>2.5</v>
+        <v>3.18</v>
       </c>
       <c r="T206">
         <v>1.32</v>
@@ -43651,13 +43657,13 @@
         <v>1.11</v>
       </c>
       <c r="Z206">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AA206">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB206">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="AC206">
         <v>1.01</v>
@@ -43669,115 +43675,115 @@
         <v>1.17</v>
       </c>
       <c r="AF206">
-        <v>4.5</v>
+        <v>3.84</v>
       </c>
       <c r="AG206">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AH206">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AI206">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AJ206">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="AK206">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="AL206">
+        <v>1.27</v>
+      </c>
+      <c r="AM206">
+        <v>1.51</v>
+      </c>
+      <c r="AN206">
         <v>1.25</v>
       </c>
-      <c r="AM206">
-        <v>1.26</v>
-      </c>
-      <c r="AN206">
-        <v>1.33</v>
-      </c>
       <c r="AO206">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP206">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AQ206">
-        <v>1.23</v>
+        <v>0.54</v>
       </c>
       <c r="AR206">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AS206">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AT206">
-        <v>2.84</v>
+        <v>2.48</v>
       </c>
       <c r="AU206">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AV206">
+        <v>13</v>
+      </c>
+      <c r="AW206">
+        <v>5</v>
+      </c>
+      <c r="AX206">
+        <v>3</v>
+      </c>
+      <c r="AY206">
+        <v>17</v>
+      </c>
+      <c r="AZ206">
+        <v>16</v>
+      </c>
+      <c r="BA206">
         <v>7</v>
       </c>
-      <c r="AW206">
-        <v>4</v>
-      </c>
-      <c r="AX206">
-        <v>11</v>
-      </c>
-      <c r="AY206">
-        <v>4</v>
-      </c>
-      <c r="AZ206">
-        <v>18</v>
-      </c>
-      <c r="BA206">
-        <v>4</v>
-      </c>
       <c r="BB206">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BC206">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BD206">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="BE206">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF206">
         <v>1.9</v>
       </c>
       <c r="BG206">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="BH206">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="BI206">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="BJ206">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="BK206">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="BL206">
-        <v>2.43</v>
+        <v>2.12</v>
       </c>
       <c r="BM206">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="BN206">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="BO206">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="BP206">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="207" spans="1:68">
@@ -43794,7 +43800,7 @@
         <v>69</v>
       </c>
       <c r="E207" s="2">
-        <v>45571.33333333334</v>
+        <v>45570.875</v>
       </c>
       <c r="F207">
         <v>26</v>
@@ -43920,22 +43926,22 @@
         <v>3.05</v>
       </c>
       <c r="AU207">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV207">
         <v>4</v>
       </c>
       <c r="AW207">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX207">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AY207">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ207">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BA207">
         <v>5</v>
@@ -43984,6 +43990,418 @@
       </c>
       <c r="BP207">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7296736</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45571.41666666666</v>
+      </c>
+      <c r="F208">
+        <v>26</v>
+      </c>
+      <c r="G208" t="s">
+        <v>70</v>
+      </c>
+      <c r="H208" t="s">
+        <v>81</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>107</v>
+      </c>
+      <c r="P208" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q208">
+        <v>4.5</v>
+      </c>
+      <c r="R208">
+        <v>2.2</v>
+      </c>
+      <c r="S208">
+        <v>2.5</v>
+      </c>
+      <c r="T208">
+        <v>1.4</v>
+      </c>
+      <c r="U208">
+        <v>2.75</v>
+      </c>
+      <c r="V208">
+        <v>2.75</v>
+      </c>
+      <c r="W208">
+        <v>1.4</v>
+      </c>
+      <c r="X208">
+        <v>8</v>
+      </c>
+      <c r="Y208">
+        <v>1.08</v>
+      </c>
+      <c r="Z208">
+        <v>4.2</v>
+      </c>
+      <c r="AA208">
+        <v>3.6</v>
+      </c>
+      <c r="AB208">
+        <v>1.8</v>
+      </c>
+      <c r="AC208">
+        <v>1.02</v>
+      </c>
+      <c r="AD208">
+        <v>10</v>
+      </c>
+      <c r="AE208">
+        <v>1.25</v>
+      </c>
+      <c r="AF208">
+        <v>3.6</v>
+      </c>
+      <c r="AG208">
+        <v>1.85</v>
+      </c>
+      <c r="AH208">
+        <v>1.85</v>
+      </c>
+      <c r="AI208">
+        <v>1.8</v>
+      </c>
+      <c r="AJ208">
+        <v>1.95</v>
+      </c>
+      <c r="AK208">
+        <v>1.91</v>
+      </c>
+      <c r="AL208">
+        <v>1.26</v>
+      </c>
+      <c r="AM208">
+        <v>1.23</v>
+      </c>
+      <c r="AN208">
+        <v>1.5</v>
+      </c>
+      <c r="AO208">
+        <v>1.67</v>
+      </c>
+      <c r="AP208">
+        <v>1.38</v>
+      </c>
+      <c r="AQ208">
+        <v>1.77</v>
+      </c>
+      <c r="AR208">
+        <v>1.49</v>
+      </c>
+      <c r="AS208">
+        <v>1.29</v>
+      </c>
+      <c r="AT208">
+        <v>2.78</v>
+      </c>
+      <c r="AU208">
+        <v>6</v>
+      </c>
+      <c r="AV208">
+        <v>11</v>
+      </c>
+      <c r="AW208">
+        <v>4</v>
+      </c>
+      <c r="AX208">
+        <v>9</v>
+      </c>
+      <c r="AY208">
+        <v>10</v>
+      </c>
+      <c r="AZ208">
+        <v>20</v>
+      </c>
+      <c r="BA208">
+        <v>3</v>
+      </c>
+      <c r="BB208">
+        <v>1</v>
+      </c>
+      <c r="BC208">
+        <v>4</v>
+      </c>
+      <c r="BD208">
+        <v>3.05</v>
+      </c>
+      <c r="BE208">
+        <v>7</v>
+      </c>
+      <c r="BF208">
+        <v>1.38</v>
+      </c>
+      <c r="BG208">
+        <v>1.22</v>
+      </c>
+      <c r="BH208">
+        <v>3.7</v>
+      </c>
+      <c r="BI208">
+        <v>1.38</v>
+      </c>
+      <c r="BJ208">
+        <v>2.7</v>
+      </c>
+      <c r="BK208">
+        <v>1.64</v>
+      </c>
+      <c r="BL208">
+        <v>2.1</v>
+      </c>
+      <c r="BM208">
+        <v>2</v>
+      </c>
+      <c r="BN208">
+        <v>1.8</v>
+      </c>
+      <c r="BO208">
+        <v>2.5</v>
+      </c>
+      <c r="BP208">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7296738</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45571.41666666666</v>
+      </c>
+      <c r="F209">
+        <v>26</v>
+      </c>
+      <c r="G209" t="s">
+        <v>84</v>
+      </c>
+      <c r="H209" t="s">
+        <v>77</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>104</v>
+      </c>
+      <c r="P209" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q209">
+        <v>3.75</v>
+      </c>
+      <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>2.63</v>
+      </c>
+      <c r="T209">
+        <v>1.36</v>
+      </c>
+      <c r="U209">
+        <v>3</v>
+      </c>
+      <c r="V209">
+        <v>2.63</v>
+      </c>
+      <c r="W209">
+        <v>1.44</v>
+      </c>
+      <c r="X209">
+        <v>7</v>
+      </c>
+      <c r="Y209">
+        <v>1.1</v>
+      </c>
+      <c r="Z209">
+        <v>3.25</v>
+      </c>
+      <c r="AA209">
+        <v>3.3</v>
+      </c>
+      <c r="AB209">
+        <v>1.95</v>
+      </c>
+      <c r="AC209">
+        <v>1.02</v>
+      </c>
+      <c r="AD209">
+        <v>10</v>
+      </c>
+      <c r="AE209">
+        <v>1.22</v>
+      </c>
+      <c r="AF209">
+        <v>3.8</v>
+      </c>
+      <c r="AG209">
+        <v>1.73</v>
+      </c>
+      <c r="AH209">
+        <v>1.91</v>
+      </c>
+      <c r="AI209">
+        <v>1.65</v>
+      </c>
+      <c r="AJ209">
+        <v>2.2</v>
+      </c>
+      <c r="AK209">
+        <v>1.73</v>
+      </c>
+      <c r="AL209">
+        <v>1.25</v>
+      </c>
+      <c r="AM209">
+        <v>1.3</v>
+      </c>
+      <c r="AN209">
+        <v>1.42</v>
+      </c>
+      <c r="AO209">
+        <v>1.33</v>
+      </c>
+      <c r="AP209">
+        <v>1.38</v>
+      </c>
+      <c r="AQ209">
+        <v>1.31</v>
+      </c>
+      <c r="AR209">
+        <v>1.49</v>
+      </c>
+      <c r="AS209">
+        <v>1.92</v>
+      </c>
+      <c r="AT209">
+        <v>3.41</v>
+      </c>
+      <c r="AU209">
+        <v>5</v>
+      </c>
+      <c r="AV209">
+        <v>2</v>
+      </c>
+      <c r="AW209">
+        <v>6</v>
+      </c>
+      <c r="AX209">
+        <v>4</v>
+      </c>
+      <c r="AY209">
+        <v>11</v>
+      </c>
+      <c r="AZ209">
+        <v>6</v>
+      </c>
+      <c r="BA209">
+        <v>5</v>
+      </c>
+      <c r="BB209">
+        <v>5</v>
+      </c>
+      <c r="BC209">
+        <v>10</v>
+      </c>
+      <c r="BD209">
+        <v>2.53</v>
+      </c>
+      <c r="BE209">
+        <v>8.5</v>
+      </c>
+      <c r="BF209">
+        <v>1.69</v>
+      </c>
+      <c r="BG209">
+        <v>1.18</v>
+      </c>
+      <c r="BH209">
+        <v>4.6</v>
+      </c>
+      <c r="BI209">
+        <v>1.26</v>
+      </c>
+      <c r="BJ209">
+        <v>3.4</v>
+      </c>
+      <c r="BK209">
+        <v>1.54</v>
+      </c>
+      <c r="BL209">
+        <v>2.5</v>
+      </c>
+      <c r="BM209">
+        <v>2</v>
+      </c>
+      <c r="BN209">
+        <v>1.8</v>
+      </c>
+      <c r="BO209">
+        <v>2.08</v>
+      </c>
+      <c r="BP209">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -43800,7 +43800,7 @@
         <v>69</v>
       </c>
       <c r="E207" s="2">
-        <v>45570.875</v>
+        <v>45571.33333333334</v>
       </c>
       <c r="F207">
         <v>26</v>
@@ -43926,22 +43926,22 @@
         <v>3.05</v>
       </c>
       <c r="AU207">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV207">
         <v>4</v>
       </c>
       <c r="AW207">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX207">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AY207">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ207">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA207">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Superettan_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,9 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['13', '27', '54', '90+3']</t>
+  </si>
+  <si>
     <t>['23', '51']</t>
   </si>
   <si>
@@ -983,6 +986,9 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['51', '62']</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1809,7 +1815,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>2.88</v>
@@ -1887,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2096,7 +2102,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ4">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2221,7 +2227,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q5">
         <v>2.5</v>
@@ -2633,7 +2639,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3045,7 +3051,7 @@
         <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3457,7 +3463,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3663,7 +3669,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -4693,7 +4699,7 @@
         <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -5105,7 +5111,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>2.41</v>
@@ -5598,7 +5604,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ21">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5929,7 +5935,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6007,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>1.23</v>
@@ -6135,7 +6141,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q24">
         <v>4.7</v>
@@ -7165,7 +7171,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q29">
         <v>2.45</v>
@@ -7371,7 +7377,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q30">
         <v>2.45</v>
@@ -7989,7 +7995,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -8607,7 +8613,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8688,7 +8694,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ36">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.08</v>
@@ -8813,7 +8819,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q37">
         <v>3.98</v>
@@ -8891,7 +8897,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1.31</v>
@@ -9431,7 +9437,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q40">
         <v>3.75</v>
@@ -10255,7 +10261,7 @@
         <v>121</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -11285,7 +11291,7 @@
         <v>90</v>
       </c>
       <c r="P49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q49">
         <v>3.25</v>
@@ -11363,7 +11369,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.92</v>
@@ -11697,7 +11703,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>3.3</v>
@@ -11903,7 +11909,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>3.61</v>
@@ -12109,7 +12115,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q53">
         <v>2.45</v>
@@ -12521,7 +12527,7 @@
         <v>129</v>
       </c>
       <c r="P55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q55">
         <v>2.66</v>
@@ -12602,7 +12608,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ55">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.58</v>
@@ -12727,7 +12733,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -13139,7 +13145,7 @@
         <v>132</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q58">
         <v>3.4</v>
@@ -13963,7 +13969,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14169,7 +14175,7 @@
         <v>136</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>2.08</v>
@@ -14581,7 +14587,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q65">
         <v>2.7</v>
@@ -14868,7 +14874,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ66">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -14993,7 +14999,7 @@
         <v>138</v>
       </c>
       <c r="P67" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>2.32</v>
@@ -15199,7 +15205,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>2.32</v>
@@ -15405,7 +15411,7 @@
         <v>90</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>2.15</v>
@@ -15611,7 +15617,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -15689,7 +15695,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>1.08</v>
@@ -15817,7 +15823,7 @@
         <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>2.88</v>
@@ -16435,7 +16441,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q74">
         <v>4.7</v>
@@ -16641,7 +16647,7 @@
         <v>142</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q75">
         <v>2.65</v>
@@ -16847,7 +16853,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>3.4</v>
@@ -17053,7 +17059,7 @@
         <v>144</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -17465,7 +17471,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>2.55</v>
@@ -18495,7 +18501,7 @@
         <v>90</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>2.5</v>
@@ -18576,7 +18582,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ84">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.75</v>
@@ -18907,7 +18913,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q86">
         <v>2.85</v>
@@ -19191,7 +19197,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>0.6899999999999999</v>
@@ -19319,7 +19325,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q88">
         <v>3.4</v>
@@ -19525,7 +19531,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>2.26</v>
@@ -19809,7 +19815,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
         <v>0.6899999999999999</v>
@@ -19937,7 +19943,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20143,7 +20149,7 @@
         <v>90</v>
       </c>
       <c r="P92" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>4.75</v>
@@ -21379,7 +21385,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q98">
         <v>3.76</v>
@@ -21997,7 +22003,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q101">
         <v>2.32</v>
@@ -22203,7 +22209,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>4.06</v>
@@ -22284,7 +22290,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ102">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>0.86</v>
@@ -22821,7 +22827,7 @@
         <v>164</v>
       </c>
       <c r="P105" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q105">
         <v>2.4</v>
@@ -23233,7 +23239,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23520,7 +23526,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ108">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.94</v>
@@ -23645,7 +23651,7 @@
         <v>167</v>
       </c>
       <c r="P109" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23851,7 +23857,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>2.38</v>
@@ -24057,7 +24063,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24341,7 +24347,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>0.77</v>
@@ -24469,7 +24475,7 @@
         <v>170</v>
       </c>
       <c r="P113" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>4.4</v>
@@ -24675,7 +24681,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -25087,7 +25093,7 @@
         <v>90</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25499,7 +25505,7 @@
         <v>173</v>
       </c>
       <c r="P118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -26117,7 +26123,7 @@
         <v>176</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26323,7 +26329,7 @@
         <v>177</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>3.1</v>
@@ -26404,7 +26410,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.51</v>
@@ -26529,7 +26535,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q123">
         <v>2.3</v>
@@ -26941,7 +26947,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>3.1</v>
@@ -27147,7 +27153,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>2.1</v>
@@ -27559,7 +27565,7 @@
         <v>182</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27637,7 +27643,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27765,7 +27771,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -28177,7 +28183,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>2.69</v>
@@ -28383,7 +28389,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q132">
         <v>2.3</v>
@@ -28795,7 +28801,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29001,7 +29007,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29207,7 +29213,7 @@
         <v>86</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29413,7 +29419,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q137">
         <v>2.3</v>
@@ -29825,7 +29831,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q139">
         <v>2.6</v>
@@ -30031,7 +30037,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q140">
         <v>2.48</v>
@@ -30443,7 +30449,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30524,7 +30530,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.53</v>
@@ -30649,7 +30655,7 @@
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>2.8</v>
@@ -30727,7 +30733,7 @@
         <v>0.63</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ143">
         <v>0.54</v>
@@ -31061,7 +31067,7 @@
         <v>126</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>3.1</v>
@@ -32091,7 +32097,7 @@
         <v>193</v>
       </c>
       <c r="P150" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32503,7 +32509,7 @@
         <v>195</v>
       </c>
       <c r="P152" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q152">
         <v>2.88</v>
@@ -32915,7 +32921,7 @@
         <v>197</v>
       </c>
       <c r="P154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q154">
         <v>1.9</v>
@@ -33533,7 +33539,7 @@
         <v>163</v>
       </c>
       <c r="P157" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q157">
         <v>3.3</v>
@@ -33611,7 +33617,7 @@
         <v>1.22</v>
       </c>
       <c r="AP157">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ157">
         <v>1.77</v>
@@ -33739,7 +33745,7 @@
         <v>200</v>
       </c>
       <c r="P158" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q158">
         <v>1.92</v>
@@ -34151,7 +34157,7 @@
         <v>202</v>
       </c>
       <c r="P160" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q160">
         <v>3.1</v>
@@ -34357,7 +34363,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q161">
         <v>2.88</v>
@@ -35181,7 +35187,7 @@
         <v>205</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q165">
         <v>2.2</v>
@@ -35262,7 +35268,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ165">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>2.15</v>
@@ -35387,7 +35393,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>3.4</v>
@@ -35593,7 +35599,7 @@
         <v>90</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35799,7 +35805,7 @@
         <v>90</v>
       </c>
       <c r="P168" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q168">
         <v>3.5</v>
@@ -36005,7 +36011,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q169">
         <v>2.2</v>
@@ -36829,7 +36835,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q173">
         <v>2.63</v>
@@ -37035,7 +37041,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q174">
         <v>3.75</v>
@@ -37447,7 +37453,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q176">
         <v>1.73</v>
@@ -37653,7 +37659,7 @@
         <v>209</v>
       </c>
       <c r="P177" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q177">
         <v>3.15</v>
@@ -38065,7 +38071,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q179">
         <v>1.92</v>
@@ -38271,7 +38277,7 @@
         <v>212</v>
       </c>
       <c r="P180" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38764,7 +38770,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ182">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR182">
         <v>1.7</v>
@@ -39095,7 +39101,7 @@
         <v>214</v>
       </c>
       <c r="P184" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>3.3</v>
@@ -39173,7 +39179,7 @@
         <v>1.91